--- a/src/main/resources/script/db/init-data/devops_service/hzero_platform/hzero-menu-user-role-label.xlsx
+++ b/src/main/resources/script/db/init-data/devops_service/hzero_platform/hzero-menu-user-role-label.xlsx
@@ -16,6 +16,7 @@
     <sheet name="菜单SAAS版" r:id="rId5" sheetId="2"/>
     <sheet name="菜单权限" r:id="rId6" sheetId="3"/>
     <sheet name="菜单标签数据" r:id="rId7" sheetId="4"/>
+    <sheet name="角色" r:id="rId8" sheetId="5"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0">README!$D$1:$D$4</definedName>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2663" uniqueCount="979">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3651" uniqueCount="1254">
   <si>
     <r>
       <rPr>
@@ -1997,7 +1998,7 @@
     <t>公式=外键引用</t>
   </si>
   <si>
-    <t>2020-05-31</t>
+    <t>2020-06-01</t>
   </si>
   <si>
     <t>hzero</t>
@@ -4754,6 +4755,24 @@
     <t>IAM_SERVICE</t>
   </si>
   <si>
+    <t>iam_label-25</t>
+  </si>
+  <si>
+    <t>TEST_SERVICE</t>
+  </si>
+  <si>
+    <t>测试服务菜单</t>
+  </si>
+  <si>
+    <t>iam_label-26</t>
+  </si>
+  <si>
+    <t>KNOWLWDGE_SERVICE</t>
+  </si>
+  <si>
+    <t>知识服务菜单</t>
+  </si>
+  <si>
     <t>标签关系表</t>
   </si>
   <si>
@@ -4782,6 +4801,813 @@
   </si>
   <si>
     <t>A</t>
+  </si>
+  <si>
+    <t>角色</t>
+  </si>
+  <si>
+    <t>iam_role</t>
+  </si>
+  <si>
+    <t>h_inherit_role_id</t>
+  </si>
+  <si>
+    <t>#h_parent_role_id</t>
+  </si>
+  <si>
+    <t>#h_parent_role_assign_level</t>
+  </si>
+  <si>
+    <t>h_parent_role_assign_level_val</t>
+  </si>
+  <si>
+    <t>is_enabled</t>
+  </si>
+  <si>
+    <t>is_modified</t>
+  </si>
+  <si>
+    <t>is_enable_forbidden</t>
+  </si>
+  <si>
+    <t>is_built_in</t>
+  </si>
+  <si>
+    <t>is_assignable</t>
+  </si>
+  <si>
+    <t>h_inherit_level_path</t>
+  </si>
+  <si>
+    <t>#created_by_tenant_id</t>
+  </si>
+  <si>
+    <t>tpl_role_name:zh_CN</t>
+  </si>
+  <si>
+    <t>tpl_role_name:en_US</t>
+  </si>
+  <si>
+    <t>iam_role-8</t>
+  </si>
+  <si>
+    <t>平台管理员</t>
+  </si>
+  <si>
+    <t>Site Administrator</t>
+  </si>
+  <si>
+    <t>role/site/default/administrator</t>
+  </si>
+  <si>
+    <t>abcf</t>
+  </si>
+  <si>
+    <t>site</t>
+  </si>
+  <si>
+    <t>iam_role-9</t>
+  </si>
+  <si>
+    <t>租户管理员</t>
+  </si>
+  <si>
+    <t>Organization Administrator</t>
+  </si>
+  <si>
+    <t>role/organization/default/administrator</t>
+  </si>
+  <si>
+    <t>abce</t>
+  </si>
+  <si>
+    <t>iam_role-10</t>
+  </si>
+  <si>
+    <t>租户管理员模板</t>
+  </si>
+  <si>
+    <t>Tenant admin template</t>
+  </si>
+  <si>
+    <t>role/organization/default/template/administrator</t>
+  </si>
+  <si>
+    <t>role/organization/default/administrator|HZERO.T.role/organization/default/template/administrator</t>
+  </si>
+  <si>
+    <t>HZERO.T.role/organization/default/template/administrator</t>
+  </si>
+  <si>
+    <t>Tenant Admin</t>
+  </si>
+  <si>
+    <t>iam_role-11</t>
+  </si>
+  <si>
+    <t>租户成员模板</t>
+  </si>
+  <si>
+    <t>Organization Member template</t>
+  </si>
+  <si>
+    <t>role/organization/default/template/member</t>
+  </si>
+  <si>
+    <t>role/organization/default/administrator|HZERO.T.role/organization/default/template/organization-member</t>
+  </si>
+  <si>
+    <t>HZERO.T.role/organization/default/template/organization-member</t>
+  </si>
+  <si>
+    <t>租户成员</t>
+  </si>
+  <si>
+    <t>Organization Member</t>
+  </si>
+  <si>
+    <t>iam_role-12</t>
+  </si>
+  <si>
+    <t>项目管理员模板</t>
+  </si>
+  <si>
+    <t>Project Admin template</t>
+  </si>
+  <si>
+    <t>role/project/default/template/project-admin</t>
+  </si>
+  <si>
+    <t>role/organization/default/administrator|HZERO.T.role/project/default/template/project-admin</t>
+  </si>
+  <si>
+    <t>HZERO.T.role/project/default/template/project-admin</t>
+  </si>
+  <si>
+    <t>项目管理员</t>
+  </si>
+  <si>
+    <t>Project Admin</t>
+  </si>
+  <si>
+    <t>iam_role-13</t>
+  </si>
+  <si>
+    <t>项目成员模板</t>
+  </si>
+  <si>
+    <t>Project member template</t>
+  </si>
+  <si>
+    <t>role/project/default/template/project-member</t>
+  </si>
+  <si>
+    <t>role/organization/default/administrator|HZERO.T.role/project/default/template/project-member</t>
+  </si>
+  <si>
+    <t>HZERO.T.role/project/default/template/project-member</t>
+  </si>
+  <si>
+    <t>项目成员</t>
+  </si>
+  <si>
+    <t>Project member</t>
+  </si>
+  <si>
+    <t>iam_role-14</t>
+  </si>
+  <si>
+    <t>平台开发者</t>
+  </si>
+  <si>
+    <t>Site Developer</t>
+  </si>
+  <si>
+    <t>role/site/default/developer</t>
+  </si>
+  <si>
+    <t>HZERO.T.role/site/default/developer</t>
+  </si>
+  <si>
+    <t>角色权限</t>
+  </si>
+  <si>
+    <t>iam_role_permission</t>
+  </si>
+  <si>
+    <t>#role_id</t>
+  </si>
+  <si>
+    <t>#permission_id</t>
+  </si>
+  <si>
+    <t>h_create_flag</t>
+  </si>
+  <si>
+    <t>h_inherit_flag</t>
+  </si>
+  <si>
+    <t>iam_role_permission-17</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>PS</t>
+  </si>
+  <si>
+    <t>iam_role_permission-18</t>
+  </si>
+  <si>
+    <t>iam_role_permission-19</t>
+  </si>
+  <si>
+    <t>iam_role_permission-20</t>
+  </si>
+  <si>
+    <t>iam_role_permission-21</t>
+  </si>
+  <si>
+    <t>iam_role_permission-22</t>
+  </si>
+  <si>
+    <t>iam_role_permission-23</t>
+  </si>
+  <si>
+    <t>iam_role_permission-24</t>
+  </si>
+  <si>
+    <t>iam_role_permission-25</t>
+  </si>
+  <si>
+    <t>iam_role_permission-26</t>
+  </si>
+  <si>
+    <t>iam_role_permission-27</t>
+  </si>
+  <si>
+    <t>iam_role_permission-28</t>
+  </si>
+  <si>
+    <t>iam_role_permission-29</t>
+  </si>
+  <si>
+    <t>iam_role_permission-30</t>
+  </si>
+  <si>
+    <t>iam_role_permission-31</t>
+  </si>
+  <si>
+    <t>iam_role_permission-32</t>
+  </si>
+  <si>
+    <t>iam_role_permission-33</t>
+  </si>
+  <si>
+    <t>iam_role_permission-34</t>
+  </si>
+  <si>
+    <t>iam_role_permission-35</t>
+  </si>
+  <si>
+    <t>iam_role_permission-36</t>
+  </si>
+  <si>
+    <t>iam_role_permission-37</t>
+  </si>
+  <si>
+    <t>iam_role_permission-38</t>
+  </si>
+  <si>
+    <t>iam_role_permission-39</t>
+  </si>
+  <si>
+    <t>iam_role_permission-40</t>
+  </si>
+  <si>
+    <t>iam_role_permission-41</t>
+  </si>
+  <si>
+    <t>iam_role_permission-42</t>
+  </si>
+  <si>
+    <t>iam_role_permission-43</t>
+  </si>
+  <si>
+    <t>iam_role_permission-44</t>
+  </si>
+  <si>
+    <t>iam_role_permission-45</t>
+  </si>
+  <si>
+    <t>iam_role_permission-46</t>
+  </si>
+  <si>
+    <t>iam_role_permission-47</t>
+  </si>
+  <si>
+    <t>iam_role_permission-48</t>
+  </si>
+  <si>
+    <t>iam_role_permission-49</t>
+  </si>
+  <si>
+    <t>iam_role_permission-50</t>
+  </si>
+  <si>
+    <t>iam_role_permission-51</t>
+  </si>
+  <si>
+    <t>iam_role_permission-52</t>
+  </si>
+  <si>
+    <t>iam_role_permission-53</t>
+  </si>
+  <si>
+    <t>iam_role_permission-54</t>
+  </si>
+  <si>
+    <t>iam_role_permission-55</t>
+  </si>
+  <si>
+    <t>iam_role_permission-56</t>
+  </si>
+  <si>
+    <t>iam_role_permission-57</t>
+  </si>
+  <si>
+    <t>iam_role_permission-58</t>
+  </si>
+  <si>
+    <t>iam_role_permission-59</t>
+  </si>
+  <si>
+    <t>iam_role_permission-60</t>
+  </si>
+  <si>
+    <t>iam_role_permission-61</t>
+  </si>
+  <si>
+    <t>iam_role_permission-62</t>
+  </si>
+  <si>
+    <t>iam_role_permission-63</t>
+  </si>
+  <si>
+    <t>iam_role_permission-64</t>
+  </si>
+  <si>
+    <t>iam_role_permission-65</t>
+  </si>
+  <si>
+    <t>iam_role_permission-66</t>
+  </si>
+  <si>
+    <t>iam_role_permission-67</t>
+  </si>
+  <si>
+    <t>iam_role_permission-68</t>
+  </si>
+  <si>
+    <t>iam_role_permission-69</t>
+  </si>
+  <si>
+    <t>iam_role_permission-70</t>
+  </si>
+  <si>
+    <t>iam_role_permission-71</t>
+  </si>
+  <si>
+    <t>iam_role_permission-72</t>
+  </si>
+  <si>
+    <t>iam_role_permission-73</t>
+  </si>
+  <si>
+    <t>iam_role_permission-74</t>
+  </si>
+  <si>
+    <t>iam_role_permission-75</t>
+  </si>
+  <si>
+    <t>iam_role_permission-76</t>
+  </si>
+  <si>
+    <t>iam_role_permission-77</t>
+  </si>
+  <si>
+    <t>iam_role_permission-78</t>
+  </si>
+  <si>
+    <t>iam_role_permission-79</t>
+  </si>
+  <si>
+    <t>iam_role_permission-80</t>
+  </si>
+  <si>
+    <t>iam_role_permission-81</t>
+  </si>
+  <si>
+    <t>iam_role_permission-82</t>
+  </si>
+  <si>
+    <t>iam_role_permission-83</t>
+  </si>
+  <si>
+    <t>iam_role_permission-84</t>
+  </si>
+  <si>
+    <t>iam_role_permission-85</t>
+  </si>
+  <si>
+    <t>iam_role_permission-86</t>
+  </si>
+  <si>
+    <t>iam_role_permission-87</t>
+  </si>
+  <si>
+    <t>iam_role_permission-88</t>
+  </si>
+  <si>
+    <t>iam_role_permission-89</t>
+  </si>
+  <si>
+    <t>iam_role_permission-90</t>
+  </si>
+  <si>
+    <t>iam_role_permission-91</t>
+  </si>
+  <si>
+    <t>iam_role_permission-92</t>
+  </si>
+  <si>
+    <t>iam_role_permission-93</t>
+  </si>
+  <si>
+    <t>iam_role_permission-94</t>
+  </si>
+  <si>
+    <t>iam_role_permission-95</t>
+  </si>
+  <si>
+    <t>iam_role_permission-96</t>
+  </si>
+  <si>
+    <t>iam_role_permission-97</t>
+  </si>
+  <si>
+    <t>iam_role_permission-98</t>
+  </si>
+  <si>
+    <t>iam_role_permission-99</t>
+  </si>
+  <si>
+    <t>iam_role_permission-100</t>
+  </si>
+  <si>
+    <t>iam_role_permission-101</t>
+  </si>
+  <si>
+    <t>iam_role_permission-102</t>
+  </si>
+  <si>
+    <t>iam_role_permission-103</t>
+  </si>
+  <si>
+    <t>iam_role_permission-104</t>
+  </si>
+  <si>
+    <t>iam_role_permission-105</t>
+  </si>
+  <si>
+    <t>iam_role_permission-106</t>
+  </si>
+  <si>
+    <t>iam_role_permission-107</t>
+  </si>
+  <si>
+    <t>iam_role_permission-108</t>
+  </si>
+  <si>
+    <t>iam_role_permission-109</t>
+  </si>
+  <si>
+    <t>iam_role_permission-110</t>
+  </si>
+  <si>
+    <t>iam_role_permission-111</t>
+  </si>
+  <si>
+    <t>iam_role_permission-112</t>
+  </si>
+  <si>
+    <t>iam_role_permission-113</t>
+  </si>
+  <si>
+    <t>iam_role_permission-114</t>
+  </si>
+  <si>
+    <t>iam_role_permission-115</t>
+  </si>
+  <si>
+    <t>iam_role_permission-116</t>
+  </si>
+  <si>
+    <t>iam_role_permission-117</t>
+  </si>
+  <si>
+    <t>iam_role_permission-118</t>
+  </si>
+  <si>
+    <t>iam_role_permission-119</t>
+  </si>
+  <si>
+    <t>iam_role_permission-120</t>
+  </si>
+  <si>
+    <t>iam_role_permission-121</t>
+  </si>
+  <si>
+    <t>iam_role_permission-122</t>
+  </si>
+  <si>
+    <t>iam_role_permission-123</t>
+  </si>
+  <si>
+    <t>iam_role_permission-124</t>
+  </si>
+  <si>
+    <t>iam_role_permission-125</t>
+  </si>
+  <si>
+    <t>iam_role_permission-126</t>
+  </si>
+  <si>
+    <t>iam_role_permission-127</t>
+  </si>
+  <si>
+    <t>iam_role_permission-128</t>
+  </si>
+  <si>
+    <t>iam_role_permission-129</t>
+  </si>
+  <si>
+    <t>iam_role_permission-130</t>
+  </si>
+  <si>
+    <t>iam_role_permission-131</t>
+  </si>
+  <si>
+    <t>iam_role_permission-132</t>
+  </si>
+  <si>
+    <t>iam_role_permission-133</t>
+  </si>
+  <si>
+    <t>iam_role_permission-134</t>
+  </si>
+  <si>
+    <t>iam_role_permission-135</t>
+  </si>
+  <si>
+    <t>iam_role_permission-136</t>
+  </si>
+  <si>
+    <t>iam_role_permission-137</t>
+  </si>
+  <si>
+    <t>iam_role_permission-138</t>
+  </si>
+  <si>
+    <t>iam_role_permission-139</t>
+  </si>
+  <si>
+    <t>iam_role_permission-140</t>
+  </si>
+  <si>
+    <t>iam_role_permission-141</t>
+  </si>
+  <si>
+    <t>iam_role_permission-142</t>
+  </si>
+  <si>
+    <t>iam_role_permission-143</t>
+  </si>
+  <si>
+    <t>iam_role_permission-144</t>
+  </si>
+  <si>
+    <t>iam_role_permission-145</t>
+  </si>
+  <si>
+    <t>iam_role_permission-146</t>
+  </si>
+  <si>
+    <t>iam_role_permission-147</t>
+  </si>
+  <si>
+    <t>iam_role_permission-148</t>
+  </si>
+  <si>
+    <t>iam_role_permission-149</t>
+  </si>
+  <si>
+    <t>iam_role_permission-150</t>
+  </si>
+  <si>
+    <t>iam_role_permission-151</t>
+  </si>
+  <si>
+    <t>iam_role_permission-152</t>
+  </si>
+  <si>
+    <t>iam_role_permission-153</t>
+  </si>
+  <si>
+    <t>iam_role_permission-154</t>
+  </si>
+  <si>
+    <t>iam_role_permission-155</t>
+  </si>
+  <si>
+    <t>iam_role_permission-156</t>
+  </si>
+  <si>
+    <t>iam_role_permission-157</t>
+  </si>
+  <si>
+    <t>iam_role_permission-158</t>
+  </si>
+  <si>
+    <t>iam_role_permission-159</t>
+  </si>
+  <si>
+    <t>iam_role_permission-160</t>
+  </si>
+  <si>
+    <t>iam_role_permission-161</t>
+  </si>
+  <si>
+    <t>iam_role_permission-162</t>
+  </si>
+  <si>
+    <t>iam_role_permission-163</t>
+  </si>
+  <si>
+    <t>iam_role_permission-164</t>
+  </si>
+  <si>
+    <t>iam_role_permission-165</t>
+  </si>
+  <si>
+    <t>iam_role_permission-166</t>
+  </si>
+  <si>
+    <t>iam_role_permission-167</t>
+  </si>
+  <si>
+    <t>iam_role_permission-168</t>
+  </si>
+  <si>
+    <t>iam_role_permission-169</t>
+  </si>
+  <si>
+    <t>iam_role_permission-170</t>
+  </si>
+  <si>
+    <t>iam_role_permission-171</t>
+  </si>
+  <si>
+    <t>iam_role_permission-172</t>
+  </si>
+  <si>
+    <t>iam_role_permission-173</t>
+  </si>
+  <si>
+    <t>iam_role_permission-174</t>
+  </si>
+  <si>
+    <t>iam_role_permission-175</t>
+  </si>
+  <si>
+    <t>iam_role_permission-176</t>
+  </si>
+  <si>
+    <t>iam_role_permission-177</t>
+  </si>
+  <si>
+    <t>iam_role_permission-178</t>
+  </si>
+  <si>
+    <t>iam_role_permission-179</t>
+  </si>
+  <si>
+    <t>iam_role_permission-180</t>
+  </si>
+  <si>
+    <t>iam_role_permission-181</t>
+  </si>
+  <si>
+    <t>iam_role_permission-182</t>
+  </si>
+  <si>
+    <t>iam_role_permission-183</t>
+  </si>
+  <si>
+    <t>iam_role_permission-184</t>
+  </si>
+  <si>
+    <t>iam_role_permission-185</t>
+  </si>
+  <si>
+    <t>iam_role_permission-186</t>
+  </si>
+  <si>
+    <t>iam_role_permission-187</t>
+  </si>
+  <si>
+    <t>iam_role_permission-188</t>
+  </si>
+  <si>
+    <t>iam_role_permission-189</t>
+  </si>
+  <si>
+    <t>iam_role_permission-190</t>
+  </si>
+  <si>
+    <t>iam_role_permission-191</t>
+  </si>
+  <si>
+    <t>iam_role_permission-192</t>
+  </si>
+  <si>
+    <t>iam_role_permission-193</t>
+  </si>
+  <si>
+    <t>iam_role_permission-194</t>
+  </si>
+  <si>
+    <t>iam_role_permission-195</t>
+  </si>
+  <si>
+    <t>iam_role_permission-196</t>
+  </si>
+  <si>
+    <t>iam_role_permission-197</t>
+  </si>
+  <si>
+    <t>iam_role_permission-198</t>
+  </si>
+  <si>
+    <t>iam_role_permission-199</t>
+  </si>
+  <si>
+    <t>iam_role_permission-200</t>
+  </si>
+  <si>
+    <t>iam_role_permission-201</t>
+  </si>
+  <si>
+    <t>iam_role_permission-202</t>
+  </si>
+  <si>
+    <t>iam_role_permission-203</t>
+  </si>
+  <si>
+    <t>iam_role_permission-204</t>
+  </si>
+  <si>
+    <t>iam_role_permission-205</t>
+  </si>
+  <si>
+    <t>iam_role_permission-206</t>
+  </si>
+  <si>
+    <t>iam_role_permission-207</t>
+  </si>
+  <si>
+    <t>iam_role_permission-208</t>
+  </si>
+  <si>
+    <t>iam_role_permission-209</t>
+  </si>
+  <si>
+    <t>iam_role_permission-210</t>
+  </si>
+  <si>
+    <t>iam_role_permission-211</t>
+  </si>
+  <si>
+    <t>iam_role_permission-212</t>
+  </si>
+  <si>
+    <t>iam_role_permission-213</t>
+  </si>
+  <si>
+    <t>iam_role_permission-214</t>
   </si>
 </sst>
 </file>
@@ -4789,7 +5615,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="0"/>
-  <fonts count="58">
+  <fonts count="77">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -5020,6 +5846,41 @@
     <font>
       <name val="Calibri"/>
       <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="53"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="48"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="42"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
       <color indexed="53"/>
     </font>
     <font>
@@ -5071,6 +5932,66 @@
       <name val="Calibri"/>
       <sz val="11.0"/>
       <color indexed="53"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="48"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="48"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="53"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="48"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="48"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="48"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="53"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="48"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="48"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="48"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -5246,7 +6167,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="72">
+  <cellXfs count="91">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -5353,6 +6274,25 @@
     <xf numFmtId="0" fontId="55" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="56" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="57" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="58" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="59" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="60" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="61" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="62" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="63" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="64" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="65" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="66" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="67" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="68" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="69" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="70" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="71" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="72" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="73" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="74" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="75" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="76" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -5979,13 +6919,13 @@
       <c r="C7" t="s">
         <v>52</v>
       </c>
-      <c r="D7" t="s" s="53">
+      <c r="D7" t="s" s="60">
         <v>53</v>
       </c>
-      <c r="E7" t="s" s="54">
+      <c r="E7" t="s" s="61">
         <v>54</v>
       </c>
-      <c r="F7" t="s" s="55">
+      <c r="F7" t="s" s="62">
         <v>55</v>
       </c>
       <c r="G7" t="s">
@@ -5997,10 +6937,10 @@
       <c r="I7" t="s">
         <v>58</v>
       </c>
-      <c r="J7" t="s" s="56">
+      <c r="J7" t="s" s="63">
         <v>59</v>
       </c>
-      <c r="K7" t="s" s="57">
+      <c r="K7" t="s" s="64">
         <v>60</v>
       </c>
       <c r="L7" t="s">
@@ -6021,7 +6961,7 @@
       <c r="Q7" t="s">
         <v>66</v>
       </c>
-      <c r="R7" t="s" s="58">
+      <c r="R7" t="s" s="65">
         <v>67</v>
       </c>
       <c r="S7" t="s">
@@ -11909,16 +12849,16 @@
       <c r="C7" t="s">
         <v>585</v>
       </c>
-      <c r="D7" t="s" s="59">
+      <c r="D7" t="s" s="66">
         <v>586</v>
       </c>
-      <c r="E7" t="s" s="60">
+      <c r="E7" t="s" s="67">
         <v>54</v>
       </c>
-      <c r="F7" t="s" s="61">
+      <c r="F7" t="s" s="68">
         <v>587</v>
       </c>
-      <c r="G7" t="s" s="62">
+      <c r="G7" t="s" s="69">
         <v>588</v>
       </c>
     </row>
@@ -13909,7 +14849,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:O116"/>
+  <dimension ref="A1:O119"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -13950,16 +14890,16 @@
       <c r="C7" t="s">
         <v>907</v>
       </c>
-      <c r="D7" t="s" s="63">
+      <c r="D7" t="s" s="70">
         <v>908</v>
       </c>
-      <c r="E7" t="s" s="64">
+      <c r="E7" t="s" s="71">
         <v>54</v>
       </c>
-      <c r="F7" t="s" s="65">
+      <c r="F7" t="s" s="72">
         <v>909</v>
       </c>
-      <c r="G7" t="s" s="66">
+      <c r="G7" t="s" s="73">
         <v>910</v>
       </c>
       <c r="H7" t="s">
@@ -14495,1563 +15435,6170 @@
         <v>83</v>
       </c>
     </row>
+    <row r="25">
+      <c r="E25" t="s">
+        <v>969</v>
+      </c>
+      <c r="F25" t="s">
+        <v>970</v>
+      </c>
+      <c r="G25" t="s">
+        <v>921</v>
+      </c>
+      <c r="H25" t="s">
+        <v>83</v>
+      </c>
+      <c r="I25" t="s">
+        <v>929</v>
+      </c>
+      <c r="J25" t="s">
+        <v>971</v>
+      </c>
+      <c r="K25" t="s">
+        <v>971</v>
+      </c>
+      <c r="M25" t="s">
+        <v>86</v>
+      </c>
+      <c r="N25" t="s">
+        <v>86</v>
+      </c>
+      <c r="O25" t="s">
+        <v>83</v>
+      </c>
+    </row>
     <row r="26">
-      <c r="A26" t="s">
+      <c r="E26" t="s">
+        <v>972</v>
+      </c>
+      <c r="F26" t="s">
+        <v>973</v>
+      </c>
+      <c r="G26" t="s">
+        <v>921</v>
+      </c>
+      <c r="H26" t="s">
+        <v>83</v>
+      </c>
+      <c r="I26" t="s">
+        <v>929</v>
+      </c>
+      <c r="J26" t="s">
+        <v>974</v>
+      </c>
+      <c r="K26" t="s">
+        <v>974</v>
+      </c>
+      <c r="M26" t="s">
+        <v>86</v>
+      </c>
+      <c r="N26" t="s">
+        <v>86</v>
+      </c>
+      <c r="O26" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s">
         <v>50</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B28" t="s">
         <v>51</v>
       </c>
-      <c r="C26" t="s">
-        <v>969</v>
-      </c>
-      <c r="D26" t="s" s="67">
-        <v>970</v>
-      </c>
-      <c r="E26" t="s" s="68">
-        <v>971</v>
-      </c>
-      <c r="F26" t="s" s="69">
-        <v>972</v>
-      </c>
-      <c r="G26" t="s" s="70">
-        <v>973</v>
-      </c>
-      <c r="H26" t="s" s="71">
-        <v>974</v>
+      <c r="C28" t="s">
+        <v>975</v>
+      </c>
+      <c r="D28" t="s" s="74">
+        <v>976</v>
+      </c>
+      <c r="E28" t="s" s="75">
+        <v>977</v>
+      </c>
+      <c r="F28" t="s" s="76">
+        <v>978</v>
+      </c>
+      <c r="G28" t="s" s="77">
+        <v>979</v>
+      </c>
+      <c r="H28" t="s" s="78">
+        <v>980</v>
+      </c>
+      <c r="I28" t="s">
+        <v>981</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="E29" t="s">
+        <v>982</v>
+      </c>
+      <c r="F29" t="s">
+        <v>921</v>
+      </c>
+      <c r="G29">
+        <f>菜单SAAS版!$E$8</f>
+      </c>
+      <c r="H29">
+        <f>菜单标签数据!$E$8</f>
+      </c>
+      <c r="I29" t="s">
+        <v>983</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="E30" t="s">
+        <v>982</v>
+      </c>
+      <c r="F30" t="s">
+        <v>921</v>
+      </c>
+      <c r="G30">
+        <f>菜单SAAS版!$E$8</f>
+      </c>
+      <c r="H30">
+        <f>菜单标签数据!$E$22</f>
+      </c>
+      <c r="I30" t="s">
+        <v>983</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="E31" t="s">
+        <v>982</v>
+      </c>
+      <c r="F31" t="s">
+        <v>921</v>
+      </c>
+      <c r="G31">
+        <f>菜单SAAS版!$E$79</f>
+      </c>
+      <c r="H31">
+        <f>菜单标签数据!$E$13</f>
+      </c>
+      <c r="I31" t="s">
+        <v>983</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="E32" t="s">
+        <v>982</v>
+      </c>
+      <c r="F32" t="s">
+        <v>921</v>
+      </c>
+      <c r="G32">
+        <f>菜单SAAS版!$E$79</f>
+      </c>
+      <c r="H32">
+        <f>菜单标签数据!$E$14</f>
+      </c>
+      <c r="I32" t="s">
+        <v>983</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="E33" t="s">
+        <v>982</v>
+      </c>
+      <c r="F33" t="s">
+        <v>921</v>
+      </c>
+      <c r="G33">
+        <f>菜单SAAS版!$E$79</f>
+      </c>
+      <c r="H33">
+        <f>菜单标签数据!$E$15</f>
+      </c>
+      <c r="I33" t="s">
+        <v>983</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="E34" t="s">
+        <v>982</v>
+      </c>
+      <c r="F34" t="s">
+        <v>921</v>
+      </c>
+      <c r="G34">
+        <f>菜单SAAS版!$E$79</f>
+      </c>
+      <c r="H34">
+        <f>菜单标签数据!$E$16</f>
+      </c>
+      <c r="I34" t="s">
+        <v>983</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="E35" t="s">
+        <v>982</v>
+      </c>
+      <c r="F35" t="s">
+        <v>921</v>
+      </c>
+      <c r="G35">
+        <f>菜单SAAS版!$E$79</f>
+      </c>
+      <c r="H35">
+        <f>菜单标签数据!$E$17</f>
+      </c>
+      <c r="I35" t="s">
+        <v>983</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="E36" t="s">
+        <v>982</v>
+      </c>
+      <c r="F36" t="s">
+        <v>921</v>
+      </c>
+      <c r="G36">
+        <f>菜单SAAS版!$E$79</f>
+      </c>
+      <c r="H36">
+        <f>菜单标签数据!$E$22</f>
+      </c>
+      <c r="I36" t="s">
+        <v>983</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="E37" t="s">
+        <v>982</v>
+      </c>
+      <c r="F37" t="s">
+        <v>921</v>
+      </c>
+      <c r="G37">
+        <f>菜单SAAS版!$E$108</f>
+      </c>
+      <c r="H37">
+        <f>菜单标签数据!$E$14</f>
+      </c>
+      <c r="I37" t="s">
+        <v>983</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="E38" t="s">
+        <v>982</v>
+      </c>
+      <c r="F38" t="s">
+        <v>921</v>
+      </c>
+      <c r="G38">
+        <f>菜单SAAS版!$E$108</f>
+      </c>
+      <c r="H38">
+        <f>菜单标签数据!$E$17</f>
+      </c>
+      <c r="I38" t="s">
+        <v>983</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="E39" t="s">
+        <v>982</v>
+      </c>
+      <c r="F39" t="s">
+        <v>921</v>
+      </c>
+      <c r="G39">
+        <f>菜单SAAS版!$E$108</f>
+      </c>
+      <c r="H39">
+        <f>菜单标签数据!$E$22</f>
+      </c>
+      <c r="I39" t="s">
+        <v>983</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="E40" t="s">
+        <v>982</v>
+      </c>
+      <c r="F40" t="s">
+        <v>921</v>
+      </c>
+      <c r="G40">
+        <f>菜单SAAS版!$E$95</f>
+      </c>
+      <c r="H40">
+        <f>菜单标签数据!$E$14</f>
+      </c>
+      <c r="I40" t="s">
+        <v>983</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="E41" t="s">
+        <v>982</v>
+      </c>
+      <c r="F41" t="s">
+        <v>921</v>
+      </c>
+      <c r="G41">
+        <f>菜单SAAS版!$E$95</f>
+      </c>
+      <c r="H41">
+        <f>菜单标签数据!$E$17</f>
+      </c>
+      <c r="I41" t="s">
+        <v>983</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="E42" t="s">
+        <v>982</v>
+      </c>
+      <c r="F42" t="s">
+        <v>921</v>
+      </c>
+      <c r="G42">
+        <f>菜单SAAS版!$E$95</f>
+      </c>
+      <c r="H42">
+        <f>菜单标签数据!$E$22</f>
+      </c>
+      <c r="I42" t="s">
+        <v>983</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="E43" t="s">
+        <v>982</v>
+      </c>
+      <c r="F43" t="s">
+        <v>921</v>
+      </c>
+      <c r="G43">
+        <f>菜单SAAS版!$E$10</f>
+      </c>
+      <c r="H43">
+        <f>菜单标签数据!$E$13</f>
+      </c>
+      <c r="I43" t="s">
+        <v>983</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="E44" t="s">
+        <v>982</v>
+      </c>
+      <c r="F44" t="s">
+        <v>921</v>
+      </c>
+      <c r="G44">
+        <f>菜单SAAS版!$E$10</f>
+      </c>
+      <c r="H44">
+        <f>菜单标签数据!$E$14</f>
+      </c>
+      <c r="I44" t="s">
+        <v>983</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="E45" t="s">
+        <v>982</v>
+      </c>
+      <c r="F45" t="s">
+        <v>921</v>
+      </c>
+      <c r="G45">
+        <f>菜单SAAS版!$E$10</f>
+      </c>
+      <c r="H45">
+        <f>菜单标签数据!$E$15</f>
+      </c>
+      <c r="I45" t="s">
+        <v>983</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="E46" t="s">
+        <v>982</v>
+      </c>
+      <c r="F46" t="s">
+        <v>921</v>
+      </c>
+      <c r="G46">
+        <f>菜单SAAS版!$E$10</f>
+      </c>
+      <c r="H46">
+        <f>菜单标签数据!$E$16</f>
+      </c>
+      <c r="I46" t="s">
+        <v>983</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="E47" t="s">
+        <v>982</v>
+      </c>
+      <c r="F47" t="s">
+        <v>921</v>
+      </c>
+      <c r="G47">
+        <f>菜单SAAS版!$E$10</f>
+      </c>
+      <c r="H47">
+        <f>菜单标签数据!$E$22</f>
+      </c>
+      <c r="I47" t="s">
+        <v>983</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="E48" t="s">
+        <v>982</v>
+      </c>
+      <c r="F48" t="s">
+        <v>921</v>
+      </c>
+      <c r="G48">
+        <f>菜单SAAS版!$E$11</f>
+      </c>
+      <c r="H48">
+        <f>菜单标签数据!$E$14</f>
+      </c>
+      <c r="I48" t="s">
+        <v>983</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="E49" t="s">
+        <v>982</v>
+      </c>
+      <c r="F49" t="s">
+        <v>921</v>
+      </c>
+      <c r="G49">
+        <f>菜单SAAS版!$E$11</f>
+      </c>
+      <c r="H49">
+        <f>菜单标签数据!$E$17</f>
+      </c>
+      <c r="I49" t="s">
+        <v>983</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="E50" t="s">
+        <v>982</v>
+      </c>
+      <c r="F50" t="s">
+        <v>921</v>
+      </c>
+      <c r="G50">
+        <f>菜单SAAS版!$E$11</f>
+      </c>
+      <c r="H50">
+        <f>菜单标签数据!$E$22</f>
+      </c>
+      <c r="I50" t="s">
+        <v>983</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="E51" t="s">
+        <v>982</v>
+      </c>
+      <c r="F51" t="s">
+        <v>921</v>
+      </c>
+      <c r="G51">
+        <f>菜单SAAS版!$E$12</f>
+      </c>
+      <c r="H51">
+        <f>菜单标签数据!$E$14</f>
+      </c>
+      <c r="I51" t="s">
+        <v>983</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="E52" t="s">
+        <v>982</v>
+      </c>
+      <c r="F52" t="s">
+        <v>921</v>
+      </c>
+      <c r="G52">
+        <f>菜单SAAS版!$E$12</f>
+      </c>
+      <c r="H52">
+        <f>菜单标签数据!$E$17</f>
+      </c>
+      <c r="I52" t="s">
+        <v>983</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="E53" t="s">
+        <v>982</v>
+      </c>
+      <c r="F53" t="s">
+        <v>921</v>
+      </c>
+      <c r="G53">
+        <f>菜单SAAS版!$E$12</f>
+      </c>
+      <c r="H53">
+        <f>菜单标签数据!$E$22</f>
+      </c>
+      <c r="I53" t="s">
+        <v>983</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="E54" t="s">
+        <v>982</v>
+      </c>
+      <c r="F54" t="s">
+        <v>921</v>
+      </c>
+      <c r="G54">
+        <f>菜单SAAS版!$E$21</f>
+      </c>
+      <c r="H54">
+        <f>菜单标签数据!$E$14</f>
+      </c>
+      <c r="I54" t="s">
+        <v>983</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="E55" t="s">
+        <v>982</v>
+      </c>
+      <c r="F55" t="s">
+        <v>921</v>
+      </c>
+      <c r="G55">
+        <f>菜单SAAS版!$E$21</f>
+      </c>
+      <c r="H55">
+        <f>菜单标签数据!$E$17</f>
+      </c>
+      <c r="I55" t="s">
+        <v>983</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="E56" t="s">
+        <v>982</v>
+      </c>
+      <c r="F56" t="s">
+        <v>921</v>
+      </c>
+      <c r="G56">
+        <f>菜单SAAS版!$E$21</f>
+      </c>
+      <c r="H56">
+        <f>菜单标签数据!$E$22</f>
+      </c>
+      <c r="I56" t="s">
+        <v>983</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="E57" t="s">
+        <v>982</v>
+      </c>
+      <c r="F57" t="s">
+        <v>921</v>
+      </c>
+      <c r="G57">
+        <f>菜单SAAS版!$E$17</f>
+      </c>
+      <c r="H57">
+        <f>菜单标签数据!$E$14</f>
+      </c>
+      <c r="I57" t="s">
+        <v>983</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="E58" t="s">
+        <v>982</v>
+      </c>
+      <c r="F58" t="s">
+        <v>921</v>
+      </c>
+      <c r="G58">
+        <f>菜单SAAS版!$E$17</f>
+      </c>
+      <c r="H58">
+        <f>菜单标签数据!$E$17</f>
+      </c>
+      <c r="I58" t="s">
+        <v>983</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="E59" t="s">
+        <v>982</v>
+      </c>
+      <c r="F59" t="s">
+        <v>921</v>
+      </c>
+      <c r="G59">
+        <f>菜单SAAS版!$E$17</f>
+      </c>
+      <c r="H59">
+        <f>菜单标签数据!$E$22</f>
+      </c>
+      <c r="I59" t="s">
+        <v>983</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="E60" t="s">
+        <v>982</v>
+      </c>
+      <c r="F60" t="s">
+        <v>921</v>
+      </c>
+      <c r="G60">
+        <f>菜单SAAS版!$E$65</f>
+      </c>
+      <c r="H60">
+        <f>菜单标签数据!$E$14</f>
+      </c>
+      <c r="I60" t="s">
+        <v>983</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="E61" t="s">
+        <v>982</v>
+      </c>
+      <c r="F61" t="s">
+        <v>921</v>
+      </c>
+      <c r="G61">
+        <f>菜单SAAS版!$E$65</f>
+      </c>
+      <c r="H61">
+        <f>菜单标签数据!$E$17</f>
+      </c>
+      <c r="I61" t="s">
+        <v>983</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="E62" t="s">
+        <v>982</v>
+      </c>
+      <c r="F62" t="s">
+        <v>921</v>
+      </c>
+      <c r="G62">
+        <f>菜单SAAS版!$E$65</f>
+      </c>
+      <c r="H62">
+        <f>菜单标签数据!$E$22</f>
+      </c>
+      <c r="I62" t="s">
+        <v>983</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="E63" t="s">
+        <v>982</v>
+      </c>
+      <c r="F63" t="s">
+        <v>921</v>
+      </c>
+      <c r="G63">
+        <f>菜单SAAS版!$E$46</f>
+      </c>
+      <c r="H63">
+        <f>菜单标签数据!$E$14</f>
+      </c>
+      <c r="I63" t="s">
+        <v>983</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="E64" t="s">
+        <v>982</v>
+      </c>
+      <c r="F64" t="s">
+        <v>921</v>
+      </c>
+      <c r="G64">
+        <f>菜单SAAS版!$E$46</f>
+      </c>
+      <c r="H64">
+        <f>菜单标签数据!$E$17</f>
+      </c>
+      <c r="I64" t="s">
+        <v>983</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="E65" t="s">
+        <v>982</v>
+      </c>
+      <c r="F65" t="s">
+        <v>921</v>
+      </c>
+      <c r="G65">
+        <f>菜单SAAS版!$E$46</f>
+      </c>
+      <c r="H65">
+        <f>菜单标签数据!$E$22</f>
+      </c>
+      <c r="I65" t="s">
+        <v>983</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="E66" t="s">
+        <v>982</v>
+      </c>
+      <c r="F66" t="s">
+        <v>921</v>
+      </c>
+      <c r="G66">
+        <f>菜单SAAS版!$E$54</f>
+      </c>
+      <c r="H66">
+        <f>菜单标签数据!$E$14</f>
+      </c>
+      <c r="I66" t="s">
+        <v>983</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="E67" t="s">
+        <v>982</v>
+      </c>
+      <c r="F67" t="s">
+        <v>921</v>
+      </c>
+      <c r="G67">
+        <f>菜单SAAS版!$E$54</f>
+      </c>
+      <c r="H67">
+        <f>菜单标签数据!$E$17</f>
+      </c>
+      <c r="I67" t="s">
+        <v>983</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="E68" t="s">
+        <v>982</v>
+      </c>
+      <c r="F68" t="s">
+        <v>921</v>
+      </c>
+      <c r="G68">
+        <f>菜单SAAS版!$E$54</f>
+      </c>
+      <c r="H68">
+        <f>菜单标签数据!$E$22</f>
+      </c>
+      <c r="I68" t="s">
+        <v>983</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="E69" t="s">
+        <v>982</v>
+      </c>
+      <c r="F69" t="s">
+        <v>921</v>
+      </c>
+      <c r="G69">
+        <f>菜单SAAS版!$E$47</f>
+      </c>
+      <c r="H69">
+        <f>菜单标签数据!$E$14</f>
+      </c>
+      <c r="I69" t="s">
+        <v>983</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="E70" t="s">
+        <v>982</v>
+      </c>
+      <c r="F70" t="s">
+        <v>921</v>
+      </c>
+      <c r="G70">
+        <f>菜单SAAS版!$E$47</f>
+      </c>
+      <c r="H70">
+        <f>菜单标签数据!$E$17</f>
+      </c>
+      <c r="I70" t="s">
+        <v>983</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="E71" t="s">
+        <v>982</v>
+      </c>
+      <c r="F71" t="s">
+        <v>921</v>
+      </c>
+      <c r="G71">
+        <f>菜单SAAS版!$E$47</f>
+      </c>
+      <c r="H71">
+        <f>菜单标签数据!$E$22</f>
+      </c>
+      <c r="I71" t="s">
+        <v>983</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="E72" t="s">
+        <v>982</v>
+      </c>
+      <c r="F72" t="s">
+        <v>921</v>
+      </c>
+      <c r="G72">
+        <f>菜单SAAS版!$E$62</f>
+      </c>
+      <c r="H72">
+        <f>菜单标签数据!$E$14</f>
+      </c>
+      <c r="I72" t="s">
+        <v>983</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="E73" t="s">
+        <v>982</v>
+      </c>
+      <c r="F73" t="s">
+        <v>921</v>
+      </c>
+      <c r="G73">
+        <f>菜单SAAS版!$E$62</f>
+      </c>
+      <c r="H73">
+        <f>菜单标签数据!$E$17</f>
+      </c>
+      <c r="I73" t="s">
+        <v>983</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="E74" t="s">
+        <v>982</v>
+      </c>
+      <c r="F74" t="s">
+        <v>921</v>
+      </c>
+      <c r="G74">
+        <f>菜单SAAS版!$E$62</f>
+      </c>
+      <c r="H74">
+        <f>菜单标签数据!$E$22</f>
+      </c>
+      <c r="I74" t="s">
+        <v>983</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="E75" t="s">
+        <v>982</v>
+      </c>
+      <c r="F75" t="s">
+        <v>921</v>
+      </c>
+      <c r="G75">
+        <f>菜单SAAS版!$E$118</f>
+      </c>
+      <c r="H75">
+        <f>菜单标签数据!$E$13</f>
+      </c>
+      <c r="I75" t="s">
+        <v>983</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="E76" t="s">
+        <v>982</v>
+      </c>
+      <c r="F76" t="s">
+        <v>921</v>
+      </c>
+      <c r="G76">
+        <f>菜单SAAS版!$E$118</f>
+      </c>
+      <c r="H76">
+        <f>菜单标签数据!$E$14</f>
+      </c>
+      <c r="I76" t="s">
+        <v>983</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="E77" t="s">
+        <v>982</v>
+      </c>
+      <c r="F77" t="s">
+        <v>921</v>
+      </c>
+      <c r="G77">
+        <f>菜单SAAS版!$E$118</f>
+      </c>
+      <c r="H77">
+        <f>菜单标签数据!$E$15</f>
+      </c>
+      <c r="I77" t="s">
+        <v>983</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="E78" t="s">
+        <v>982</v>
+      </c>
+      <c r="F78" t="s">
+        <v>921</v>
+      </c>
+      <c r="G78">
+        <f>菜单SAAS版!$E$118</f>
+      </c>
+      <c r="H78">
+        <f>菜单标签数据!$E$16</f>
+      </c>
+      <c r="I78" t="s">
+        <v>983</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="E79" t="s">
+        <v>982</v>
+      </c>
+      <c r="F79" t="s">
+        <v>921</v>
+      </c>
+      <c r="G79">
+        <f>菜单SAAS版!$E$118</f>
+      </c>
+      <c r="H79">
+        <f>菜单标签数据!$E$17</f>
+      </c>
+      <c r="I79" t="s">
+        <v>983</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="E80" t="s">
+        <v>982</v>
+      </c>
+      <c r="F80" t="s">
+        <v>921</v>
+      </c>
+      <c r="G80">
+        <f>菜单SAAS版!$E$118</f>
+      </c>
+      <c r="H80">
+        <f>菜单标签数据!$E$21</f>
+      </c>
+      <c r="I80" t="s">
+        <v>983</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="E81" t="s">
+        <v>982</v>
+      </c>
+      <c r="F81" t="s">
+        <v>921</v>
+      </c>
+      <c r="G81">
+        <f>菜单SAAS版!$E$118</f>
+      </c>
+      <c r="H81">
+        <f>菜单标签数据!$E$22</f>
+      </c>
+      <c r="I81" t="s">
+        <v>983</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="E82" t="s">
+        <v>982</v>
+      </c>
+      <c r="F82" t="s">
+        <v>921</v>
+      </c>
+      <c r="G82">
+        <f>菜单SAAS版!$E$118</f>
+      </c>
+      <c r="H82">
+        <f>菜单标签数据!$E$24</f>
+      </c>
+      <c r="I82" t="s">
+        <v>983</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="E83" t="s">
+        <v>982</v>
+      </c>
+      <c r="F83" t="s">
+        <v>921</v>
+      </c>
+      <c r="G83">
+        <f>菜单SAAS版!$E$119</f>
+      </c>
+      <c r="H83">
+        <f>菜单标签数据!$E$14</f>
+      </c>
+      <c r="I83" t="s">
+        <v>983</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="E84" t="s">
+        <v>982</v>
+      </c>
+      <c r="F84" t="s">
+        <v>921</v>
+      </c>
+      <c r="G84">
+        <f>菜单SAAS版!$E$119</f>
+      </c>
+      <c r="H84">
+        <f>菜单标签数据!$E$17</f>
+      </c>
+      <c r="I84" t="s">
+        <v>983</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="E85" t="s">
+        <v>982</v>
+      </c>
+      <c r="F85" t="s">
+        <v>921</v>
+      </c>
+      <c r="G85">
+        <f>菜单SAAS版!$E$119</f>
+      </c>
+      <c r="H85">
+        <f>菜单标签数据!$E$22</f>
+      </c>
+      <c r="I85" t="s">
+        <v>983</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="E86" t="s">
+        <v>982</v>
+      </c>
+      <c r="F86" t="s">
+        <v>921</v>
+      </c>
+      <c r="G86">
+        <f>菜单SAAS版!$E$9</f>
+      </c>
+      <c r="H86">
+        <f>菜单标签数据!$E$8</f>
+      </c>
+      <c r="I86" t="s">
+        <v>984</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="E87" t="s">
+        <v>982</v>
+      </c>
+      <c r="F87" t="s">
+        <v>921</v>
+      </c>
+      <c r="G87">
+        <f>菜单SAAS版!$E$14</f>
+      </c>
+      <c r="H87">
+        <f>菜单标签数据!$E$14</f>
+      </c>
+      <c r="I87" t="s">
+        <v>984</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="E88" t="s">
+        <v>982</v>
+      </c>
+      <c r="F88" t="s">
+        <v>921</v>
+      </c>
+      <c r="G88">
+        <f>菜单SAAS版!$E$14</f>
+      </c>
+      <c r="H88">
+        <f>菜单标签数据!$E$17</f>
+      </c>
+      <c r="I88" t="s">
+        <v>984</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="E89" t="s">
+        <v>982</v>
+      </c>
+      <c r="F89" t="s">
+        <v>921</v>
+      </c>
+      <c r="G89">
+        <f>菜单SAAS版!$E$19</f>
+      </c>
+      <c r="H89">
+        <f>菜单标签数据!$E$14</f>
+      </c>
+      <c r="I89" t="s">
+        <v>984</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="E90" t="s">
+        <v>982</v>
+      </c>
+      <c r="F90" t="s">
+        <v>921</v>
+      </c>
+      <c r="G90">
+        <f>菜单SAAS版!$E$19</f>
+      </c>
+      <c r="H90">
+        <f>菜单标签数据!$E$17</f>
+      </c>
+      <c r="I90" t="s">
+        <v>984</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="E91" t="s">
+        <v>982</v>
+      </c>
+      <c r="F91" t="s">
+        <v>921</v>
+      </c>
+      <c r="G91">
+        <f>菜单SAAS版!$E$27</f>
+      </c>
+      <c r="H91">
+        <f>菜单标签数据!$E$14</f>
+      </c>
+      <c r="I91" t="s">
+        <v>984</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="E92" t="s">
+        <v>982</v>
+      </c>
+      <c r="F92" t="s">
+        <v>921</v>
+      </c>
+      <c r="G92">
+        <f>菜单SAAS版!$E$27</f>
+      </c>
+      <c r="H92">
+        <f>菜单标签数据!$E$17</f>
+      </c>
+      <c r="I92" t="s">
+        <v>984</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="E93" t="s">
+        <v>982</v>
+      </c>
+      <c r="F93" t="s">
+        <v>921</v>
+      </c>
+      <c r="G93">
+        <f>菜单SAAS版!$E$49</f>
+      </c>
+      <c r="H93">
+        <f>菜单标签数据!$E$14</f>
+      </c>
+      <c r="I93" t="s">
+        <v>984</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="E94" t="s">
+        <v>982</v>
+      </c>
+      <c r="F94" t="s">
+        <v>921</v>
+      </c>
+      <c r="G94">
+        <f>菜单SAAS版!$E$49</f>
+      </c>
+      <c r="H94">
+        <f>菜单标签数据!$E$17</f>
+      </c>
+      <c r="I94" t="s">
+        <v>984</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="E95" t="s">
+        <v>982</v>
+      </c>
+      <c r="F95" t="s">
+        <v>921</v>
+      </c>
+      <c r="G95">
+        <f>菜单SAAS版!$E$58</f>
+      </c>
+      <c r="H95">
+        <f>菜单标签数据!$E$14</f>
+      </c>
+      <c r="I95" t="s">
+        <v>984</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="E96" t="s">
+        <v>982</v>
+      </c>
+      <c r="F96" t="s">
+        <v>921</v>
+      </c>
+      <c r="G96">
+        <f>菜单SAAS版!$E$58</f>
+      </c>
+      <c r="H96">
+        <f>菜单标签数据!$E$17</f>
+      </c>
+      <c r="I96" t="s">
+        <v>984</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="E97" t="s">
+        <v>982</v>
+      </c>
+      <c r="F97" t="s">
+        <v>921</v>
+      </c>
+      <c r="G97">
+        <f>菜单SAAS版!$E$64</f>
+      </c>
+      <c r="H97">
+        <f>菜单标签数据!$E$14</f>
+      </c>
+      <c r="I97" t="s">
+        <v>984</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="E98" t="s">
+        <v>982</v>
+      </c>
+      <c r="F98" t="s">
+        <v>921</v>
+      </c>
+      <c r="G98">
+        <f>菜单SAAS版!$E$64</f>
+      </c>
+      <c r="H98">
+        <f>菜单标签数据!$E$17</f>
+      </c>
+      <c r="I98" t="s">
+        <v>984</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="E99" t="s">
+        <v>982</v>
+      </c>
+      <c r="F99" t="s">
+        <v>921</v>
+      </c>
+      <c r="G99">
+        <f>菜单SAAS版!$E$66</f>
+      </c>
+      <c r="H99">
+        <f>菜单标签数据!$E$14</f>
+      </c>
+      <c r="I99" t="s">
+        <v>984</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="E100" t="s">
+        <v>982</v>
+      </c>
+      <c r="F100" t="s">
+        <v>921</v>
+      </c>
+      <c r="G100">
+        <f>菜单SAAS版!$E$66</f>
+      </c>
+      <c r="H100">
+        <f>菜单标签数据!$E$17</f>
+      </c>
+      <c r="I100" t="s">
+        <v>984</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="E101" t="s">
+        <v>982</v>
+      </c>
+      <c r="F101" t="s">
+        <v>921</v>
+      </c>
+      <c r="G101">
+        <f>菜单SAAS版!$E$98</f>
+      </c>
+      <c r="H101">
+        <f>菜单标签数据!$E$14</f>
+      </c>
+      <c r="I101" t="s">
+        <v>984</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="E102" t="s">
+        <v>982</v>
+      </c>
+      <c r="F102" t="s">
+        <v>921</v>
+      </c>
+      <c r="G102">
+        <f>菜单SAAS版!$E$98</f>
+      </c>
+      <c r="H102">
+        <f>菜单标签数据!$E$17</f>
+      </c>
+      <c r="I102" t="s">
+        <v>984</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="E103" t="s">
+        <v>982</v>
+      </c>
+      <c r="F103" t="s">
+        <v>921</v>
+      </c>
+      <c r="G103">
+        <f>菜单SAAS版!$E$114</f>
+      </c>
+      <c r="H103">
+        <f>菜单标签数据!$E$14</f>
+      </c>
+      <c r="I103" t="s">
+        <v>984</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="E104" t="s">
+        <v>982</v>
+      </c>
+      <c r="F104" t="s">
+        <v>921</v>
+      </c>
+      <c r="G104">
+        <f>菜单SAAS版!$E$114</f>
+      </c>
+      <c r="H104">
+        <f>菜单标签数据!$E$17</f>
+      </c>
+      <c r="I104" t="s">
+        <v>984</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="E105" t="s">
+        <v>982</v>
+      </c>
+      <c r="F105" t="s">
+        <v>921</v>
+      </c>
+      <c r="G105">
+        <f>菜单SAAS版!$E$120</f>
+      </c>
+      <c r="H105">
+        <f>菜单标签数据!$E$14</f>
+      </c>
+      <c r="I105" t="s">
+        <v>984</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="E106" t="s">
+        <v>982</v>
+      </c>
+      <c r="F106" t="s">
+        <v>921</v>
+      </c>
+      <c r="G106">
+        <f>菜单SAAS版!$E$120</f>
+      </c>
+      <c r="H106">
+        <f>菜单标签数据!$E$17</f>
+      </c>
+      <c r="I106" t="s">
+        <v>984</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="E107" t="s">
+        <v>982</v>
+      </c>
+      <c r="F107" t="s">
+        <v>921</v>
+      </c>
+      <c r="G107">
+        <f>菜单SAAS版!$E$80</f>
+      </c>
+      <c r="H107">
+        <f>菜单标签数据!$E$14</f>
+      </c>
+      <c r="I107" t="s">
+        <v>983</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="E108" t="s">
+        <v>982</v>
+      </c>
+      <c r="F108" t="s">
+        <v>921</v>
+      </c>
+      <c r="G108">
+        <f>菜单SAAS版!$E$80</f>
+      </c>
+      <c r="H108">
+        <f>菜单标签数据!$E$17</f>
+      </c>
+      <c r="I108" t="s">
+        <v>983</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="E109" t="s">
+        <v>982</v>
+      </c>
+      <c r="F109" t="s">
+        <v>921</v>
+      </c>
+      <c r="G109">
+        <f>菜单SAAS版!$E$80</f>
+      </c>
+      <c r="H109">
+        <f>菜单标签数据!$E$22</f>
+      </c>
+      <c r="I109" t="s">
+        <v>983</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="E110" t="s">
+        <v>982</v>
+      </c>
+      <c r="F110" t="s">
+        <v>921</v>
+      </c>
+      <c r="G110">
+        <f>菜单SAAS版!$E$82</f>
+      </c>
+      <c r="H110">
+        <f>菜单标签数据!$E$14</f>
+      </c>
+      <c r="I110" t="s">
+        <v>984</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="E111" t="s">
+        <v>982</v>
+      </c>
+      <c r="F111" t="s">
+        <v>921</v>
+      </c>
+      <c r="G111">
+        <f>菜单SAAS版!$E$82</f>
+      </c>
+      <c r="H111">
+        <f>菜单标签数据!$E$17</f>
+      </c>
+      <c r="I111" t="s">
+        <v>984</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="E112" t="s">
+        <v>982</v>
+      </c>
+      <c r="F112" t="s">
+        <v>921</v>
+      </c>
+      <c r="G112">
+        <f>菜单SAAS版!$E$50</f>
+      </c>
+      <c r="H112">
+        <f>菜单标签数据!$E$14</f>
+      </c>
+      <c r="I112" t="s">
+        <v>983</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="E113" t="s">
+        <v>982</v>
+      </c>
+      <c r="F113" t="s">
+        <v>921</v>
+      </c>
+      <c r="G113">
+        <f>菜单SAAS版!$E$50</f>
+      </c>
+      <c r="H113">
+        <f>菜单标签数据!$E$17</f>
+      </c>
+      <c r="I113" t="s">
+        <v>983</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="E114" t="s">
+        <v>982</v>
+      </c>
+      <c r="F114" t="s">
+        <v>921</v>
+      </c>
+      <c r="G114">
+        <f>菜单SAAS版!$E$50</f>
+      </c>
+      <c r="H114">
+        <f>菜单标签数据!$E$19</f>
+      </c>
+      <c r="I114" t="s">
+        <v>983</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="E115" t="s">
+        <v>982</v>
+      </c>
+      <c r="F115" t="s">
+        <v>921</v>
+      </c>
+      <c r="G115">
+        <f>菜单SAAS版!$E$50</f>
+      </c>
+      <c r="H115">
+        <f>菜单标签数据!$E$22</f>
+      </c>
+      <c r="I115" t="s">
+        <v>983</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="E116" t="s">
+        <v>982</v>
+      </c>
+      <c r="F116" t="s">
+        <v>921</v>
+      </c>
+      <c r="G116">
+        <f>菜单SAAS版!$E$52</f>
+      </c>
+      <c r="H116">
+        <f>菜单标签数据!$E$14</f>
+      </c>
+      <c r="I116" t="s">
+        <v>983</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="E117" t="s">
+        <v>982</v>
+      </c>
+      <c r="F117" t="s">
+        <v>921</v>
+      </c>
+      <c r="G117">
+        <f>菜单SAAS版!$E$52</f>
+      </c>
+      <c r="H117">
+        <f>菜单标签数据!$E$17</f>
+      </c>
+      <c r="I117" t="s">
+        <v>983</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="E118" t="s">
+        <v>982</v>
+      </c>
+      <c r="F118" t="s">
+        <v>921</v>
+      </c>
+      <c r="G118">
+        <f>菜单SAAS版!$E$52</f>
+      </c>
+      <c r="H118">
+        <f>菜单标签数据!$E$19</f>
+      </c>
+      <c r="I118" t="s">
+        <v>983</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="E119" t="s">
+        <v>982</v>
+      </c>
+      <c r="F119" t="s">
+        <v>921</v>
+      </c>
+      <c r="G119">
+        <f>菜单SAAS版!$E$52</f>
+      </c>
+      <c r="H119">
+        <f>菜单标签数据!$E$22</f>
+      </c>
+      <c r="I119" t="s">
+        <v>983</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:Y214"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="53">
+        <v>44</v>
+      </c>
+      <c r="B1" t="s" s="54">
+        <v>45</v>
+      </c>
+      <c r="C1" t="s" s="55">
+        <v>9</v>
+      </c>
+      <c r="D1" t="s" s="56">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="E4" t="s" s="57">
+        <v>47</v>
+      </c>
+      <c r="F4" t="s" s="58">
+        <v>48</v>
+      </c>
+      <c r="G4" t="s" s="59">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>50</v>
+      </c>
+      <c r="B7" t="s">
+        <v>51</v>
+      </c>
+      <c r="C7" t="s">
+        <v>985</v>
+      </c>
+      <c r="D7" t="s" s="79">
+        <v>986</v>
+      </c>
+      <c r="E7" t="s" s="80">
+        <v>54</v>
+      </c>
+      <c r="F7" t="s">
+        <v>56</v>
+      </c>
+      <c r="G7" t="s">
+        <v>57</v>
+      </c>
+      <c r="H7" t="s" s="81">
+        <v>55</v>
+      </c>
+      <c r="I7" t="s">
+        <v>263</v>
+      </c>
+      <c r="J7" t="s">
+        <v>912</v>
+      </c>
+      <c r="K7" t="s" s="82">
+        <v>67</v>
+      </c>
+      <c r="L7" t="s">
+        <v>987</v>
+      </c>
+      <c r="M7" t="s" s="83">
+        <v>988</v>
+      </c>
+      <c r="N7" t="s" s="84">
+        <v>989</v>
+      </c>
+      <c r="O7" t="s">
+        <v>990</v>
+      </c>
+      <c r="P7" t="s">
+        <v>991</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>992</v>
+      </c>
+      <c r="R7" t="s">
+        <v>993</v>
+      </c>
+      <c r="S7" t="s">
+        <v>994</v>
+      </c>
+      <c r="T7" t="s">
+        <v>995</v>
+      </c>
+      <c r="U7" t="s">
+        <v>68</v>
+      </c>
+      <c r="V7" t="s">
+        <v>996</v>
+      </c>
+      <c r="W7" t="s" s="85">
+        <v>997</v>
+      </c>
+      <c r="X7" t="s">
+        <v>998</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="E8" t="s">
+        <v>1000</v>
+      </c>
+      <c r="F8" t="s">
+        <v>1001</v>
+      </c>
+      <c r="G8" t="s">
+        <v>1002</v>
+      </c>
+      <c r="H8" t="s">
+        <v>1003</v>
+      </c>
+      <c r="I8" t="s">
+        <v>1004</v>
+      </c>
+      <c r="J8" t="s">
+        <v>1005</v>
+      </c>
+      <c r="K8" t="s">
+        <v>86</v>
+      </c>
+      <c r="L8" t="s">
+        <v>86</v>
+      </c>
+      <c r="M8" t="s">
+        <v>86</v>
+      </c>
+      <c r="N8" t="s">
+        <v>79</v>
+      </c>
+      <c r="O8" t="s">
+        <v>86</v>
+      </c>
+      <c r="P8" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>86</v>
+      </c>
+      <c r="R8" t="s">
+        <v>83</v>
+      </c>
+      <c r="S8" t="s">
+        <v>83</v>
+      </c>
+      <c r="T8" t="s">
+        <v>86</v>
+      </c>
+      <c r="U8" t="s">
+        <v>1003</v>
+      </c>
+      <c r="V8" t="s">
+        <v>1003</v>
+      </c>
+      <c r="W8" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="E9" t="s">
+        <v>1006</v>
+      </c>
+      <c r="F9" t="s">
+        <v>1007</v>
+      </c>
+      <c r="G9" t="s">
+        <v>1008</v>
+      </c>
+      <c r="H9" t="s">
+        <v>1009</v>
+      </c>
+      <c r="I9" t="s">
+        <v>1010</v>
+      </c>
+      <c r="J9" t="s">
+        <v>79</v>
+      </c>
+      <c r="K9" t="s">
+        <v>86</v>
+      </c>
+      <c r="L9" t="s">
+        <v>86</v>
+      </c>
+      <c r="M9" t="s">
+        <v>86</v>
+      </c>
+      <c r="N9" t="s">
+        <v>79</v>
+      </c>
+      <c r="O9" t="s">
+        <v>86</v>
+      </c>
+      <c r="P9" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>86</v>
+      </c>
+      <c r="R9" t="s">
+        <v>83</v>
+      </c>
+      <c r="S9" t="s">
+        <v>83</v>
+      </c>
+      <c r="T9" t="s">
+        <v>86</v>
+      </c>
+      <c r="U9" t="s">
+        <v>1009</v>
+      </c>
+      <c r="V9" t="s">
+        <v>1009</v>
+      </c>
+      <c r="W9" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="E10" t="s">
+        <v>1011</v>
+      </c>
+      <c r="F10" t="s">
+        <v>1012</v>
+      </c>
+      <c r="G10" t="s">
+        <v>1013</v>
+      </c>
+      <c r="H10" t="s">
+        <v>1014</v>
+      </c>
+      <c r="J10" t="s">
+        <v>79</v>
+      </c>
+      <c r="K10" t="s">
+        <v>86</v>
+      </c>
+      <c r="L10" t="s">
+        <v>86</v>
+      </c>
+      <c r="M10">
+        <f>角色!$E$9</f>
+      </c>
+      <c r="N10" t="s">
+        <v>79</v>
+      </c>
+      <c r="O10" t="s">
+        <v>86</v>
+      </c>
+      <c r="P10" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>86</v>
+      </c>
+      <c r="R10" t="s">
+        <v>83</v>
+      </c>
+      <c r="S10" t="s">
+        <v>83</v>
+      </c>
+      <c r="T10" t="s">
+        <v>86</v>
+      </c>
+      <c r="U10" t="s">
+        <v>1015</v>
+      </c>
+      <c r="V10" t="s">
+        <v>1016</v>
+      </c>
+      <c r="W10" t="s">
+        <v>86</v>
+      </c>
+      <c r="X10" t="s">
+        <v>1007</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>1017</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="E11" t="s">
+        <v>1018</v>
+      </c>
+      <c r="F11" t="s">
+        <v>1019</v>
+      </c>
+      <c r="G11" t="s">
+        <v>1020</v>
+      </c>
+      <c r="H11" t="s">
+        <v>1021</v>
+      </c>
+      <c r="J11" t="s">
+        <v>79</v>
+      </c>
+      <c r="K11" t="s">
+        <v>86</v>
+      </c>
+      <c r="L11" t="s">
+        <v>86</v>
+      </c>
+      <c r="M11">
+        <f>角色!$E$9</f>
+      </c>
+      <c r="N11" t="s">
+        <v>79</v>
+      </c>
+      <c r="O11" t="s">
+        <v>86</v>
+      </c>
+      <c r="P11" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>86</v>
+      </c>
+      <c r="R11" t="s">
+        <v>83</v>
+      </c>
+      <c r="S11" t="s">
+        <v>83</v>
+      </c>
+      <c r="T11" t="s">
+        <v>86</v>
+      </c>
+      <c r="U11" t="s">
+        <v>1022</v>
+      </c>
+      <c r="V11" t="s">
+        <v>1023</v>
+      </c>
+      <c r="W11" t="s">
+        <v>86</v>
+      </c>
+      <c r="X11" t="s">
+        <v>1024</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>1025</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="E12" t="s">
+        <v>1026</v>
+      </c>
+      <c r="F12" t="s">
+        <v>1027</v>
+      </c>
+      <c r="G12" t="s">
+        <v>1028</v>
+      </c>
+      <c r="H12" t="s">
+        <v>1029</v>
+      </c>
+      <c r="J12" t="s">
+        <v>79</v>
+      </c>
+      <c r="K12" t="s">
+        <v>86</v>
+      </c>
+      <c r="L12" t="s">
+        <v>86</v>
+      </c>
+      <c r="M12">
+        <f>角色!$E$9</f>
+      </c>
+      <c r="N12" t="s">
+        <v>79</v>
+      </c>
+      <c r="O12" t="s">
+        <v>86</v>
+      </c>
+      <c r="P12" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>86</v>
+      </c>
+      <c r="R12" t="s">
+        <v>83</v>
+      </c>
+      <c r="S12" t="s">
+        <v>83</v>
+      </c>
+      <c r="T12" t="s">
+        <v>86</v>
+      </c>
+      <c r="U12" t="s">
+        <v>1030</v>
+      </c>
+      <c r="V12" t="s">
+        <v>1031</v>
+      </c>
+      <c r="W12" t="s">
+        <v>86</v>
+      </c>
+      <c r="X12" t="s">
+        <v>1032</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>1033</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="E13" t="s">
+        <v>1034</v>
+      </c>
+      <c r="F13" t="s">
+        <v>1035</v>
+      </c>
+      <c r="G13" t="s">
+        <v>1036</v>
+      </c>
+      <c r="H13" t="s">
+        <v>1037</v>
+      </c>
+      <c r="J13" t="s">
+        <v>79</v>
+      </c>
+      <c r="K13" t="s">
+        <v>86</v>
+      </c>
+      <c r="L13" t="s">
+        <v>86</v>
+      </c>
+      <c r="M13">
+        <f>角色!$E$9</f>
+      </c>
+      <c r="N13" t="s">
+        <v>79</v>
+      </c>
+      <c r="O13" t="s">
+        <v>86</v>
+      </c>
+      <c r="P13" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>86</v>
+      </c>
+      <c r="R13" t="s">
+        <v>83</v>
+      </c>
+      <c r="S13" t="s">
+        <v>83</v>
+      </c>
+      <c r="T13" t="s">
+        <v>86</v>
+      </c>
+      <c r="U13" t="s">
+        <v>1038</v>
+      </c>
+      <c r="V13" t="s">
+        <v>1039</v>
+      </c>
+      <c r="W13" t="s">
+        <v>86</v>
+      </c>
+      <c r="X13" t="s">
+        <v>1040</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>1041</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="E14" t="s">
+        <v>1042</v>
+      </c>
+      <c r="F14" t="s">
+        <v>1043</v>
+      </c>
+      <c r="G14" t="s">
+        <v>1044</v>
+      </c>
+      <c r="H14" t="s">
+        <v>1045</v>
+      </c>
+      <c r="J14" t="s">
+        <v>1005</v>
+      </c>
+      <c r="K14" t="s">
+        <v>86</v>
+      </c>
+      <c r="L14" t="s">
+        <v>86</v>
+      </c>
+      <c r="M14" t="s">
+        <v>86</v>
+      </c>
+      <c r="N14" t="s">
+        <v>79</v>
+      </c>
+      <c r="O14" t="s">
+        <v>86</v>
+      </c>
+      <c r="P14" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>86</v>
+      </c>
+      <c r="R14" t="s">
+        <v>83</v>
+      </c>
+      <c r="S14" t="s">
+        <v>83</v>
+      </c>
+      <c r="T14" t="s">
+        <v>86</v>
+      </c>
+      <c r="U14" t="s">
+        <v>1045</v>
+      </c>
+      <c r="V14" t="s">
+        <v>1046</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>50</v>
+      </c>
+      <c r="B16" t="s">
+        <v>51</v>
+      </c>
+      <c r="C16" t="s">
+        <v>1047</v>
+      </c>
+      <c r="D16" t="s" s="86">
+        <v>1048</v>
+      </c>
+      <c r="E16" t="s" s="87">
+        <v>54</v>
+      </c>
+      <c r="F16" t="s" s="88">
+        <v>1049</v>
+      </c>
+      <c r="G16" t="s" s="89">
+        <v>1050</v>
+      </c>
+      <c r="H16" t="s">
+        <v>1051</v>
+      </c>
+      <c r="I16" t="s">
+        <v>1052</v>
+      </c>
+      <c r="J16" t="s" s="90">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="E17" t="s">
+        <v>1053</v>
+      </c>
+      <c r="F17">
+        <f>角色!$E$10</f>
+      </c>
+      <c r="G17">
+        <f>菜单SAAS版!$E$9</f>
+      </c>
+      <c r="H17" t="s">
+        <v>1054</v>
+      </c>
+      <c r="I17" t="s">
+        <v>1055</v>
+      </c>
+      <c r="J17" t="s">
+        <v>1056</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="E18" t="s">
+        <v>1057</v>
+      </c>
+      <c r="F18">
+        <f>角色!$E$10</f>
+      </c>
+      <c r="G18">
+        <f>菜单SAAS版!$E$14</f>
+      </c>
+      <c r="H18" t="s">
+        <v>1054</v>
+      </c>
+      <c r="I18" t="s">
+        <v>1055</v>
+      </c>
+      <c r="J18" t="s">
+        <v>1056</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="E19" t="s">
+        <v>1058</v>
+      </c>
+      <c r="F19">
+        <f>角色!$E$10</f>
+      </c>
+      <c r="G19">
+        <f>菜单SAAS版!$E$19</f>
+      </c>
+      <c r="H19" t="s">
+        <v>1054</v>
+      </c>
+      <c r="I19" t="s">
+        <v>1055</v>
+      </c>
+      <c r="J19" t="s">
+        <v>1056</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="E20" t="s">
+        <v>1059</v>
+      </c>
+      <c r="F20">
+        <f>角色!$E$10</f>
+      </c>
+      <c r="G20">
+        <f>菜单SAAS版!$E$27</f>
+      </c>
+      <c r="H20" t="s">
+        <v>1054</v>
+      </c>
+      <c r="I20" t="s">
+        <v>1055</v>
+      </c>
+      <c r="J20" t="s">
+        <v>1056</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="E21" t="s">
+        <v>1060</v>
+      </c>
+      <c r="F21">
+        <f>角色!$E$10</f>
+      </c>
+      <c r="G21">
+        <f>菜单SAAS版!$E$49</f>
+      </c>
+      <c r="H21" t="s">
+        <v>1054</v>
+      </c>
+      <c r="I21" t="s">
+        <v>1055</v>
+      </c>
+      <c r="J21" t="s">
+        <v>1056</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="E22" t="s">
+        <v>1061</v>
+      </c>
+      <c r="F22">
+        <f>角色!$E$10</f>
+      </c>
+      <c r="G22">
+        <f>菜单SAAS版!$E$58</f>
+      </c>
+      <c r="H22" t="s">
+        <v>1054</v>
+      </c>
+      <c r="I22" t="s">
+        <v>1055</v>
+      </c>
+      <c r="J22" t="s">
+        <v>1056</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="E23" t="s">
+        <v>1062</v>
+      </c>
+      <c r="F23">
+        <f>角色!$E$10</f>
+      </c>
+      <c r="G23">
+        <f>菜单SAAS版!$E$64</f>
+      </c>
+      <c r="H23" t="s">
+        <v>1054</v>
+      </c>
+      <c r="I23" t="s">
+        <v>1055</v>
+      </c>
+      <c r="J23" t="s">
+        <v>1056</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="E24" t="s">
+        <v>1063</v>
+      </c>
+      <c r="F24">
+        <f>角色!$E$10</f>
+      </c>
+      <c r="G24">
+        <f>菜单SAAS版!$E$66</f>
+      </c>
+      <c r="H24" t="s">
+        <v>1054</v>
+      </c>
+      <c r="I24" t="s">
+        <v>1055</v>
+      </c>
+      <c r="J24" t="s">
+        <v>1056</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="E25" t="s">
+        <v>1064</v>
+      </c>
+      <c r="F25">
+        <f>角色!$E$10</f>
+      </c>
+      <c r="G25">
+        <f>菜单SAAS版!$E$98</f>
+      </c>
+      <c r="H25" t="s">
+        <v>1054</v>
+      </c>
+      <c r="I25" t="s">
+        <v>1055</v>
+      </c>
+      <c r="J25" t="s">
+        <v>1056</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="E26" t="s">
+        <v>1065</v>
+      </c>
+      <c r="F26">
+        <f>角色!$E$10</f>
+      </c>
+      <c r="G26">
+        <f>菜单SAAS版!$E$114</f>
+      </c>
+      <c r="H26" t="s">
+        <v>1054</v>
       </c>
       <c r="I26" t="s">
-        <v>975</v>
+        <v>1055</v>
+      </c>
+      <c r="J26" t="s">
+        <v>1056</v>
       </c>
     </row>
     <row r="27">
       <c r="E27" t="s">
-        <v>976</v>
-      </c>
-      <c r="F27" t="s">
-        <v>921</v>
+        <v>1066</v>
+      </c>
+      <c r="F27">
+        <f>角色!$E$10</f>
       </c>
       <c r="G27">
-        <f>菜单SAAS版!$E$8</f>
-      </c>
-      <c r="H27">
-        <f>菜单标签数据!$E$8</f>
+        <f>菜单SAAS版!$E$120</f>
+      </c>
+      <c r="H27" t="s">
+        <v>1054</v>
       </c>
       <c r="I27" t="s">
-        <v>977</v>
+        <v>1055</v>
+      </c>
+      <c r="J27" t="s">
+        <v>1056</v>
       </c>
     </row>
     <row r="28">
       <c r="E28" t="s">
-        <v>976</v>
-      </c>
-      <c r="F28" t="s">
-        <v>921</v>
+        <v>1067</v>
+      </c>
+      <c r="F28">
+        <f>角色!$E$10</f>
       </c>
       <c r="G28">
-        <f>菜单SAAS版!$E$8</f>
-      </c>
-      <c r="H28">
-        <f>菜单标签数据!$E$22</f>
+        <f>菜单SAAS版!$E$82</f>
+      </c>
+      <c r="H28" t="s">
+        <v>1054</v>
       </c>
       <c r="I28" t="s">
-        <v>977</v>
+        <v>1055</v>
+      </c>
+      <c r="J28" t="s">
+        <v>1056</v>
       </c>
     </row>
     <row r="29">
       <c r="E29" t="s">
-        <v>976</v>
-      </c>
-      <c r="F29" t="s">
-        <v>921</v>
+        <v>1068</v>
+      </c>
+      <c r="F29">
+        <f>角色!$E$10</f>
       </c>
       <c r="G29">
-        <f>菜单SAAS版!$E$79</f>
-      </c>
-      <c r="H29">
-        <f>菜单标签数据!$E$13</f>
+        <f>菜单SAAS版!$E$51</f>
+      </c>
+      <c r="H29" t="s">
+        <v>1054</v>
       </c>
       <c r="I29" t="s">
-        <v>977</v>
+        <v>1055</v>
+      </c>
+      <c r="J29" t="s">
+        <v>1056</v>
       </c>
     </row>
     <row r="30">
       <c r="E30" t="s">
-        <v>976</v>
-      </c>
-      <c r="F30" t="s">
-        <v>921</v>
+        <v>1069</v>
+      </c>
+      <c r="F30">
+        <f>角色!$E$10</f>
       </c>
       <c r="G30">
-        <f>菜单SAAS版!$E$79</f>
-      </c>
-      <c r="H30">
-        <f>菜单标签数据!$E$14</f>
+        <f>菜单SAAS版!$E$53</f>
+      </c>
+      <c r="H30" t="s">
+        <v>1054</v>
       </c>
       <c r="I30" t="s">
-        <v>977</v>
+        <v>1055</v>
+      </c>
+      <c r="J30" t="s">
+        <v>1056</v>
       </c>
     </row>
     <row r="31">
       <c r="E31" t="s">
-        <v>976</v>
-      </c>
-      <c r="F31" t="s">
-        <v>921</v>
+        <v>1070</v>
+      </c>
+      <c r="F31">
+        <f>角色!$E$10</f>
       </c>
       <c r="G31">
-        <f>菜单SAAS版!$E$79</f>
-      </c>
-      <c r="H31">
-        <f>菜单标签数据!$E$15</f>
+        <f>菜单SAAS版!$E$15</f>
+      </c>
+      <c r="H31" t="s">
+        <v>1054</v>
       </c>
       <c r="I31" t="s">
-        <v>977</v>
+        <v>1055</v>
+      </c>
+      <c r="J31" t="s">
+        <v>1056</v>
       </c>
     </row>
     <row r="32">
       <c r="E32" t="s">
-        <v>976</v>
-      </c>
-      <c r="F32" t="s">
-        <v>921</v>
+        <v>1071</v>
+      </c>
+      <c r="F32">
+        <f>角色!$E$10</f>
       </c>
       <c r="G32">
-        <f>菜单SAAS版!$E$79</f>
-      </c>
-      <c r="H32">
-        <f>菜单标签数据!$E$16</f>
+        <f>菜单SAAS版!$E$13</f>
+      </c>
+      <c r="H32" t="s">
+        <v>1054</v>
       </c>
       <c r="I32" t="s">
-        <v>977</v>
+        <v>1055</v>
+      </c>
+      <c r="J32" t="s">
+        <v>1056</v>
       </c>
     </row>
     <row r="33">
       <c r="E33" t="s">
-        <v>976</v>
-      </c>
-      <c r="F33" t="s">
-        <v>921</v>
+        <v>1072</v>
+      </c>
+      <c r="F33">
+        <f>角色!$E$10</f>
       </c>
       <c r="G33">
-        <f>菜单SAAS版!$E$79</f>
-      </c>
-      <c r="H33">
-        <f>菜单标签数据!$E$17</f>
+        <f>菜单SAAS版!$E$16</f>
+      </c>
+      <c r="H33" t="s">
+        <v>1054</v>
       </c>
       <c r="I33" t="s">
-        <v>977</v>
+        <v>1055</v>
+      </c>
+      <c r="J33" t="s">
+        <v>1056</v>
       </c>
     </row>
     <row r="34">
       <c r="E34" t="s">
-        <v>976</v>
-      </c>
-      <c r="F34" t="s">
-        <v>921</v>
+        <v>1073</v>
+      </c>
+      <c r="F34">
+        <f>角色!$E$10</f>
       </c>
       <c r="G34">
-        <f>菜单SAAS版!$E$79</f>
-      </c>
-      <c r="H34">
-        <f>菜单标签数据!$E$22</f>
+        <f>菜单SAAS版!$E$35</f>
+      </c>
+      <c r="H34" t="s">
+        <v>1054</v>
       </c>
       <c r="I34" t="s">
-        <v>977</v>
+        <v>1055</v>
+      </c>
+      <c r="J34" t="s">
+        <v>1056</v>
       </c>
     </row>
     <row r="35">
       <c r="E35" t="s">
-        <v>976</v>
-      </c>
-      <c r="F35" t="s">
-        <v>921</v>
+        <v>1074</v>
+      </c>
+      <c r="F35">
+        <f>角色!$E$10</f>
       </c>
       <c r="G35">
-        <f>菜单SAAS版!$E$108</f>
-      </c>
-      <c r="H35">
-        <f>菜单标签数据!$E$14</f>
+        <f>菜单SAAS版!$E$29</f>
+      </c>
+      <c r="H35" t="s">
+        <v>1054</v>
       </c>
       <c r="I35" t="s">
-        <v>977</v>
+        <v>1055</v>
+      </c>
+      <c r="J35" t="s">
+        <v>1056</v>
       </c>
     </row>
     <row r="36">
       <c r="E36" t="s">
-        <v>976</v>
-      </c>
-      <c r="F36" t="s">
-        <v>921</v>
+        <v>1075</v>
+      </c>
+      <c r="F36">
+        <f>角色!$E$10</f>
       </c>
       <c r="G36">
-        <f>菜单SAAS版!$E$108</f>
-      </c>
-      <c r="H36">
-        <f>菜单标签数据!$E$17</f>
+        <f>菜单SAAS版!$E$36</f>
+      </c>
+      <c r="H36" t="s">
+        <v>1054</v>
       </c>
       <c r="I36" t="s">
-        <v>977</v>
+        <v>1055</v>
+      </c>
+      <c r="J36" t="s">
+        <v>1056</v>
       </c>
     </row>
     <row r="37">
       <c r="E37" t="s">
-        <v>976</v>
-      </c>
-      <c r="F37" t="s">
-        <v>921</v>
+        <v>1076</v>
+      </c>
+      <c r="F37">
+        <f>角色!$E$10</f>
       </c>
       <c r="G37">
-        <f>菜单SAAS版!$E$108</f>
-      </c>
-      <c r="H37">
-        <f>菜单标签数据!$E$22</f>
+        <f>菜单SAAS版!$E$22</f>
+      </c>
+      <c r="H37" t="s">
+        <v>1054</v>
       </c>
       <c r="I37" t="s">
-        <v>977</v>
+        <v>1055</v>
+      </c>
+      <c r="J37" t="s">
+        <v>1056</v>
       </c>
     </row>
     <row r="38">
       <c r="E38" t="s">
-        <v>976</v>
-      </c>
-      <c r="F38" t="s">
-        <v>921</v>
+        <v>1077</v>
+      </c>
+      <c r="F38">
+        <f>角色!$E$10</f>
       </c>
       <c r="G38">
-        <f>菜单SAAS版!$E$95</f>
-      </c>
-      <c r="H38">
-        <f>菜单标签数据!$E$14</f>
+        <f>菜单SAAS版!$E$39</f>
+      </c>
+      <c r="H38" t="s">
+        <v>1054</v>
       </c>
       <c r="I38" t="s">
-        <v>977</v>
+        <v>1055</v>
+      </c>
+      <c r="J38" t="s">
+        <v>1056</v>
       </c>
     </row>
     <row r="39">
       <c r="E39" t="s">
-        <v>976</v>
-      </c>
-      <c r="F39" t="s">
-        <v>921</v>
+        <v>1078</v>
+      </c>
+      <c r="F39">
+        <f>角色!$E$10</f>
       </c>
       <c r="G39">
-        <f>菜单SAAS版!$E$95</f>
-      </c>
-      <c r="H39">
-        <f>菜单标签数据!$E$17</f>
+        <f>菜单SAAS版!$E$37</f>
+      </c>
+      <c r="H39" t="s">
+        <v>1054</v>
       </c>
       <c r="I39" t="s">
-        <v>977</v>
+        <v>1055</v>
+      </c>
+      <c r="J39" t="s">
+        <v>1056</v>
       </c>
     </row>
     <row r="40">
       <c r="E40" t="s">
-        <v>976</v>
-      </c>
-      <c r="F40" t="s">
-        <v>921</v>
+        <v>1079</v>
+      </c>
+      <c r="F40">
+        <f>角色!$E$10</f>
       </c>
       <c r="G40">
-        <f>菜单SAAS版!$E$95</f>
-      </c>
-      <c r="H40">
-        <f>菜单标签数据!$E$22</f>
+        <f>菜单SAAS版!$E$31</f>
+      </c>
+      <c r="H40" t="s">
+        <v>1054</v>
       </c>
       <c r="I40" t="s">
-        <v>977</v>
+        <v>1055</v>
+      </c>
+      <c r="J40" t="s">
+        <v>1056</v>
       </c>
     </row>
     <row r="41">
       <c r="E41" t="s">
-        <v>976</v>
-      </c>
-      <c r="F41" t="s">
-        <v>921</v>
+        <v>1080</v>
+      </c>
+      <c r="F41">
+        <f>角色!$E$10</f>
       </c>
       <c r="G41">
-        <f>菜单SAAS版!$E$10</f>
-      </c>
-      <c r="H41">
-        <f>菜单标签数据!$E$13</f>
+        <f>菜单SAAS版!$E$25</f>
+      </c>
+      <c r="H41" t="s">
+        <v>1054</v>
       </c>
       <c r="I41" t="s">
-        <v>977</v>
+        <v>1055</v>
+      </c>
+      <c r="J41" t="s">
+        <v>1056</v>
       </c>
     </row>
     <row r="42">
       <c r="E42" t="s">
-        <v>976</v>
-      </c>
-      <c r="F42" t="s">
-        <v>921</v>
+        <v>1081</v>
+      </c>
+      <c r="F42">
+        <f>角色!$E$10</f>
       </c>
       <c r="G42">
-        <f>菜单SAAS版!$E$10</f>
-      </c>
-      <c r="H42">
-        <f>菜单标签数据!$E$14</f>
+        <f>菜单SAAS版!$E$23</f>
+      </c>
+      <c r="H42" t="s">
+        <v>1054</v>
       </c>
       <c r="I42" t="s">
-        <v>977</v>
+        <v>1055</v>
+      </c>
+      <c r="J42" t="s">
+        <v>1056</v>
       </c>
     </row>
     <row r="43">
       <c r="E43" t="s">
-        <v>976</v>
-      </c>
-      <c r="F43" t="s">
-        <v>921</v>
+        <v>1082</v>
+      </c>
+      <c r="F43">
+        <f>角色!$E$10</f>
       </c>
       <c r="G43">
-        <f>菜单SAAS版!$E$10</f>
-      </c>
-      <c r="H43">
-        <f>菜单标签数据!$E$15</f>
+        <f>菜单SAAS版!$E$45</f>
+      </c>
+      <c r="H43" t="s">
+        <v>1054</v>
       </c>
       <c r="I43" t="s">
-        <v>977</v>
+        <v>1055</v>
+      </c>
+      <c r="J43" t="s">
+        <v>1056</v>
       </c>
     </row>
     <row r="44">
       <c r="E44" t="s">
-        <v>976</v>
-      </c>
-      <c r="F44" t="s">
-        <v>921</v>
+        <v>1083</v>
+      </c>
+      <c r="F44">
+        <f>角色!$E$10</f>
       </c>
       <c r="G44">
-        <f>菜单SAAS版!$E$10</f>
-      </c>
-      <c r="H44">
-        <f>菜单标签数据!$E$16</f>
+        <f>菜单SAAS版!$E$33</f>
+      </c>
+      <c r="H44" t="s">
+        <v>1054</v>
       </c>
       <c r="I44" t="s">
-        <v>977</v>
+        <v>1055</v>
+      </c>
+      <c r="J44" t="s">
+        <v>1056</v>
       </c>
     </row>
     <row r="45">
       <c r="E45" t="s">
-        <v>976</v>
-      </c>
-      <c r="F45" t="s">
-        <v>921</v>
+        <v>1084</v>
+      </c>
+      <c r="F45">
+        <f>角色!$E$10</f>
       </c>
       <c r="G45">
-        <f>菜单SAAS版!$E$10</f>
-      </c>
-      <c r="H45">
-        <f>菜单标签数据!$E$22</f>
+        <f>菜单SAAS版!$E$42</f>
+      </c>
+      <c r="H45" t="s">
+        <v>1054</v>
       </c>
       <c r="I45" t="s">
-        <v>977</v>
+        <v>1055</v>
+      </c>
+      <c r="J45" t="s">
+        <v>1056</v>
       </c>
     </row>
     <row r="46">
       <c r="E46" t="s">
-        <v>976</v>
-      </c>
-      <c r="F46" t="s">
-        <v>921</v>
+        <v>1085</v>
+      </c>
+      <c r="F46">
+        <f>角色!$E$10</f>
       </c>
       <c r="G46">
-        <f>菜单SAAS版!$E$11</f>
-      </c>
-      <c r="H46">
-        <f>菜单标签数据!$E$14</f>
+        <f>菜单SAAS版!$E$28</f>
+      </c>
+      <c r="H46" t="s">
+        <v>1054</v>
       </c>
       <c r="I46" t="s">
-        <v>977</v>
+        <v>1055</v>
+      </c>
+      <c r="J46" t="s">
+        <v>1056</v>
       </c>
     </row>
     <row r="47">
       <c r="E47" t="s">
-        <v>976</v>
-      </c>
-      <c r="F47" t="s">
-        <v>921</v>
+        <v>1086</v>
+      </c>
+      <c r="F47">
+        <f>角色!$E$10</f>
       </c>
       <c r="G47">
-        <f>菜单SAAS版!$E$11</f>
-      </c>
-      <c r="H47">
-        <f>菜单标签数据!$E$17</f>
+        <f>菜单SAAS版!$E$18</f>
+      </c>
+      <c r="H47" t="s">
+        <v>1054</v>
       </c>
       <c r="I47" t="s">
-        <v>977</v>
+        <v>1055</v>
+      </c>
+      <c r="J47" t="s">
+        <v>1056</v>
       </c>
     </row>
     <row r="48">
       <c r="E48" t="s">
-        <v>976</v>
-      </c>
-      <c r="F48" t="s">
-        <v>921</v>
+        <v>1087</v>
+      </c>
+      <c r="F48">
+        <f>角色!$E$10</f>
       </c>
       <c r="G48">
-        <f>菜单SAAS版!$E$11</f>
-      </c>
-      <c r="H48">
-        <f>菜单标签数据!$E$22</f>
+        <f>菜单SAAS版!$E$73</f>
+      </c>
+      <c r="H48" t="s">
+        <v>1054</v>
       </c>
       <c r="I48" t="s">
-        <v>977</v>
+        <v>1055</v>
+      </c>
+      <c r="J48" t="s">
+        <v>1056</v>
       </c>
     </row>
     <row r="49">
       <c r="E49" t="s">
-        <v>976</v>
-      </c>
-      <c r="F49" t="s">
-        <v>921</v>
+        <v>1088</v>
+      </c>
+      <c r="F49">
+        <f>角色!$E$10</f>
       </c>
       <c r="G49">
-        <f>菜单SAAS版!$E$12</f>
-      </c>
-      <c r="H49">
-        <f>菜单标签数据!$E$14</f>
+        <f>菜单SAAS版!$E$74</f>
+      </c>
+      <c r="H49" t="s">
+        <v>1054</v>
       </c>
       <c r="I49" t="s">
-        <v>977</v>
+        <v>1055</v>
+      </c>
+      <c r="J49" t="s">
+        <v>1056</v>
       </c>
     </row>
     <row r="50">
       <c r="E50" t="s">
-        <v>976</v>
-      </c>
-      <c r="F50" t="s">
-        <v>921</v>
+        <v>1089</v>
+      </c>
+      <c r="F50">
+        <f>角色!$E$10</f>
       </c>
       <c r="G50">
-        <f>菜单SAAS版!$E$12</f>
-      </c>
-      <c r="H50">
-        <f>菜单标签数据!$E$17</f>
+        <f>菜单SAAS版!$E$70</f>
+      </c>
+      <c r="H50" t="s">
+        <v>1054</v>
       </c>
       <c r="I50" t="s">
-        <v>977</v>
+        <v>1055</v>
+      </c>
+      <c r="J50" t="s">
+        <v>1056</v>
       </c>
     </row>
     <row r="51">
       <c r="E51" t="s">
-        <v>976</v>
-      </c>
-      <c r="F51" t="s">
-        <v>921</v>
+        <v>1090</v>
+      </c>
+      <c r="F51">
+        <f>角色!$E$10</f>
       </c>
       <c r="G51">
-        <f>菜单SAAS版!$E$12</f>
-      </c>
-      <c r="H51">
-        <f>菜单标签数据!$E$22</f>
+        <f>菜单SAAS版!$E$69</f>
+      </c>
+      <c r="H51" t="s">
+        <v>1054</v>
       </c>
       <c r="I51" t="s">
-        <v>977</v>
+        <v>1055</v>
+      </c>
+      <c r="J51" t="s">
+        <v>1056</v>
       </c>
     </row>
     <row r="52">
       <c r="E52" t="s">
-        <v>976</v>
-      </c>
-      <c r="F52" t="s">
-        <v>921</v>
+        <v>1091</v>
+      </c>
+      <c r="F52">
+        <f>角色!$E$10</f>
       </c>
       <c r="G52">
-        <f>菜单SAAS版!$E$21</f>
-      </c>
-      <c r="H52">
-        <f>菜单标签数据!$E$14</f>
+        <f>菜单SAAS版!$E$76</f>
+      </c>
+      <c r="H52" t="s">
+        <v>1054</v>
       </c>
       <c r="I52" t="s">
-        <v>977</v>
+        <v>1055</v>
+      </c>
+      <c r="J52" t="s">
+        <v>1056</v>
       </c>
     </row>
     <row r="53">
       <c r="E53" t="s">
-        <v>976</v>
-      </c>
-      <c r="F53" t="s">
-        <v>921</v>
+        <v>1092</v>
+      </c>
+      <c r="F53">
+        <f>角色!$E$10</f>
       </c>
       <c r="G53">
-        <f>菜单SAAS版!$E$21</f>
-      </c>
-      <c r="H53">
-        <f>菜单标签数据!$E$17</f>
+        <f>菜单SAAS版!$E$78</f>
+      </c>
+      <c r="H53" t="s">
+        <v>1054</v>
       </c>
       <c r="I53" t="s">
-        <v>977</v>
+        <v>1055</v>
+      </c>
+      <c r="J53" t="s">
+        <v>1056</v>
       </c>
     </row>
     <row r="54">
       <c r="E54" t="s">
-        <v>976</v>
-      </c>
-      <c r="F54" t="s">
-        <v>921</v>
+        <v>1093</v>
+      </c>
+      <c r="F54">
+        <f>角色!$E$10</f>
       </c>
       <c r="G54">
-        <f>菜单SAAS版!$E$21</f>
-      </c>
-      <c r="H54">
-        <f>菜单标签数据!$E$22</f>
+        <f>菜单SAAS版!$E$75</f>
+      </c>
+      <c r="H54" t="s">
+        <v>1054</v>
       </c>
       <c r="I54" t="s">
-        <v>977</v>
+        <v>1055</v>
+      </c>
+      <c r="J54" t="s">
+        <v>1056</v>
       </c>
     </row>
     <row r="55">
       <c r="E55" t="s">
-        <v>976</v>
-      </c>
-      <c r="F55" t="s">
-        <v>921</v>
+        <v>1094</v>
+      </c>
+      <c r="F55">
+        <f>角色!$E$10</f>
       </c>
       <c r="G55">
-        <f>菜单SAAS版!$E$17</f>
-      </c>
-      <c r="H55">
-        <f>菜单标签数据!$E$14</f>
+        <f>菜单SAAS版!$E$67</f>
+      </c>
+      <c r="H55" t="s">
+        <v>1054</v>
       </c>
       <c r="I55" t="s">
-        <v>977</v>
+        <v>1055</v>
+      </c>
+      <c r="J55" t="s">
+        <v>1056</v>
       </c>
     </row>
     <row r="56">
       <c r="E56" t="s">
-        <v>976</v>
-      </c>
-      <c r="F56" t="s">
-        <v>921</v>
+        <v>1095</v>
+      </c>
+      <c r="F56">
+        <f>角色!$E$10</f>
       </c>
       <c r="G56">
-        <f>菜单SAAS版!$E$17</f>
-      </c>
-      <c r="H56">
-        <f>菜单标签数据!$E$17</f>
+        <f>菜单SAAS版!$E$57</f>
+      </c>
+      <c r="H56" t="s">
+        <v>1054</v>
       </c>
       <c r="I56" t="s">
-        <v>977</v>
+        <v>1055</v>
+      </c>
+      <c r="J56" t="s">
+        <v>1056</v>
       </c>
     </row>
     <row r="57">
       <c r="E57" t="s">
-        <v>976</v>
-      </c>
-      <c r="F57" t="s">
-        <v>921</v>
+        <v>1096</v>
+      </c>
+      <c r="F57">
+        <f>角色!$E$10</f>
       </c>
       <c r="G57">
-        <f>菜单SAAS版!$E$17</f>
-      </c>
-      <c r="H57">
-        <f>菜单标签数据!$E$22</f>
+        <f>菜单SAAS版!$E$48</f>
+      </c>
+      <c r="H57" t="s">
+        <v>1054</v>
       </c>
       <c r="I57" t="s">
-        <v>977</v>
+        <v>1055</v>
+      </c>
+      <c r="J57" t="s">
+        <v>1056</v>
       </c>
     </row>
     <row r="58">
       <c r="E58" t="s">
-        <v>976</v>
-      </c>
-      <c r="F58" t="s">
-        <v>921</v>
+        <v>1097</v>
+      </c>
+      <c r="F58">
+        <f>角色!$E$10</f>
       </c>
       <c r="G58">
-        <f>菜单SAAS版!$E$65</f>
-      </c>
-      <c r="H58">
-        <f>菜单标签数据!$E$14</f>
+        <f>菜单SAAS版!$E$63</f>
+      </c>
+      <c r="H58" t="s">
+        <v>1054</v>
       </c>
       <c r="I58" t="s">
-        <v>977</v>
+        <v>1055</v>
+      </c>
+      <c r="J58" t="s">
+        <v>1056</v>
       </c>
     </row>
     <row r="59">
       <c r="E59" t="s">
-        <v>976</v>
-      </c>
-      <c r="F59" t="s">
-        <v>921</v>
+        <v>1098</v>
+      </c>
+      <c r="F59">
+        <f>角色!$E$10</f>
       </c>
       <c r="G59">
-        <f>菜单SAAS版!$E$65</f>
-      </c>
-      <c r="H59">
-        <f>菜单标签数据!$E$17</f>
+        <f>菜单SAAS版!$E$34</f>
+      </c>
+      <c r="H59" t="s">
+        <v>1054</v>
       </c>
       <c r="I59" t="s">
-        <v>977</v>
+        <v>1055</v>
+      </c>
+      <c r="J59" t="s">
+        <v>1056</v>
       </c>
     </row>
     <row r="60">
       <c r="E60" t="s">
-        <v>976</v>
-      </c>
-      <c r="F60" t="s">
-        <v>921</v>
+        <v>1099</v>
+      </c>
+      <c r="F60">
+        <f>角色!$E$10</f>
       </c>
       <c r="G60">
-        <f>菜单SAAS版!$E$65</f>
-      </c>
-      <c r="H60">
-        <f>菜单标签数据!$E$22</f>
+        <f>菜单SAAS版!$E$30</f>
+      </c>
+      <c r="H60" t="s">
+        <v>1054</v>
       </c>
       <c r="I60" t="s">
-        <v>977</v>
+        <v>1055</v>
+      </c>
+      <c r="J60" t="s">
+        <v>1056</v>
       </c>
     </row>
     <row r="61">
       <c r="E61" t="s">
-        <v>976</v>
-      </c>
-      <c r="F61" t="s">
-        <v>921</v>
+        <v>1100</v>
+      </c>
+      <c r="F61">
+        <f>角色!$E$10</f>
       </c>
       <c r="G61">
-        <f>菜单SAAS版!$E$46</f>
-      </c>
-      <c r="H61">
-        <f>菜单标签数据!$E$14</f>
+        <f>菜单SAAS版!$E$41</f>
+      </c>
+      <c r="H61" t="s">
+        <v>1054</v>
       </c>
       <c r="I61" t="s">
-        <v>977</v>
+        <v>1055</v>
+      </c>
+      <c r="J61" t="s">
+        <v>1056</v>
       </c>
     </row>
     <row r="62">
       <c r="E62" t="s">
-        <v>976</v>
-      </c>
-      <c r="F62" t="s">
-        <v>921</v>
+        <v>1101</v>
+      </c>
+      <c r="F62">
+        <f>角色!$E$10</f>
       </c>
       <c r="G62">
-        <f>菜单SAAS版!$E$46</f>
-      </c>
-      <c r="H62">
-        <f>菜单标签数据!$E$17</f>
+        <f>菜单SAAS版!$E$38</f>
+      </c>
+      <c r="H62" t="s">
+        <v>1054</v>
       </c>
       <c r="I62" t="s">
-        <v>977</v>
+        <v>1055</v>
+      </c>
+      <c r="J62" t="s">
+        <v>1056</v>
       </c>
     </row>
     <row r="63">
       <c r="E63" t="s">
-        <v>976</v>
-      </c>
-      <c r="F63" t="s">
-        <v>921</v>
+        <v>1102</v>
+      </c>
+      <c r="F63">
+        <f>角色!$E$10</f>
       </c>
       <c r="G63">
-        <f>菜单SAAS版!$E$46</f>
-      </c>
-      <c r="H63">
-        <f>菜单标签数据!$E$22</f>
+        <f>菜单SAAS版!$E$26</f>
+      </c>
+      <c r="H63" t="s">
+        <v>1054</v>
       </c>
       <c r="I63" t="s">
-        <v>977</v>
+        <v>1055</v>
+      </c>
+      <c r="J63" t="s">
+        <v>1056</v>
       </c>
     </row>
     <row r="64">
       <c r="E64" t="s">
-        <v>976</v>
-      </c>
-      <c r="F64" t="s">
-        <v>921</v>
+        <v>1103</v>
+      </c>
+      <c r="F64">
+        <f>角色!$E$10</f>
       </c>
       <c r="G64">
-        <f>菜单SAAS版!$E$54</f>
-      </c>
-      <c r="H64">
-        <f>菜单标签数据!$E$14</f>
+        <f>菜单SAAS版!$E$24</f>
+      </c>
+      <c r="H64" t="s">
+        <v>1054</v>
       </c>
       <c r="I64" t="s">
-        <v>977</v>
+        <v>1055</v>
+      </c>
+      <c r="J64" t="s">
+        <v>1056</v>
       </c>
     </row>
     <row r="65">
       <c r="E65" t="s">
-        <v>976</v>
-      </c>
-      <c r="F65" t="s">
-        <v>921</v>
+        <v>1104</v>
+      </c>
+      <c r="F65">
+        <f>角色!$E$10</f>
       </c>
       <c r="G65">
-        <f>菜单SAAS版!$E$54</f>
-      </c>
-      <c r="H65">
-        <f>菜单标签数据!$E$17</f>
+        <f>菜单SAAS版!$E$32</f>
+      </c>
+      <c r="H65" t="s">
+        <v>1054</v>
       </c>
       <c r="I65" t="s">
-        <v>977</v>
+        <v>1055</v>
+      </c>
+      <c r="J65" t="s">
+        <v>1056</v>
       </c>
     </row>
     <row r="66">
       <c r="E66" t="s">
-        <v>976</v>
-      </c>
-      <c r="F66" t="s">
-        <v>921</v>
+        <v>1105</v>
+      </c>
+      <c r="F66">
+        <f>角色!$E$10</f>
       </c>
       <c r="G66">
-        <f>菜单SAAS版!$E$54</f>
-      </c>
-      <c r="H66">
-        <f>菜单标签数据!$E$22</f>
+        <f>菜单SAAS版!$E$44</f>
+      </c>
+      <c r="H66" t="s">
+        <v>1054</v>
       </c>
       <c r="I66" t="s">
-        <v>977</v>
+        <v>1055</v>
+      </c>
+      <c r="J66" t="s">
+        <v>1056</v>
       </c>
     </row>
     <row r="67">
       <c r="E67" t="s">
-        <v>976</v>
-      </c>
-      <c r="F67" t="s">
-        <v>921</v>
+        <v>1106</v>
+      </c>
+      <c r="F67">
+        <f>角色!$E$10</f>
       </c>
       <c r="G67">
-        <f>菜单SAAS版!$E$47</f>
-      </c>
-      <c r="H67">
-        <f>菜单标签数据!$E$14</f>
+        <f>菜单SAAS版!$E$40</f>
+      </c>
+      <c r="H67" t="s">
+        <v>1054</v>
       </c>
       <c r="I67" t="s">
-        <v>977</v>
+        <v>1055</v>
+      </c>
+      <c r="J67" t="s">
+        <v>1056</v>
       </c>
     </row>
     <row r="68">
       <c r="E68" t="s">
-        <v>976</v>
-      </c>
-      <c r="F68" t="s">
-        <v>921</v>
+        <v>1107</v>
+      </c>
+      <c r="F68">
+        <f>角色!$E$10</f>
       </c>
       <c r="G68">
-        <f>菜单SAAS版!$E$47</f>
-      </c>
-      <c r="H68">
-        <f>菜单标签数据!$E$17</f>
+        <f>菜单SAAS版!$E$43</f>
+      </c>
+      <c r="H68" t="s">
+        <v>1054</v>
       </c>
       <c r="I68" t="s">
-        <v>977</v>
+        <v>1055</v>
+      </c>
+      <c r="J68" t="s">
+        <v>1056</v>
       </c>
     </row>
     <row r="69">
       <c r="E69" t="s">
-        <v>976</v>
-      </c>
-      <c r="F69" t="s">
-        <v>921</v>
+        <v>1108</v>
+      </c>
+      <c r="F69">
+        <f>角色!$E$10</f>
       </c>
       <c r="G69">
-        <f>菜单SAAS版!$E$47</f>
-      </c>
-      <c r="H69">
-        <f>菜单标签数据!$E$22</f>
+        <f>菜单SAAS版!$E$20</f>
+      </c>
+      <c r="H69" t="s">
+        <v>1054</v>
       </c>
       <c r="I69" t="s">
-        <v>977</v>
+        <v>1055</v>
+      </c>
+      <c r="J69" t="s">
+        <v>1056</v>
       </c>
     </row>
     <row r="70">
       <c r="E70" t="s">
-        <v>976</v>
-      </c>
-      <c r="F70" t="s">
-        <v>921</v>
+        <v>1109</v>
+      </c>
+      <c r="F70">
+        <f>角色!$E$10</f>
       </c>
       <c r="G70">
-        <f>菜单SAAS版!$E$62</f>
-      </c>
-      <c r="H70">
-        <f>菜单标签数据!$E$14</f>
+        <f>菜单SAAS版!$E$71</f>
+      </c>
+      <c r="H70" t="s">
+        <v>1054</v>
       </c>
       <c r="I70" t="s">
-        <v>977</v>
+        <v>1055</v>
+      </c>
+      <c r="J70" t="s">
+        <v>1056</v>
       </c>
     </row>
     <row r="71">
       <c r="E71" t="s">
-        <v>976</v>
-      </c>
-      <c r="F71" t="s">
-        <v>921</v>
+        <v>1110</v>
+      </c>
+      <c r="F71">
+        <f>角色!$E$10</f>
       </c>
       <c r="G71">
-        <f>菜单SAAS版!$E$62</f>
-      </c>
-      <c r="H71">
-        <f>菜单标签数据!$E$17</f>
+        <f>菜单SAAS版!$E$72</f>
+      </c>
+      <c r="H71" t="s">
+        <v>1054</v>
       </c>
       <c r="I71" t="s">
-        <v>977</v>
+        <v>1055</v>
+      </c>
+      <c r="J71" t="s">
+        <v>1056</v>
       </c>
     </row>
     <row r="72">
       <c r="E72" t="s">
-        <v>976</v>
-      </c>
-      <c r="F72" t="s">
-        <v>921</v>
+        <v>1111</v>
+      </c>
+      <c r="F72">
+        <f>角色!$E$10</f>
       </c>
       <c r="G72">
-        <f>菜单SAAS版!$E$62</f>
-      </c>
-      <c r="H72">
-        <f>菜单标签数据!$E$22</f>
+        <f>菜单SAAS版!$E$68</f>
+      </c>
+      <c r="H72" t="s">
+        <v>1054</v>
       </c>
       <c r="I72" t="s">
-        <v>977</v>
+        <v>1055</v>
+      </c>
+      <c r="J72" t="s">
+        <v>1056</v>
       </c>
     </row>
     <row r="73">
       <c r="E73" t="s">
-        <v>976</v>
-      </c>
-      <c r="F73" t="s">
-        <v>921</v>
+        <v>1112</v>
+      </c>
+      <c r="F73">
+        <f>角色!$E$10</f>
       </c>
       <c r="G73">
-        <f>菜单SAAS版!$E$118</f>
-      </c>
-      <c r="H73">
-        <f>菜单标签数据!$E$13</f>
+        <f>菜单SAAS版!$E$77</f>
+      </c>
+      <c r="H73" t="s">
+        <v>1054</v>
       </c>
       <c r="I73" t="s">
-        <v>977</v>
+        <v>1055</v>
+      </c>
+      <c r="J73" t="s">
+        <v>1056</v>
       </c>
     </row>
     <row r="74">
       <c r="E74" t="s">
-        <v>976</v>
-      </c>
-      <c r="F74" t="s">
-        <v>921</v>
+        <v>1113</v>
+      </c>
+      <c r="F74">
+        <f>角色!$E$10</f>
       </c>
       <c r="G74">
-        <f>菜单SAAS版!$E$118</f>
-      </c>
-      <c r="H74">
-        <f>菜单标签数据!$E$14</f>
+        <f>菜单SAAS版!$E$56</f>
+      </c>
+      <c r="H74" t="s">
+        <v>1054</v>
       </c>
       <c r="I74" t="s">
-        <v>977</v>
+        <v>1055</v>
+      </c>
+      <c r="J74" t="s">
+        <v>1056</v>
       </c>
     </row>
     <row r="75">
       <c r="E75" t="s">
-        <v>976</v>
-      </c>
-      <c r="F75" t="s">
-        <v>921</v>
+        <v>1114</v>
+      </c>
+      <c r="F75">
+        <f>角色!$E$10</f>
       </c>
       <c r="G75">
-        <f>菜单SAAS版!$E$118</f>
-      </c>
-      <c r="H75">
-        <f>菜单标签数据!$E$15</f>
+        <f>菜单SAAS版!$E$81</f>
+      </c>
+      <c r="H75" t="s">
+        <v>1054</v>
       </c>
       <c r="I75" t="s">
-        <v>977</v>
+        <v>1055</v>
+      </c>
+      <c r="J75" t="s">
+        <v>1056</v>
       </c>
     </row>
     <row r="76">
       <c r="E76" t="s">
-        <v>976</v>
-      </c>
-      <c r="F76" t="s">
-        <v>921</v>
+        <v>1115</v>
+      </c>
+      <c r="F76">
+        <f>角色!$E$10</f>
       </c>
       <c r="G76">
-        <f>菜单SAAS版!$E$118</f>
-      </c>
-      <c r="H76">
-        <f>菜单标签数据!$E$16</f>
+        <f>菜单SAAS版!$E$61</f>
+      </c>
+      <c r="H76" t="s">
+        <v>1054</v>
       </c>
       <c r="I76" t="s">
-        <v>977</v>
+        <v>1055</v>
+      </c>
+      <c r="J76" t="s">
+        <v>1056</v>
       </c>
     </row>
     <row r="77">
       <c r="E77" t="s">
-        <v>976</v>
-      </c>
-      <c r="F77" t="s">
-        <v>921</v>
+        <v>1116</v>
+      </c>
+      <c r="F77">
+        <f>角色!$E$10</f>
       </c>
       <c r="G77">
-        <f>菜单SAAS版!$E$118</f>
-      </c>
-      <c r="H77">
-        <f>菜单标签数据!$E$17</f>
+        <f>菜单SAAS版!$E$60</f>
+      </c>
+      <c r="H77" t="s">
+        <v>1054</v>
       </c>
       <c r="I77" t="s">
-        <v>977</v>
+        <v>1055</v>
+      </c>
+      <c r="J77" t="s">
+        <v>1056</v>
       </c>
     </row>
     <row r="78">
       <c r="E78" t="s">
-        <v>976</v>
-      </c>
-      <c r="F78" t="s">
-        <v>921</v>
+        <v>1117</v>
+      </c>
+      <c r="F78">
+        <f>角色!$E$10</f>
       </c>
       <c r="G78">
-        <f>菜单SAAS版!$E$118</f>
-      </c>
-      <c r="H78">
-        <f>菜单标签数据!$E$22</f>
+        <f>菜单SAAS版!$E$55</f>
+      </c>
+      <c r="H78" t="s">
+        <v>1054</v>
       </c>
       <c r="I78" t="s">
-        <v>977</v>
+        <v>1055</v>
+      </c>
+      <c r="J78" t="s">
+        <v>1056</v>
       </c>
     </row>
     <row r="79">
       <c r="E79" t="s">
-        <v>976</v>
-      </c>
-      <c r="F79" t="s">
-        <v>921</v>
+        <v>1118</v>
+      </c>
+      <c r="F79">
+        <f>角色!$E$10</f>
       </c>
       <c r="G79">
-        <f>菜单SAAS版!$E$118</f>
-      </c>
-      <c r="H79">
-        <f>菜单标签数据!$E$24</f>
+        <f>菜单SAAS版!$E$86</f>
+      </c>
+      <c r="H79" t="s">
+        <v>1054</v>
       </c>
       <c r="I79" t="s">
-        <v>977</v>
+        <v>1055</v>
+      </c>
+      <c r="J79" t="s">
+        <v>1056</v>
       </c>
     </row>
     <row r="80">
       <c r="E80" t="s">
-        <v>976</v>
-      </c>
-      <c r="F80" t="s">
-        <v>921</v>
+        <v>1119</v>
+      </c>
+      <c r="F80">
+        <f>角色!$E$10</f>
       </c>
       <c r="G80">
-        <f>菜单SAAS版!$E$119</f>
-      </c>
-      <c r="H80">
-        <f>菜单标签数据!$E$14</f>
+        <f>菜单SAAS版!$E$59</f>
+      </c>
+      <c r="H80" t="s">
+        <v>1054</v>
       </c>
       <c r="I80" t="s">
-        <v>977</v>
+        <v>1055</v>
+      </c>
+      <c r="J80" t="s">
+        <v>1056</v>
       </c>
     </row>
     <row r="81">
       <c r="E81" t="s">
-        <v>976</v>
-      </c>
-      <c r="F81" t="s">
-        <v>921</v>
+        <v>1120</v>
+      </c>
+      <c r="F81">
+        <f>角色!$E$10</f>
       </c>
       <c r="G81">
-        <f>菜单SAAS版!$E$119</f>
-      </c>
-      <c r="H81">
-        <f>菜单标签数据!$E$17</f>
+        <f>菜单SAAS版!$E$94</f>
+      </c>
+      <c r="H81" t="s">
+        <v>1054</v>
       </c>
       <c r="I81" t="s">
-        <v>977</v>
+        <v>1055</v>
+      </c>
+      <c r="J81" t="s">
+        <v>1056</v>
       </c>
     </row>
     <row r="82">
       <c r="E82" t="s">
-        <v>976</v>
-      </c>
-      <c r="F82" t="s">
-        <v>921</v>
+        <v>1121</v>
+      </c>
+      <c r="F82">
+        <f>角色!$E$10</f>
       </c>
       <c r="G82">
-        <f>菜单SAAS版!$E$119</f>
-      </c>
-      <c r="H82">
-        <f>菜单标签数据!$E$22</f>
+        <f>菜单SAAS版!$E$84</f>
+      </c>
+      <c r="H82" t="s">
+        <v>1054</v>
       </c>
       <c r="I82" t="s">
-        <v>977</v>
+        <v>1055</v>
+      </c>
+      <c r="J82" t="s">
+        <v>1056</v>
       </c>
     </row>
     <row r="83">
       <c r="E83" t="s">
-        <v>976</v>
-      </c>
-      <c r="F83" t="s">
-        <v>921</v>
+        <v>1122</v>
+      </c>
+      <c r="F83">
+        <f>角色!$E$10</f>
       </c>
       <c r="G83">
-        <f>菜单SAAS版!$E$9</f>
-      </c>
-      <c r="H83">
-        <f>菜单标签数据!$E$8</f>
+        <f>菜单SAAS版!$E$85</f>
+      </c>
+      <c r="H83" t="s">
+        <v>1054</v>
       </c>
       <c r="I83" t="s">
-        <v>978</v>
+        <v>1055</v>
+      </c>
+      <c r="J83" t="s">
+        <v>1056</v>
       </c>
     </row>
     <row r="84">
       <c r="E84" t="s">
-        <v>976</v>
-      </c>
-      <c r="F84" t="s">
-        <v>921</v>
+        <v>1123</v>
+      </c>
+      <c r="F84">
+        <f>角色!$E$10</f>
       </c>
       <c r="G84">
-        <f>菜单SAAS版!$E$14</f>
-      </c>
-      <c r="H84">
-        <f>菜单标签数据!$E$14</f>
+        <f>菜单SAAS版!$E$83</f>
+      </c>
+      <c r="H84" t="s">
+        <v>1054</v>
       </c>
       <c r="I84" t="s">
-        <v>978</v>
+        <v>1055</v>
+      </c>
+      <c r="J84" t="s">
+        <v>1056</v>
       </c>
     </row>
     <row r="85">
       <c r="E85" t="s">
-        <v>976</v>
-      </c>
-      <c r="F85" t="s">
-        <v>921</v>
+        <v>1124</v>
+      </c>
+      <c r="F85">
+        <f>角色!$E$10</f>
       </c>
       <c r="G85">
-        <f>菜单SAAS版!$E$14</f>
-      </c>
-      <c r="H85">
-        <f>菜单标签数据!$E$17</f>
+        <f>菜单SAAS版!$E$87</f>
+      </c>
+      <c r="H85" t="s">
+        <v>1054</v>
       </c>
       <c r="I85" t="s">
-        <v>978</v>
+        <v>1055</v>
+      </c>
+      <c r="J85" t="s">
+        <v>1056</v>
       </c>
     </row>
     <row r="86">
       <c r="E86" t="s">
-        <v>976</v>
-      </c>
-      <c r="F86" t="s">
-        <v>921</v>
+        <v>1125</v>
+      </c>
+      <c r="F86">
+        <f>角色!$E$10</f>
       </c>
       <c r="G86">
-        <f>菜单SAAS版!$E$19</f>
-      </c>
-      <c r="H86">
-        <f>菜单标签数据!$E$14</f>
+        <f>菜单SAAS版!$E$90</f>
+      </c>
+      <c r="H86" t="s">
+        <v>1054</v>
       </c>
       <c r="I86" t="s">
-        <v>978</v>
+        <v>1055</v>
+      </c>
+      <c r="J86" t="s">
+        <v>1056</v>
       </c>
     </row>
     <row r="87">
       <c r="E87" t="s">
-        <v>976</v>
-      </c>
-      <c r="F87" t="s">
-        <v>921</v>
+        <v>1126</v>
+      </c>
+      <c r="F87">
+        <f>角色!$E$10</f>
       </c>
       <c r="G87">
-        <f>菜单SAAS版!$E$19</f>
-      </c>
-      <c r="H87">
-        <f>菜单标签数据!$E$17</f>
+        <f>菜单SAAS版!$E$89</f>
+      </c>
+      <c r="H87" t="s">
+        <v>1054</v>
       </c>
       <c r="I87" t="s">
-        <v>978</v>
+        <v>1055</v>
+      </c>
+      <c r="J87" t="s">
+        <v>1056</v>
       </c>
     </row>
     <row r="88">
       <c r="E88" t="s">
-        <v>976</v>
-      </c>
-      <c r="F88" t="s">
-        <v>921</v>
+        <v>1127</v>
+      </c>
+      <c r="F88">
+        <f>角色!$E$10</f>
       </c>
       <c r="G88">
-        <f>菜单SAAS版!$E$27</f>
-      </c>
-      <c r="H88">
-        <f>菜单标签数据!$E$14</f>
+        <f>菜单SAAS版!$E$91</f>
+      </c>
+      <c r="H88" t="s">
+        <v>1054</v>
       </c>
       <c r="I88" t="s">
-        <v>978</v>
+        <v>1055</v>
+      </c>
+      <c r="J88" t="s">
+        <v>1056</v>
       </c>
     </row>
     <row r="89">
       <c r="E89" t="s">
-        <v>976</v>
-      </c>
-      <c r="F89" t="s">
-        <v>921</v>
+        <v>1128</v>
+      </c>
+      <c r="F89">
+        <f>角色!$E$10</f>
       </c>
       <c r="G89">
-        <f>菜单SAAS版!$E$27</f>
-      </c>
-      <c r="H89">
-        <f>菜单标签数据!$E$17</f>
+        <f>菜单SAAS版!$E$88</f>
+      </c>
+      <c r="H89" t="s">
+        <v>1054</v>
       </c>
       <c r="I89" t="s">
-        <v>978</v>
+        <v>1055</v>
+      </c>
+      <c r="J89" t="s">
+        <v>1056</v>
       </c>
     </row>
     <row r="90">
       <c r="E90" t="s">
-        <v>976</v>
-      </c>
-      <c r="F90" t="s">
-        <v>921</v>
+        <v>1129</v>
+      </c>
+      <c r="F90">
+        <f>角色!$E$10</f>
       </c>
       <c r="G90">
-        <f>菜单SAAS版!$E$49</f>
-      </c>
-      <c r="H90">
-        <f>菜单标签数据!$E$14</f>
+        <f>菜单SAAS版!$E$92</f>
+      </c>
+      <c r="H90" t="s">
+        <v>1054</v>
       </c>
       <c r="I90" t="s">
-        <v>978</v>
+        <v>1055</v>
+      </c>
+      <c r="J90" t="s">
+        <v>1056</v>
       </c>
     </row>
     <row r="91">
       <c r="E91" t="s">
-        <v>976</v>
-      </c>
-      <c r="F91" t="s">
-        <v>921</v>
+        <v>1130</v>
+      </c>
+      <c r="F91">
+        <f>角色!$E$10</f>
       </c>
       <c r="G91">
-        <f>菜单SAAS版!$E$49</f>
-      </c>
-      <c r="H91">
-        <f>菜单标签数据!$E$17</f>
+        <f>菜单SAAS版!$E$93</f>
+      </c>
+      <c r="H91" t="s">
+        <v>1054</v>
       </c>
       <c r="I91" t="s">
-        <v>978</v>
+        <v>1055</v>
+      </c>
+      <c r="J91" t="s">
+        <v>1056</v>
       </c>
     </row>
     <row r="92">
       <c r="E92" t="s">
-        <v>976</v>
-      </c>
-      <c r="F92" t="s">
-        <v>921</v>
+        <v>1131</v>
+      </c>
+      <c r="F92">
+        <f>角色!$E$10</f>
       </c>
       <c r="G92">
-        <f>菜单SAAS版!$E$58</f>
-      </c>
-      <c r="H92">
-        <f>菜单标签数据!$E$14</f>
+        <f>菜单SAAS版!$E$109</f>
+      </c>
+      <c r="H92" t="s">
+        <v>1054</v>
       </c>
       <c r="I92" t="s">
-        <v>978</v>
+        <v>1055</v>
+      </c>
+      <c r="J92" t="s">
+        <v>1056</v>
       </c>
     </row>
     <row r="93">
       <c r="E93" t="s">
-        <v>976</v>
-      </c>
-      <c r="F93" t="s">
-        <v>921</v>
+        <v>1132</v>
+      </c>
+      <c r="F93">
+        <f>角色!$E$10</f>
       </c>
       <c r="G93">
-        <f>菜单SAAS版!$E$58</f>
-      </c>
-      <c r="H93">
-        <f>菜单标签数据!$E$17</f>
+        <f>菜单SAAS版!$E$111</f>
+      </c>
+      <c r="H93" t="s">
+        <v>1054</v>
       </c>
       <c r="I93" t="s">
-        <v>978</v>
+        <v>1055</v>
+      </c>
+      <c r="J93" t="s">
+        <v>1056</v>
       </c>
     </row>
     <row r="94">
       <c r="E94" t="s">
-        <v>976</v>
-      </c>
-      <c r="F94" t="s">
-        <v>921</v>
+        <v>1133</v>
+      </c>
+      <c r="F94">
+        <f>角色!$E$10</f>
       </c>
       <c r="G94">
-        <f>菜单SAAS版!$E$64</f>
-      </c>
-      <c r="H94">
-        <f>菜单标签数据!$E$14</f>
+        <f>菜单SAAS版!$E$110</f>
+      </c>
+      <c r="H94" t="s">
+        <v>1054</v>
       </c>
       <c r="I94" t="s">
-        <v>978</v>
+        <v>1055</v>
+      </c>
+      <c r="J94" t="s">
+        <v>1056</v>
       </c>
     </row>
     <row r="95">
       <c r="E95" t="s">
-        <v>976</v>
-      </c>
-      <c r="F95" t="s">
-        <v>921</v>
+        <v>1134</v>
+      </c>
+      <c r="F95">
+        <f>角色!$E$10</f>
       </c>
       <c r="G95">
-        <f>菜单SAAS版!$E$64</f>
-      </c>
-      <c r="H95">
-        <f>菜单标签数据!$E$17</f>
+        <f>菜单SAAS版!$E$113</f>
+      </c>
+      <c r="H95" t="s">
+        <v>1054</v>
       </c>
       <c r="I95" t="s">
-        <v>978</v>
+        <v>1055</v>
+      </c>
+      <c r="J95" t="s">
+        <v>1056</v>
       </c>
     </row>
     <row r="96">
       <c r="E96" t="s">
-        <v>976</v>
-      </c>
-      <c r="F96" t="s">
-        <v>921</v>
+        <v>1135</v>
+      </c>
+      <c r="F96">
+        <f>角色!$E$10</f>
       </c>
       <c r="G96">
-        <f>菜单SAAS版!$E$66</f>
-      </c>
-      <c r="H96">
-        <f>菜单标签数据!$E$14</f>
+        <f>菜单SAAS版!$E$112</f>
+      </c>
+      <c r="H96" t="s">
+        <v>1054</v>
       </c>
       <c r="I96" t="s">
-        <v>978</v>
+        <v>1055</v>
+      </c>
+      <c r="J96" t="s">
+        <v>1056</v>
       </c>
     </row>
     <row r="97">
       <c r="E97" t="s">
-        <v>976</v>
-      </c>
-      <c r="F97" t="s">
-        <v>921</v>
+        <v>1136</v>
+      </c>
+      <c r="F97">
+        <f>角色!$E$10</f>
       </c>
       <c r="G97">
-        <f>菜单SAAS版!$E$66</f>
-      </c>
-      <c r="H97">
-        <f>菜单标签数据!$E$17</f>
+        <f>菜单SAAS版!$E$115</f>
+      </c>
+      <c r="H97" t="s">
+        <v>1054</v>
       </c>
       <c r="I97" t="s">
-        <v>978</v>
+        <v>1055</v>
+      </c>
+      <c r="J97" t="s">
+        <v>1056</v>
       </c>
     </row>
     <row r="98">
       <c r="E98" t="s">
-        <v>976</v>
-      </c>
-      <c r="F98" t="s">
-        <v>921</v>
+        <v>1137</v>
+      </c>
+      <c r="F98">
+        <f>角色!$E$10</f>
       </c>
       <c r="G98">
-        <f>菜单SAAS版!$E$98</f>
-      </c>
-      <c r="H98">
-        <f>菜单标签数据!$E$14</f>
+        <f>菜单SAAS版!$E$117</f>
+      </c>
+      <c r="H98" t="s">
+        <v>1054</v>
       </c>
       <c r="I98" t="s">
-        <v>978</v>
+        <v>1055</v>
+      </c>
+      <c r="J98" t="s">
+        <v>1056</v>
       </c>
     </row>
     <row r="99">
       <c r="E99" t="s">
-        <v>976</v>
-      </c>
-      <c r="F99" t="s">
-        <v>921</v>
+        <v>1138</v>
+      </c>
+      <c r="F99">
+        <f>角色!$E$10</f>
       </c>
       <c r="G99">
-        <f>菜单SAAS版!$E$98</f>
-      </c>
-      <c r="H99">
-        <f>菜单标签数据!$E$17</f>
+        <f>菜单SAAS版!$E$116</f>
+      </c>
+      <c r="H99" t="s">
+        <v>1054</v>
       </c>
       <c r="I99" t="s">
-        <v>978</v>
+        <v>1055</v>
+      </c>
+      <c r="J99" t="s">
+        <v>1056</v>
       </c>
     </row>
     <row r="100">
       <c r="E100" t="s">
-        <v>976</v>
-      </c>
-      <c r="F100" t="s">
-        <v>921</v>
+        <v>1139</v>
+      </c>
+      <c r="F100">
+        <f>角色!$E$10</f>
       </c>
       <c r="G100">
-        <f>菜单SAAS版!$E$114</f>
-      </c>
-      <c r="H100">
-        <f>菜单标签数据!$E$14</f>
+        <f>菜单SAAS版!$E$97</f>
+      </c>
+      <c r="H100" t="s">
+        <v>1054</v>
       </c>
       <c r="I100" t="s">
-        <v>978</v>
+        <v>1055</v>
+      </c>
+      <c r="J100" t="s">
+        <v>1056</v>
       </c>
     </row>
     <row r="101">
       <c r="E101" t="s">
-        <v>976</v>
-      </c>
-      <c r="F101" t="s">
-        <v>921</v>
+        <v>1140</v>
+      </c>
+      <c r="F101">
+        <f>角色!$E$10</f>
       </c>
       <c r="G101">
-        <f>菜单SAAS版!$E$114</f>
-      </c>
-      <c r="H101">
-        <f>菜单标签数据!$E$17</f>
+        <f>菜单SAAS版!$E$107</f>
+      </c>
+      <c r="H101" t="s">
+        <v>1054</v>
       </c>
       <c r="I101" t="s">
-        <v>978</v>
+        <v>1055</v>
+      </c>
+      <c r="J101" t="s">
+        <v>1056</v>
       </c>
     </row>
     <row r="102">
       <c r="E102" t="s">
-        <v>976</v>
-      </c>
-      <c r="F102" t="s">
-        <v>921</v>
+        <v>1141</v>
+      </c>
+      <c r="F102">
+        <f>角色!$E$10</f>
       </c>
       <c r="G102">
-        <f>菜单SAAS版!$E$120</f>
-      </c>
-      <c r="H102">
-        <f>菜单标签数据!$E$14</f>
+        <f>菜单SAAS版!$E$102</f>
+      </c>
+      <c r="H102" t="s">
+        <v>1054</v>
       </c>
       <c r="I102" t="s">
-        <v>978</v>
+        <v>1055</v>
+      </c>
+      <c r="J102" t="s">
+        <v>1056</v>
       </c>
     </row>
     <row r="103">
       <c r="E103" t="s">
-        <v>976</v>
-      </c>
-      <c r="F103" t="s">
-        <v>921</v>
+        <v>1142</v>
+      </c>
+      <c r="F103">
+        <f>角色!$E$10</f>
       </c>
       <c r="G103">
-        <f>菜单SAAS版!$E$120</f>
-      </c>
-      <c r="H103">
-        <f>菜单标签数据!$E$17</f>
+        <f>菜单SAAS版!$E$100</f>
+      </c>
+      <c r="H103" t="s">
+        <v>1054</v>
       </c>
       <c r="I103" t="s">
-        <v>978</v>
+        <v>1055</v>
+      </c>
+      <c r="J103" t="s">
+        <v>1056</v>
       </c>
     </row>
     <row r="104">
       <c r="E104" t="s">
-        <v>976</v>
-      </c>
-      <c r="F104" t="s">
-        <v>921</v>
+        <v>1143</v>
+      </c>
+      <c r="F104">
+        <f>角色!$E$10</f>
       </c>
       <c r="G104">
-        <f>菜单SAAS版!$E$80</f>
-      </c>
-      <c r="H104">
-        <f>菜单标签数据!$E$14</f>
+        <f>菜单SAAS版!$E$101</f>
+      </c>
+      <c r="H104" t="s">
+        <v>1054</v>
       </c>
       <c r="I104" t="s">
-        <v>977</v>
+        <v>1055</v>
+      </c>
+      <c r="J104" t="s">
+        <v>1056</v>
       </c>
     </row>
     <row r="105">
       <c r="E105" t="s">
-        <v>976</v>
-      </c>
-      <c r="F105" t="s">
-        <v>921</v>
+        <v>1144</v>
+      </c>
+      <c r="F105">
+        <f>角色!$E$10</f>
       </c>
       <c r="G105">
-        <f>菜单SAAS版!$E$80</f>
-      </c>
-      <c r="H105">
-        <f>菜单标签数据!$E$17</f>
+        <f>菜单SAAS版!$E$99</f>
+      </c>
+      <c r="H105" t="s">
+        <v>1054</v>
       </c>
       <c r="I105" t="s">
-        <v>977</v>
+        <v>1055</v>
+      </c>
+      <c r="J105" t="s">
+        <v>1056</v>
       </c>
     </row>
     <row r="106">
       <c r="E106" t="s">
-        <v>976</v>
-      </c>
-      <c r="F106" t="s">
-        <v>921</v>
+        <v>1145</v>
+      </c>
+      <c r="F106">
+        <f>角色!$E$10</f>
       </c>
       <c r="G106">
-        <f>菜单SAAS版!$E$80</f>
-      </c>
-      <c r="H106">
-        <f>菜单标签数据!$E$22</f>
+        <f>菜单SAAS版!$E$96</f>
+      </c>
+      <c r="H106" t="s">
+        <v>1054</v>
       </c>
       <c r="I106" t="s">
-        <v>977</v>
+        <v>1055</v>
+      </c>
+      <c r="J106" t="s">
+        <v>1056</v>
       </c>
     </row>
     <row r="107">
       <c r="E107" t="s">
-        <v>976</v>
-      </c>
-      <c r="F107" t="s">
-        <v>921</v>
+        <v>1146</v>
+      </c>
+      <c r="F107">
+        <f>角色!$E$10</f>
       </c>
       <c r="G107">
-        <f>菜单SAAS版!$E$82</f>
-      </c>
-      <c r="H107">
-        <f>菜单标签数据!$E$14</f>
+        <f>菜单SAAS版!$E$106</f>
+      </c>
+      <c r="H107" t="s">
+        <v>1054</v>
       </c>
       <c r="I107" t="s">
-        <v>978</v>
+        <v>1055</v>
+      </c>
+      <c r="J107" t="s">
+        <v>1056</v>
       </c>
     </row>
     <row r="108">
       <c r="E108" t="s">
-        <v>976</v>
-      </c>
-      <c r="F108" t="s">
-        <v>921</v>
+        <v>1147</v>
+      </c>
+      <c r="F108">
+        <f>角色!$E$10</f>
       </c>
       <c r="G108">
-        <f>菜单SAAS版!$E$82</f>
-      </c>
-      <c r="H108">
-        <f>菜单标签数据!$E$17</f>
+        <f>菜单SAAS版!$E$103</f>
+      </c>
+      <c r="H108" t="s">
+        <v>1054</v>
       </c>
       <c r="I108" t="s">
-        <v>978</v>
+        <v>1055</v>
+      </c>
+      <c r="J108" t="s">
+        <v>1056</v>
       </c>
     </row>
     <row r="109">
       <c r="E109" t="s">
-        <v>976</v>
-      </c>
-      <c r="F109" t="s">
-        <v>921</v>
+        <v>1148</v>
+      </c>
+      <c r="F109">
+        <f>角色!$E$10</f>
       </c>
       <c r="G109">
-        <f>菜单SAAS版!$E$50</f>
-      </c>
-      <c r="H109">
-        <f>菜单标签数据!$E$14</f>
+        <f>菜单SAAS版!$E$104</f>
+      </c>
+      <c r="H109" t="s">
+        <v>1054</v>
       </c>
       <c r="I109" t="s">
-        <v>977</v>
+        <v>1055</v>
+      </c>
+      <c r="J109" t="s">
+        <v>1056</v>
       </c>
     </row>
     <row r="110">
       <c r="E110" t="s">
-        <v>976</v>
-      </c>
-      <c r="F110" t="s">
-        <v>921</v>
+        <v>1149</v>
+      </c>
+      <c r="F110">
+        <f>角色!$E$10</f>
       </c>
       <c r="G110">
-        <f>菜单SAAS版!$E$50</f>
-      </c>
-      <c r="H110">
-        <f>菜单标签数据!$E$17</f>
+        <f>菜单SAAS版!$E$105</f>
+      </c>
+      <c r="H110" t="s">
+        <v>1054</v>
       </c>
       <c r="I110" t="s">
-        <v>977</v>
+        <v>1055</v>
+      </c>
+      <c r="J110" t="s">
+        <v>1056</v>
       </c>
     </row>
     <row r="111">
       <c r="E111" t="s">
-        <v>976</v>
-      </c>
-      <c r="F111" t="s">
-        <v>921</v>
+        <v>1150</v>
+      </c>
+      <c r="F111">
+        <f>角色!$E$12</f>
       </c>
       <c r="G111">
-        <f>菜单SAAS版!$E$50</f>
-      </c>
-      <c r="H111">
-        <f>菜单标签数据!$E$19</f>
+        <f>菜单SAAS版!$E$14</f>
+      </c>
+      <c r="H111" t="s">
+        <v>1054</v>
       </c>
       <c r="I111" t="s">
-        <v>977</v>
+        <v>1055</v>
+      </c>
+      <c r="J111" t="s">
+        <v>1056</v>
       </c>
     </row>
     <row r="112">
       <c r="E112" t="s">
-        <v>976</v>
-      </c>
-      <c r="F112" t="s">
-        <v>921</v>
+        <v>1151</v>
+      </c>
+      <c r="F112">
+        <f>角色!$E$12</f>
       </c>
       <c r="G112">
-        <f>菜单SAAS版!$E$50</f>
-      </c>
-      <c r="H112">
-        <f>菜单标签数据!$E$22</f>
+        <f>菜单SAAS版!$E$19</f>
+      </c>
+      <c r="H112" t="s">
+        <v>1054</v>
       </c>
       <c r="I112" t="s">
-        <v>977</v>
+        <v>1055</v>
+      </c>
+      <c r="J112" t="s">
+        <v>1056</v>
       </c>
     </row>
     <row r="113">
       <c r="E113" t="s">
-        <v>976</v>
-      </c>
-      <c r="F113" t="s">
-        <v>921</v>
+        <v>1152</v>
+      </c>
+      <c r="F113">
+        <f>角色!$E$12</f>
       </c>
       <c r="G113">
-        <f>菜单SAAS版!$E$52</f>
-      </c>
-      <c r="H113">
-        <f>菜单标签数据!$E$14</f>
+        <f>菜单SAAS版!$E$27</f>
+      </c>
+      <c r="H113" t="s">
+        <v>1054</v>
       </c>
       <c r="I113" t="s">
-        <v>977</v>
+        <v>1055</v>
+      </c>
+      <c r="J113" t="s">
+        <v>1056</v>
       </c>
     </row>
     <row r="114">
       <c r="E114" t="s">
-        <v>976</v>
-      </c>
-      <c r="F114" t="s">
-        <v>921</v>
+        <v>1153</v>
+      </c>
+      <c r="F114">
+        <f>角色!$E$12</f>
       </c>
       <c r="G114">
-        <f>菜单SAAS版!$E$52</f>
-      </c>
-      <c r="H114">
-        <f>菜单标签数据!$E$17</f>
+        <f>菜单SAAS版!$E$49</f>
+      </c>
+      <c r="H114" t="s">
+        <v>1054</v>
       </c>
       <c r="I114" t="s">
-        <v>977</v>
+        <v>1055</v>
+      </c>
+      <c r="J114" t="s">
+        <v>1056</v>
       </c>
     </row>
     <row r="115">
       <c r="E115" t="s">
-        <v>976</v>
-      </c>
-      <c r="F115" t="s">
-        <v>921</v>
+        <v>1154</v>
+      </c>
+      <c r="F115">
+        <f>角色!$E$12</f>
       </c>
       <c r="G115">
-        <f>菜单SAAS版!$E$52</f>
-      </c>
-      <c r="H115">
-        <f>菜单标签数据!$E$19</f>
+        <f>菜单SAAS版!$E$58</f>
+      </c>
+      <c r="H115" t="s">
+        <v>1054</v>
       </c>
       <c r="I115" t="s">
-        <v>977</v>
+        <v>1055</v>
+      </c>
+      <c r="J115" t="s">
+        <v>1056</v>
       </c>
     </row>
     <row r="116">
       <c r="E116" t="s">
-        <v>976</v>
-      </c>
-      <c r="F116" t="s">
-        <v>921</v>
+        <v>1155</v>
+      </c>
+      <c r="F116">
+        <f>角色!$E$12</f>
       </c>
       <c r="G116">
-        <f>菜单SAAS版!$E$52</f>
-      </c>
-      <c r="H116">
-        <f>菜单标签数据!$E$22</f>
+        <f>菜单SAAS版!$E$64</f>
+      </c>
+      <c r="H116" t="s">
+        <v>1054</v>
       </c>
       <c r="I116" t="s">
-        <v>977</v>
+        <v>1055</v>
+      </c>
+      <c r="J116" t="s">
+        <v>1056</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="E117" t="s">
+        <v>1156</v>
+      </c>
+      <c r="F117">
+        <f>角色!$E$12</f>
+      </c>
+      <c r="G117">
+        <f>菜单SAAS版!$E$66</f>
+      </c>
+      <c r="H117" t="s">
+        <v>1054</v>
+      </c>
+      <c r="I117" t="s">
+        <v>1055</v>
+      </c>
+      <c r="J117" t="s">
+        <v>1056</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="E118" t="s">
+        <v>1157</v>
+      </c>
+      <c r="F118">
+        <f>角色!$E$12</f>
+      </c>
+      <c r="G118">
+        <f>菜单SAAS版!$E$98</f>
+      </c>
+      <c r="H118" t="s">
+        <v>1054</v>
+      </c>
+      <c r="I118" t="s">
+        <v>1055</v>
+      </c>
+      <c r="J118" t="s">
+        <v>1056</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="E119" t="s">
+        <v>1158</v>
+      </c>
+      <c r="F119">
+        <f>角色!$E$12</f>
+      </c>
+      <c r="G119">
+        <f>菜单SAAS版!$E$114</f>
+      </c>
+      <c r="H119" t="s">
+        <v>1054</v>
+      </c>
+      <c r="I119" t="s">
+        <v>1055</v>
+      </c>
+      <c r="J119" t="s">
+        <v>1056</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="E120" t="s">
+        <v>1159</v>
+      </c>
+      <c r="F120">
+        <f>角色!$E$12</f>
+      </c>
+      <c r="G120">
+        <f>菜单SAAS版!$E$120</f>
+      </c>
+      <c r="H120" t="s">
+        <v>1054</v>
+      </c>
+      <c r="I120" t="s">
+        <v>1055</v>
+      </c>
+      <c r="J120" t="s">
+        <v>1056</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="E121" t="s">
+        <v>1160</v>
+      </c>
+      <c r="F121">
+        <f>角色!$E$12</f>
+      </c>
+      <c r="G121">
+        <f>菜单SAAS版!$E$82</f>
+      </c>
+      <c r="H121" t="s">
+        <v>1054</v>
+      </c>
+      <c r="I121" t="s">
+        <v>1055</v>
+      </c>
+      <c r="J121" t="s">
+        <v>1056</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="E122" t="s">
+        <v>1161</v>
+      </c>
+      <c r="F122">
+        <f>角色!$E$12</f>
+      </c>
+      <c r="G122">
+        <f>菜单SAAS版!$E$51</f>
+      </c>
+      <c r="H122" t="s">
+        <v>1054</v>
+      </c>
+      <c r="I122" t="s">
+        <v>1055</v>
+      </c>
+      <c r="J122" t="s">
+        <v>1056</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="E123" t="s">
+        <v>1162</v>
+      </c>
+      <c r="F123">
+        <f>角色!$E$12</f>
+      </c>
+      <c r="G123">
+        <f>菜单SAAS版!$E$53</f>
+      </c>
+      <c r="H123" t="s">
+        <v>1054</v>
+      </c>
+      <c r="I123" t="s">
+        <v>1055</v>
+      </c>
+      <c r="J123" t="s">
+        <v>1056</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="E124" t="s">
+        <v>1163</v>
+      </c>
+      <c r="F124">
+        <f>角色!$E$12</f>
+      </c>
+      <c r="G124">
+        <f>菜单SAAS版!$E$15</f>
+      </c>
+      <c r="H124" t="s">
+        <v>1054</v>
+      </c>
+      <c r="I124" t="s">
+        <v>1055</v>
+      </c>
+      <c r="J124" t="s">
+        <v>1056</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="E125" t="s">
+        <v>1164</v>
+      </c>
+      <c r="F125">
+        <f>角色!$E$12</f>
+      </c>
+      <c r="G125">
+        <f>菜单SAAS版!$E$13</f>
+      </c>
+      <c r="H125" t="s">
+        <v>1054</v>
+      </c>
+      <c r="I125" t="s">
+        <v>1055</v>
+      </c>
+      <c r="J125" t="s">
+        <v>1056</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="E126" t="s">
+        <v>1165</v>
+      </c>
+      <c r="F126">
+        <f>角色!$E$12</f>
+      </c>
+      <c r="G126">
+        <f>菜单SAAS版!$E$16</f>
+      </c>
+      <c r="H126" t="s">
+        <v>1054</v>
+      </c>
+      <c r="I126" t="s">
+        <v>1055</v>
+      </c>
+      <c r="J126" t="s">
+        <v>1056</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="E127" t="s">
+        <v>1166</v>
+      </c>
+      <c r="F127">
+        <f>角色!$E$12</f>
+      </c>
+      <c r="G127">
+        <f>菜单SAAS版!$E$35</f>
+      </c>
+      <c r="H127" t="s">
+        <v>1054</v>
+      </c>
+      <c r="I127" t="s">
+        <v>1055</v>
+      </c>
+      <c r="J127" t="s">
+        <v>1056</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="E128" t="s">
+        <v>1167</v>
+      </c>
+      <c r="F128">
+        <f>角色!$E$12</f>
+      </c>
+      <c r="G128">
+        <f>菜单SAAS版!$E$29</f>
+      </c>
+      <c r="H128" t="s">
+        <v>1054</v>
+      </c>
+      <c r="I128" t="s">
+        <v>1055</v>
+      </c>
+      <c r="J128" t="s">
+        <v>1056</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="E129" t="s">
+        <v>1168</v>
+      </c>
+      <c r="F129">
+        <f>角色!$E$12</f>
+      </c>
+      <c r="G129">
+        <f>菜单SAAS版!$E$36</f>
+      </c>
+      <c r="H129" t="s">
+        <v>1054</v>
+      </c>
+      <c r="I129" t="s">
+        <v>1055</v>
+      </c>
+      <c r="J129" t="s">
+        <v>1056</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="E130" t="s">
+        <v>1169</v>
+      </c>
+      <c r="F130">
+        <f>角色!$E$12</f>
+      </c>
+      <c r="G130">
+        <f>菜单SAAS版!$E$22</f>
+      </c>
+      <c r="H130" t="s">
+        <v>1054</v>
+      </c>
+      <c r="I130" t="s">
+        <v>1055</v>
+      </c>
+      <c r="J130" t="s">
+        <v>1056</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="E131" t="s">
+        <v>1170</v>
+      </c>
+      <c r="F131">
+        <f>角色!$E$12</f>
+      </c>
+      <c r="G131">
+        <f>菜单SAAS版!$E$39</f>
+      </c>
+      <c r="H131" t="s">
+        <v>1054</v>
+      </c>
+      <c r="I131" t="s">
+        <v>1055</v>
+      </c>
+      <c r="J131" t="s">
+        <v>1056</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="E132" t="s">
+        <v>1171</v>
+      </c>
+      <c r="F132">
+        <f>角色!$E$12</f>
+      </c>
+      <c r="G132">
+        <f>菜单SAAS版!$E$37</f>
+      </c>
+      <c r="H132" t="s">
+        <v>1054</v>
+      </c>
+      <c r="I132" t="s">
+        <v>1055</v>
+      </c>
+      <c r="J132" t="s">
+        <v>1056</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="E133" t="s">
+        <v>1172</v>
+      </c>
+      <c r="F133">
+        <f>角色!$E$12</f>
+      </c>
+      <c r="G133">
+        <f>菜单SAAS版!$E$31</f>
+      </c>
+      <c r="H133" t="s">
+        <v>1054</v>
+      </c>
+      <c r="I133" t="s">
+        <v>1055</v>
+      </c>
+      <c r="J133" t="s">
+        <v>1056</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="E134" t="s">
+        <v>1173</v>
+      </c>
+      <c r="F134">
+        <f>角色!$E$12</f>
+      </c>
+      <c r="G134">
+        <f>菜单SAAS版!$E$25</f>
+      </c>
+      <c r="H134" t="s">
+        <v>1054</v>
+      </c>
+      <c r="I134" t="s">
+        <v>1055</v>
+      </c>
+      <c r="J134" t="s">
+        <v>1056</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="E135" t="s">
+        <v>1174</v>
+      </c>
+      <c r="F135">
+        <f>角色!$E$12</f>
+      </c>
+      <c r="G135">
+        <f>菜单SAAS版!$E$23</f>
+      </c>
+      <c r="H135" t="s">
+        <v>1054</v>
+      </c>
+      <c r="I135" t="s">
+        <v>1055</v>
+      </c>
+      <c r="J135" t="s">
+        <v>1056</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="E136" t="s">
+        <v>1175</v>
+      </c>
+      <c r="F136">
+        <f>角色!$E$12</f>
+      </c>
+      <c r="G136">
+        <f>菜单SAAS版!$E$45</f>
+      </c>
+      <c r="H136" t="s">
+        <v>1054</v>
+      </c>
+      <c r="I136" t="s">
+        <v>1055</v>
+      </c>
+      <c r="J136" t="s">
+        <v>1056</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="E137" t="s">
+        <v>1176</v>
+      </c>
+      <c r="F137">
+        <f>角色!$E$12</f>
+      </c>
+      <c r="G137">
+        <f>菜单SAAS版!$E$33</f>
+      </c>
+      <c r="H137" t="s">
+        <v>1054</v>
+      </c>
+      <c r="I137" t="s">
+        <v>1055</v>
+      </c>
+      <c r="J137" t="s">
+        <v>1056</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="E138" t="s">
+        <v>1177</v>
+      </c>
+      <c r="F138">
+        <f>角色!$E$12</f>
+      </c>
+      <c r="G138">
+        <f>菜单SAAS版!$E$42</f>
+      </c>
+      <c r="H138" t="s">
+        <v>1054</v>
+      </c>
+      <c r="I138" t="s">
+        <v>1055</v>
+      </c>
+      <c r="J138" t="s">
+        <v>1056</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="E139" t="s">
+        <v>1178</v>
+      </c>
+      <c r="F139">
+        <f>角色!$E$12</f>
+      </c>
+      <c r="G139">
+        <f>菜单SAAS版!$E$28</f>
+      </c>
+      <c r="H139" t="s">
+        <v>1054</v>
+      </c>
+      <c r="I139" t="s">
+        <v>1055</v>
+      </c>
+      <c r="J139" t="s">
+        <v>1056</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="E140" t="s">
+        <v>1179</v>
+      </c>
+      <c r="F140">
+        <f>角色!$E$12</f>
+      </c>
+      <c r="G140">
+        <f>菜单SAAS版!$E$18</f>
+      </c>
+      <c r="H140" t="s">
+        <v>1054</v>
+      </c>
+      <c r="I140" t="s">
+        <v>1055</v>
+      </c>
+      <c r="J140" t="s">
+        <v>1056</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="E141" t="s">
+        <v>1180</v>
+      </c>
+      <c r="F141">
+        <f>角色!$E$12</f>
+      </c>
+      <c r="G141">
+        <f>菜单SAAS版!$E$73</f>
+      </c>
+      <c r="H141" t="s">
+        <v>1054</v>
+      </c>
+      <c r="I141" t="s">
+        <v>1055</v>
+      </c>
+      <c r="J141" t="s">
+        <v>1056</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="E142" t="s">
+        <v>1181</v>
+      </c>
+      <c r="F142">
+        <f>角色!$E$12</f>
+      </c>
+      <c r="G142">
+        <f>菜单SAAS版!$E$74</f>
+      </c>
+      <c r="H142" t="s">
+        <v>1054</v>
+      </c>
+      <c r="I142" t="s">
+        <v>1055</v>
+      </c>
+      <c r="J142" t="s">
+        <v>1056</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="E143" t="s">
+        <v>1182</v>
+      </c>
+      <c r="F143">
+        <f>角色!$E$12</f>
+      </c>
+      <c r="G143">
+        <f>菜单SAAS版!$E$70</f>
+      </c>
+      <c r="H143" t="s">
+        <v>1054</v>
+      </c>
+      <c r="I143" t="s">
+        <v>1055</v>
+      </c>
+      <c r="J143" t="s">
+        <v>1056</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="E144" t="s">
+        <v>1183</v>
+      </c>
+      <c r="F144">
+        <f>角色!$E$12</f>
+      </c>
+      <c r="G144">
+        <f>菜单SAAS版!$E$69</f>
+      </c>
+      <c r="H144" t="s">
+        <v>1054</v>
+      </c>
+      <c r="I144" t="s">
+        <v>1055</v>
+      </c>
+      <c r="J144" t="s">
+        <v>1056</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="E145" t="s">
+        <v>1184</v>
+      </c>
+      <c r="F145">
+        <f>角色!$E$12</f>
+      </c>
+      <c r="G145">
+        <f>菜单SAAS版!$E$76</f>
+      </c>
+      <c r="H145" t="s">
+        <v>1054</v>
+      </c>
+      <c r="I145" t="s">
+        <v>1055</v>
+      </c>
+      <c r="J145" t="s">
+        <v>1056</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="E146" t="s">
+        <v>1185</v>
+      </c>
+      <c r="F146">
+        <f>角色!$E$12</f>
+      </c>
+      <c r="G146">
+        <f>菜单SAAS版!$E$78</f>
+      </c>
+      <c r="H146" t="s">
+        <v>1054</v>
+      </c>
+      <c r="I146" t="s">
+        <v>1055</v>
+      </c>
+      <c r="J146" t="s">
+        <v>1056</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="E147" t="s">
+        <v>1186</v>
+      </c>
+      <c r="F147">
+        <f>角色!$E$12</f>
+      </c>
+      <c r="G147">
+        <f>菜单SAAS版!$E$75</f>
+      </c>
+      <c r="H147" t="s">
+        <v>1054</v>
+      </c>
+      <c r="I147" t="s">
+        <v>1055</v>
+      </c>
+      <c r="J147" t="s">
+        <v>1056</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="E148" t="s">
+        <v>1187</v>
+      </c>
+      <c r="F148">
+        <f>角色!$E$12</f>
+      </c>
+      <c r="G148">
+        <f>菜单SAAS版!$E$67</f>
+      </c>
+      <c r="H148" t="s">
+        <v>1054</v>
+      </c>
+      <c r="I148" t="s">
+        <v>1055</v>
+      </c>
+      <c r="J148" t="s">
+        <v>1056</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="E149" t="s">
+        <v>1188</v>
+      </c>
+      <c r="F149">
+        <f>角色!$E$12</f>
+      </c>
+      <c r="G149">
+        <f>菜单SAAS版!$E$57</f>
+      </c>
+      <c r="H149" t="s">
+        <v>1054</v>
+      </c>
+      <c r="I149" t="s">
+        <v>1055</v>
+      </c>
+      <c r="J149" t="s">
+        <v>1056</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="E150" t="s">
+        <v>1189</v>
+      </c>
+      <c r="F150">
+        <f>角色!$E$12</f>
+      </c>
+      <c r="G150">
+        <f>菜单SAAS版!$E$48</f>
+      </c>
+      <c r="H150" t="s">
+        <v>1054</v>
+      </c>
+      <c r="I150" t="s">
+        <v>1055</v>
+      </c>
+      <c r="J150" t="s">
+        <v>1056</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="E151" t="s">
+        <v>1190</v>
+      </c>
+      <c r="F151">
+        <f>角色!$E$12</f>
+      </c>
+      <c r="G151">
+        <f>菜单SAAS版!$E$63</f>
+      </c>
+      <c r="H151" t="s">
+        <v>1054</v>
+      </c>
+      <c r="I151" t="s">
+        <v>1055</v>
+      </c>
+      <c r="J151" t="s">
+        <v>1056</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="E152" t="s">
+        <v>1191</v>
+      </c>
+      <c r="F152">
+        <f>角色!$E$12</f>
+      </c>
+      <c r="G152">
+        <f>菜单SAAS版!$E$34</f>
+      </c>
+      <c r="H152" t="s">
+        <v>1054</v>
+      </c>
+      <c r="I152" t="s">
+        <v>1055</v>
+      </c>
+      <c r="J152" t="s">
+        <v>1056</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="E153" t="s">
+        <v>1192</v>
+      </c>
+      <c r="F153">
+        <f>角色!$E$12</f>
+      </c>
+      <c r="G153">
+        <f>菜单SAAS版!$E$30</f>
+      </c>
+      <c r="H153" t="s">
+        <v>1054</v>
+      </c>
+      <c r="I153" t="s">
+        <v>1055</v>
+      </c>
+      <c r="J153" t="s">
+        <v>1056</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="E154" t="s">
+        <v>1193</v>
+      </c>
+      <c r="F154">
+        <f>角色!$E$12</f>
+      </c>
+      <c r="G154">
+        <f>菜单SAAS版!$E$41</f>
+      </c>
+      <c r="H154" t="s">
+        <v>1054</v>
+      </c>
+      <c r="I154" t="s">
+        <v>1055</v>
+      </c>
+      <c r="J154" t="s">
+        <v>1056</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="E155" t="s">
+        <v>1194</v>
+      </c>
+      <c r="F155">
+        <f>角色!$E$12</f>
+      </c>
+      <c r="G155">
+        <f>菜单SAAS版!$E$38</f>
+      </c>
+      <c r="H155" t="s">
+        <v>1054</v>
+      </c>
+      <c r="I155" t="s">
+        <v>1055</v>
+      </c>
+      <c r="J155" t="s">
+        <v>1056</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="E156" t="s">
+        <v>1195</v>
+      </c>
+      <c r="F156">
+        <f>角色!$E$12</f>
+      </c>
+      <c r="G156">
+        <f>菜单SAAS版!$E$26</f>
+      </c>
+      <c r="H156" t="s">
+        <v>1054</v>
+      </c>
+      <c r="I156" t="s">
+        <v>1055</v>
+      </c>
+      <c r="J156" t="s">
+        <v>1056</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="E157" t="s">
+        <v>1196</v>
+      </c>
+      <c r="F157">
+        <f>角色!$E$12</f>
+      </c>
+      <c r="G157">
+        <f>菜单SAAS版!$E$24</f>
+      </c>
+      <c r="H157" t="s">
+        <v>1054</v>
+      </c>
+      <c r="I157" t="s">
+        <v>1055</v>
+      </c>
+      <c r="J157" t="s">
+        <v>1056</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="E158" t="s">
+        <v>1197</v>
+      </c>
+      <c r="F158">
+        <f>角色!$E$12</f>
+      </c>
+      <c r="G158">
+        <f>菜单SAAS版!$E$32</f>
+      </c>
+      <c r="H158" t="s">
+        <v>1054</v>
+      </c>
+      <c r="I158" t="s">
+        <v>1055</v>
+      </c>
+      <c r="J158" t="s">
+        <v>1056</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="E159" t="s">
+        <v>1198</v>
+      </c>
+      <c r="F159">
+        <f>角色!$E$12</f>
+      </c>
+      <c r="G159">
+        <f>菜单SAAS版!$E$44</f>
+      </c>
+      <c r="H159" t="s">
+        <v>1054</v>
+      </c>
+      <c r="I159" t="s">
+        <v>1055</v>
+      </c>
+      <c r="J159" t="s">
+        <v>1056</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="E160" t="s">
+        <v>1199</v>
+      </c>
+      <c r="F160">
+        <f>角色!$E$12</f>
+      </c>
+      <c r="G160">
+        <f>菜单SAAS版!$E$40</f>
+      </c>
+      <c r="H160" t="s">
+        <v>1054</v>
+      </c>
+      <c r="I160" t="s">
+        <v>1055</v>
+      </c>
+      <c r="J160" t="s">
+        <v>1056</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="E161" t="s">
+        <v>1200</v>
+      </c>
+      <c r="F161">
+        <f>角色!$E$12</f>
+      </c>
+      <c r="G161">
+        <f>菜单SAAS版!$E$43</f>
+      </c>
+      <c r="H161" t="s">
+        <v>1054</v>
+      </c>
+      <c r="I161" t="s">
+        <v>1055</v>
+      </c>
+      <c r="J161" t="s">
+        <v>1056</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="E162" t="s">
+        <v>1201</v>
+      </c>
+      <c r="F162">
+        <f>角色!$E$12</f>
+      </c>
+      <c r="G162">
+        <f>菜单SAAS版!$E$20</f>
+      </c>
+      <c r="H162" t="s">
+        <v>1054</v>
+      </c>
+      <c r="I162" t="s">
+        <v>1055</v>
+      </c>
+      <c r="J162" t="s">
+        <v>1056</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="E163" t="s">
+        <v>1202</v>
+      </c>
+      <c r="F163">
+        <f>角色!$E$12</f>
+      </c>
+      <c r="G163">
+        <f>菜单SAAS版!$E$71</f>
+      </c>
+      <c r="H163" t="s">
+        <v>1054</v>
+      </c>
+      <c r="I163" t="s">
+        <v>1055</v>
+      </c>
+      <c r="J163" t="s">
+        <v>1056</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="E164" t="s">
+        <v>1203</v>
+      </c>
+      <c r="F164">
+        <f>角色!$E$12</f>
+      </c>
+      <c r="G164">
+        <f>菜单SAAS版!$E$72</f>
+      </c>
+      <c r="H164" t="s">
+        <v>1054</v>
+      </c>
+      <c r="I164" t="s">
+        <v>1055</v>
+      </c>
+      <c r="J164" t="s">
+        <v>1056</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="E165" t="s">
+        <v>1204</v>
+      </c>
+      <c r="F165">
+        <f>角色!$E$12</f>
+      </c>
+      <c r="G165">
+        <f>菜单SAAS版!$E$68</f>
+      </c>
+      <c r="H165" t="s">
+        <v>1054</v>
+      </c>
+      <c r="I165" t="s">
+        <v>1055</v>
+      </c>
+      <c r="J165" t="s">
+        <v>1056</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="E166" t="s">
+        <v>1205</v>
+      </c>
+      <c r="F166">
+        <f>角色!$E$12</f>
+      </c>
+      <c r="G166">
+        <f>菜单SAAS版!$E$77</f>
+      </c>
+      <c r="H166" t="s">
+        <v>1054</v>
+      </c>
+      <c r="I166" t="s">
+        <v>1055</v>
+      </c>
+      <c r="J166" t="s">
+        <v>1056</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="E167" t="s">
+        <v>1206</v>
+      </c>
+      <c r="F167">
+        <f>角色!$E$12</f>
+      </c>
+      <c r="G167">
+        <f>菜单SAAS版!$E$56</f>
+      </c>
+      <c r="H167" t="s">
+        <v>1054</v>
+      </c>
+      <c r="I167" t="s">
+        <v>1055</v>
+      </c>
+      <c r="J167" t="s">
+        <v>1056</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="E168" t="s">
+        <v>1207</v>
+      </c>
+      <c r="F168">
+        <f>角色!$E$12</f>
+      </c>
+      <c r="G168">
+        <f>菜单SAAS版!$E$81</f>
+      </c>
+      <c r="H168" t="s">
+        <v>1054</v>
+      </c>
+      <c r="I168" t="s">
+        <v>1055</v>
+      </c>
+      <c r="J168" t="s">
+        <v>1056</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="E169" t="s">
+        <v>1208</v>
+      </c>
+      <c r="F169">
+        <f>角色!$E$12</f>
+      </c>
+      <c r="G169">
+        <f>菜单SAAS版!$E$61</f>
+      </c>
+      <c r="H169" t="s">
+        <v>1054</v>
+      </c>
+      <c r="I169" t="s">
+        <v>1055</v>
+      </c>
+      <c r="J169" t="s">
+        <v>1056</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="E170" t="s">
+        <v>1209</v>
+      </c>
+      <c r="F170">
+        <f>角色!$E$12</f>
+      </c>
+      <c r="G170">
+        <f>菜单SAAS版!$E$60</f>
+      </c>
+      <c r="H170" t="s">
+        <v>1054</v>
+      </c>
+      <c r="I170" t="s">
+        <v>1055</v>
+      </c>
+      <c r="J170" t="s">
+        <v>1056</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="E171" t="s">
+        <v>1210</v>
+      </c>
+      <c r="F171">
+        <f>角色!$E$12</f>
+      </c>
+      <c r="G171">
+        <f>菜单SAAS版!$E$55</f>
+      </c>
+      <c r="H171" t="s">
+        <v>1054</v>
+      </c>
+      <c r="I171" t="s">
+        <v>1055</v>
+      </c>
+      <c r="J171" t="s">
+        <v>1056</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="E172" t="s">
+        <v>1211</v>
+      </c>
+      <c r="F172">
+        <f>角色!$E$12</f>
+      </c>
+      <c r="G172">
+        <f>菜单SAAS版!$E$86</f>
+      </c>
+      <c r="H172" t="s">
+        <v>1054</v>
+      </c>
+      <c r="I172" t="s">
+        <v>1055</v>
+      </c>
+      <c r="J172" t="s">
+        <v>1056</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="E173" t="s">
+        <v>1212</v>
+      </c>
+      <c r="F173">
+        <f>角色!$E$12</f>
+      </c>
+      <c r="G173">
+        <f>菜单SAAS版!$E$59</f>
+      </c>
+      <c r="H173" t="s">
+        <v>1054</v>
+      </c>
+      <c r="I173" t="s">
+        <v>1055</v>
+      </c>
+      <c r="J173" t="s">
+        <v>1056</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="E174" t="s">
+        <v>1213</v>
+      </c>
+      <c r="F174">
+        <f>角色!$E$12</f>
+      </c>
+      <c r="G174">
+        <f>菜单SAAS版!$E$94</f>
+      </c>
+      <c r="H174" t="s">
+        <v>1054</v>
+      </c>
+      <c r="I174" t="s">
+        <v>1055</v>
+      </c>
+      <c r="J174" t="s">
+        <v>1056</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="E175" t="s">
+        <v>1214</v>
+      </c>
+      <c r="F175">
+        <f>角色!$E$12</f>
+      </c>
+      <c r="G175">
+        <f>菜单SAAS版!$E$84</f>
+      </c>
+      <c r="H175" t="s">
+        <v>1054</v>
+      </c>
+      <c r="I175" t="s">
+        <v>1055</v>
+      </c>
+      <c r="J175" t="s">
+        <v>1056</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="E176" t="s">
+        <v>1215</v>
+      </c>
+      <c r="F176">
+        <f>角色!$E$12</f>
+      </c>
+      <c r="G176">
+        <f>菜单SAAS版!$E$85</f>
+      </c>
+      <c r="H176" t="s">
+        <v>1054</v>
+      </c>
+      <c r="I176" t="s">
+        <v>1055</v>
+      </c>
+      <c r="J176" t="s">
+        <v>1056</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="E177" t="s">
+        <v>1216</v>
+      </c>
+      <c r="F177">
+        <f>角色!$E$12</f>
+      </c>
+      <c r="G177">
+        <f>菜单SAAS版!$E$83</f>
+      </c>
+      <c r="H177" t="s">
+        <v>1054</v>
+      </c>
+      <c r="I177" t="s">
+        <v>1055</v>
+      </c>
+      <c r="J177" t="s">
+        <v>1056</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="E178" t="s">
+        <v>1217</v>
+      </c>
+      <c r="F178">
+        <f>角色!$E$12</f>
+      </c>
+      <c r="G178">
+        <f>菜单SAAS版!$E$87</f>
+      </c>
+      <c r="H178" t="s">
+        <v>1054</v>
+      </c>
+      <c r="I178" t="s">
+        <v>1055</v>
+      </c>
+      <c r="J178" t="s">
+        <v>1056</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="E179" t="s">
+        <v>1218</v>
+      </c>
+      <c r="F179">
+        <f>角色!$E$12</f>
+      </c>
+      <c r="G179">
+        <f>菜单SAAS版!$E$90</f>
+      </c>
+      <c r="H179" t="s">
+        <v>1054</v>
+      </c>
+      <c r="I179" t="s">
+        <v>1055</v>
+      </c>
+      <c r="J179" t="s">
+        <v>1056</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="E180" t="s">
+        <v>1219</v>
+      </c>
+      <c r="F180">
+        <f>角色!$E$12</f>
+      </c>
+      <c r="G180">
+        <f>菜单SAAS版!$E$89</f>
+      </c>
+      <c r="H180" t="s">
+        <v>1054</v>
+      </c>
+      <c r="I180" t="s">
+        <v>1055</v>
+      </c>
+      <c r="J180" t="s">
+        <v>1056</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="E181" t="s">
+        <v>1220</v>
+      </c>
+      <c r="F181">
+        <f>角色!$E$12</f>
+      </c>
+      <c r="G181">
+        <f>菜单SAAS版!$E$91</f>
+      </c>
+      <c r="H181" t="s">
+        <v>1054</v>
+      </c>
+      <c r="I181" t="s">
+        <v>1055</v>
+      </c>
+      <c r="J181" t="s">
+        <v>1056</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="E182" t="s">
+        <v>1221</v>
+      </c>
+      <c r="F182">
+        <f>角色!$E$12</f>
+      </c>
+      <c r="G182">
+        <f>菜单SAAS版!$E$88</f>
+      </c>
+      <c r="H182" t="s">
+        <v>1054</v>
+      </c>
+      <c r="I182" t="s">
+        <v>1055</v>
+      </c>
+      <c r="J182" t="s">
+        <v>1056</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="E183" t="s">
+        <v>1222</v>
+      </c>
+      <c r="F183">
+        <f>角色!$E$12</f>
+      </c>
+      <c r="G183">
+        <f>菜单SAAS版!$E$92</f>
+      </c>
+      <c r="H183" t="s">
+        <v>1054</v>
+      </c>
+      <c r="I183" t="s">
+        <v>1055</v>
+      </c>
+      <c r="J183" t="s">
+        <v>1056</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="E184" t="s">
+        <v>1223</v>
+      </c>
+      <c r="F184">
+        <f>角色!$E$12</f>
+      </c>
+      <c r="G184">
+        <f>菜单SAAS版!$E$93</f>
+      </c>
+      <c r="H184" t="s">
+        <v>1054</v>
+      </c>
+      <c r="I184" t="s">
+        <v>1055</v>
+      </c>
+      <c r="J184" t="s">
+        <v>1056</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="E185" t="s">
+        <v>1224</v>
+      </c>
+      <c r="F185">
+        <f>角色!$E$12</f>
+      </c>
+      <c r="G185">
+        <f>菜单SAAS版!$E$109</f>
+      </c>
+      <c r="H185" t="s">
+        <v>1054</v>
+      </c>
+      <c r="I185" t="s">
+        <v>1055</v>
+      </c>
+      <c r="J185" t="s">
+        <v>1056</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="E186" t="s">
+        <v>1225</v>
+      </c>
+      <c r="F186">
+        <f>角色!$E$12</f>
+      </c>
+      <c r="G186">
+        <f>菜单SAAS版!$E$111</f>
+      </c>
+      <c r="H186" t="s">
+        <v>1054</v>
+      </c>
+      <c r="I186" t="s">
+        <v>1055</v>
+      </c>
+      <c r="J186" t="s">
+        <v>1056</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="E187" t="s">
+        <v>1226</v>
+      </c>
+      <c r="F187">
+        <f>角色!$E$12</f>
+      </c>
+      <c r="G187">
+        <f>菜单SAAS版!$E$110</f>
+      </c>
+      <c r="H187" t="s">
+        <v>1054</v>
+      </c>
+      <c r="I187" t="s">
+        <v>1055</v>
+      </c>
+      <c r="J187" t="s">
+        <v>1056</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="E188" t="s">
+        <v>1227</v>
+      </c>
+      <c r="F188">
+        <f>角色!$E$12</f>
+      </c>
+      <c r="G188">
+        <f>菜单SAAS版!$E$113</f>
+      </c>
+      <c r="H188" t="s">
+        <v>1054</v>
+      </c>
+      <c r="I188" t="s">
+        <v>1055</v>
+      </c>
+      <c r="J188" t="s">
+        <v>1056</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="E189" t="s">
+        <v>1228</v>
+      </c>
+      <c r="F189">
+        <f>角色!$E$12</f>
+      </c>
+      <c r="G189">
+        <f>菜单SAAS版!$E$112</f>
+      </c>
+      <c r="H189" t="s">
+        <v>1054</v>
+      </c>
+      <c r="I189" t="s">
+        <v>1055</v>
+      </c>
+      <c r="J189" t="s">
+        <v>1056</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="E190" t="s">
+        <v>1229</v>
+      </c>
+      <c r="F190">
+        <f>角色!$E$12</f>
+      </c>
+      <c r="G190">
+        <f>菜单SAAS版!$E$115</f>
+      </c>
+      <c r="H190" t="s">
+        <v>1054</v>
+      </c>
+      <c r="I190" t="s">
+        <v>1055</v>
+      </c>
+      <c r="J190" t="s">
+        <v>1056</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="E191" t="s">
+        <v>1230</v>
+      </c>
+      <c r="F191">
+        <f>角色!$E$12</f>
+      </c>
+      <c r="G191">
+        <f>菜单SAAS版!$E$117</f>
+      </c>
+      <c r="H191" t="s">
+        <v>1054</v>
+      </c>
+      <c r="I191" t="s">
+        <v>1055</v>
+      </c>
+      <c r="J191" t="s">
+        <v>1056</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="E192" t="s">
+        <v>1231</v>
+      </c>
+      <c r="F192">
+        <f>角色!$E$12</f>
+      </c>
+      <c r="G192">
+        <f>菜单SAAS版!$E$116</f>
+      </c>
+      <c r="H192" t="s">
+        <v>1054</v>
+      </c>
+      <c r="I192" t="s">
+        <v>1055</v>
+      </c>
+      <c r="J192" t="s">
+        <v>1056</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="E193" t="s">
+        <v>1232</v>
+      </c>
+      <c r="F193">
+        <f>角色!$E$12</f>
+      </c>
+      <c r="G193">
+        <f>菜单SAAS版!$E$97</f>
+      </c>
+      <c r="H193" t="s">
+        <v>1054</v>
+      </c>
+      <c r="I193" t="s">
+        <v>1055</v>
+      </c>
+      <c r="J193" t="s">
+        <v>1056</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="E194" t="s">
+        <v>1233</v>
+      </c>
+      <c r="F194">
+        <f>角色!$E$12</f>
+      </c>
+      <c r="G194">
+        <f>菜单SAAS版!$E$107</f>
+      </c>
+      <c r="H194" t="s">
+        <v>1054</v>
+      </c>
+      <c r="I194" t="s">
+        <v>1055</v>
+      </c>
+      <c r="J194" t="s">
+        <v>1056</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="E195" t="s">
+        <v>1234</v>
+      </c>
+      <c r="F195">
+        <f>角色!$E$12</f>
+      </c>
+      <c r="G195">
+        <f>菜单SAAS版!$E$102</f>
+      </c>
+      <c r="H195" t="s">
+        <v>1054</v>
+      </c>
+      <c r="I195" t="s">
+        <v>1055</v>
+      </c>
+      <c r="J195" t="s">
+        <v>1056</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="E196" t="s">
+        <v>1235</v>
+      </c>
+      <c r="F196">
+        <f>角色!$E$12</f>
+      </c>
+      <c r="G196">
+        <f>菜单SAAS版!$E$100</f>
+      </c>
+      <c r="H196" t="s">
+        <v>1054</v>
+      </c>
+      <c r="I196" t="s">
+        <v>1055</v>
+      </c>
+      <c r="J196" t="s">
+        <v>1056</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="E197" t="s">
+        <v>1236</v>
+      </c>
+      <c r="F197">
+        <f>角色!$E$12</f>
+      </c>
+      <c r="G197">
+        <f>菜单SAAS版!$E$101</f>
+      </c>
+      <c r="H197" t="s">
+        <v>1054</v>
+      </c>
+      <c r="I197" t="s">
+        <v>1055</v>
+      </c>
+      <c r="J197" t="s">
+        <v>1056</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="E198" t="s">
+        <v>1237</v>
+      </c>
+      <c r="F198">
+        <f>角色!$E$12</f>
+      </c>
+      <c r="G198">
+        <f>菜单SAAS版!$E$99</f>
+      </c>
+      <c r="H198" t="s">
+        <v>1054</v>
+      </c>
+      <c r="I198" t="s">
+        <v>1055</v>
+      </c>
+      <c r="J198" t="s">
+        <v>1056</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="E199" t="s">
+        <v>1238</v>
+      </c>
+      <c r="F199">
+        <f>角色!$E$12</f>
+      </c>
+      <c r="G199">
+        <f>菜单SAAS版!$E$96</f>
+      </c>
+      <c r="H199" t="s">
+        <v>1054</v>
+      </c>
+      <c r="I199" t="s">
+        <v>1055</v>
+      </c>
+      <c r="J199" t="s">
+        <v>1056</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="E200" t="s">
+        <v>1239</v>
+      </c>
+      <c r="F200">
+        <f>角色!$E$12</f>
+      </c>
+      <c r="G200">
+        <f>菜单SAAS版!$E$106</f>
+      </c>
+      <c r="H200" t="s">
+        <v>1054</v>
+      </c>
+      <c r="I200" t="s">
+        <v>1055</v>
+      </c>
+      <c r="J200" t="s">
+        <v>1056</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="E201" t="s">
+        <v>1240</v>
+      </c>
+      <c r="F201">
+        <f>角色!$E$12</f>
+      </c>
+      <c r="G201">
+        <f>菜单SAAS版!$E$103</f>
+      </c>
+      <c r="H201" t="s">
+        <v>1054</v>
+      </c>
+      <c r="I201" t="s">
+        <v>1055</v>
+      </c>
+      <c r="J201" t="s">
+        <v>1056</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="E202" t="s">
+        <v>1241</v>
+      </c>
+      <c r="F202">
+        <f>角色!$E$12</f>
+      </c>
+      <c r="G202">
+        <f>菜单SAAS版!$E$104</f>
+      </c>
+      <c r="H202" t="s">
+        <v>1054</v>
+      </c>
+      <c r="I202" t="s">
+        <v>1055</v>
+      </c>
+      <c r="J202" t="s">
+        <v>1056</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="E203" t="s">
+        <v>1242</v>
+      </c>
+      <c r="F203">
+        <f>角色!$E$12</f>
+      </c>
+      <c r="G203">
+        <f>菜单SAAS版!$E$105</f>
+      </c>
+      <c r="H203" t="s">
+        <v>1054</v>
+      </c>
+      <c r="I203" t="s">
+        <v>1055</v>
+      </c>
+      <c r="J203" t="s">
+        <v>1056</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="E204" t="s">
+        <v>1243</v>
+      </c>
+      <c r="F204">
+        <f>角色!$E$13</f>
+      </c>
+      <c r="G204">
+        <f>菜单SAAS版!$E$114</f>
+      </c>
+      <c r="H204" t="s">
+        <v>1054</v>
+      </c>
+      <c r="I204" t="s">
+        <v>1055</v>
+      </c>
+      <c r="J204" t="s">
+        <v>1056</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="E205" t="s">
+        <v>1244</v>
+      </c>
+      <c r="F205">
+        <f>角色!$E$13</f>
+      </c>
+      <c r="G205">
+        <f>菜单SAAS版!$E$82</f>
+      </c>
+      <c r="H205" t="s">
+        <v>1054</v>
+      </c>
+      <c r="I205" t="s">
+        <v>1055</v>
+      </c>
+      <c r="J205" t="s">
+        <v>1056</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="E206" t="s">
+        <v>1245</v>
+      </c>
+      <c r="F206">
+        <f>角色!$E$13</f>
+      </c>
+      <c r="G206">
+        <f>菜单SAAS版!$E$43</f>
+      </c>
+      <c r="H206" t="s">
+        <v>1054</v>
+      </c>
+      <c r="I206" t="s">
+        <v>1055</v>
+      </c>
+      <c r="J206" t="s">
+        <v>1056</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="E207" t="s">
+        <v>1246</v>
+      </c>
+      <c r="F207">
+        <f>角色!$E$13</f>
+      </c>
+      <c r="G207">
+        <f>菜单SAAS版!$E$109</f>
+      </c>
+      <c r="H207" t="s">
+        <v>1054</v>
+      </c>
+      <c r="I207" t="s">
+        <v>1055</v>
+      </c>
+      <c r="J207" t="s">
+        <v>1056</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="E208" t="s">
+        <v>1247</v>
+      </c>
+      <c r="F208">
+        <f>角色!$E$13</f>
+      </c>
+      <c r="G208">
+        <f>菜单SAAS版!$E$111</f>
+      </c>
+      <c r="H208" t="s">
+        <v>1054</v>
+      </c>
+      <c r="I208" t="s">
+        <v>1055</v>
+      </c>
+      <c r="J208" t="s">
+        <v>1056</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="E209" t="s">
+        <v>1248</v>
+      </c>
+      <c r="F209">
+        <f>角色!$E$13</f>
+      </c>
+      <c r="G209">
+        <f>菜单SAAS版!$E$110</f>
+      </c>
+      <c r="H209" t="s">
+        <v>1054</v>
+      </c>
+      <c r="I209" t="s">
+        <v>1055</v>
+      </c>
+      <c r="J209" t="s">
+        <v>1056</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="E210" t="s">
+        <v>1249</v>
+      </c>
+      <c r="F210">
+        <f>角色!$E$13</f>
+      </c>
+      <c r="G210">
+        <f>菜单SAAS版!$E$113</f>
+      </c>
+      <c r="H210" t="s">
+        <v>1054</v>
+      </c>
+      <c r="I210" t="s">
+        <v>1055</v>
+      </c>
+      <c r="J210" t="s">
+        <v>1056</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="E211" t="s">
+        <v>1250</v>
+      </c>
+      <c r="F211">
+        <f>角色!$E$13</f>
+      </c>
+      <c r="G211">
+        <f>菜单SAAS版!$E$112</f>
+      </c>
+      <c r="H211" t="s">
+        <v>1054</v>
+      </c>
+      <c r="I211" t="s">
+        <v>1055</v>
+      </c>
+      <c r="J211" t="s">
+        <v>1056</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="E212" t="s">
+        <v>1251</v>
+      </c>
+      <c r="F212">
+        <f>角色!$E$13</f>
+      </c>
+      <c r="G212">
+        <f>菜单SAAS版!$E$115</f>
+      </c>
+      <c r="H212" t="s">
+        <v>1054</v>
+      </c>
+      <c r="I212" t="s">
+        <v>1055</v>
+      </c>
+      <c r="J212" t="s">
+        <v>1056</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="E213" t="s">
+        <v>1252</v>
+      </c>
+      <c r="F213">
+        <f>角色!$E$13</f>
+      </c>
+      <c r="G213">
+        <f>菜单SAAS版!$E$117</f>
+      </c>
+      <c r="H213" t="s">
+        <v>1054</v>
+      </c>
+      <c r="I213" t="s">
+        <v>1055</v>
+      </c>
+      <c r="J213" t="s">
+        <v>1056</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="E214" t="s">
+        <v>1253</v>
+      </c>
+      <c r="F214">
+        <f>角色!$E$13</f>
+      </c>
+      <c r="G214">
+        <f>菜单SAAS版!$E$116</f>
+      </c>
+      <c r="H214" t="s">
+        <v>1054</v>
+      </c>
+      <c r="I214" t="s">
+        <v>1055</v>
+      </c>
+      <c r="J214" t="s">
+        <v>1056</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/script/db/init-data/devops_service/hzero_platform/hzero-menu-user-role-label.xlsx
+++ b/src/main/resources/script/db/init-data/devops_service/hzero_platform/hzero-menu-user-role-label.xlsx
@@ -17,6 +17,7 @@
     <sheet name="菜单权限" r:id="rId6" sheetId="3"/>
     <sheet name="菜单标签数据" r:id="rId7" sheetId="4"/>
     <sheet name="角色" r:id="rId8" sheetId="5"/>
+    <sheet name="角色标签数据" r:id="rId9" sheetId="6"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0">README!$D$1:$D$4</definedName>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3727" uniqueCount="1268">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3919" uniqueCount="1299">
   <si>
     <r>
       <rPr>
@@ -1998,7 +1999,7 @@
     <t>公式=外键引用</t>
   </si>
   <si>
-    <t>2020-06-01</t>
+    <t>2020-06-02</t>
   </si>
   <si>
     <t>hzero</t>
@@ -5650,6 +5651,99 @@
   </si>
   <si>
     <t>iam_role_permission-226</t>
+  </si>
+  <si>
+    <t>TENANT_MGR</t>
+  </si>
+  <si>
+    <t>ROLE</t>
+  </si>
+  <si>
+    <t>租户管理员标签</t>
+  </si>
+  <si>
+    <t>Tenant Manager Label</t>
+  </si>
+  <si>
+    <t>SITE_MGR</t>
+  </si>
+  <si>
+    <t>平台管理员标签</t>
+  </si>
+  <si>
+    <t>TENANT_ROLE_TPL</t>
+  </si>
+  <si>
+    <t>标识内置模板角色</t>
+  </si>
+  <si>
+    <t>TENANT_ROLE</t>
+  </si>
+  <si>
+    <t>标识租户层角色</t>
+  </si>
+  <si>
+    <t>Tenant Role</t>
+  </si>
+  <si>
+    <t>TENANT_ADMIN</t>
+  </si>
+  <si>
+    <t>标识租户管理员角色</t>
+  </si>
+  <si>
+    <t>PROJECT_ROLE</t>
+  </si>
+  <si>
+    <t>标识项目层角色</t>
+  </si>
+  <si>
+    <t>Project Role</t>
+  </si>
+  <si>
+    <t>PROJECT_ADMIN</t>
+  </si>
+  <si>
+    <t>标识项目管理员角色</t>
+  </si>
+  <si>
+    <t>TENANT_MEMBER</t>
+  </si>
+  <si>
+    <t>标识租户成员角色</t>
+  </si>
+  <si>
+    <t>Tenant Member</t>
+  </si>
+  <si>
+    <t>PROJECT_MEMBER</t>
+  </si>
+  <si>
+    <t>标识项目成员角色</t>
+  </si>
+  <si>
+    <t>Project Member</t>
+  </si>
+  <si>
+    <t>TENANT_TPL</t>
+  </si>
+  <si>
+    <t>租户管理员模板标签</t>
+  </si>
+  <si>
+    <t>Tenant Template Label</t>
+  </si>
+  <si>
+    <t>GITLAB_OWNER</t>
+  </si>
+  <si>
+    <t>标识gitlab_owner</t>
+  </si>
+  <si>
+    <t>GITLAB_DEVELOPER</t>
+  </si>
+  <si>
+    <t>标识gitlab_developer</t>
   </si>
 </sst>
 </file>
@@ -5657,7 +5751,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="0"/>
-  <fonts count="77">
+  <fonts count="93">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -5774,6 +5868,41 @@
       <name val="微软雅黑"/>
       <family val="2"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="53"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="48"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="42"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -6070,6 +6199,51 @@
       <sz val="11.0"/>
       <color indexed="48"/>
     </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="53"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="48"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="48"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="53"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="48"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="48"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="48"/>
+    </font>
   </fonts>
   <fills count="6">
     <fill>
@@ -6209,7 +6383,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="91">
+  <cellXfs count="107">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -6335,6 +6509,22 @@
     <xf numFmtId="0" fontId="74" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="75" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="76" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="77" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="78" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="79" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="80" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="81" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="82" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="83" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="84" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="85" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="86" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="87" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="88" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="89" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="90" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="91" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="92" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -6961,13 +7151,13 @@
       <c r="C7" t="s">
         <v>52</v>
       </c>
-      <c r="D7" t="s" s="60">
+      <c r="D7" t="s" s="67">
         <v>53</v>
       </c>
-      <c r="E7" t="s" s="61">
+      <c r="E7" t="s" s="68">
         <v>54</v>
       </c>
-      <c r="F7" t="s" s="62">
+      <c r="F7" t="s" s="69">
         <v>55</v>
       </c>
       <c r="G7" t="s">
@@ -6979,10 +7169,10 @@
       <c r="I7" t="s">
         <v>58</v>
       </c>
-      <c r="J7" t="s" s="63">
+      <c r="J7" t="s" s="70">
         <v>59</v>
       </c>
-      <c r="K7" t="s" s="64">
+      <c r="K7" t="s" s="71">
         <v>60</v>
       </c>
       <c r="L7" t="s">
@@ -7003,7 +7193,7 @@
       <c r="Q7" t="s">
         <v>66</v>
       </c>
-      <c r="R7" t="s" s="65">
+      <c r="R7" t="s" s="72">
         <v>67</v>
       </c>
       <c r="S7" t="s">
@@ -12941,16 +13131,16 @@
       <c r="C7" t="s">
         <v>586</v>
       </c>
-      <c r="D7" t="s" s="66">
+      <c r="D7" t="s" s="73">
         <v>587</v>
       </c>
-      <c r="E7" t="s" s="67">
+      <c r="E7" t="s" s="74">
         <v>54</v>
       </c>
-      <c r="F7" t="s" s="68">
+      <c r="F7" t="s" s="75">
         <v>588</v>
       </c>
-      <c r="G7" t="s" s="69">
+      <c r="G7" t="s" s="76">
         <v>589</v>
       </c>
     </row>
@@ -14982,16 +15172,16 @@
       <c r="C7" t="s">
         <v>908</v>
       </c>
-      <c r="D7" t="s" s="70">
+      <c r="D7" t="s" s="77">
         <v>909</v>
       </c>
-      <c r="E7" t="s" s="71">
+      <c r="E7" t="s" s="78">
         <v>54</v>
       </c>
-      <c r="F7" t="s" s="72">
+      <c r="F7" t="s" s="79">
         <v>910</v>
       </c>
-      <c r="G7" t="s" s="73">
+      <c r="G7" t="s" s="80">
         <v>911</v>
       </c>
       <c r="H7" t="s">
@@ -15595,19 +15785,19 @@
       <c r="C28" t="s">
         <v>976</v>
       </c>
-      <c r="D28" t="s" s="74">
+      <c r="D28" t="s" s="81">
         <v>977</v>
       </c>
-      <c r="E28" t="s" s="75">
+      <c r="E28" t="s" s="82">
         <v>978</v>
       </c>
-      <c r="F28" t="s" s="76">
+      <c r="F28" t="s" s="83">
         <v>979</v>
       </c>
-      <c r="G28" t="s" s="77">
+      <c r="G28" t="s" s="84">
         <v>980</v>
       </c>
-      <c r="H28" t="s" s="78">
+      <c r="H28" t="s" s="85">
         <v>981</v>
       </c>
       <c r="I28" t="s">
@@ -17294,10 +17484,10 @@
       <c r="C7" t="s">
         <v>986</v>
       </c>
-      <c r="D7" t="s" s="79">
+      <c r="D7" t="s" s="86">
         <v>987</v>
       </c>
-      <c r="E7" t="s" s="80">
+      <c r="E7" t="s" s="87">
         <v>54</v>
       </c>
       <c r="F7" t="s">
@@ -17306,7 +17496,7 @@
       <c r="G7" t="s">
         <v>57</v>
       </c>
-      <c r="H7" t="s" s="81">
+      <c r="H7" t="s" s="88">
         <v>55</v>
       </c>
       <c r="I7" t="s">
@@ -17315,16 +17505,16 @@
       <c r="J7" t="s">
         <v>913</v>
       </c>
-      <c r="K7" t="s" s="82">
+      <c r="K7" t="s" s="89">
         <v>67</v>
       </c>
       <c r="L7" t="s">
         <v>988</v>
       </c>
-      <c r="M7" t="s" s="83">
+      <c r="M7" t="s" s="90">
         <v>989</v>
       </c>
-      <c r="N7" t="s" s="84">
+      <c r="N7" t="s" s="91">
         <v>990</v>
       </c>
       <c r="O7" t="s">
@@ -17351,7 +17541,7 @@
       <c r="V7" t="s">
         <v>997</v>
       </c>
-      <c r="W7" t="s" s="85">
+      <c r="W7" t="s" s="92">
         <v>998</v>
       </c>
       <c r="X7" t="s">
@@ -17790,16 +17980,16 @@
       <c r="C16" t="s">
         <v>1048</v>
       </c>
-      <c r="D16" t="s" s="86">
+      <c r="D16" t="s" s="93">
         <v>1049</v>
       </c>
-      <c r="E16" t="s" s="87">
+      <c r="E16" t="s" s="94">
         <v>54</v>
       </c>
-      <c r="F16" t="s" s="88">
+      <c r="F16" t="s" s="95">
         <v>1050</v>
       </c>
-      <c r="G16" t="s" s="89">
+      <c r="G16" t="s" s="96">
         <v>1051</v>
       </c>
       <c r="H16" t="s">
@@ -17808,7 +17998,7 @@
       <c r="I16" t="s">
         <v>1053</v>
       </c>
-      <c r="J16" t="s" s="90">
+      <c r="J16" t="s" s="97">
         <v>911</v>
       </c>
     </row>
@@ -22010,6 +22200,739 @@
       </c>
       <c r="J226" t="s">
         <v>1057</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:O35"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="60">
+        <v>44</v>
+      </c>
+      <c r="B1" t="s" s="61">
+        <v>45</v>
+      </c>
+      <c r="C1" t="s" s="62">
+        <v>9</v>
+      </c>
+      <c r="D1" t="s" s="63">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="E4" t="s" s="64">
+        <v>47</v>
+      </c>
+      <c r="F4" t="s" s="65">
+        <v>48</v>
+      </c>
+      <c r="G4" t="s" s="66">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>50</v>
+      </c>
+      <c r="B7" t="s">
+        <v>51</v>
+      </c>
+      <c r="C7" t="s">
+        <v>908</v>
+      </c>
+      <c r="D7" t="s" s="98">
+        <v>909</v>
+      </c>
+      <c r="E7" t="s" s="99">
+        <v>54</v>
+      </c>
+      <c r="F7" t="s" s="100">
+        <v>910</v>
+      </c>
+      <c r="G7" t="s" s="101">
+        <v>911</v>
+      </c>
+      <c r="H7" t="s">
+        <v>912</v>
+      </c>
+      <c r="I7" t="s">
+        <v>913</v>
+      </c>
+      <c r="J7" t="s">
+        <v>914</v>
+      </c>
+      <c r="K7" t="s">
+        <v>915</v>
+      </c>
+      <c r="L7" t="s">
+        <v>916</v>
+      </c>
+      <c r="M7" t="s">
+        <v>917</v>
+      </c>
+      <c r="N7" t="s">
+        <v>918</v>
+      </c>
+      <c r="O7" t="s">
+        <v>919</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="E8" t="s">
+        <v>920</v>
+      </c>
+      <c r="F8" t="s">
+        <v>1268</v>
+      </c>
+      <c r="G8" t="s">
+        <v>1269</v>
+      </c>
+      <c r="H8" t="s">
+        <v>82</v>
+      </c>
+      <c r="I8" t="s">
+        <v>923</v>
+      </c>
+      <c r="J8" t="s">
+        <v>1270</v>
+      </c>
+      <c r="K8" t="s">
+        <v>1271</v>
+      </c>
+      <c r="M8" t="s">
+        <v>80</v>
+      </c>
+      <c r="N8" t="s">
+        <v>82</v>
+      </c>
+      <c r="O8" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="E9" t="s">
+        <v>925</v>
+      </c>
+      <c r="F9" t="s">
+        <v>1272</v>
+      </c>
+      <c r="G9" t="s">
+        <v>1269</v>
+      </c>
+      <c r="H9" t="s">
+        <v>82</v>
+      </c>
+      <c r="I9" t="s">
+        <v>930</v>
+      </c>
+      <c r="J9" t="s">
+        <v>1273</v>
+      </c>
+      <c r="M9" t="s">
+        <v>80</v>
+      </c>
+      <c r="N9" t="s">
+        <v>82</v>
+      </c>
+      <c r="O9" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="E10" t="s">
+        <v>928</v>
+      </c>
+      <c r="F10" t="s">
+        <v>1274</v>
+      </c>
+      <c r="G10" t="s">
+        <v>1269</v>
+      </c>
+      <c r="H10" t="s">
+        <v>82</v>
+      </c>
+      <c r="I10" t="s">
+        <v>923</v>
+      </c>
+      <c r="J10" t="s">
+        <v>1275</v>
+      </c>
+      <c r="K10" t="s">
+        <v>1275</v>
+      </c>
+      <c r="M10" t="s">
+        <v>80</v>
+      </c>
+      <c r="N10" t="s">
+        <v>82</v>
+      </c>
+      <c r="O10" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="E11" t="s">
+        <v>931</v>
+      </c>
+      <c r="F11" t="s">
+        <v>1276</v>
+      </c>
+      <c r="G11" t="s">
+        <v>1269</v>
+      </c>
+      <c r="H11" t="s">
+        <v>82</v>
+      </c>
+      <c r="I11" t="s">
+        <v>923</v>
+      </c>
+      <c r="J11" t="s">
+        <v>1277</v>
+      </c>
+      <c r="K11" t="s">
+        <v>1278</v>
+      </c>
+      <c r="M11" t="s">
+        <v>80</v>
+      </c>
+      <c r="N11" t="s">
+        <v>82</v>
+      </c>
+      <c r="O11" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="E12" t="s">
+        <v>933</v>
+      </c>
+      <c r="F12" t="s">
+        <v>1279</v>
+      </c>
+      <c r="G12" t="s">
+        <v>1269</v>
+      </c>
+      <c r="H12" t="s">
+        <v>82</v>
+      </c>
+      <c r="I12" t="s">
+        <v>923</v>
+      </c>
+      <c r="J12" t="s">
+        <v>1280</v>
+      </c>
+      <c r="K12" t="s">
+        <v>1280</v>
+      </c>
+      <c r="M12" t="s">
+        <v>80</v>
+      </c>
+      <c r="N12" t="s">
+        <v>82</v>
+      </c>
+      <c r="O12" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="E13" t="s">
+        <v>936</v>
+      </c>
+      <c r="F13" t="s">
+        <v>1281</v>
+      </c>
+      <c r="G13" t="s">
+        <v>1269</v>
+      </c>
+      <c r="H13" t="s">
+        <v>82</v>
+      </c>
+      <c r="I13" t="s">
+        <v>923</v>
+      </c>
+      <c r="J13" t="s">
+        <v>1282</v>
+      </c>
+      <c r="K13" t="s">
+        <v>1283</v>
+      </c>
+      <c r="M13" t="s">
+        <v>80</v>
+      </c>
+      <c r="N13" t="s">
+        <v>82</v>
+      </c>
+      <c r="O13" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="E14" t="s">
+        <v>939</v>
+      </c>
+      <c r="F14" t="s">
+        <v>1284</v>
+      </c>
+      <c r="G14" t="s">
+        <v>1269</v>
+      </c>
+      <c r="H14" t="s">
+        <v>82</v>
+      </c>
+      <c r="I14" t="s">
+        <v>923</v>
+      </c>
+      <c r="J14" t="s">
+        <v>1285</v>
+      </c>
+      <c r="K14" t="s">
+        <v>1034</v>
+      </c>
+      <c r="M14" t="s">
+        <v>80</v>
+      </c>
+      <c r="N14" t="s">
+        <v>82</v>
+      </c>
+      <c r="O14" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="E15" t="s">
+        <v>942</v>
+      </c>
+      <c r="F15" t="s">
+        <v>1286</v>
+      </c>
+      <c r="G15" t="s">
+        <v>1269</v>
+      </c>
+      <c r="H15" t="s">
+        <v>82</v>
+      </c>
+      <c r="I15" t="s">
+        <v>923</v>
+      </c>
+      <c r="J15" t="s">
+        <v>1287</v>
+      </c>
+      <c r="K15" t="s">
+        <v>1288</v>
+      </c>
+      <c r="M15" t="s">
+        <v>80</v>
+      </c>
+      <c r="N15" t="s">
+        <v>82</v>
+      </c>
+      <c r="O15" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="E16" t="s">
+        <v>945</v>
+      </c>
+      <c r="F16" t="s">
+        <v>1289</v>
+      </c>
+      <c r="G16" t="s">
+        <v>1269</v>
+      </c>
+      <c r="H16" t="s">
+        <v>82</v>
+      </c>
+      <c r="I16" t="s">
+        <v>923</v>
+      </c>
+      <c r="J16" t="s">
+        <v>1290</v>
+      </c>
+      <c r="K16" t="s">
+        <v>1291</v>
+      </c>
+      <c r="M16" t="s">
+        <v>80</v>
+      </c>
+      <c r="N16" t="s">
+        <v>82</v>
+      </c>
+      <c r="O16" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="E17" t="s">
+        <v>948</v>
+      </c>
+      <c r="F17" t="s">
+        <v>1292</v>
+      </c>
+      <c r="G17" t="s">
+        <v>1269</v>
+      </c>
+      <c r="H17" t="s">
+        <v>82</v>
+      </c>
+      <c r="I17" t="s">
+        <v>923</v>
+      </c>
+      <c r="J17" t="s">
+        <v>1293</v>
+      </c>
+      <c r="K17" t="s">
+        <v>1294</v>
+      </c>
+      <c r="M17" t="s">
+        <v>80</v>
+      </c>
+      <c r="N17" t="s">
+        <v>82</v>
+      </c>
+      <c r="O17" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="E18" t="s">
+        <v>951</v>
+      </c>
+      <c r="F18" t="s">
+        <v>1295</v>
+      </c>
+      <c r="G18" t="s">
+        <v>1269</v>
+      </c>
+      <c r="H18" t="s">
+        <v>82</v>
+      </c>
+      <c r="I18" t="s">
+        <v>923</v>
+      </c>
+      <c r="J18" t="s">
+        <v>1296</v>
+      </c>
+      <c r="K18" t="s">
+        <v>1295</v>
+      </c>
+      <c r="M18" t="s">
+        <v>80</v>
+      </c>
+      <c r="N18" t="s">
+        <v>82</v>
+      </c>
+      <c r="O18" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="E19" t="s">
+        <v>954</v>
+      </c>
+      <c r="F19" t="s">
+        <v>1297</v>
+      </c>
+      <c r="G19" t="s">
+        <v>1269</v>
+      </c>
+      <c r="H19" t="s">
+        <v>82</v>
+      </c>
+      <c r="I19" t="s">
+        <v>923</v>
+      </c>
+      <c r="J19" t="s">
+        <v>1298</v>
+      </c>
+      <c r="K19" t="s">
+        <v>1297</v>
+      </c>
+      <c r="M19" t="s">
+        <v>80</v>
+      </c>
+      <c r="N19" t="s">
+        <v>82</v>
+      </c>
+      <c r="O19" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
+        <v>50</v>
+      </c>
+      <c r="B21" t="s">
+        <v>51</v>
+      </c>
+      <c r="C21" t="s">
+        <v>976</v>
+      </c>
+      <c r="D21" t="s" s="102">
+        <v>977</v>
+      </c>
+      <c r="E21" t="s" s="103">
+        <v>978</v>
+      </c>
+      <c r="F21" t="s" s="104">
+        <v>979</v>
+      </c>
+      <c r="G21" t="s" s="105">
+        <v>980</v>
+      </c>
+      <c r="H21" t="s" s="106">
+        <v>981</v>
+      </c>
+      <c r="I21" t="s">
+        <v>982</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="E22" t="s">
+        <v>983</v>
+      </c>
+      <c r="F22" t="s">
+        <v>1269</v>
+      </c>
+      <c r="G22">
+        <f>角色!$E$10</f>
+      </c>
+      <c r="H22">
+        <f>角色标签数据!$E$10</f>
+      </c>
+      <c r="I22" t="s">
+        <v>985</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="E23" t="s">
+        <v>983</v>
+      </c>
+      <c r="F23" t="s">
+        <v>1269</v>
+      </c>
+      <c r="G23">
+        <f>角色!$E$10</f>
+      </c>
+      <c r="H23">
+        <f>角色标签数据!$E$11</f>
+      </c>
+      <c r="I23" t="s">
+        <v>985</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="E24" t="s">
+        <v>983</v>
+      </c>
+      <c r="F24" t="s">
+        <v>1269</v>
+      </c>
+      <c r="G24">
+        <f>角色!$E$10</f>
+      </c>
+      <c r="H24">
+        <f>角色标签数据!$E$12</f>
+      </c>
+      <c r="I24" t="s">
+        <v>985</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="E25" t="s">
+        <v>983</v>
+      </c>
+      <c r="F25" t="s">
+        <v>1269</v>
+      </c>
+      <c r="G25">
+        <f>角色!$E$11</f>
+      </c>
+      <c r="H25">
+        <f>角色标签数据!$E$10</f>
+      </c>
+      <c r="I25" t="s">
+        <v>985</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="E26" t="s">
+        <v>983</v>
+      </c>
+      <c r="F26" t="s">
+        <v>1269</v>
+      </c>
+      <c r="G26">
+        <f>角色!$E$11</f>
+      </c>
+      <c r="H26">
+        <f>角色标签数据!$E$11</f>
+      </c>
+      <c r="I26" t="s">
+        <v>985</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="E27" t="s">
+        <v>983</v>
+      </c>
+      <c r="F27" t="s">
+        <v>1269</v>
+      </c>
+      <c r="G27">
+        <f>角色!$E$11</f>
+      </c>
+      <c r="H27">
+        <f>角色标签数据!$E$15</f>
+      </c>
+      <c r="I27" t="s">
+        <v>985</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="E28" t="s">
+        <v>983</v>
+      </c>
+      <c r="F28" t="s">
+        <v>1269</v>
+      </c>
+      <c r="G28">
+        <f>角色!$E$12</f>
+      </c>
+      <c r="H28">
+        <f>角色标签数据!$E$10</f>
+      </c>
+      <c r="I28" t="s">
+        <v>985</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="E29" t="s">
+        <v>983</v>
+      </c>
+      <c r="F29" t="s">
+        <v>1269</v>
+      </c>
+      <c r="G29">
+        <f>角色!$E$12</f>
+      </c>
+      <c r="H29">
+        <f>角色标签数据!$E$13</f>
+      </c>
+      <c r="I29" t="s">
+        <v>985</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="E30" t="s">
+        <v>983</v>
+      </c>
+      <c r="F30" t="s">
+        <v>1269</v>
+      </c>
+      <c r="G30">
+        <f>角色!$E$12</f>
+      </c>
+      <c r="H30">
+        <f>角色标签数据!$E$14</f>
+      </c>
+      <c r="I30" t="s">
+        <v>985</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="E31" t="s">
+        <v>983</v>
+      </c>
+      <c r="F31" t="s">
+        <v>1269</v>
+      </c>
+      <c r="G31">
+        <f>角色!$E$12</f>
+      </c>
+      <c r="H31">
+        <f>角色标签数据!$E$18</f>
+      </c>
+      <c r="I31" t="s">
+        <v>985</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="E32" t="s">
+        <v>983</v>
+      </c>
+      <c r="F32" t="s">
+        <v>1269</v>
+      </c>
+      <c r="G32">
+        <f>角色!$E$13</f>
+      </c>
+      <c r="H32">
+        <f>角色标签数据!$E$10</f>
+      </c>
+      <c r="I32" t="s">
+        <v>985</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="E33" t="s">
+        <v>983</v>
+      </c>
+      <c r="F33" t="s">
+        <v>1269</v>
+      </c>
+      <c r="G33">
+        <f>角色!$E$13</f>
+      </c>
+      <c r="H33">
+        <f>角色标签数据!$E$13</f>
+      </c>
+      <c r="I33" t="s">
+        <v>985</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="E34" t="s">
+        <v>983</v>
+      </c>
+      <c r="F34" t="s">
+        <v>1269</v>
+      </c>
+      <c r="G34">
+        <f>角色!$E$13</f>
+      </c>
+      <c r="H34">
+        <f>角色标签数据!$E$16</f>
+      </c>
+      <c r="I34" t="s">
+        <v>985</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="E35" t="s">
+        <v>983</v>
+      </c>
+      <c r="F35" t="s">
+        <v>1269</v>
+      </c>
+      <c r="G35">
+        <f>角色!$E$13</f>
+      </c>
+      <c r="H35">
+        <f>角色标签数据!$E$19</f>
+      </c>
+      <c r="I35" t="s">
+        <v>985</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/script/db/init-data/devops_service/hzero_platform/hzero-menu-user-role-label.xlsx
+++ b/src/main/resources/script/db/init-data/devops_service/hzero_platform/hzero-menu-user-role-label.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23001"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\hzero\hzero-iam-hand\src\main\resources\script\db\init-data\hzero_platform\hzero_platform\devops\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\projcect\devops-service\src\main\resources\script\db\init-data\devops_service\hzero_platform\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B787AE23-0CEB-42DA-A671-8359E2188450}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13369042-76D9-4E9F-BD11-4BA4FC177A43}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="597" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="597" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5634" uniqueCount="2024">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5636" uniqueCount="2026">
   <si>
     <r>
       <rPr>
@@ -7949,12 +7949,18 @@
   <si>
     <t>iam_role_permission-399</t>
   </si>
+  <si>
+    <t>devops-service.devops-cluster-resource.unloadCertManager</t>
+  </si>
+  <si>
+    <t>iam_menu_permission-445</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="26">
+  <fonts count="27">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -8121,6 +8127,13 @@
       <family val="2"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF92D050"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="6">
     <fill>
@@ -8260,7 +8273,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -8320,6 +8333,7 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -8335,7 +8349,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -8704,11 +8718,11 @@
   <sheetData>
     <row r="1" spans="1:8" ht="64.5" customHeight="1">
       <c r="A1" s="11"/>
-      <c r="C1" s="36" t="s">
+      <c r="C1" s="37" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="36"/>
-      <c r="E1" s="36"/>
+      <c r="D1" s="37"/>
+      <c r="E1" s="37"/>
       <c r="F1" s="12"/>
       <c r="G1" s="12"/>
       <c r="H1" s="12"/>
@@ -8717,21 +8731,21 @@
       <c r="E2" s="13"/>
     </row>
     <row r="3" spans="1:8" ht="49.5" customHeight="1">
-      <c r="C3" s="35" t="s">
+      <c r="C3" s="36" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="35"/>
-      <c r="E3" s="37" t="s">
+      <c r="D3" s="36"/>
+      <c r="E3" s="38" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="37"/>
-      <c r="G3" s="37"/>
+      <c r="F3" s="38"/>
+      <c r="G3" s="38"/>
     </row>
     <row r="4" spans="1:8" ht="18">
-      <c r="C4" s="38" t="s">
+      <c r="C4" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="38"/>
+      <c r="D4" s="39"/>
       <c r="E4" s="14" t="s">
         <v>4</v>
       </c>
@@ -8842,11 +8856,11 @@
       </c>
     </row>
     <row r="19" spans="3:5">
-      <c r="C19" s="39" t="s">
+      <c r="C19" s="40" t="s">
         <v>30</v>
       </c>
-      <c r="D19" s="39"/>
-      <c r="E19" s="39"/>
+      <c r="D19" s="40"/>
+      <c r="E19" s="40"/>
     </row>
     <row r="20" spans="3:5" ht="18">
       <c r="C20" s="31" t="s">
@@ -8884,19 +8898,19 @@
       <c r="C25" s="32" t="s">
         <v>39</v>
       </c>
-      <c r="D25" s="35" t="s">
+      <c r="D25" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="E25" s="35"/>
+      <c r="E25" s="36"/>
     </row>
     <row r="26" spans="3:5" ht="14.25" customHeight="1">
       <c r="C26" s="21" t="s">
         <v>41</v>
       </c>
-      <c r="D26" s="35" t="s">
+      <c r="D26" s="36" t="s">
         <v>42</v>
       </c>
-      <c r="E26" s="35"/>
+      <c r="E26" s="36"/>
     </row>
     <row r="27" spans="3:5" ht="51.75">
       <c r="C27" s="33" t="s">
@@ -8923,8 +8937,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Y166"/>
   <sheetViews>
-    <sheetView topLeftCell="C153" workbookViewId="0">
-      <selection activeCell="E160" sqref="E160"/>
+    <sheetView topLeftCell="C81" workbookViewId="0">
+      <selection activeCell="E97" sqref="E97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25"/>
@@ -16907,10 +16921,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:G444"/>
+  <dimension ref="A1:G445"/>
   <sheetViews>
-    <sheetView topLeftCell="C430" workbookViewId="0">
-      <selection activeCell="C445" sqref="A445:XFD445"/>
+    <sheetView tabSelected="1" topLeftCell="C430" workbookViewId="0">
+      <selection activeCell="E445" sqref="E445:G445"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25"/>
@@ -22210,6 +22224,18 @@
       </c>
       <c r="G444" s="8" t="s">
         <v>1457</v>
+      </c>
+    </row>
+    <row r="445" spans="5:7">
+      <c r="E445" s="41" t="s">
+        <v>2025</v>
+      </c>
+      <c r="F445" s="41" t="str">
+        <f>菜单SAAS版!E97</f>
+        <v>iam_menu-97</v>
+      </c>
+      <c r="G445" s="41" t="s">
+        <v>2024</v>
       </c>
     </row>
   </sheetData>
@@ -24599,7 +24625,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:Y399"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C382" workbookViewId="0">
+    <sheetView topLeftCell="C382" workbookViewId="0">
       <selection activeCell="D399" sqref="D399"/>
     </sheetView>
   </sheetViews>
@@ -33578,24 +33604,24 @@
       </c>
     </row>
     <row r="399" spans="5:10">
-      <c r="E399" s="40" t="s">
+      <c r="E399" s="35" t="s">
         <v>2023</v>
       </c>
-      <c r="F399" s="40" t="str">
+      <c r="F399" s="35" t="str">
         <f>E13</f>
         <v>iam_role-13</v>
       </c>
-      <c r="G399" s="40" t="str">
+      <c r="G399" s="35" t="str">
         <f>菜单SAAS版!E160</f>
         <v>iam_menu-160</v>
       </c>
-      <c r="H399" s="40" t="s">
-        <v>1606</v>
-      </c>
-      <c r="I399" s="40" t="s">
-        <v>1607</v>
-      </c>
-      <c r="J399" s="40" t="s">
+      <c r="H399" s="35" t="s">
+        <v>1606</v>
+      </c>
+      <c r="I399" s="35" t="s">
+        <v>1607</v>
+      </c>
+      <c r="J399" s="35" t="s">
         <v>1608</v>
       </c>
     </row>

--- a/src/main/resources/script/db/init-data/devops_service/hzero_platform/hzero-menu-user-role-label.xlsx
+++ b/src/main/resources/script/db/init-data/devops_service/hzero_platform/hzero-menu-user-role-label.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\projcect\devops-service\src\main\resources\script\db\init-data\devops_service\hzero_platform\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13369042-76D9-4E9F-BD11-4BA4FC177A43}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1292C971-91A7-40D0-931C-973A84DAFE24}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="597" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5636" uniqueCount="2026">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5638" uniqueCount="2028">
   <si>
     <r>
       <rPr>
@@ -56,7 +56,6 @@
         <sz val="12"/>
         <color rgb="FFFF0000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>merge</t>
     </r>
@@ -88,7 +87,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">sheet </t>
     </r>
@@ -107,7 +105,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>,</t>
     </r>
@@ -126,7 +123,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">D7 </t>
     </r>
@@ -177,7 +173,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>(</t>
     </r>
@@ -196,7 +191,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>,</t>
     </r>
@@ -215,7 +209,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>)</t>
     </r>
@@ -238,7 +231,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>,</t>
     </r>
@@ -259,7 +251,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>,</t>
     </r>
@@ -281,7 +272,6 @@
         <sz val="12"/>
         <color rgb="FFC55A11"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>*</t>
     </r>
@@ -302,7 +292,6 @@
         <sz val="12"/>
         <color rgb="FF2E75B6"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>#</t>
     </r>
@@ -333,7 +322,6 @@
         <sz val="12"/>
         <color rgb="FF548235"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>=</t>
     </r>
@@ -364,7 +352,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>,</t>
     </r>
@@ -383,7 +370,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">,sheet </t>
     </r>
@@ -402,7 +388,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>,</t>
     </r>
@@ -421,7 +406,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>,</t>
     </r>
@@ -440,7 +424,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>!</t>
     </r>
@@ -469,7 +452,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>*</t>
     </r>
@@ -488,7 +470,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">, </t>
     </r>
@@ -507,7 +488,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>,</t>
     </r>
@@ -526,7 +506,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>,</t>
     </r>
@@ -557,7 +536,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>(</t>
     </r>
@@ -576,7 +554,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>)</t>
     </r>
@@ -595,7 +572,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">.
 </t>
@@ -615,7 +591,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>,</t>
     </r>
@@ -634,7 +609,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">*
 </t>
@@ -654,7 +628,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>,</t>
     </r>
@@ -685,7 +658,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">oracle </t>
     </r>
@@ -704,7 +676,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>,</t>
     </r>
@@ -728,7 +699,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>#</t>
     </r>
@@ -747,7 +717,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>,</t>
     </r>
@@ -766,7 +735,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>#</t>
     </r>
@@ -785,7 +753,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>,</t>
     </r>
@@ -804,7 +771,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>,</t>
     </r>
@@ -835,7 +801,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>.</t>
     </r>
@@ -866,7 +831,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>,</t>
     </r>
@@ -897,7 +861,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>#</t>
     </r>
@@ -916,7 +879,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>,</t>
     </r>
@@ -940,7 +902,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>(TYPE)</t>
     </r>
@@ -959,7 +920,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>,</t>
     </r>
@@ -978,7 +938,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>:
 _ID</t>
@@ -998,7 +957,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">;
 _DATE </t>
@@ -1018,7 +976,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">;
 </t>
@@ -1038,7 +995,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>VARCHAR</t>
     </r>
@@ -1059,7 +1015,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">.
 </t>
@@ -1079,7 +1034,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>:
 yyyy-MM-dd HH:mm:ss
@@ -1095,7 +1049,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">:LANG </t>
     </r>
@@ -1116,7 +1069,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">TL </t>
     </r>
@@ -1147,7 +1099,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>(</t>
     </r>
@@ -1166,7 +1117,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>)</t>
     </r>
@@ -1187,7 +1137,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>,</t>
     </r>
@@ -1219,7 +1168,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>,</t>
     </r>
@@ -1238,7 +1186,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>,</t>
     </r>
@@ -1257,7 +1204,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>,</t>
     </r>
@@ -1291,7 +1237,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>.</t>
     </r>
@@ -1310,7 +1255,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">Excel </t>
     </r>
@@ -1329,7 +1273,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>,</t>
     </r>
@@ -1348,7 +1291,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>,</t>
     </r>
@@ -1393,7 +1335,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">E9 </t>
     </r>
@@ -1438,7 +1379,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">E9 </t>
     </r>
@@ -1472,7 +1412,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">RESOURCE </t>
     </r>
@@ -1491,7 +1430,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">E23 </t>
     </r>
@@ -1510,7 +1448,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>(</t>
     </r>
@@ -1530,7 +1467,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>)</t>
     </r>
@@ -1554,7 +1490,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">RESOURCE </t>
     </r>
@@ -1573,7 +1508,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">E23 </t>
     </r>
@@ -1592,7 +1526,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>(</t>
     </r>
@@ -1612,7 +1545,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>)</t>
     </r>
@@ -1666,7 +1598,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>:</t>
     </r>
@@ -1685,7 +1616,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">F10 </t>
     </r>
@@ -1704,7 +1634,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">A9 </t>
     </r>
@@ -1724,7 +1653,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">F10 </t>
     </r>
@@ -1743,7 +1671,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">F11 </t>
     </r>
@@ -1762,7 +1689,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">, F11 </t>
     </r>
@@ -1781,7 +1707,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">A10
 </t>
@@ -1801,7 +1726,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">F10 </t>
     </r>
@@ -1820,7 +1744,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">G11 </t>
     </r>
@@ -1839,7 +1762,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">, G11 </t>
     </r>
@@ -1858,7 +1780,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">B10
 </t>
@@ -1923,7 +1844,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>,</t>
     </r>
@@ -1954,7 +1874,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>,</t>
     </r>
@@ -1973,7 +1892,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">.
 </t>
@@ -7944,7 +7862,7 @@
   </si>
   <si>
     <t>choerodon.code.project.develop.code-management.ps.tag.delete</t>
-    <phoneticPr fontId="24" type="noConversion"/>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>iam_role_permission-399</t>
@@ -7954,13 +7872,19 @@
   </si>
   <si>
     <t>iam_menu_permission-445</t>
+  </si>
+  <si>
+    <t>devops-service.devops-cluster.deletePermissionOfProject</t>
+  </si>
+  <si>
+    <t>iam_menu_permission-446</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="27">
+  <fonts count="25">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -7995,18 +7919,21 @@
       <sz val="12"/>
       <color rgb="FFFF0000"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FFFFC000"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF00B0F0"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
@@ -8014,37 +7941,36 @@
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FFC55A11"/>
       <name val="DengXian"/>
-      <charset val="134"/>
+      <family val="1"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF2E75B6"/>
       <name val="DengXian"/>
-      <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF548235"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="DengXian"/>
-      <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FFFF0000"/>
       <name val="DengXian"/>
-      <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
@@ -8063,7 +7989,6 @@
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="DengXian"/>
-      <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
@@ -8083,33 +8008,10 @@
       <sz val="12"/>
       <color rgb="FF548235"/>
       <name val="DengXian"/>
-      <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
-      <name val="微软雅黑"/>
-      <family val="2"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FFFF0000"/>
-      <name val="微软雅黑"/>
-      <family val="2"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="微软雅黑"/>
-      <family val="2"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF548235"/>
       <name val="微软雅黑"/>
       <family val="2"/>
       <charset val="134"/>
@@ -8133,6 +8035,11 @@
       <name val="微软雅黑"/>
       <family val="2"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFC55A11"/>
+      <name val="DengXian"/>
     </font>
   </fonts>
   <fills count="6">
@@ -8333,7 +8240,8 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -8349,7 +8257,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -8718,11 +8625,11 @@
   <sheetData>
     <row r="1" spans="1:8" ht="64.5" customHeight="1">
       <c r="A1" s="11"/>
-      <c r="C1" s="37" t="s">
+      <c r="C1" s="38" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="37"/>
-      <c r="E1" s="37"/>
+      <c r="D1" s="38"/>
+      <c r="E1" s="38"/>
       <c r="F1" s="12"/>
       <c r="G1" s="12"/>
       <c r="H1" s="12"/>
@@ -8731,21 +8638,21 @@
       <c r="E2" s="13"/>
     </row>
     <row r="3" spans="1:8" ht="49.5" customHeight="1">
-      <c r="C3" s="36" t="s">
+      <c r="C3" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="36"/>
-      <c r="E3" s="38" t="s">
+      <c r="D3" s="37"/>
+      <c r="E3" s="39" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="38"/>
-      <c r="G3" s="38"/>
+      <c r="F3" s="39"/>
+      <c r="G3" s="39"/>
     </row>
     <row r="4" spans="1:8" ht="18">
-      <c r="C4" s="39" t="s">
+      <c r="C4" s="40" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="39"/>
+      <c r="D4" s="40"/>
       <c r="E4" s="14" t="s">
         <v>4</v>
       </c>
@@ -8856,11 +8763,11 @@
       </c>
     </row>
     <row r="19" spans="3:5">
-      <c r="C19" s="40" t="s">
+      <c r="C19" s="41" t="s">
         <v>30</v>
       </c>
-      <c r="D19" s="40"/>
-      <c r="E19" s="40"/>
+      <c r="D19" s="41"/>
+      <c r="E19" s="41"/>
     </row>
     <row r="20" spans="3:5" ht="18">
       <c r="C20" s="31" t="s">
@@ -8898,19 +8805,19 @@
       <c r="C25" s="32" t="s">
         <v>39</v>
       </c>
-      <c r="D25" s="36" t="s">
+      <c r="D25" s="37" t="s">
         <v>40</v>
       </c>
-      <c r="E25" s="36"/>
+      <c r="E25" s="37"/>
     </row>
     <row r="26" spans="3:5" ht="14.25" customHeight="1">
       <c r="C26" s="21" t="s">
         <v>41</v>
       </c>
-      <c r="D26" s="36" t="s">
+      <c r="D26" s="37" t="s">
         <v>42</v>
       </c>
-      <c r="E26" s="36"/>
+      <c r="E26" s="37"/>
     </row>
     <row r="27" spans="3:5" ht="51.75">
       <c r="C27" s="33" t="s">
@@ -8927,7 +8834,7 @@
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="C19:E19"/>
   </mergeCells>
-  <phoneticPr fontId="24" type="noConversion"/>
+  <phoneticPr fontId="21" type="noConversion"/>
   <pageMargins left="0.69791666666666696" right="0.69791666666666696" top="0.75" bottom="0.75" header="0.51041666666666696" footer="0.51041666666666696"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
@@ -16914,17 +16821,17 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="24" type="noConversion"/>
+  <phoneticPr fontId="21" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:G445"/>
+  <dimension ref="A1:G446"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C430" workbookViewId="0">
-      <selection activeCell="E445" sqref="E445:G445"/>
+      <selection activeCell="E447" sqref="E447"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25"/>
@@ -22227,19 +22134,31 @@
       </c>
     </row>
     <row r="445" spans="5:7">
-      <c r="E445" s="41" t="s">
+      <c r="E445" s="36" t="s">
         <v>2025</v>
       </c>
-      <c r="F445" s="41" t="str">
+      <c r="F445" s="36" t="str">
         <f>菜单SAAS版!E97</f>
         <v>iam_menu-97</v>
       </c>
-      <c r="G445" s="41" t="s">
+      <c r="G445" s="36" t="s">
         <v>2024</v>
       </c>
     </row>
+    <row r="446" spans="5:7">
+      <c r="E446" s="6" t="s">
+        <v>2027</v>
+      </c>
+      <c r="F446" s="6" t="str">
+        <f>菜单SAAS版!E92</f>
+        <v>iam_menu-92</v>
+      </c>
+      <c r="G446" s="6" t="s">
+        <v>2026</v>
+      </c>
+    </row>
   </sheetData>
-  <phoneticPr fontId="24" type="noConversion"/>
+  <phoneticPr fontId="21" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -24616,7 +24535,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="24" type="noConversion"/>
+  <phoneticPr fontId="21" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -33626,7 +33545,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="24" type="noConversion"/>
+  <phoneticPr fontId="21" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -34388,7 +34307,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="24" type="noConversion"/>
+  <phoneticPr fontId="21" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>

--- a/src/main/resources/script/db/init-data/devops_service/hzero_platform/hzero-menu-user-role-label.xlsx
+++ b/src/main/resources/script/db/init-data/devops_service/hzero_platform/hzero-menu-user-role-label.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\projcect\devops-service\src\main\resources\script\db\init-data\devops_service\hzero_platform\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1292C971-91A7-40D0-931C-973A84DAFE24}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{791A0F52-6F2B-4B5C-859E-A6F4029CC74D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="597" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="597" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="1" r:id="rId1"/>
@@ -56,6 +56,7 @@
         <sz val="12"/>
         <color rgb="FFFF0000"/>
         <rFont val="DengXian"/>
+        <charset val="134"/>
       </rPr>
       <t>merge</t>
     </r>
@@ -87,6 +88,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">sheet </t>
     </r>
@@ -105,6 +107,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <charset val="134"/>
       </rPr>
       <t>,</t>
     </r>
@@ -123,6 +126,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">D7 </t>
     </r>
@@ -173,6 +177,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <charset val="134"/>
       </rPr>
       <t>(</t>
     </r>
@@ -191,6 +196,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <charset val="134"/>
       </rPr>
       <t>,</t>
     </r>
@@ -209,6 +215,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <charset val="134"/>
       </rPr>
       <t>)</t>
     </r>
@@ -231,6 +238,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <charset val="134"/>
       </rPr>
       <t>,</t>
     </r>
@@ -251,6 +259,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <charset val="134"/>
       </rPr>
       <t>,</t>
     </r>
@@ -272,6 +281,7 @@
         <sz val="12"/>
         <color rgb="FFC55A11"/>
         <rFont val="DengXian"/>
+        <charset val="134"/>
       </rPr>
       <t>*</t>
     </r>
@@ -292,6 +302,7 @@
         <sz val="12"/>
         <color rgb="FF2E75B6"/>
         <rFont val="DengXian"/>
+        <charset val="134"/>
       </rPr>
       <t>#</t>
     </r>
@@ -322,6 +333,7 @@
         <sz val="12"/>
         <color rgb="FF548235"/>
         <rFont val="DengXian"/>
+        <charset val="134"/>
       </rPr>
       <t>=</t>
     </r>
@@ -352,6 +364,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <charset val="134"/>
       </rPr>
       <t>,</t>
     </r>
@@ -370,6 +383,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">,sheet </t>
     </r>
@@ -388,6 +402,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <charset val="134"/>
       </rPr>
       <t>,</t>
     </r>
@@ -406,6 +421,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <charset val="134"/>
       </rPr>
       <t>,</t>
     </r>
@@ -424,6 +440,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <charset val="134"/>
       </rPr>
       <t>!</t>
     </r>
@@ -452,6 +469,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <charset val="134"/>
       </rPr>
       <t>*</t>
     </r>
@@ -470,6 +488,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">, </t>
     </r>
@@ -488,6 +507,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <charset val="134"/>
       </rPr>
       <t>,</t>
     </r>
@@ -506,6 +526,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <charset val="134"/>
       </rPr>
       <t>,</t>
     </r>
@@ -536,6 +557,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <charset val="134"/>
       </rPr>
       <t>(</t>
     </r>
@@ -554,6 +576,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <charset val="134"/>
       </rPr>
       <t>)</t>
     </r>
@@ -572,6 +595,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">.
 </t>
@@ -591,6 +615,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <charset val="134"/>
       </rPr>
       <t>,</t>
     </r>
@@ -609,6 +634,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">*
 </t>
@@ -628,6 +654,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <charset val="134"/>
       </rPr>
       <t>,</t>
     </r>
@@ -658,6 +685,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">oracle </t>
     </r>
@@ -676,6 +704,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <charset val="134"/>
       </rPr>
       <t>,</t>
     </r>
@@ -699,6 +728,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <charset val="134"/>
       </rPr>
       <t>#</t>
     </r>
@@ -717,6 +747,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <charset val="134"/>
       </rPr>
       <t>,</t>
     </r>
@@ -735,6 +766,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <charset val="134"/>
       </rPr>
       <t>#</t>
     </r>
@@ -753,6 +785,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <charset val="134"/>
       </rPr>
       <t>,</t>
     </r>
@@ -771,6 +804,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <charset val="134"/>
       </rPr>
       <t>,</t>
     </r>
@@ -801,6 +835,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <charset val="134"/>
       </rPr>
       <t>.</t>
     </r>
@@ -831,6 +866,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <charset val="134"/>
       </rPr>
       <t>,</t>
     </r>
@@ -861,6 +897,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <charset val="134"/>
       </rPr>
       <t>#</t>
     </r>
@@ -879,6 +916,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <charset val="134"/>
       </rPr>
       <t>,</t>
     </r>
@@ -902,6 +940,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <charset val="134"/>
       </rPr>
       <t>(TYPE)</t>
     </r>
@@ -920,6 +959,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <charset val="134"/>
       </rPr>
       <t>,</t>
     </r>
@@ -938,6 +978,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <charset val="134"/>
       </rPr>
       <t>:
 _ID</t>
@@ -957,6 +998,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">;
 _DATE </t>
@@ -976,6 +1018,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">;
 </t>
@@ -995,6 +1038,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <charset val="134"/>
       </rPr>
       <t>VARCHAR</t>
     </r>
@@ -1015,6 +1059,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">.
 </t>
@@ -1034,6 +1079,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <charset val="134"/>
       </rPr>
       <t>:
 yyyy-MM-dd HH:mm:ss
@@ -1049,6 +1095,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">:LANG </t>
     </r>
@@ -1069,6 +1116,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">TL </t>
     </r>
@@ -1099,6 +1147,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <charset val="134"/>
       </rPr>
       <t>(</t>
     </r>
@@ -1117,6 +1166,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <charset val="134"/>
       </rPr>
       <t>)</t>
     </r>
@@ -1137,6 +1187,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <charset val="134"/>
       </rPr>
       <t>,</t>
     </r>
@@ -1168,6 +1219,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <charset val="134"/>
       </rPr>
       <t>,</t>
     </r>
@@ -1186,6 +1238,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <charset val="134"/>
       </rPr>
       <t>,</t>
     </r>
@@ -1204,6 +1257,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <charset val="134"/>
       </rPr>
       <t>,</t>
     </r>
@@ -1237,6 +1291,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <charset val="134"/>
       </rPr>
       <t>.</t>
     </r>
@@ -1255,6 +1310,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">Excel </t>
     </r>
@@ -1273,6 +1329,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <charset val="134"/>
       </rPr>
       <t>,</t>
     </r>
@@ -1291,6 +1348,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <charset val="134"/>
       </rPr>
       <t>,</t>
     </r>
@@ -1335,6 +1393,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">E9 </t>
     </r>
@@ -1379,6 +1438,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">E9 </t>
     </r>
@@ -1412,6 +1472,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">RESOURCE </t>
     </r>
@@ -1430,6 +1491,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">E23 </t>
     </r>
@@ -1448,6 +1510,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <charset val="134"/>
       </rPr>
       <t>(</t>
     </r>
@@ -1467,6 +1530,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <charset val="134"/>
       </rPr>
       <t>)</t>
     </r>
@@ -1490,6 +1554,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">RESOURCE </t>
     </r>
@@ -1508,6 +1573,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">E23 </t>
     </r>
@@ -1526,6 +1592,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <charset val="134"/>
       </rPr>
       <t>(</t>
     </r>
@@ -1545,6 +1612,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <charset val="134"/>
       </rPr>
       <t>)</t>
     </r>
@@ -1598,6 +1666,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <charset val="134"/>
       </rPr>
       <t>:</t>
     </r>
@@ -1616,6 +1685,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">F10 </t>
     </r>
@@ -1634,6 +1704,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">A9 </t>
     </r>
@@ -1653,6 +1724,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">F10 </t>
     </r>
@@ -1671,6 +1743,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">F11 </t>
     </r>
@@ -1689,6 +1762,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">, F11 </t>
     </r>
@@ -1707,6 +1781,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">A10
 </t>
@@ -1726,6 +1801,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">F10 </t>
     </r>
@@ -1744,6 +1820,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">G11 </t>
     </r>
@@ -1762,6 +1839,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">, G11 </t>
     </r>
@@ -1780,6 +1858,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">B10
 </t>
@@ -1844,6 +1923,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <charset val="134"/>
       </rPr>
       <t>,</t>
     </r>
@@ -1874,6 +1954,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <charset val="134"/>
       </rPr>
       <t>,</t>
     </r>
@@ -1892,6 +1973,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">.
 </t>
@@ -7884,7 +7966,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="25">
+  <fonts count="26">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -7954,6 +8036,7 @@
       <sz val="12"/>
       <color rgb="FF2E75B6"/>
       <name val="DengXian"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
@@ -7966,11 +8049,13 @@
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="DengXian"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FFFF0000"/>
       <name val="DengXian"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
@@ -7989,6 +8074,7 @@
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="DengXian"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
@@ -8008,6 +8094,7 @@
       <sz val="12"/>
       <color rgb="FF548235"/>
       <name val="DengXian"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
@@ -8040,6 +8127,15 @@
       <sz val="12"/>
       <color rgb="FFC55A11"/>
       <name val="DengXian"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <strike/>
+      <sz val="12"/>
+      <color theme="9" tint="-0.249977111117893"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="6">
@@ -8180,7 +8276,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -8257,6 +8353,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -16830,7 +16927,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:G446"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C430" workbookViewId="0">
+    <sheetView topLeftCell="C430" workbookViewId="0">
       <selection activeCell="E447" sqref="E447"/>
     </sheetView>
   </sheetViews>
@@ -24544,8 +24641,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:Y399"/>
   <sheetViews>
-    <sheetView topLeftCell="C382" workbookViewId="0">
-      <selection activeCell="D399" sqref="D399"/>
+    <sheetView tabSelected="1" topLeftCell="C382" workbookViewId="0">
+      <selection activeCell="E399" sqref="E399"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25"/>
@@ -33523,7 +33620,7 @@
       </c>
     </row>
     <row r="399" spans="5:10">
-      <c r="E399" s="35" t="s">
+      <c r="E399" s="42" t="s">
         <v>2023</v>
       </c>
       <c r="F399" s="35" t="str">

--- a/src/main/resources/script/db/init-data/devops_service/hzero_platform/hzero-menu-user-role-label.xlsx
+++ b/src/main/resources/script/db/init-data/devops_service/hzero_platform/hzero-menu-user-role-label.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\projcect\devops-service\src\main\resources\script\db\init-data\devops_service\hzero_platform\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CCFB175-44D0-453D-8A31-E5BD8FBCB859}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDA49E42-F224-4B81-A2DC-E2DA8116B78D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="597" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
     <definedName name="qwe">REPT(local_year_format,4)&amp;local_date_separator&amp;REPT(local_month_format,2)&amp;local_date_separator&amp;REPT(local_day_format,2)&amp;" "&amp;REPT(local_hour_format,2)&amp;local_time_separator&amp;REPT(local_minute_format,2)&amp;local_time_separator&amp;REPT(local_second_format,2)</definedName>
     <definedName name="wqewqe">REPT(local_year_format,4)&amp;local_date_separator&amp;REPT(local_month_format,2)&amp;local_date_separator&amp;REPT(local_day_format,2)&amp;" "&amp;REPT(local_hour_format,2)&amp;local_time_separator&amp;REPT(local_minute_format,2)&amp;local_time_separator&amp;REPT(local_second_format,2)</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="181029" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5770" uniqueCount="2107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5778" uniqueCount="2109">
   <si>
     <r>
       <rPr>
@@ -56,7 +56,6 @@
         <sz val="12"/>
         <color rgb="FFFF0000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>merge</t>
     </r>
@@ -88,7 +87,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">sheet </t>
     </r>
@@ -107,7 +105,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>,</t>
     </r>
@@ -126,7 +123,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">D7 </t>
     </r>
@@ -177,7 +173,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>(</t>
     </r>
@@ -196,7 +191,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>,</t>
     </r>
@@ -215,7 +209,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>)</t>
     </r>
@@ -238,7 +231,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>,</t>
     </r>
@@ -259,7 +251,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>,</t>
     </r>
@@ -281,7 +272,6 @@
         <sz val="12"/>
         <color rgb="FFC55A11"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>*</t>
     </r>
@@ -302,7 +292,6 @@
         <sz val="12"/>
         <color rgb="FF2E75B6"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>#</t>
     </r>
@@ -333,7 +322,6 @@
         <sz val="12"/>
         <color rgb="FF548235"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>=</t>
     </r>
@@ -364,7 +352,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>,</t>
     </r>
@@ -383,7 +370,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">,sheet </t>
     </r>
@@ -402,7 +388,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>,</t>
     </r>
@@ -421,7 +406,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>,</t>
     </r>
@@ -440,7 +424,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>!</t>
     </r>
@@ -469,7 +452,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>*</t>
     </r>
@@ -488,7 +470,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">, </t>
     </r>
@@ -507,7 +488,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>,</t>
     </r>
@@ -526,7 +506,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>,</t>
     </r>
@@ -557,7 +536,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>(</t>
     </r>
@@ -576,7 +554,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>)</t>
     </r>
@@ -595,7 +572,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">.
 </t>
@@ -615,7 +591,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>,</t>
     </r>
@@ -634,7 +609,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">*
 </t>
@@ -654,7 +628,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>,</t>
     </r>
@@ -685,7 +658,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">oracle </t>
     </r>
@@ -704,7 +676,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>,</t>
     </r>
@@ -728,7 +699,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>#</t>
     </r>
@@ -747,7 +717,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>,</t>
     </r>
@@ -766,7 +735,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>#</t>
     </r>
@@ -785,7 +753,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>,</t>
     </r>
@@ -804,7 +771,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>,</t>
     </r>
@@ -835,7 +801,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>.</t>
     </r>
@@ -866,7 +831,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>,</t>
     </r>
@@ -897,7 +861,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>#</t>
     </r>
@@ -916,7 +879,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>,</t>
     </r>
@@ -940,7 +902,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>(TYPE)</t>
     </r>
@@ -959,7 +920,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>,</t>
     </r>
@@ -978,7 +938,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>:
 _ID</t>
@@ -998,7 +957,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">;
 _DATE </t>
@@ -1018,7 +976,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">;
 </t>
@@ -1038,7 +995,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>VARCHAR</t>
     </r>
@@ -1059,7 +1015,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">.
 </t>
@@ -1079,7 +1034,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>:
 yyyy-MM-dd HH:mm:ss
@@ -1095,7 +1049,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">:LANG </t>
     </r>
@@ -1116,7 +1069,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">TL </t>
     </r>
@@ -1147,7 +1099,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>(</t>
     </r>
@@ -1166,7 +1117,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>)</t>
     </r>
@@ -1187,7 +1137,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>,</t>
     </r>
@@ -1219,7 +1168,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>,</t>
     </r>
@@ -1238,7 +1186,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>,</t>
     </r>
@@ -1257,7 +1204,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>,</t>
     </r>
@@ -1291,7 +1237,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>.</t>
     </r>
@@ -1310,7 +1255,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">Excel </t>
     </r>
@@ -1329,7 +1273,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>,</t>
     </r>
@@ -1348,7 +1291,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>,</t>
     </r>
@@ -1393,7 +1335,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">E9 </t>
     </r>
@@ -1438,7 +1379,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">E9 </t>
     </r>
@@ -1472,7 +1412,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">RESOURCE </t>
     </r>
@@ -1491,7 +1430,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">E23 </t>
     </r>
@@ -1510,7 +1448,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>(</t>
     </r>
@@ -1530,7 +1467,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>)</t>
     </r>
@@ -1554,7 +1490,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">RESOURCE </t>
     </r>
@@ -1573,7 +1508,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">E23 </t>
     </r>
@@ -1592,7 +1526,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>(</t>
     </r>
@@ -1612,7 +1545,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>)</t>
     </r>
@@ -1666,7 +1598,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>:</t>
     </r>
@@ -1685,7 +1616,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">F10 </t>
     </r>
@@ -1704,7 +1634,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">A9 </t>
     </r>
@@ -1724,7 +1653,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">F10 </t>
     </r>
@@ -1743,7 +1671,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">F11 </t>
     </r>
@@ -1762,7 +1689,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">, F11 </t>
     </r>
@@ -1781,7 +1707,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">A10
 </t>
@@ -1801,7 +1726,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">F10 </t>
     </r>
@@ -1820,7 +1744,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">G11 </t>
     </r>
@@ -1839,7 +1762,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">, G11 </t>
     </r>
@@ -1858,7 +1780,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">B10
 </t>
@@ -1923,7 +1844,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>,</t>
     </r>
@@ -1954,7 +1874,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>,</t>
     </r>
@@ -1973,7 +1892,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">.
 </t>
@@ -8197,12 +8115,18 @@
   <si>
     <t>iam_menu_permission-489</t>
   </si>
+  <si>
+    <t>iam_role_permission-405</t>
+  </si>
+  <si>
+    <t>iam_role_permission-406</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="32">
+  <fonts count="31">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -8237,6 +8161,7 @@
       <sz val="12"/>
       <color theme="9" tint="-0.249977111117893"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
@@ -8244,29 +8169,34 @@
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FFFF0000"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FFFFC000"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF00B0F0"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
@@ -8274,37 +8204,36 @@
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FFC55A11"/>
       <name val="DengXian"/>
-      <charset val="134"/>
+      <family val="1"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF2E75B6"/>
       <name val="DengXian"/>
-      <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF548235"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="DengXian"/>
-      <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FFFF0000"/>
       <name val="DengXian"/>
-      <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
@@ -8323,7 +8252,6 @@
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="DengXian"/>
-      <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
@@ -8343,7 +8271,6 @@
       <sz val="12"/>
       <color rgb="FF548235"/>
       <name val="DengXian"/>
-      <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
@@ -8355,21 +8282,6 @@
     <font>
       <sz val="12"/>
       <color rgb="FFFF0000"/>
-      <name val="微软雅黑"/>
-      <family val="2"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="微软雅黑"/>
-      <family val="2"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF548235"/>
       <name val="微软雅黑"/>
       <family val="2"/>
       <charset val="134"/>
@@ -8408,6 +8320,11 @@
       <name val="微软雅黑"/>
       <family val="2"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFC55A11"/>
+      <name val="DengXian"/>
     </font>
   </fonts>
   <fills count="6">
@@ -8610,11 +8527,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -8625,11 +8547,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -8998,11 +8915,11 @@
   <sheetData>
     <row r="1" spans="1:8" ht="64.5" customHeight="1">
       <c r="A1" s="14"/>
-      <c r="C1" s="37" t="s">
+      <c r="C1" s="43" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="37"/>
-      <c r="E1" s="37"/>
+      <c r="D1" s="43"/>
+      <c r="E1" s="43"/>
       <c r="F1" s="15"/>
       <c r="G1" s="15"/>
       <c r="H1" s="15"/>
@@ -9011,21 +8928,21 @@
       <c r="E2" s="16"/>
     </row>
     <row r="3" spans="1:8" ht="49.5" customHeight="1">
-      <c r="C3" s="38" t="s">
+      <c r="C3" s="42" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="38"/>
-      <c r="E3" s="39" t="s">
+      <c r="D3" s="42"/>
+      <c r="E3" s="44" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="39"/>
-      <c r="G3" s="39"/>
+      <c r="F3" s="44"/>
+      <c r="G3" s="44"/>
     </row>
     <row r="4" spans="1:8" ht="18">
-      <c r="C4" s="40" t="s">
+      <c r="C4" s="45" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="40"/>
+      <c r="D4" s="45"/>
       <c r="E4" s="17" t="s">
         <v>4</v>
       </c>
@@ -9136,11 +9053,11 @@
       </c>
     </row>
     <row r="19" spans="3:5">
-      <c r="C19" s="41" t="s">
+      <c r="C19" s="46" t="s">
         <v>30</v>
       </c>
-      <c r="D19" s="41"/>
-      <c r="E19" s="41"/>
+      <c r="D19" s="46"/>
+      <c r="E19" s="46"/>
     </row>
     <row r="20" spans="3:5" ht="18">
       <c r="C20" s="34" t="s">
@@ -9178,19 +9095,19 @@
       <c r="C25" s="35" t="s">
         <v>39</v>
       </c>
-      <c r="D25" s="38" t="s">
+      <c r="D25" s="42" t="s">
         <v>40</v>
       </c>
-      <c r="E25" s="38"/>
+      <c r="E25" s="42"/>
     </row>
     <row r="26" spans="3:5" ht="14.25" customHeight="1">
       <c r="C26" s="24" t="s">
         <v>41</v>
       </c>
-      <c r="D26" s="38" t="s">
+      <c r="D26" s="42" t="s">
         <v>42</v>
       </c>
-      <c r="E26" s="38"/>
+      <c r="E26" s="42"/>
     </row>
     <row r="27" spans="3:5" ht="51.75">
       <c r="C27" s="36" t="s">
@@ -9207,7 +9124,7 @@
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="C19:E19"/>
   </mergeCells>
-  <phoneticPr fontId="27" type="noConversion"/>
+  <phoneticPr fontId="25" type="noConversion"/>
   <pageMargins left="0.69791666666666696" right="0.69791666666666696" top="0.75" bottom="0.75" header="0.51041666666666696" footer="0.51041666666666696"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
@@ -9217,7 +9134,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Y168"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
+    <sheetView topLeftCell="A145" workbookViewId="0">
       <selection activeCell="A169" sqref="A169:XFD169"/>
     </sheetView>
   </sheetViews>
@@ -17284,7 +17201,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="27" type="noConversion"/>
+  <phoneticPr fontId="25" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -23072,7 +22989,7 @@
         <f>菜单SAAS版!E95</f>
         <v>iam_menu-95</v>
       </c>
-      <c r="G484" s="42" t="s">
+      <c r="G484" s="37" t="s">
         <v>1461</v>
       </c>
     </row>
@@ -23084,7 +23001,7 @@
         <f>菜单SAAS版!E142</f>
         <v>iam_menu-142</v>
       </c>
-      <c r="G485" s="43" t="s">
+      <c r="G485" s="38" t="s">
         <v>1463</v>
       </c>
     </row>
@@ -23096,7 +23013,7 @@
         <f>菜单SAAS版!E138</f>
         <v>iam_menu-138</v>
       </c>
-      <c r="G486" s="44" t="s">
+      <c r="G486" s="39" t="s">
         <v>1465</v>
       </c>
     </row>
@@ -23108,7 +23025,7 @@
         <f>菜单SAAS版!E97</f>
         <v>iam_menu-97</v>
       </c>
-      <c r="G487" s="45" t="s">
+      <c r="G487" s="40" t="s">
         <v>2098</v>
       </c>
     </row>
@@ -23120,7 +23037,7 @@
         <f>菜单SAAS版!E92</f>
         <v>iam_menu-92</v>
       </c>
-      <c r="G488" s="42" t="s">
+      <c r="G488" s="37" t="s">
         <v>2099</v>
       </c>
     </row>
@@ -23137,7 +23054,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="27" type="noConversion"/>
+  <phoneticPr fontId="25" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -25514,17 +25431,17 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="27" type="noConversion"/>
+  <phoneticPr fontId="25" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:Y404"/>
+  <dimension ref="A1:Y406"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C392" workbookViewId="0">
-      <selection activeCell="E399" sqref="E399"/>
+    <sheetView tabSelected="1" topLeftCell="C375" workbookViewId="0">
+      <selection activeCell="E404" sqref="E404:E406"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25"/>
@@ -34502,7 +34419,7 @@
       </c>
     </row>
     <row r="399" spans="5:10">
-      <c r="E399" s="46" t="s">
+      <c r="E399" s="41" t="s">
         <v>2061</v>
       </c>
       <c r="F399" s="5" t="str">
@@ -34633,8 +34550,52 @@
         <v>1678</v>
       </c>
     </row>
+    <row r="405" spans="5:10">
+      <c r="E405" t="s">
+        <v>2107</v>
+      </c>
+      <c r="F405" t="str">
+        <f>E10</f>
+        <v>iam_role-10</v>
+      </c>
+      <c r="G405" t="str">
+        <f>菜单SAAS版!E165</f>
+        <v>iam_menu-165</v>
+      </c>
+      <c r="H405" t="s">
+        <v>1676</v>
+      </c>
+      <c r="I405" t="s">
+        <v>1677</v>
+      </c>
+      <c r="J405" t="s">
+        <v>1678</v>
+      </c>
+    </row>
+    <row r="406" spans="5:10">
+      <c r="E406" t="s">
+        <v>2108</v>
+      </c>
+      <c r="F406" t="str">
+        <f>E12</f>
+        <v>iam_role-12</v>
+      </c>
+      <c r="G406" t="str">
+        <f>菜单SAAS版!E166</f>
+        <v>iam_menu-166</v>
+      </c>
+      <c r="H406" t="s">
+        <v>1676</v>
+      </c>
+      <c r="I406" t="s">
+        <v>1677</v>
+      </c>
+      <c r="J406" t="s">
+        <v>1678</v>
+      </c>
+    </row>
   </sheetData>
-  <phoneticPr fontId="27" type="noConversion"/>
+  <phoneticPr fontId="25" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -35396,7 +35357,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="27" type="noConversion"/>
+  <phoneticPr fontId="25" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>

--- a/src/main/resources/script/db/init-data/devops_service/hzero_platform/hzero-menu-user-role-label.xlsx
+++ b/src/main/resources/script/db/init-data/devops_service/hzero_platform/hzero-menu-user-role-label.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\projcect\devops-service\src\main\resources\script\db\init-data\devops_service\hzero_platform\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDA49E42-F224-4B81-A2DC-E2DA8116B78D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0ABCF4A5-6069-4DEE-AB6F-32AF63050385}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="597" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="597" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5778" uniqueCount="2109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5780" uniqueCount="2111">
   <si>
     <r>
       <rPr>
@@ -56,6 +56,7 @@
         <sz val="12"/>
         <color rgb="FFFF0000"/>
         <rFont val="DengXian"/>
+        <charset val="134"/>
       </rPr>
       <t>merge</t>
     </r>
@@ -87,6 +88,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">sheet </t>
     </r>
@@ -105,6 +107,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <charset val="134"/>
       </rPr>
       <t>,</t>
     </r>
@@ -123,6 +126,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">D7 </t>
     </r>
@@ -173,6 +177,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <charset val="134"/>
       </rPr>
       <t>(</t>
     </r>
@@ -191,6 +196,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <charset val="134"/>
       </rPr>
       <t>,</t>
     </r>
@@ -209,6 +215,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <charset val="134"/>
       </rPr>
       <t>)</t>
     </r>
@@ -231,6 +238,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <charset val="134"/>
       </rPr>
       <t>,</t>
     </r>
@@ -251,6 +259,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <charset val="134"/>
       </rPr>
       <t>,</t>
     </r>
@@ -272,6 +281,7 @@
         <sz val="12"/>
         <color rgb="FFC55A11"/>
         <rFont val="DengXian"/>
+        <charset val="134"/>
       </rPr>
       <t>*</t>
     </r>
@@ -292,6 +302,7 @@
         <sz val="12"/>
         <color rgb="FF2E75B6"/>
         <rFont val="DengXian"/>
+        <charset val="134"/>
       </rPr>
       <t>#</t>
     </r>
@@ -322,6 +333,7 @@
         <sz val="12"/>
         <color rgb="FF548235"/>
         <rFont val="DengXian"/>
+        <charset val="134"/>
       </rPr>
       <t>=</t>
     </r>
@@ -352,6 +364,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <charset val="134"/>
       </rPr>
       <t>,</t>
     </r>
@@ -370,6 +383,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">,sheet </t>
     </r>
@@ -388,6 +402,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <charset val="134"/>
       </rPr>
       <t>,</t>
     </r>
@@ -406,6 +421,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <charset val="134"/>
       </rPr>
       <t>,</t>
     </r>
@@ -424,6 +440,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <charset val="134"/>
       </rPr>
       <t>!</t>
     </r>
@@ -452,6 +469,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <charset val="134"/>
       </rPr>
       <t>*</t>
     </r>
@@ -470,6 +488,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">, </t>
     </r>
@@ -488,6 +507,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <charset val="134"/>
       </rPr>
       <t>,</t>
     </r>
@@ -506,6 +526,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <charset val="134"/>
       </rPr>
       <t>,</t>
     </r>
@@ -536,6 +557,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <charset val="134"/>
       </rPr>
       <t>(</t>
     </r>
@@ -554,6 +576,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <charset val="134"/>
       </rPr>
       <t>)</t>
     </r>
@@ -572,6 +595,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">.
 </t>
@@ -591,6 +615,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <charset val="134"/>
       </rPr>
       <t>,</t>
     </r>
@@ -609,6 +634,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">*
 </t>
@@ -628,6 +654,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <charset val="134"/>
       </rPr>
       <t>,</t>
     </r>
@@ -658,6 +685,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">oracle </t>
     </r>
@@ -676,6 +704,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <charset val="134"/>
       </rPr>
       <t>,</t>
     </r>
@@ -699,6 +728,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <charset val="134"/>
       </rPr>
       <t>#</t>
     </r>
@@ -717,6 +747,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <charset val="134"/>
       </rPr>
       <t>,</t>
     </r>
@@ -735,6 +766,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <charset val="134"/>
       </rPr>
       <t>#</t>
     </r>
@@ -753,6 +785,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <charset val="134"/>
       </rPr>
       <t>,</t>
     </r>
@@ -771,6 +804,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <charset val="134"/>
       </rPr>
       <t>,</t>
     </r>
@@ -801,6 +835,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <charset val="134"/>
       </rPr>
       <t>.</t>
     </r>
@@ -831,6 +866,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <charset val="134"/>
       </rPr>
       <t>,</t>
     </r>
@@ -861,6 +897,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <charset val="134"/>
       </rPr>
       <t>#</t>
     </r>
@@ -879,6 +916,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <charset val="134"/>
       </rPr>
       <t>,</t>
     </r>
@@ -902,6 +940,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <charset val="134"/>
       </rPr>
       <t>(TYPE)</t>
     </r>
@@ -920,6 +959,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <charset val="134"/>
       </rPr>
       <t>,</t>
     </r>
@@ -938,6 +978,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <charset val="134"/>
       </rPr>
       <t>:
 _ID</t>
@@ -957,6 +998,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">;
 _DATE </t>
@@ -976,6 +1018,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">;
 </t>
@@ -995,6 +1038,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <charset val="134"/>
       </rPr>
       <t>VARCHAR</t>
     </r>
@@ -1015,6 +1059,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">.
 </t>
@@ -1034,6 +1079,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <charset val="134"/>
       </rPr>
       <t>:
 yyyy-MM-dd HH:mm:ss
@@ -1049,6 +1095,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">:LANG </t>
     </r>
@@ -1069,6 +1116,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">TL </t>
     </r>
@@ -1099,6 +1147,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <charset val="134"/>
       </rPr>
       <t>(</t>
     </r>
@@ -1117,6 +1166,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <charset val="134"/>
       </rPr>
       <t>)</t>
     </r>
@@ -1137,6 +1187,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <charset val="134"/>
       </rPr>
       <t>,</t>
     </r>
@@ -1168,6 +1219,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <charset val="134"/>
       </rPr>
       <t>,</t>
     </r>
@@ -1186,6 +1238,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <charset val="134"/>
       </rPr>
       <t>,</t>
     </r>
@@ -1204,6 +1257,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <charset val="134"/>
       </rPr>
       <t>,</t>
     </r>
@@ -1237,6 +1291,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <charset val="134"/>
       </rPr>
       <t>.</t>
     </r>
@@ -1255,6 +1310,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">Excel </t>
     </r>
@@ -1273,6 +1329,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <charset val="134"/>
       </rPr>
       <t>,</t>
     </r>
@@ -1291,6 +1348,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <charset val="134"/>
       </rPr>
       <t>,</t>
     </r>
@@ -1335,6 +1393,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">E9 </t>
     </r>
@@ -1379,6 +1438,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">E9 </t>
     </r>
@@ -1412,6 +1472,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">RESOURCE </t>
     </r>
@@ -1430,6 +1491,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">E23 </t>
     </r>
@@ -1448,6 +1510,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <charset val="134"/>
       </rPr>
       <t>(</t>
     </r>
@@ -1467,6 +1530,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <charset val="134"/>
       </rPr>
       <t>)</t>
     </r>
@@ -1490,6 +1554,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">RESOURCE </t>
     </r>
@@ -1508,6 +1573,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">E23 </t>
     </r>
@@ -1526,6 +1592,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <charset val="134"/>
       </rPr>
       <t>(</t>
     </r>
@@ -1545,6 +1612,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <charset val="134"/>
       </rPr>
       <t>)</t>
     </r>
@@ -1598,6 +1666,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <charset val="134"/>
       </rPr>
       <t>:</t>
     </r>
@@ -1616,6 +1685,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">F10 </t>
     </r>
@@ -1634,6 +1704,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">A9 </t>
     </r>
@@ -1653,6 +1724,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">F10 </t>
     </r>
@@ -1671,6 +1743,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">F11 </t>
     </r>
@@ -1689,6 +1762,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">, F11 </t>
     </r>
@@ -1707,6 +1781,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">A10
 </t>
@@ -1726,6 +1801,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">F10 </t>
     </r>
@@ -1744,6 +1820,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">G11 </t>
     </r>
@@ -1762,6 +1839,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">, G11 </t>
     </r>
@@ -1780,6 +1858,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">B10
 </t>
@@ -1844,6 +1923,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <charset val="134"/>
       </rPr>
       <t>,</t>
     </r>
@@ -1874,6 +1954,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <charset val="134"/>
       </rPr>
       <t>,</t>
     </r>
@@ -1892,6 +1973,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">.
 </t>
@@ -8120,6 +8202,12 @@
   </si>
   <si>
     <t>iam_role_permission-406</t>
+  </si>
+  <si>
+    <t>devops-service.devops-cd-job-record.queryDeployJobLogs</t>
+  </si>
+  <si>
+    <t>iam_menu_permission-490</t>
   </si>
 </sst>
 </file>
@@ -8217,6 +8305,7 @@
       <sz val="12"/>
       <color rgb="FF2E75B6"/>
       <name val="DengXian"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
@@ -8229,11 +8318,13 @@
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="DengXian"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FFFF0000"/>
       <name val="DengXian"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
@@ -8252,6 +8343,7 @@
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="DengXian"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
@@ -8271,6 +8363,7 @@
       <sz val="12"/>
       <color rgb="FF548235"/>
       <name val="DengXian"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
@@ -8325,6 +8418,7 @@
       <sz val="12"/>
       <color rgb="FFC55A11"/>
       <name val="DengXian"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="6">
@@ -17208,10 +17302,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:G489"/>
+  <dimension ref="A1:G490"/>
   <sheetViews>
-    <sheetView topLeftCell="A461" workbookViewId="0">
-      <selection activeCell="F489" sqref="F489"/>
+    <sheetView tabSelected="1" topLeftCell="A464" workbookViewId="0">
+      <selection activeCell="E490" sqref="E490:G490"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25"/>
@@ -23051,6 +23145,18 @@
       </c>
       <c r="G489" t="s">
         <v>2100</v>
+      </c>
+    </row>
+    <row r="490" spans="5:7">
+      <c r="E490" s="40" t="s">
+        <v>2110</v>
+      </c>
+      <c r="F490" s="40" t="str">
+        <f>菜单SAAS版!E147</f>
+        <v>iam_menu-147</v>
+      </c>
+      <c r="G490" s="40" t="s">
+        <v>2109</v>
       </c>
     </row>
   </sheetData>
@@ -25440,7 +25546,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:Y406"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C375" workbookViewId="0">
+    <sheetView topLeftCell="C381" workbookViewId="0">
       <selection activeCell="E404" sqref="E404:E406"/>
     </sheetView>
   </sheetViews>

--- a/src/main/resources/script/db/init-data/devops_service/hzero_platform/hzero-menu-user-role-label.xlsx
+++ b/src/main/resources/script/db/init-data/devops_service/hzero_platform/hzero-menu-user-role-label.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\projcect\devops-service\src\main\resources\script\db\init-data\devops_service\hzero_platform\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0ABCF4A5-6069-4DEE-AB6F-32AF63050385}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE1C0F1F-7234-4507-AC29-B606B15A13BF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="597" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5780" uniqueCount="2111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5782" uniqueCount="2113">
   <si>
     <r>
       <rPr>
@@ -8208,6 +8208,12 @@
   </si>
   <si>
     <t>iam_menu_permission-490</t>
+  </si>
+  <si>
+    <t>devops-service.ci-cd-pipeline-record.retryPipelineCdTask</t>
+  </si>
+  <si>
+    <t>iam_menu_permission-491</t>
   </si>
 </sst>
 </file>
@@ -17302,10 +17308,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:G490"/>
+  <dimension ref="A1:G491"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A464" workbookViewId="0">
-      <selection activeCell="E490" sqref="E490:G490"/>
+      <selection activeCell="E491" sqref="E491:G491"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25"/>
@@ -23157,6 +23163,18 @@
       </c>
       <c r="G490" s="40" t="s">
         <v>2109</v>
+      </c>
+    </row>
+    <row r="491" spans="5:7">
+      <c r="E491" s="10" t="s">
+        <v>2112</v>
+      </c>
+      <c r="F491" s="10" t="str">
+        <f>菜单SAAS版!E157</f>
+        <v>iam_menu-157</v>
+      </c>
+      <c r="G491" s="10" t="s">
+        <v>2111</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/script/db/init-data/devops_service/hzero_platform/hzero-menu-user-role-label.xlsx
+++ b/src/main/resources/script/db/init-data/devops_service/hzero_platform/hzero-menu-user-role-label.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23029"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\projcect\devops-service\src\main\resources\script\db\init-data\devops_service\hzero_platform\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{661C8A33-593C-40AC-9CB2-A2284BA47E9B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="19815" windowHeight="7860" tabRatio="597" activeTab="2"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="597" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="1" r:id="rId1"/>
@@ -20,18 +26,19 @@
     <definedName name="qwe">REPT(local_year_format,4)&amp;local_date_separator&amp;REPT(local_month_format,2)&amp;local_date_separator&amp;REPT(local_day_format,2)&amp;" "&amp;REPT(local_hour_format,2)&amp;local_time_separator&amp;REPT(local_minute_format,2)&amp;local_time_separator&amp;REPT(local_second_format,2)</definedName>
     <definedName name="wqewqe">REPT(local_year_format,4)&amp;local_date_separator&amp;REPT(local_month_format,2)&amp;local_date_separator&amp;REPT(local_day_format,2)&amp;" "&amp;REPT(local_hour_format,2)&amp;local_time_separator&amp;REPT(local_minute_format,2)&amp;local_time_separator&amp;REPT(local_second_format,2)</definedName>
   </definedNames>
-  <calcPr calcId="144525" concurrentCalc="0"/>
+  <calcPr calcId="181029" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5784" uniqueCount="2115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5786" uniqueCount="2117">
   <si>
     <r>
       <rPr>
         <sz val="12"/>
         <color rgb="FFFF0000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">注意这个文档不能 </t>
@@ -50,6 +57,7 @@
         <sz val="12"/>
         <color rgb="FFFF0000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>！！
@@ -62,6 +70,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">正式的数据从第二个 </t>
@@ -80,6 +89,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>页开始</t>
@@ -98,6 +108,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">每页 从 </t>
@@ -116,6 +127,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">单元格开始有效
@@ -147,6 +159,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>颜色示例</t>
@@ -165,6 +178,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>非必须</t>
@@ -183,6 +197,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>非强制</t>
@@ -204,6 +219,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>请给特殊单元格</t>
@@ -224,6 +240,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>列名添加颜色</t>
@@ -244,6 +261,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>提高数据可读性</t>
@@ -264,6 +282,7 @@
         <sz val="12"/>
         <color rgb="FFC55A11"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>自动生成</t>
@@ -284,6 +303,7 @@
         <sz val="12"/>
         <color rgb="FF2E75B6"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>唯一性检查</t>
@@ -295,6 +315,7 @@
         <sz val="12"/>
         <color rgb="FF548235"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>公式</t>
@@ -313,6 +334,7 @@
         <sz val="12"/>
         <color rgb="FF548235"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>外键引用</t>
@@ -324,6 +346,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>理论上</t>
@@ -342,6 +365,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>表的前后顺序</t>
@@ -360,6 +384,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>页的顺序没有严格要求</t>
@@ -378,6 +403,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>但请尽量按照先插 后引用的顺序排列</t>
@@ -396,6 +422,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>减少迭代次数</t>
@@ -443,6 +470,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>前置</t>
@@ -461,6 +489,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>该列的值自动生成</t>
@@ -479,6 +508,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>当数据库存在等价记录时</t>
@@ -497,6 +527,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>这个值会被替换为数据库中已存在的值</t>
@@ -508,6 +539,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>自增长</t>
@@ -526,6 +558,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>或序列</t>
@@ -544,6 +577,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>主键列</t>
@@ -563,6 +597,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>当不作为外键引用时</t>
@@ -581,6 +616,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>一般写</t>
@@ -600,6 +636,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>作为外键时</t>
@@ -618,6 +655,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>写可读的值</t>
@@ -629,6 +667,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">目前 </t>
@@ -647,6 +686,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>是序列</t>
@@ -665,6 +705,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>其他自增涨</t>
@@ -688,6 +729,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>前置</t>
@@ -706,6 +748,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>表中所有带有</t>
@@ -724,6 +767,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>的列组成一个唯一性校验</t>
@@ -742,6 +786,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>在执行插入之前</t>
@@ -760,6 +805,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>会首先按照唯一键来检查数据库是否存在等价记录</t>
@@ -771,6 +817,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>可以有多列</t>
@@ -789,6 +836,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>仅支持</t>
@@ -799,6 +847,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>数字</t>
@@ -819,6 +868,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">字符串
@@ -829,6 +879,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>当</t>
@@ -847,6 +898,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>列涉及到公式时</t>
@@ -865,6 +917,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>会先确定公式的值</t>
@@ -888,6 +941,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>指定这一列的类型</t>
@@ -906,6 +960,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>默认会自动检测</t>
@@ -925,6 +980,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>结尾为数字</t>
@@ -944,6 +1000,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>结尾为日期</t>
@@ -963,6 +1020,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>其他默认为</t>
@@ -983,6 +1041,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>一般不需要指定</t>
@@ -1002,6 +1061,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>日期格式仅支持</t>
@@ -1036,6 +1096,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>指定语言环境</t>
@@ -1056,6 +1117,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>表数据不需要专门写</t>
@@ -1067,6 +1129,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>外键引用</t>
@@ -1085,6 +1148,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>公式</t>
@@ -1105,6 +1169,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>用于引用外键</t>
@@ -1123,6 +1188,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>也可用于普通值
@@ -1135,6 +1201,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>自动增长列</t>
@@ -1153,6 +1220,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>如果被公式引用</t>
@@ -1171,6 +1239,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>最好写一个人可以读懂的值</t>
@@ -1189,6 +1258,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>增强公式可读性</t>
@@ -1203,6 +1273,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>一般用于引用自动生成的外键</t>
@@ -1221,6 +1292,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">所有公式均为 </t>
@@ -1239,6 +1311,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>支持的标准公式</t>
@@ -1257,6 +1330,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>但不支持特别复杂的计算公式</t>
@@ -1275,6 +1349,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>比如范围计算</t>
@@ -1290,6 +1365,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>相对</t>
@@ -1299,6 +1375,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">引用当前页 </t>
@@ -1317,6 +1394,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>单元格</t>
@@ -1332,6 +1410,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>绝对</t>
@@ -1341,6 +1420,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">引用当前页 </t>
@@ -1359,6 +1439,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>单元格</t>
@@ -1373,6 +1454,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">引用 </t>
@@ -1391,6 +1473,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">页的 </t>
@@ -1409,6 +1492,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>单元格</t>
@@ -1428,6 +1512,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>相对</t>
@@ -1451,6 +1536,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">引用 </t>
@@ -1469,6 +1555,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">页的 </t>
@@ -1487,6 +1574,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>单元格</t>
@@ -1506,6 +1594,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>绝对</t>
@@ -1526,6 +1615,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>关于</t>
@@ -1536,6 +1626,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>相对</t>
@@ -1545,6 +1636,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>引用</t>
@@ -1556,6 +1648,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>举例</t>
@@ -1574,6 +1667,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">当 </t>
@@ -1592,6 +1686,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">单元格引用 </t>
@@ -1610,6 +1705,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">时
@@ -1629,6 +1725,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">的复制到 </t>
@@ -1647,6 +1744,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>单元格时</t>
@@ -1665,6 +1763,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">引用的是 </t>
@@ -1684,6 +1783,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">将 </t>
@@ -1702,6 +1802,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">的复制到 </t>
@@ -1720,6 +1821,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>时</t>
@@ -1738,6 +1840,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">实际引用的是 </t>
@@ -1757,6 +1860,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>以上情况适用于拖拽填充</t>
@@ -1768,6 +1872,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>关于</t>
@@ -1778,6 +1883,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>绝对</t>
@@ -1787,6 +1893,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>引用</t>
@@ -1798,6 +1905,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>复制公式单元格时</t>
@@ -1816,6 +1924,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>保持公式不变</t>
@@ -1827,6 +1936,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>相对引用</t>
@@ -1845,6 +1955,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>绝对引用各有用途</t>
@@ -1864,6 +1975,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>直接拖拽填充就可以避免大量重复工作</t>
@@ -6114,6 +6226,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>iam_menu_permission-4</t>
@@ -6123,6 +6236,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>40</t>
@@ -8099,18 +8213,18 @@
   <si>
     <t>标识gitlab_developer</t>
   </si>
+  <si>
+    <t>devops-service.devops-cluster-resource.createPrometheus</t>
+  </si>
+  <si>
+    <t>iam_menu_permission-493</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="47">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="31">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -8121,25 +8235,25 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="53"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="48"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="42"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <strike/>
@@ -8222,157 +8336,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="微软雅黑"/>
@@ -8406,19 +8369,15 @@
     <font>
       <sz val="12"/>
       <color rgb="FFC55A11"/>
-      <name val="DengXian"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FFC55A11"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF2E75B6"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
@@ -8427,8 +8386,43 @@
       <name val="DengXian"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF548235"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="37">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -8459,194 +8453,8 @@
         <bgColor rgb="FFE7E6E6"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="18">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -8747,254 +8555,12 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="50">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="12" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="25" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="25" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="30" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -9016,20 +8582,8 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -9063,9 +8617,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -9073,59 +8624,28 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="50">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
-    <cellStyle name="常规 2" xfId="49"/>
+    <cellStyle name="常规 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000031000000}"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium7"/>
   <colors>
     <indexedColors>
@@ -9198,6 +8718,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -9455,271 +8978,268 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25"/>
   <cols>
-    <col min="1" max="1" width="15.5555555555556" style="14" customWidth="1"/>
-    <col min="2" max="2" width="10.3333333333333" style="15" customWidth="1"/>
-    <col min="3" max="3" width="28.1111111111111" customWidth="1"/>
-    <col min="4" max="4" width="35.3333333333333" style="8" customWidth="1"/>
-    <col min="5" max="5" width="38.5555555555556" customWidth="1"/>
-    <col min="6" max="6" width="23.4444444444444" customWidth="1"/>
-    <col min="7" max="7" width="21.5555555555556" customWidth="1"/>
+    <col min="1" max="1" width="15.5546875" style="14" customWidth="1"/>
+    <col min="2" max="2" width="10.33203125" style="15" customWidth="1"/>
+    <col min="3" max="3" width="28.109375" customWidth="1"/>
+    <col min="4" max="4" width="35.33203125" style="8" customWidth="1"/>
+    <col min="5" max="5" width="38.5546875" customWidth="1"/>
+    <col min="6" max="6" width="23.44140625" customWidth="1"/>
+    <col min="7" max="7" width="21.5546875" customWidth="1"/>
     <col min="8" max="8" width="22" customWidth="1"/>
-    <col min="9" max="9" width="24.5555555555556" customWidth="1"/>
+    <col min="9" max="9" width="24.5546875" customWidth="1"/>
     <col min="10" max="10" width="27" customWidth="1"/>
-    <col min="11" max="11" width="19.1111111111111" customWidth="1"/>
-    <col min="12" max="12" width="18.5555555555556" customWidth="1"/>
-    <col min="13" max="13" width="13.1111111111111" customWidth="1"/>
-    <col min="14" max="1025" width="10.3333333333333" customWidth="1"/>
+    <col min="11" max="11" width="19.109375" customWidth="1"/>
+    <col min="12" max="12" width="18.5546875" customWidth="1"/>
+    <col min="13" max="13" width="13.109375" customWidth="1"/>
+    <col min="14" max="1025" width="10.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="64.5" customHeight="1" spans="1:8">
+    <row r="1" spans="1:8" ht="64.5" customHeight="1">
       <c r="A1" s="16"/>
-      <c r="C1" s="17" t="s">
+      <c r="C1" s="39" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="18"/>
-      <c r="G1" s="18"/>
-      <c r="H1" s="18"/>
-    </row>
-    <row r="2" ht="18" spans="5:5">
-      <c r="E2" s="19"/>
-    </row>
-    <row r="3" ht="49.5" customHeight="1" spans="3:7">
-      <c r="C3" s="20" t="s">
+      <c r="D1" s="39"/>
+      <c r="E1" s="39"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
+      <c r="H1" s="17"/>
+    </row>
+    <row r="2" spans="1:8" ht="18">
+      <c r="E2" s="18"/>
+    </row>
+    <row r="3" spans="1:8" ht="49.5" customHeight="1">
+      <c r="C3" s="40" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="20"/>
-      <c r="E3" s="21" t="s">
+      <c r="D3" s="40"/>
+      <c r="E3" s="41" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="21"/>
-      <c r="G3" s="21"/>
-    </row>
-    <row r="4" ht="18" spans="3:7">
-      <c r="C4" s="22" t="s">
+      <c r="F3" s="41"/>
+      <c r="G3" s="41"/>
+    </row>
+    <row r="4" spans="1:8" ht="18">
+      <c r="C4" s="42" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="22"/>
-      <c r="E4" s="23" t="s">
+      <c r="D4" s="42"/>
+      <c r="E4" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="24" t="s">
+      <c r="F4" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="G4" s="25" t="s">
+      <c r="G4" s="21" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:8">
       <c r="A5" s="16"/>
       <c r="C5" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="7" ht="18" spans="3:5">
-      <c r="C7" s="26" t="s">
+    <row r="7" spans="1:8" ht="18">
+      <c r="C7" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="27" t="s">
+      <c r="D7" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="E7" s="28" t="s">
+      <c r="E7" s="24" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="3:5">
-      <c r="C8" s="29" t="s">
+    <row r="8" spans="1:8">
+      <c r="C8" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="30" t="s">
+      <c r="D8" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="E8" s="31"/>
-    </row>
-    <row r="9" ht="51.75" spans="3:6">
-      <c r="C9" s="32" t="s">
+      <c r="E8" s="27"/>
+    </row>
+    <row r="9" spans="1:8" ht="51.75">
+      <c r="C9" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="33" t="s">
+      <c r="D9" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="E9" s="34" t="s">
+      <c r="E9" s="30" t="s">
         <v>15</v>
       </c>
       <c r="F9" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="10" ht="51.75" spans="3:5">
-      <c r="C10" s="35" t="s">
+    <row r="10" spans="1:8" ht="51.75">
+      <c r="C10" s="31" t="s">
         <v>17</v>
       </c>
-      <c r="D10" s="33" t="s">
+      <c r="D10" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="E10" s="34" t="s">
+      <c r="E10" s="30" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="11" ht="69" spans="3:5">
-      <c r="C11" s="29" t="s">
+    <row r="11" spans="1:8" ht="69">
+      <c r="C11" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="D11" s="33" t="s">
+      <c r="D11" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="E11" s="34" t="s">
+      <c r="E11" s="30" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="12" spans="3:5">
-      <c r="C12" s="29" t="s">
+    <row r="12" spans="1:8">
+      <c r="C12" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="D12" s="33" t="s">
+      <c r="D12" s="29" t="s">
         <v>24</v>
       </c>
-      <c r="E12" s="36" t="s">
+      <c r="E12" s="32" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="13" spans="3:5">
-      <c r="C13" s="29"/>
-      <c r="D13" s="30"/>
-      <c r="E13" s="31"/>
-    </row>
-    <row r="14" spans="3:5">
-      <c r="C14" s="29"/>
-      <c r="D14" s="30"/>
-      <c r="E14" s="31"/>
-    </row>
-    <row r="15" ht="34.5" spans="3:5">
-      <c r="C15" s="37" t="s">
+    <row r="13" spans="1:8">
+      <c r="C13" s="25"/>
+      <c r="D13" s="26"/>
+      <c r="E13" s="27"/>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="C14" s="25"/>
+      <c r="D14" s="26"/>
+      <c r="E14" s="27"/>
+    </row>
+    <row r="15" spans="1:8" ht="34.5">
+      <c r="C15" s="33" t="s">
         <v>26</v>
       </c>
-      <c r="D15" s="38" t="s">
+      <c r="D15" s="34" t="s">
         <v>27</v>
       </c>
-      <c r="E15" s="39" t="s">
+      <c r="E15" s="35" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="18" spans="3:3">
+    <row r="18" spans="3:5">
       <c r="C18" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="19" spans="3:5">
-      <c r="C19" s="40" t="s">
+      <c r="C19" s="43" t="s">
         <v>30</v>
       </c>
-      <c r="D19" s="40"/>
-      <c r="E19" s="40"/>
-    </row>
-    <row r="20" ht="18" spans="3:4">
-      <c r="C20" s="41" t="s">
+      <c r="D19" s="43"/>
+      <c r="E19" s="43"/>
+    </row>
+    <row r="20" spans="3:5" ht="18">
+      <c r="C20" s="36" t="s">
         <v>31</v>
       </c>
-      <c r="D20" s="19" t="s">
+      <c r="D20" s="18" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="21" ht="18" spans="3:4">
-      <c r="C21" s="41" t="s">
+    <row r="21" spans="3:5" ht="18">
+      <c r="C21" s="36" t="s">
         <v>33</v>
       </c>
-      <c r="D21" s="19" t="s">
+      <c r="D21" s="18" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="22" ht="18" spans="3:4">
-      <c r="C22" s="41" t="s">
+    <row r="22" spans="3:5" ht="18">
+      <c r="C22" s="36" t="s">
         <v>35</v>
       </c>
       <c r="D22" s="8" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="23" ht="18" spans="3:4">
-      <c r="C23" s="41" t="s">
+    <row r="23" spans="3:5" ht="18">
+      <c r="C23" s="36" t="s">
         <v>37</v>
       </c>
       <c r="D23" s="8" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="25" ht="69" customHeight="1" spans="3:5">
-      <c r="C25" s="42" t="s">
+    <row r="25" spans="3:5" ht="69" customHeight="1">
+      <c r="C25" s="37" t="s">
         <v>39</v>
       </c>
-      <c r="D25" s="20" t="s">
+      <c r="D25" s="40" t="s">
         <v>40</v>
       </c>
-      <c r="E25" s="20"/>
-    </row>
-    <row r="26" ht="14.25" customHeight="1" spans="3:5">
-      <c r="C26" s="30" t="s">
+      <c r="E25" s="40"/>
+    </row>
+    <row r="26" spans="3:5" ht="14.25" customHeight="1">
+      <c r="C26" s="26" t="s">
         <v>41</v>
       </c>
-      <c r="D26" s="20" t="s">
+      <c r="D26" s="40" t="s">
         <v>42</v>
       </c>
-      <c r="E26" s="20"/>
-    </row>
-    <row r="27" ht="51.75" spans="3:3">
-      <c r="C27" s="43" t="s">
+      <c r="E26" s="40"/>
+    </row>
+    <row r="27" spans="3:5" ht="51.75">
+      <c r="C27" s="38" t="s">
         <v>43</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="7">
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="D26:E26"/>
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="E3:G3"/>
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="C19:E19"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="D26:E26"/>
   </mergeCells>
-  <pageMargins left="0.697916666666667" right="0.697916666666667" top="0.75" bottom="0.75" header="0.510416666666667" footer="0.510416666666667"/>
+  <phoneticPr fontId="30" type="noConversion"/>
+  <pageMargins left="0.69791666666666696" right="0.69791666666666696" top="0.75" bottom="0.75" header="0.51041666666666696" footer="0.51041666666666696"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Y168"/>
   <sheetViews>
-    <sheetView topLeftCell="C97" workbookViewId="0">
-      <selection activeCell="E103" sqref="E103"/>
+    <sheetView topLeftCell="C79" workbookViewId="0">
+      <selection activeCell="E95" sqref="E95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25"/>
   <cols>
-    <col min="5" max="5" width="37.4444444444444" customWidth="1"/>
-    <col min="6" max="6" width="56.2222222222222" customWidth="1"/>
-    <col min="7" max="7" width="44.2222222222222" customWidth="1"/>
-    <col min="11" max="11" width="24.1111111111111" customWidth="1"/>
+    <col min="5" max="5" width="37.44140625" customWidth="1"/>
+    <col min="6" max="6" width="56.21875" customWidth="1"/>
+    <col min="7" max="7" width="44.21875" customWidth="1"/>
+    <col min="11" max="11" width="24.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:25">
       <c r="A1" s="1" t="s">
         <v>44</v>
       </c>
@@ -9733,7 +9253,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="4" spans="5:7">
+    <row r="4" spans="1:25">
       <c r="E4" s="2" t="s">
         <v>47</v>
       </c>
@@ -9821,7 +9341,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="8" spans="5:24">
+    <row r="8" spans="1:25">
       <c r="E8" t="s">
         <v>75</v>
       </c>
@@ -9871,7 +9391,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="9" spans="5:24">
+    <row r="9" spans="1:25">
       <c r="E9" t="s">
         <v>84</v>
       </c>
@@ -9928,7 +9448,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="10" spans="5:24">
+    <row r="10" spans="1:25">
       <c r="E10" t="s">
         <v>93</v>
       </c>
@@ -9976,7 +9496,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="11" spans="5:24">
+    <row r="11" spans="1:25">
       <c r="E11" t="s">
         <v>98</v>
       </c>
@@ -10026,7 +9546,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="12" spans="5:24">
+    <row r="12" spans="1:25">
       <c r="E12" t="s">
         <v>103</v>
       </c>
@@ -10080,7 +9600,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="13" spans="5:24">
+    <row r="13" spans="1:25">
       <c r="E13" t="s">
         <v>111</v>
       </c>
@@ -10137,7 +9657,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="14" spans="5:24">
+    <row r="14" spans="1:25">
       <c r="E14" t="s">
         <v>116</v>
       </c>
@@ -10185,7 +9705,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="15" spans="5:24">
+    <row r="15" spans="1:25">
       <c r="E15" t="s">
         <v>121</v>
       </c>
@@ -10233,7 +9753,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="16" spans="5:24">
+    <row r="16" spans="1:25">
       <c r="E16" t="s">
         <v>125</v>
       </c>
@@ -17774,28 +17294,27 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="30" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:G492"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:G493"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D479" workbookViewId="0">
-      <selection activeCell="F492" sqref="F492"/>
+      <selection activeCell="E493" sqref="E493:G493"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25"/>
   <cols>
-    <col min="5" max="5" width="28.1111111111111" customWidth="1"/>
-    <col min="6" max="6" width="34.3333333333333" customWidth="1"/>
-    <col min="7" max="7" width="57.5555555555556" customWidth="1"/>
+    <col min="5" max="5" width="28.109375" customWidth="1"/>
+    <col min="6" max="6" width="34.33203125" customWidth="1"/>
+    <col min="7" max="7" width="57.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>44</v>
       </c>
@@ -17809,7 +17328,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="4" spans="5:7">
+    <row r="4" spans="1:7">
       <c r="E4" s="2" t="s">
         <v>47</v>
       </c>
@@ -17843,7 +17362,7 @@
         <v>770</v>
       </c>
     </row>
-    <row r="8" spans="5:7">
+    <row r="8" spans="1:7">
       <c r="E8" t="s">
         <v>771</v>
       </c>
@@ -17855,7 +17374,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="9" spans="5:7">
+    <row r="9" spans="1:7">
       <c r="E9" t="s">
         <v>773</v>
       </c>
@@ -17867,7 +17386,7 @@
         <v>774</v>
       </c>
     </row>
-    <row r="10" spans="5:7">
+    <row r="10" spans="1:7">
       <c r="E10" t="s">
         <v>775</v>
       </c>
@@ -17879,7 +17398,7 @@
         <v>776</v>
       </c>
     </row>
-    <row r="11" spans="5:7">
+    <row r="11" spans="1:7">
       <c r="E11" t="s">
         <v>777</v>
       </c>
@@ -17891,7 +17410,7 @@
         <v>778</v>
       </c>
     </row>
-    <row r="12" spans="5:7">
+    <row r="12" spans="1:7">
       <c r="E12" t="s">
         <v>779</v>
       </c>
@@ -17903,7 +17422,7 @@
         <v>780</v>
       </c>
     </row>
-    <row r="13" spans="5:7">
+    <row r="13" spans="1:7">
       <c r="E13" t="s">
         <v>781</v>
       </c>
@@ -17915,7 +17434,7 @@
         <v>782</v>
       </c>
     </row>
-    <row r="14" spans="5:7">
+    <row r="14" spans="1:7">
       <c r="E14" t="s">
         <v>783</v>
       </c>
@@ -17927,7 +17446,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="15" spans="5:7">
+    <row r="15" spans="1:7">
       <c r="E15" t="s">
         <v>785</v>
       </c>
@@ -17939,7 +17458,7 @@
         <v>786</v>
       </c>
     </row>
-    <row r="16" spans="5:7">
+    <row r="16" spans="1:7">
       <c r="E16" t="s">
         <v>787</v>
       </c>
@@ -23663,15 +23182,26 @@
         <v>1542</v>
       </c>
     </row>
+    <row r="493" spans="5:7">
+      <c r="E493" s="44" t="s">
+        <v>2116</v>
+      </c>
+      <c r="F493" s="44" t="str">
+        <f>菜单SAAS版!E95</f>
+        <v>iam_menu-95</v>
+      </c>
+      <c r="G493" s="44" t="s">
+        <v>2115</v>
+      </c>
+    </row>
   </sheetData>
+  <phoneticPr fontId="30" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:O117"/>
   <sheetViews>
     <sheetView topLeftCell="A22" workbookViewId="0">
@@ -23680,10 +23210,10 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25"/>
   <cols>
-    <col min="7" max="7" width="17.3333333333333" customWidth="1"/>
+    <col min="7" max="7" width="17.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:15">
       <c r="A1" s="1" t="s">
         <v>44</v>
       </c>
@@ -23697,7 +23227,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="4" spans="5:7">
+    <row r="4" spans="1:15">
       <c r="E4" s="2" t="s">
         <v>47</v>
       </c>
@@ -23755,7 +23285,7 @@
         <v>1554</v>
       </c>
     </row>
-    <row r="8" spans="5:15">
+    <row r="8" spans="1:15">
       <c r="E8" t="s">
         <v>1555</v>
       </c>
@@ -23787,7 +23317,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="9" spans="5:15">
+    <row r="9" spans="1:15">
       <c r="E9" t="s">
         <v>1560</v>
       </c>
@@ -23819,7 +23349,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="10" spans="5:15">
+    <row r="10" spans="1:15">
       <c r="E10" t="s">
         <v>1563</v>
       </c>
@@ -23845,7 +23375,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="11" spans="5:15">
+    <row r="11" spans="1:15">
       <c r="E11" t="s">
         <v>1566</v>
       </c>
@@ -23871,7 +23401,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="12" spans="5:15">
+    <row r="12" spans="1:15">
       <c r="E12" t="s">
         <v>1568</v>
       </c>
@@ -23903,7 +23433,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="13" spans="5:15">
+    <row r="13" spans="1:15">
       <c r="E13" t="s">
         <v>1571</v>
       </c>
@@ -23932,7 +23462,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="14" spans="5:15">
+    <row r="14" spans="1:15">
       <c r="E14" t="s">
         <v>1574</v>
       </c>
@@ -23961,7 +23491,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="15" spans="5:15">
+    <row r="15" spans="1:15">
       <c r="E15" t="s">
         <v>1577</v>
       </c>
@@ -23990,7 +23520,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="16" spans="5:15">
+    <row r="16" spans="1:15">
       <c r="E16" t="s">
         <v>1580</v>
       </c>
@@ -24019,7 +23549,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="17" spans="5:15">
+    <row r="17" spans="1:15">
       <c r="E17" t="s">
         <v>1583</v>
       </c>
@@ -24051,7 +23581,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="18" spans="5:15">
+    <row r="18" spans="1:15">
       <c r="E18" t="s">
         <v>1586</v>
       </c>
@@ -24083,7 +23613,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="19" spans="5:15">
+    <row r="19" spans="1:15">
       <c r="E19" t="s">
         <v>1589</v>
       </c>
@@ -24115,7 +23645,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="20" spans="5:15">
+    <row r="20" spans="1:15">
       <c r="E20" t="s">
         <v>1592</v>
       </c>
@@ -24141,7 +23671,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="21" spans="5:15">
+    <row r="21" spans="1:15">
       <c r="E21" t="s">
         <v>1594</v>
       </c>
@@ -24173,7 +23703,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="22" spans="5:15">
+    <row r="22" spans="1:15">
       <c r="E22" t="s">
         <v>1597</v>
       </c>
@@ -24205,7 +23735,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="23" spans="5:15">
+    <row r="23" spans="1:15">
       <c r="E23" t="s">
         <v>1600</v>
       </c>
@@ -24237,7 +23767,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="24" spans="5:15">
+    <row r="24" spans="1:15">
       <c r="E24" t="s">
         <v>1603</v>
       </c>
@@ -24263,7 +23793,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="25" spans="5:15">
+    <row r="25" spans="1:15">
       <c r="E25" t="s">
         <v>1605</v>
       </c>
@@ -24292,7 +23822,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="26" spans="5:15">
+    <row r="26" spans="1:15">
       <c r="E26" t="s">
         <v>1608</v>
       </c>
@@ -24321,7 +23851,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="28" spans="1:9">
+    <row r="28" spans="1:15">
       <c r="A28" t="s">
         <v>50</v>
       </c>
@@ -24350,7 +23880,7 @@
         <v>1617</v>
       </c>
     </row>
-    <row r="29" spans="5:9">
+    <row r="29" spans="1:15">
       <c r="E29" t="s">
         <v>1618</v>
       </c>
@@ -24369,7 +23899,7 @@
         <v>1619</v>
       </c>
     </row>
-    <row r="30" spans="5:9">
+    <row r="30" spans="1:15">
       <c r="E30" t="s">
         <v>1618</v>
       </c>
@@ -24388,7 +23918,7 @@
         <v>1619</v>
       </c>
     </row>
-    <row r="31" spans="5:9">
+    <row r="31" spans="1:15">
       <c r="E31" t="s">
         <v>1618</v>
       </c>
@@ -24407,7 +23937,7 @@
         <v>1619</v>
       </c>
     </row>
-    <row r="32" spans="5:9">
+    <row r="32" spans="1:15">
       <c r="E32" t="s">
         <v>1618</v>
       </c>
@@ -26042,14 +25572,13 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="30" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:Y406"/>
   <sheetViews>
     <sheetView topLeftCell="C381" workbookViewId="0">
@@ -26058,14 +25587,14 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25"/>
   <cols>
-    <col min="5" max="5" width="13.2222222222222" customWidth="1"/>
-    <col min="6" max="6" width="15.6666666666667" customWidth="1"/>
+    <col min="5" max="5" width="13.21875" customWidth="1"/>
+    <col min="6" max="6" width="15.6640625" customWidth="1"/>
     <col min="7" max="7" width="17" customWidth="1"/>
-    <col min="21" max="21" width="14.4444444444444" customWidth="1"/>
-    <col min="22" max="22" width="14.8888888888889" customWidth="1"/>
+    <col min="21" max="21" width="14.44140625" customWidth="1"/>
+    <col min="22" max="22" width="14.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:25">
       <c r="A1" s="1" t="s">
         <v>44</v>
       </c>
@@ -26079,7 +25608,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="4" spans="5:7">
+    <row r="4" spans="1:25">
       <c r="E4" s="2" t="s">
         <v>47</v>
       </c>
@@ -26167,7 +25696,7 @@
         <v>1635</v>
       </c>
     </row>
-    <row r="8" spans="5:23">
+    <row r="8" spans="1:25">
       <c r="E8" t="s">
         <v>1636</v>
       </c>
@@ -26226,7 +25755,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="9" spans="5:23">
+    <row r="9" spans="1:25">
       <c r="E9" t="s">
         <v>1642</v>
       </c>
@@ -26285,7 +25814,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="10" spans="5:25">
+    <row r="10" spans="1:25">
       <c r="E10" t="s">
         <v>1647</v>
       </c>
@@ -26348,7 +25877,7 @@
         <v>1654</v>
       </c>
     </row>
-    <row r="11" spans="5:25">
+    <row r="11" spans="1:25">
       <c r="E11" t="s">
         <v>1655</v>
       </c>
@@ -26411,7 +25940,7 @@
         <v>1662</v>
       </c>
     </row>
-    <row r="12" spans="5:25">
+    <row r="12" spans="1:25">
       <c r="E12" t="s">
         <v>1663</v>
       </c>
@@ -26474,7 +26003,7 @@
         <v>1670</v>
       </c>
     </row>
-    <row r="13" spans="5:25">
+    <row r="13" spans="1:25">
       <c r="E13" t="s">
         <v>1671</v>
       </c>
@@ -26537,7 +26066,7 @@
         <v>1678</v>
       </c>
     </row>
-    <row r="14" spans="5:23">
+    <row r="14" spans="1:25">
       <c r="E14" t="s">
         <v>1679</v>
       </c>
@@ -26594,7 +26123,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:10">
+    <row r="16" spans="1:25">
       <c r="A16" t="s">
         <v>50</v>
       </c>
@@ -35207,23 +34736,20 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="30" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:O35"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView topLeftCell="A25" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:15">
       <c r="A1" s="1" t="s">
         <v>44</v>
       </c>
@@ -35237,7 +34763,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="4" spans="5:7">
+    <row r="4" spans="1:15">
       <c r="E4" s="2" t="s">
         <v>47</v>
       </c>
@@ -35295,7 +34821,7 @@
         <v>1554</v>
       </c>
     </row>
-    <row r="8" spans="5:15">
+    <row r="8" spans="1:15">
       <c r="E8" t="s">
         <v>1555</v>
       </c>
@@ -35327,7 +34853,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="9" spans="5:15">
+    <row r="9" spans="1:15">
       <c r="E9" t="s">
         <v>1560</v>
       </c>
@@ -35356,7 +34882,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="10" spans="5:15">
+    <row r="10" spans="1:15">
       <c r="E10" t="s">
         <v>1563</v>
       </c>
@@ -35388,7 +34914,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="11" spans="5:15">
+    <row r="11" spans="1:15">
       <c r="E11" t="s">
         <v>1566</v>
       </c>
@@ -35420,7 +34946,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="12" spans="5:15">
+    <row r="12" spans="1:15">
       <c r="E12" t="s">
         <v>1568</v>
       </c>
@@ -35452,7 +34978,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="13" spans="5:15">
+    <row r="13" spans="1:15">
       <c r="E13" t="s">
         <v>1571</v>
       </c>
@@ -35484,7 +35010,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="14" spans="5:15">
+    <row r="14" spans="1:15">
       <c r="E14" t="s">
         <v>1574</v>
       </c>
@@ -35516,7 +35042,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="15" spans="5:15">
+    <row r="15" spans="1:15">
       <c r="E15" t="s">
         <v>1577</v>
       </c>
@@ -35548,7 +35074,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="16" spans="5:15">
+    <row r="16" spans="1:15">
       <c r="E16" t="s">
         <v>1580</v>
       </c>
@@ -35580,7 +35106,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="17" spans="5:15">
+    <row r="17" spans="1:15">
       <c r="E17" t="s">
         <v>1583</v>
       </c>
@@ -35612,7 +35138,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="18" spans="5:15">
+    <row r="18" spans="1:15">
       <c r="E18" t="s">
         <v>1586</v>
       </c>
@@ -35644,7 +35170,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="19" spans="5:15">
+    <row r="19" spans="1:15">
       <c r="E19" t="s">
         <v>1589</v>
       </c>
@@ -35676,7 +35202,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="21" spans="1:9">
+    <row r="21" spans="1:15">
       <c r="A21" t="s">
         <v>50</v>
       </c>
@@ -35705,7 +35231,7 @@
         <v>1617</v>
       </c>
     </row>
-    <row r="22" spans="5:9">
+    <row r="22" spans="1:15">
       <c r="E22" t="s">
         <v>1618</v>
       </c>
@@ -35724,7 +35250,7 @@
         <v>1620</v>
       </c>
     </row>
-    <row r="23" spans="5:9">
+    <row r="23" spans="1:15">
       <c r="E23" t="s">
         <v>1618</v>
       </c>
@@ -35743,7 +35269,7 @@
         <v>1620</v>
       </c>
     </row>
-    <row r="24" spans="5:9">
+    <row r="24" spans="1:15">
       <c r="E24" t="s">
         <v>1618</v>
       </c>
@@ -35762,7 +35288,7 @@
         <v>1620</v>
       </c>
     </row>
-    <row r="25" spans="5:9">
+    <row r="25" spans="1:15">
       <c r="E25" t="s">
         <v>1618</v>
       </c>
@@ -35781,7 +35307,7 @@
         <v>1620</v>
       </c>
     </row>
-    <row r="26" spans="5:9">
+    <row r="26" spans="1:15">
       <c r="E26" t="s">
         <v>1618</v>
       </c>
@@ -35800,7 +35326,7 @@
         <v>1620</v>
       </c>
     </row>
-    <row r="27" spans="5:9">
+    <row r="27" spans="1:15">
       <c r="E27" t="s">
         <v>1618</v>
       </c>
@@ -35819,7 +35345,7 @@
         <v>1620</v>
       </c>
     </row>
-    <row r="28" spans="5:9">
+    <row r="28" spans="1:15">
       <c r="E28" t="s">
         <v>1618</v>
       </c>
@@ -35838,7 +35364,7 @@
         <v>1620</v>
       </c>
     </row>
-    <row r="29" spans="5:9">
+    <row r="29" spans="1:15">
       <c r="E29" t="s">
         <v>1618</v>
       </c>
@@ -35857,7 +35383,7 @@
         <v>1620</v>
       </c>
     </row>
-    <row r="30" spans="5:9">
+    <row r="30" spans="1:15">
       <c r="E30" t="s">
         <v>1618</v>
       </c>
@@ -35876,7 +35402,7 @@
         <v>1620</v>
       </c>
     </row>
-    <row r="31" spans="5:9">
+    <row r="31" spans="1:15">
       <c r="E31" t="s">
         <v>1618</v>
       </c>
@@ -35895,7 +35421,7 @@
         <v>1620</v>
       </c>
     </row>
-    <row r="32" spans="5:9">
+    <row r="32" spans="1:15">
       <c r="E32" t="s">
         <v>1618</v>
       </c>
@@ -35972,8 +35498,8 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="30" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
-  <headerFooter/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
--- a/src/main/resources/script/db/init-data/devops_service/hzero_platform/hzero-menu-user-role-label.xlsx
+++ b/src/main/resources/script/db/init-data/devops_service/hzero_platform/hzero-menu-user-role-label.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\projcect\devops-service\src\main\resources\script\db\init-data\devops_service\hzero_platform\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\projcect\devops\devops-service\src\main\resources\script\db\init-data\devops_service\hzero_platform\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{661C8A33-593C-40AC-9CB2-A2284BA47E9B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DB4C559-5B80-4EDA-9429-B8CFEF7EE13C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="597" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5786" uniqueCount="2117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5790" uniqueCount="2120">
   <si>
     <r>
       <rPr>
@@ -8219,12 +8219,21 @@
   <si>
     <t>iam_menu_permission-493</t>
   </si>
+  <si>
+    <t>hrds-code-repo.rdm-member-proj.pageByOptions</t>
+  </si>
+  <si>
+    <t>iam_menu_permission-494</t>
+  </si>
+  <si>
+    <t>iam_menu_permission-495</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="31">
+  <fonts count="32">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -8421,6 +8430,13 @@
       <family val="2"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF00B050"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="6">
     <fill>
@@ -8560,7 +8576,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -8624,11 +8640,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -8639,7 +8656,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -9008,11 +9025,11 @@
   <sheetData>
     <row r="1" spans="1:8" ht="64.5" customHeight="1">
       <c r="A1" s="16"/>
-      <c r="C1" s="39" t="s">
+      <c r="C1" s="41" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="39"/>
-      <c r="E1" s="39"/>
+      <c r="D1" s="41"/>
+      <c r="E1" s="41"/>
       <c r="F1" s="17"/>
       <c r="G1" s="17"/>
       <c r="H1" s="17"/>
@@ -9025,17 +9042,17 @@
         <v>1</v>
       </c>
       <c r="D3" s="40"/>
-      <c r="E3" s="41" t="s">
+      <c r="E3" s="42" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="41"/>
-      <c r="G3" s="41"/>
+      <c r="F3" s="42"/>
+      <c r="G3" s="42"/>
     </row>
     <row r="4" spans="1:8" ht="18">
-      <c r="C4" s="42" t="s">
+      <c r="C4" s="43" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="42"/>
+      <c r="D4" s="43"/>
       <c r="E4" s="19" t="s">
         <v>4</v>
       </c>
@@ -9146,11 +9163,11 @@
       </c>
     </row>
     <row r="19" spans="3:5">
-      <c r="C19" s="43" t="s">
+      <c r="C19" s="44" t="s">
         <v>30</v>
       </c>
-      <c r="D19" s="43"/>
-      <c r="E19" s="43"/>
+      <c r="D19" s="44"/>
+      <c r="E19" s="44"/>
     </row>
     <row r="20" spans="3:5" ht="18">
       <c r="C20" s="36" t="s">
@@ -9227,8 +9244,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Y168"/>
   <sheetViews>
-    <sheetView topLeftCell="C79" workbookViewId="0">
-      <selection activeCell="E95" sqref="E95"/>
+    <sheetView topLeftCell="C127" workbookViewId="0">
+      <selection activeCell="E141" sqref="E141"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25"/>
@@ -17301,10 +17318,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:G493"/>
+  <dimension ref="A1:G495"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D479" workbookViewId="0">
-      <selection activeCell="E493" sqref="E493:G493"/>
+      <selection activeCell="E494" sqref="E494:G495"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25"/>
@@ -23183,15 +23200,39 @@
       </c>
     </row>
     <row r="493" spans="5:7">
-      <c r="E493" s="44" t="s">
+      <c r="E493" s="39" t="s">
         <v>2116</v>
       </c>
-      <c r="F493" s="44" t="str">
+      <c r="F493" s="39" t="str">
         <f>菜单SAAS版!E95</f>
         <v>iam_menu-95</v>
       </c>
-      <c r="G493" s="44" t="s">
+      <c r="G493" s="39" t="s">
         <v>2115</v>
+      </c>
+    </row>
+    <row r="494" spans="5:7">
+      <c r="E494" s="45" t="s">
+        <v>2118</v>
+      </c>
+      <c r="F494" s="45" t="str">
+        <f>菜单SAAS版!E141</f>
+        <v>iam_menu-141</v>
+      </c>
+      <c r="G494" s="45" t="s">
+        <v>2117</v>
+      </c>
+    </row>
+    <row r="495" spans="5:7">
+      <c r="E495" s="45" t="s">
+        <v>2119</v>
+      </c>
+      <c r="F495" s="45" t="str">
+        <f>菜单SAAS版!E151</f>
+        <v>iam_menu-151</v>
+      </c>
+      <c r="G495" s="45" t="s">
+        <v>2117</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/script/db/init-data/devops_service/hzero_platform/hzero-menu-user-role-label.xlsx
+++ b/src/main/resources/script/db/init-data/devops_service/hzero_platform/hzero-menu-user-role-label.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\projcect\devops\devops-service\src\main\resources\script\db\init-data\devops_service\hzero_platform\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DB4C559-5B80-4EDA-9429-B8CFEF7EE13C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{476C1753-A136-402F-AB26-0D7C5A5CF162}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="597" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5790" uniqueCount="2120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5786" uniqueCount="2117">
   <si>
     <r>
       <rPr>
@@ -8219,21 +8219,12 @@
   <si>
     <t>iam_menu_permission-493</t>
   </si>
-  <si>
-    <t>hrds-code-repo.rdm-member-proj.pageByOptions</t>
-  </si>
-  <si>
-    <t>iam_menu_permission-494</t>
-  </si>
-  <si>
-    <t>iam_menu_permission-495</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="32">
+  <fonts count="31">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -8430,13 +8421,6 @@
       <family val="2"/>
       <charset val="134"/>
     </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF00B050"/>
-      <name val="微软雅黑"/>
-      <family val="2"/>
-      <charset val="134"/>
-    </font>
   </fonts>
   <fills count="6">
     <fill>
@@ -8576,7 +8560,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -8656,7 +8640,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -17318,10 +17301,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:G495"/>
+  <dimension ref="A1:G493"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D479" workbookViewId="0">
-      <selection activeCell="E494" sqref="E494:G495"/>
+      <selection activeCell="D494" sqref="A494:XFD495"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25"/>
@@ -23209,30 +23192,6 @@
       </c>
       <c r="G493" s="39" t="s">
         <v>2115</v>
-      </c>
-    </row>
-    <row r="494" spans="5:7">
-      <c r="E494" s="45" t="s">
-        <v>2118</v>
-      </c>
-      <c r="F494" s="45" t="str">
-        <f>菜单SAAS版!E141</f>
-        <v>iam_menu-141</v>
-      </c>
-      <c r="G494" s="45" t="s">
-        <v>2117</v>
-      </c>
-    </row>
-    <row r="495" spans="5:7">
-      <c r="E495" s="45" t="s">
-        <v>2119</v>
-      </c>
-      <c r="F495" s="45" t="str">
-        <f>菜单SAAS版!E151</f>
-        <v>iam_menu-151</v>
-      </c>
-      <c r="G495" s="45" t="s">
-        <v>2117</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/script/db/init-data/devops_service/hzero_platform/hzero-menu-user-role-label.xlsx
+++ b/src/main/resources/script/db/init-data/devops_service/hzero_platform/hzero-menu-user-role-label.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23029"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\projcect\devops\devops-service\src\main\resources\script\db\init-data\devops_service\hzero_platform\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8266B5BD-73CB-4918-A18B-A662EA5879AF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="19815" windowHeight="7860" tabRatio="597" activeTab="2"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="597" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="1" r:id="rId1"/>
@@ -20,18 +26,19 @@
     <definedName name="qwe">REPT(local_year_format,4)&amp;local_date_separator&amp;REPT(local_month_format,2)&amp;local_date_separator&amp;REPT(local_day_format,2)&amp;" "&amp;REPT(local_hour_format,2)&amp;local_time_separator&amp;REPT(local_minute_format,2)&amp;local_time_separator&amp;REPT(local_second_format,2)</definedName>
     <definedName name="wqewqe">REPT(local_year_format,4)&amp;local_date_separator&amp;REPT(local_month_format,2)&amp;local_date_separator&amp;REPT(local_day_format,2)&amp;" "&amp;REPT(local_hour_format,2)&amp;local_time_separator&amp;REPT(local_minute_format,2)&amp;local_time_separator&amp;REPT(local_second_format,2)</definedName>
   </definedNames>
-  <calcPr calcId="144525" concurrentCalc="0"/>
+  <calcPr calcId="181029" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5825" uniqueCount="2131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5827" uniqueCount="2133">
   <si>
     <r>
       <rPr>
         <sz val="12"/>
         <color rgb="FFFF0000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">注意这个文档不能 </t>
@@ -50,6 +57,7 @@
         <sz val="12"/>
         <color rgb="FFFF0000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>！！
@@ -62,6 +70,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">正式的数据从第二个 </t>
@@ -80,6 +89,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>页开始</t>
@@ -98,6 +108,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">每页 从 </t>
@@ -116,6 +127,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">单元格开始有效
@@ -147,6 +159,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>颜色示例</t>
@@ -165,6 +178,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>非必须</t>
@@ -183,6 +197,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>非强制</t>
@@ -204,6 +219,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>请给特殊单元格</t>
@@ -224,6 +240,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>列名添加颜色</t>
@@ -244,6 +261,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>提高数据可读性</t>
@@ -264,6 +282,7 @@
         <sz val="12"/>
         <color rgb="FFC55A11"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>自动生成</t>
@@ -284,6 +303,7 @@
         <sz val="12"/>
         <color rgb="FF2E75B6"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>唯一性检查</t>
@@ -295,6 +315,7 @@
         <sz val="12"/>
         <color rgb="FF548235"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>公式</t>
@@ -313,6 +334,7 @@
         <sz val="12"/>
         <color rgb="FF548235"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>外键引用</t>
@@ -324,6 +346,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>理论上</t>
@@ -342,6 +365,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>表的前后顺序</t>
@@ -360,6 +384,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>页的顺序没有严格要求</t>
@@ -378,6 +403,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>但请尽量按照先插 后引用的顺序排列</t>
@@ -396,6 +422,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>减少迭代次数</t>
@@ -443,6 +470,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>前置</t>
@@ -461,6 +489,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>该列的值自动生成</t>
@@ -479,6 +508,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>当数据库存在等价记录时</t>
@@ -497,6 +527,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>这个值会被替换为数据库中已存在的值</t>
@@ -508,6 +539,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>自增长</t>
@@ -526,6 +558,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>或序列</t>
@@ -544,6 +577,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>主键列</t>
@@ -563,6 +597,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>当不作为外键引用时</t>
@@ -581,6 +616,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>一般写</t>
@@ -600,6 +636,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>作为外键时</t>
@@ -618,6 +655,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>写可读的值</t>
@@ -629,6 +667,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">目前 </t>
@@ -647,6 +686,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>是序列</t>
@@ -665,6 +705,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>其他自增涨</t>
@@ -688,6 +729,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>前置</t>
@@ -706,6 +748,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>表中所有带有</t>
@@ -724,6 +767,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>的列组成一个唯一性校验</t>
@@ -742,6 +786,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>在执行插入之前</t>
@@ -760,6 +805,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>会首先按照唯一键来检查数据库是否存在等价记录</t>
@@ -771,6 +817,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>可以有多列</t>
@@ -789,6 +836,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>仅支持</t>
@@ -799,6 +847,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>数字</t>
@@ -819,6 +868,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">字符串
@@ -829,6 +879,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>当</t>
@@ -847,6 +898,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>列涉及到公式时</t>
@@ -865,6 +917,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>会先确定公式的值</t>
@@ -888,6 +941,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>指定这一列的类型</t>
@@ -906,6 +960,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>默认会自动检测</t>
@@ -925,6 +980,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>结尾为数字</t>
@@ -944,6 +1000,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>结尾为日期</t>
@@ -963,6 +1020,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>其他默认为</t>
@@ -983,6 +1041,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>一般不需要指定</t>
@@ -1002,6 +1061,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>日期格式仅支持</t>
@@ -1036,6 +1096,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>指定语言环境</t>
@@ -1056,6 +1117,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>表数据不需要专门写</t>
@@ -1067,6 +1129,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>外键引用</t>
@@ -1085,6 +1148,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>公式</t>
@@ -1105,6 +1169,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>用于引用外键</t>
@@ -1123,6 +1188,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>也可用于普通值
@@ -1135,6 +1201,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>自动增长列</t>
@@ -1153,6 +1220,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>如果被公式引用</t>
@@ -1171,6 +1239,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>最好写一个人可以读懂的值</t>
@@ -1189,6 +1258,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>增强公式可读性</t>
@@ -1203,6 +1273,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>一般用于引用自动生成的外键</t>
@@ -1221,6 +1292,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">所有公式均为 </t>
@@ -1239,6 +1311,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>支持的标准公式</t>
@@ -1257,6 +1330,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>但不支持特别复杂的计算公式</t>
@@ -1275,6 +1349,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>比如范围计算</t>
@@ -1290,6 +1365,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>相对</t>
@@ -1299,6 +1375,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">引用当前页 </t>
@@ -1317,6 +1394,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>单元格</t>
@@ -1332,6 +1410,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>绝对</t>
@@ -1341,6 +1420,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">引用当前页 </t>
@@ -1359,6 +1439,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>单元格</t>
@@ -1373,6 +1454,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">引用 </t>
@@ -1391,6 +1473,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">页的 </t>
@@ -1409,6 +1492,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>单元格</t>
@@ -1428,6 +1512,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>相对</t>
@@ -1451,6 +1536,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">引用 </t>
@@ -1469,6 +1555,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">页的 </t>
@@ -1487,6 +1574,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>单元格</t>
@@ -1506,6 +1594,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>绝对</t>
@@ -1526,6 +1615,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>关于</t>
@@ -1536,6 +1626,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>相对</t>
@@ -1545,6 +1636,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>引用</t>
@@ -1556,6 +1648,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>举例</t>
@@ -1574,6 +1667,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">当 </t>
@@ -1592,6 +1686,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">单元格引用 </t>
@@ -1610,6 +1705,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">时
@@ -1629,6 +1725,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">的复制到 </t>
@@ -1647,6 +1744,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>单元格时</t>
@@ -1665,6 +1763,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">引用的是 </t>
@@ -1684,6 +1783,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">将 </t>
@@ -1702,6 +1802,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">的复制到 </t>
@@ -1720,6 +1821,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>时</t>
@@ -1738,6 +1840,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">实际引用的是 </t>
@@ -1757,6 +1860,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>以上情况适用于拖拽填充</t>
@@ -1768,6 +1872,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>关于</t>
@@ -1778,6 +1883,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>绝对</t>
@@ -1787,6 +1893,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>引用</t>
@@ -1798,6 +1905,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>复制公式单元格时</t>
@@ -1816,6 +1924,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>保持公式不变</t>
@@ -1827,6 +1936,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>相对引用</t>
@@ -1845,6 +1955,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>绝对引用各有用途</t>
@@ -1864,6 +1975,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>直接拖拽填充就可以避免大量重复工作</t>
@@ -6126,6 +6238,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>iam_menu_permission-4</t>
@@ -6135,6 +6248,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>40</t>
@@ -8147,18 +8261,18 @@
   <si>
     <t>标识gitlab_developer</t>
   </si>
+  <si>
+    <t>devops-service.devops-cluster-resource.createPrometheus</t>
+  </si>
+  <si>
+    <t>iam_menu_permission-502</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="45">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="30">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -8169,25 +8283,25 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="53"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="48"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="42"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <strike/>
@@ -8270,157 +8384,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="12"/>
       <color rgb="FFFF0000"/>
       <name val="DengXian"/>
@@ -8449,12 +8412,14 @@
       <sz val="12"/>
       <color rgb="FFC55A11"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF2E75B6"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
@@ -8463,8 +8428,43 @@
       <name val="DengXian"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF548235"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="37">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -8495,194 +8495,8 @@
         <bgColor rgb="FFE7E6E6"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="18">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -8783,254 +8597,12 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="50">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="23" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="25" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="23" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="23" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="23" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="23" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="22" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="8" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="8" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="21" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -9052,20 +8624,8 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -9099,9 +8659,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -9109,59 +8666,28 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="50">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
-    <cellStyle name="常规 2" xfId="49"/>
+    <cellStyle name="常规 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000031000000}"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium7"/>
   <colors>
     <indexedColors>
@@ -9234,6 +8760,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -9491,271 +9020,268 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25"/>
   <cols>
-    <col min="1" max="1" width="15.5555555555556" style="14" customWidth="1"/>
-    <col min="2" max="2" width="10.3333333333333" style="15" customWidth="1"/>
-    <col min="3" max="3" width="28.1111111111111" customWidth="1"/>
-    <col min="4" max="4" width="35.3333333333333" style="9" customWidth="1"/>
-    <col min="5" max="5" width="38.5555555555556" customWidth="1"/>
-    <col min="6" max="6" width="23.4444444444444" customWidth="1"/>
-    <col min="7" max="7" width="21.5555555555556" customWidth="1"/>
+    <col min="1" max="1" width="15.5546875" style="14" customWidth="1"/>
+    <col min="2" max="2" width="10.33203125" style="15" customWidth="1"/>
+    <col min="3" max="3" width="28.109375" customWidth="1"/>
+    <col min="4" max="4" width="35.33203125" style="9" customWidth="1"/>
+    <col min="5" max="5" width="38.5546875" customWidth="1"/>
+    <col min="6" max="6" width="23.44140625" customWidth="1"/>
+    <col min="7" max="7" width="21.5546875" customWidth="1"/>
     <col min="8" max="8" width="22" customWidth="1"/>
-    <col min="9" max="9" width="24.5555555555556" customWidth="1"/>
+    <col min="9" max="9" width="24.5546875" customWidth="1"/>
     <col min="10" max="10" width="27" customWidth="1"/>
-    <col min="11" max="11" width="19.1111111111111" customWidth="1"/>
-    <col min="12" max="12" width="18.5555555555556" customWidth="1"/>
-    <col min="13" max="13" width="13.1111111111111" customWidth="1"/>
-    <col min="14" max="1025" width="10.3333333333333" customWidth="1"/>
+    <col min="11" max="11" width="19.109375" customWidth="1"/>
+    <col min="12" max="12" width="18.5546875" customWidth="1"/>
+    <col min="13" max="13" width="13.109375" customWidth="1"/>
+    <col min="14" max="1025" width="10.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="64.5" customHeight="1" spans="1:8">
+    <row r="1" spans="1:8" ht="64.5" customHeight="1">
       <c r="A1" s="16"/>
-      <c r="C1" s="17" t="s">
+      <c r="C1" s="39" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="18"/>
-      <c r="G1" s="18"/>
-      <c r="H1" s="18"/>
-    </row>
-    <row r="2" ht="18" spans="5:5">
-      <c r="E2" s="19"/>
-    </row>
-    <row r="3" ht="49.5" customHeight="1" spans="3:7">
-      <c r="C3" s="20" t="s">
+      <c r="D1" s="39"/>
+      <c r="E1" s="39"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
+      <c r="H1" s="17"/>
+    </row>
+    <row r="2" spans="1:8" ht="18">
+      <c r="E2" s="18"/>
+    </row>
+    <row r="3" spans="1:8" ht="49.5" customHeight="1">
+      <c r="C3" s="40" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="20"/>
-      <c r="E3" s="21" t="s">
+      <c r="D3" s="40"/>
+      <c r="E3" s="41" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="21"/>
-      <c r="G3" s="21"/>
-    </row>
-    <row r="4" ht="18" spans="3:7">
-      <c r="C4" s="22" t="s">
+      <c r="F3" s="41"/>
+      <c r="G3" s="41"/>
+    </row>
+    <row r="4" spans="1:8" ht="18">
+      <c r="C4" s="42" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="22"/>
-      <c r="E4" s="23" t="s">
+      <c r="D4" s="42"/>
+      <c r="E4" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="24" t="s">
+      <c r="F4" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="G4" s="25" t="s">
+      <c r="G4" s="21" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:8">
       <c r="A5" s="16"/>
       <c r="C5" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="7" ht="18" spans="3:5">
-      <c r="C7" s="26" t="s">
+    <row r="7" spans="1:8" ht="18">
+      <c r="C7" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="27" t="s">
+      <c r="D7" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="E7" s="28" t="s">
+      <c r="E7" s="24" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="3:5">
-      <c r="C8" s="29" t="s">
+    <row r="8" spans="1:8">
+      <c r="C8" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="30" t="s">
+      <c r="D8" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="E8" s="31"/>
-    </row>
-    <row r="9" ht="51.75" spans="3:6">
-      <c r="C9" s="32" t="s">
+      <c r="E8" s="27"/>
+    </row>
+    <row r="9" spans="1:8" ht="51.75">
+      <c r="C9" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="33" t="s">
+      <c r="D9" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="E9" s="34" t="s">
+      <c r="E9" s="30" t="s">
         <v>15</v>
       </c>
       <c r="F9" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="10" ht="51.75" spans="3:5">
-      <c r="C10" s="35" t="s">
+    <row r="10" spans="1:8" ht="51.75">
+      <c r="C10" s="31" t="s">
         <v>17</v>
       </c>
-      <c r="D10" s="33" t="s">
+      <c r="D10" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="E10" s="34" t="s">
+      <c r="E10" s="30" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="11" ht="69" spans="3:5">
-      <c r="C11" s="29" t="s">
+    <row r="11" spans="1:8" ht="69">
+      <c r="C11" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="D11" s="33" t="s">
+      <c r="D11" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="E11" s="34" t="s">
+      <c r="E11" s="30" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="12" spans="3:5">
-      <c r="C12" s="29" t="s">
+    <row r="12" spans="1:8">
+      <c r="C12" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="D12" s="33" t="s">
+      <c r="D12" s="29" t="s">
         <v>24</v>
       </c>
-      <c r="E12" s="36" t="s">
+      <c r="E12" s="32" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="13" spans="3:5">
-      <c r="C13" s="29"/>
-      <c r="D13" s="30"/>
-      <c r="E13" s="31"/>
-    </row>
-    <row r="14" spans="3:5">
-      <c r="C14" s="29"/>
-      <c r="D14" s="30"/>
-      <c r="E14" s="31"/>
-    </row>
-    <row r="15" ht="34.5" spans="3:5">
-      <c r="C15" s="37" t="s">
+    <row r="13" spans="1:8">
+      <c r="C13" s="25"/>
+      <c r="D13" s="26"/>
+      <c r="E13" s="27"/>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="C14" s="25"/>
+      <c r="D14" s="26"/>
+      <c r="E14" s="27"/>
+    </row>
+    <row r="15" spans="1:8" ht="34.5">
+      <c r="C15" s="33" t="s">
         <v>26</v>
       </c>
-      <c r="D15" s="38" t="s">
+      <c r="D15" s="34" t="s">
         <v>27</v>
       </c>
-      <c r="E15" s="39" t="s">
+      <c r="E15" s="35" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="18" spans="3:3">
+    <row r="18" spans="3:5">
       <c r="C18" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="19" spans="3:5">
-      <c r="C19" s="40" t="s">
+      <c r="C19" s="43" t="s">
         <v>30</v>
       </c>
-      <c r="D19" s="40"/>
-      <c r="E19" s="40"/>
-    </row>
-    <row r="20" ht="18" spans="3:4">
-      <c r="C20" s="41" t="s">
+      <c r="D19" s="43"/>
+      <c r="E19" s="43"/>
+    </row>
+    <row r="20" spans="3:5" ht="18">
+      <c r="C20" s="36" t="s">
         <v>31</v>
       </c>
-      <c r="D20" s="19" t="s">
+      <c r="D20" s="18" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="21" ht="18" spans="3:4">
-      <c r="C21" s="41" t="s">
+    <row r="21" spans="3:5" ht="18">
+      <c r="C21" s="36" t="s">
         <v>33</v>
       </c>
-      <c r="D21" s="19" t="s">
+      <c r="D21" s="18" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="22" ht="18" spans="3:4">
-      <c r="C22" s="41" t="s">
+    <row r="22" spans="3:5" ht="18">
+      <c r="C22" s="36" t="s">
         <v>35</v>
       </c>
       <c r="D22" s="9" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="23" ht="18" spans="3:4">
-      <c r="C23" s="41" t="s">
+    <row r="23" spans="3:5" ht="18">
+      <c r="C23" s="36" t="s">
         <v>37</v>
       </c>
       <c r="D23" s="9" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="25" ht="69" customHeight="1" spans="3:5">
-      <c r="C25" s="42" t="s">
+    <row r="25" spans="3:5" ht="69" customHeight="1">
+      <c r="C25" s="37" t="s">
         <v>39</v>
       </c>
-      <c r="D25" s="20" t="s">
+      <c r="D25" s="40" t="s">
         <v>40</v>
       </c>
-      <c r="E25" s="20"/>
-    </row>
-    <row r="26" ht="14.25" customHeight="1" spans="3:5">
-      <c r="C26" s="30" t="s">
+      <c r="E25" s="40"/>
+    </row>
+    <row r="26" spans="3:5" ht="14.25" customHeight="1">
+      <c r="C26" s="26" t="s">
         <v>41</v>
       </c>
-      <c r="D26" s="20" t="s">
+      <c r="D26" s="40" t="s">
         <v>42</v>
       </c>
-      <c r="E26" s="20"/>
-    </row>
-    <row r="27" ht="51.75" spans="3:3">
-      <c r="C27" s="43" t="s">
+      <c r="E26" s="40"/>
+    </row>
+    <row r="27" spans="3:5" ht="51.75">
+      <c r="C27" s="38" t="s">
         <v>43</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="7">
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="D26:E26"/>
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="E3:G3"/>
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="C19:E19"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="D26:E26"/>
   </mergeCells>
-  <pageMargins left="0.697916666666667" right="0.697916666666667" top="0.75" bottom="0.75" header="0.510416666666667" footer="0.510416666666667"/>
+  <phoneticPr fontId="29" type="noConversion"/>
+  <pageMargins left="0.69791666666666696" right="0.69791666666666696" top="0.75" bottom="0.75" header="0.51041666666666696" footer="0.51041666666666696"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Y169"/>
   <sheetViews>
-    <sheetView topLeftCell="A133" workbookViewId="0">
-      <selection activeCell="A141" sqref="$A141:$XFD141"/>
+    <sheetView topLeftCell="A88" workbookViewId="0">
+      <selection activeCell="A141" sqref="A141:XFD141"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25"/>
   <cols>
-    <col min="5" max="5" width="37.4444444444444" customWidth="1"/>
-    <col min="6" max="6" width="56.2222222222222" customWidth="1"/>
-    <col min="7" max="7" width="44.2222222222222" customWidth="1"/>
-    <col min="11" max="11" width="24.1111111111111" customWidth="1"/>
+    <col min="5" max="5" width="37.44140625" customWidth="1"/>
+    <col min="6" max="6" width="56.21875" customWidth="1"/>
+    <col min="7" max="7" width="44.21875" customWidth="1"/>
+    <col min="11" max="11" width="24.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:25">
       <c r="A1" s="1" t="s">
         <v>44</v>
       </c>
@@ -9769,7 +9295,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="4" spans="5:7">
+    <row r="4" spans="1:25">
       <c r="E4" s="2" t="s">
         <v>47</v>
       </c>
@@ -9857,7 +9383,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="8" spans="5:24">
+    <row r="8" spans="1:25">
       <c r="E8" t="s">
         <v>75</v>
       </c>
@@ -9907,7 +9433,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="9" spans="5:24">
+    <row r="9" spans="1:25">
       <c r="E9" t="s">
         <v>84</v>
       </c>
@@ -9964,7 +9490,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="10" spans="5:24">
+    <row r="10" spans="1:25">
       <c r="E10" t="s">
         <v>93</v>
       </c>
@@ -10012,7 +9538,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="11" spans="5:24">
+    <row r="11" spans="1:25">
       <c r="E11" t="s">
         <v>98</v>
       </c>
@@ -10062,7 +9588,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="12" spans="5:24">
+    <row r="12" spans="1:25">
       <c r="E12" t="s">
         <v>103</v>
       </c>
@@ -10116,7 +9642,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="13" spans="5:24">
+    <row r="13" spans="1:25">
       <c r="E13" t="s">
         <v>111</v>
       </c>
@@ -10173,7 +9699,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="14" spans="5:24">
+    <row r="14" spans="1:25">
       <c r="E14" t="s">
         <v>116</v>
       </c>
@@ -10221,7 +9747,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="15" spans="5:24">
+    <row r="15" spans="1:25">
       <c r="E15" t="s">
         <v>121</v>
       </c>
@@ -10269,7 +9795,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="16" spans="5:24">
+    <row r="16" spans="1:25">
       <c r="E16" t="s">
         <v>125</v>
       </c>
@@ -17861,28 +17387,27 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="29" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:G501"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:G502"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D488" workbookViewId="0">
-      <selection activeCell="G503" sqref="G503"/>
+      <selection activeCell="E502" sqref="E502:G502"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25"/>
   <cols>
-    <col min="5" max="5" width="28.1111111111111" customWidth="1"/>
-    <col min="6" max="6" width="34.3333333333333" customWidth="1"/>
-    <col min="7" max="7" width="57.5555555555556" customWidth="1"/>
+    <col min="5" max="5" width="28.109375" customWidth="1"/>
+    <col min="6" max="6" width="34.33203125" customWidth="1"/>
+    <col min="7" max="7" width="57.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>44</v>
       </c>
@@ -17896,7 +17421,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="4" spans="5:7">
+    <row r="4" spans="1:7">
       <c r="E4" s="2" t="s">
         <v>47</v>
       </c>
@@ -17930,7 +17455,7 @@
         <v>774</v>
       </c>
     </row>
-    <row r="8" spans="5:7">
+    <row r="8" spans="1:7">
       <c r="E8" t="s">
         <v>775</v>
       </c>
@@ -17942,7 +17467,7 @@
         <v>776</v>
       </c>
     </row>
-    <row r="9" spans="5:7">
+    <row r="9" spans="1:7">
       <c r="E9" t="s">
         <v>777</v>
       </c>
@@ -17954,7 +17479,7 @@
         <v>778</v>
       </c>
     </row>
-    <row r="10" spans="5:7">
+    <row r="10" spans="1:7">
       <c r="E10" t="s">
         <v>779</v>
       </c>
@@ -17966,7 +17491,7 @@
         <v>780</v>
       </c>
     </row>
-    <row r="11" spans="5:7">
+    <row r="11" spans="1:7">
       <c r="E11" t="s">
         <v>781</v>
       </c>
@@ -17978,7 +17503,7 @@
         <v>782</v>
       </c>
     </row>
-    <row r="12" spans="5:7">
+    <row r="12" spans="1:7">
       <c r="E12" t="s">
         <v>783</v>
       </c>
@@ -17990,7 +17515,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="13" spans="5:7">
+    <row r="13" spans="1:7">
       <c r="E13" t="s">
         <v>785</v>
       </c>
@@ -18002,7 +17527,7 @@
         <v>786</v>
       </c>
     </row>
-    <row r="14" spans="5:7">
+    <row r="14" spans="1:7">
       <c r="E14" t="s">
         <v>787</v>
       </c>
@@ -18014,7 +17539,7 @@
         <v>788</v>
       </c>
     </row>
-    <row r="15" spans="5:7">
+    <row r="15" spans="1:7">
       <c r="E15" t="s">
         <v>789</v>
       </c>
@@ -18026,7 +17551,7 @@
         <v>790</v>
       </c>
     </row>
-    <row r="16" spans="5:7">
+    <row r="16" spans="1:7">
       <c r="E16" t="s">
         <v>791</v>
       </c>
@@ -23750,7 +23275,7 @@
         <v>1546</v>
       </c>
     </row>
-    <row r="493" s="7" customFormat="1" spans="5:7">
+    <row r="493" spans="5:7" s="7" customFormat="1">
       <c r="E493" s="7" t="s">
         <v>1547</v>
       </c>
@@ -23858,15 +23383,26 @@
         <v>939</v>
       </c>
     </row>
+    <row r="502" spans="5:7">
+      <c r="E502" s="44" t="s">
+        <v>2132</v>
+      </c>
+      <c r="F502" s="44" t="str">
+        <f>菜单SAAS版!E95</f>
+        <v>iam_menu-95</v>
+      </c>
+      <c r="G502" s="44" t="s">
+        <v>2131</v>
+      </c>
+    </row>
   </sheetData>
+  <phoneticPr fontId="29" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:O117"/>
   <sheetViews>
     <sheetView topLeftCell="A22" workbookViewId="0">
@@ -23875,10 +23411,10 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25"/>
   <cols>
-    <col min="7" max="7" width="17.3333333333333" customWidth="1"/>
+    <col min="7" max="7" width="17.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:15">
       <c r="A1" s="1" t="s">
         <v>44</v>
       </c>
@@ -23892,7 +23428,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="4" spans="5:7">
+    <row r="4" spans="1:15">
       <c r="E4" s="2" t="s">
         <v>47</v>
       </c>
@@ -23950,7 +23486,7 @@
         <v>1568</v>
       </c>
     </row>
-    <row r="8" spans="5:15">
+    <row r="8" spans="1:15">
       <c r="E8" t="s">
         <v>1569</v>
       </c>
@@ -23982,7 +23518,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="9" spans="5:15">
+    <row r="9" spans="1:15">
       <c r="E9" t="s">
         <v>1574</v>
       </c>
@@ -24014,7 +23550,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="10" spans="5:15">
+    <row r="10" spans="1:15">
       <c r="E10" t="s">
         <v>1577</v>
       </c>
@@ -24040,7 +23576,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="11" spans="5:15">
+    <row r="11" spans="1:15">
       <c r="E11" t="s">
         <v>1580</v>
       </c>
@@ -24066,7 +23602,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="12" spans="5:15">
+    <row r="12" spans="1:15">
       <c r="E12" t="s">
         <v>1582</v>
       </c>
@@ -24098,7 +23634,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="13" spans="5:15">
+    <row r="13" spans="1:15">
       <c r="E13" t="s">
         <v>1585</v>
       </c>
@@ -24127,7 +23663,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="14" spans="5:15">
+    <row r="14" spans="1:15">
       <c r="E14" t="s">
         <v>1588</v>
       </c>
@@ -24156,7 +23692,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="15" spans="5:15">
+    <row r="15" spans="1:15">
       <c r="E15" t="s">
         <v>1591</v>
       </c>
@@ -24185,7 +23721,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="16" spans="5:15">
+    <row r="16" spans="1:15">
       <c r="E16" t="s">
         <v>1594</v>
       </c>
@@ -24214,7 +23750,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="17" spans="5:15">
+    <row r="17" spans="1:15">
       <c r="E17" t="s">
         <v>1597</v>
       </c>
@@ -24246,7 +23782,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="18" spans="5:15">
+    <row r="18" spans="1:15">
       <c r="E18" t="s">
         <v>1600</v>
       </c>
@@ -24278,7 +23814,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="19" spans="5:15">
+    <row r="19" spans="1:15">
       <c r="E19" t="s">
         <v>1603</v>
       </c>
@@ -24310,7 +23846,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="20" spans="5:15">
+    <row r="20" spans="1:15">
       <c r="E20" t="s">
         <v>1606</v>
       </c>
@@ -24336,7 +23872,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="21" spans="5:15">
+    <row r="21" spans="1:15">
       <c r="E21" t="s">
         <v>1608</v>
       </c>
@@ -24368,7 +23904,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="22" spans="5:15">
+    <row r="22" spans="1:15">
       <c r="E22" t="s">
         <v>1611</v>
       </c>
@@ -24400,7 +23936,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="23" spans="5:15">
+    <row r="23" spans="1:15">
       <c r="E23" t="s">
         <v>1614</v>
       </c>
@@ -24432,7 +23968,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="24" spans="5:15">
+    <row r="24" spans="1:15">
       <c r="E24" t="s">
         <v>1617</v>
       </c>
@@ -24458,7 +23994,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="25" spans="5:15">
+    <row r="25" spans="1:15">
       <c r="E25" t="s">
         <v>1619</v>
       </c>
@@ -24487,7 +24023,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="26" spans="5:15">
+    <row r="26" spans="1:15">
       <c r="E26" t="s">
         <v>1622</v>
       </c>
@@ -24516,7 +24052,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="28" spans="1:9">
+    <row r="28" spans="1:15">
       <c r="A28" t="s">
         <v>50</v>
       </c>
@@ -24545,7 +24081,7 @@
         <v>1631</v>
       </c>
     </row>
-    <row r="29" spans="5:9">
+    <row r="29" spans="1:15">
       <c r="E29" t="s">
         <v>1632</v>
       </c>
@@ -24564,7 +24100,7 @@
         <v>1633</v>
       </c>
     </row>
-    <row r="30" spans="5:9">
+    <row r="30" spans="1:15">
       <c r="E30" t="s">
         <v>1632</v>
       </c>
@@ -24583,7 +24119,7 @@
         <v>1633</v>
       </c>
     </row>
-    <row r="31" spans="5:9">
+    <row r="31" spans="1:15">
       <c r="E31" t="s">
         <v>1632</v>
       </c>
@@ -24602,7 +24138,7 @@
         <v>1633</v>
       </c>
     </row>
-    <row r="32" spans="5:9">
+    <row r="32" spans="1:15">
       <c r="E32" t="s">
         <v>1632</v>
       </c>
@@ -26237,14 +25773,13 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="29" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:Y408"/>
   <sheetViews>
     <sheetView topLeftCell="C394" workbookViewId="0">
@@ -26253,14 +25788,14 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25"/>
   <cols>
-    <col min="5" max="5" width="13.2222222222222" customWidth="1"/>
-    <col min="6" max="6" width="15.6666666666667" customWidth="1"/>
+    <col min="5" max="5" width="13.21875" customWidth="1"/>
+    <col min="6" max="6" width="15.6640625" customWidth="1"/>
     <col min="7" max="7" width="17" customWidth="1"/>
-    <col min="21" max="21" width="14.4444444444444" customWidth="1"/>
-    <col min="22" max="22" width="14.8888888888889" customWidth="1"/>
+    <col min="21" max="21" width="14.44140625" customWidth="1"/>
+    <col min="22" max="22" width="14.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:25">
       <c r="A1" s="1" t="s">
         <v>44</v>
       </c>
@@ -26274,7 +25809,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="4" spans="5:7">
+    <row r="4" spans="1:25">
       <c r="E4" s="2" t="s">
         <v>47</v>
       </c>
@@ -26362,7 +25897,7 @@
         <v>1649</v>
       </c>
     </row>
-    <row r="8" spans="5:23">
+    <row r="8" spans="1:25">
       <c r="E8" t="s">
         <v>1650</v>
       </c>
@@ -26421,7 +25956,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="9" spans="5:23">
+    <row r="9" spans="1:25">
       <c r="E9" t="s">
         <v>1656</v>
       </c>
@@ -26480,7 +26015,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="10" spans="5:25">
+    <row r="10" spans="1:25">
       <c r="E10" t="s">
         <v>1661</v>
       </c>
@@ -26543,7 +26078,7 @@
         <v>1668</v>
       </c>
     </row>
-    <row r="11" spans="5:25">
+    <row r="11" spans="1:25">
       <c r="E11" t="s">
         <v>1669</v>
       </c>
@@ -26606,7 +26141,7 @@
         <v>1676</v>
       </c>
     </row>
-    <row r="12" spans="5:25">
+    <row r="12" spans="1:25">
       <c r="E12" t="s">
         <v>1677</v>
       </c>
@@ -26669,7 +26204,7 @@
         <v>1684</v>
       </c>
     </row>
-    <row r="13" spans="5:25">
+    <row r="13" spans="1:25">
       <c r="E13" t="s">
         <v>1685</v>
       </c>
@@ -26732,7 +26267,7 @@
         <v>1692</v>
       </c>
     </row>
-    <row r="14" spans="5:23">
+    <row r="14" spans="1:25">
       <c r="E14" t="s">
         <v>1693</v>
       </c>
@@ -26789,7 +26324,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:10">
+    <row r="16" spans="1:25">
       <c r="A16" t="s">
         <v>50</v>
       </c>
@@ -35401,7 +34936,7 @@
         <v>1707</v>
       </c>
     </row>
-    <row r="407" customFormat="1" spans="5:10">
+    <row r="407" spans="5:10">
       <c r="E407" t="s">
         <v>2098</v>
       </c>
@@ -35423,7 +34958,7 @@
         <v>1707</v>
       </c>
     </row>
-    <row r="408" customFormat="1" spans="5:10">
+    <row r="408" spans="5:10">
       <c r="E408" t="s">
         <v>2099</v>
       </c>
@@ -35446,23 +34981,20 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="29" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:O35"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView topLeftCell="A25" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:15">
       <c r="A1" s="1" t="s">
         <v>44</v>
       </c>
@@ -35476,7 +35008,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="4" spans="5:7">
+    <row r="4" spans="1:15">
       <c r="E4" s="2" t="s">
         <v>47</v>
       </c>
@@ -35534,7 +35066,7 @@
         <v>1568</v>
       </c>
     </row>
-    <row r="8" spans="5:15">
+    <row r="8" spans="1:15">
       <c r="E8" t="s">
         <v>1569</v>
       </c>
@@ -35566,7 +35098,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="9" spans="5:15">
+    <row r="9" spans="1:15">
       <c r="E9" t="s">
         <v>1574</v>
       </c>
@@ -35595,7 +35127,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="10" spans="5:15">
+    <row r="10" spans="1:15">
       <c r="E10" t="s">
         <v>1577</v>
       </c>
@@ -35627,7 +35159,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="11" spans="5:15">
+    <row r="11" spans="1:15">
       <c r="E11" t="s">
         <v>1580</v>
       </c>
@@ -35659,7 +35191,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="12" spans="5:15">
+    <row r="12" spans="1:15">
       <c r="E12" t="s">
         <v>1582</v>
       </c>
@@ -35691,7 +35223,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="13" spans="5:15">
+    <row r="13" spans="1:15">
       <c r="E13" t="s">
         <v>1585</v>
       </c>
@@ -35723,7 +35255,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="14" spans="5:15">
+    <row r="14" spans="1:15">
       <c r="E14" t="s">
         <v>1588</v>
       </c>
@@ -35755,7 +35287,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="15" spans="5:15">
+    <row r="15" spans="1:15">
       <c r="E15" t="s">
         <v>1591</v>
       </c>
@@ -35787,7 +35319,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="16" spans="5:15">
+    <row r="16" spans="1:15">
       <c r="E16" t="s">
         <v>1594</v>
       </c>
@@ -35819,7 +35351,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="17" spans="5:15">
+    <row r="17" spans="1:15">
       <c r="E17" t="s">
         <v>1597</v>
       </c>
@@ -35851,7 +35383,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="18" spans="5:15">
+    <row r="18" spans="1:15">
       <c r="E18" t="s">
         <v>1600</v>
       </c>
@@ -35883,7 +35415,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="19" spans="5:15">
+    <row r="19" spans="1:15">
       <c r="E19" t="s">
         <v>1603</v>
       </c>
@@ -35915,7 +35447,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="21" spans="1:9">
+    <row r="21" spans="1:15">
       <c r="A21" t="s">
         <v>50</v>
       </c>
@@ -35944,7 +35476,7 @@
         <v>1631</v>
       </c>
     </row>
-    <row r="22" spans="5:9">
+    <row r="22" spans="1:15">
       <c r="E22" t="s">
         <v>1632</v>
       </c>
@@ -35963,7 +35495,7 @@
         <v>1634</v>
       </c>
     </row>
-    <row r="23" spans="5:9">
+    <row r="23" spans="1:15">
       <c r="E23" t="s">
         <v>1632</v>
       </c>
@@ -35982,7 +35514,7 @@
         <v>1634</v>
       </c>
     </row>
-    <row r="24" spans="5:9">
+    <row r="24" spans="1:15">
       <c r="E24" t="s">
         <v>1632</v>
       </c>
@@ -36001,7 +35533,7 @@
         <v>1634</v>
       </c>
     </row>
-    <row r="25" spans="5:9">
+    <row r="25" spans="1:15">
       <c r="E25" t="s">
         <v>1632</v>
       </c>
@@ -36020,7 +35552,7 @@
         <v>1634</v>
       </c>
     </row>
-    <row r="26" spans="5:9">
+    <row r="26" spans="1:15">
       <c r="E26" t="s">
         <v>1632</v>
       </c>
@@ -36039,7 +35571,7 @@
         <v>1634</v>
       </c>
     </row>
-    <row r="27" spans="5:9">
+    <row r="27" spans="1:15">
       <c r="E27" t="s">
         <v>1632</v>
       </c>
@@ -36058,7 +35590,7 @@
         <v>1634</v>
       </c>
     </row>
-    <row r="28" spans="5:9">
+    <row r="28" spans="1:15">
       <c r="E28" t="s">
         <v>1632</v>
       </c>
@@ -36077,7 +35609,7 @@
         <v>1634</v>
       </c>
     </row>
-    <row r="29" spans="5:9">
+    <row r="29" spans="1:15">
       <c r="E29" t="s">
         <v>1632</v>
       </c>
@@ -36096,7 +35628,7 @@
         <v>1634</v>
       </c>
     </row>
-    <row r="30" spans="5:9">
+    <row r="30" spans="1:15">
       <c r="E30" t="s">
         <v>1632</v>
       </c>
@@ -36115,7 +35647,7 @@
         <v>1634</v>
       </c>
     </row>
-    <row r="31" spans="5:9">
+    <row r="31" spans="1:15">
       <c r="E31" t="s">
         <v>1632</v>
       </c>
@@ -36134,7 +35666,7 @@
         <v>1634</v>
       </c>
     </row>
-    <row r="32" spans="5:9">
+    <row r="32" spans="1:15">
       <c r="E32" t="s">
         <v>1632</v>
       </c>
@@ -36211,8 +35743,8 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="29" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
-  <headerFooter/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
--- a/src/main/resources/script/db/init-data/devops_service/hzero_platform/hzero-menu-user-role-label.xlsx
+++ b/src/main/resources/script/db/init-data/devops_service/hzero_platform/hzero-menu-user-role-label.xlsx
@@ -8157,11 +8157,11 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="47">
+  <fonts count="43">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -8229,12 +8229,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color rgb="FFFF0000"/>
-      <name val="微软雅黑"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <b/>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -8280,14 +8274,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -8296,25 +8282,18 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="微软雅黑"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FF800080"/>
       <name val="等线"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="等线"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -8326,7 +8305,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -8340,7 +8326,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -8354,16 +8355,33 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -8378,40 +8396,10 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -8444,13 +8432,6 @@
       <b/>
       <sz val="12"/>
       <color rgb="FF000000"/>
-      <name val="微软雅黑"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
       <name val="DengXian"/>
       <charset val="134"/>
     </font>
@@ -8463,12 +8444,6 @@
     <font>
       <sz val="12"/>
       <color rgb="FF2E75B6"/>
-      <name val="微软雅黑"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF548235"/>
       <name val="微软雅黑"/>
       <charset val="134"/>
     </font>
@@ -8512,7 +8487,91 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -8524,13 +8583,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -8542,19 +8625,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -8566,7 +8643,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -8578,121 +8667,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -8799,20 +8774,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -8832,17 +8804,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -8880,8 +8846,17 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -8899,153 +8874,153 @@
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="9" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="12" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="18" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="18" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="23" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="12" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="12" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="24" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -9058,7 +9033,6 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -9070,40 +9044,40 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -9116,7 +9090,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -9519,8 +9493,8 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="15.5555555555556" style="13" customWidth="1"/>
-    <col min="2" max="2" width="10.3333333333333" style="14" customWidth="1"/>
+    <col min="1" max="1" width="15.5555555555556" style="12" customWidth="1"/>
+    <col min="2" max="2" width="10.3333333333333" style="13" customWidth="1"/>
     <col min="3" max="3" width="28.1111111111111" customWidth="1"/>
     <col min="4" max="4" width="35.3333333333333" style="7" customWidth="1"/>
     <col min="5" max="5" width="38.5555555555556" customWidth="1"/>
@@ -9536,79 +9510,79 @@
   </cols>
   <sheetData>
     <row r="1" ht="64.5" customHeight="1" spans="1:8">
-      <c r="A1" s="15"/>
-      <c r="C1" s="16" t="s">
+      <c r="A1" s="14"/>
+      <c r="C1" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="17"/>
-      <c r="G1" s="17"/>
-      <c r="H1" s="17"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="16"/>
+      <c r="G1" s="16"/>
+      <c r="H1" s="16"/>
     </row>
     <row r="2" ht="18" spans="5:5">
-      <c r="E2" s="18"/>
+      <c r="E2" s="17"/>
     </row>
     <row r="3" ht="49.5" customHeight="1" spans="3:7">
-      <c r="C3" s="19" t="s">
+      <c r="C3" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="19"/>
-      <c r="E3" s="20" t="s">
+      <c r="D3" s="18"/>
+      <c r="E3" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="20"/>
-      <c r="G3" s="20"/>
+      <c r="F3" s="19"/>
+      <c r="G3" s="19"/>
     </row>
     <row r="4" ht="18" spans="3:7">
-      <c r="C4" s="21" t="s">
+      <c r="C4" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="21"/>
-      <c r="E4" s="22" t="s">
+      <c r="D4" s="20"/>
+      <c r="E4" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="23" t="s">
+      <c r="F4" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="G4" s="24" t="s">
+      <c r="G4" s="23" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="15"/>
+      <c r="A5" s="14"/>
       <c r="C5" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="7" ht="18" spans="3:5">
-      <c r="C7" s="25" t="s">
+      <c r="C7" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="26" t="s">
+      <c r="D7" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="E7" s="27" t="s">
+      <c r="E7" s="26" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="8" spans="3:5">
-      <c r="C8" s="28" t="s">
+      <c r="C8" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="29" t="s">
+      <c r="D8" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="E8" s="30"/>
+      <c r="E8" s="29"/>
     </row>
     <row r="9" ht="51.75" spans="3:6">
-      <c r="C9" s="31" t="s">
+      <c r="C9" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="32" t="s">
+      <c r="D9" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="E9" s="33" t="s">
+      <c r="E9" s="32" t="s">
         <v>15</v>
       </c>
       <c r="F9" t="s">
@@ -9616,56 +9590,56 @@
       </c>
     </row>
     <row r="10" ht="51.75" spans="3:5">
-      <c r="C10" s="34" t="s">
+      <c r="C10" s="33" t="s">
         <v>17</v>
       </c>
-      <c r="D10" s="32" t="s">
+      <c r="D10" s="31" t="s">
         <v>18</v>
       </c>
-      <c r="E10" s="33" t="s">
+      <c r="E10" s="32" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="11" ht="69" spans="3:5">
-      <c r="C11" s="28" t="s">
+      <c r="C11" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="D11" s="32" t="s">
+      <c r="D11" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="E11" s="33" t="s">
+      <c r="E11" s="32" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="12" spans="3:5">
-      <c r="C12" s="28" t="s">
+      <c r="C12" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="D12" s="32" t="s">
+      <c r="D12" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="E12" s="35" t="s">
+      <c r="E12" s="34" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="13" spans="3:5">
-      <c r="C13" s="28"/>
-      <c r="D13" s="29"/>
-      <c r="E13" s="30"/>
+      <c r="C13" s="27"/>
+      <c r="D13" s="28"/>
+      <c r="E13" s="29"/>
     </row>
     <row r="14" spans="3:5">
-      <c r="C14" s="28"/>
-      <c r="D14" s="29"/>
-      <c r="E14" s="30"/>
+      <c r="C14" s="27"/>
+      <c r="D14" s="28"/>
+      <c r="E14" s="29"/>
     </row>
     <row r="15" ht="34.5" spans="3:5">
-      <c r="C15" s="36" t="s">
+      <c r="C15" s="35" t="s">
         <v>26</v>
       </c>
-      <c r="D15" s="37" t="s">
+      <c r="D15" s="36" t="s">
         <v>27</v>
       </c>
-      <c r="E15" s="38" t="s">
+      <c r="E15" s="37" t="s">
         <v>28</v>
       </c>
     </row>
@@ -9675,30 +9649,30 @@
       </c>
     </row>
     <row r="19" spans="3:5">
-      <c r="C19" s="39" t="s">
+      <c r="C19" s="38" t="s">
         <v>30</v>
       </c>
-      <c r="D19" s="39"/>
-      <c r="E19" s="39"/>
+      <c r="D19" s="38"/>
+      <c r="E19" s="38"/>
     </row>
     <row r="20" ht="18" spans="3:4">
-      <c r="C20" s="40" t="s">
+      <c r="C20" s="39" t="s">
         <v>31</v>
       </c>
-      <c r="D20" s="18" t="s">
+      <c r="D20" s="17" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="21" ht="18" spans="3:4">
-      <c r="C21" s="40" t="s">
+      <c r="C21" s="39" t="s">
         <v>33</v>
       </c>
-      <c r="D21" s="18" t="s">
+      <c r="D21" s="17" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="22" ht="18" spans="3:4">
-      <c r="C22" s="40" t="s">
+      <c r="C22" s="39" t="s">
         <v>35</v>
       </c>
       <c r="D22" s="7" t="s">
@@ -9706,7 +9680,7 @@
       </c>
     </row>
     <row r="23" ht="18" spans="3:4">
-      <c r="C23" s="40" t="s">
+      <c r="C23" s="39" t="s">
         <v>37</v>
       </c>
       <c r="D23" s="7" t="s">
@@ -9714,25 +9688,25 @@
       </c>
     </row>
     <row r="25" ht="69" customHeight="1" spans="3:5">
-      <c r="C25" s="41" t="s">
+      <c r="C25" s="40" t="s">
         <v>39</v>
       </c>
-      <c r="D25" s="19" t="s">
+      <c r="D25" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="E25" s="19"/>
+      <c r="E25" s="18"/>
     </row>
     <row r="26" ht="14.25" customHeight="1" spans="3:5">
-      <c r="C26" s="29" t="s">
+      <c r="C26" s="28" t="s">
         <v>41</v>
       </c>
-      <c r="D26" s="19" t="s">
+      <c r="D26" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="E26" s="19"/>
+      <c r="E26" s="18"/>
     </row>
     <row r="27" ht="51.75" spans="3:3">
-      <c r="C27" s="42" t="s">
+      <c r="C27" s="41" t="s">
         <v>43</v>
       </c>
     </row>
@@ -9757,8 +9731,8 @@
   <sheetPr/>
   <dimension ref="A1:Y169"/>
   <sheetViews>
-    <sheetView topLeftCell="C136" workbookViewId="0">
-      <selection activeCell="C151" sqref="$A151:$XFD151"/>
+    <sheetView topLeftCell="C112" workbookViewId="0">
+      <selection activeCell="C125" sqref="$A125:$XFD125"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25"/>
@@ -23873,14 +23847,14 @@
       </c>
     </row>
     <row r="502" spans="5:7">
-      <c r="E502" s="12" t="s">
+      <c r="E502" s="8" t="s">
         <v>1557</v>
       </c>
-      <c r="F502" s="12" t="str">
+      <c r="F502" s="8" t="str">
         <f>菜单SAAS版!E95</f>
         <v>iam_menu-95</v>
       </c>
-      <c r="G502" s="12" t="s">
+      <c r="G502" s="8" t="s">
         <v>1558</v>
       </c>
     </row>
@@ -26273,8 +26247,8 @@
   <sheetPr/>
   <dimension ref="A1:Y407"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C360" workbookViewId="0">
-      <selection activeCell="E353" sqref="E353"/>
+    <sheetView tabSelected="1" topLeftCell="C343" workbookViewId="0">
+      <selection activeCell="H350" sqref="H350"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25"/>
@@ -34186,7 +34160,7 @@
         <v>iam_menu-160</v>
       </c>
       <c r="H350" t="s">
-        <v>1990</v>
+        <v>1707</v>
       </c>
       <c r="I350" t="s">
         <v>1708</v>

--- a/src/main/resources/script/db/init-data/devops_service/hzero_platform/hzero-menu-user-role-label.xlsx
+++ b/src/main/resources/script/db/init-data/devops_service/hzero_platform/hzero-menu-user-role-label.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23029"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\projcect\devops\devops-service\src\main\resources\script\db\init-data\devops_service\hzero_platform\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF625405-5349-4482-85EF-742F692F8B68}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="19815" windowHeight="7860" tabRatio="597" activeTab="4"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="597" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="1" r:id="rId1"/>
@@ -20,18 +26,19 @@
     <definedName name="qwe">REPT(local_year_format,4)&amp;local_date_separator&amp;REPT(local_month_format,2)&amp;local_date_separator&amp;REPT(local_day_format,2)&amp;" "&amp;REPT(local_hour_format,2)&amp;local_time_separator&amp;REPT(local_minute_format,2)&amp;local_time_separator&amp;REPT(local_second_format,2)</definedName>
     <definedName name="wqewqe">REPT(local_year_format,4)&amp;local_date_separator&amp;REPT(local_month_format,2)&amp;local_date_separator&amp;REPT(local_day_format,2)&amp;" "&amp;REPT(local_hour_format,2)&amp;local_time_separator&amp;REPT(local_minute_format,2)&amp;local_time_separator&amp;REPT(local_second_format,2)</definedName>
   </definedNames>
-  <calcPr calcId="144525" concurrentCalc="0"/>
+  <calcPr calcId="181029" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5823" uniqueCount="2132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5825" uniqueCount="2134">
   <si>
     <r>
       <rPr>
         <sz val="12"/>
         <color rgb="FFFF0000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">注意这个文档不能 </t>
@@ -50,6 +57,7 @@
         <sz val="12"/>
         <color rgb="FFFF0000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>！！
@@ -62,6 +70,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">正式的数据从第二个 </t>
@@ -80,6 +89,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>页开始</t>
@@ -98,6 +108,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">每页 从 </t>
@@ -116,6 +127,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">单元格开始有效
@@ -147,6 +159,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>颜色示例</t>
@@ -165,6 +178,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>非必须</t>
@@ -183,6 +197,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>非强制</t>
@@ -204,6 +219,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>请给特殊单元格</t>
@@ -224,6 +240,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>列名添加颜色</t>
@@ -244,6 +261,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>提高数据可读性</t>
@@ -264,6 +282,7 @@
         <sz val="12"/>
         <color rgb="FFC55A11"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>自动生成</t>
@@ -284,6 +303,7 @@
         <sz val="12"/>
         <color rgb="FF2E75B6"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>唯一性检查</t>
@@ -295,6 +315,7 @@
         <sz val="12"/>
         <color rgb="FF548235"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>公式</t>
@@ -313,6 +334,7 @@
         <sz val="12"/>
         <color rgb="FF548235"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>外键引用</t>
@@ -324,6 +346,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>理论上</t>
@@ -342,6 +365,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>表的前后顺序</t>
@@ -360,6 +384,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>页的顺序没有严格要求</t>
@@ -378,6 +403,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>但请尽量按照先插 后引用的顺序排列</t>
@@ -396,6 +422,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>减少迭代次数</t>
@@ -443,6 +470,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>前置</t>
@@ -461,6 +489,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>该列的值自动生成</t>
@@ -479,6 +508,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>当数据库存在等价记录时</t>
@@ -497,6 +527,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>这个值会被替换为数据库中已存在的值</t>
@@ -508,6 +539,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>自增长</t>
@@ -526,6 +558,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>或序列</t>
@@ -544,6 +577,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>主键列</t>
@@ -563,6 +597,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>当不作为外键引用时</t>
@@ -581,6 +616,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>一般写</t>
@@ -600,6 +636,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>作为外键时</t>
@@ -618,6 +655,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>写可读的值</t>
@@ -629,6 +667,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">目前 </t>
@@ -647,6 +686,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>是序列</t>
@@ -665,6 +705,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>其他自增涨</t>
@@ -688,6 +729,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>前置</t>
@@ -706,6 +748,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>表中所有带有</t>
@@ -724,6 +767,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>的列组成一个唯一性校验</t>
@@ -742,6 +786,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>在执行插入之前</t>
@@ -760,6 +805,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>会首先按照唯一键来检查数据库是否存在等价记录</t>
@@ -771,6 +817,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>可以有多列</t>
@@ -789,6 +836,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>仅支持</t>
@@ -799,6 +847,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>数字</t>
@@ -819,6 +868,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">字符串
@@ -829,6 +879,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>当</t>
@@ -847,6 +898,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>列涉及到公式时</t>
@@ -865,6 +917,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>会先确定公式的值</t>
@@ -888,6 +941,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>指定这一列的类型</t>
@@ -906,6 +960,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>默认会自动检测</t>
@@ -925,6 +980,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>结尾为数字</t>
@@ -944,6 +1000,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>结尾为日期</t>
@@ -963,6 +1020,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>其他默认为</t>
@@ -983,6 +1041,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>一般不需要指定</t>
@@ -1002,6 +1061,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>日期格式仅支持</t>
@@ -1036,6 +1096,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>指定语言环境</t>
@@ -1056,6 +1117,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>表数据不需要专门写</t>
@@ -1067,6 +1129,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>外键引用</t>
@@ -1085,6 +1148,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>公式</t>
@@ -1105,6 +1169,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>用于引用外键</t>
@@ -1123,6 +1188,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>也可用于普通值
@@ -1135,6 +1201,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>自动增长列</t>
@@ -1153,6 +1220,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>如果被公式引用</t>
@@ -1171,6 +1239,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>最好写一个人可以读懂的值</t>
@@ -1189,6 +1258,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>增强公式可读性</t>
@@ -1203,6 +1273,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>一般用于引用自动生成的外键</t>
@@ -1221,6 +1292,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">所有公式均为 </t>
@@ -1239,6 +1311,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>支持的标准公式</t>
@@ -1257,6 +1330,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>但不支持特别复杂的计算公式</t>
@@ -1275,6 +1349,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>比如范围计算</t>
@@ -1290,6 +1365,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>相对</t>
@@ -1299,6 +1375,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">引用当前页 </t>
@@ -1317,6 +1394,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>单元格</t>
@@ -1332,6 +1410,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>绝对</t>
@@ -1341,6 +1420,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">引用当前页 </t>
@@ -1359,6 +1439,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>单元格</t>
@@ -1373,6 +1454,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">引用 </t>
@@ -1391,6 +1473,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">页的 </t>
@@ -1409,6 +1492,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>单元格</t>
@@ -1428,6 +1512,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>相对</t>
@@ -1451,6 +1536,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">引用 </t>
@@ -1469,6 +1555,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">页的 </t>
@@ -1487,6 +1574,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>单元格</t>
@@ -1506,6 +1594,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>绝对</t>
@@ -1526,6 +1615,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>关于</t>
@@ -1536,6 +1626,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>相对</t>
@@ -1545,6 +1636,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>引用</t>
@@ -1556,6 +1648,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>举例</t>
@@ -1574,6 +1667,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">当 </t>
@@ -1592,6 +1686,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">单元格引用 </t>
@@ -1610,6 +1705,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">时
@@ -1629,6 +1725,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">的复制到 </t>
@@ -1647,6 +1744,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>单元格时</t>
@@ -1665,6 +1763,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">引用的是 </t>
@@ -1684,6 +1783,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">将 </t>
@@ -1702,6 +1802,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">的复制到 </t>
@@ -1720,6 +1821,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>时</t>
@@ -1738,6 +1840,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">实际引用的是 </t>
@@ -1757,6 +1860,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>以上情况适用于拖拽填充</t>
@@ -1768,6 +1872,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>关于</t>
@@ -1778,6 +1883,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>绝对</t>
@@ -1787,6 +1893,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>引用</t>
@@ -1798,6 +1905,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>复制公式单元格时</t>
@@ -1816,6 +1924,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>保持公式不变</t>
@@ -1827,6 +1936,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>相对引用</t>
@@ -1845,6 +1955,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>绝对引用各有用途</t>
@@ -1864,6 +1975,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>直接拖拽填充就可以避免大量重复工作</t>
@@ -6126,6 +6238,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>iam_menu_permission-4</t>
@@ -6135,6 +6248,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>40</t>
@@ -8150,18 +8264,18 @@
   <si>
     <t>标识gitlab_developer</t>
   </si>
+  <si>
+    <t>devops-service.devops-environment.deletePermissionOfUser</t>
+  </si>
+  <si>
+    <t>iam_menu_permission-503</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="43">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="29">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -8172,25 +8286,25 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="53"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="48"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="42"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <strike/>
@@ -8260,157 +8374,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="12"/>
       <color rgb="FFFF0000"/>
       <name val="DengXian"/>
@@ -8439,12 +8402,14 @@
       <sz val="12"/>
       <color rgb="FFC55A11"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF2E75B6"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
@@ -8453,8 +8418,50 @@
       <name val="DengXian"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF548235"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF00B050"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="37">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -8485,194 +8492,8 @@
         <bgColor rgb="FFE7E6E6"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="18">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -8773,254 +8594,12 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="50">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="12" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="18" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="18" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="23" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -9040,20 +8619,8 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -9087,9 +8654,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -9097,59 +8661,28 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="50">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
-    <cellStyle name="常规 2" xfId="49"/>
+    <cellStyle name="常规 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000031000000}"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium7"/>
   <colors>
     <indexedColors>
@@ -9222,6 +8755,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -9479,271 +9015,268 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25"/>
   <cols>
-    <col min="1" max="1" width="15.5555555555556" style="12" customWidth="1"/>
-    <col min="2" max="2" width="10.3333333333333" style="13" customWidth="1"/>
-    <col min="3" max="3" width="28.1111111111111" customWidth="1"/>
-    <col min="4" max="4" width="35.3333333333333" style="7" customWidth="1"/>
-    <col min="5" max="5" width="38.5555555555556" customWidth="1"/>
-    <col min="6" max="6" width="23.4444444444444" customWidth="1"/>
-    <col min="7" max="7" width="21.5555555555556" customWidth="1"/>
+    <col min="1" max="1" width="15.5546875" style="12" customWidth="1"/>
+    <col min="2" max="2" width="10.33203125" style="13" customWidth="1"/>
+    <col min="3" max="3" width="28.109375" customWidth="1"/>
+    <col min="4" max="4" width="35.33203125" style="7" customWidth="1"/>
+    <col min="5" max="5" width="38.5546875" customWidth="1"/>
+    <col min="6" max="6" width="23.44140625" customWidth="1"/>
+    <col min="7" max="7" width="21.5546875" customWidth="1"/>
     <col min="8" max="8" width="22" customWidth="1"/>
-    <col min="9" max="9" width="24.5555555555556" customWidth="1"/>
+    <col min="9" max="9" width="24.5546875" customWidth="1"/>
     <col min="10" max="10" width="27" customWidth="1"/>
-    <col min="11" max="11" width="19.1111111111111" customWidth="1"/>
-    <col min="12" max="12" width="18.5555555555556" customWidth="1"/>
-    <col min="13" max="13" width="13.1111111111111" customWidth="1"/>
-    <col min="14" max="1025" width="10.3333333333333" customWidth="1"/>
+    <col min="11" max="11" width="19.109375" customWidth="1"/>
+    <col min="12" max="12" width="18.5546875" customWidth="1"/>
+    <col min="13" max="13" width="13.109375" customWidth="1"/>
+    <col min="14" max="1025" width="10.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="64.5" customHeight="1" spans="1:8">
+    <row r="1" spans="1:8" ht="64.5" customHeight="1">
       <c r="A1" s="14"/>
-      <c r="C1" s="15" t="s">
+      <c r="C1" s="37" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="16"/>
-      <c r="G1" s="16"/>
-      <c r="H1" s="16"/>
-    </row>
-    <row r="2" ht="18" spans="5:5">
-      <c r="E2" s="17"/>
-    </row>
-    <row r="3" ht="49.5" customHeight="1" spans="3:7">
-      <c r="C3" s="18" t="s">
+      <c r="D1" s="37"/>
+      <c r="E1" s="37"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="15"/>
+      <c r="H1" s="15"/>
+    </row>
+    <row r="2" spans="1:8" ht="18">
+      <c r="E2" s="16"/>
+    </row>
+    <row r="3" spans="1:8" ht="49.5" customHeight="1">
+      <c r="C3" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="18"/>
-      <c r="E3" s="19" t="s">
+      <c r="D3" s="38"/>
+      <c r="E3" s="39" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="19"/>
-      <c r="G3" s="19"/>
-    </row>
-    <row r="4" ht="18" spans="3:7">
-      <c r="C4" s="20" t="s">
+      <c r="F3" s="39"/>
+      <c r="G3" s="39"/>
+    </row>
+    <row r="4" spans="1:8" ht="18">
+      <c r="C4" s="40" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="20"/>
-      <c r="E4" s="21" t="s">
+      <c r="D4" s="40"/>
+      <c r="E4" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="22" t="s">
+      <c r="F4" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="G4" s="23" t="s">
+      <c r="G4" s="19" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:8">
       <c r="A5" s="14"/>
       <c r="C5" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="7" ht="18" spans="3:5">
-      <c r="C7" s="24" t="s">
+    <row r="7" spans="1:8" ht="18">
+      <c r="C7" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="25" t="s">
+      <c r="D7" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="E7" s="26" t="s">
+      <c r="E7" s="22" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="3:5">
-      <c r="C8" s="27" t="s">
+    <row r="8" spans="1:8">
+      <c r="C8" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="28" t="s">
+      <c r="D8" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="E8" s="29"/>
-    </row>
-    <row r="9" ht="51.75" spans="3:6">
-      <c r="C9" s="30" t="s">
+      <c r="E8" s="25"/>
+    </row>
+    <row r="9" spans="1:8" ht="51.75">
+      <c r="C9" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="31" t="s">
+      <c r="D9" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="E9" s="32" t="s">
+      <c r="E9" s="28" t="s">
         <v>15</v>
       </c>
       <c r="F9" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="10" ht="51.75" spans="3:5">
-      <c r="C10" s="33" t="s">
+    <row r="10" spans="1:8" ht="51.75">
+      <c r="C10" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="D10" s="31" t="s">
+      <c r="D10" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="E10" s="32" t="s">
+      <c r="E10" s="28" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="11" ht="69" spans="3:5">
-      <c r="C11" s="27" t="s">
+    <row r="11" spans="1:8" ht="69">
+      <c r="C11" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="D11" s="31" t="s">
+      <c r="D11" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="E11" s="32" t="s">
+      <c r="E11" s="28" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="12" spans="3:5">
-      <c r="C12" s="27" t="s">
+    <row r="12" spans="1:8">
+      <c r="C12" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="D12" s="31" t="s">
+      <c r="D12" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="E12" s="34" t="s">
+      <c r="E12" s="30" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="13" spans="3:5">
-      <c r="C13" s="27"/>
-      <c r="D13" s="28"/>
-      <c r="E13" s="29"/>
-    </row>
-    <row r="14" spans="3:5">
-      <c r="C14" s="27"/>
-      <c r="D14" s="28"/>
-      <c r="E14" s="29"/>
-    </row>
-    <row r="15" ht="34.5" spans="3:5">
-      <c r="C15" s="35" t="s">
+    <row r="13" spans="1:8">
+      <c r="C13" s="23"/>
+      <c r="D13" s="24"/>
+      <c r="E13" s="25"/>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="C14" s="23"/>
+      <c r="D14" s="24"/>
+      <c r="E14" s="25"/>
+    </row>
+    <row r="15" spans="1:8" ht="34.5">
+      <c r="C15" s="31" t="s">
         <v>26</v>
       </c>
-      <c r="D15" s="36" t="s">
+      <c r="D15" s="32" t="s">
         <v>27</v>
       </c>
-      <c r="E15" s="37" t="s">
+      <c r="E15" s="33" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="18" spans="3:3">
+    <row r="18" spans="3:5">
       <c r="C18" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="19" spans="3:5">
-      <c r="C19" s="38" t="s">
+      <c r="C19" s="41" t="s">
         <v>30</v>
       </c>
-      <c r="D19" s="38"/>
-      <c r="E19" s="38"/>
-    </row>
-    <row r="20" ht="18" spans="3:4">
-      <c r="C20" s="39" t="s">
+      <c r="D19" s="41"/>
+      <c r="E19" s="41"/>
+    </row>
+    <row r="20" spans="3:5" ht="18">
+      <c r="C20" s="34" t="s">
         <v>31</v>
       </c>
-      <c r="D20" s="17" t="s">
+      <c r="D20" s="16" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="21" ht="18" spans="3:4">
-      <c r="C21" s="39" t="s">
+    <row r="21" spans="3:5" ht="18">
+      <c r="C21" s="34" t="s">
         <v>33</v>
       </c>
-      <c r="D21" s="17" t="s">
+      <c r="D21" s="16" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="22" ht="18" spans="3:4">
-      <c r="C22" s="39" t="s">
+    <row r="22" spans="3:5" ht="18">
+      <c r="C22" s="34" t="s">
         <v>35</v>
       </c>
       <c r="D22" s="7" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="23" ht="18" spans="3:4">
-      <c r="C23" s="39" t="s">
+    <row r="23" spans="3:5" ht="18">
+      <c r="C23" s="34" t="s">
         <v>37</v>
       </c>
       <c r="D23" s="7" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="25" ht="69" customHeight="1" spans="3:5">
-      <c r="C25" s="40" t="s">
+    <row r="25" spans="3:5" ht="69" customHeight="1">
+      <c r="C25" s="35" t="s">
         <v>39</v>
       </c>
-      <c r="D25" s="18" t="s">
+      <c r="D25" s="38" t="s">
         <v>40</v>
       </c>
-      <c r="E25" s="18"/>
-    </row>
-    <row r="26" ht="14.25" customHeight="1" spans="3:5">
-      <c r="C26" s="28" t="s">
+      <c r="E25" s="38"/>
+    </row>
+    <row r="26" spans="3:5" ht="14.25" customHeight="1">
+      <c r="C26" s="24" t="s">
         <v>41</v>
       </c>
-      <c r="D26" s="18" t="s">
+      <c r="D26" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="E26" s="18"/>
-    </row>
-    <row r="27" ht="51.75" spans="3:3">
-      <c r="C27" s="41" t="s">
+      <c r="E26" s="38"/>
+    </row>
+    <row r="27" spans="3:5" ht="51.75">
+      <c r="C27" s="36" t="s">
         <v>43</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="7">
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="D26:E26"/>
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="E3:G3"/>
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="C19:E19"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="D26:E26"/>
   </mergeCells>
-  <pageMargins left="0.697916666666667" right="0.697916666666667" top="0.75" bottom="0.75" header="0.510416666666667" footer="0.510416666666667"/>
+  <phoneticPr fontId="27" type="noConversion"/>
+  <pageMargins left="0.69791666666666696" right="0.69791666666666696" top="0.75" bottom="0.75" header="0.51041666666666696" footer="0.51041666666666696"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Y169"/>
   <sheetViews>
     <sheetView topLeftCell="C112" workbookViewId="0">
-      <selection activeCell="C125" sqref="$A125:$XFD125"/>
+      <selection activeCell="E131" sqref="E131"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25"/>
   <cols>
-    <col min="5" max="5" width="37.4444444444444" customWidth="1"/>
-    <col min="6" max="6" width="56.2222222222222" customWidth="1"/>
-    <col min="7" max="7" width="44.2222222222222" customWidth="1"/>
-    <col min="11" max="11" width="24.1111111111111" customWidth="1"/>
+    <col min="5" max="5" width="37.44140625" customWidth="1"/>
+    <col min="6" max="6" width="56.21875" customWidth="1"/>
+    <col min="7" max="7" width="44.21875" customWidth="1"/>
+    <col min="11" max="11" width="24.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:25">
       <c r="A1" s="1" t="s">
         <v>44</v>
       </c>
@@ -9757,7 +9290,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="4" spans="5:7">
+    <row r="4" spans="1:25">
       <c r="E4" s="2" t="s">
         <v>47</v>
       </c>
@@ -9845,7 +9378,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="8" spans="5:24">
+    <row r="8" spans="1:25">
       <c r="E8" t="s">
         <v>75</v>
       </c>
@@ -9895,7 +9428,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="9" spans="5:24">
+    <row r="9" spans="1:25">
       <c r="E9" t="s">
         <v>84</v>
       </c>
@@ -9952,7 +9485,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="10" spans="5:24">
+    <row r="10" spans="1:25">
       <c r="E10" t="s">
         <v>93</v>
       </c>
@@ -10000,7 +9533,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="11" spans="5:24">
+    <row r="11" spans="1:25">
       <c r="E11" t="s">
         <v>98</v>
       </c>
@@ -10050,7 +9583,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="12" spans="5:24">
+    <row r="12" spans="1:25">
       <c r="E12" t="s">
         <v>103</v>
       </c>
@@ -10104,7 +9637,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="13" spans="5:24">
+    <row r="13" spans="1:25">
       <c r="E13" t="s">
         <v>111</v>
       </c>
@@ -10161,7 +9694,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="14" spans="5:24">
+    <row r="14" spans="1:25">
       <c r="E14" t="s">
         <v>116</v>
       </c>
@@ -10209,7 +9742,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="15" spans="5:24">
+    <row r="15" spans="1:25">
       <c r="E15" t="s">
         <v>121</v>
       </c>
@@ -10257,7 +9790,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="16" spans="5:24">
+    <row r="16" spans="1:25">
       <c r="E16" t="s">
         <v>125</v>
       </c>
@@ -17849,28 +17382,27 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="27" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:G502"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:G503"/>
   <sheetViews>
-    <sheetView topLeftCell="D308" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="D488" workbookViewId="0">
       <selection activeCell="F504" sqref="F504"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25"/>
   <cols>
-    <col min="5" max="5" width="28.1111111111111" customWidth="1"/>
-    <col min="6" max="6" width="34.3333333333333" customWidth="1"/>
-    <col min="7" max="7" width="57.5555555555556" customWidth="1"/>
+    <col min="5" max="5" width="28.109375" customWidth="1"/>
+    <col min="6" max="6" width="34.33203125" customWidth="1"/>
+    <col min="7" max="7" width="57.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>44</v>
       </c>
@@ -17884,7 +17416,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="4" spans="5:7">
+    <row r="4" spans="1:7">
       <c r="E4" s="2" t="s">
         <v>47</v>
       </c>
@@ -17918,7 +17450,7 @@
         <v>774</v>
       </c>
     </row>
-    <row r="8" spans="5:7">
+    <row r="8" spans="1:7">
       <c r="E8" t="s">
         <v>775</v>
       </c>
@@ -17930,7 +17462,7 @@
         <v>776</v>
       </c>
     </row>
-    <row r="9" spans="5:7">
+    <row r="9" spans="1:7">
       <c r="E9" t="s">
         <v>777</v>
       </c>
@@ -17942,7 +17474,7 @@
         <v>778</v>
       </c>
     </row>
-    <row r="10" spans="5:7">
+    <row r="10" spans="1:7">
       <c r="E10" t="s">
         <v>779</v>
       </c>
@@ -17954,7 +17486,7 @@
         <v>780</v>
       </c>
     </row>
-    <row r="11" spans="5:7">
+    <row r="11" spans="1:7">
       <c r="E11" t="s">
         <v>781</v>
       </c>
@@ -17966,7 +17498,7 @@
         <v>782</v>
       </c>
     </row>
-    <row r="12" spans="5:7">
+    <row r="12" spans="1:7">
       <c r="E12" t="s">
         <v>783</v>
       </c>
@@ -17978,7 +17510,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="13" spans="5:7">
+    <row r="13" spans="1:7">
       <c r="E13" t="s">
         <v>785</v>
       </c>
@@ -17990,7 +17522,7 @@
         <v>786</v>
       </c>
     </row>
-    <row r="14" spans="5:7">
+    <row r="14" spans="1:7">
       <c r="E14" t="s">
         <v>787</v>
       </c>
@@ -18002,7 +17534,7 @@
         <v>788</v>
       </c>
     </row>
-    <row r="15" spans="5:7">
+    <row r="15" spans="1:7">
       <c r="E15" t="s">
         <v>789</v>
       </c>
@@ -18014,7 +17546,7 @@
         <v>790</v>
       </c>
     </row>
-    <row r="16" spans="5:7">
+    <row r="16" spans="1:7">
       <c r="E16" t="s">
         <v>791</v>
       </c>
@@ -23738,7 +23270,7 @@
         <v>1546</v>
       </c>
     </row>
-    <row r="493" s="6" customFormat="1" spans="5:7">
+    <row r="493" spans="5:7" s="6" customFormat="1">
       <c r="E493" s="6" t="s">
         <v>1547</v>
       </c>
@@ -23858,15 +23390,26 @@
         <v>1558</v>
       </c>
     </row>
+    <row r="503" spans="5:7">
+      <c r="E503" s="42" t="s">
+        <v>2133</v>
+      </c>
+      <c r="F503" s="42" t="str">
+        <f>菜单SAAS版!E131</f>
+        <v>iam_menu-131</v>
+      </c>
+      <c r="G503" s="42" t="s">
+        <v>2132</v>
+      </c>
+    </row>
   </sheetData>
+  <phoneticPr fontId="27" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:O117"/>
   <sheetViews>
     <sheetView topLeftCell="A22" workbookViewId="0">
@@ -23875,10 +23418,10 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25"/>
   <cols>
-    <col min="7" max="7" width="17.3333333333333" customWidth="1"/>
+    <col min="7" max="7" width="17.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:15">
       <c r="A1" s="1" t="s">
         <v>44</v>
       </c>
@@ -23892,7 +23435,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="4" spans="5:7">
+    <row r="4" spans="1:15">
       <c r="E4" s="2" t="s">
         <v>47</v>
       </c>
@@ -23950,7 +23493,7 @@
         <v>1570</v>
       </c>
     </row>
-    <row r="8" spans="5:15">
+    <row r="8" spans="1:15">
       <c r="E8" t="s">
         <v>1571</v>
       </c>
@@ -23982,7 +23525,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="9" spans="5:15">
+    <row r="9" spans="1:15">
       <c r="E9" t="s">
         <v>1576</v>
       </c>
@@ -24014,7 +23557,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="10" spans="5:15">
+    <row r="10" spans="1:15">
       <c r="E10" t="s">
         <v>1579</v>
       </c>
@@ -24040,7 +23583,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="11" spans="5:15">
+    <row r="11" spans="1:15">
       <c r="E11" t="s">
         <v>1582</v>
       </c>
@@ -24066,7 +23609,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="12" spans="5:15">
+    <row r="12" spans="1:15">
       <c r="E12" t="s">
         <v>1584</v>
       </c>
@@ -24098,7 +23641,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="13" spans="5:15">
+    <row r="13" spans="1:15">
       <c r="E13" t="s">
         <v>1587</v>
       </c>
@@ -24127,7 +23670,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="14" spans="5:15">
+    <row r="14" spans="1:15">
       <c r="E14" t="s">
         <v>1590</v>
       </c>
@@ -24156,7 +23699,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="15" spans="5:15">
+    <row r="15" spans="1:15">
       <c r="E15" t="s">
         <v>1593</v>
       </c>
@@ -24185,7 +23728,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="16" spans="5:15">
+    <row r="16" spans="1:15">
       <c r="E16" t="s">
         <v>1596</v>
       </c>
@@ -24214,7 +23757,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="17" spans="5:15">
+    <row r="17" spans="1:15">
       <c r="E17" t="s">
         <v>1599</v>
       </c>
@@ -24246,7 +23789,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="18" spans="5:15">
+    <row r="18" spans="1:15">
       <c r="E18" t="s">
         <v>1602</v>
       </c>
@@ -24278,7 +23821,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="19" spans="5:15">
+    <row r="19" spans="1:15">
       <c r="E19" t="s">
         <v>1605</v>
       </c>
@@ -24310,7 +23853,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="20" spans="5:15">
+    <row r="20" spans="1:15">
       <c r="E20" t="s">
         <v>1608</v>
       </c>
@@ -24336,7 +23879,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="21" spans="5:15">
+    <row r="21" spans="1:15">
       <c r="E21" t="s">
         <v>1610</v>
       </c>
@@ -24368,7 +23911,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="22" spans="5:15">
+    <row r="22" spans="1:15">
       <c r="E22" t="s">
         <v>1613</v>
       </c>
@@ -24400,7 +23943,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="23" spans="5:15">
+    <row r="23" spans="1:15">
       <c r="E23" t="s">
         <v>1616</v>
       </c>
@@ -24432,7 +23975,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="24" spans="5:15">
+    <row r="24" spans="1:15">
       <c r="E24" t="s">
         <v>1619</v>
       </c>
@@ -24458,7 +24001,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="25" spans="5:15">
+    <row r="25" spans="1:15">
       <c r="E25" t="s">
         <v>1621</v>
       </c>
@@ -24487,7 +24030,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="26" spans="5:15">
+    <row r="26" spans="1:15">
       <c r="E26" t="s">
         <v>1624</v>
       </c>
@@ -24516,7 +24059,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="28" spans="1:9">
+    <row r="28" spans="1:15">
       <c r="A28" t="s">
         <v>50</v>
       </c>
@@ -24545,7 +24088,7 @@
         <v>1633</v>
       </c>
     </row>
-    <row r="29" spans="5:9">
+    <row r="29" spans="1:15">
       <c r="E29" t="s">
         <v>1634</v>
       </c>
@@ -24564,7 +24107,7 @@
         <v>1635</v>
       </c>
     </row>
-    <row r="30" spans="5:9">
+    <row r="30" spans="1:15">
       <c r="E30" t="s">
         <v>1634</v>
       </c>
@@ -24583,7 +24126,7 @@
         <v>1635</v>
       </c>
     </row>
-    <row r="31" spans="5:9">
+    <row r="31" spans="1:15">
       <c r="E31" t="s">
         <v>1634</v>
       </c>
@@ -24602,7 +24145,7 @@
         <v>1635</v>
       </c>
     </row>
-    <row r="32" spans="5:9">
+    <row r="32" spans="1:15">
       <c r="E32" t="s">
         <v>1634</v>
       </c>
@@ -26237,30 +25780,29 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="27" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:Y407"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C343" workbookViewId="0">
+    <sheetView topLeftCell="C343" workbookViewId="0">
       <selection activeCell="H350" sqref="H350"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25"/>
   <cols>
-    <col min="5" max="5" width="13.2222222222222" customWidth="1"/>
-    <col min="6" max="6" width="15.6666666666667" customWidth="1"/>
+    <col min="5" max="5" width="13.21875" customWidth="1"/>
+    <col min="6" max="6" width="15.6640625" customWidth="1"/>
     <col min="7" max="7" width="17" customWidth="1"/>
-    <col min="21" max="21" width="14.4444444444444" customWidth="1"/>
-    <col min="22" max="22" width="14.8888888888889" customWidth="1"/>
+    <col min="21" max="21" width="14.44140625" customWidth="1"/>
+    <col min="22" max="22" width="14.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:25">
       <c r="A1" s="1" t="s">
         <v>44</v>
       </c>
@@ -26274,7 +25816,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="4" spans="5:7">
+    <row r="4" spans="1:25">
       <c r="E4" s="2" t="s">
         <v>47</v>
       </c>
@@ -26362,7 +25904,7 @@
         <v>1651</v>
       </c>
     </row>
-    <row r="8" spans="5:23">
+    <row r="8" spans="1:25">
       <c r="E8" t="s">
         <v>1652</v>
       </c>
@@ -26421,7 +25963,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="9" spans="5:23">
+    <row r="9" spans="1:25">
       <c r="E9" t="s">
         <v>1658</v>
       </c>
@@ -26480,7 +26022,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="10" spans="5:25">
+    <row r="10" spans="1:25">
       <c r="E10" t="s">
         <v>1663</v>
       </c>
@@ -26543,7 +26085,7 @@
         <v>1670</v>
       </c>
     </row>
-    <row r="11" spans="5:25">
+    <row r="11" spans="1:25">
       <c r="E11" t="s">
         <v>1671</v>
       </c>
@@ -26606,7 +26148,7 @@
         <v>1678</v>
       </c>
     </row>
-    <row r="12" spans="5:25">
+    <row r="12" spans="1:25">
       <c r="E12" t="s">
         <v>1679</v>
       </c>
@@ -26669,7 +26211,7 @@
         <v>1686</v>
       </c>
     </row>
-    <row r="13" spans="5:25">
+    <row r="13" spans="1:25">
       <c r="E13" t="s">
         <v>1687</v>
       </c>
@@ -26732,7 +26274,7 @@
         <v>1694</v>
       </c>
     </row>
-    <row r="14" spans="5:23">
+    <row r="14" spans="1:25">
       <c r="E14" t="s">
         <v>1695</v>
       </c>
@@ -26789,7 +26331,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:10">
+    <row r="16" spans="1:25">
       <c r="A16" t="s">
         <v>50</v>
       </c>
@@ -35424,23 +34966,20 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="27" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:O35"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView topLeftCell="A25" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:15">
       <c r="A1" s="1" t="s">
         <v>44</v>
       </c>
@@ -35454,7 +34993,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="4" spans="5:7">
+    <row r="4" spans="1:15">
       <c r="E4" s="2" t="s">
         <v>47</v>
       </c>
@@ -35512,7 +35051,7 @@
         <v>1570</v>
       </c>
     </row>
-    <row r="8" spans="5:15">
+    <row r="8" spans="1:15">
       <c r="E8" t="s">
         <v>1571</v>
       </c>
@@ -35544,7 +35083,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="9" spans="5:15">
+    <row r="9" spans="1:15">
       <c r="E9" t="s">
         <v>1576</v>
       </c>
@@ -35573,7 +35112,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="10" spans="5:15">
+    <row r="10" spans="1:15">
       <c r="E10" t="s">
         <v>1579</v>
       </c>
@@ -35605,7 +35144,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="11" spans="5:15">
+    <row r="11" spans="1:15">
       <c r="E11" t="s">
         <v>1582</v>
       </c>
@@ -35637,7 +35176,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="12" spans="5:15">
+    <row r="12" spans="1:15">
       <c r="E12" t="s">
         <v>1584</v>
       </c>
@@ -35669,7 +35208,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="13" spans="5:15">
+    <row r="13" spans="1:15">
       <c r="E13" t="s">
         <v>1587</v>
       </c>
@@ -35701,7 +35240,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="14" spans="5:15">
+    <row r="14" spans="1:15">
       <c r="E14" t="s">
         <v>1590</v>
       </c>
@@ -35733,7 +35272,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="15" spans="5:15">
+    <row r="15" spans="1:15">
       <c r="E15" t="s">
         <v>1593</v>
       </c>
@@ -35765,7 +35304,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="16" spans="5:15">
+    <row r="16" spans="1:15">
       <c r="E16" t="s">
         <v>1596</v>
       </c>
@@ -35797,7 +35336,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="17" spans="5:15">
+    <row r="17" spans="1:15">
       <c r="E17" t="s">
         <v>1599</v>
       </c>
@@ -35829,7 +35368,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="18" spans="5:15">
+    <row r="18" spans="1:15">
       <c r="E18" t="s">
         <v>1602</v>
       </c>
@@ -35861,7 +35400,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="19" spans="5:15">
+    <row r="19" spans="1:15">
       <c r="E19" t="s">
         <v>1605</v>
       </c>
@@ -35893,7 +35432,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="21" spans="1:9">
+    <row r="21" spans="1:15">
       <c r="A21" t="s">
         <v>50</v>
       </c>
@@ -35922,7 +35461,7 @@
         <v>1633</v>
       </c>
     </row>
-    <row r="22" spans="5:9">
+    <row r="22" spans="1:15">
       <c r="E22" t="s">
         <v>1634</v>
       </c>
@@ -35941,7 +35480,7 @@
         <v>1636</v>
       </c>
     </row>
-    <row r="23" spans="5:9">
+    <row r="23" spans="1:15">
       <c r="E23" t="s">
         <v>1634</v>
       </c>
@@ -35960,7 +35499,7 @@
         <v>1636</v>
       </c>
     </row>
-    <row r="24" spans="5:9">
+    <row r="24" spans="1:15">
       <c r="E24" t="s">
         <v>1634</v>
       </c>
@@ -35979,7 +35518,7 @@
         <v>1636</v>
       </c>
     </row>
-    <row r="25" spans="5:9">
+    <row r="25" spans="1:15">
       <c r="E25" t="s">
         <v>1634</v>
       </c>
@@ -35998,7 +35537,7 @@
         <v>1636</v>
       </c>
     </row>
-    <row r="26" spans="5:9">
+    <row r="26" spans="1:15">
       <c r="E26" t="s">
         <v>1634</v>
       </c>
@@ -36017,7 +35556,7 @@
         <v>1636</v>
       </c>
     </row>
-    <row r="27" spans="5:9">
+    <row r="27" spans="1:15">
       <c r="E27" t="s">
         <v>1634</v>
       </c>
@@ -36036,7 +35575,7 @@
         <v>1636</v>
       </c>
     </row>
-    <row r="28" spans="5:9">
+    <row r="28" spans="1:15">
       <c r="E28" t="s">
         <v>1634</v>
       </c>
@@ -36055,7 +35594,7 @@
         <v>1636</v>
       </c>
     </row>
-    <row r="29" spans="5:9">
+    <row r="29" spans="1:15">
       <c r="E29" t="s">
         <v>1634</v>
       </c>
@@ -36074,7 +35613,7 @@
         <v>1636</v>
       </c>
     </row>
-    <row r="30" spans="5:9">
+    <row r="30" spans="1:15">
       <c r="E30" t="s">
         <v>1634</v>
       </c>
@@ -36093,7 +35632,7 @@
         <v>1636</v>
       </c>
     </row>
-    <row r="31" spans="5:9">
+    <row r="31" spans="1:15">
       <c r="E31" t="s">
         <v>1634</v>
       </c>
@@ -36112,7 +35651,7 @@
         <v>1636</v>
       </c>
     </row>
-    <row r="32" spans="5:9">
+    <row r="32" spans="1:15">
       <c r="E32" t="s">
         <v>1634</v>
       </c>
@@ -36189,8 +35728,8 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="27" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
-  <headerFooter/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
--- a/src/main/resources/script/db/init-data/devops_service/hzero_platform/hzero-menu-user-role-label.xlsx
+++ b/src/main/resources/script/db/init-data/devops_service/hzero_platform/hzero-menu-user-role-label.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23127"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\projcect\devops\devops-service\src\main\resources\script\db\init-data\devops_service\hzero_platform\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{824F14C2-9850-483C-8ED0-3B1989127703}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="19815" windowHeight="7860" tabRatio="597" activeTab="2"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="597" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="1" r:id="rId1"/>
@@ -20,18 +26,19 @@
     <definedName name="qwe">REPT(local_year_format,4)&amp;local_date_separator&amp;REPT(local_month_format,2)&amp;local_date_separator&amp;REPT(local_day_format,2)&amp;" "&amp;REPT(local_hour_format,2)&amp;local_time_separator&amp;REPT(local_minute_format,2)&amp;local_time_separator&amp;REPT(local_second_format,2)</definedName>
     <definedName name="wqewqe">REPT(local_year_format,4)&amp;local_date_separator&amp;REPT(local_month_format,2)&amp;local_date_separator&amp;REPT(local_day_format,2)&amp;" "&amp;REPT(local_hour_format,2)&amp;local_time_separator&amp;REPT(local_minute_format,2)&amp;local_time_separator&amp;REPT(local_second_format,2)</definedName>
   </definedNames>
-  <calcPr calcId="144525" concurrentCalc="0"/>
+  <calcPr calcId="181029" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5822" uniqueCount="2131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5810" uniqueCount="2131">
   <si>
     <r>
       <rPr>
         <sz val="12"/>
         <color rgb="FFFF0000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">注意这个文档不能 </t>
@@ -50,6 +57,7 @@
         <sz val="12"/>
         <color rgb="FFFF0000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>！！
@@ -62,6 +70,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">正式的数据从第二个 </t>
@@ -80,6 +89,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>页开始</t>
@@ -98,6 +108,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">每页 从 </t>
@@ -116,6 +127,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">单元格开始有效
@@ -147,6 +159,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>颜色示例</t>
@@ -165,6 +178,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>非必须</t>
@@ -183,6 +197,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>非强制</t>
@@ -204,6 +219,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>请给特殊单元格</t>
@@ -224,6 +240,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>列名添加颜色</t>
@@ -244,6 +261,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>提高数据可读性</t>
@@ -264,6 +282,7 @@
         <sz val="12"/>
         <color rgb="FFC55A11"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>自动生成</t>
@@ -284,6 +303,7 @@
         <sz val="12"/>
         <color rgb="FF2E75B6"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>唯一性检查</t>
@@ -295,6 +315,7 @@
         <sz val="12"/>
         <color rgb="FF548235"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>公式</t>
@@ -313,6 +334,7 @@
         <sz val="12"/>
         <color rgb="FF548235"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>外键引用</t>
@@ -324,6 +346,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>理论上</t>
@@ -342,6 +365,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>表的前后顺序</t>
@@ -360,6 +384,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>页的顺序没有严格要求</t>
@@ -378,6 +403,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>但请尽量按照先插 后引用的顺序排列</t>
@@ -396,6 +422,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>减少迭代次数</t>
@@ -443,6 +470,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>前置</t>
@@ -461,6 +489,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>该列的值自动生成</t>
@@ -479,6 +508,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>当数据库存在等价记录时</t>
@@ -497,6 +527,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>这个值会被替换为数据库中已存在的值</t>
@@ -508,6 +539,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>自增长</t>
@@ -526,6 +558,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>或序列</t>
@@ -544,6 +577,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>主键列</t>
@@ -563,6 +597,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>当不作为外键引用时</t>
@@ -581,6 +616,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>一般写</t>
@@ -600,6 +636,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>作为外键时</t>
@@ -618,6 +655,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>写可读的值</t>
@@ -629,6 +667,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">目前 </t>
@@ -647,6 +686,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>是序列</t>
@@ -665,6 +705,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>其他自增涨</t>
@@ -688,6 +729,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>前置</t>
@@ -706,6 +748,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>表中所有带有</t>
@@ -724,6 +767,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>的列组成一个唯一性校验</t>
@@ -742,6 +786,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>在执行插入之前</t>
@@ -760,6 +805,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>会首先按照唯一键来检查数据库是否存在等价记录</t>
@@ -771,6 +817,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>可以有多列</t>
@@ -789,6 +836,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>仅支持</t>
@@ -799,6 +847,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>数字</t>
@@ -819,6 +868,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">字符串
@@ -829,6 +879,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>当</t>
@@ -847,6 +898,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>列涉及到公式时</t>
@@ -865,6 +917,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>会先确定公式的值</t>
@@ -888,6 +941,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>指定这一列的类型</t>
@@ -906,6 +960,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>默认会自动检测</t>
@@ -925,6 +980,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>结尾为数字</t>
@@ -944,6 +1000,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>结尾为日期</t>
@@ -963,6 +1020,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>其他默认为</t>
@@ -983,6 +1041,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>一般不需要指定</t>
@@ -1002,6 +1061,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>日期格式仅支持</t>
@@ -1036,6 +1096,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>指定语言环境</t>
@@ -1056,6 +1117,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>表数据不需要专门写</t>
@@ -1067,6 +1129,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>外键引用</t>
@@ -1085,6 +1148,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>公式</t>
@@ -1105,6 +1169,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>用于引用外键</t>
@@ -1123,6 +1188,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>也可用于普通值
@@ -1135,6 +1201,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>自动增长列</t>
@@ -1153,6 +1220,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>如果被公式引用</t>
@@ -1171,6 +1239,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>最好写一个人可以读懂的值</t>
@@ -1189,6 +1258,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>增强公式可读性</t>
@@ -1203,6 +1273,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>一般用于引用自动生成的外键</t>
@@ -1221,6 +1292,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">所有公式均为 </t>
@@ -1239,6 +1311,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>支持的标准公式</t>
@@ -1257,6 +1330,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>但不支持特别复杂的计算公式</t>
@@ -1275,6 +1349,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>比如范围计算</t>
@@ -1290,6 +1365,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>相对</t>
@@ -1299,6 +1375,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">引用当前页 </t>
@@ -1317,6 +1394,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>单元格</t>
@@ -1332,6 +1410,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>绝对</t>
@@ -1341,6 +1420,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">引用当前页 </t>
@@ -1359,6 +1439,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>单元格</t>
@@ -1373,6 +1454,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">引用 </t>
@@ -1391,6 +1473,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">页的 </t>
@@ -1409,6 +1492,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>单元格</t>
@@ -1428,6 +1512,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>相对</t>
@@ -1451,6 +1536,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">引用 </t>
@@ -1469,6 +1555,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">页的 </t>
@@ -1487,6 +1574,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>单元格</t>
@@ -1506,6 +1594,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>绝对</t>
@@ -1526,6 +1615,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>关于</t>
@@ -1536,6 +1626,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>相对</t>
@@ -1545,6 +1636,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>引用</t>
@@ -1556,6 +1648,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>举例</t>
@@ -1574,6 +1667,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">当 </t>
@@ -1592,6 +1686,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">单元格引用 </t>
@@ -1610,6 +1705,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">时
@@ -1629,6 +1725,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">的复制到 </t>
@@ -1647,6 +1744,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>单元格时</t>
@@ -1665,6 +1763,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">引用的是 </t>
@@ -1684,6 +1783,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">将 </t>
@@ -1702,6 +1802,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">的复制到 </t>
@@ -1720,6 +1821,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>时</t>
@@ -1738,6 +1840,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">实际引用的是 </t>
@@ -1757,6 +1860,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>以上情况适用于拖拽填充</t>
@@ -1768,6 +1872,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>关于</t>
@@ -1778,6 +1883,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>绝对</t>
@@ -1787,6 +1893,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>引用</t>
@@ -1798,6 +1905,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>复制公式单元格时</t>
@@ -1816,6 +1924,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>保持公式不变</t>
@@ -1827,6 +1936,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>相对引用</t>
@@ -1845,6 +1955,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>绝对引用各有用途</t>
@@ -1864,6 +1975,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>直接拖拽填充就可以避免大量重复工作</t>
@@ -6114,6 +6226,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>iam_menu_permission-4</t>
@@ -6123,6 +6236,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>40</t>
@@ -8151,14 +8265,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="50">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="33">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -8169,25 +8277,25 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="53"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="48"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="42"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <strike/>
@@ -8282,157 +8390,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="微软雅黑"/>
@@ -8461,6 +8418,7 @@
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
@@ -8474,18 +8432,21 @@
       <sz val="12"/>
       <color rgb="FFC55A11"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF2E75B6"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF548235"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
@@ -8494,8 +8455,28 @@
       <name val="DengXian"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="37">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -8526,194 +8507,8 @@
         <bgColor rgb="FFE7E6E6"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="18">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -8814,252 +8609,10 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="50">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="17" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="8" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="13" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="13" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="32" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -9085,20 +8638,8 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -9132,9 +8673,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -9142,59 +8680,27 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="50">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
-    <cellStyle name="常规 2" xfId="49"/>
+    <cellStyle name="常规 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000031000000}"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium7"/>
   <colors>
     <indexedColors>
@@ -9267,6 +8773,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -9524,271 +9033,268 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25"/>
   <cols>
-    <col min="1" max="1" width="15.5555555555556" style="16" customWidth="1"/>
-    <col min="2" max="2" width="10.3333333333333" style="17" customWidth="1"/>
-    <col min="3" max="3" width="28.1111111111111" customWidth="1"/>
-    <col min="4" max="4" width="35.3333333333333" style="8" customWidth="1"/>
-    <col min="5" max="5" width="38.5555555555556" customWidth="1"/>
-    <col min="6" max="6" width="23.4444444444444" customWidth="1"/>
-    <col min="7" max="7" width="21.5555555555556" customWidth="1"/>
+    <col min="1" max="1" width="15.5546875" style="16" customWidth="1"/>
+    <col min="2" max="2" width="10.33203125" style="17" customWidth="1"/>
+    <col min="3" max="3" width="28.109375" customWidth="1"/>
+    <col min="4" max="4" width="35.33203125" style="8" customWidth="1"/>
+    <col min="5" max="5" width="38.5546875" customWidth="1"/>
+    <col min="6" max="6" width="23.44140625" customWidth="1"/>
+    <col min="7" max="7" width="21.5546875" customWidth="1"/>
     <col min="8" max="8" width="22" customWidth="1"/>
-    <col min="9" max="9" width="24.5555555555556" customWidth="1"/>
+    <col min="9" max="9" width="24.5546875" customWidth="1"/>
     <col min="10" max="10" width="27" customWidth="1"/>
-    <col min="11" max="11" width="19.1111111111111" customWidth="1"/>
-    <col min="12" max="12" width="18.5555555555556" customWidth="1"/>
-    <col min="13" max="13" width="13.1111111111111" customWidth="1"/>
-    <col min="14" max="1025" width="10.3333333333333" customWidth="1"/>
+    <col min="11" max="11" width="19.109375" customWidth="1"/>
+    <col min="12" max="12" width="18.5546875" customWidth="1"/>
+    <col min="13" max="13" width="13.109375" customWidth="1"/>
+    <col min="14" max="1025" width="10.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="64.5" customHeight="1" spans="1:8">
+    <row r="1" spans="1:8" ht="64.5" customHeight="1">
       <c r="A1" s="18"/>
-      <c r="C1" s="19" t="s">
+      <c r="C1" s="41" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="20"/>
-      <c r="G1" s="20"/>
-      <c r="H1" s="20"/>
-    </row>
-    <row r="2" ht="18" spans="5:5">
-      <c r="E2" s="21"/>
-    </row>
-    <row r="3" ht="49.5" customHeight="1" spans="3:7">
-      <c r="C3" s="22" t="s">
+      <c r="D1" s="41"/>
+      <c r="E1" s="41"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
+      <c r="H1" s="19"/>
+    </row>
+    <row r="2" spans="1:8" ht="18">
+      <c r="E2" s="20"/>
+    </row>
+    <row r="3" spans="1:8" ht="49.5" customHeight="1">
+      <c r="C3" s="42" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="22"/>
-      <c r="E3" s="23" t="s">
+      <c r="D3" s="42"/>
+      <c r="E3" s="43" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="23"/>
-      <c r="G3" s="23"/>
-    </row>
-    <row r="4" ht="18" spans="3:7">
-      <c r="C4" s="24" t="s">
+      <c r="F3" s="43"/>
+      <c r="G3" s="43"/>
+    </row>
+    <row r="4" spans="1:8" ht="18">
+      <c r="C4" s="44" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="24"/>
-      <c r="E4" s="25" t="s">
+      <c r="D4" s="44"/>
+      <c r="E4" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="26" t="s">
+      <c r="F4" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="G4" s="27" t="s">
+      <c r="G4" s="23" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:8">
       <c r="A5" s="18"/>
       <c r="C5" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="7" ht="18" spans="3:5">
-      <c r="C7" s="28" t="s">
+    <row r="7" spans="1:8" ht="18">
+      <c r="C7" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="29" t="s">
+      <c r="D7" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="E7" s="30" t="s">
+      <c r="E7" s="26" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="3:5">
-      <c r="C8" s="31" t="s">
+    <row r="8" spans="1:8">
+      <c r="C8" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="32" t="s">
+      <c r="D8" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="E8" s="33"/>
-    </row>
-    <row r="9" ht="51.75" spans="3:6">
-      <c r="C9" s="34" t="s">
+      <c r="E8" s="29"/>
+    </row>
+    <row r="9" spans="1:8" ht="51.75">
+      <c r="C9" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="35" t="s">
+      <c r="D9" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="E9" s="36" t="s">
+      <c r="E9" s="32" t="s">
         <v>15</v>
       </c>
       <c r="F9" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="10" ht="51.75" spans="3:5">
-      <c r="C10" s="37" t="s">
+    <row r="10" spans="1:8" ht="51.75">
+      <c r="C10" s="33" t="s">
         <v>17</v>
       </c>
-      <c r="D10" s="35" t="s">
+      <c r="D10" s="31" t="s">
         <v>18</v>
       </c>
-      <c r="E10" s="36" t="s">
+      <c r="E10" s="32" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="11" ht="69" spans="3:5">
-      <c r="C11" s="31" t="s">
+    <row r="11" spans="1:8" ht="69">
+      <c r="C11" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="D11" s="35" t="s">
+      <c r="D11" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="E11" s="36" t="s">
+      <c r="E11" s="32" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="12" spans="3:5">
-      <c r="C12" s="31" t="s">
+    <row r="12" spans="1:8">
+      <c r="C12" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="D12" s="35" t="s">
+      <c r="D12" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="E12" s="38" t="s">
+      <c r="E12" s="34" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="13" spans="3:5">
-      <c r="C13" s="31"/>
-      <c r="D13" s="32"/>
-      <c r="E13" s="33"/>
-    </row>
-    <row r="14" spans="3:5">
-      <c r="C14" s="31"/>
-      <c r="D14" s="32"/>
-      <c r="E14" s="33"/>
-    </row>
-    <row r="15" ht="34.5" spans="3:5">
-      <c r="C15" s="39" t="s">
+    <row r="13" spans="1:8">
+      <c r="C13" s="27"/>
+      <c r="D13" s="28"/>
+      <c r="E13" s="29"/>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="C14" s="27"/>
+      <c r="D14" s="28"/>
+      <c r="E14" s="29"/>
+    </row>
+    <row r="15" spans="1:8" ht="34.5">
+      <c r="C15" s="35" t="s">
         <v>26</v>
       </c>
-      <c r="D15" s="40" t="s">
+      <c r="D15" s="36" t="s">
         <v>27</v>
       </c>
-      <c r="E15" s="41" t="s">
+      <c r="E15" s="37" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="18" spans="3:3">
+    <row r="18" spans="3:5">
       <c r="C18" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="19" spans="3:5">
-      <c r="C19" s="42" t="s">
+      <c r="C19" s="45" t="s">
         <v>30</v>
       </c>
-      <c r="D19" s="42"/>
-      <c r="E19" s="42"/>
-    </row>
-    <row r="20" ht="18" spans="3:4">
-      <c r="C20" s="43" t="s">
+      <c r="D19" s="45"/>
+      <c r="E19" s="45"/>
+    </row>
+    <row r="20" spans="3:5" ht="18">
+      <c r="C20" s="38" t="s">
         <v>31</v>
       </c>
-      <c r="D20" s="21" t="s">
+      <c r="D20" s="20" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="21" ht="18" spans="3:4">
-      <c r="C21" s="43" t="s">
+    <row r="21" spans="3:5" ht="18">
+      <c r="C21" s="38" t="s">
         <v>33</v>
       </c>
-      <c r="D21" s="21" t="s">
+      <c r="D21" s="20" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="22" ht="18" spans="3:4">
-      <c r="C22" s="43" t="s">
+    <row r="22" spans="3:5" ht="18">
+      <c r="C22" s="38" t="s">
         <v>35</v>
       </c>
       <c r="D22" s="8" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="23" ht="18" spans="3:4">
-      <c r="C23" s="43" t="s">
+    <row r="23" spans="3:5" ht="18">
+      <c r="C23" s="38" t="s">
         <v>37</v>
       </c>
       <c r="D23" s="8" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="25" ht="69" customHeight="1" spans="3:5">
-      <c r="C25" s="44" t="s">
+    <row r="25" spans="3:5" ht="69" customHeight="1">
+      <c r="C25" s="39" t="s">
         <v>39</v>
       </c>
-      <c r="D25" s="22" t="s">
+      <c r="D25" s="42" t="s">
         <v>40</v>
       </c>
-      <c r="E25" s="22"/>
-    </row>
-    <row r="26" ht="14.25" customHeight="1" spans="3:5">
-      <c r="C26" s="32" t="s">
+      <c r="E25" s="42"/>
+    </row>
+    <row r="26" spans="3:5" ht="14.25" customHeight="1">
+      <c r="C26" s="28" t="s">
         <v>41</v>
       </c>
-      <c r="D26" s="22" t="s">
+      <c r="D26" s="42" t="s">
         <v>42</v>
       </c>
-      <c r="E26" s="22"/>
-    </row>
-    <row r="27" ht="51.75" spans="3:3">
-      <c r="C27" s="45" t="s">
+      <c r="E26" s="42"/>
+    </row>
+    <row r="27" spans="3:5" ht="51.75">
+      <c r="C27" s="40" t="s">
         <v>43</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="7">
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="D26:E26"/>
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="E3:G3"/>
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="C19:E19"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="D26:E26"/>
   </mergeCells>
-  <pageMargins left="0.697916666666667" right="0.697916666666667" top="0.75" bottom="0.75" header="0.510416666666667" footer="0.510416666666667"/>
+  <phoneticPr fontId="32" type="noConversion"/>
+  <pageMargins left="0.69791666666666696" right="0.69791666666666696" top="0.75" bottom="0.75" header="0.51041666666666696" footer="0.51041666666666696"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Y168"/>
   <sheetViews>
     <sheetView topLeftCell="C37" workbookViewId="0">
-      <selection activeCell="C52" sqref="$A52:$XFD52"/>
+      <selection activeCell="C52" sqref="A52:XFD52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25"/>
   <cols>
-    <col min="5" max="5" width="37.4444444444444" customWidth="1"/>
-    <col min="6" max="6" width="56.2222222222222" customWidth="1"/>
-    <col min="7" max="7" width="44.2222222222222" customWidth="1"/>
-    <col min="11" max="11" width="24.1111111111111" customWidth="1"/>
+    <col min="5" max="5" width="37.44140625" customWidth="1"/>
+    <col min="6" max="6" width="56.21875" customWidth="1"/>
+    <col min="7" max="7" width="44.21875" customWidth="1"/>
+    <col min="11" max="11" width="24.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:25">
       <c r="A1" s="1" t="s">
         <v>44</v>
       </c>
@@ -9802,7 +9308,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="4" spans="5:7">
+    <row r="4" spans="1:25">
       <c r="E4" s="2" t="s">
         <v>47</v>
       </c>
@@ -9890,7 +9396,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="8" spans="5:24">
+    <row r="8" spans="1:25">
       <c r="E8" t="s">
         <v>75</v>
       </c>
@@ -9940,7 +9446,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="9" spans="5:24">
+    <row r="9" spans="1:25">
       <c r="E9" t="s">
         <v>84</v>
       </c>
@@ -9997,7 +9503,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="10" spans="5:24">
+    <row r="10" spans="1:25">
       <c r="E10" t="s">
         <v>93</v>
       </c>
@@ -10045,7 +9551,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="11" spans="5:24">
+    <row r="11" spans="1:25">
       <c r="E11" t="s">
         <v>98</v>
       </c>
@@ -10095,7 +9601,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="12" spans="5:24">
+    <row r="12" spans="1:25">
       <c r="E12" t="s">
         <v>103</v>
       </c>
@@ -10149,7 +9655,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="13" spans="5:24">
+    <row r="13" spans="1:25">
       <c r="E13" t="s">
         <v>111</v>
       </c>
@@ -10206,7 +9712,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="14" spans="5:24">
+    <row r="14" spans="1:25">
       <c r="E14" t="s">
         <v>116</v>
       </c>
@@ -10254,7 +9760,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="15" spans="5:24">
+    <row r="15" spans="1:25">
       <c r="E15" t="s">
         <v>121</v>
       </c>
@@ -10302,7 +9808,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="16" spans="5:24">
+    <row r="16" spans="1:25">
       <c r="E16" t="s">
         <v>125</v>
       </c>
@@ -17843,28 +17349,27 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="32" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:G505"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D491" workbookViewId="0">
-      <selection activeCell="F509" sqref="F509"/>
+    <sheetView tabSelected="1" topLeftCell="D485" workbookViewId="0">
+      <selection activeCell="E504" sqref="E504"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25"/>
   <cols>
-    <col min="5" max="5" width="28.1111111111111" customWidth="1"/>
-    <col min="6" max="6" width="34.3333333333333" customWidth="1"/>
-    <col min="7" max="7" width="57.5555555555556" customWidth="1"/>
+    <col min="5" max="5" width="28.109375" customWidth="1"/>
+    <col min="6" max="6" width="34.33203125" customWidth="1"/>
+    <col min="7" max="7" width="57.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>44</v>
       </c>
@@ -17878,7 +17383,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="4" spans="5:7">
+    <row r="4" spans="1:7">
       <c r="E4" s="2" t="s">
         <v>47</v>
       </c>
@@ -17912,7 +17417,7 @@
         <v>770</v>
       </c>
     </row>
-    <row r="8" spans="5:7">
+    <row r="8" spans="1:7">
       <c r="E8" t="s">
         <v>771</v>
       </c>
@@ -17924,7 +17429,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="9" spans="5:7">
+    <row r="9" spans="1:7">
       <c r="E9" t="s">
         <v>773</v>
       </c>
@@ -17936,7 +17441,7 @@
         <v>774</v>
       </c>
     </row>
-    <row r="10" spans="5:7">
+    <row r="10" spans="1:7">
       <c r="E10" t="s">
         <v>775</v>
       </c>
@@ -17948,7 +17453,7 @@
         <v>776</v>
       </c>
     </row>
-    <row r="11" spans="5:7">
+    <row r="11" spans="1:7">
       <c r="E11" t="s">
         <v>777</v>
       </c>
@@ -17960,7 +17465,7 @@
         <v>778</v>
       </c>
     </row>
-    <row r="12" spans="5:7">
+    <row r="12" spans="1:7">
       <c r="E12" t="s">
         <v>779</v>
       </c>
@@ -17972,7 +17477,7 @@
         <v>780</v>
       </c>
     </row>
-    <row r="13" spans="5:7">
+    <row r="13" spans="1:7">
       <c r="E13" t="s">
         <v>781</v>
       </c>
@@ -17984,7 +17489,7 @@
         <v>782</v>
       </c>
     </row>
-    <row r="14" spans="5:7">
+    <row r="14" spans="1:7">
       <c r="E14" t="s">
         <v>783</v>
       </c>
@@ -17996,7 +17501,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="15" spans="5:7">
+    <row r="15" spans="1:7">
       <c r="E15" t="s">
         <v>785</v>
       </c>
@@ -18008,7 +17513,7 @@
         <v>786</v>
       </c>
     </row>
-    <row r="16" spans="5:7">
+    <row r="16" spans="1:7">
       <c r="E16" t="s">
         <v>787</v>
       </c>
@@ -23748,8 +23253,9 @@
       <c r="E494" s="15" t="s">
         <v>1545</v>
       </c>
-      <c r="F494" t="s">
-        <v>258</v>
+      <c r="F494" t="str">
+        <f>菜单SAAS版!E47</f>
+        <v>iam_menu-47</v>
       </c>
       <c r="G494" t="s">
         <v>1546</v>
@@ -23759,8 +23265,9 @@
       <c r="E495" s="15" t="s">
         <v>1547</v>
       </c>
-      <c r="F495" t="s">
-        <v>258</v>
+      <c r="F495" t="str">
+        <f>菜单SAAS版!E47</f>
+        <v>iam_menu-47</v>
       </c>
       <c r="G495" t="s">
         <v>1548</v>
@@ -23770,8 +23277,9 @@
       <c r="E496" s="15" t="s">
         <v>1549</v>
       </c>
-      <c r="F496" t="s">
-        <v>262</v>
+      <c r="F496" t="str">
+        <f>菜单SAAS版!E48</f>
+        <v>iam_menu-48</v>
       </c>
       <c r="G496" t="s">
         <v>1546</v>
@@ -23781,8 +23289,9 @@
       <c r="E497" s="15" t="s">
         <v>1550</v>
       </c>
-      <c r="F497" t="s">
-        <v>262</v>
+      <c r="F497" t="str">
+        <f>菜单SAAS版!E48</f>
+        <v>iam_menu-48</v>
       </c>
       <c r="G497" t="s">
         <v>1548</v>
@@ -23792,8 +23301,9 @@
       <c r="E498" s="15" t="s">
         <v>1551</v>
       </c>
-      <c r="F498" t="s">
-        <v>266</v>
+      <c r="F498" t="str">
+        <f>菜单SAAS版!E49</f>
+        <v>iam_menu-49</v>
       </c>
       <c r="G498" t="s">
         <v>1546</v>
@@ -23803,8 +23313,9 @@
       <c r="E499" s="15" t="s">
         <v>1552</v>
       </c>
-      <c r="F499" t="s">
-        <v>266</v>
+      <c r="F499" t="str">
+        <f>菜单SAAS版!E49</f>
+        <v>iam_menu-49</v>
       </c>
       <c r="G499" t="s">
         <v>1548</v>
@@ -23814,8 +23325,9 @@
       <c r="E500" s="15" t="s">
         <v>1553</v>
       </c>
-      <c r="F500" t="s">
-        <v>278</v>
+      <c r="F500" t="str">
+        <f>菜单SAAS版!E52</f>
+        <v>iam_menu-52</v>
       </c>
       <c r="G500" t="s">
         <v>1546</v>
@@ -23825,8 +23337,9 @@
       <c r="E501" s="15" t="s">
         <v>1554</v>
       </c>
-      <c r="F501" t="s">
-        <v>278</v>
+      <c r="F501" t="str">
+        <f>菜单SAAS版!E52</f>
+        <v>iam_menu-52</v>
       </c>
       <c r="G501" t="s">
         <v>1548</v>
@@ -23836,8 +23349,9 @@
       <c r="E502" s="15" t="s">
         <v>1555</v>
       </c>
-      <c r="F502" t="s">
-        <v>282</v>
+      <c r="F502" t="str">
+        <f>菜单SAAS版!E53</f>
+        <v>iam_menu-53</v>
       </c>
       <c r="G502" t="s">
         <v>1546</v>
@@ -23847,8 +23361,9 @@
       <c r="E503" s="15" t="s">
         <v>1556</v>
       </c>
-      <c r="F503" t="s">
-        <v>282</v>
+      <c r="F503" t="str">
+        <f>菜单SAAS版!E53</f>
+        <v>iam_menu-53</v>
       </c>
       <c r="G503" t="s">
         <v>1548</v>
@@ -23858,8 +23373,9 @@
       <c r="E504" s="15" t="s">
         <v>1557</v>
       </c>
-      <c r="F504" t="s">
-        <v>286</v>
+      <c r="F504" t="str">
+        <f>菜单SAAS版!E54</f>
+        <v>iam_menu-54</v>
       </c>
       <c r="G504" t="s">
         <v>1546</v>
@@ -23869,22 +23385,22 @@
       <c r="E505" s="15" t="s">
         <v>1558</v>
       </c>
-      <c r="F505" t="s">
-        <v>286</v>
+      <c r="F505" t="str">
+        <f>菜单SAAS版!E54</f>
+        <v>iam_menu-54</v>
       </c>
       <c r="G505" t="s">
         <v>1548</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="32" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:O117"/>
   <sheetViews>
     <sheetView topLeftCell="A22" workbookViewId="0">
@@ -23893,10 +23409,10 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25"/>
   <cols>
-    <col min="7" max="7" width="17.3333333333333" customWidth="1"/>
+    <col min="7" max="7" width="17.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:15">
       <c r="A1" s="1" t="s">
         <v>44</v>
       </c>
@@ -23910,7 +23426,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="4" spans="5:7">
+    <row r="4" spans="1:15">
       <c r="E4" s="2" t="s">
         <v>47</v>
       </c>
@@ -23968,7 +23484,7 @@
         <v>1570</v>
       </c>
     </row>
-    <row r="8" spans="5:15">
+    <row r="8" spans="1:15">
       <c r="E8" t="s">
         <v>1571</v>
       </c>
@@ -24000,7 +23516,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="9" spans="5:15">
+    <row r="9" spans="1:15">
       <c r="E9" t="s">
         <v>1576</v>
       </c>
@@ -24032,7 +23548,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="10" spans="5:15">
+    <row r="10" spans="1:15">
       <c r="E10" t="s">
         <v>1579</v>
       </c>
@@ -24058,7 +23574,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="11" spans="5:15">
+    <row r="11" spans="1:15">
       <c r="E11" t="s">
         <v>1582</v>
       </c>
@@ -24084,7 +23600,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="12" spans="5:15">
+    <row r="12" spans="1:15">
       <c r="E12" t="s">
         <v>1584</v>
       </c>
@@ -24116,7 +23632,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="13" spans="5:15">
+    <row r="13" spans="1:15">
       <c r="E13" t="s">
         <v>1587</v>
       </c>
@@ -24145,7 +23661,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="14" spans="5:15">
+    <row r="14" spans="1:15">
       <c r="E14" t="s">
         <v>1590</v>
       </c>
@@ -24174,7 +23690,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="15" spans="5:15">
+    <row r="15" spans="1:15">
       <c r="E15" t="s">
         <v>1593</v>
       </c>
@@ -24203,7 +23719,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="16" spans="5:15">
+    <row r="16" spans="1:15">
       <c r="E16" t="s">
         <v>1596</v>
       </c>
@@ -24232,7 +23748,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="17" spans="5:15">
+    <row r="17" spans="1:15">
       <c r="E17" t="s">
         <v>1599</v>
       </c>
@@ -24264,7 +23780,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="18" spans="5:15">
+    <row r="18" spans="1:15">
       <c r="E18" t="s">
         <v>1602</v>
       </c>
@@ -24296,7 +23812,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="19" spans="5:15">
+    <row r="19" spans="1:15">
       <c r="E19" t="s">
         <v>1605</v>
       </c>
@@ -24328,7 +23844,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="20" spans="5:15">
+    <row r="20" spans="1:15">
       <c r="E20" t="s">
         <v>1608</v>
       </c>
@@ -24354,7 +23870,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="21" spans="5:15">
+    <row r="21" spans="1:15">
       <c r="E21" t="s">
         <v>1610</v>
       </c>
@@ -24386,7 +23902,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="22" spans="5:15">
+    <row r="22" spans="1:15">
       <c r="E22" t="s">
         <v>1613</v>
       </c>
@@ -24418,7 +23934,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="23" spans="5:15">
+    <row r="23" spans="1:15">
       <c r="E23" t="s">
         <v>1616</v>
       </c>
@@ -24450,7 +23966,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="24" spans="5:15">
+    <row r="24" spans="1:15">
       <c r="E24" t="s">
         <v>1619</v>
       </c>
@@ -24476,7 +23992,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="25" spans="5:15">
+    <row r="25" spans="1:15">
       <c r="E25" t="s">
         <v>1621</v>
       </c>
@@ -24505,7 +24021,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="26" spans="5:15">
+    <row r="26" spans="1:15">
       <c r="E26" t="s">
         <v>1624</v>
       </c>
@@ -24534,7 +24050,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="28" spans="1:9">
+    <row r="28" spans="1:15">
       <c r="A28" t="s">
         <v>50</v>
       </c>
@@ -24563,7 +24079,7 @@
         <v>1633</v>
       </c>
     </row>
-    <row r="29" spans="5:9">
+    <row r="29" spans="1:15">
       <c r="E29" t="s">
         <v>1634</v>
       </c>
@@ -24582,7 +24098,7 @@
         <v>1635</v>
       </c>
     </row>
-    <row r="30" spans="5:9">
+    <row r="30" spans="1:15">
       <c r="E30" t="s">
         <v>1634</v>
       </c>
@@ -24601,7 +24117,7 @@
         <v>1635</v>
       </c>
     </row>
-    <row r="31" spans="5:9">
+    <row r="31" spans="1:15">
       <c r="E31" t="s">
         <v>1634</v>
       </c>
@@ -24620,7 +24136,7 @@
         <v>1635</v>
       </c>
     </row>
-    <row r="32" spans="5:9">
+    <row r="32" spans="1:15">
       <c r="E32" t="s">
         <v>1634</v>
       </c>
@@ -26255,14 +25771,13 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="32" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:Y406"/>
   <sheetViews>
     <sheetView topLeftCell="C381" workbookViewId="0">
@@ -26271,14 +25786,14 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25"/>
   <cols>
-    <col min="5" max="5" width="13.2222222222222" customWidth="1"/>
-    <col min="6" max="6" width="15.6666666666667" customWidth="1"/>
+    <col min="5" max="5" width="13.21875" customWidth="1"/>
+    <col min="6" max="6" width="15.6640625" customWidth="1"/>
     <col min="7" max="7" width="17" customWidth="1"/>
-    <col min="21" max="21" width="14.4444444444444" customWidth="1"/>
-    <col min="22" max="22" width="14.8888888888889" customWidth="1"/>
+    <col min="21" max="21" width="14.44140625" customWidth="1"/>
+    <col min="22" max="22" width="14.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:25">
       <c r="A1" s="1" t="s">
         <v>44</v>
       </c>
@@ -26292,7 +25807,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="4" spans="5:7">
+    <row r="4" spans="1:25">
       <c r="E4" s="2" t="s">
         <v>47</v>
       </c>
@@ -26380,7 +25895,7 @@
         <v>1651</v>
       </c>
     </row>
-    <row r="8" spans="5:23">
+    <row r="8" spans="1:25">
       <c r="E8" t="s">
         <v>1652</v>
       </c>
@@ -26439,7 +25954,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="9" spans="5:23">
+    <row r="9" spans="1:25">
       <c r="E9" t="s">
         <v>1658</v>
       </c>
@@ -26498,7 +26013,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="10" spans="5:25">
+    <row r="10" spans="1:25">
       <c r="E10" t="s">
         <v>1663</v>
       </c>
@@ -26561,7 +26076,7 @@
         <v>1670</v>
       </c>
     </row>
-    <row r="11" spans="5:25">
+    <row r="11" spans="1:25">
       <c r="E11" t="s">
         <v>1671</v>
       </c>
@@ -26624,7 +26139,7 @@
         <v>1678</v>
       </c>
     </row>
-    <row r="12" spans="5:25">
+    <row r="12" spans="1:25">
       <c r="E12" t="s">
         <v>1679</v>
       </c>
@@ -26687,7 +26202,7 @@
         <v>1686</v>
       </c>
     </row>
-    <row r="13" spans="5:25">
+    <row r="13" spans="1:25">
       <c r="E13" t="s">
         <v>1687</v>
       </c>
@@ -26750,7 +26265,7 @@
         <v>1694</v>
       </c>
     </row>
-    <row r="14" spans="5:23">
+    <row r="14" spans="1:25">
       <c r="E14" t="s">
         <v>1695</v>
       </c>
@@ -26807,7 +26322,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:10">
+    <row r="16" spans="1:25">
       <c r="A16" t="s">
         <v>50</v>
       </c>
@@ -35420,23 +34935,20 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="32" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:O35"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView topLeftCell="A25" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:15">
       <c r="A1" s="1" t="s">
         <v>44</v>
       </c>
@@ -35450,7 +34962,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="4" spans="5:7">
+    <row r="4" spans="1:15">
       <c r="E4" s="2" t="s">
         <v>47</v>
       </c>
@@ -35508,7 +35020,7 @@
         <v>1570</v>
       </c>
     </row>
-    <row r="8" spans="5:15">
+    <row r="8" spans="1:15">
       <c r="E8" t="s">
         <v>1571</v>
       </c>
@@ -35540,7 +35052,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="9" spans="5:15">
+    <row r="9" spans="1:15">
       <c r="E9" t="s">
         <v>1576</v>
       </c>
@@ -35569,7 +35081,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="10" spans="5:15">
+    <row r="10" spans="1:15">
       <c r="E10" t="s">
         <v>1579</v>
       </c>
@@ -35601,7 +35113,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="11" spans="5:15">
+    <row r="11" spans="1:15">
       <c r="E11" t="s">
         <v>1582</v>
       </c>
@@ -35633,7 +35145,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="12" spans="5:15">
+    <row r="12" spans="1:15">
       <c r="E12" t="s">
         <v>1584</v>
       </c>
@@ -35665,7 +35177,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="13" spans="5:15">
+    <row r="13" spans="1:15">
       <c r="E13" t="s">
         <v>1587</v>
       </c>
@@ -35697,7 +35209,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="14" spans="5:15">
+    <row r="14" spans="1:15">
       <c r="E14" t="s">
         <v>1590</v>
       </c>
@@ -35729,7 +35241,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="15" spans="5:15">
+    <row r="15" spans="1:15">
       <c r="E15" t="s">
         <v>1593</v>
       </c>
@@ -35761,7 +35273,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="16" spans="5:15">
+    <row r="16" spans="1:15">
       <c r="E16" t="s">
         <v>1596</v>
       </c>
@@ -35793,7 +35305,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="17" spans="5:15">
+    <row r="17" spans="1:15">
       <c r="E17" t="s">
         <v>1599</v>
       </c>
@@ -35825,7 +35337,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="18" spans="5:15">
+    <row r="18" spans="1:15">
       <c r="E18" t="s">
         <v>1602</v>
       </c>
@@ -35857,7 +35369,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="19" spans="5:15">
+    <row r="19" spans="1:15">
       <c r="E19" t="s">
         <v>1605</v>
       </c>
@@ -35889,7 +35401,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="21" spans="1:9">
+    <row r="21" spans="1:15">
       <c r="A21" t="s">
         <v>50</v>
       </c>
@@ -35918,7 +35430,7 @@
         <v>1633</v>
       </c>
     </row>
-    <row r="22" spans="5:9">
+    <row r="22" spans="1:15">
       <c r="E22" t="s">
         <v>1634</v>
       </c>
@@ -35937,7 +35449,7 @@
         <v>1636</v>
       </c>
     </row>
-    <row r="23" spans="5:9">
+    <row r="23" spans="1:15">
       <c r="E23" t="s">
         <v>1634</v>
       </c>
@@ -35956,7 +35468,7 @@
         <v>1636</v>
       </c>
     </row>
-    <row r="24" spans="5:9">
+    <row r="24" spans="1:15">
       <c r="E24" t="s">
         <v>1634</v>
       </c>
@@ -35975,7 +35487,7 @@
         <v>1636</v>
       </c>
     </row>
-    <row r="25" spans="5:9">
+    <row r="25" spans="1:15">
       <c r="E25" t="s">
         <v>1634</v>
       </c>
@@ -35994,7 +35506,7 @@
         <v>1636</v>
       </c>
     </row>
-    <row r="26" spans="5:9">
+    <row r="26" spans="1:15">
       <c r="E26" t="s">
         <v>1634</v>
       </c>
@@ -36013,7 +35525,7 @@
         <v>1636</v>
       </c>
     </row>
-    <row r="27" spans="5:9">
+    <row r="27" spans="1:15">
       <c r="E27" t="s">
         <v>1634</v>
       </c>
@@ -36032,7 +35544,7 @@
         <v>1636</v>
       </c>
     </row>
-    <row r="28" spans="5:9">
+    <row r="28" spans="1:15">
       <c r="E28" t="s">
         <v>1634</v>
       </c>
@@ -36051,7 +35563,7 @@
         <v>1636</v>
       </c>
     </row>
-    <row r="29" spans="5:9">
+    <row r="29" spans="1:15">
       <c r="E29" t="s">
         <v>1634</v>
       </c>
@@ -36070,7 +35582,7 @@
         <v>1636</v>
       </c>
     </row>
-    <row r="30" spans="5:9">
+    <row r="30" spans="1:15">
       <c r="E30" t="s">
         <v>1634</v>
       </c>
@@ -36089,7 +35601,7 @@
         <v>1636</v>
       </c>
     </row>
-    <row r="31" spans="5:9">
+    <row r="31" spans="1:15">
       <c r="E31" t="s">
         <v>1634</v>
       </c>
@@ -36108,7 +35620,7 @@
         <v>1636</v>
       </c>
     </row>
-    <row r="32" spans="5:9">
+    <row r="32" spans="1:15">
       <c r="E32" t="s">
         <v>1634</v>
       </c>
@@ -36185,8 +35697,8 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="32" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
-  <headerFooter/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
--- a/src/main/resources/script/db/init-data/devops_service/hzero_platform/hzero-menu-user-role-label.xlsx
+++ b/src/main/resources/script/db/init-data/devops_service/hzero_platform/hzero-menu-user-role-label.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\projcect\devops\devops-service\src\main\resources\script\db\init-data\devops_service\hzero_platform\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9E1BA63-3C3F-4974-85CD-D59B29BF3E8A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DA04497-CDEC-49CC-BBAC-265CC225F3A0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="597" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5810" uniqueCount="2132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5814" uniqueCount="2135">
   <si>
     <r>
       <rPr>
@@ -48,7 +48,6 @@
         <sz val="12"/>
         <color rgb="FFFF0000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>merge</t>
     </r>
@@ -80,7 +79,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">sheet </t>
     </r>
@@ -99,7 +97,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>,</t>
     </r>
@@ -118,7 +115,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">D7 </t>
     </r>
@@ -169,7 +165,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>(</t>
     </r>
@@ -188,7 +183,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>,</t>
     </r>
@@ -207,7 +201,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>)</t>
     </r>
@@ -230,7 +223,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>,</t>
     </r>
@@ -251,7 +243,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>,</t>
     </r>
@@ -273,7 +264,6 @@
         <sz val="12"/>
         <color rgb="FFC55A11"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>*</t>
     </r>
@@ -294,7 +284,6 @@
         <sz val="12"/>
         <color rgb="FF2E75B6"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>#</t>
     </r>
@@ -325,7 +314,6 @@
         <sz val="12"/>
         <color rgb="FF548235"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>=</t>
     </r>
@@ -356,7 +344,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>,</t>
     </r>
@@ -375,7 +362,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">,sheet </t>
     </r>
@@ -394,7 +380,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>,</t>
     </r>
@@ -413,7 +398,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>,</t>
     </r>
@@ -432,7 +416,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>!</t>
     </r>
@@ -461,7 +444,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>*</t>
     </r>
@@ -480,7 +462,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">, </t>
     </r>
@@ -499,7 +480,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>,</t>
     </r>
@@ -518,7 +498,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>,</t>
     </r>
@@ -549,7 +528,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>(</t>
     </r>
@@ -568,7 +546,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>)</t>
     </r>
@@ -587,7 +564,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">.
 </t>
@@ -607,7 +583,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>,</t>
     </r>
@@ -626,7 +601,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">*
 </t>
@@ -646,7 +620,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>,</t>
     </r>
@@ -677,7 +650,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">oracle </t>
     </r>
@@ -696,7 +668,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>,</t>
     </r>
@@ -720,7 +691,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>#</t>
     </r>
@@ -739,7 +709,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>,</t>
     </r>
@@ -758,7 +727,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>#</t>
     </r>
@@ -777,7 +745,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>,</t>
     </r>
@@ -796,7 +763,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>,</t>
     </r>
@@ -827,7 +793,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>.</t>
     </r>
@@ -858,7 +823,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>,</t>
     </r>
@@ -889,7 +853,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>#</t>
     </r>
@@ -908,7 +871,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>,</t>
     </r>
@@ -932,7 +894,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>(TYPE)</t>
     </r>
@@ -951,7 +912,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>,</t>
     </r>
@@ -970,7 +930,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>:
 _ID</t>
@@ -990,7 +949,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">;
 _DATE </t>
@@ -1010,7 +968,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">;
 </t>
@@ -1030,7 +987,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>VARCHAR</t>
     </r>
@@ -1051,7 +1007,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">.
 </t>
@@ -1071,7 +1026,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>:
 yyyy-MM-dd HH:mm:ss
@@ -1087,7 +1041,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">:LANG </t>
     </r>
@@ -1108,7 +1061,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">TL </t>
     </r>
@@ -1139,7 +1091,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>(</t>
     </r>
@@ -1158,7 +1109,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>)</t>
     </r>
@@ -1179,7 +1129,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>,</t>
     </r>
@@ -1211,7 +1160,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>,</t>
     </r>
@@ -1230,7 +1178,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>,</t>
     </r>
@@ -1249,7 +1196,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>,</t>
     </r>
@@ -1283,7 +1229,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>.</t>
     </r>
@@ -1302,7 +1247,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">Excel </t>
     </r>
@@ -1321,7 +1265,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>,</t>
     </r>
@@ -1340,7 +1283,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>,</t>
     </r>
@@ -1385,7 +1327,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">E9 </t>
     </r>
@@ -1430,7 +1371,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">E9 </t>
     </r>
@@ -1464,7 +1404,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">RESOURCE </t>
     </r>
@@ -1483,7 +1422,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">E23 </t>
     </r>
@@ -1502,7 +1440,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>(</t>
     </r>
@@ -1522,7 +1459,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>)</t>
     </r>
@@ -1546,7 +1482,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">RESOURCE </t>
     </r>
@@ -1565,7 +1500,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">E23 </t>
     </r>
@@ -1584,7 +1518,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>(</t>
     </r>
@@ -1604,7 +1537,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>)</t>
     </r>
@@ -1658,7 +1590,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>:</t>
     </r>
@@ -1677,7 +1608,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">F10 </t>
     </r>
@@ -1696,7 +1626,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">A9 </t>
     </r>
@@ -1716,7 +1645,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">F10 </t>
     </r>
@@ -1735,7 +1663,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">F11 </t>
     </r>
@@ -1754,7 +1681,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">, F11 </t>
     </r>
@@ -1773,7 +1699,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">A10
 </t>
@@ -1793,7 +1718,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">F10 </t>
     </r>
@@ -1812,7 +1736,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">G11 </t>
     </r>
@@ -1831,7 +1754,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">, G11 </t>
     </r>
@@ -1850,7 +1772,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">B10
 </t>
@@ -1915,7 +1836,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>,</t>
     </r>
@@ -1946,7 +1866,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>,</t>
     </r>
@@ -1965,7 +1884,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">.
 </t>
@@ -8259,11 +8177,12 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>-iam.choerodon-project.listOrgProjectsWithLimitExceptSelf</t>
     </r>
-    <phoneticPr fontId="32" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>choerodon-iam.choerodon-project.listOrgProjectsWithLimitExceptSelf</t>
@@ -8285,13 +8204,22 @@
   </si>
   <si>
     <t>prod-repo-service.nexus-choerodon.listMavenArtifactId</t>
+  </si>
+  <si>
+    <t>devops-service.devops-environment.deletePermissionOfUser</t>
+  </si>
+  <si>
+    <t>iam_menu_permission-506</t>
+  </si>
+  <si>
+    <t>iam_menu_permission-507</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="33">
+  <fonts count="31">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -8327,12 +8255,14 @@
       <sz val="12"/>
       <color theme="9" tint="-0.249977111117893"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <color theme="9" tint="-0.249977111117893"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
@@ -8340,47 +8270,55 @@
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FFFF0000"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FFFFC000"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF00B0F0"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF92D050"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FFFF0000"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
@@ -8388,43 +8326,43 @@
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FFC55A11"/>
       <name val="DengXian"/>
-      <charset val="134"/>
+      <family val="1"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF2E75B6"/>
       <name val="DengXian"/>
-      <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF548235"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="DengXian"/>
-      <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FFFF0000"/>
       <name val="DengXian"/>
-      <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
@@ -8442,16 +8380,7 @@
       <b/>
       <sz val="12"/>
       <color rgb="FF000000"/>
-      <name val="微软雅黑"/>
-      <family val="2"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
       <name val="DengXian"/>
-      <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
@@ -8470,22 +8399,7 @@
     <font>
       <sz val="12"/>
       <color rgb="FF548235"/>
-      <name val="微软雅黑"/>
-      <family val="2"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF548235"/>
       <name val="DengXian"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FFFF0000"/>
-      <name val="微软雅黑"/>
-      <family val="2"/>
-      <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
@@ -8499,6 +8413,11 @@
       <name val="微软雅黑"/>
       <family val="2"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFC55A11"/>
+      <name val="DengXian"/>
     </font>
   </fonts>
   <fills count="6">
@@ -8705,6 +8624,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -8720,7 +8640,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -9089,11 +9008,11 @@
   <sheetData>
     <row r="1" spans="1:8" ht="64.5" customHeight="1">
       <c r="A1" s="18"/>
-      <c r="C1" s="42" t="s">
+      <c r="C1" s="43" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="42"/>
-      <c r="E1" s="42"/>
+      <c r="D1" s="43"/>
+      <c r="E1" s="43"/>
       <c r="F1" s="19"/>
       <c r="G1" s="19"/>
       <c r="H1" s="19"/>
@@ -9102,21 +9021,21 @@
       <c r="E2" s="20"/>
     </row>
     <row r="3" spans="1:8" ht="49.5" customHeight="1">
-      <c r="C3" s="41" t="s">
+      <c r="C3" s="42" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="41"/>
-      <c r="E3" s="43" t="s">
+      <c r="D3" s="42"/>
+      <c r="E3" s="44" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="43"/>
-      <c r="G3" s="43"/>
+      <c r="F3" s="44"/>
+      <c r="G3" s="44"/>
     </row>
     <row r="4" spans="1:8" ht="18">
-      <c r="C4" s="44" t="s">
+      <c r="C4" s="45" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="44"/>
+      <c r="D4" s="45"/>
       <c r="E4" s="21" t="s">
         <v>4</v>
       </c>
@@ -9227,11 +9146,11 @@
       </c>
     </row>
     <row r="19" spans="3:5">
-      <c r="C19" s="45" t="s">
+      <c r="C19" s="46" t="s">
         <v>30</v>
       </c>
-      <c r="D19" s="45"/>
-      <c r="E19" s="45"/>
+      <c r="D19" s="46"/>
+      <c r="E19" s="46"/>
     </row>
     <row r="20" spans="3:5" ht="18">
       <c r="C20" s="38" t="s">
@@ -9269,19 +9188,19 @@
       <c r="C25" s="39" t="s">
         <v>39</v>
       </c>
-      <c r="D25" s="41" t="s">
+      <c r="D25" s="42" t="s">
         <v>40</v>
       </c>
-      <c r="E25" s="41"/>
+      <c r="E25" s="42"/>
     </row>
     <row r="26" spans="3:5" ht="14.25" customHeight="1">
       <c r="C26" s="28" t="s">
         <v>41</v>
       </c>
-      <c r="D26" s="41" t="s">
+      <c r="D26" s="42" t="s">
         <v>42</v>
       </c>
-      <c r="E26" s="41"/>
+      <c r="E26" s="42"/>
     </row>
     <row r="27" spans="3:5" ht="51.75">
       <c r="C27" s="40" t="s">
@@ -9298,7 +9217,7 @@
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="C19:E19"/>
   </mergeCells>
-  <phoneticPr fontId="32" type="noConversion"/>
+  <phoneticPr fontId="29" type="noConversion"/>
   <pageMargins left="0.69791666666666696" right="0.69791666666666696" top="0.75" bottom="0.75" header="0.51041666666666696" footer="0.51041666666666696"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
@@ -9308,7 +9227,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Y168"/>
   <sheetViews>
-    <sheetView topLeftCell="C37" workbookViewId="0">
+    <sheetView topLeftCell="C115" workbookViewId="0">
       <selection activeCell="C52" sqref="A52:XFD52"/>
     </sheetView>
   </sheetViews>
@@ -17375,17 +17294,17 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="32" type="noConversion"/>
+  <phoneticPr fontId="29" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:G505"/>
+  <dimension ref="A1:G507"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A484" workbookViewId="0">
-      <selection activeCell="G452" sqref="G452"/>
+    <sheetView tabSelected="1" topLeftCell="A487" workbookViewId="0">
+      <selection activeCell="F508" sqref="F508"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25"/>
@@ -20847,7 +20766,7 @@
         <f>菜单SAAS版!$E$137</f>
         <v>iam_menu-137</v>
       </c>
-      <c r="G291" s="46" t="s">
+      <c r="G291" s="41" t="s">
         <v>2124</v>
       </c>
     </row>
@@ -22755,7 +22674,7 @@
         <f>菜单SAAS版!$E$141</f>
         <v>iam_menu-141</v>
       </c>
-      <c r="G450" s="46" t="s">
+      <c r="G450" s="41" t="s">
         <v>2126</v>
       </c>
     </row>
@@ -23419,8 +23338,32 @@
         <v>1541</v>
       </c>
     </row>
+    <row r="506" spans="5:7">
+      <c r="E506" s="15" t="s">
+        <v>2133</v>
+      </c>
+      <c r="F506" t="str">
+        <f>菜单SAAS版!E95</f>
+        <v>iam_menu-95</v>
+      </c>
+      <c r="G506" t="s">
+        <v>1537</v>
+      </c>
+    </row>
+    <row r="507" spans="5:7">
+      <c r="E507" s="15" t="s">
+        <v>2134</v>
+      </c>
+      <c r="F507" t="str">
+        <f>菜单SAAS版!E131</f>
+        <v>iam_menu-131</v>
+      </c>
+      <c r="G507" t="s">
+        <v>2132</v>
+      </c>
+    </row>
   </sheetData>
-  <phoneticPr fontId="32" type="noConversion"/>
+  <phoneticPr fontId="29" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -25797,7 +25740,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="32" type="noConversion"/>
+  <phoneticPr fontId="29" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -34961,7 +34904,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="32" type="noConversion"/>
+  <phoneticPr fontId="29" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -35723,7 +35666,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="32" type="noConversion"/>
+  <phoneticPr fontId="29" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>

--- a/src/main/resources/script/db/init-data/devops_service/hzero_platform/hzero-menu-user-role-label.xlsx
+++ b/src/main/resources/script/db/init-data/devops_service/hzero_platform/hzero-menu-user-role-label.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\projcect\devops\devops-service\src\main\resources\script\db\init-data\devops_service\hzero_platform\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{967CA53C-8DCD-446B-8A67-D596407F5CA8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{486A9C6F-6778-4205-938D-0CA1CD427718}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="597" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="597" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="1" r:id="rId1"/>
@@ -8950,6 +8950,8 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -8965,8 +8967,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -9315,54 +9315,54 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999"/>
   <cols>
-    <col min="1" max="1" width="15.5546875" style="15" customWidth="1"/>
+    <col min="1" max="1" width="15.58203125" style="15" customWidth="1"/>
     <col min="2" max="2" width="10.33203125" style="16" customWidth="1"/>
-    <col min="3" max="3" width="28.109375" customWidth="1"/>
+    <col min="3" max="3" width="28.08203125" customWidth="1"/>
     <col min="4" max="4" width="35.33203125" style="9" customWidth="1"/>
-    <col min="5" max="5" width="38.5546875" customWidth="1"/>
-    <col min="6" max="6" width="23.44140625" customWidth="1"/>
-    <col min="7" max="7" width="21.5546875" customWidth="1"/>
+    <col min="5" max="5" width="38.58203125" customWidth="1"/>
+    <col min="6" max="6" width="23.4140625" customWidth="1"/>
+    <col min="7" max="7" width="21.58203125" customWidth="1"/>
     <col min="8" max="8" width="22" customWidth="1"/>
-    <col min="9" max="9" width="24.5546875" customWidth="1"/>
+    <col min="9" max="9" width="24.58203125" customWidth="1"/>
     <col min="10" max="10" width="27" customWidth="1"/>
-    <col min="11" max="11" width="19.109375" customWidth="1"/>
-    <col min="12" max="12" width="18.5546875" customWidth="1"/>
-    <col min="13" max="13" width="13.109375" customWidth="1"/>
+    <col min="11" max="11" width="19.08203125" customWidth="1"/>
+    <col min="12" max="12" width="18.58203125" customWidth="1"/>
+    <col min="13" max="13" width="13.08203125" customWidth="1"/>
     <col min="14" max="1025" width="10.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="64.5" customHeight="1">
       <c r="A1" s="17"/>
-      <c r="C1" s="42" t="s">
+      <c r="C1" s="44" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="42"/>
-      <c r="E1" s="42"/>
+      <c r="D1" s="44"/>
+      <c r="E1" s="44"/>
       <c r="F1" s="18"/>
       <c r="G1" s="18"/>
       <c r="H1" s="18"/>
     </row>
-    <row r="2" spans="1:8" ht="18">
+    <row r="2" spans="1:8">
       <c r="E2" s="19"/>
     </row>
     <row r="3" spans="1:8" ht="49.5" customHeight="1">
-      <c r="C3" s="41" t="s">
+      <c r="C3" s="43" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="41"/>
-      <c r="E3" s="43" t="s">
+      <c r="D3" s="43"/>
+      <c r="E3" s="45" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="43"/>
-      <c r="G3" s="43"/>
-    </row>
-    <row r="4" spans="1:8" ht="18">
-      <c r="C4" s="44" t="s">
+      <c r="F3" s="45"/>
+      <c r="G3" s="45"/>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="C4" s="46" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="44"/>
+      <c r="D4" s="46"/>
       <c r="E4" s="20" t="s">
         <v>4</v>
       </c>
@@ -9379,7 +9379,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="18">
+    <row r="7" spans="1:8">
       <c r="C7" s="23" t="s">
         <v>8</v>
       </c>
@@ -9399,7 +9399,7 @@
       </c>
       <c r="E8" s="28"/>
     </row>
-    <row r="9" spans="1:8" ht="51.75">
+    <row r="9" spans="1:8" ht="52.2">
       <c r="C9" s="29" t="s">
         <v>13</v>
       </c>
@@ -9413,7 +9413,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="51.75">
+    <row r="10" spans="1:8" ht="52.2">
       <c r="C10" s="32" t="s">
         <v>17</v>
       </c>
@@ -9424,7 +9424,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="69">
+    <row r="11" spans="1:8" ht="69.599999999999994">
       <c r="C11" s="26" t="s">
         <v>20</v>
       </c>
@@ -9456,7 +9456,7 @@
       <c r="D14" s="27"/>
       <c r="E14" s="28"/>
     </row>
-    <row r="15" spans="1:8" ht="34.5">
+    <row r="15" spans="1:8" ht="34.799999999999997">
       <c r="C15" s="34" t="s">
         <v>26</v>
       </c>
@@ -9473,13 +9473,13 @@
       </c>
     </row>
     <row r="19" spans="3:5">
-      <c r="C19" s="45" t="s">
+      <c r="C19" s="47" t="s">
         <v>30</v>
       </c>
-      <c r="D19" s="45"/>
-      <c r="E19" s="45"/>
-    </row>
-    <row r="20" spans="3:5" ht="18">
+      <c r="D19" s="47"/>
+      <c r="E19" s="47"/>
+    </row>
+    <row r="20" spans="3:5">
       <c r="C20" s="37" t="s">
         <v>31</v>
       </c>
@@ -9487,7 +9487,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="21" spans="3:5" ht="18">
+    <row r="21" spans="3:5">
       <c r="C21" s="37" t="s">
         <v>33</v>
       </c>
@@ -9495,7 +9495,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="22" spans="3:5" ht="18">
+    <row r="22" spans="3:5">
       <c r="C22" s="37" t="s">
         <v>35</v>
       </c>
@@ -9503,7 +9503,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="23" spans="3:5" ht="18">
+    <row r="23" spans="3:5">
       <c r="C23" s="37" t="s">
         <v>37</v>
       </c>
@@ -9515,21 +9515,21 @@
       <c r="C25" s="38" t="s">
         <v>39</v>
       </c>
-      <c r="D25" s="41" t="s">
+      <c r="D25" s="43" t="s">
         <v>40</v>
       </c>
-      <c r="E25" s="41"/>
+      <c r="E25" s="43"/>
     </row>
     <row r="26" spans="3:5" ht="14.25" customHeight="1">
       <c r="C26" s="27" t="s">
         <v>41</v>
       </c>
-      <c r="D26" s="41" t="s">
+      <c r="D26" s="43" t="s">
         <v>42</v>
       </c>
-      <c r="E26" s="41"/>
-    </row>
-    <row r="27" spans="3:5" ht="51.75">
+      <c r="E26" s="43"/>
+    </row>
+    <row r="27" spans="3:5" ht="52.2">
       <c r="C27" s="39" t="s">
         <v>43</v>
       </c>
@@ -9554,16 +9554,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Y175"/>
   <sheetViews>
-    <sheetView topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="E31" sqref="E31"/>
+    <sheetView topLeftCell="B15" workbookViewId="0">
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999"/>
   <cols>
-    <col min="5" max="5" width="37.44140625" customWidth="1"/>
-    <col min="6" max="6" width="56.21875" customWidth="1"/>
-    <col min="7" max="7" width="44.21875" customWidth="1"/>
-    <col min="11" max="11" width="24.109375" customWidth="1"/>
+    <col min="5" max="5" width="37.4140625" customWidth="1"/>
+    <col min="6" max="6" width="56.25" customWidth="1"/>
+    <col min="7" max="7" width="44.25" customWidth="1"/>
+    <col min="11" max="11" width="24.08203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:25">
@@ -10513,7 +10513,7 @@
       </c>
     </row>
     <row r="25" spans="5:24">
-      <c r="E25" s="46" t="s">
+      <c r="E25" s="41" t="s">
         <v>161</v>
       </c>
       <c r="F25" t="s">
@@ -10570,7 +10570,7 @@
       </c>
     </row>
     <row r="26" spans="5:24">
-      <c r="E26" s="46" t="s">
+      <c r="E26" s="41" t="s">
         <v>169</v>
       </c>
       <c r="F26" t="s">
@@ -10618,7 +10618,7 @@
       </c>
     </row>
     <row r="27" spans="5:24">
-      <c r="E27" s="46" t="s">
+      <c r="E27" s="41" t="s">
         <v>173</v>
       </c>
       <c r="F27" t="s">
@@ -10666,7 +10666,7 @@
       </c>
     </row>
     <row r="28" spans="5:24">
-      <c r="E28" s="46" t="s">
+      <c r="E28" s="41" t="s">
         <v>177</v>
       </c>
       <c r="F28" t="s">
@@ -10714,7 +10714,7 @@
       </c>
     </row>
     <row r="29" spans="5:24">
-      <c r="E29" s="46" t="s">
+      <c r="E29" s="41" t="s">
         <v>181</v>
       </c>
       <c r="F29" t="s">
@@ -10762,7 +10762,7 @@
       </c>
     </row>
     <row r="30" spans="5:24">
-      <c r="E30" s="46" t="s">
+      <c r="E30" s="41" t="s">
         <v>185</v>
       </c>
       <c r="F30" t="s">
@@ -10810,7 +10810,7 @@
       </c>
     </row>
     <row r="31" spans="5:24">
-      <c r="E31" s="46" t="s">
+      <c r="E31" s="41" t="s">
         <v>189</v>
       </c>
       <c r="F31" t="s">
@@ -10858,7 +10858,7 @@
       </c>
     </row>
     <row r="32" spans="5:24">
-      <c r="E32" s="46" t="s">
+      <c r="E32" s="41" t="s">
         <v>193</v>
       </c>
       <c r="F32" t="s">
@@ -10906,7 +10906,7 @@
       </c>
     </row>
     <row r="33" spans="5:24">
-      <c r="E33" s="46" t="s">
+      <c r="E33" s="41" t="s">
         <v>197</v>
       </c>
       <c r="F33" t="s">
@@ -17993,15 +17993,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:G530"/>
   <sheetViews>
-    <sheetView topLeftCell="D197" workbookViewId="0">
-      <selection activeCell="E220" sqref="E220"/>
+    <sheetView tabSelected="1" topLeftCell="D217" workbookViewId="0">
+      <selection activeCell="E228" sqref="E228"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999"/>
   <cols>
-    <col min="5" max="5" width="28.109375" customWidth="1"/>
+    <col min="5" max="5" width="28.08203125" customWidth="1"/>
     <col min="6" max="6" width="34.33203125" customWidth="1"/>
-    <col min="7" max="7" width="57.5546875" customWidth="1"/>
+    <col min="7" max="7" width="57.58203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -18149,7 +18149,7 @@
       </c>
     </row>
     <row r="16" spans="1:7">
-      <c r="E16" s="46" t="s">
+      <c r="E16" s="41" t="s">
         <v>817</v>
       </c>
       <c r="F16" t="str">
@@ -18161,7 +18161,7 @@
       </c>
     </row>
     <row r="17" spans="5:7">
-      <c r="E17" s="46" t="s">
+      <c r="E17" s="41" t="s">
         <v>818</v>
       </c>
       <c r="F17" t="str">
@@ -19553,7 +19553,7 @@
       </c>
     </row>
     <row r="133" spans="5:7">
-      <c r="E133" t="s">
+      <c r="E133" s="41" t="s">
         <v>1024</v>
       </c>
       <c r="F133" t="str">
@@ -19565,7 +19565,7 @@
       </c>
     </row>
     <row r="134" spans="5:7">
-      <c r="E134" t="s">
+      <c r="E134" s="41" t="s">
         <v>1026</v>
       </c>
       <c r="F134" t="str">
@@ -19577,7 +19577,7 @@
       </c>
     </row>
     <row r="135" spans="5:7">
-      <c r="E135" t="s">
+      <c r="E135" s="41" t="s">
         <v>1027</v>
       </c>
       <c r="F135" t="str">
@@ -19589,7 +19589,7 @@
       </c>
     </row>
     <row r="136" spans="5:7">
-      <c r="E136" t="s">
+      <c r="E136" s="41" t="s">
         <v>1028</v>
       </c>
       <c r="F136" t="str">
@@ -19601,7 +19601,7 @@
       </c>
     </row>
     <row r="137" spans="5:7">
-      <c r="E137" t="s">
+      <c r="E137" s="41" t="s">
         <v>1029</v>
       </c>
       <c r="F137" t="str">
@@ -19613,7 +19613,7 @@
       </c>
     </row>
     <row r="138" spans="5:7">
-      <c r="E138" t="s">
+      <c r="E138" s="41" t="s">
         <v>1031</v>
       </c>
       <c r="F138" t="str">
@@ -19625,7 +19625,7 @@
       </c>
     </row>
     <row r="139" spans="5:7">
-      <c r="E139" t="s">
+      <c r="E139" s="41" t="s">
         <v>1033</v>
       </c>
       <c r="F139" t="str">
@@ -20513,7 +20513,7 @@
       </c>
     </row>
     <row r="213" spans="5:7">
-      <c r="E213" s="46" t="s">
+      <c r="E213" s="41" t="s">
         <v>1146</v>
       </c>
       <c r="F213" t="str">
@@ -20525,7 +20525,7 @@
       </c>
     </row>
     <row r="214" spans="5:7">
-      <c r="E214" s="46" t="s">
+      <c r="E214" s="41" t="s">
         <v>1147</v>
       </c>
       <c r="F214" t="str">
@@ -20537,7 +20537,7 @@
       </c>
     </row>
     <row r="215" spans="5:7">
-      <c r="E215" s="46" t="s">
+      <c r="E215" s="41" t="s">
         <v>1148</v>
       </c>
       <c r="F215" t="str">
@@ -20549,7 +20549,7 @@
       </c>
     </row>
     <row r="216" spans="5:7">
-      <c r="E216" s="46" t="s">
+      <c r="E216" s="41" t="s">
         <v>1149</v>
       </c>
       <c r="F216" t="str">
@@ -20561,7 +20561,7 @@
       </c>
     </row>
     <row r="217" spans="5:7">
-      <c r="E217" s="46" t="s">
+      <c r="E217" s="41" t="s">
         <v>1151</v>
       </c>
       <c r="F217" t="str">
@@ -20573,7 +20573,7 @@
       </c>
     </row>
     <row r="218" spans="5:7">
-      <c r="E218" s="46" t="s">
+      <c r="E218" s="41" t="s">
         <v>1152</v>
       </c>
       <c r="F218" t="str">
@@ -20585,7 +20585,7 @@
       </c>
     </row>
     <row r="219" spans="5:7">
-      <c r="E219" s="46" t="s">
+      <c r="E219" s="41" t="s">
         <v>1153</v>
       </c>
       <c r="F219" t="str">
@@ -20597,7 +20597,7 @@
       </c>
     </row>
     <row r="220" spans="5:7">
-      <c r="E220" s="46" t="s">
+      <c r="E220" s="41" t="s">
         <v>1155</v>
       </c>
       <c r="F220" t="str">
@@ -21881,7 +21881,7 @@
       </c>
     </row>
     <row r="327" spans="5:7">
-      <c r="E327" s="46" t="s">
+      <c r="E327" s="41" t="s">
         <v>1320</v>
       </c>
       <c r="F327" t="str">
@@ -21893,7 +21893,7 @@
       </c>
     </row>
     <row r="328" spans="5:7">
-      <c r="E328" s="46" t="s">
+      <c r="E328" s="41" t="s">
         <v>1321</v>
       </c>
       <c r="F328" t="str">
@@ -21905,7 +21905,7 @@
       </c>
     </row>
     <row r="329" spans="5:7">
-      <c r="E329" s="46" t="s">
+      <c r="E329" s="41" t="s">
         <v>1323</v>
       </c>
       <c r="F329" t="str">
@@ -22145,7 +22145,7 @@
       </c>
     </row>
     <row r="349" spans="5:7">
-      <c r="E349" s="46" t="s">
+      <c r="E349" s="41" t="s">
         <v>1350</v>
       </c>
       <c r="F349" t="str">
@@ -22157,7 +22157,7 @@
       </c>
     </row>
     <row r="350" spans="5:7">
-      <c r="E350" s="46" t="s">
+      <c r="E350" s="41" t="s">
         <v>1352</v>
       </c>
       <c r="F350" t="str">
@@ -22169,7 +22169,7 @@
       </c>
     </row>
     <row r="351" spans="5:7">
-      <c r="E351" s="46" t="s">
+      <c r="E351" s="41" t="s">
         <v>1354</v>
       </c>
       <c r="F351" t="str">
@@ -23825,7 +23825,7 @@
       </c>
     </row>
     <row r="489" spans="5:7">
-      <c r="E489" s="47" t="s">
+      <c r="E489" s="42" t="s">
         <v>1558</v>
       </c>
       <c r="F489" t="str">
@@ -24342,11 +24342,11 @@
       <selection activeCell="E64" sqref="E64"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999"/>
   <cols>
     <col min="5" max="5" width="14.6640625" customWidth="1"/>
     <col min="7" max="7" width="17.33203125" customWidth="1"/>
-    <col min="8" max="8" width="12.21875" customWidth="1"/>
+    <col min="8" max="8" width="12.25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15">
@@ -25644,7 +25644,7 @@
       </c>
     </row>
     <row r="62" spans="5:9">
-      <c r="E62" s="46" t="s">
+      <c r="E62" s="41" t="s">
         <v>1695</v>
       </c>
       <c r="F62" t="s">
@@ -25663,7 +25663,7 @@
       </c>
     </row>
     <row r="63" spans="5:9">
-      <c r="E63" s="46" t="s">
+      <c r="E63" s="41" t="s">
         <v>1695</v>
       </c>
       <c r="F63" t="s">
@@ -25682,7 +25682,7 @@
       </c>
     </row>
     <row r="64" spans="5:9">
-      <c r="E64" s="46" t="s">
+      <c r="E64" s="41" t="s">
         <v>1695</v>
       </c>
       <c r="F64" t="s">
@@ -26774,17 +26774,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:Y428"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C265" workbookViewId="0">
+    <sheetView topLeftCell="C265" workbookViewId="0">
       <selection activeCell="E297" sqref="E297"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999"/>
   <cols>
-    <col min="5" max="5" width="13.21875" customWidth="1"/>
+    <col min="5" max="5" width="13.25" customWidth="1"/>
     <col min="6" max="6" width="15.6640625" customWidth="1"/>
     <col min="7" max="7" width="17" customWidth="1"/>
-    <col min="21" max="21" width="14.44140625" customWidth="1"/>
-    <col min="22" max="22" width="14.88671875" customWidth="1"/>
+    <col min="21" max="21" width="14.4140625" customWidth="1"/>
+    <col min="22" max="22" width="14.9140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:25">
@@ -27393,7 +27393,7 @@
       </c>
     </row>
     <row r="19" spans="5:10">
-      <c r="E19" s="46" t="s">
+      <c r="E19" s="41" t="s">
         <v>1772</v>
       </c>
       <c r="F19" t="str">
@@ -27965,7 +27965,7 @@
       </c>
     </row>
     <row r="45" spans="5:10">
-      <c r="E45" s="46" t="s">
+      <c r="E45" s="41" t="s">
         <v>1798</v>
       </c>
       <c r="F45" t="str">
@@ -29417,7 +29417,7 @@
       </c>
     </row>
     <row r="111" spans="5:10">
-      <c r="E111" s="46" t="s">
+      <c r="E111" s="41" t="s">
         <v>1864</v>
       </c>
       <c r="F111" t="str">
@@ -29439,7 +29439,7 @@
       </c>
     </row>
     <row r="112" spans="5:10">
-      <c r="E112" s="46" t="s">
+      <c r="E112" s="41" t="s">
         <v>1865</v>
       </c>
       <c r="F112" t="str">
@@ -29461,7 +29461,7 @@
       </c>
     </row>
     <row r="113" spans="5:10">
-      <c r="E113" s="46" t="s">
+      <c r="E113" s="41" t="s">
         <v>1866</v>
       </c>
       <c r="F113" t="str">
@@ -29637,7 +29637,7 @@
       </c>
     </row>
     <row r="121" spans="5:10">
-      <c r="E121" s="46" t="s">
+      <c r="E121" s="41" t="s">
         <v>1874</v>
       </c>
       <c r="F121" t="str">
@@ -29659,7 +29659,7 @@
       </c>
     </row>
     <row r="122" spans="5:10">
-      <c r="E122" s="46" t="s">
+      <c r="E122" s="41" t="s">
         <v>1875</v>
       </c>
       <c r="F122" t="str">
@@ -30429,7 +30429,7 @@
       </c>
     </row>
     <row r="157" spans="5:10">
-      <c r="E157" s="46" t="s">
+      <c r="E157" s="41" t="s">
         <v>1910</v>
       </c>
       <c r="F157" t="str">
@@ -31001,7 +31001,7 @@
       </c>
     </row>
     <row r="183" spans="5:10">
-      <c r="E183" s="46" t="s">
+      <c r="E183" s="41" t="s">
         <v>1936</v>
       </c>
       <c r="F183" t="str">
@@ -31485,7 +31485,7 @@
       </c>
     </row>
     <row r="205" spans="5:10">
-      <c r="E205" s="46" t="s">
+      <c r="E205" s="41" t="s">
         <v>1958</v>
       </c>
       <c r="F205" t="str">
@@ -32453,7 +32453,7 @@
       </c>
     </row>
     <row r="249" spans="5:10">
-      <c r="E249" s="46" t="s">
+      <c r="E249" s="41" t="s">
         <v>2002</v>
       </c>
       <c r="F249" t="str">
@@ -32475,7 +32475,7 @@
       </c>
     </row>
     <row r="250" spans="5:10">
-      <c r="E250" s="46" t="s">
+      <c r="E250" s="41" t="s">
         <v>2003</v>
       </c>
       <c r="F250" t="str">
@@ -32497,7 +32497,7 @@
       </c>
     </row>
     <row r="251" spans="5:10">
-      <c r="E251" s="46" t="s">
+      <c r="E251" s="41" t="s">
         <v>2004</v>
       </c>
       <c r="F251" t="str">
@@ -32673,7 +32673,7 @@
       </c>
     </row>
     <row r="259" spans="5:10">
-      <c r="E259" s="46" t="s">
+      <c r="E259" s="41" t="s">
         <v>2012</v>
       </c>
       <c r="F259" t="str">
@@ -32695,7 +32695,7 @@
       </c>
     </row>
     <row r="260" spans="5:10">
-      <c r="E260" s="46" t="s">
+      <c r="E260" s="41" t="s">
         <v>2013</v>
       </c>
       <c r="F260" t="str">
@@ -33465,7 +33465,7 @@
       </c>
     </row>
     <row r="295" spans="5:10">
-      <c r="E295" s="46" t="s">
+      <c r="E295" s="41" t="s">
         <v>2048</v>
       </c>
       <c r="F295" t="str">
@@ -33971,7 +33971,7 @@
       </c>
     </row>
     <row r="318" spans="5:10">
-      <c r="E318" s="46" t="s">
+      <c r="E318" s="41" t="s">
         <v>2072</v>
       </c>
       <c r="F318" t="str">
@@ -36424,7 +36424,7 @@
   <sheetViews>
     <sheetView topLeftCell="A22" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999"/>
   <sheetData>
     <row r="1" spans="1:15">
       <c r="A1" s="1" t="s">

--- a/src/main/resources/script/db/init-data/devops_service/hzero_platform/hzero-menu-user-role-label.xlsx
+++ b/src/main/resources/script/db/init-data/devops_service/hzero_platform/hzero-menu-user-role-label.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\projcect\devops\devops-service\src\main\resources\script\db\init-data\devops_service\hzero_platform\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{486A9C6F-6778-4205-938D-0CA1CD427718}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{113A702C-2566-4403-AB11-302ECF781A8F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="597" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="597" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="1" r:id="rId1"/>
@@ -9555,7 +9555,7 @@
   <dimension ref="A1:Y175"/>
   <sheetViews>
     <sheetView topLeftCell="B15" workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+      <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999"/>
@@ -17993,7 +17993,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:G530"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D217" workbookViewId="0">
+    <sheetView topLeftCell="D217" workbookViewId="0">
       <selection activeCell="E228" sqref="E228"/>
     </sheetView>
   </sheetViews>
@@ -24338,8 +24338,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:O120"/>
   <sheetViews>
-    <sheetView topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="E64" sqref="E64"/>
+    <sheetView topLeftCell="A51" workbookViewId="0">
+      <selection activeCell="G63" sqref="G63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999"/>
@@ -26271,7 +26271,7 @@
       </c>
     </row>
     <row r="95" spans="5:9">
-      <c r="E95" t="s">
+      <c r="E95" s="41" t="s">
         <v>1695</v>
       </c>
       <c r="F95" t="s">
@@ -26290,7 +26290,7 @@
       </c>
     </row>
     <row r="96" spans="5:9">
-      <c r="E96" t="s">
+      <c r="E96" s="41" t="s">
         <v>1695</v>
       </c>
       <c r="F96" t="s">
@@ -26774,13 +26774,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:Y428"/>
   <sheetViews>
-    <sheetView topLeftCell="C265" workbookViewId="0">
-      <selection activeCell="E297" sqref="E297"/>
+    <sheetView tabSelected="1" topLeftCell="C110" workbookViewId="0">
+      <selection activeCell="E131" sqref="E131"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999"/>
   <cols>
-    <col min="5" max="5" width="13.25" customWidth="1"/>
+    <col min="5" max="5" width="33.9140625" customWidth="1"/>
     <col min="6" max="6" width="15.6640625" customWidth="1"/>
     <col min="7" max="7" width="17" customWidth="1"/>
     <col min="21" max="21" width="14.4140625" customWidth="1"/>
@@ -28449,7 +28449,7 @@
       </c>
     </row>
     <row r="67" spans="5:10">
-      <c r="E67" t="s">
+      <c r="E67" s="41" t="s">
         <v>1820</v>
       </c>
       <c r="F67" t="str">
@@ -34213,7 +34213,7 @@
       </c>
     </row>
     <row r="329" spans="5:10">
-      <c r="E329" t="s">
+      <c r="E329" s="41" t="s">
         <v>2083</v>
       </c>
       <c r="F329" t="str">
@@ -35093,7 +35093,7 @@
       </c>
     </row>
     <row r="369" spans="5:10">
-      <c r="E369" t="s">
+      <c r="E369" s="41" t="s">
         <v>2123</v>
       </c>
       <c r="F369" t="str">
@@ -35115,7 +35115,7 @@
       </c>
     </row>
     <row r="370" spans="5:10">
-      <c r="E370" t="s">
+      <c r="E370" s="41" t="s">
         <v>2124</v>
       </c>
       <c r="F370" t="str">

--- a/src/main/resources/script/db/init-data/devops_service/hzero_platform/hzero-menu-user-role-label.xlsx
+++ b/src/main/resources/script/db/init-data/devops_service/hzero_platform/hzero-menu-user-role-label.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5676" uniqueCount="2044">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5664" uniqueCount="2044">
   <si>
     <r>
       <rPr>
@@ -8003,22 +8003,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -8032,10 +8017,10 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -8046,54 +8031,22 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -8124,14 +8077,46 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -8150,6 +8135,21 @@
       <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -8229,13 +8229,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -8247,7 +8283,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -8259,7 +8319,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -8271,121 +8355,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -8403,13 +8379,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -8516,6 +8516,30 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -8540,17 +8564,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -8570,32 +8590,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -8605,159 +8599,165 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="24" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="12" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="17" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="7" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="16" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="16" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="14" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -17462,7 +17462,7 @@
   <dimension ref="A1:G459"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B442" workbookViewId="0">
-      <selection activeCell="F448" sqref="F448"/>
+      <selection activeCell="F460" sqref="F460"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25" outlineLevelCol="6"/>
@@ -22804,8 +22804,9 @@
       <c r="E448" s="12" t="s">
         <v>1465</v>
       </c>
-      <c r="F448" t="s">
-        <v>258</v>
+      <c r="F448" t="str">
+        <f>菜单SAAS版!E47</f>
+        <v>iam_menu-47</v>
       </c>
       <c r="G448" t="s">
         <v>1466</v>
@@ -22815,8 +22816,9 @@
       <c r="E449" s="12" t="s">
         <v>1467</v>
       </c>
-      <c r="F449" t="s">
-        <v>258</v>
+      <c r="F449" t="str">
+        <f>菜单SAAS版!E47</f>
+        <v>iam_menu-47</v>
       </c>
       <c r="G449" t="s">
         <v>1468</v>
@@ -22826,8 +22828,9 @@
       <c r="E450" s="12" t="s">
         <v>1469</v>
       </c>
-      <c r="F450" t="s">
-        <v>262</v>
+      <c r="F450" t="str">
+        <f>菜单SAAS版!E48</f>
+        <v>iam_menu-48</v>
       </c>
       <c r="G450" t="s">
         <v>1466</v>
@@ -22837,8 +22840,9 @@
       <c r="E451" s="12" t="s">
         <v>1470</v>
       </c>
-      <c r="F451" t="s">
-        <v>262</v>
+      <c r="F451" t="str">
+        <f>菜单SAAS版!E48</f>
+        <v>iam_menu-48</v>
       </c>
       <c r="G451" t="s">
         <v>1468</v>
@@ -22848,8 +22852,9 @@
       <c r="E452" s="12" t="s">
         <v>1471</v>
       </c>
-      <c r="F452" t="s">
-        <v>266</v>
+      <c r="F452" t="str">
+        <f>菜单SAAS版!E49</f>
+        <v>iam_menu-49</v>
       </c>
       <c r="G452" t="s">
         <v>1466</v>
@@ -22859,8 +22864,9 @@
       <c r="E453" s="12" t="s">
         <v>1472</v>
       </c>
-      <c r="F453" t="s">
-        <v>266</v>
+      <c r="F453" t="str">
+        <f>菜单SAAS版!E49</f>
+        <v>iam_menu-49</v>
       </c>
       <c r="G453" t="s">
         <v>1468</v>
@@ -22870,8 +22876,9 @@
       <c r="E454" s="12" t="s">
         <v>1473</v>
       </c>
-      <c r="F454" t="s">
-        <v>278</v>
+      <c r="F454" t="str">
+        <f>菜单SAAS版!E52</f>
+        <v>iam_menu-52</v>
       </c>
       <c r="G454" t="s">
         <v>1466</v>
@@ -22881,8 +22888,9 @@
       <c r="E455" s="12" t="s">
         <v>1474</v>
       </c>
-      <c r="F455" t="s">
-        <v>278</v>
+      <c r="F455" t="str">
+        <f>菜单SAAS版!E52</f>
+        <v>iam_menu-52</v>
       </c>
       <c r="G455" t="s">
         <v>1468</v>
@@ -22892,8 +22900,9 @@
       <c r="E456" s="12" t="s">
         <v>1475</v>
       </c>
-      <c r="F456" t="s">
-        <v>282</v>
+      <c r="F456" t="str">
+        <f>菜单SAAS版!E53</f>
+        <v>iam_menu-53</v>
       </c>
       <c r="G456" t="s">
         <v>1466</v>
@@ -22903,8 +22912,9 @@
       <c r="E457" s="12" t="s">
         <v>1476</v>
       </c>
-      <c r="F457" t="s">
-        <v>282</v>
+      <c r="F457" t="str">
+        <f>菜单SAAS版!E53</f>
+        <v>iam_menu-53</v>
       </c>
       <c r="G457" t="s">
         <v>1468</v>
@@ -22914,8 +22924,9 @@
       <c r="E458" s="12" t="s">
         <v>1477</v>
       </c>
-      <c r="F458" t="s">
-        <v>286</v>
+      <c r="F458" t="str">
+        <f>菜单SAAS版!E54</f>
+        <v>iam_menu-54</v>
       </c>
       <c r="G458" t="s">
         <v>1466</v>
@@ -22925,8 +22936,9 @@
       <c r="E459" s="12" t="s">
         <v>1478</v>
       </c>
-      <c r="F459" t="s">
-        <v>286</v>
+      <c r="F459" t="str">
+        <f>菜单SAAS版!E54</f>
+        <v>iam_menu-54</v>
       </c>
       <c r="G459" t="s">
         <v>1468</v>

--- a/src/main/resources/script/db/init-data/devops_service/hzero_platform/hzero-menu-user-role-label.xlsx
+++ b/src/main/resources/script/db/init-data/devops_service/hzero_platform/hzero-menu-user-role-label.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\projcect\devops\devops-service\src\main\resources\script\db\init-data\devops_service\hzero_platform\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{113A702C-2566-4403-AB11-302ECF781A8F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E10722E2-F85B-4DB4-AE0F-2A5F7A18E9BB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="597" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="597" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6059" uniqueCount="2222">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6061" uniqueCount="2224">
   <si>
     <r>
       <rPr>
@@ -8534,6 +8534,12 @@
   </si>
   <si>
     <t>prod-repo-service.nexus-choerodon.listMavenArtifactId</t>
+  </si>
+  <si>
+    <t>devops-service.devops-deploy.manualDeploy</t>
+  </si>
+  <si>
+    <t>iam_menu_permission-531</t>
   </si>
 </sst>
 </file>
@@ -8884,7 +8890,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -8967,6 +8973,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -9315,21 +9322,21 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25"/>
   <cols>
-    <col min="1" max="1" width="15.58203125" style="15" customWidth="1"/>
+    <col min="1" max="1" width="15.5546875" style="15" customWidth="1"/>
     <col min="2" max="2" width="10.33203125" style="16" customWidth="1"/>
-    <col min="3" max="3" width="28.08203125" customWidth="1"/>
+    <col min="3" max="3" width="28.109375" customWidth="1"/>
     <col min="4" max="4" width="35.33203125" style="9" customWidth="1"/>
-    <col min="5" max="5" width="38.58203125" customWidth="1"/>
-    <col min="6" max="6" width="23.4140625" customWidth="1"/>
-    <col min="7" max="7" width="21.58203125" customWidth="1"/>
+    <col min="5" max="5" width="38.5546875" customWidth="1"/>
+    <col min="6" max="6" width="23.44140625" customWidth="1"/>
+    <col min="7" max="7" width="21.5546875" customWidth="1"/>
     <col min="8" max="8" width="22" customWidth="1"/>
-    <col min="9" max="9" width="24.58203125" customWidth="1"/>
+    <col min="9" max="9" width="24.5546875" customWidth="1"/>
     <col min="10" max="10" width="27" customWidth="1"/>
-    <col min="11" max="11" width="19.08203125" customWidth="1"/>
-    <col min="12" max="12" width="18.58203125" customWidth="1"/>
-    <col min="13" max="13" width="13.08203125" customWidth="1"/>
+    <col min="11" max="11" width="19.109375" customWidth="1"/>
+    <col min="12" max="12" width="18.5546875" customWidth="1"/>
+    <col min="13" max="13" width="13.109375" customWidth="1"/>
     <col min="14" max="1025" width="10.33203125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -9344,7 +9351,7 @@
       <c r="G1" s="18"/>
       <c r="H1" s="18"/>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" ht="18">
       <c r="E2" s="19"/>
     </row>
     <row r="3" spans="1:8" ht="49.5" customHeight="1">
@@ -9358,7 +9365,7 @@
       <c r="F3" s="45"/>
       <c r="G3" s="45"/>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" ht="18">
       <c r="C4" s="46" t="s">
         <v>3</v>
       </c>
@@ -9379,7 +9386,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" ht="18">
       <c r="C7" s="23" t="s">
         <v>8</v>
       </c>
@@ -9399,7 +9406,7 @@
       </c>
       <c r="E8" s="28"/>
     </row>
-    <row r="9" spans="1:8" ht="52.2">
+    <row r="9" spans="1:8" ht="51.75">
       <c r="C9" s="29" t="s">
         <v>13</v>
       </c>
@@ -9413,7 +9420,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="52.2">
+    <row r="10" spans="1:8" ht="51.75">
       <c r="C10" s="32" t="s">
         <v>17</v>
       </c>
@@ -9424,7 +9431,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="69.599999999999994">
+    <row r="11" spans="1:8" ht="69">
       <c r="C11" s="26" t="s">
         <v>20</v>
       </c>
@@ -9456,7 +9463,7 @@
       <c r="D14" s="27"/>
       <c r="E14" s="28"/>
     </row>
-    <row r="15" spans="1:8" ht="34.799999999999997">
+    <row r="15" spans="1:8" ht="34.5">
       <c r="C15" s="34" t="s">
         <v>26</v>
       </c>
@@ -9479,7 +9486,7 @@
       <c r="D19" s="47"/>
       <c r="E19" s="47"/>
     </row>
-    <row r="20" spans="3:5">
+    <row r="20" spans="3:5" ht="18">
       <c r="C20" s="37" t="s">
         <v>31</v>
       </c>
@@ -9487,7 +9494,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="21" spans="3:5">
+    <row r="21" spans="3:5" ht="18">
       <c r="C21" s="37" t="s">
         <v>33</v>
       </c>
@@ -9495,7 +9502,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="22" spans="3:5">
+    <row r="22" spans="3:5" ht="18">
       <c r="C22" s="37" t="s">
         <v>35</v>
       </c>
@@ -9503,7 +9510,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="23" spans="3:5">
+    <row r="23" spans="3:5" ht="18">
       <c r="C23" s="37" t="s">
         <v>37</v>
       </c>
@@ -9529,7 +9536,7 @@
       </c>
       <c r="E26" s="43"/>
     </row>
-    <row r="27" spans="3:5" ht="52.2">
+    <row r="27" spans="3:5" ht="51.75">
       <c r="C27" s="39" t="s">
         <v>43</v>
       </c>
@@ -9554,16 +9561,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Y175"/>
   <sheetViews>
-    <sheetView topLeftCell="B15" workbookViewId="0">
-      <selection activeCell="E27" sqref="E27"/>
+    <sheetView topLeftCell="D9" workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25"/>
   <cols>
-    <col min="5" max="5" width="37.4140625" customWidth="1"/>
-    <col min="6" max="6" width="56.25" customWidth="1"/>
-    <col min="7" max="7" width="44.25" customWidth="1"/>
-    <col min="11" max="11" width="24.08203125" customWidth="1"/>
+    <col min="5" max="5" width="37.44140625" customWidth="1"/>
+    <col min="6" max="6" width="77.5546875" customWidth="1"/>
+    <col min="7" max="7" width="44.21875" customWidth="1"/>
+    <col min="11" max="11" width="24.109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:25">
@@ -17991,17 +17998,17 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:G530"/>
+  <dimension ref="A1:G531"/>
   <sheetViews>
-    <sheetView topLeftCell="D217" workbookViewId="0">
-      <selection activeCell="E228" sqref="E228"/>
+    <sheetView tabSelected="1" topLeftCell="D513" workbookViewId="0">
+      <selection activeCell="E531" sqref="E531:G531"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25"/>
   <cols>
-    <col min="5" max="5" width="28.08203125" customWidth="1"/>
+    <col min="5" max="5" width="28.109375" customWidth="1"/>
     <col min="6" max="6" width="34.33203125" customWidth="1"/>
-    <col min="7" max="7" width="57.58203125" customWidth="1"/>
+    <col min="7" max="7" width="57.5546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -24326,6 +24333,18 @@
       </c>
       <c r="G530" s="7" t="s">
         <v>1619</v>
+      </c>
+    </row>
+    <row r="531" spans="5:7">
+      <c r="E531" s="48" t="s">
+        <v>2223</v>
+      </c>
+      <c r="F531" s="48" t="str">
+        <f>菜单SAAS版!E20</f>
+        <v>iam_menu-20</v>
+      </c>
+      <c r="G531" s="48" t="s">
+        <v>2222</v>
       </c>
     </row>
   </sheetData>
@@ -24342,11 +24361,11 @@
       <selection activeCell="G63" sqref="G63"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25"/>
   <cols>
     <col min="5" max="5" width="14.6640625" customWidth="1"/>
     <col min="7" max="7" width="17.33203125" customWidth="1"/>
-    <col min="8" max="8" width="12.25" customWidth="1"/>
+    <col min="8" max="8" width="12.21875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15">
@@ -26774,17 +26793,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:Y428"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C110" workbookViewId="0">
+    <sheetView topLeftCell="A110" workbookViewId="0">
       <selection activeCell="E131" sqref="E131"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25"/>
   <cols>
-    <col min="5" max="5" width="33.9140625" customWidth="1"/>
+    <col min="5" max="5" width="33.88671875" customWidth="1"/>
     <col min="6" max="6" width="15.6640625" customWidth="1"/>
     <col min="7" max="7" width="17" customWidth="1"/>
-    <col min="21" max="21" width="14.4140625" customWidth="1"/>
-    <col min="22" max="22" width="14.9140625" customWidth="1"/>
+    <col min="21" max="21" width="14.44140625" customWidth="1"/>
+    <col min="22" max="22" width="14.88671875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:25">
@@ -36424,7 +36443,7 @@
   <sheetViews>
     <sheetView topLeftCell="A22" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25"/>
   <sheetData>
     <row r="1" spans="1:15">
       <c r="A1" s="1" t="s">

--- a/src/main/resources/script/db/init-data/devops_service/hzero_platform/hzero-menu-user-role-label.xlsx
+++ b/src/main/resources/script/db/init-data/devops_service/hzero_platform/hzero-menu-user-role-label.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19815" windowHeight="7860" tabRatio="597" activeTab="2"/>
+    <workbookView windowWidth="19485" windowHeight="8460" tabRatio="597" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="1" r:id="rId1"/>
@@ -8619,9 +8619,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="47">
     <font>
@@ -8746,10 +8746,34 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -8760,37 +8784,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
@@ -8812,35 +8807,47 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="等线"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -8853,6 +8860,13 @@
     </font>
     <font>
       <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="等线"/>
@@ -8868,30 +8882,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -8973,7 +8973,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -8985,19 +9039,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -9009,25 +9063,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -9039,7 +9081,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -9051,73 +9093,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -9135,7 +9117,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -9147,13 +9153,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -9269,6 +9269,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -9280,6 +9289,32 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -9302,23 +9337,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -9337,176 +9357,156 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="22" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="13" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="6" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="22" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="22" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="22" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="22" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="19" borderId="15" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="19" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="19" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="26" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="7" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="7" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="37" fillId="24" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="39" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -9518,7 +9518,6 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -9984,8 +9983,8 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="15.5555555555556" style="17" customWidth="1"/>
-    <col min="2" max="2" width="10.3333333333333" style="18" customWidth="1"/>
+    <col min="1" max="1" width="15.5555555555556" style="16" customWidth="1"/>
+    <col min="2" max="2" width="10.3333333333333" style="17" customWidth="1"/>
     <col min="3" max="3" width="28.1111111111111" customWidth="1"/>
     <col min="4" max="4" width="35.3333333333333" style="10" customWidth="1"/>
     <col min="5" max="5" width="38.5555555555556" customWidth="1"/>
@@ -10001,79 +10000,79 @@
   </cols>
   <sheetData>
     <row r="1" ht="64.5" customHeight="1" spans="1:8">
-      <c r="A1" s="19"/>
-      <c r="C1" s="20" t="s">
+      <c r="A1" s="18"/>
+      <c r="C1" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="21"/>
-      <c r="G1" s="21"/>
-      <c r="H1" s="21"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="20"/>
+      <c r="H1" s="20"/>
     </row>
     <row r="2" ht="18" spans="5:5">
-      <c r="E2" s="22"/>
+      <c r="E2" s="21"/>
     </row>
     <row r="3" ht="49.5" customHeight="1" spans="3:7">
-      <c r="C3" s="23" t="s">
+      <c r="C3" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="23"/>
-      <c r="E3" s="24" t="s">
+      <c r="D3" s="22"/>
+      <c r="E3" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="24"/>
-      <c r="G3" s="24"/>
+      <c r="F3" s="23"/>
+      <c r="G3" s="23"/>
     </row>
     <row r="4" ht="18" spans="3:7">
-      <c r="C4" s="25" t="s">
+      <c r="C4" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="25"/>
-      <c r="E4" s="26" t="s">
+      <c r="D4" s="24"/>
+      <c r="E4" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="27" t="s">
+      <c r="F4" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="G4" s="28" t="s">
+      <c r="G4" s="27" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="19"/>
+      <c r="A5" s="18"/>
       <c r="C5" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="7" ht="18" spans="3:5">
-      <c r="C7" s="29" t="s">
+      <c r="C7" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="30" t="s">
+      <c r="D7" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="E7" s="31" t="s">
+      <c r="E7" s="30" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="8" spans="3:5">
-      <c r="C8" s="32" t="s">
+      <c r="C8" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="33" t="s">
+      <c r="D8" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="E8" s="34"/>
+      <c r="E8" s="33"/>
     </row>
     <row r="9" ht="51.75" spans="3:6">
-      <c r="C9" s="35" t="s">
+      <c r="C9" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="36" t="s">
+      <c r="D9" s="35" t="s">
         <v>14</v>
       </c>
-      <c r="E9" s="37" t="s">
+      <c r="E9" s="36" t="s">
         <v>15</v>
       </c>
       <c r="F9" t="s">
@@ -10081,56 +10080,56 @@
       </c>
     </row>
     <row r="10" ht="51.75" spans="3:5">
-      <c r="C10" s="38" t="s">
+      <c r="C10" s="37" t="s">
         <v>17</v>
       </c>
-      <c r="D10" s="36" t="s">
+      <c r="D10" s="35" t="s">
         <v>18</v>
       </c>
-      <c r="E10" s="37" t="s">
+      <c r="E10" s="36" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="11" ht="69" spans="3:5">
-      <c r="C11" s="32" t="s">
+      <c r="C11" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="D11" s="36" t="s">
+      <c r="D11" s="35" t="s">
         <v>21</v>
       </c>
-      <c r="E11" s="37" t="s">
+      <c r="E11" s="36" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="12" spans="3:5">
-      <c r="C12" s="32" t="s">
+      <c r="C12" s="31" t="s">
         <v>23</v>
       </c>
-      <c r="D12" s="36" t="s">
+      <c r="D12" s="35" t="s">
         <v>24</v>
       </c>
-      <c r="E12" s="39" t="s">
+      <c r="E12" s="38" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="13" spans="3:5">
-      <c r="C13" s="32"/>
-      <c r="D13" s="33"/>
-      <c r="E13" s="34"/>
+      <c r="C13" s="31"/>
+      <c r="D13" s="32"/>
+      <c r="E13" s="33"/>
     </row>
     <row r="14" spans="3:5">
-      <c r="C14" s="32"/>
-      <c r="D14" s="33"/>
-      <c r="E14" s="34"/>
+      <c r="C14" s="31"/>
+      <c r="D14" s="32"/>
+      <c r="E14" s="33"/>
     </row>
     <row r="15" ht="34.5" spans="3:5">
-      <c r="C15" s="40" t="s">
+      <c r="C15" s="39" t="s">
         <v>26</v>
       </c>
-      <c r="D15" s="41" t="s">
+      <c r="D15" s="40" t="s">
         <v>27</v>
       </c>
-      <c r="E15" s="42" t="s">
+      <c r="E15" s="41" t="s">
         <v>28</v>
       </c>
     </row>
@@ -10140,30 +10139,30 @@
       </c>
     </row>
     <row r="19" spans="3:5">
-      <c r="C19" s="43" t="s">
+      <c r="C19" s="42" t="s">
         <v>30</v>
       </c>
-      <c r="D19" s="43"/>
-      <c r="E19" s="43"/>
+      <c r="D19" s="42"/>
+      <c r="E19" s="42"/>
     </row>
     <row r="20" ht="18" spans="3:4">
-      <c r="C20" s="44" t="s">
+      <c r="C20" s="43" t="s">
         <v>31</v>
       </c>
-      <c r="D20" s="22" t="s">
+      <c r="D20" s="21" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="21" ht="18" spans="3:4">
-      <c r="C21" s="44" t="s">
+      <c r="C21" s="43" t="s">
         <v>33</v>
       </c>
-      <c r="D21" s="22" t="s">
+      <c r="D21" s="21" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="22" ht="18" spans="3:4">
-      <c r="C22" s="44" t="s">
+      <c r="C22" s="43" t="s">
         <v>35</v>
       </c>
       <c r="D22" s="10" t="s">
@@ -10171,7 +10170,7 @@
       </c>
     </row>
     <row r="23" ht="18" spans="3:4">
-      <c r="C23" s="44" t="s">
+      <c r="C23" s="43" t="s">
         <v>37</v>
       </c>
       <c r="D23" s="10" t="s">
@@ -10179,25 +10178,25 @@
       </c>
     </row>
     <row r="25" ht="69" customHeight="1" spans="3:5">
-      <c r="C25" s="45" t="s">
+      <c r="C25" s="44" t="s">
         <v>39</v>
       </c>
-      <c r="D25" s="23" t="s">
+      <c r="D25" s="22" t="s">
         <v>40</v>
       </c>
-      <c r="E25" s="23"/>
+      <c r="E25" s="22"/>
     </row>
     <row r="26" ht="14.25" customHeight="1" spans="3:5">
-      <c r="C26" s="33" t="s">
+      <c r="C26" s="32" t="s">
         <v>41</v>
       </c>
-      <c r="D26" s="23" t="s">
+      <c r="D26" s="22" t="s">
         <v>42</v>
       </c>
-      <c r="E26" s="23"/>
+      <c r="E26" s="22"/>
     </row>
     <row r="27" ht="51.75" spans="3:3">
-      <c r="C27" s="46" t="s">
+      <c r="C27" s="45" t="s">
         <v>43</v>
       </c>
     </row>
@@ -10222,8 +10221,8 @@
   <sheetPr/>
   <dimension ref="A1:Y181"/>
   <sheetViews>
-    <sheetView topLeftCell="D37" workbookViewId="0">
-      <selection activeCell="D43" sqref="$A43:$XFD43"/>
+    <sheetView tabSelected="1" topLeftCell="A157" workbookViewId="0">
+      <selection activeCell="E173" sqref="E173"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25"/>
@@ -18950,8 +18949,8 @@
   <sheetPr/>
   <dimension ref="A1:G542"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A531" workbookViewId="0">
-      <selection activeCell="G542" sqref="G542"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" topLeftCell="A522" workbookViewId="0">
+      <selection activeCell="F535" sqref="F535"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25" outlineLevelCol="6"/>
@@ -24218,14 +24217,14 @@
       </c>
     </row>
     <row r="442" spans="5:7">
-      <c r="E442" s="11" t="s">
+      <c r="E442" s="9" t="s">
         <v>1516</v>
       </c>
-      <c r="F442" s="11" t="str">
+      <c r="F442" s="9" t="str">
         <f>菜单SAAS版!E95</f>
         <v>iam_menu-95</v>
       </c>
-      <c r="G442" s="11" t="s">
+      <c r="G442" s="9" t="s">
         <v>1517</v>
       </c>
     </row>
@@ -24233,23 +24232,23 @@
       <c r="E443" s="6" t="s">
         <v>1518</v>
       </c>
-      <c r="F443" s="12" t="str">
+      <c r="F443" s="11" t="str">
         <f>菜单SAAS版!E142</f>
         <v>iam_menu-142</v>
       </c>
-      <c r="G443" s="12" t="s">
+      <c r="G443" s="11" t="s">
         <v>1519</v>
       </c>
     </row>
     <row r="444" spans="5:7">
-      <c r="E444" s="13" t="s">
+      <c r="E444" s="12" t="s">
         <v>1520</v>
       </c>
-      <c r="F444" s="13" t="str">
+      <c r="F444" s="12" t="str">
         <f>菜单SAAS版!E138</f>
         <v>iam_menu-138</v>
       </c>
-      <c r="G444" s="13" t="s">
+      <c r="G444" s="12" t="s">
         <v>1521</v>
       </c>
     </row>
@@ -24729,7 +24728,7 @@
         <f>菜单SAAS版!E95</f>
         <v>iam_menu-95</v>
       </c>
-      <c r="G484" s="11" t="s">
+      <c r="G484" s="9" t="s">
         <v>1517</v>
       </c>
     </row>
@@ -24741,7 +24740,7 @@
         <f>菜单SAAS版!E142</f>
         <v>iam_menu-142</v>
       </c>
-      <c r="G485" s="12" t="s">
+      <c r="G485" s="11" t="s">
         <v>1519</v>
       </c>
     </row>
@@ -24753,7 +24752,7 @@
         <f>菜单SAAS版!E138</f>
         <v>iam_menu-138</v>
       </c>
-      <c r="G486" s="13" t="s">
+      <c r="G486" s="12" t="s">
         <v>1521</v>
       </c>
     </row>
@@ -24765,7 +24764,7 @@
         <f>菜单SAAS版!E97</f>
         <v>iam_menu-97</v>
       </c>
-      <c r="G487" s="14" t="s">
+      <c r="G487" s="13" t="s">
         <v>1588</v>
       </c>
     </row>
@@ -24777,12 +24776,12 @@
         <f>菜单SAAS版!E92</f>
         <v>iam_menu-92</v>
       </c>
-      <c r="G488" s="11" t="s">
+      <c r="G488" s="9" t="s">
         <v>1590</v>
       </c>
     </row>
     <row r="489" spans="5:7">
-      <c r="E489" s="15" t="s">
+      <c r="E489" s="14" t="s">
         <v>1591</v>
       </c>
       <c r="F489" t="str">
@@ -24794,38 +24793,38 @@
       </c>
     </row>
     <row r="490" spans="5:7">
-      <c r="E490" s="14" t="s">
+      <c r="E490" s="13" t="s">
         <v>1593</v>
       </c>
-      <c r="F490" s="14" t="str">
+      <c r="F490" s="13" t="str">
         <f>菜单SAAS版!E147</f>
         <v>iam_menu-147</v>
       </c>
-      <c r="G490" s="14" t="s">
+      <c r="G490" s="13" t="s">
         <v>1594</v>
       </c>
     </row>
     <row r="491" spans="5:7">
-      <c r="E491" s="13" t="s">
+      <c r="E491" s="12" t="s">
         <v>1595</v>
       </c>
-      <c r="F491" s="13" t="str">
+      <c r="F491" s="12" t="str">
         <f>菜单SAAS版!E157</f>
         <v>iam_menu-157</v>
       </c>
-      <c r="G491" s="13" t="s">
+      <c r="G491" s="12" t="s">
         <v>1596</v>
       </c>
     </row>
     <row r="492" spans="5:7">
-      <c r="E492" s="13" t="s">
+      <c r="E492" s="12" t="s">
         <v>1597</v>
       </c>
-      <c r="F492" s="13" t="str">
+      <c r="F492" s="12" t="str">
         <f>菜单SAAS版!E103</f>
         <v>iam_menu-103</v>
       </c>
-      <c r="G492" s="13" t="s">
+      <c r="G492" s="12" t="s">
         <v>1598</v>
       </c>
     </row>
@@ -24938,31 +24937,31 @@
       </c>
     </row>
     <row r="502" spans="5:7">
-      <c r="E502" s="11" t="s">
+      <c r="E502" s="9" t="s">
         <v>1609</v>
       </c>
-      <c r="F502" s="11" t="str">
+      <c r="F502" s="9" t="str">
         <f>菜单SAAS版!E95</f>
         <v>iam_menu-95</v>
       </c>
-      <c r="G502" s="11" t="s">
+      <c r="G502" s="9" t="s">
         <v>1610</v>
       </c>
     </row>
     <row r="503" spans="5:7">
-      <c r="E503" s="16" t="s">
+      <c r="E503" s="15" t="s">
         <v>1611</v>
       </c>
-      <c r="F503" s="16" t="str">
+      <c r="F503" s="15" t="str">
         <f>菜单SAAS版!E131</f>
         <v>iam_menu-131</v>
       </c>
-      <c r="G503" s="16" t="s">
+      <c r="G503" s="15" t="s">
         <v>1612</v>
       </c>
     </row>
     <row r="504" spans="5:7">
-      <c r="E504" s="16" t="s">
+      <c r="E504" s="15" t="s">
         <v>1613</v>
       </c>
       <c r="F504" s="7" t="str">
@@ -24974,7 +24973,7 @@
       </c>
     </row>
     <row r="505" spans="5:7">
-      <c r="E505" s="16" t="s">
+      <c r="E505" s="15" t="s">
         <v>1615</v>
       </c>
       <c r="F505" s="7" t="str">
@@ -24986,7 +24985,7 @@
       </c>
     </row>
     <row r="506" spans="5:7">
-      <c r="E506" s="16" t="s">
+      <c r="E506" s="15" t="s">
         <v>1617</v>
       </c>
       <c r="F506" s="7" t="str">
@@ -24998,7 +24997,7 @@
       </c>
     </row>
     <row r="507" spans="5:7">
-      <c r="E507" s="16" t="s">
+      <c r="E507" s="15" t="s">
         <v>1618</v>
       </c>
       <c r="F507" s="7" t="str">
@@ -25010,7 +25009,7 @@
       </c>
     </row>
     <row r="508" spans="5:7">
-      <c r="E508" s="16" t="s">
+      <c r="E508" s="15" t="s">
         <v>1619</v>
       </c>
       <c r="F508" s="7" t="str">
@@ -25022,7 +25021,7 @@
       </c>
     </row>
     <row r="509" spans="5:7">
-      <c r="E509" s="16" t="s">
+      <c r="E509" s="15" t="s">
         <v>1620</v>
       </c>
       <c r="F509" s="7" t="str">
@@ -25034,7 +25033,7 @@
       </c>
     </row>
     <row r="510" spans="5:7">
-      <c r="E510" s="16" t="s">
+      <c r="E510" s="15" t="s">
         <v>1621</v>
       </c>
       <c r="F510" s="7" t="str">
@@ -25046,7 +25045,7 @@
       </c>
     </row>
     <row r="511" spans="5:7">
-      <c r="E511" s="16" t="s">
+      <c r="E511" s="15" t="s">
         <v>1622</v>
       </c>
       <c r="F511" s="7" t="str">
@@ -25058,7 +25057,7 @@
       </c>
     </row>
     <row r="512" spans="5:7">
-      <c r="E512" s="16" t="s">
+      <c r="E512" s="15" t="s">
         <v>1623</v>
       </c>
       <c r="F512" s="7" t="str">
@@ -25070,7 +25069,7 @@
       </c>
     </row>
     <row r="513" spans="5:7">
-      <c r="E513" s="16" t="s">
+      <c r="E513" s="15" t="s">
         <v>1624</v>
       </c>
       <c r="F513" s="7" t="str">
@@ -25082,7 +25081,7 @@
       </c>
     </row>
     <row r="514" spans="5:7">
-      <c r="E514" s="16" t="s">
+      <c r="E514" s="15" t="s">
         <v>1625</v>
       </c>
       <c r="F514" s="7" t="str">
@@ -25094,7 +25093,7 @@
       </c>
     </row>
     <row r="515" spans="5:7">
-      <c r="E515" s="16" t="s">
+      <c r="E515" s="15" t="s">
         <v>1626</v>
       </c>
       <c r="F515" s="7" t="str">
@@ -25286,14 +25285,14 @@
       </c>
     </row>
     <row r="531" spans="5:7">
-      <c r="E531" s="11" t="s">
+      <c r="E531" s="9" t="s">
         <v>1653</v>
       </c>
-      <c r="F531" s="11" t="str">
+      <c r="F531" s="9" t="str">
         <f>菜单SAAS版!E20</f>
         <v>iam_menu-20</v>
       </c>
-      <c r="G531" s="11" t="s">
+      <c r="G531" s="9" t="s">
         <v>1654</v>
       </c>
     </row>
@@ -25418,14 +25417,14 @@
       </c>
     </row>
     <row r="542" s="9" customFormat="1" spans="5:7">
-      <c r="E542" s="11" t="s">
+      <c r="E542" s="9" t="s">
         <v>1672</v>
       </c>
-      <c r="F542" s="11" t="str">
+      <c r="F542" s="9" t="str">
         <f>菜单SAAS版!$E$43</f>
         <v>iam_menu-43</v>
       </c>
-      <c r="G542" s="11" t="s">
+      <c r="G542" s="9" t="s">
         <v>1673</v>
       </c>
     </row>
@@ -25440,7 +25439,7 @@
   <sheetPr/>
   <dimension ref="A1:O120"/>
   <sheetViews>
-    <sheetView topLeftCell="A96" workbookViewId="0">
+    <sheetView topLeftCell="A87" workbookViewId="0">
       <selection activeCell="G63" sqref="G63"/>
     </sheetView>
   </sheetViews>
@@ -27877,8 +27876,8 @@
   <sheetPr/>
   <dimension ref="A1:Y446"/>
   <sheetViews>
-    <sheetView topLeftCell="D430" workbookViewId="0">
-      <selection activeCell="K439" sqref="K439"/>
+    <sheetView topLeftCell="A423" workbookViewId="0">
+      <selection activeCell="F442" sqref="F442"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25"/>
@@ -37560,7 +37559,7 @@
       </c>
     </row>
     <row r="431" spans="5:10">
-      <c r="E431" s="5" t="s">
+      <c r="E431" s="6" t="s">
         <v>2239</v>
       </c>
       <c r="F431" t="str">
@@ -37626,7 +37625,7 @@
       </c>
     </row>
     <row r="434" spans="5:10">
-      <c r="E434" s="5" t="s">
+      <c r="E434" s="6" t="s">
         <v>2242</v>
       </c>
       <c r="F434" t="str">
@@ -37692,7 +37691,7 @@
       </c>
     </row>
     <row r="437" spans="5:10">
-      <c r="E437" s="5" t="s">
+      <c r="E437" s="6" t="s">
         <v>2245</v>
       </c>
       <c r="F437" t="str">
@@ -37758,7 +37757,7 @@
       </c>
     </row>
     <row r="440" spans="5:10">
-      <c r="E440" s="5" t="s">
+      <c r="E440" s="6" t="s">
         <v>2248</v>
       </c>
       <c r="F440" t="str">
@@ -37824,7 +37823,7 @@
       </c>
     </row>
     <row r="443" spans="5:10">
-      <c r="E443" s="5" t="s">
+      <c r="E443" s="6" t="s">
         <v>2251</v>
       </c>
       <c r="F443" t="str">
@@ -37890,7 +37889,7 @@
       </c>
     </row>
     <row r="446" spans="5:10">
-      <c r="E446" s="5" t="s">
+      <c r="E446" s="6" t="s">
         <v>2254</v>
       </c>
       <c r="F446" t="str">
@@ -37922,8 +37921,8 @@
   <sheetPr/>
   <dimension ref="A1:O35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+    <sheetView topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="E77" sqref="E77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25"/>

--- a/src/main/resources/script/db/init-data/devops_service/hzero_platform/hzero-menu-user-role-label.xlsx
+++ b/src/main/resources/script/db/init-data/devops_service/hzero_platform/hzero-menu-user-role-label.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23328"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\projcect\devops\devops-service\src\main\resources\script\db\init-data\devops_service\hzero_platform\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E20D96A-1E80-43CC-B1F7-0B5CB081EEA0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="19485" windowHeight="8460" tabRatio="597" activeTab="1"/>
+    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="597" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="1" r:id="rId1"/>
@@ -20,18 +26,19 @@
     <definedName name="qwe">REPT(local_year_format,4)&amp;local_date_separator&amp;REPT(local_month_format,2)&amp;local_date_separator&amp;REPT(local_day_format,2)&amp;" "&amp;REPT(local_hour_format,2)&amp;local_time_separator&amp;REPT(local_minute_format,2)&amp;local_time_separator&amp;REPT(local_second_format,2)</definedName>
     <definedName name="wqewqe">REPT(local_year_format,4)&amp;local_date_separator&amp;REPT(local_month_format,2)&amp;local_date_separator&amp;REPT(local_day_format,2)&amp;" "&amp;REPT(local_hour_format,2)&amp;local_time_separator&amp;REPT(local_minute_format,2)&amp;local_time_separator&amp;REPT(local_second_format,2)</definedName>
   </definedNames>
-  <calcPr calcId="144525" concurrentCalc="0"/>
+  <calcPr calcId="181029" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6239" uniqueCount="2286">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6243" uniqueCount="2290">
   <si>
     <r>
       <rPr>
         <sz val="12"/>
         <color rgb="FFFF0000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">注意这个文档不能 </t>
@@ -41,7 +48,6 @@
         <sz val="12"/>
         <color rgb="FFFF0000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>merge</t>
     </r>
@@ -50,6 +56,7 @@
         <sz val="12"/>
         <color rgb="FFFF0000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>！！
@@ -62,6 +69,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">正式的数据从第二个 </t>
@@ -71,7 +79,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">sheet </t>
     </r>
@@ -80,6 +87,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>页开始</t>
@@ -89,7 +97,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>,</t>
     </r>
@@ -98,6 +105,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">每页 从 </t>
@@ -107,7 +115,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">D7 </t>
     </r>
@@ -116,6 +123,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">单元格开始有效
@@ -147,6 +155,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>颜色示例</t>
@@ -156,7 +165,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>(</t>
     </r>
@@ -165,6 +173,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>非必须</t>
@@ -174,7 +183,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>,</t>
     </r>
@@ -183,6 +191,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>非强制</t>
@@ -192,7 +201,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>)</t>
     </r>
@@ -204,6 +212,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>请给特殊单元格</t>
@@ -214,7 +223,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>,</t>
     </r>
@@ -224,6 +232,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>列名添加颜色</t>
@@ -234,7 +243,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>,</t>
     </r>
@@ -244,6 +252,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>提高数据可读性</t>
@@ -255,7 +264,6 @@
         <sz val="12"/>
         <color rgb="FFC55A11"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>*</t>
     </r>
@@ -264,6 +272,7 @@
         <sz val="12"/>
         <color rgb="FFC55A11"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>自动生成</t>
@@ -275,7 +284,6 @@
         <sz val="12"/>
         <color rgb="FF2E75B6"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>#</t>
     </r>
@@ -284,6 +292,7 @@
         <sz val="12"/>
         <color rgb="FF2E75B6"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>唯一性检查</t>
@@ -295,6 +304,7 @@
         <sz val="12"/>
         <color rgb="FF548235"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>公式</t>
@@ -304,7 +314,6 @@
         <sz val="12"/>
         <color rgb="FF548235"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>=</t>
     </r>
@@ -313,6 +322,7 @@
         <sz val="12"/>
         <color rgb="FF548235"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>外键引用</t>
@@ -324,6 +334,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>理论上</t>
@@ -333,7 +344,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>,</t>
     </r>
@@ -342,6 +352,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>表的前后顺序</t>
@@ -351,7 +362,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">,sheet </t>
     </r>
@@ -360,6 +370,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>页的顺序没有严格要求</t>
@@ -369,7 +380,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>,</t>
     </r>
@@ -378,6 +388,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>但请尽量按照先插 后引用的顺序排列</t>
@@ -387,7 +398,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>,</t>
     </r>
@@ -396,6 +406,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>减少迭代次数</t>
@@ -405,7 +416,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>!</t>
     </r>
@@ -434,7 +444,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>*</t>
     </r>
@@ -443,6 +452,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>前置</t>
@@ -452,7 +462,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">, </t>
     </r>
@@ -461,6 +470,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>该列的值自动生成</t>
@@ -470,7 +480,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>,</t>
     </r>
@@ -479,6 +488,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>当数据库存在等价记录时</t>
@@ -488,7 +498,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>,</t>
     </r>
@@ -497,6 +506,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>这个值会被替换为数据库中已存在的值</t>
@@ -508,6 +518,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>自增长</t>
@@ -517,7 +528,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>(</t>
     </r>
@@ -526,6 +536,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>或序列</t>
@@ -535,7 +546,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>)</t>
     </r>
@@ -544,6 +554,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>主键列</t>
@@ -553,7 +564,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">.
 </t>
@@ -563,6 +573,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>当不作为外键引用时</t>
@@ -572,7 +583,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>,</t>
     </r>
@@ -581,6 +591,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>一般写</t>
@@ -590,7 +601,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">*
 </t>
@@ -600,6 +610,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>作为外键时</t>
@@ -609,7 +620,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>,</t>
     </r>
@@ -618,6 +628,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>写可读的值</t>
@@ -629,6 +640,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">目前 </t>
@@ -638,7 +650,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">oracle </t>
     </r>
@@ -647,6 +658,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>是序列</t>
@@ -656,7 +668,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>,</t>
     </r>
@@ -665,6 +676,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>其他自增涨</t>
@@ -679,7 +691,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>#</t>
     </r>
@@ -688,6 +699,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>前置</t>
@@ -697,7 +709,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>,</t>
     </r>
@@ -706,6 +717,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>表中所有带有</t>
@@ -715,7 +727,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>#</t>
     </r>
@@ -724,6 +735,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>的列组成一个唯一性校验</t>
@@ -733,7 +745,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>,</t>
     </r>
@@ -742,6 +753,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>在执行插入之前</t>
@@ -751,7 +763,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>,</t>
     </r>
@@ -760,6 +771,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>会首先按照唯一键来检查数据库是否存在等价记录</t>
@@ -771,6 +783,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>可以有多列</t>
@@ -780,7 +793,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>.</t>
     </r>
@@ -789,6 +801,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>仅支持</t>
@@ -799,6 +812,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>数字</t>
@@ -809,7 +823,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>,</t>
     </r>
@@ -819,6 +832,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">字符串
@@ -829,6 +843,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>当</t>
@@ -838,7 +853,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>#</t>
     </r>
@@ -847,6 +861,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>列涉及到公式时</t>
@@ -856,7 +871,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>,</t>
     </r>
@@ -865,6 +879,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>会先确定公式的值</t>
@@ -879,7 +894,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>(TYPE)</t>
     </r>
@@ -888,6 +902,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>指定这一列的类型</t>
@@ -897,7 +912,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>,</t>
     </r>
@@ -906,6 +920,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>默认会自动检测</t>
@@ -915,7 +930,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>:
 _ID</t>
@@ -925,6 +939,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>结尾为数字</t>
@@ -934,7 +949,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">;
 _DATE </t>
@@ -944,6 +958,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>结尾为日期</t>
@@ -953,7 +968,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">;
 </t>
@@ -963,6 +977,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>其他默认为</t>
@@ -972,7 +987,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>VARCHAR</t>
     </r>
@@ -983,6 +997,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>一般不需要指定</t>
@@ -992,7 +1007,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">.
 </t>
@@ -1002,6 +1016,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>日期格式仅支持</t>
@@ -1011,7 +1026,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>:
 yyyy-MM-dd HH:mm:ss
@@ -1027,7 +1041,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">:LANG </t>
     </r>
@@ -1036,6 +1049,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>指定语言环境</t>
@@ -1047,7 +1061,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">TL </t>
     </r>
@@ -1056,6 +1069,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>表数据不需要专门写</t>
@@ -1067,6 +1081,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>外键引用</t>
@@ -1076,7 +1091,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>(</t>
     </r>
@@ -1085,6 +1099,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>公式</t>
@@ -1094,7 +1109,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>)</t>
     </r>
@@ -1105,6 +1119,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>用于引用外键</t>
@@ -1114,7 +1129,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>,</t>
     </r>
@@ -1123,6 +1137,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>也可用于普通值
@@ -1135,6 +1150,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>自动增长列</t>
@@ -1144,7 +1160,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>,</t>
     </r>
@@ -1153,6 +1168,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>如果被公式引用</t>
@@ -1162,7 +1178,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>,</t>
     </r>
@@ -1171,6 +1186,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>最好写一个人可以读懂的值</t>
@@ -1180,7 +1196,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>,</t>
     </r>
@@ -1189,6 +1204,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>增强公式可读性</t>
@@ -1203,6 +1219,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>一般用于引用自动生成的外键</t>
@@ -1212,7 +1229,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>.</t>
     </r>
@@ -1221,6 +1237,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">所有公式均为 </t>
@@ -1230,7 +1247,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">Excel </t>
     </r>
@@ -1239,6 +1255,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>支持的标准公式</t>
@@ -1248,7 +1265,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>,</t>
     </r>
@@ -1257,6 +1273,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>但不支持特别复杂的计算公式</t>
@@ -1266,7 +1283,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>,</t>
     </r>
@@ -1275,6 +1291,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>比如范围计算</t>
@@ -1290,6 +1307,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>相对</t>
@@ -1299,6 +1317,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">引用当前页 </t>
@@ -1308,7 +1327,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">E9 </t>
     </r>
@@ -1317,6 +1335,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>单元格</t>
@@ -1332,6 +1351,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>绝对</t>
@@ -1341,6 +1361,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">引用当前页 </t>
@@ -1350,7 +1371,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">E9 </t>
     </r>
@@ -1359,6 +1379,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>单元格</t>
@@ -1373,6 +1394,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">引用 </t>
@@ -1382,7 +1404,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">RESOURCE </t>
     </r>
@@ -1391,6 +1412,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">页的 </t>
@@ -1400,7 +1422,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">E23 </t>
     </r>
@@ -1409,6 +1430,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>单元格</t>
@@ -1418,7 +1440,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>(</t>
     </r>
@@ -1428,6 +1449,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>相对</t>
@@ -1437,7 +1459,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>)</t>
     </r>
@@ -1451,6 +1472,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">引用 </t>
@@ -1460,7 +1482,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">RESOURCE </t>
     </r>
@@ -1469,6 +1490,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">页的 </t>
@@ -1478,7 +1500,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">E23 </t>
     </r>
@@ -1487,6 +1508,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>单元格</t>
@@ -1496,7 +1518,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>(</t>
     </r>
@@ -1506,6 +1527,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>绝对</t>
@@ -1515,7 +1537,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>)</t>
     </r>
@@ -1526,6 +1547,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>关于</t>
@@ -1536,6 +1558,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>相对</t>
@@ -1545,6 +1568,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>引用</t>
@@ -1556,6 +1580,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>举例</t>
@@ -1565,7 +1590,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>:</t>
     </r>
@@ -1574,6 +1598,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">当 </t>
@@ -1583,7 +1608,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">F10 </t>
     </r>
@@ -1592,6 +1616,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">单元格引用 </t>
@@ -1601,7 +1626,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">A9 </t>
     </r>
@@ -1610,6 +1634,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">时
@@ -1620,7 +1645,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">F10 </t>
     </r>
@@ -1629,6 +1653,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">的复制到 </t>
@@ -1638,7 +1663,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">F11 </t>
     </r>
@@ -1647,6 +1671,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>单元格时</t>
@@ -1656,7 +1681,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">, F11 </t>
     </r>
@@ -1665,6 +1689,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">引用的是 </t>
@@ -1674,7 +1699,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">A10
 </t>
@@ -1684,6 +1708,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">将 </t>
@@ -1693,7 +1718,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">F10 </t>
     </r>
@@ -1702,6 +1726,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">的复制到 </t>
@@ -1711,7 +1736,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">G11 </t>
     </r>
@@ -1720,6 +1744,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>时</t>
@@ -1729,7 +1754,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">, G11 </t>
     </r>
@@ -1738,6 +1762,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">实际引用的是 </t>
@@ -1747,7 +1772,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">B10
 </t>
@@ -1757,6 +1781,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>以上情况适用于拖拽填充</t>
@@ -1768,6 +1793,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>关于</t>
@@ -1778,6 +1804,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>绝对</t>
@@ -1787,6 +1814,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>引用</t>
@@ -1798,6 +1826,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>复制公式单元格时</t>
@@ -1807,7 +1836,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>,</t>
     </r>
@@ -1816,6 +1844,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>保持公式不变</t>
@@ -1827,6 +1856,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>相对引用</t>
@@ -1836,7 +1866,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>,</t>
     </r>
@@ -1845,6 +1874,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>绝对引用各有用途</t>
@@ -1854,7 +1884,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">.
 </t>
@@ -1864,6 +1893,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>直接拖拽填充就可以避免大量重复工作</t>
@@ -6282,6 +6312,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>iam_menu_permission-4</t>
@@ -6291,6 +6322,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>40</t>
@@ -8612,18 +8644,24 @@
   <si>
     <t>标识gitlab_developer</t>
   </si>
+  <si>
+    <t>devops-service.devops-cluster-resource.queryPrometheus</t>
+  </si>
+  <si>
+    <t>devops-service.devops-deploy-record.paging</t>
+  </si>
+  <si>
+    <t>iam_menu_permission-543</t>
+  </si>
+  <si>
+    <t>iam_menu_permission-544</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="47">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="30">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -8634,30 +8672,31 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="53"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="48"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="42"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="12"/>
       <color theme="9" tint="-0.249977111117893"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
@@ -8665,53 +8704,62 @@
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
-      <color theme="4" tint="-0.25"/>
+      <color theme="4" tint="-0.249977111117893"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FFFF0000"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FFFFC000"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF00B0F0"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF92D050"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <strike/>
       <sz val="12"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF00B050"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
@@ -8719,188 +8767,36 @@
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FFC55A11"/>
       <name val="DengXian"/>
-      <charset val="134"/>
+      <family val="1"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF2E75B6"/>
       <name val="DengXian"/>
-      <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF548235"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="DengXian"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FFFF0000"/>
       <name val="DengXian"/>
-      <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
@@ -8919,28 +8815,46 @@
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="DengXian"/>
-      <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FFC55A11"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF2E75B6"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF548235"/>
       <name val="DengXian"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFC55A11"/>
+      <name val="DengXian"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="37">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -8971,194 +8885,8 @@
         <bgColor rgb="FFE7E6E6"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="18">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -9259,252 +8987,10 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="50">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="22" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="6" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="22" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="22" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="22" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="22" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="19" borderId="15" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="7" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="7" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="24" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -9530,20 +9016,8 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -9577,9 +9051,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -9587,59 +9058,27 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="50">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
-    <cellStyle name="常规 2" xfId="49"/>
+    <cellStyle name="常规 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000031000000}"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium7"/>
   <colors>
     <indexedColors>
@@ -9712,6 +9151,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -9969,271 +9411,268 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25"/>
   <cols>
-    <col min="1" max="1" width="15.5555555555556" style="16" customWidth="1"/>
-    <col min="2" max="2" width="10.3333333333333" style="17" customWidth="1"/>
-    <col min="3" max="3" width="28.1111111111111" customWidth="1"/>
-    <col min="4" max="4" width="35.3333333333333" style="10" customWidth="1"/>
-    <col min="5" max="5" width="38.5555555555556" customWidth="1"/>
-    <col min="6" max="6" width="23.4444444444444" customWidth="1"/>
-    <col min="7" max="7" width="21.5555555555556" customWidth="1"/>
+    <col min="1" max="1" width="15.5546875" style="16" customWidth="1"/>
+    <col min="2" max="2" width="10.33203125" style="17" customWidth="1"/>
+    <col min="3" max="3" width="28.109375" customWidth="1"/>
+    <col min="4" max="4" width="35.33203125" style="10" customWidth="1"/>
+    <col min="5" max="5" width="38.5546875" customWidth="1"/>
+    <col min="6" max="6" width="23.44140625" customWidth="1"/>
+    <col min="7" max="7" width="21.5546875" customWidth="1"/>
     <col min="8" max="8" width="22" customWidth="1"/>
-    <col min="9" max="9" width="24.5555555555556" customWidth="1"/>
+    <col min="9" max="9" width="24.5546875" customWidth="1"/>
     <col min="10" max="10" width="27" customWidth="1"/>
-    <col min="11" max="11" width="19.1111111111111" customWidth="1"/>
-    <col min="12" max="12" width="18.5555555555556" customWidth="1"/>
-    <col min="13" max="13" width="13.1111111111111" customWidth="1"/>
-    <col min="14" max="1025" width="10.3333333333333" customWidth="1"/>
+    <col min="11" max="11" width="19.109375" customWidth="1"/>
+    <col min="12" max="12" width="18.5546875" customWidth="1"/>
+    <col min="13" max="13" width="13.109375" customWidth="1"/>
+    <col min="14" max="1025" width="10.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="64.5" customHeight="1" spans="1:8">
+    <row r="1" spans="1:8" ht="64.5" customHeight="1">
       <c r="A1" s="18"/>
-      <c r="C1" s="19" t="s">
+      <c r="C1" s="41" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="20"/>
-      <c r="G1" s="20"/>
-      <c r="H1" s="20"/>
-    </row>
-    <row r="2" ht="18" spans="5:5">
-      <c r="E2" s="21"/>
-    </row>
-    <row r="3" ht="49.5" customHeight="1" spans="3:7">
-      <c r="C3" s="22" t="s">
+      <c r="D1" s="41"/>
+      <c r="E1" s="41"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
+      <c r="H1" s="19"/>
+    </row>
+    <row r="2" spans="1:8" ht="18">
+      <c r="E2" s="20"/>
+    </row>
+    <row r="3" spans="1:8" ht="49.5" customHeight="1">
+      <c r="C3" s="42" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="22"/>
-      <c r="E3" s="23" t="s">
+      <c r="D3" s="42"/>
+      <c r="E3" s="43" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="23"/>
-      <c r="G3" s="23"/>
-    </row>
-    <row r="4" ht="18" spans="3:7">
-      <c r="C4" s="24" t="s">
+      <c r="F3" s="43"/>
+      <c r="G3" s="43"/>
+    </row>
+    <row r="4" spans="1:8" ht="18">
+      <c r="C4" s="44" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="24"/>
-      <c r="E4" s="25" t="s">
+      <c r="D4" s="44"/>
+      <c r="E4" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="26" t="s">
+      <c r="F4" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="G4" s="27" t="s">
+      <c r="G4" s="23" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:8">
       <c r="A5" s="18"/>
       <c r="C5" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="7" ht="18" spans="3:5">
-      <c r="C7" s="28" t="s">
+    <row r="7" spans="1:8" ht="18">
+      <c r="C7" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="29" t="s">
+      <c r="D7" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="E7" s="30" t="s">
+      <c r="E7" s="26" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="3:5">
-      <c r="C8" s="31" t="s">
+    <row r="8" spans="1:8">
+      <c r="C8" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="32" t="s">
+      <c r="D8" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="E8" s="33"/>
-    </row>
-    <row r="9" ht="51.75" spans="3:6">
-      <c r="C9" s="34" t="s">
+      <c r="E8" s="29"/>
+    </row>
+    <row r="9" spans="1:8" ht="51.75">
+      <c r="C9" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="35" t="s">
+      <c r="D9" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="E9" s="36" t="s">
+      <c r="E9" s="32" t="s">
         <v>15</v>
       </c>
       <c r="F9" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="10" ht="51.75" spans="3:5">
-      <c r="C10" s="37" t="s">
+    <row r="10" spans="1:8" ht="51.75">
+      <c r="C10" s="33" t="s">
         <v>17</v>
       </c>
-      <c r="D10" s="35" t="s">
+      <c r="D10" s="31" t="s">
         <v>18</v>
       </c>
-      <c r="E10" s="36" t="s">
+      <c r="E10" s="32" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="11" ht="69" spans="3:5">
-      <c r="C11" s="31" t="s">
+    <row r="11" spans="1:8" ht="69">
+      <c r="C11" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="D11" s="35" t="s">
+      <c r="D11" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="E11" s="36" t="s">
+      <c r="E11" s="32" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="12" spans="3:5">
-      <c r="C12" s="31" t="s">
+    <row r="12" spans="1:8">
+      <c r="C12" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="D12" s="35" t="s">
+      <c r="D12" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="E12" s="38" t="s">
+      <c r="E12" s="34" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="13" spans="3:5">
-      <c r="C13" s="31"/>
-      <c r="D13" s="32"/>
-      <c r="E13" s="33"/>
-    </row>
-    <row r="14" spans="3:5">
-      <c r="C14" s="31"/>
-      <c r="D14" s="32"/>
-      <c r="E14" s="33"/>
-    </row>
-    <row r="15" ht="34.5" spans="3:5">
-      <c r="C15" s="39" t="s">
+    <row r="13" spans="1:8">
+      <c r="C13" s="27"/>
+      <c r="D13" s="28"/>
+      <c r="E13" s="29"/>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="C14" s="27"/>
+      <c r="D14" s="28"/>
+      <c r="E14" s="29"/>
+    </row>
+    <row r="15" spans="1:8" ht="34.5">
+      <c r="C15" s="35" t="s">
         <v>26</v>
       </c>
-      <c r="D15" s="40" t="s">
+      <c r="D15" s="36" t="s">
         <v>27</v>
       </c>
-      <c r="E15" s="41" t="s">
+      <c r="E15" s="37" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="18" spans="3:3">
+    <row r="18" spans="3:5">
       <c r="C18" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="19" spans="3:5">
-      <c r="C19" s="42" t="s">
+      <c r="C19" s="45" t="s">
         <v>30</v>
       </c>
-      <c r="D19" s="42"/>
-      <c r="E19" s="42"/>
-    </row>
-    <row r="20" ht="18" spans="3:4">
-      <c r="C20" s="43" t="s">
+      <c r="D19" s="45"/>
+      <c r="E19" s="45"/>
+    </row>
+    <row r="20" spans="3:5" ht="18">
+      <c r="C20" s="38" t="s">
         <v>31</v>
       </c>
-      <c r="D20" s="21" t="s">
+      <c r="D20" s="20" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="21" ht="18" spans="3:4">
-      <c r="C21" s="43" t="s">
+    <row r="21" spans="3:5" ht="18">
+      <c r="C21" s="38" t="s">
         <v>33</v>
       </c>
-      <c r="D21" s="21" t="s">
+      <c r="D21" s="20" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="22" ht="18" spans="3:4">
-      <c r="C22" s="43" t="s">
+    <row r="22" spans="3:5" ht="18">
+      <c r="C22" s="38" t="s">
         <v>35</v>
       </c>
       <c r="D22" s="10" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="23" ht="18" spans="3:4">
-      <c r="C23" s="43" t="s">
+    <row r="23" spans="3:5" ht="18">
+      <c r="C23" s="38" t="s">
         <v>37</v>
       </c>
       <c r="D23" s="10" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="25" ht="69" customHeight="1" spans="3:5">
-      <c r="C25" s="44" t="s">
+    <row r="25" spans="3:5" ht="69" customHeight="1">
+      <c r="C25" s="39" t="s">
         <v>39</v>
       </c>
-      <c r="D25" s="22" t="s">
+      <c r="D25" s="42" t="s">
         <v>40</v>
       </c>
-      <c r="E25" s="22"/>
-    </row>
-    <row r="26" ht="14.25" customHeight="1" spans="3:5">
-      <c r="C26" s="32" t="s">
+      <c r="E25" s="42"/>
+    </row>
+    <row r="26" spans="3:5" ht="14.25" customHeight="1">
+      <c r="C26" s="28" t="s">
         <v>41</v>
       </c>
-      <c r="D26" s="22" t="s">
+      <c r="D26" s="42" t="s">
         <v>42</v>
       </c>
-      <c r="E26" s="22"/>
-    </row>
-    <row r="27" ht="51.75" spans="3:3">
-      <c r="C27" s="45" t="s">
+      <c r="E26" s="42"/>
+    </row>
+    <row r="27" spans="3:5" ht="51.75">
+      <c r="C27" s="40" t="s">
         <v>43</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="7">
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="D26:E26"/>
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="E3:G3"/>
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="C19:E19"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="D26:E26"/>
   </mergeCells>
-  <pageMargins left="0.697916666666667" right="0.697916666666667" top="0.75" bottom="0.75" header="0.510416666666667" footer="0.510416666666667"/>
+  <phoneticPr fontId="29" type="noConversion"/>
+  <pageMargins left="0.69791666666666696" right="0.69791666666666696" top="0.75" bottom="0.75" header="0.51041666666666696" footer="0.51041666666666696"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Y181"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A157" workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="E173" sqref="E173"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25"/>
   <cols>
-    <col min="5" max="5" width="37.4444444444444" customWidth="1"/>
-    <col min="6" max="6" width="77.5555555555556" customWidth="1"/>
-    <col min="7" max="7" width="44.2222222222222" customWidth="1"/>
-    <col min="11" max="11" width="24.1111111111111" customWidth="1"/>
+    <col min="5" max="5" width="37.44140625" customWidth="1"/>
+    <col min="6" max="6" width="77.5546875" customWidth="1"/>
+    <col min="7" max="7" width="44.21875" customWidth="1"/>
+    <col min="11" max="11" width="24.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:25">
       <c r="A1" s="1" t="s">
         <v>44</v>
       </c>
@@ -10247,7 +9686,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="4" spans="5:7">
+    <row r="4" spans="1:25">
       <c r="E4" s="2" t="s">
         <v>47</v>
       </c>
@@ -10335,7 +9774,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="8" spans="5:24">
+    <row r="8" spans="1:25">
       <c r="E8" t="s">
         <v>75</v>
       </c>
@@ -10385,7 +9824,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="9" spans="5:24">
+    <row r="9" spans="1:25">
       <c r="E9" t="s">
         <v>84</v>
       </c>
@@ -10442,7 +9881,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="10" spans="5:24">
+    <row r="10" spans="1:25">
       <c r="E10" t="s">
         <v>93</v>
       </c>
@@ -10490,7 +9929,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="11" spans="5:24">
+    <row r="11" spans="1:25">
       <c r="E11" t="s">
         <v>98</v>
       </c>
@@ -10540,7 +9979,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="12" spans="5:24">
+    <row r="12" spans="1:25">
       <c r="E12" t="s">
         <v>103</v>
       </c>
@@ -10594,7 +10033,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="13" spans="5:24">
+    <row r="13" spans="1:25">
       <c r="E13" t="s">
         <v>111</v>
       </c>
@@ -10651,7 +10090,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="14" spans="5:24">
+    <row r="14" spans="1:25">
       <c r="E14" t="s">
         <v>116</v>
       </c>
@@ -10699,7 +10138,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="15" spans="5:24">
+    <row r="15" spans="1:25">
       <c r="E15" t="s">
         <v>121</v>
       </c>
@@ -10747,7 +10186,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="16" spans="5:24">
+    <row r="16" spans="1:25">
       <c r="E16" t="s">
         <v>125</v>
       </c>
@@ -18338,7 +17777,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="170" s="5" customFormat="1" spans="5:24">
+    <row r="170" spans="5:24" s="5" customFormat="1">
       <c r="E170" s="5" t="s">
         <v>771</v>
       </c>
@@ -18395,7 +17834,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="171" s="5" customFormat="1" spans="5:24">
+    <row r="171" spans="5:24" s="5" customFormat="1">
       <c r="E171" s="5" t="s">
         <v>778</v>
       </c>
@@ -18446,7 +17885,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="172" s="5" customFormat="1" spans="5:24">
+    <row r="172" spans="5:24" s="5" customFormat="1">
       <c r="E172" s="5" t="s">
         <v>782</v>
       </c>
@@ -18497,7 +17936,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="173" s="5" customFormat="1" spans="5:24">
+    <row r="173" spans="5:24" s="5" customFormat="1">
       <c r="E173" s="5" t="s">
         <v>786</v>
       </c>
@@ -18548,7 +17987,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="174" s="5" customFormat="1" spans="5:24">
+    <row r="174" spans="5:24" s="5" customFormat="1">
       <c r="E174" s="5" t="s">
         <v>790</v>
       </c>
@@ -18599,7 +18038,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="175" s="5" customFormat="1" spans="5:24">
+    <row r="175" spans="5:24" s="5" customFormat="1">
       <c r="E175" s="5" t="s">
         <v>794</v>
       </c>
@@ -18650,7 +18089,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="176" customFormat="1" spans="5:24">
+    <row r="176" spans="5:24">
       <c r="E176" s="5" t="s">
         <v>798</v>
       </c>
@@ -18698,7 +18137,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="177" customFormat="1" spans="5:24">
+    <row r="177" spans="5:24">
       <c r="E177" s="5" t="s">
         <v>802</v>
       </c>
@@ -18746,7 +18185,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="178" customFormat="1" spans="5:24">
+    <row r="178" spans="5:24">
       <c r="E178" s="5" t="s">
         <v>806</v>
       </c>
@@ -18794,7 +18233,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="179" customFormat="1" spans="5:24">
+    <row r="179" spans="5:24">
       <c r="E179" s="5" t="s">
         <v>810</v>
       </c>
@@ -18842,7 +18281,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="180" customFormat="1" spans="5:24">
+    <row r="180" spans="5:24">
       <c r="E180" s="5" t="s">
         <v>814</v>
       </c>
@@ -18890,7 +18329,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="181" customFormat="1" spans="5:24">
+    <row r="181" spans="5:24">
       <c r="E181" s="5" t="s">
         <v>819</v>
       </c>
@@ -18939,28 +18378,27 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="29" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:G542"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:G544"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" topLeftCell="A522" workbookViewId="0">
-      <selection activeCell="F535" sqref="F535"/>
+    <sheetView tabSelected="1" topLeftCell="A522" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E543" sqref="E543:G544"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25"/>
   <cols>
-    <col min="5" max="5" width="28.1111111111111" customWidth="1"/>
-    <col min="6" max="6" width="34.3333333333333" customWidth="1"/>
-    <col min="7" max="7" width="57.5555555555556" customWidth="1"/>
+    <col min="5" max="5" width="28.109375" customWidth="1"/>
+    <col min="6" max="6" width="34.33203125" customWidth="1"/>
+    <col min="7" max="7" width="57.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>44</v>
       </c>
@@ -18974,7 +18412,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="4" spans="5:7">
+    <row r="4" spans="1:7">
       <c r="E4" s="2" t="s">
         <v>47</v>
       </c>
@@ -19008,7 +18446,7 @@
         <v>826</v>
       </c>
     </row>
-    <row r="8" spans="5:7">
+    <row r="8" spans="1:7">
       <c r="E8" t="s">
         <v>827</v>
       </c>
@@ -19020,7 +18458,7 @@
         <v>828</v>
       </c>
     </row>
-    <row r="9" spans="5:7">
+    <row r="9" spans="1:7">
       <c r="E9" t="s">
         <v>829</v>
       </c>
@@ -19032,7 +18470,7 @@
         <v>830</v>
       </c>
     </row>
-    <row r="10" spans="5:7">
+    <row r="10" spans="1:7">
       <c r="E10" t="s">
         <v>831</v>
       </c>
@@ -19044,7 +18482,7 @@
         <v>832</v>
       </c>
     </row>
-    <row r="11" spans="5:7">
+    <row r="11" spans="1:7">
       <c r="E11" t="s">
         <v>833</v>
       </c>
@@ -19056,7 +18494,7 @@
         <v>834</v>
       </c>
     </row>
-    <row r="12" spans="5:7">
+    <row r="12" spans="1:7">
       <c r="E12" t="s">
         <v>835</v>
       </c>
@@ -19068,7 +18506,7 @@
         <v>836</v>
       </c>
     </row>
-    <row r="13" spans="5:7">
+    <row r="13" spans="1:7">
       <c r="E13" t="s">
         <v>837</v>
       </c>
@@ -19080,7 +18518,7 @@
         <v>838</v>
       </c>
     </row>
-    <row r="14" spans="5:7">
+    <row r="14" spans="1:7">
       <c r="E14" t="s">
         <v>839</v>
       </c>
@@ -19092,7 +18530,7 @@
         <v>840</v>
       </c>
     </row>
-    <row r="15" spans="5:7">
+    <row r="15" spans="1:7">
       <c r="E15" t="s">
         <v>841</v>
       </c>
@@ -19104,7 +18542,7 @@
         <v>842</v>
       </c>
     </row>
-    <row r="16" spans="5:7">
+    <row r="16" spans="1:7">
       <c r="E16" s="6" t="s">
         <v>843</v>
       </c>
@@ -24828,7 +24266,7 @@
         <v>1598</v>
       </c>
     </row>
-    <row r="493" s="7" customFormat="1" spans="5:7">
+    <row r="493" spans="5:7" s="7" customFormat="1">
       <c r="E493" s="7" t="s">
         <v>1599</v>
       </c>
@@ -25104,7 +24542,7 @@
         <v>1616</v>
       </c>
     </row>
-    <row r="516" s="5" customFormat="1" spans="5:7">
+    <row r="516" spans="5:7" s="5" customFormat="1">
       <c r="E516" s="5" t="s">
         <v>1627</v>
       </c>
@@ -25116,7 +24554,7 @@
         <v>1628</v>
       </c>
     </row>
-    <row r="517" s="5" customFormat="1" spans="5:7">
+    <row r="517" spans="5:7" s="5" customFormat="1">
       <c r="E517" s="5" t="s">
         <v>1629</v>
       </c>
@@ -25128,7 +24566,7 @@
         <v>1630</v>
       </c>
     </row>
-    <row r="518" s="5" customFormat="1" spans="5:7">
+    <row r="518" spans="5:7" s="5" customFormat="1">
       <c r="E518" s="5" t="s">
         <v>1631</v>
       </c>
@@ -25140,7 +24578,7 @@
         <v>1632</v>
       </c>
     </row>
-    <row r="519" s="5" customFormat="1" spans="5:7">
+    <row r="519" spans="5:7" s="5" customFormat="1">
       <c r="E519" s="5" t="s">
         <v>1633</v>
       </c>
@@ -25152,7 +24590,7 @@
         <v>1634</v>
       </c>
     </row>
-    <row r="520" s="5" customFormat="1" spans="5:7">
+    <row r="520" spans="5:7" s="5" customFormat="1">
       <c r="E520" s="5" t="s">
         <v>1635</v>
       </c>
@@ -25164,7 +24602,7 @@
         <v>1636</v>
       </c>
     </row>
-    <row r="521" s="5" customFormat="1" spans="5:7">
+    <row r="521" spans="5:7" s="5" customFormat="1">
       <c r="E521" s="5" t="s">
         <v>1637</v>
       </c>
@@ -25176,7 +24614,7 @@
         <v>1638</v>
       </c>
     </row>
-    <row r="522" s="5" customFormat="1" spans="5:7">
+    <row r="522" spans="5:7" s="5" customFormat="1">
       <c r="E522" s="5" t="s">
         <v>1639</v>
       </c>
@@ -25188,7 +24626,7 @@
         <v>1632</v>
       </c>
     </row>
-    <row r="523" s="5" customFormat="1" spans="5:7">
+    <row r="523" spans="5:7" s="5" customFormat="1">
       <c r="E523" s="5" t="s">
         <v>1640</v>
       </c>
@@ -25200,7 +24638,7 @@
         <v>1634</v>
       </c>
     </row>
-    <row r="524" s="5" customFormat="1" spans="5:7">
+    <row r="524" spans="5:7" s="5" customFormat="1">
       <c r="E524" s="5" t="s">
         <v>1641</v>
       </c>
@@ -25212,7 +24650,7 @@
         <v>1636</v>
       </c>
     </row>
-    <row r="525" s="5" customFormat="1" spans="5:7">
+    <row r="525" spans="5:7" s="5" customFormat="1">
       <c r="E525" s="5" t="s">
         <v>1642</v>
       </c>
@@ -25224,7 +24662,7 @@
         <v>1638</v>
       </c>
     </row>
-    <row r="526" s="5" customFormat="1" spans="5:7">
+    <row r="526" spans="5:7" s="5" customFormat="1">
       <c r="E526" s="5" t="s">
         <v>1643</v>
       </c>
@@ -25236,7 +24674,7 @@
         <v>1644</v>
       </c>
     </row>
-    <row r="527" s="5" customFormat="1" spans="5:7">
+    <row r="527" spans="5:7" s="5" customFormat="1">
       <c r="E527" s="5" t="s">
         <v>1645</v>
       </c>
@@ -25248,7 +24686,7 @@
         <v>1646</v>
       </c>
     </row>
-    <row r="528" s="5" customFormat="1" spans="5:7">
+    <row r="528" spans="5:7" s="5" customFormat="1">
       <c r="E528" s="5" t="s">
         <v>1647</v>
       </c>
@@ -25260,7 +24698,7 @@
         <v>1648</v>
       </c>
     </row>
-    <row r="529" s="5" customFormat="1" spans="5:7">
+    <row r="529" spans="5:7" s="5" customFormat="1">
       <c r="E529" s="5" t="s">
         <v>1649</v>
       </c>
@@ -25272,7 +24710,7 @@
         <v>1650</v>
       </c>
     </row>
-    <row r="530" s="5" customFormat="1" spans="5:7">
+    <row r="530" spans="5:7" s="5" customFormat="1">
       <c r="E530" s="5" t="s">
         <v>1651</v>
       </c>
@@ -25296,7 +24734,7 @@
         <v>1654</v>
       </c>
     </row>
-    <row r="532" s="8" customFormat="1" spans="5:7">
+    <row r="532" spans="5:7" s="8" customFormat="1">
       <c r="E532" s="8" t="s">
         <v>1655</v>
       </c>
@@ -25308,7 +24746,7 @@
         <v>1656</v>
       </c>
     </row>
-    <row r="533" s="8" customFormat="1" spans="5:7">
+    <row r="533" spans="5:7" s="8" customFormat="1">
       <c r="E533" s="8" t="s">
         <v>1657</v>
       </c>
@@ -25320,7 +24758,7 @@
         <v>1658</v>
       </c>
     </row>
-    <row r="534" s="8" customFormat="1" spans="5:7">
+    <row r="534" spans="5:7" s="8" customFormat="1">
       <c r="E534" s="8" t="s">
         <v>1659</v>
       </c>
@@ -25332,7 +24770,7 @@
         <v>1660</v>
       </c>
     </row>
-    <row r="535" s="8" customFormat="1" spans="5:7">
+    <row r="535" spans="5:7" s="8" customFormat="1">
       <c r="E535" s="8" t="s">
         <v>1661</v>
       </c>
@@ -25344,7 +24782,7 @@
         <v>1660</v>
       </c>
     </row>
-    <row r="536" s="8" customFormat="1" spans="5:7">
+    <row r="536" spans="5:7" s="8" customFormat="1">
       <c r="E536" s="8" t="s">
         <v>1662</v>
       </c>
@@ -25356,7 +24794,7 @@
         <v>1100</v>
       </c>
     </row>
-    <row r="537" s="8" customFormat="1" spans="5:7">
+    <row r="537" spans="5:7" s="8" customFormat="1">
       <c r="E537" s="8" t="s">
         <v>1663</v>
       </c>
@@ -25416,7 +24854,7 @@
         <v>1671</v>
       </c>
     </row>
-    <row r="542" s="9" customFormat="1" spans="5:7">
+    <row r="542" spans="5:7" s="9" customFormat="1">
       <c r="E542" s="9" t="s">
         <v>1672</v>
       </c>
@@ -25428,15 +24866,38 @@
         <v>1673</v>
       </c>
     </row>
+    <row r="543" spans="5:7">
+      <c r="E543" s="15" t="s">
+        <v>2288</v>
+      </c>
+      <c r="F543" s="15" t="str">
+        <f>菜单SAAS版!E95</f>
+        <v>iam_menu-95</v>
+      </c>
+      <c r="G543" s="15" t="s">
+        <v>2286</v>
+      </c>
+    </row>
+    <row r="544" spans="5:7">
+      <c r="E544" s="15" t="s">
+        <v>2289</v>
+      </c>
+      <c r="F544" s="15" t="str">
+        <f>菜单SAAS版!E13</f>
+        <v>iam_menu-13</v>
+      </c>
+      <c r="G544" s="15" t="s">
+        <v>2287</v>
+      </c>
+    </row>
   </sheetData>
+  <phoneticPr fontId="29" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:O120"/>
   <sheetViews>
     <sheetView topLeftCell="A87" workbookViewId="0">
@@ -25445,12 +24906,12 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25"/>
   <cols>
-    <col min="5" max="5" width="14.6666666666667" customWidth="1"/>
-    <col min="7" max="7" width="17.3333333333333" customWidth="1"/>
-    <col min="8" max="8" width="12.2222222222222" customWidth="1"/>
+    <col min="5" max="5" width="14.6640625" customWidth="1"/>
+    <col min="7" max="7" width="17.33203125" customWidth="1"/>
+    <col min="8" max="8" width="12.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:15">
       <c r="A1" s="1" t="s">
         <v>44</v>
       </c>
@@ -25464,7 +24925,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="4" spans="5:7">
+    <row r="4" spans="1:15">
       <c r="E4" s="2" t="s">
         <v>47</v>
       </c>
@@ -25522,7 +24983,7 @@
         <v>1685</v>
       </c>
     </row>
-    <row r="8" spans="5:15">
+    <row r="8" spans="1:15">
       <c r="E8" t="s">
         <v>1686</v>
       </c>
@@ -25554,7 +25015,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="9" spans="5:15">
+    <row r="9" spans="1:15">
       <c r="E9" t="s">
         <v>1691</v>
       </c>
@@ -25586,7 +25047,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="10" spans="5:15">
+    <row r="10" spans="1:15">
       <c r="E10" t="s">
         <v>1694</v>
       </c>
@@ -25612,7 +25073,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="11" spans="5:15">
+    <row r="11" spans="1:15">
       <c r="E11" t="s">
         <v>1697</v>
       </c>
@@ -25638,7 +25099,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="12" spans="5:15">
+    <row r="12" spans="1:15">
       <c r="E12" t="s">
         <v>1699</v>
       </c>
@@ -25670,7 +25131,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="13" spans="5:15">
+    <row r="13" spans="1:15">
       <c r="E13" t="s">
         <v>1702</v>
       </c>
@@ -25699,7 +25160,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="14" spans="5:15">
+    <row r="14" spans="1:15">
       <c r="E14" t="s">
         <v>1705</v>
       </c>
@@ -25728,7 +25189,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="15" spans="5:15">
+    <row r="15" spans="1:15">
       <c r="E15" t="s">
         <v>1708</v>
       </c>
@@ -25757,7 +25218,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="16" spans="5:15">
+    <row r="16" spans="1:15">
       <c r="E16" t="s">
         <v>1711</v>
       </c>
@@ -25786,7 +25247,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="17" spans="5:15">
+    <row r="17" spans="1:15">
       <c r="E17" t="s">
         <v>1714</v>
       </c>
@@ -25818,7 +25279,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="18" spans="5:15">
+    <row r="18" spans="1:15">
       <c r="E18" t="s">
         <v>1717</v>
       </c>
@@ -25850,7 +25311,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="19" spans="5:15">
+    <row r="19" spans="1:15">
       <c r="E19" t="s">
         <v>1720</v>
       </c>
@@ -25882,7 +25343,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="20" spans="5:15">
+    <row r="20" spans="1:15">
       <c r="E20" t="s">
         <v>1723</v>
       </c>
@@ -25908,7 +25369,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="21" spans="5:15">
+    <row r="21" spans="1:15">
       <c r="E21" t="s">
         <v>1725</v>
       </c>
@@ -25940,7 +25401,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="22" spans="5:15">
+    <row r="22" spans="1:15">
       <c r="E22" t="s">
         <v>1728</v>
       </c>
@@ -25972,7 +25433,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="23" spans="5:15">
+    <row r="23" spans="1:15">
       <c r="E23" t="s">
         <v>1731</v>
       </c>
@@ -26004,7 +25465,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="24" spans="5:15">
+    <row r="24" spans="1:15">
       <c r="E24" t="s">
         <v>1734</v>
       </c>
@@ -26030,7 +25491,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="25" spans="5:15">
+    <row r="25" spans="1:15">
       <c r="E25" t="s">
         <v>1736</v>
       </c>
@@ -26059,7 +25520,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="26" spans="5:15">
+    <row r="26" spans="1:15">
       <c r="E26" t="s">
         <v>1739</v>
       </c>
@@ -26088,7 +25549,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="28" spans="1:9">
+    <row r="28" spans="1:15">
       <c r="A28" t="s">
         <v>50</v>
       </c>
@@ -26117,7 +25578,7 @@
         <v>1748</v>
       </c>
     </row>
-    <row r="29" spans="5:9">
+    <row r="29" spans="1:15">
       <c r="E29" t="s">
         <v>1749</v>
       </c>
@@ -26136,7 +25597,7 @@
         <v>1750</v>
       </c>
     </row>
-    <row r="30" spans="5:9">
+    <row r="30" spans="1:15">
       <c r="E30" t="s">
         <v>1749</v>
       </c>
@@ -26155,7 +25616,7 @@
         <v>1750</v>
       </c>
     </row>
-    <row r="31" spans="5:9">
+    <row r="31" spans="1:15">
       <c r="E31" t="s">
         <v>1749</v>
       </c>
@@ -26174,7 +25635,7 @@
         <v>1750</v>
       </c>
     </row>
-    <row r="32" spans="5:9">
+    <row r="32" spans="1:15">
       <c r="E32" t="s">
         <v>1749</v>
       </c>
@@ -27866,14 +27327,13 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="29" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:Y446"/>
   <sheetViews>
     <sheetView topLeftCell="A423" workbookViewId="0">
@@ -27882,14 +27342,14 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25"/>
   <cols>
-    <col min="5" max="5" width="33.8888888888889" customWidth="1"/>
-    <col min="6" max="6" width="15.6666666666667" customWidth="1"/>
+    <col min="5" max="5" width="33.88671875" customWidth="1"/>
+    <col min="6" max="6" width="15.6640625" customWidth="1"/>
     <col min="7" max="7" width="17" customWidth="1"/>
-    <col min="21" max="21" width="14.4444444444444" customWidth="1"/>
-    <col min="22" max="22" width="14.8888888888889" customWidth="1"/>
+    <col min="21" max="21" width="14.44140625" customWidth="1"/>
+    <col min="22" max="22" width="14.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:25">
       <c r="A1" s="1" t="s">
         <v>44</v>
       </c>
@@ -27903,7 +27363,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="4" spans="5:7">
+    <row r="4" spans="1:25">
       <c r="E4" s="2" t="s">
         <v>47</v>
       </c>
@@ -27991,7 +27451,7 @@
         <v>1766</v>
       </c>
     </row>
-    <row r="8" spans="5:23">
+    <row r="8" spans="1:25">
       <c r="E8" t="s">
         <v>1767</v>
       </c>
@@ -28050,7 +27510,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="9" spans="5:23">
+    <row r="9" spans="1:25">
       <c r="E9" t="s">
         <v>1773</v>
       </c>
@@ -28109,7 +27569,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="10" spans="5:25">
+    <row r="10" spans="1:25">
       <c r="E10" t="s">
         <v>1778</v>
       </c>
@@ -28172,7 +27632,7 @@
         <v>1785</v>
       </c>
     </row>
-    <row r="11" spans="5:25">
+    <row r="11" spans="1:25">
       <c r="E11" t="s">
         <v>1786</v>
       </c>
@@ -28235,7 +27695,7 @@
         <v>1793</v>
       </c>
     </row>
-    <row r="12" spans="5:25">
+    <row r="12" spans="1:25">
       <c r="E12" t="s">
         <v>1794</v>
       </c>
@@ -28298,7 +27758,7 @@
         <v>1801</v>
       </c>
     </row>
-    <row r="13" spans="5:25">
+    <row r="13" spans="1:25">
       <c r="E13" t="s">
         <v>1802</v>
       </c>
@@ -28361,7 +27821,7 @@
         <v>1809</v>
       </c>
     </row>
-    <row r="14" spans="5:23">
+    <row r="14" spans="1:25">
       <c r="E14" t="s">
         <v>1810</v>
       </c>
@@ -28418,7 +27878,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:10">
+    <row r="16" spans="1:25">
       <c r="A16" t="s">
         <v>50</v>
       </c>
@@ -37052,7 +36512,7 @@
         <v>1824</v>
       </c>
     </row>
-    <row r="408" s="5" customFormat="1" spans="5:10">
+    <row r="408" spans="5:10" s="5" customFormat="1">
       <c r="E408" s="5" t="s">
         <v>2216</v>
       </c>
@@ -37074,7 +36534,7 @@
         <v>1824</v>
       </c>
     </row>
-    <row r="409" s="5" customFormat="1" spans="5:10">
+    <row r="409" spans="5:10" s="5" customFormat="1">
       <c r="E409" s="5" t="s">
         <v>2217</v>
       </c>
@@ -37096,7 +36556,7 @@
         <v>1824</v>
       </c>
     </row>
-    <row r="410" s="5" customFormat="1" spans="5:10">
+    <row r="410" spans="5:10" s="5" customFormat="1">
       <c r="E410" s="5" t="s">
         <v>2218</v>
       </c>
@@ -37118,7 +36578,7 @@
         <v>1824</v>
       </c>
     </row>
-    <row r="411" s="5" customFormat="1" spans="5:10">
+    <row r="411" spans="5:10" s="5" customFormat="1">
       <c r="E411" s="5" t="s">
         <v>2219</v>
       </c>
@@ -37140,7 +36600,7 @@
         <v>1824</v>
       </c>
     </row>
-    <row r="412" s="5" customFormat="1" spans="5:10">
+    <row r="412" spans="5:10" s="5" customFormat="1">
       <c r="E412" s="5" t="s">
         <v>2220</v>
       </c>
@@ -37162,7 +36622,7 @@
         <v>1824</v>
       </c>
     </row>
-    <row r="413" s="5" customFormat="1" spans="5:10">
+    <row r="413" spans="5:10" s="5" customFormat="1">
       <c r="E413" s="5" t="s">
         <v>2221</v>
       </c>
@@ -37184,7 +36644,7 @@
         <v>1824</v>
       </c>
     </row>
-    <row r="414" s="5" customFormat="1" spans="5:10">
+    <row r="414" spans="5:10" s="5" customFormat="1">
       <c r="E414" s="5" t="s">
         <v>2222</v>
       </c>
@@ -37206,7 +36666,7 @@
         <v>1824</v>
       </c>
     </row>
-    <row r="415" s="5" customFormat="1" spans="5:10">
+    <row r="415" spans="5:10" s="5" customFormat="1">
       <c r="E415" s="5" t="s">
         <v>2223</v>
       </c>
@@ -37228,7 +36688,7 @@
         <v>1824</v>
       </c>
     </row>
-    <row r="416" s="5" customFormat="1" spans="5:10">
+    <row r="416" spans="5:10" s="5" customFormat="1">
       <c r="E416" s="5" t="s">
         <v>2224</v>
       </c>
@@ -37250,7 +36710,7 @@
         <v>1824</v>
       </c>
     </row>
-    <row r="417" s="5" customFormat="1" spans="5:10">
+    <row r="417" spans="5:10" s="5" customFormat="1">
       <c r="E417" s="5" t="s">
         <v>2225</v>
       </c>
@@ -37272,7 +36732,7 @@
         <v>1824</v>
       </c>
     </row>
-    <row r="418" s="5" customFormat="1" spans="5:10">
+    <row r="418" spans="5:10" s="5" customFormat="1">
       <c r="E418" s="5" t="s">
         <v>2226</v>
       </c>
@@ -37294,7 +36754,7 @@
         <v>1824</v>
       </c>
     </row>
-    <row r="419" s="5" customFormat="1" spans="5:10">
+    <row r="419" spans="5:10" s="5" customFormat="1">
       <c r="E419" s="5" t="s">
         <v>2227</v>
       </c>
@@ -37316,7 +36776,7 @@
         <v>1824</v>
       </c>
     </row>
-    <row r="420" s="5" customFormat="1" spans="5:10">
+    <row r="420" spans="5:10" s="5" customFormat="1">
       <c r="E420" s="5" t="s">
         <v>2228</v>
       </c>
@@ -37338,7 +36798,7 @@
         <v>1824</v>
       </c>
     </row>
-    <row r="421" s="5" customFormat="1" spans="5:10">
+    <row r="421" spans="5:10" s="5" customFormat="1">
       <c r="E421" s="5" t="s">
         <v>2229</v>
       </c>
@@ -37360,7 +36820,7 @@
         <v>1824</v>
       </c>
     </row>
-    <row r="422" s="5" customFormat="1" spans="5:10">
+    <row r="422" spans="5:10" s="5" customFormat="1">
       <c r="E422" s="5" t="s">
         <v>2230</v>
       </c>
@@ -37382,7 +36842,7 @@
         <v>1824</v>
       </c>
     </row>
-    <row r="423" s="5" customFormat="1" spans="5:10">
+    <row r="423" spans="5:10" s="5" customFormat="1">
       <c r="E423" s="5" t="s">
         <v>2231</v>
       </c>
@@ -37404,7 +36864,7 @@
         <v>1824</v>
       </c>
     </row>
-    <row r="424" s="5" customFormat="1" spans="5:10">
+    <row r="424" spans="5:10" s="5" customFormat="1">
       <c r="E424" s="5" t="s">
         <v>2232</v>
       </c>
@@ -37426,7 +36886,7 @@
         <v>1824</v>
       </c>
     </row>
-    <row r="425" s="5" customFormat="1" spans="5:10">
+    <row r="425" spans="5:10" s="5" customFormat="1">
       <c r="E425" s="5" t="s">
         <v>2233</v>
       </c>
@@ -37448,7 +36908,7 @@
         <v>1824</v>
       </c>
     </row>
-    <row r="426" s="5" customFormat="1" spans="5:10">
+    <row r="426" spans="5:10" s="5" customFormat="1">
       <c r="E426" s="5" t="s">
         <v>2234</v>
       </c>
@@ -37470,7 +36930,7 @@
         <v>1824</v>
       </c>
     </row>
-    <row r="427" s="5" customFormat="1" spans="5:10">
+    <row r="427" spans="5:10" s="5" customFormat="1">
       <c r="E427" s="5" t="s">
         <v>2235</v>
       </c>
@@ -37492,7 +36952,7 @@
         <v>1824</v>
       </c>
     </row>
-    <row r="428" s="5" customFormat="1" spans="5:10">
+    <row r="428" spans="5:10" s="5" customFormat="1">
       <c r="E428" s="5" t="s">
         <v>2236</v>
       </c>
@@ -37602,7 +37062,7 @@
         <v>1824</v>
       </c>
     </row>
-    <row r="433" ht="18" customHeight="1" spans="5:10">
+    <row r="433" spans="5:10" ht="18" customHeight="1">
       <c r="E433" s="5" t="s">
         <v>2241</v>
       </c>
@@ -37911,14 +37371,13 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="29" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:O35"/>
   <sheetViews>
     <sheetView topLeftCell="A55" workbookViewId="0">
@@ -37927,7 +37386,7 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:15">
       <c r="A1" s="1" t="s">
         <v>44</v>
       </c>
@@ -37941,7 +37400,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="4" spans="5:7">
+    <row r="4" spans="1:15">
       <c r="E4" s="2" t="s">
         <v>47</v>
       </c>
@@ -37999,7 +37458,7 @@
         <v>1685</v>
       </c>
     </row>
-    <row r="8" spans="5:15">
+    <row r="8" spans="1:15">
       <c r="E8" t="s">
         <v>1686</v>
       </c>
@@ -38031,7 +37490,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="9" spans="5:15">
+    <row r="9" spans="1:15">
       <c r="E9" t="s">
         <v>1691</v>
       </c>
@@ -38060,7 +37519,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="10" spans="5:15">
+    <row r="10" spans="1:15">
       <c r="E10" t="s">
         <v>1694</v>
       </c>
@@ -38092,7 +37551,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="11" spans="5:15">
+    <row r="11" spans="1:15">
       <c r="E11" t="s">
         <v>1697</v>
       </c>
@@ -38124,7 +37583,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="12" spans="5:15">
+    <row r="12" spans="1:15">
       <c r="E12" t="s">
         <v>1699</v>
       </c>
@@ -38156,7 +37615,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="13" spans="5:15">
+    <row r="13" spans="1:15">
       <c r="E13" t="s">
         <v>1702</v>
       </c>
@@ -38188,7 +37647,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="14" spans="5:15">
+    <row r="14" spans="1:15">
       <c r="E14" t="s">
         <v>1705</v>
       </c>
@@ -38220,7 +37679,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="15" spans="5:15">
+    <row r="15" spans="1:15">
       <c r="E15" t="s">
         <v>1708</v>
       </c>
@@ -38252,7 +37711,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="16" spans="5:15">
+    <row r="16" spans="1:15">
       <c r="E16" t="s">
         <v>1711</v>
       </c>
@@ -38284,7 +37743,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="17" spans="5:15">
+    <row r="17" spans="1:15">
       <c r="E17" t="s">
         <v>1714</v>
       </c>
@@ -38316,7 +37775,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="18" spans="5:15">
+    <row r="18" spans="1:15">
       <c r="E18" t="s">
         <v>1717</v>
       </c>
@@ -38348,7 +37807,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="19" spans="5:15">
+    <row r="19" spans="1:15">
       <c r="E19" t="s">
         <v>1720</v>
       </c>
@@ -38380,7 +37839,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="21" spans="1:9">
+    <row r="21" spans="1:15">
       <c r="A21" t="s">
         <v>50</v>
       </c>
@@ -38409,7 +37868,7 @@
         <v>1748</v>
       </c>
     </row>
-    <row r="22" spans="5:9">
+    <row r="22" spans="1:15">
       <c r="E22" t="s">
         <v>1749</v>
       </c>
@@ -38428,7 +37887,7 @@
         <v>1751</v>
       </c>
     </row>
-    <row r="23" spans="5:9">
+    <row r="23" spans="1:15">
       <c r="E23" t="s">
         <v>1749</v>
       </c>
@@ -38447,7 +37906,7 @@
         <v>1751</v>
       </c>
     </row>
-    <row r="24" spans="5:9">
+    <row r="24" spans="1:15">
       <c r="E24" t="s">
         <v>1749</v>
       </c>
@@ -38466,7 +37925,7 @@
         <v>1751</v>
       </c>
     </row>
-    <row r="25" spans="5:9">
+    <row r="25" spans="1:15">
       <c r="E25" t="s">
         <v>1749</v>
       </c>
@@ -38485,7 +37944,7 @@
         <v>1751</v>
       </c>
     </row>
-    <row r="26" spans="5:9">
+    <row r="26" spans="1:15">
       <c r="E26" t="s">
         <v>1749</v>
       </c>
@@ -38504,7 +37963,7 @@
         <v>1751</v>
       </c>
     </row>
-    <row r="27" spans="5:9">
+    <row r="27" spans="1:15">
       <c r="E27" t="s">
         <v>1749</v>
       </c>
@@ -38523,7 +37982,7 @@
         <v>1751</v>
       </c>
     </row>
-    <row r="28" spans="5:9">
+    <row r="28" spans="1:15">
       <c r="E28" t="s">
         <v>1749</v>
       </c>
@@ -38542,7 +38001,7 @@
         <v>1751</v>
       </c>
     </row>
-    <row r="29" spans="5:9">
+    <row r="29" spans="1:15">
       <c r="E29" t="s">
         <v>1749</v>
       </c>
@@ -38561,7 +38020,7 @@
         <v>1751</v>
       </c>
     </row>
-    <row r="30" spans="5:9">
+    <row r="30" spans="1:15">
       <c r="E30" t="s">
         <v>1749</v>
       </c>
@@ -38580,7 +38039,7 @@
         <v>1751</v>
       </c>
     </row>
-    <row r="31" spans="5:9">
+    <row r="31" spans="1:15">
       <c r="E31" t="s">
         <v>1749</v>
       </c>
@@ -38599,7 +38058,7 @@
         <v>1751</v>
       </c>
     </row>
-    <row r="32" spans="5:9">
+    <row r="32" spans="1:15">
       <c r="E32" t="s">
         <v>1749</v>
       </c>
@@ -38676,8 +38135,8 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="29" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
-  <headerFooter/>
 </worksheet>
 </file>
--- a/src/main/resources/script/db/init-data/devops_service/hzero_platform/hzero-menu-user-role-label.xlsx
+++ b/src/main/resources/script/db/init-data/devops_service/hzero_platform/hzero-menu-user-role-label.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\projcect\devops\devops-service\src\main\resources\script\db\init-data\devops_service\hzero_platform\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E20D96A-1E80-43CC-B1F7-0B5CB081EEA0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7817CE22-1290-4606-AF37-82DB03D1BDCB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="597" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6243" uniqueCount="2290">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6245" uniqueCount="2292">
   <si>
     <r>
       <rPr>
@@ -8655,6 +8655,12 @@
   </si>
   <si>
     <t>iam_menu_permission-544</t>
+  </si>
+  <si>
+    <t>devops-service.devops-cd-job-record.getHostLog</t>
+  </si>
+  <si>
+    <t>iam_menu_permission-545</t>
   </si>
 </sst>
 </file>
@@ -9058,11 +9064,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -9441,11 +9447,11 @@
   <sheetData>
     <row r="1" spans="1:8" ht="64.5" customHeight="1">
       <c r="A1" s="18"/>
-      <c r="C1" s="41" t="s">
+      <c r="C1" s="42" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="41"/>
-      <c r="E1" s="41"/>
+      <c r="D1" s="42"/>
+      <c r="E1" s="42"/>
       <c r="F1" s="19"/>
       <c r="G1" s="19"/>
       <c r="H1" s="19"/>
@@ -9454,10 +9460,10 @@
       <c r="E2" s="20"/>
     </row>
     <row r="3" spans="1:8" ht="49.5" customHeight="1">
-      <c r="C3" s="42" t="s">
+      <c r="C3" s="41" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="42"/>
+      <c r="D3" s="41"/>
       <c r="E3" s="43" t="s">
         <v>2</v>
       </c>
@@ -9621,19 +9627,19 @@
       <c r="C25" s="39" t="s">
         <v>39</v>
       </c>
-      <c r="D25" s="42" t="s">
+      <c r="D25" s="41" t="s">
         <v>40</v>
       </c>
-      <c r="E25" s="42"/>
+      <c r="E25" s="41"/>
     </row>
     <row r="26" spans="3:5" ht="14.25" customHeight="1">
       <c r="C26" s="28" t="s">
         <v>41</v>
       </c>
-      <c r="D26" s="42" t="s">
+      <c r="D26" s="41" t="s">
         <v>42</v>
       </c>
-      <c r="E26" s="42"/>
+      <c r="E26" s="41"/>
     </row>
     <row r="27" spans="3:5" ht="51.75">
       <c r="C27" s="40" t="s">
@@ -9660,8 +9666,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Y181"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="E173" sqref="E173"/>
+    <sheetView topLeftCell="A136" workbookViewId="0">
+      <selection activeCell="E147" sqref="E147"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25"/>
@@ -18385,10 +18391,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:G544"/>
+  <dimension ref="A1:G545"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A522" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E543" sqref="E543:G544"/>
+      <selection activeCell="F545" sqref="F545"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25"/>
@@ -24888,6 +24894,18 @@
       </c>
       <c r="G544" s="15" t="s">
         <v>2287</v>
+      </c>
+    </row>
+    <row r="545" spans="5:7">
+      <c r="E545" s="12" t="s">
+        <v>2291</v>
+      </c>
+      <c r="F545" s="12" t="str">
+        <f>菜单SAAS版!E147</f>
+        <v>iam_menu-147</v>
+      </c>
+      <c r="G545" s="12" t="s">
+        <v>2290</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/script/db/init-data/devops_service/hzero_platform/hzero-menu-user-role-label.xlsx
+++ b/src/main/resources/script/db/init-data/devops_service/hzero_platform/hzero-menu-user-role-label.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\projcect\devops\devops-service\src\main\resources\script\db\init-data\devops_service\hzero_platform\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7817CE22-1290-4606-AF37-82DB03D1BDCB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DC0EE4F-553C-4FDD-9554-DAEBA22FDFF8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="597" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6245" uniqueCount="2292">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6249" uniqueCount="2295">
   <si>
     <r>
       <rPr>
@@ -8661,6 +8661,15 @@
   </si>
   <si>
     <t>iam_menu_permission-545</t>
+  </si>
+  <si>
+    <t>devops-service.devops-host.testConnectionByIdForDeployHost</t>
+  </si>
+  <si>
+    <t>iam_menu_permission-546</t>
+  </si>
+  <si>
+    <t>iam_menu_permission-547</t>
   </si>
 </sst>
 </file>
@@ -9667,7 +9676,7 @@
   <dimension ref="A1:Y181"/>
   <sheetViews>
     <sheetView topLeftCell="A136" workbookViewId="0">
-      <selection activeCell="E147" sqref="E147"/>
+      <selection activeCell="E141" sqref="E141"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25"/>
@@ -18391,10 +18400,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:G545"/>
+  <dimension ref="A1:G547"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A522" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F545" sqref="F545"/>
+      <selection activeCell="E546" sqref="E546:E547"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25"/>
@@ -24906,6 +24915,30 @@
       </c>
       <c r="G545" s="12" t="s">
         <v>2290</v>
+      </c>
+    </row>
+    <row r="546" spans="5:7">
+      <c r="E546" s="12" t="s">
+        <v>2293</v>
+      </c>
+      <c r="F546" t="str">
+        <f>菜单SAAS版!E141</f>
+        <v>iam_menu-141</v>
+      </c>
+      <c r="G546" t="s">
+        <v>2292</v>
+      </c>
+    </row>
+    <row r="547" spans="5:7">
+      <c r="E547" s="12" t="s">
+        <v>2294</v>
+      </c>
+      <c r="F547" t="str">
+        <f>菜单SAAS版!E151</f>
+        <v>iam_menu-151</v>
+      </c>
+      <c r="G547" t="s">
+        <v>2292</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/script/db/init-data/devops_service/hzero_platform/hzero-menu-user-role-label.xlsx
+++ b/src/main/resources/script/db/init-data/devops_service/hzero_platform/hzero-menu-user-role-label.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\projcect\devops\devops-service\src\main\resources\script\db\init-data\devops_service\hzero_platform\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DC0EE4F-553C-4FDD-9554-DAEBA22FDFF8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5EFECEC-490E-4E58-A1D2-15D199690F6A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="597" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -9675,7 +9675,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Y181"/>
   <sheetViews>
-    <sheetView topLeftCell="A136" workbookViewId="0">
+    <sheetView topLeftCell="D1" workbookViewId="0">
       <selection activeCell="E141" sqref="E141"/>
     </sheetView>
   </sheetViews>
@@ -18402,8 +18402,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:G547"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A522" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E546" sqref="E546:E547"/>
+    <sheetView tabSelected="1" topLeftCell="A525" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F545" sqref="F545"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25"/>
@@ -24898,8 +24898,8 @@
         <v>2289</v>
       </c>
       <c r="F544" s="15" t="str">
-        <f>菜单SAAS版!E13</f>
-        <v>iam_menu-13</v>
+        <f>菜单SAAS版!E17</f>
+        <v>iam_menu-17</v>
       </c>
       <c r="G544" s="15" t="s">
         <v>2287</v>

--- a/src/main/resources/script/db/init-data/devops_service/hzero_platform/hzero-menu-user-role-label.xlsx
+++ b/src/main/resources/script/db/init-data/devops_service/hzero_platform/hzero-menu-user-role-label.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\projcect\devops\devops-service\src\main\resources\script\db\init-data\devops_service\hzero_platform\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5EFECEC-490E-4E58-A1D2-15D199690F6A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7602A255-5D6B-4DA9-A537-5A6237C79984}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="597" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6249" uniqueCount="2295">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6253" uniqueCount="2298">
   <si>
     <r>
       <rPr>
@@ -8670,6 +8670,15 @@
   </si>
   <si>
     <t>iam_menu_permission-547</t>
+  </si>
+  <si>
+    <t>devops-service.devops-user.queryByAppServiceId</t>
+  </si>
+  <si>
+    <t>iam_menu_permission-548</t>
+  </si>
+  <si>
+    <t>iam_menu_permission-549</t>
   </si>
 </sst>
 </file>
@@ -9675,7 +9684,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Y181"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
+    <sheetView topLeftCell="D130" workbookViewId="0">
       <selection activeCell="E141" sqref="E141"/>
     </sheetView>
   </sheetViews>
@@ -18400,10 +18409,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:G547"/>
+  <dimension ref="A1:G549"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A525" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F545" sqref="F545"/>
+      <selection activeCell="E547" sqref="E547:E549"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25"/>
@@ -24939,6 +24948,30 @@
       </c>
       <c r="G547" t="s">
         <v>2292</v>
+      </c>
+    </row>
+    <row r="548" spans="5:7">
+      <c r="E548" s="12" t="s">
+        <v>2296</v>
+      </c>
+      <c r="F548" t="str">
+        <f>菜单SAAS版!E141</f>
+        <v>iam_menu-141</v>
+      </c>
+      <c r="G548" t="s">
+        <v>2295</v>
+      </c>
+    </row>
+    <row r="549" spans="5:7">
+      <c r="E549" s="12" t="s">
+        <v>2297</v>
+      </c>
+      <c r="F549" t="str">
+        <f>菜单SAAS版!E151</f>
+        <v>iam_menu-151</v>
+      </c>
+      <c r="G549" t="s">
+        <v>2295</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/script/db/init-data/devops_service/hzero_platform/hzero-menu-user-role-label.xlsx
+++ b/src/main/resources/script/db/init-data/devops_service/hzero_platform/hzero-menu-user-role-label.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\projcect\devops\devops-service\src\main\resources\script\db\init-data\devops_service\hzero_platform\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7602A255-5D6B-4DA9-A537-5A6237C79984}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2ACD105A-E800-4B6B-B16F-109CB51DF369}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="597" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-22980" yWindow="576" windowWidth="21600" windowHeight="11388" tabRatio="597" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6253" uniqueCount="2298">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6257" uniqueCount="2301">
   <si>
     <r>
       <rPr>
@@ -48,6 +48,7 @@
         <sz val="12"/>
         <color rgb="FFFF0000"/>
         <rFont val="DengXian"/>
+        <charset val="134"/>
       </rPr>
       <t>merge</t>
     </r>
@@ -79,6 +80,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">sheet </t>
     </r>
@@ -97,6 +99,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <charset val="134"/>
       </rPr>
       <t>,</t>
     </r>
@@ -115,6 +118,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">D7 </t>
     </r>
@@ -165,6 +169,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <charset val="134"/>
       </rPr>
       <t>(</t>
     </r>
@@ -183,6 +188,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <charset val="134"/>
       </rPr>
       <t>,</t>
     </r>
@@ -201,6 +207,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <charset val="134"/>
       </rPr>
       <t>)</t>
     </r>
@@ -223,6 +230,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <charset val="134"/>
       </rPr>
       <t>,</t>
     </r>
@@ -243,6 +251,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <charset val="134"/>
       </rPr>
       <t>,</t>
     </r>
@@ -264,6 +273,7 @@
         <sz val="12"/>
         <color rgb="FFC55A11"/>
         <rFont val="DengXian"/>
+        <charset val="134"/>
       </rPr>
       <t>*</t>
     </r>
@@ -284,6 +294,7 @@
         <sz val="12"/>
         <color rgb="FF2E75B6"/>
         <rFont val="DengXian"/>
+        <charset val="134"/>
       </rPr>
       <t>#</t>
     </r>
@@ -314,6 +325,7 @@
         <sz val="12"/>
         <color rgb="FF548235"/>
         <rFont val="DengXian"/>
+        <charset val="134"/>
       </rPr>
       <t>=</t>
     </r>
@@ -344,6 +356,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <charset val="134"/>
       </rPr>
       <t>,</t>
     </r>
@@ -362,6 +375,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">,sheet </t>
     </r>
@@ -380,6 +394,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <charset val="134"/>
       </rPr>
       <t>,</t>
     </r>
@@ -398,6 +413,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <charset val="134"/>
       </rPr>
       <t>,</t>
     </r>
@@ -416,6 +432,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <charset val="134"/>
       </rPr>
       <t>!</t>
     </r>
@@ -444,6 +461,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <charset val="134"/>
       </rPr>
       <t>*</t>
     </r>
@@ -462,6 +480,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">, </t>
     </r>
@@ -480,6 +499,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <charset val="134"/>
       </rPr>
       <t>,</t>
     </r>
@@ -498,6 +518,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <charset val="134"/>
       </rPr>
       <t>,</t>
     </r>
@@ -528,6 +549,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <charset val="134"/>
       </rPr>
       <t>(</t>
     </r>
@@ -546,6 +568,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <charset val="134"/>
       </rPr>
       <t>)</t>
     </r>
@@ -564,6 +587,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">.
 </t>
@@ -583,6 +607,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <charset val="134"/>
       </rPr>
       <t>,</t>
     </r>
@@ -601,6 +626,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">*
 </t>
@@ -620,6 +646,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <charset val="134"/>
       </rPr>
       <t>,</t>
     </r>
@@ -650,6 +677,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">oracle </t>
     </r>
@@ -668,6 +696,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <charset val="134"/>
       </rPr>
       <t>,</t>
     </r>
@@ -691,6 +720,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <charset val="134"/>
       </rPr>
       <t>#</t>
     </r>
@@ -709,6 +739,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <charset val="134"/>
       </rPr>
       <t>,</t>
     </r>
@@ -727,6 +758,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <charset val="134"/>
       </rPr>
       <t>#</t>
     </r>
@@ -745,6 +777,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <charset val="134"/>
       </rPr>
       <t>,</t>
     </r>
@@ -763,6 +796,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <charset val="134"/>
       </rPr>
       <t>,</t>
     </r>
@@ -793,6 +827,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <charset val="134"/>
       </rPr>
       <t>.</t>
     </r>
@@ -823,6 +858,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <charset val="134"/>
       </rPr>
       <t>,</t>
     </r>
@@ -853,6 +889,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <charset val="134"/>
       </rPr>
       <t>#</t>
     </r>
@@ -871,6 +908,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <charset val="134"/>
       </rPr>
       <t>,</t>
     </r>
@@ -894,6 +932,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <charset val="134"/>
       </rPr>
       <t>(TYPE)</t>
     </r>
@@ -912,6 +951,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <charset val="134"/>
       </rPr>
       <t>,</t>
     </r>
@@ -930,6 +970,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <charset val="134"/>
       </rPr>
       <t>:
 _ID</t>
@@ -949,6 +990,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">;
 _DATE </t>
@@ -968,6 +1010,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">;
 </t>
@@ -987,6 +1030,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <charset val="134"/>
       </rPr>
       <t>VARCHAR</t>
     </r>
@@ -1007,6 +1051,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">.
 </t>
@@ -1026,6 +1071,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <charset val="134"/>
       </rPr>
       <t>:
 yyyy-MM-dd HH:mm:ss
@@ -1041,6 +1087,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">:LANG </t>
     </r>
@@ -1061,6 +1108,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">TL </t>
     </r>
@@ -1091,6 +1139,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <charset val="134"/>
       </rPr>
       <t>(</t>
     </r>
@@ -1109,6 +1158,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <charset val="134"/>
       </rPr>
       <t>)</t>
     </r>
@@ -1129,6 +1179,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <charset val="134"/>
       </rPr>
       <t>,</t>
     </r>
@@ -1160,6 +1211,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <charset val="134"/>
       </rPr>
       <t>,</t>
     </r>
@@ -1178,6 +1230,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <charset val="134"/>
       </rPr>
       <t>,</t>
     </r>
@@ -1196,6 +1249,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <charset val="134"/>
       </rPr>
       <t>,</t>
     </r>
@@ -1229,6 +1283,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <charset val="134"/>
       </rPr>
       <t>.</t>
     </r>
@@ -1247,6 +1302,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">Excel </t>
     </r>
@@ -1265,6 +1321,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <charset val="134"/>
       </rPr>
       <t>,</t>
     </r>
@@ -1283,6 +1340,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <charset val="134"/>
       </rPr>
       <t>,</t>
     </r>
@@ -1327,6 +1385,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">E9 </t>
     </r>
@@ -1371,6 +1430,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">E9 </t>
     </r>
@@ -1404,6 +1464,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">RESOURCE </t>
     </r>
@@ -1422,6 +1483,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">E23 </t>
     </r>
@@ -1440,6 +1502,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <charset val="134"/>
       </rPr>
       <t>(</t>
     </r>
@@ -1459,6 +1522,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <charset val="134"/>
       </rPr>
       <t>)</t>
     </r>
@@ -1482,6 +1546,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">RESOURCE </t>
     </r>
@@ -1500,6 +1565,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">E23 </t>
     </r>
@@ -1518,6 +1584,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <charset val="134"/>
       </rPr>
       <t>(</t>
     </r>
@@ -1537,6 +1604,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <charset val="134"/>
       </rPr>
       <t>)</t>
     </r>
@@ -1590,6 +1658,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <charset val="134"/>
       </rPr>
       <t>:</t>
     </r>
@@ -1608,6 +1677,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">F10 </t>
     </r>
@@ -1626,6 +1696,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">A9 </t>
     </r>
@@ -1645,6 +1716,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">F10 </t>
     </r>
@@ -1663,6 +1735,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">F11 </t>
     </r>
@@ -1681,6 +1754,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">, F11 </t>
     </r>
@@ -1699,6 +1773,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">A10
 </t>
@@ -1718,6 +1793,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">F10 </t>
     </r>
@@ -1736,6 +1812,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">G11 </t>
     </r>
@@ -1754,6 +1831,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">, G11 </t>
     </r>
@@ -1772,6 +1850,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">B10
 </t>
@@ -1836,6 +1915,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <charset val="134"/>
       </rPr>
       <t>,</t>
     </r>
@@ -1866,6 +1946,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <charset val="134"/>
       </rPr>
       <t>,</t>
     </r>
@@ -1884,6 +1965,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">.
 </t>
@@ -8679,6 +8761,15 @@
   </si>
   <si>
     <t>iam_menu_permission-549</t>
+  </si>
+  <si>
+    <t>devops-service.devops-cluster-node.checkEnableDeleteRole</t>
+  </si>
+  <si>
+    <t>iam_menu_permission-550</t>
+  </si>
+  <si>
+    <t>iam_menu_permission-551</t>
   </si>
 </sst>
 </file>
@@ -8804,6 +8895,7 @@
       <sz val="12"/>
       <color rgb="FF2E75B6"/>
       <name val="DengXian"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
@@ -8816,11 +8908,13 @@
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="DengXian"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FFFF0000"/>
       <name val="DengXian"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
@@ -8839,6 +8933,7 @@
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="DengXian"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
@@ -8858,6 +8953,7 @@
       <sz val="12"/>
       <color rgb="FF548235"/>
       <name val="DengXian"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
@@ -8870,6 +8966,7 @@
       <sz val="12"/>
       <color rgb="FFC55A11"/>
       <name val="DengXian"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
@@ -9684,7 +9781,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Y181"/>
   <sheetViews>
-    <sheetView topLeftCell="D130" workbookViewId="0">
+    <sheetView topLeftCell="D163" workbookViewId="0">
       <selection activeCell="E141" sqref="E141"/>
     </sheetView>
   </sheetViews>
@@ -18409,10 +18506,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:G549"/>
+  <dimension ref="A1:G551"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A525" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E547" sqref="E547:E549"/>
+    <sheetView tabSelected="1" topLeftCell="A531" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E550" sqref="E550"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25"/>
@@ -24972,6 +25069,30 @@
       </c>
       <c r="G549" t="s">
         <v>2295</v>
+      </c>
+    </row>
+    <row r="550" spans="5:7">
+      <c r="E550" s="12" t="s">
+        <v>2299</v>
+      </c>
+      <c r="F550" t="str">
+        <f>菜单SAAS版!E179</f>
+        <v>iam_menu-179</v>
+      </c>
+      <c r="G550" t="s">
+        <v>2298</v>
+      </c>
+    </row>
+    <row r="551" spans="5:7">
+      <c r="E551" s="12" t="s">
+        <v>2300</v>
+      </c>
+      <c r="F551" t="str">
+        <f>菜单SAAS版!E180</f>
+        <v>iam_menu-180</v>
+      </c>
+      <c r="G551" t="s">
+        <v>2298</v>
       </c>
     </row>
   </sheetData>
@@ -38221,6 +38342,6 @@
   </sheetData>
   <phoneticPr fontId="29" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
--- a/src/main/resources/script/db/init-data/devops_service/hzero_platform/hzero-menu-user-role-label.xlsx
+++ b/src/main/resources/script/db/init-data/devops_service/hzero_platform/hzero-menu-user-role-label.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\projcect\devops\devops-service\src\main\resources\script\db\init-data\devops_service\hzero_platform\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2ACD105A-E800-4B6B-B16F-109CB51DF369}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E53A6AFF-D9CB-4E80-8758-58F9E6EF6824}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-22980" yWindow="576" windowWidth="21600" windowHeight="11388" tabRatio="597" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6257" uniqueCount="2301">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6259" uniqueCount="2302">
   <si>
     <r>
       <rPr>
@@ -8770,6 +8770,9 @@
   </si>
   <si>
     <t>iam_menu_permission-551</t>
+  </si>
+  <si>
+    <t>iam_menu_permission-552</t>
   </si>
 </sst>
 </file>
@@ -18506,10 +18509,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:G551"/>
+  <dimension ref="A1:G552"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A531" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E550" sqref="E550"/>
+      <selection activeCell="E551" sqref="E551:E552"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25"/>
@@ -25092,6 +25095,18 @@
         <v>iam_menu-180</v>
       </c>
       <c r="G551" t="s">
+        <v>2298</v>
+      </c>
+    </row>
+    <row r="552" spans="5:7">
+      <c r="E552" s="12" t="s">
+        <v>2301</v>
+      </c>
+      <c r="F552" t="str">
+        <f>菜单SAAS版!E178</f>
+        <v>iam_menu-178</v>
+      </c>
+      <c r="G552" t="s">
         <v>2298</v>
       </c>
     </row>

--- a/src/main/resources/script/db/init-data/devops_service/hzero_platform/hzero-menu-user-role-label.xlsx
+++ b/src/main/resources/script/db/init-data/devops_service/hzero_platform/hzero-menu-user-role-label.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\projcect\devops\devops-service\src\main\resources\script\db\init-data\devops_service\hzero_platform\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E53A6AFF-D9CB-4E80-8758-58F9E6EF6824}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37A9BB1F-7656-40CC-96F6-5EC8B70DD5FD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-22980" yWindow="576" windowWidth="21600" windowHeight="11388" tabRatio="597" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="597" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="1" r:id="rId1"/>
@@ -8779,6 +8779,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="176" formatCode="000000"/>
+  </numFmts>
   <fonts count="30">
     <font>
       <sz val="12"/>
@@ -9116,7 +9119,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -9197,6 +9200,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="176" fontId="27" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -9784,8 +9789,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Y181"/>
   <sheetViews>
-    <sheetView topLeftCell="D163" workbookViewId="0">
-      <selection activeCell="E141" sqref="E141"/>
+    <sheetView topLeftCell="D9" workbookViewId="0">
+      <selection activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25"/>
@@ -10743,7 +10748,7 @@
       </c>
     </row>
     <row r="25" spans="5:24">
-      <c r="E25" s="6" t="s">
+      <c r="E25" s="46" t="s">
         <v>161</v>
       </c>
       <c r="F25" t="s">
@@ -10800,7 +10805,7 @@
       </c>
     </row>
     <row r="26" spans="5:24">
-      <c r="E26" s="6" t="s">
+      <c r="E26" s="47" t="s">
         <v>169</v>
       </c>
       <c r="F26" t="s">
@@ -10848,7 +10853,7 @@
       </c>
     </row>
     <row r="27" spans="5:24">
-      <c r="E27" s="6" t="s">
+      <c r="E27" s="47" t="s">
         <v>173</v>
       </c>
       <c r="F27" t="s">
@@ -10896,7 +10901,7 @@
       </c>
     </row>
     <row r="28" spans="5:24">
-      <c r="E28" s="6" t="s">
+      <c r="E28" s="47" t="s">
         <v>177</v>
       </c>
       <c r="F28" t="s">
@@ -10944,7 +10949,7 @@
       </c>
     </row>
     <row r="29" spans="5:24">
-      <c r="E29" s="6" t="s">
+      <c r="E29" s="47" t="s">
         <v>181</v>
       </c>
       <c r="F29" t="s">
@@ -10992,7 +10997,7 @@
       </c>
     </row>
     <row r="30" spans="5:24">
-      <c r="E30" s="6" t="s">
+      <c r="E30" s="47" t="s">
         <v>185</v>
       </c>
       <c r="F30" t="s">
@@ -11040,7 +11045,7 @@
       </c>
     </row>
     <row r="31" spans="5:24">
-      <c r="E31" s="6" t="s">
+      <c r="E31" s="47" t="s">
         <v>189</v>
       </c>
       <c r="F31" t="s">
@@ -11088,7 +11093,7 @@
       </c>
     </row>
     <row r="32" spans="5:24">
-      <c r="E32" s="6" t="s">
+      <c r="E32" s="47" t="s">
         <v>193</v>
       </c>
       <c r="F32" t="s">
@@ -11136,7 +11141,7 @@
       </c>
     </row>
     <row r="33" spans="5:24">
-      <c r="E33" s="6" t="s">
+      <c r="E33" s="47" t="s">
         <v>197</v>
       </c>
       <c r="F33" t="s">
@@ -18511,8 +18516,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:G552"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A531" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E551" sqref="E551:E552"/>
+    <sheetView topLeftCell="A515" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E213" sqref="E213:E220"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25"/>
@@ -18667,7 +18672,7 @@
       </c>
     </row>
     <row r="16" spans="1:7">
-      <c r="E16" s="6" t="s">
+      <c r="E16" s="47" t="s">
         <v>843</v>
       </c>
       <c r="F16" t="str">
@@ -18679,7 +18684,7 @@
       </c>
     </row>
     <row r="17" spans="5:7">
-      <c r="E17" s="6" t="s">
+      <c r="E17" s="47" t="s">
         <v>844</v>
       </c>
       <c r="F17" t="str">
@@ -20071,7 +20076,7 @@
       </c>
     </row>
     <row r="133" spans="5:7">
-      <c r="E133" s="6" t="s">
+      <c r="E133" s="47" t="s">
         <v>1050</v>
       </c>
       <c r="F133" t="str">
@@ -20083,7 +20088,7 @@
       </c>
     </row>
     <row r="134" spans="5:7">
-      <c r="E134" s="6" t="s">
+      <c r="E134" s="47" t="s">
         <v>1052</v>
       </c>
       <c r="F134" t="str">
@@ -20095,7 +20100,7 @@
       </c>
     </row>
     <row r="135" spans="5:7">
-      <c r="E135" s="6" t="s">
+      <c r="E135" s="47" t="s">
         <v>1053</v>
       </c>
       <c r="F135" t="str">
@@ -20107,7 +20112,7 @@
       </c>
     </row>
     <row r="136" spans="5:7">
-      <c r="E136" s="6" t="s">
+      <c r="E136" s="47" t="s">
         <v>1054</v>
       </c>
       <c r="F136" t="str">
@@ -20119,7 +20124,7 @@
       </c>
     </row>
     <row r="137" spans="5:7">
-      <c r="E137" s="6" t="s">
+      <c r="E137" s="47" t="s">
         <v>1055</v>
       </c>
       <c r="F137" t="str">
@@ -20131,7 +20136,7 @@
       </c>
     </row>
     <row r="138" spans="5:7">
-      <c r="E138" s="6" t="s">
+      <c r="E138" s="47" t="s">
         <v>1057</v>
       </c>
       <c r="F138" t="str">
@@ -20143,7 +20148,7 @@
       </c>
     </row>
     <row r="139" spans="5:7">
-      <c r="E139" s="6" t="s">
+      <c r="E139" s="47" t="s">
         <v>1059</v>
       </c>
       <c r="F139" t="str">
@@ -21031,7 +21036,7 @@
       </c>
     </row>
     <row r="213" spans="5:7">
-      <c r="E213" s="6" t="s">
+      <c r="E213" s="47" t="s">
         <v>1172</v>
       </c>
       <c r="F213" t="str">
@@ -21043,7 +21048,7 @@
       </c>
     </row>
     <row r="214" spans="5:7">
-      <c r="E214" s="6" t="s">
+      <c r="E214" s="47" t="s">
         <v>1173</v>
       </c>
       <c r="F214" t="str">
@@ -21055,7 +21060,7 @@
       </c>
     </row>
     <row r="215" spans="5:7">
-      <c r="E215" s="6" t="s">
+      <c r="E215" s="47" t="s">
         <v>1174</v>
       </c>
       <c r="F215" t="str">
@@ -21067,7 +21072,7 @@
       </c>
     </row>
     <row r="216" spans="5:7">
-      <c r="E216" s="6" t="s">
+      <c r="E216" s="47" t="s">
         <v>1175</v>
       </c>
       <c r="F216" t="str">
@@ -21079,7 +21084,7 @@
       </c>
     </row>
     <row r="217" spans="5:7">
-      <c r="E217" s="6" t="s">
+      <c r="E217" s="47" t="s">
         <v>1177</v>
       </c>
       <c r="F217" t="str">
@@ -21091,7 +21096,7 @@
       </c>
     </row>
     <row r="218" spans="5:7">
-      <c r="E218" s="6" t="s">
+      <c r="E218" s="47" t="s">
         <v>1178</v>
       </c>
       <c r="F218" t="str">
@@ -21103,7 +21108,7 @@
       </c>
     </row>
     <row r="219" spans="5:7">
-      <c r="E219" s="6" t="s">
+      <c r="E219" s="47" t="s">
         <v>1179</v>
       </c>
       <c r="F219" t="str">
@@ -21115,7 +21120,7 @@
       </c>
     </row>
     <row r="220" spans="5:7">
-      <c r="E220" s="6" t="s">
+      <c r="E220" s="47" t="s">
         <v>1181</v>
       </c>
       <c r="F220" t="str">
@@ -22399,7 +22404,7 @@
       </c>
     </row>
     <row r="327" spans="5:7">
-      <c r="E327" s="6" t="s">
+      <c r="E327" s="47" t="s">
         <v>1347</v>
       </c>
       <c r="F327" t="str">
@@ -22411,7 +22416,7 @@
       </c>
     </row>
     <row r="328" spans="5:7">
-      <c r="E328" s="6" t="s">
+      <c r="E328" s="47" t="s">
         <v>1348</v>
       </c>
       <c r="F328" t="str">
@@ -22423,7 +22428,7 @@
       </c>
     </row>
     <row r="329" spans="5:7">
-      <c r="E329" s="6" t="s">
+      <c r="E329" s="47" t="s">
         <v>1350</v>
       </c>
       <c r="F329" t="str">
@@ -22663,7 +22668,7 @@
       </c>
     </row>
     <row r="349" spans="5:7">
-      <c r="E349" s="6" t="s">
+      <c r="E349" s="47" t="s">
         <v>1377</v>
       </c>
       <c r="F349" t="str">
@@ -22675,7 +22680,7 @@
       </c>
     </row>
     <row r="350" spans="5:7">
-      <c r="E350" s="6" t="s">
+      <c r="E350" s="47" t="s">
         <v>1379</v>
       </c>
       <c r="F350" t="str">
@@ -22687,7 +22692,7 @@
       </c>
     </row>
     <row r="351" spans="5:7">
-      <c r="E351" s="6" t="s">
+      <c r="E351" s="47" t="s">
         <v>1381</v>
       </c>
       <c r="F351" t="str">
@@ -25120,8 +25125,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:O120"/>
   <sheetViews>
-    <sheetView topLeftCell="A87" workbookViewId="0">
-      <selection activeCell="G63" sqref="G63"/>
+    <sheetView topLeftCell="A67" workbookViewId="0">
+      <selection activeCell="E62" sqref="E62:E64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25"/>
@@ -26426,7 +26431,7 @@
       </c>
     </row>
     <row r="62" spans="5:9">
-      <c r="E62" s="6" t="s">
+      <c r="E62" s="47" t="s">
         <v>1749</v>
       </c>
       <c r="F62" t="s">
@@ -26445,7 +26450,7 @@
       </c>
     </row>
     <row r="63" spans="5:9">
-      <c r="E63" s="6" t="s">
+      <c r="E63" s="47" t="s">
         <v>1749</v>
       </c>
       <c r="F63" t="s">
@@ -26464,7 +26469,7 @@
       </c>
     </row>
     <row r="64" spans="5:9">
-      <c r="E64" s="6" t="s">
+      <c r="E64" s="47" t="s">
         <v>1749</v>
       </c>
       <c r="F64" t="s">
@@ -27556,8 +27561,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:Y446"/>
   <sheetViews>
-    <sheetView topLeftCell="A423" workbookViewId="0">
-      <selection activeCell="F442" sqref="F442"/>
+    <sheetView tabSelected="1" topLeftCell="A314" workbookViewId="0">
+      <selection activeCell="E330" sqref="E330"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25"/>
@@ -28175,7 +28180,7 @@
       </c>
     </row>
     <row r="19" spans="5:10">
-      <c r="E19" s="6" t="s">
+      <c r="E19" s="47" t="s">
         <v>1826</v>
       </c>
       <c r="F19" t="str">
@@ -28747,7 +28752,7 @@
       </c>
     </row>
     <row r="45" spans="5:10">
-      <c r="E45" s="6" t="s">
+      <c r="E45" s="47" t="s">
         <v>1852</v>
       </c>
       <c r="F45" t="str">
@@ -29231,7 +29236,7 @@
       </c>
     </row>
     <row r="67" spans="5:10">
-      <c r="E67" s="6" t="s">
+      <c r="E67" s="47" t="s">
         <v>1874</v>
       </c>
       <c r="F67" t="str">
@@ -30199,7 +30204,7 @@
       </c>
     </row>
     <row r="111" spans="5:10">
-      <c r="E111" s="6" t="s">
+      <c r="E111" s="47" t="s">
         <v>1918</v>
       </c>
       <c r="F111" t="str">
@@ -30221,7 +30226,7 @@
       </c>
     </row>
     <row r="112" spans="5:10">
-      <c r="E112" s="6" t="s">
+      <c r="E112" s="47" t="s">
         <v>1919</v>
       </c>
       <c r="F112" t="str">
@@ -30243,7 +30248,7 @@
       </c>
     </row>
     <row r="113" spans="5:10">
-      <c r="E113" s="6" t="s">
+      <c r="E113" s="47" t="s">
         <v>1920</v>
       </c>
       <c r="F113" t="str">
@@ -30419,7 +30424,7 @@
       </c>
     </row>
     <row r="121" spans="5:10">
-      <c r="E121" s="6" t="s">
+      <c r="E121" s="47" t="s">
         <v>1928</v>
       </c>
       <c r="F121" t="str">
@@ -30441,7 +30446,7 @@
       </c>
     </row>
     <row r="122" spans="5:10">
-      <c r="E122" s="6" t="s">
+      <c r="E122" s="47" t="s">
         <v>1929</v>
       </c>
       <c r="F122" t="str">
@@ -31211,7 +31216,7 @@
       </c>
     </row>
     <row r="157" spans="5:10">
-      <c r="E157" s="6" t="s">
+      <c r="E157" s="47" t="s">
         <v>1964</v>
       </c>
       <c r="F157" t="str">
@@ -32267,7 +32272,7 @@
       </c>
     </row>
     <row r="205" spans="5:10">
-      <c r="E205" s="6" t="s">
+      <c r="E205" s="47" t="s">
         <v>2012</v>
       </c>
       <c r="F205" t="str">
@@ -33235,7 +33240,7 @@
       </c>
     </row>
     <row r="249" spans="5:10">
-      <c r="E249" s="6" t="s">
+      <c r="E249" s="47" t="s">
         <v>2056</v>
       </c>
       <c r="F249" t="str">
@@ -33257,7 +33262,7 @@
       </c>
     </row>
     <row r="250" spans="5:10">
-      <c r="E250" s="6" t="s">
+      <c r="E250" s="47" t="s">
         <v>2057</v>
       </c>
       <c r="F250" t="str">
@@ -33279,7 +33284,7 @@
       </c>
     </row>
     <row r="251" spans="5:10">
-      <c r="E251" s="6" t="s">
+      <c r="E251" s="47" t="s">
         <v>2058</v>
       </c>
       <c r="F251" t="str">
@@ -33455,7 +33460,7 @@
       </c>
     </row>
     <row r="259" spans="5:10">
-      <c r="E259" s="6" t="s">
+      <c r="E259" s="47" t="s">
         <v>2066</v>
       </c>
       <c r="F259" t="str">
@@ -33477,7 +33482,7 @@
       </c>
     </row>
     <row r="260" spans="5:10">
-      <c r="E260" s="6" t="s">
+      <c r="E260" s="47" t="s">
         <v>2067</v>
       </c>
       <c r="F260" t="str">
@@ -34753,7 +34758,7 @@
       </c>
     </row>
     <row r="318" spans="5:10">
-      <c r="E318" s="6" t="s">
+      <c r="E318" s="47" t="s">
         <v>2126</v>
       </c>
       <c r="F318" t="str">
@@ -34995,7 +35000,7 @@
       </c>
     </row>
     <row r="329" spans="5:10">
-      <c r="E329" s="6" t="s">
+      <c r="E329" s="47" t="s">
         <v>2137</v>
       </c>
       <c r="F329" t="str">
@@ -35875,7 +35880,7 @@
       </c>
     </row>
     <row r="369" spans="5:10">
-      <c r="E369" s="6" t="s">
+      <c r="E369" s="47" t="s">
         <v>2177</v>
       </c>
       <c r="F369" t="str">
@@ -35897,7 +35902,7 @@
       </c>
     </row>
     <row r="370" spans="5:10">
-      <c r="E370" s="6" t="s">
+      <c r="E370" s="47" t="s">
         <v>2178</v>
       </c>
       <c r="F370" t="str">

--- a/src/main/resources/script/db/init-data/devops_service/hzero_platform/hzero-menu-user-role-label.xlsx
+++ b/src/main/resources/script/db/init-data/devops_service/hzero_platform/hzero-menu-user-role-label.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23426"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\projcect\devops\devops-service\src\main\resources\script\db\init-data\devops_service\hzero_platform\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37A9BB1F-7656-40CC-96F6-5EC8B70DD5FD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E665BC41-6EC0-4558-A76C-C77CB00A01B2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="597" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="597" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6259" uniqueCount="2302">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6265" uniqueCount="2306">
   <si>
     <r>
       <rPr>
@@ -8773,6 +8773,18 @@
   </si>
   <si>
     <t>iam_menu_permission-552</t>
+  </si>
+  <si>
+    <t>choerodon-iam.choerodon-project-user.checkAdminPermission</t>
+  </si>
+  <si>
+    <t>iam_menu_permission-553</t>
+  </si>
+  <si>
+    <t>iam_menu_permission-554</t>
+  </si>
+  <si>
+    <t>iam_menu_permission-555</t>
   </si>
 </sst>
 </file>
@@ -9185,6 +9197,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="176" fontId="27" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -9200,8 +9214,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="176" fontId="27" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -9570,11 +9582,11 @@
   <sheetData>
     <row r="1" spans="1:8" ht="64.5" customHeight="1">
       <c r="A1" s="18"/>
-      <c r="C1" s="42" t="s">
+      <c r="C1" s="44" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="42"/>
-      <c r="E1" s="42"/>
+      <c r="D1" s="44"/>
+      <c r="E1" s="44"/>
       <c r="F1" s="19"/>
       <c r="G1" s="19"/>
       <c r="H1" s="19"/>
@@ -9583,21 +9595,21 @@
       <c r="E2" s="20"/>
     </row>
     <row r="3" spans="1:8" ht="49.5" customHeight="1">
-      <c r="C3" s="41" t="s">
+      <c r="C3" s="43" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="41"/>
-      <c r="E3" s="43" t="s">
+      <c r="D3" s="43"/>
+      <c r="E3" s="45" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="43"/>
-      <c r="G3" s="43"/>
+      <c r="F3" s="45"/>
+      <c r="G3" s="45"/>
     </row>
     <row r="4" spans="1:8" ht="18">
-      <c r="C4" s="44" t="s">
+      <c r="C4" s="46" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="44"/>
+      <c r="D4" s="46"/>
       <c r="E4" s="21" t="s">
         <v>4</v>
       </c>
@@ -9708,11 +9720,11 @@
       </c>
     </row>
     <row r="19" spans="3:5">
-      <c r="C19" s="45" t="s">
+      <c r="C19" s="47" t="s">
         <v>30</v>
       </c>
-      <c r="D19" s="45"/>
-      <c r="E19" s="45"/>
+      <c r="D19" s="47"/>
+      <c r="E19" s="47"/>
     </row>
     <row r="20" spans="3:5" ht="18">
       <c r="C20" s="38" t="s">
@@ -9750,19 +9762,19 @@
       <c r="C25" s="39" t="s">
         <v>39</v>
       </c>
-      <c r="D25" s="41" t="s">
+      <c r="D25" s="43" t="s">
         <v>40</v>
       </c>
-      <c r="E25" s="41"/>
+      <c r="E25" s="43"/>
     </row>
     <row r="26" spans="3:5" ht="14.25" customHeight="1">
       <c r="C26" s="28" t="s">
         <v>41</v>
       </c>
-      <c r="D26" s="41" t="s">
+      <c r="D26" s="43" t="s">
         <v>42</v>
       </c>
-      <c r="E26" s="41"/>
+      <c r="E26" s="43"/>
     </row>
     <row r="27" spans="3:5" ht="51.75">
       <c r="C27" s="40" t="s">
@@ -9789,8 +9801,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Y181"/>
   <sheetViews>
-    <sheetView topLeftCell="D9" workbookViewId="0">
-      <selection activeCell="E31" sqref="E31"/>
+    <sheetView topLeftCell="D129" workbookViewId="0">
+      <selection activeCell="E142" sqref="E142"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25"/>
@@ -10748,7 +10760,7 @@
       </c>
     </row>
     <row r="25" spans="5:24">
-      <c r="E25" s="46" t="s">
+      <c r="E25" s="41" t="s">
         <v>161</v>
       </c>
       <c r="F25" t="s">
@@ -10805,7 +10817,7 @@
       </c>
     </row>
     <row r="26" spans="5:24">
-      <c r="E26" s="47" t="s">
+      <c r="E26" s="42" t="s">
         <v>169</v>
       </c>
       <c r="F26" t="s">
@@ -10853,7 +10865,7 @@
       </c>
     </row>
     <row r="27" spans="5:24">
-      <c r="E27" s="47" t="s">
+      <c r="E27" s="42" t="s">
         <v>173</v>
       </c>
       <c r="F27" t="s">
@@ -10901,7 +10913,7 @@
       </c>
     </row>
     <row r="28" spans="5:24">
-      <c r="E28" s="47" t="s">
+      <c r="E28" s="42" t="s">
         <v>177</v>
       </c>
       <c r="F28" t="s">
@@ -10949,7 +10961,7 @@
       </c>
     </row>
     <row r="29" spans="5:24">
-      <c r="E29" s="47" t="s">
+      <c r="E29" s="42" t="s">
         <v>181</v>
       </c>
       <c r="F29" t="s">
@@ -10997,7 +11009,7 @@
       </c>
     </row>
     <row r="30" spans="5:24">
-      <c r="E30" s="47" t="s">
+      <c r="E30" s="42" t="s">
         <v>185</v>
       </c>
       <c r="F30" t="s">
@@ -11045,7 +11057,7 @@
       </c>
     </row>
     <row r="31" spans="5:24">
-      <c r="E31" s="47" t="s">
+      <c r="E31" s="42" t="s">
         <v>189</v>
       </c>
       <c r="F31" t="s">
@@ -11093,7 +11105,7 @@
       </c>
     </row>
     <row r="32" spans="5:24">
-      <c r="E32" s="47" t="s">
+      <c r="E32" s="42" t="s">
         <v>193</v>
       </c>
       <c r="F32" t="s">
@@ -11141,7 +11153,7 @@
       </c>
     </row>
     <row r="33" spans="5:24">
-      <c r="E33" s="47" t="s">
+      <c r="E33" s="42" t="s">
         <v>197</v>
       </c>
       <c r="F33" t="s">
@@ -18514,10 +18526,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:G552"/>
+  <dimension ref="A1:G555"/>
   <sheetViews>
-    <sheetView topLeftCell="A515" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E213" sqref="E213:E220"/>
+    <sheetView tabSelected="1" topLeftCell="A545" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E553" sqref="E553:E555"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25"/>
@@ -18672,7 +18684,7 @@
       </c>
     </row>
     <row r="16" spans="1:7">
-      <c r="E16" s="47" t="s">
+      <c r="E16" s="42" t="s">
         <v>843</v>
       </c>
       <c r="F16" t="str">
@@ -18684,7 +18696,7 @@
       </c>
     </row>
     <row r="17" spans="5:7">
-      <c r="E17" s="47" t="s">
+      <c r="E17" s="42" t="s">
         <v>844</v>
       </c>
       <c r="F17" t="str">
@@ -20076,7 +20088,7 @@
       </c>
     </row>
     <row r="133" spans="5:7">
-      <c r="E133" s="47" t="s">
+      <c r="E133" s="42" t="s">
         <v>1050</v>
       </c>
       <c r="F133" t="str">
@@ -20088,7 +20100,7 @@
       </c>
     </row>
     <row r="134" spans="5:7">
-      <c r="E134" s="47" t="s">
+      <c r="E134" s="42" t="s">
         <v>1052</v>
       </c>
       <c r="F134" t="str">
@@ -20100,7 +20112,7 @@
       </c>
     </row>
     <row r="135" spans="5:7">
-      <c r="E135" s="47" t="s">
+      <c r="E135" s="42" t="s">
         <v>1053</v>
       </c>
       <c r="F135" t="str">
@@ -20112,7 +20124,7 @@
       </c>
     </row>
     <row r="136" spans="5:7">
-      <c r="E136" s="47" t="s">
+      <c r="E136" s="42" t="s">
         <v>1054</v>
       </c>
       <c r="F136" t="str">
@@ -20124,7 +20136,7 @@
       </c>
     </row>
     <row r="137" spans="5:7">
-      <c r="E137" s="47" t="s">
+      <c r="E137" s="42" t="s">
         <v>1055</v>
       </c>
       <c r="F137" t="str">
@@ -20136,7 +20148,7 @@
       </c>
     </row>
     <row r="138" spans="5:7">
-      <c r="E138" s="47" t="s">
+      <c r="E138" s="42" t="s">
         <v>1057</v>
       </c>
       <c r="F138" t="str">
@@ -20148,7 +20160,7 @@
       </c>
     </row>
     <row r="139" spans="5:7">
-      <c r="E139" s="47" t="s">
+      <c r="E139" s="42" t="s">
         <v>1059</v>
       </c>
       <c r="F139" t="str">
@@ -21036,7 +21048,7 @@
       </c>
     </row>
     <row r="213" spans="5:7">
-      <c r="E213" s="47" t="s">
+      <c r="E213" s="42" t="s">
         <v>1172</v>
       </c>
       <c r="F213" t="str">
@@ -21048,7 +21060,7 @@
       </c>
     </row>
     <row r="214" spans="5:7">
-      <c r="E214" s="47" t="s">
+      <c r="E214" s="42" t="s">
         <v>1173</v>
       </c>
       <c r="F214" t="str">
@@ -21060,7 +21072,7 @@
       </c>
     </row>
     <row r="215" spans="5:7">
-      <c r="E215" s="47" t="s">
+      <c r="E215" s="42" t="s">
         <v>1174</v>
       </c>
       <c r="F215" t="str">
@@ -21072,7 +21084,7 @@
       </c>
     </row>
     <row r="216" spans="5:7">
-      <c r="E216" s="47" t="s">
+      <c r="E216" s="42" t="s">
         <v>1175</v>
       </c>
       <c r="F216" t="str">
@@ -21084,7 +21096,7 @@
       </c>
     </row>
     <row r="217" spans="5:7">
-      <c r="E217" s="47" t="s">
+      <c r="E217" s="42" t="s">
         <v>1177</v>
       </c>
       <c r="F217" t="str">
@@ -21096,7 +21108,7 @@
       </c>
     </row>
     <row r="218" spans="5:7">
-      <c r="E218" s="47" t="s">
+      <c r="E218" s="42" t="s">
         <v>1178</v>
       </c>
       <c r="F218" t="str">
@@ -21108,7 +21120,7 @@
       </c>
     </row>
     <row r="219" spans="5:7">
-      <c r="E219" s="47" t="s">
+      <c r="E219" s="42" t="s">
         <v>1179</v>
       </c>
       <c r="F219" t="str">
@@ -21120,7 +21132,7 @@
       </c>
     </row>
     <row r="220" spans="5:7">
-      <c r="E220" s="47" t="s">
+      <c r="E220" s="42" t="s">
         <v>1181</v>
       </c>
       <c r="F220" t="str">
@@ -22404,7 +22416,7 @@
       </c>
     </row>
     <row r="327" spans="5:7">
-      <c r="E327" s="47" t="s">
+      <c r="E327" s="42" t="s">
         <v>1347</v>
       </c>
       <c r="F327" t="str">
@@ -22416,7 +22428,7 @@
       </c>
     </row>
     <row r="328" spans="5:7">
-      <c r="E328" s="47" t="s">
+      <c r="E328" s="42" t="s">
         <v>1348</v>
       </c>
       <c r="F328" t="str">
@@ -22428,7 +22440,7 @@
       </c>
     </row>
     <row r="329" spans="5:7">
-      <c r="E329" s="47" t="s">
+      <c r="E329" s="42" t="s">
         <v>1350</v>
       </c>
       <c r="F329" t="str">
@@ -22668,7 +22680,7 @@
       </c>
     </row>
     <row r="349" spans="5:7">
-      <c r="E349" s="47" t="s">
+      <c r="E349" s="42" t="s">
         <v>1377</v>
       </c>
       <c r="F349" t="str">
@@ -22680,7 +22692,7 @@
       </c>
     </row>
     <row r="350" spans="5:7">
-      <c r="E350" s="47" t="s">
+      <c r="E350" s="42" t="s">
         <v>1379</v>
       </c>
       <c r="F350" t="str">
@@ -22692,7 +22704,7 @@
       </c>
     </row>
     <row r="351" spans="5:7">
-      <c r="E351" s="47" t="s">
+      <c r="E351" s="42" t="s">
         <v>1381</v>
       </c>
       <c r="F351" t="str">
@@ -25113,6 +25125,42 @@
       </c>
       <c r="G552" t="s">
         <v>2298</v>
+      </c>
+    </row>
+    <row r="553" spans="5:7">
+      <c r="E553" s="12" t="s">
+        <v>2303</v>
+      </c>
+      <c r="F553" t="str">
+        <f>菜单SAAS版!E142</f>
+        <v>iam_menu-142</v>
+      </c>
+      <c r="G553" t="s">
+        <v>2302</v>
+      </c>
+    </row>
+    <row r="554" spans="5:7">
+      <c r="E554" s="12" t="s">
+        <v>2304</v>
+      </c>
+      <c r="F554" t="str">
+        <f>菜单SAAS版!E141</f>
+        <v>iam_menu-141</v>
+      </c>
+      <c r="G554" t="s">
+        <v>991</v>
+      </c>
+    </row>
+    <row r="555" spans="5:7">
+      <c r="E555" s="12" t="s">
+        <v>2305</v>
+      </c>
+      <c r="F555" t="str">
+        <f>菜单SAAS版!E151</f>
+        <v>iam_menu-151</v>
+      </c>
+      <c r="G555" t="s">
+        <v>991</v>
       </c>
     </row>
   </sheetData>
@@ -26431,7 +26479,7 @@
       </c>
     </row>
     <row r="62" spans="5:9">
-      <c r="E62" s="47" t="s">
+      <c r="E62" s="42" t="s">
         <v>1749</v>
       </c>
       <c r="F62" t="s">
@@ -26450,7 +26498,7 @@
       </c>
     </row>
     <row r="63" spans="5:9">
-      <c r="E63" s="47" t="s">
+      <c r="E63" s="42" t="s">
         <v>1749</v>
       </c>
       <c r="F63" t="s">
@@ -26469,7 +26517,7 @@
       </c>
     </row>
     <row r="64" spans="5:9">
-      <c r="E64" s="47" t="s">
+      <c r="E64" s="42" t="s">
         <v>1749</v>
       </c>
       <c r="F64" t="s">
@@ -27561,7 +27609,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:Y446"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A314" workbookViewId="0">
+    <sheetView topLeftCell="A293" workbookViewId="0">
       <selection activeCell="E330" sqref="E330"/>
     </sheetView>
   </sheetViews>
@@ -28180,7 +28228,7 @@
       </c>
     </row>
     <row r="19" spans="5:10">
-      <c r="E19" s="47" t="s">
+      <c r="E19" s="42" t="s">
         <v>1826</v>
       </c>
       <c r="F19" t="str">
@@ -28752,7 +28800,7 @@
       </c>
     </row>
     <row r="45" spans="5:10">
-      <c r="E45" s="47" t="s">
+      <c r="E45" s="42" t="s">
         <v>1852</v>
       </c>
       <c r="F45" t="str">
@@ -29236,7 +29284,7 @@
       </c>
     </row>
     <row r="67" spans="5:10">
-      <c r="E67" s="47" t="s">
+      <c r="E67" s="42" t="s">
         <v>1874</v>
       </c>
       <c r="F67" t="str">
@@ -30204,7 +30252,7 @@
       </c>
     </row>
     <row r="111" spans="5:10">
-      <c r="E111" s="47" t="s">
+      <c r="E111" s="42" t="s">
         <v>1918</v>
       </c>
       <c r="F111" t="str">
@@ -30226,7 +30274,7 @@
       </c>
     </row>
     <row r="112" spans="5:10">
-      <c r="E112" s="47" t="s">
+      <c r="E112" s="42" t="s">
         <v>1919</v>
       </c>
       <c r="F112" t="str">
@@ -30248,7 +30296,7 @@
       </c>
     </row>
     <row r="113" spans="5:10">
-      <c r="E113" s="47" t="s">
+      <c r="E113" s="42" t="s">
         <v>1920</v>
       </c>
       <c r="F113" t="str">
@@ -30424,7 +30472,7 @@
       </c>
     </row>
     <row r="121" spans="5:10">
-      <c r="E121" s="47" t="s">
+      <c r="E121" s="42" t="s">
         <v>1928</v>
       </c>
       <c r="F121" t="str">
@@ -30446,7 +30494,7 @@
       </c>
     </row>
     <row r="122" spans="5:10">
-      <c r="E122" s="47" t="s">
+      <c r="E122" s="42" t="s">
         <v>1929</v>
       </c>
       <c r="F122" t="str">
@@ -31216,7 +31264,7 @@
       </c>
     </row>
     <row r="157" spans="5:10">
-      <c r="E157" s="47" t="s">
+      <c r="E157" s="42" t="s">
         <v>1964</v>
       </c>
       <c r="F157" t="str">
@@ -32272,7 +32320,7 @@
       </c>
     </row>
     <row r="205" spans="5:10">
-      <c r="E205" s="47" t="s">
+      <c r="E205" s="42" t="s">
         <v>2012</v>
       </c>
       <c r="F205" t="str">
@@ -33240,7 +33288,7 @@
       </c>
     </row>
     <row r="249" spans="5:10">
-      <c r="E249" s="47" t="s">
+      <c r="E249" s="42" t="s">
         <v>2056</v>
       </c>
       <c r="F249" t="str">
@@ -33262,7 +33310,7 @@
       </c>
     </row>
     <row r="250" spans="5:10">
-      <c r="E250" s="47" t="s">
+      <c r="E250" s="42" t="s">
         <v>2057</v>
       </c>
       <c r="F250" t="str">
@@ -33284,7 +33332,7 @@
       </c>
     </row>
     <row r="251" spans="5:10">
-      <c r="E251" s="47" t="s">
+      <c r="E251" s="42" t="s">
         <v>2058</v>
       </c>
       <c r="F251" t="str">
@@ -33460,7 +33508,7 @@
       </c>
     </row>
     <row r="259" spans="5:10">
-      <c r="E259" s="47" t="s">
+      <c r="E259" s="42" t="s">
         <v>2066</v>
       </c>
       <c r="F259" t="str">
@@ -33482,7 +33530,7 @@
       </c>
     </row>
     <row r="260" spans="5:10">
-      <c r="E260" s="47" t="s">
+      <c r="E260" s="42" t="s">
         <v>2067</v>
       </c>
       <c r="F260" t="str">
@@ -34758,7 +34806,7 @@
       </c>
     </row>
     <row r="318" spans="5:10">
-      <c r="E318" s="47" t="s">
+      <c r="E318" s="42" t="s">
         <v>2126</v>
       </c>
       <c r="F318" t="str">
@@ -35000,7 +35048,7 @@
       </c>
     </row>
     <row r="329" spans="5:10">
-      <c r="E329" s="47" t="s">
+      <c r="E329" s="42" t="s">
         <v>2137</v>
       </c>
       <c r="F329" t="str">
@@ -35880,7 +35928,7 @@
       </c>
     </row>
     <row r="369" spans="5:10">
-      <c r="E369" s="47" t="s">
+      <c r="E369" s="42" t="s">
         <v>2177</v>
       </c>
       <c r="F369" t="str">
@@ -35902,7 +35950,7 @@
       </c>
     </row>
     <row r="370" spans="5:10">
-      <c r="E370" s="47" t="s">
+      <c r="E370" s="42" t="s">
         <v>2178</v>
       </c>
       <c r="F370" t="str">

--- a/src/main/resources/script/db/init-data/devops_service/hzero_platform/hzero-menu-user-role-label.xlsx
+++ b/src/main/resources/script/db/init-data/devops_service/hzero_platform/hzero-menu-user-role-label.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23426"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\projcect\devops\devops-service\src\main\resources\script\db\init-data\devops_service\hzero_platform\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85637452-AF26-4F16-8FD6-C02586CB868F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12540" tabRatio="597" activeTab="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="597" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="1" r:id="rId1"/>
@@ -20,18 +26,19 @@
     <definedName name="qwe">REPT(local_year_format,4)&amp;local_date_separator&amp;REPT(local_month_format,2)&amp;local_date_separator&amp;REPT(local_day_format,2)&amp;" "&amp;REPT(local_hour_format,2)&amp;local_time_separator&amp;REPT(local_minute_format,2)&amp;local_time_separator&amp;REPT(local_second_format,2)</definedName>
     <definedName name="wqewqe">REPT(local_year_format,4)&amp;local_date_separator&amp;REPT(local_month_format,2)&amp;local_date_separator&amp;REPT(local_day_format,2)&amp;" "&amp;REPT(local_hour_format,2)&amp;local_time_separator&amp;REPT(local_minute_format,2)&amp;local_time_separator&amp;REPT(local_second_format,2)</definedName>
   </definedNames>
-  <calcPr calcId="144525" concurrentCalc="0"/>
+  <calcPr calcId="181029" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6264" uniqueCount="2306">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6268" uniqueCount="2309">
   <si>
     <r>
       <rPr>
         <sz val="12"/>
         <color rgb="FFFF0000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">注意这个文档不能 </t>
@@ -50,6 +57,7 @@
         <sz val="12"/>
         <color rgb="FFFF0000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>！！
@@ -62,6 +70,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">正式的数据从第二个 </t>
@@ -80,6 +89,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>页开始</t>
@@ -98,6 +108,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">每页 从 </t>
@@ -116,6 +127,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">单元格开始有效
@@ -147,6 +159,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>颜色示例</t>
@@ -165,6 +178,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>非必须</t>
@@ -183,6 +197,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>非强制</t>
@@ -204,6 +219,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>请给特殊单元格</t>
@@ -224,6 +240,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>列名添加颜色</t>
@@ -244,6 +261,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>提高数据可读性</t>
@@ -264,6 +282,7 @@
         <sz val="12"/>
         <color rgb="FFC55A11"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>自动生成</t>
@@ -284,6 +303,7 @@
         <sz val="12"/>
         <color rgb="FF2E75B6"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>唯一性检查</t>
@@ -295,6 +315,7 @@
         <sz val="12"/>
         <color rgb="FF548235"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>公式</t>
@@ -313,6 +334,7 @@
         <sz val="12"/>
         <color rgb="FF548235"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>外键引用</t>
@@ -324,6 +346,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>理论上</t>
@@ -342,6 +365,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>表的前后顺序</t>
@@ -360,6 +384,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>页的顺序没有严格要求</t>
@@ -378,6 +403,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>但请尽量按照先插 后引用的顺序排列</t>
@@ -396,6 +422,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>减少迭代次数</t>
@@ -443,6 +470,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>前置</t>
@@ -461,6 +489,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>该列的值自动生成</t>
@@ -479,6 +508,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>当数据库存在等价记录时</t>
@@ -497,6 +527,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>这个值会被替换为数据库中已存在的值</t>
@@ -508,6 +539,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>自增长</t>
@@ -526,6 +558,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>或序列</t>
@@ -544,6 +577,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>主键列</t>
@@ -563,6 +597,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>当不作为外键引用时</t>
@@ -581,6 +616,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>一般写</t>
@@ -600,6 +636,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>作为外键时</t>
@@ -618,6 +655,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>写可读的值</t>
@@ -629,6 +667,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">目前 </t>
@@ -647,6 +686,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>是序列</t>
@@ -665,6 +705,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>其他自增涨</t>
@@ -688,6 +729,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>前置</t>
@@ -706,6 +748,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>表中所有带有</t>
@@ -724,6 +767,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>的列组成一个唯一性校验</t>
@@ -742,6 +786,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>在执行插入之前</t>
@@ -760,6 +805,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>会首先按照唯一键来检查数据库是否存在等价记录</t>
@@ -771,6 +817,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>可以有多列</t>
@@ -789,6 +836,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>仅支持</t>
@@ -799,6 +847,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>数字</t>
@@ -819,6 +868,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">字符串
@@ -829,6 +879,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>当</t>
@@ -847,6 +898,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>列涉及到公式时</t>
@@ -865,6 +917,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>会先确定公式的值</t>
@@ -888,6 +941,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>指定这一列的类型</t>
@@ -906,6 +960,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>默认会自动检测</t>
@@ -925,6 +980,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>结尾为数字</t>
@@ -944,6 +1000,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>结尾为日期</t>
@@ -963,6 +1020,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>其他默认为</t>
@@ -983,6 +1041,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>一般不需要指定</t>
@@ -1002,6 +1061,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>日期格式仅支持</t>
@@ -1036,6 +1096,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>指定语言环境</t>
@@ -1056,6 +1117,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>表数据不需要专门写</t>
@@ -1067,6 +1129,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>外键引用</t>
@@ -1085,6 +1148,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>公式</t>
@@ -1105,6 +1169,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>用于引用外键</t>
@@ -1123,6 +1188,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>也可用于普通值
@@ -1135,6 +1201,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>自动增长列</t>
@@ -1153,6 +1220,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>如果被公式引用</t>
@@ -1171,6 +1239,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>最好写一个人可以读懂的值</t>
@@ -1189,6 +1258,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>增强公式可读性</t>
@@ -1203,6 +1273,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>一般用于引用自动生成的外键</t>
@@ -1221,6 +1292,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">所有公式均为 </t>
@@ -1239,6 +1311,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>支持的标准公式</t>
@@ -1257,6 +1330,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>但不支持特别复杂的计算公式</t>
@@ -1275,6 +1349,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>比如范围计算</t>
@@ -1290,6 +1365,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>相对</t>
@@ -1299,6 +1375,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">引用当前页 </t>
@@ -1317,6 +1394,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>单元格</t>
@@ -1332,6 +1410,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>绝对</t>
@@ -1341,6 +1420,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">引用当前页 </t>
@@ -1359,6 +1439,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>单元格</t>
@@ -1373,6 +1454,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">引用 </t>
@@ -1391,6 +1473,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">页的 </t>
@@ -1409,6 +1492,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>单元格</t>
@@ -1428,6 +1512,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>相对</t>
@@ -1451,6 +1536,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">引用 </t>
@@ -1469,6 +1555,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">页的 </t>
@@ -1487,6 +1574,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>单元格</t>
@@ -1506,6 +1594,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>绝对</t>
@@ -1526,6 +1615,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>关于</t>
@@ -1536,6 +1626,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>相对</t>
@@ -1545,6 +1636,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>引用</t>
@@ -1556,6 +1648,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>举例</t>
@@ -1574,6 +1667,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">当 </t>
@@ -1592,6 +1686,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">单元格引用 </t>
@@ -1610,6 +1705,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">时
@@ -1629,6 +1725,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">的复制到 </t>
@@ -1647,6 +1744,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>单元格时</t>
@@ -1665,6 +1763,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">引用的是 </t>
@@ -1684,6 +1783,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">将 </t>
@@ -1702,6 +1802,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">的复制到 </t>
@@ -1720,6 +1821,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>时</t>
@@ -1738,6 +1840,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">实际引用的是 </t>
@@ -1757,6 +1860,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>以上情况适用于拖拽填充</t>
@@ -1768,6 +1872,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>关于</t>
@@ -1778,6 +1883,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>绝对</t>
@@ -1787,6 +1893,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>引用</t>
@@ -1798,6 +1905,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>复制公式单元格时</t>
@@ -1816,6 +1924,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>保持公式不变</t>
@@ -1827,6 +1936,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>相对引用</t>
@@ -1845,6 +1955,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>绝对引用各有用途</t>
@@ -1864,6 +1975,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>直接拖拽填充就可以避免大量重复工作</t>
@@ -6282,6 +6394,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>iam_menu_permission-4</t>
@@ -6291,6 +6404,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>40</t>
@@ -8672,19 +8786,24 @@
   <si>
     <t>标识gitlab_developer</t>
   </si>
+  <si>
+    <t>devops-service.devops-cd-pipeline.queryCallbackUrl</t>
+  </si>
+  <si>
+    <t>iam_menu_permission-556</t>
+  </si>
+  <si>
+    <t>iam_menu_permission-557</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="5">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
     <numFmt numFmtId="176" formatCode="000000"/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="49">
+  <fonts count="33">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -8695,25 +8814,25 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="53"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="48"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="42"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="12"/>
@@ -8813,157 +8932,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="12"/>
       <color rgb="FFFF0000"/>
       <name val="DengXian"/>
@@ -8991,19 +8959,15 @@
     <font>
       <sz val="12"/>
       <color rgb="FFC55A11"/>
-      <name val="DengXian"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FFC55A11"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF2E75B6"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
@@ -9012,8 +8976,43 @@
       <name val="DengXian"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF548235"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="37">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -9044,194 +9043,8 @@
         <bgColor rgb="FFE7E6E6"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="18">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -9332,254 +9145,12 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="50">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="27" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="27" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="27" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="27" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="27" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="27" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="21" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="9" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="9" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="33" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -9605,20 +9176,8 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -9652,9 +9211,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -9662,59 +9218,28 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="50">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
-    <cellStyle name="常规 2" xfId="49"/>
+    <cellStyle name="常规 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000031000000}"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium7"/>
   <colors>
     <indexedColors>
@@ -9787,6 +9312,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -10044,271 +9572,268 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25"/>
   <cols>
-    <col min="1" max="1" width="15.5555555555556" style="18" customWidth="1"/>
-    <col min="2" max="2" width="10.3333333333333" style="19" customWidth="1"/>
-    <col min="3" max="3" width="28.1111111111111" customWidth="1"/>
-    <col min="4" max="4" width="35.3333333333333" style="11" customWidth="1"/>
-    <col min="5" max="5" width="38.5555555555556" customWidth="1"/>
-    <col min="6" max="6" width="23.4444444444444" customWidth="1"/>
-    <col min="7" max="7" width="21.5555555555556" customWidth="1"/>
+    <col min="1" max="1" width="15.5546875" style="18" customWidth="1"/>
+    <col min="2" max="2" width="10.33203125" style="19" customWidth="1"/>
+    <col min="3" max="3" width="28.109375" customWidth="1"/>
+    <col min="4" max="4" width="35.33203125" style="11" customWidth="1"/>
+    <col min="5" max="5" width="38.5546875" customWidth="1"/>
+    <col min="6" max="6" width="23.44140625" customWidth="1"/>
+    <col min="7" max="7" width="21.5546875" customWidth="1"/>
     <col min="8" max="8" width="22" customWidth="1"/>
-    <col min="9" max="9" width="24.5555555555556" customWidth="1"/>
+    <col min="9" max="9" width="24.5546875" customWidth="1"/>
     <col min="10" max="10" width="27" customWidth="1"/>
-    <col min="11" max="11" width="19.1111111111111" customWidth="1"/>
-    <col min="12" max="12" width="18.5555555555556" customWidth="1"/>
-    <col min="13" max="13" width="13.1111111111111" customWidth="1"/>
-    <col min="14" max="1025" width="10.3333333333333" customWidth="1"/>
+    <col min="11" max="11" width="19.109375" customWidth="1"/>
+    <col min="12" max="12" width="18.5546875" customWidth="1"/>
+    <col min="13" max="13" width="13.109375" customWidth="1"/>
+    <col min="14" max="1025" width="10.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="64.5" customHeight="1" spans="1:8">
+    <row r="1" spans="1:8" ht="64.5" customHeight="1">
       <c r="A1" s="20"/>
-      <c r="C1" s="21" t="s">
+      <c r="C1" s="43" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
-      <c r="F1" s="22"/>
-      <c r="G1" s="22"/>
-      <c r="H1" s="22"/>
-    </row>
-    <row r="2" ht="18" spans="5:5">
-      <c r="E2" s="23"/>
-    </row>
-    <row r="3" ht="49.5" customHeight="1" spans="3:7">
-      <c r="C3" s="24" t="s">
+      <c r="D1" s="43"/>
+      <c r="E1" s="43"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="21"/>
+    </row>
+    <row r="2" spans="1:8" ht="18">
+      <c r="E2" s="22"/>
+    </row>
+    <row r="3" spans="1:8" ht="49.5" customHeight="1">
+      <c r="C3" s="44" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="24"/>
-      <c r="E3" s="25" t="s">
+      <c r="D3" s="44"/>
+      <c r="E3" s="45" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="25"/>
-      <c r="G3" s="25"/>
-    </row>
-    <row r="4" ht="18" spans="3:7">
-      <c r="C4" s="26" t="s">
+      <c r="F3" s="45"/>
+      <c r="G3" s="45"/>
+    </row>
+    <row r="4" spans="1:8" ht="18">
+      <c r="C4" s="46" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="26"/>
-      <c r="E4" s="27" t="s">
+      <c r="D4" s="46"/>
+      <c r="E4" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="28" t="s">
+      <c r="F4" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="G4" s="29" t="s">
+      <c r="G4" s="25" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:8">
       <c r="A5" s="20"/>
       <c r="C5" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="7" ht="18" spans="3:5">
-      <c r="C7" s="30" t="s">
+    <row r="7" spans="1:8" ht="18">
+      <c r="C7" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="31" t="s">
+      <c r="D7" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="E7" s="32" t="s">
+      <c r="E7" s="28" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="3:5">
-      <c r="C8" s="33" t="s">
+    <row r="8" spans="1:8">
+      <c r="C8" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="34" t="s">
+      <c r="D8" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="E8" s="35"/>
-    </row>
-    <row r="9" ht="51.75" spans="3:6">
-      <c r="C9" s="36" t="s">
+      <c r="E8" s="31"/>
+    </row>
+    <row r="9" spans="1:8" ht="51.75">
+      <c r="C9" s="32" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="37" t="s">
+      <c r="D9" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="E9" s="38" t="s">
+      <c r="E9" s="34" t="s">
         <v>15</v>
       </c>
       <c r="F9" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="10" ht="51.75" spans="3:5">
-      <c r="C10" s="39" t="s">
+    <row r="10" spans="1:8" ht="51.75">
+      <c r="C10" s="35" t="s">
         <v>17</v>
       </c>
-      <c r="D10" s="37" t="s">
+      <c r="D10" s="33" t="s">
         <v>18</v>
       </c>
-      <c r="E10" s="38" t="s">
+      <c r="E10" s="34" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="11" ht="69" spans="3:5">
-      <c r="C11" s="33" t="s">
+    <row r="11" spans="1:8" ht="69">
+      <c r="C11" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="D11" s="37" t="s">
+      <c r="D11" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="E11" s="38" t="s">
+      <c r="E11" s="34" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="12" spans="3:5">
-      <c r="C12" s="33" t="s">
+    <row r="12" spans="1:8">
+      <c r="C12" s="29" t="s">
         <v>23</v>
       </c>
-      <c r="D12" s="37" t="s">
+      <c r="D12" s="33" t="s">
         <v>24</v>
       </c>
-      <c r="E12" s="40" t="s">
+      <c r="E12" s="36" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="13" spans="3:5">
-      <c r="C13" s="33"/>
-      <c r="D13" s="34"/>
-      <c r="E13" s="35"/>
-    </row>
-    <row r="14" spans="3:5">
-      <c r="C14" s="33"/>
-      <c r="D14" s="34"/>
-      <c r="E14" s="35"/>
-    </row>
-    <row r="15" ht="34.5" spans="3:5">
-      <c r="C15" s="41" t="s">
+    <row r="13" spans="1:8">
+      <c r="C13" s="29"/>
+      <c r="D13" s="30"/>
+      <c r="E13" s="31"/>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="C14" s="29"/>
+      <c r="D14" s="30"/>
+      <c r="E14" s="31"/>
+    </row>
+    <row r="15" spans="1:8" ht="34.5">
+      <c r="C15" s="37" t="s">
         <v>26</v>
       </c>
-      <c r="D15" s="42" t="s">
+      <c r="D15" s="38" t="s">
         <v>27</v>
       </c>
-      <c r="E15" s="43" t="s">
+      <c r="E15" s="39" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="18" spans="3:3">
+    <row r="18" spans="3:5">
       <c r="C18" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="19" spans="3:5">
-      <c r="C19" s="44" t="s">
+      <c r="C19" s="47" t="s">
         <v>30</v>
       </c>
-      <c r="D19" s="44"/>
-      <c r="E19" s="44"/>
-    </row>
-    <row r="20" ht="18" spans="3:4">
-      <c r="C20" s="45" t="s">
+      <c r="D19" s="47"/>
+      <c r="E19" s="47"/>
+    </row>
+    <row r="20" spans="3:5" ht="18">
+      <c r="C20" s="40" t="s">
         <v>31</v>
       </c>
-      <c r="D20" s="23" t="s">
+      <c r="D20" s="22" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="21" ht="18" spans="3:4">
-      <c r="C21" s="45" t="s">
+    <row r="21" spans="3:5" ht="18">
+      <c r="C21" s="40" t="s">
         <v>33</v>
       </c>
-      <c r="D21" s="23" t="s">
+      <c r="D21" s="22" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="22" ht="18" spans="3:4">
-      <c r="C22" s="45" t="s">
+    <row r="22" spans="3:5" ht="18">
+      <c r="C22" s="40" t="s">
         <v>35</v>
       </c>
       <c r="D22" s="11" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="23" ht="18" spans="3:4">
-      <c r="C23" s="45" t="s">
+    <row r="23" spans="3:5" ht="18">
+      <c r="C23" s="40" t="s">
         <v>37</v>
       </c>
       <c r="D23" s="11" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="25" ht="69" customHeight="1" spans="3:5">
-      <c r="C25" s="46" t="s">
+    <row r="25" spans="3:5" ht="69" customHeight="1">
+      <c r="C25" s="41" t="s">
         <v>39</v>
       </c>
-      <c r="D25" s="24" t="s">
+      <c r="D25" s="44" t="s">
         <v>40</v>
       </c>
-      <c r="E25" s="24"/>
-    </row>
-    <row r="26" ht="14.25" customHeight="1" spans="3:5">
-      <c r="C26" s="34" t="s">
+      <c r="E25" s="44"/>
+    </row>
+    <row r="26" spans="3:5" ht="14.25" customHeight="1">
+      <c r="C26" s="30" t="s">
         <v>41</v>
       </c>
-      <c r="D26" s="24" t="s">
+      <c r="D26" s="44" t="s">
         <v>42</v>
       </c>
-      <c r="E26" s="24"/>
-    </row>
-    <row r="27" ht="51.75" spans="3:3">
-      <c r="C27" s="47" t="s">
+      <c r="E26" s="44"/>
+    </row>
+    <row r="27" spans="3:5" ht="51.75">
+      <c r="C27" s="42" t="s">
         <v>43</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="7">
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="D26:E26"/>
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="E3:G3"/>
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="C19:E19"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="D26:E26"/>
   </mergeCells>
-  <pageMargins left="0.697916666666667" right="0.697916666666667" top="0.75" bottom="0.75" header="0.510416666666667" footer="0.510416666666667"/>
+  <phoneticPr fontId="32" type="noConversion"/>
+  <pageMargins left="0.69791666666666696" right="0.69791666666666696" top="0.75" bottom="0.75" header="0.51041666666666696" footer="0.51041666666666696"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Y181"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G141" workbookViewId="0">
-      <selection activeCell="N168" sqref="N168"/>
+    <sheetView topLeftCell="C129" workbookViewId="0">
+      <selection activeCell="E141" sqref="E141"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25"/>
   <cols>
-    <col min="5" max="5" width="37.4444444444444" customWidth="1"/>
-    <col min="6" max="6" width="77.5555555555556" customWidth="1"/>
-    <col min="7" max="7" width="44.2222222222222" customWidth="1"/>
-    <col min="11" max="11" width="24.1111111111111" customWidth="1"/>
+    <col min="5" max="5" width="37.44140625" customWidth="1"/>
+    <col min="6" max="6" width="77.5546875" customWidth="1"/>
+    <col min="7" max="7" width="44.21875" customWidth="1"/>
+    <col min="11" max="11" width="24.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:25">
       <c r="A1" s="1" t="s">
         <v>44</v>
       </c>
@@ -10322,7 +9847,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="4" spans="5:7">
+    <row r="4" spans="1:25">
       <c r="E4" s="2" t="s">
         <v>47</v>
       </c>
@@ -10410,7 +9935,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="8" spans="5:24">
+    <row r="8" spans="1:25">
       <c r="E8" t="s">
         <v>75</v>
       </c>
@@ -10460,7 +9985,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="9" spans="5:24">
+    <row r="9" spans="1:25">
       <c r="E9" t="s">
         <v>84</v>
       </c>
@@ -10517,7 +10042,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="10" spans="5:24">
+    <row r="10" spans="1:25">
       <c r="E10" t="s">
         <v>93</v>
       </c>
@@ -10565,7 +10090,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="11" spans="5:24">
+    <row r="11" spans="1:25">
       <c r="E11" t="s">
         <v>98</v>
       </c>
@@ -10615,7 +10140,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="12" spans="5:24">
+    <row r="12" spans="1:25">
       <c r="E12" t="s">
         <v>103</v>
       </c>
@@ -10669,7 +10194,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="13" spans="5:24">
+    <row r="13" spans="1:25">
       <c r="E13" t="s">
         <v>111</v>
       </c>
@@ -10726,7 +10251,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="14" spans="5:24">
+    <row r="14" spans="1:25">
       <c r="E14" t="s">
         <v>116</v>
       </c>
@@ -10774,7 +10299,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="15" spans="5:24">
+    <row r="15" spans="1:25">
       <c r="E15" t="s">
         <v>121</v>
       </c>
@@ -10822,7 +10347,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="16" spans="5:24">
+    <row r="16" spans="1:25">
       <c r="E16" t="s">
         <v>125</v>
       </c>
@@ -18413,7 +17938,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="170" s="5" customFormat="1" spans="5:24">
+    <row r="170" spans="5:24" s="5" customFormat="1">
       <c r="E170" s="5" t="s">
         <v>771</v>
       </c>
@@ -18470,7 +17995,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="171" s="5" customFormat="1" spans="5:24">
+    <row r="171" spans="5:24" s="5" customFormat="1">
       <c r="E171" s="5" t="s">
         <v>778</v>
       </c>
@@ -18521,7 +18046,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="172" s="5" customFormat="1" spans="5:24">
+    <row r="172" spans="5:24" s="5" customFormat="1">
       <c r="E172" s="5" t="s">
         <v>782</v>
       </c>
@@ -18572,7 +18097,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="173" s="5" customFormat="1" spans="5:24">
+    <row r="173" spans="5:24" s="5" customFormat="1">
       <c r="E173" s="5" t="s">
         <v>786</v>
       </c>
@@ -18623,7 +18148,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="174" s="5" customFormat="1" spans="5:24">
+    <row r="174" spans="5:24" s="5" customFormat="1">
       <c r="E174" s="5" t="s">
         <v>790</v>
       </c>
@@ -18674,7 +18199,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="175" s="5" customFormat="1" spans="5:24">
+    <row r="175" spans="5:24" s="5" customFormat="1">
       <c r="E175" s="5" t="s">
         <v>794</v>
       </c>
@@ -19014,28 +18539,27 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="32" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:G555"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:G557"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" topLeftCell="A533" workbookViewId="0">
-      <selection activeCell="E553" sqref="E553:E555"/>
+    <sheetView tabSelected="1" topLeftCell="A524" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E556" sqref="E556:G557"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25"/>
   <cols>
-    <col min="5" max="5" width="28.1111111111111" customWidth="1"/>
-    <col min="6" max="6" width="34.3333333333333" customWidth="1"/>
-    <col min="7" max="7" width="57.5555555555556" customWidth="1"/>
+    <col min="5" max="5" width="28.109375" customWidth="1"/>
+    <col min="6" max="6" width="34.33203125" customWidth="1"/>
+    <col min="7" max="7" width="57.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>44</v>
       </c>
@@ -19049,7 +18573,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="4" spans="5:7">
+    <row r="4" spans="1:7">
       <c r="E4" s="2" t="s">
         <v>47</v>
       </c>
@@ -19083,7 +18607,7 @@
         <v>826</v>
       </c>
     </row>
-    <row r="8" spans="5:7">
+    <row r="8" spans="1:7">
       <c r="E8" t="s">
         <v>827</v>
       </c>
@@ -19095,7 +18619,7 @@
         <v>828</v>
       </c>
     </row>
-    <row r="9" spans="5:7">
+    <row r="9" spans="1:7">
       <c r="E9" t="s">
         <v>829</v>
       </c>
@@ -19107,7 +18631,7 @@
         <v>830</v>
       </c>
     </row>
-    <row r="10" spans="5:7">
+    <row r="10" spans="1:7">
       <c r="E10" t="s">
         <v>831</v>
       </c>
@@ -19119,7 +18643,7 @@
         <v>832</v>
       </c>
     </row>
-    <row r="11" spans="5:7">
+    <row r="11" spans="1:7">
       <c r="E11" t="s">
         <v>833</v>
       </c>
@@ -19131,7 +18655,7 @@
         <v>834</v>
       </c>
     </row>
-    <row r="12" spans="5:7">
+    <row r="12" spans="1:7">
       <c r="E12" t="s">
         <v>835</v>
       </c>
@@ -19143,7 +18667,7 @@
         <v>836</v>
       </c>
     </row>
-    <row r="13" spans="5:7">
+    <row r="13" spans="1:7">
       <c r="E13" t="s">
         <v>837</v>
       </c>
@@ -19155,7 +18679,7 @@
         <v>838</v>
       </c>
     </row>
-    <row r="14" spans="5:7">
+    <row r="14" spans="1:7">
       <c r="E14" t="s">
         <v>839</v>
       </c>
@@ -19167,7 +18691,7 @@
         <v>840</v>
       </c>
     </row>
-    <row r="15" spans="5:7">
+    <row r="15" spans="1:7">
       <c r="E15" t="s">
         <v>841</v>
       </c>
@@ -19179,7 +18703,7 @@
         <v>842</v>
       </c>
     </row>
-    <row r="16" spans="5:7">
+    <row r="16" spans="1:7">
       <c r="E16" s="6" t="s">
         <v>843</v>
       </c>
@@ -24903,7 +24427,7 @@
         <v>1598</v>
       </c>
     </row>
-    <row r="493" s="8" customFormat="1" spans="5:7">
+    <row r="493" spans="5:7" s="8" customFormat="1">
       <c r="E493" s="8" t="s">
         <v>1599</v>
       </c>
@@ -25179,7 +24703,7 @@
         <v>1616</v>
       </c>
     </row>
-    <row r="516" s="5" customFormat="1" spans="5:7">
+    <row r="516" spans="5:7" s="5" customFormat="1">
       <c r="E516" s="5" t="s">
         <v>1627</v>
       </c>
@@ -25191,7 +24715,7 @@
         <v>1628</v>
       </c>
     </row>
-    <row r="517" s="5" customFormat="1" spans="5:7">
+    <row r="517" spans="5:7" s="5" customFormat="1">
       <c r="E517" s="5" t="s">
         <v>1629</v>
       </c>
@@ -25203,7 +24727,7 @@
         <v>1630</v>
       </c>
     </row>
-    <row r="518" s="5" customFormat="1" spans="5:7">
+    <row r="518" spans="5:7" s="5" customFormat="1">
       <c r="E518" s="5" t="s">
         <v>1631</v>
       </c>
@@ -25215,7 +24739,7 @@
         <v>1632</v>
       </c>
     </row>
-    <row r="519" s="5" customFormat="1" spans="5:7">
+    <row r="519" spans="5:7" s="5" customFormat="1">
       <c r="E519" s="5" t="s">
         <v>1633</v>
       </c>
@@ -25227,7 +24751,7 @@
         <v>1634</v>
       </c>
     </row>
-    <row r="520" s="5" customFormat="1" spans="5:7">
+    <row r="520" spans="5:7" s="5" customFormat="1">
       <c r="E520" s="5" t="s">
         <v>1635</v>
       </c>
@@ -25239,7 +24763,7 @@
         <v>1636</v>
       </c>
     </row>
-    <row r="521" s="5" customFormat="1" spans="5:7">
+    <row r="521" spans="5:7" s="5" customFormat="1">
       <c r="E521" s="5" t="s">
         <v>1637</v>
       </c>
@@ -25251,7 +24775,7 @@
         <v>1638</v>
       </c>
     </row>
-    <row r="522" s="5" customFormat="1" spans="5:7">
+    <row r="522" spans="5:7" s="5" customFormat="1">
       <c r="E522" s="5" t="s">
         <v>1639</v>
       </c>
@@ -25263,7 +24787,7 @@
         <v>1632</v>
       </c>
     </row>
-    <row r="523" s="5" customFormat="1" spans="5:7">
+    <row r="523" spans="5:7" s="5" customFormat="1">
       <c r="E523" s="5" t="s">
         <v>1640</v>
       </c>
@@ -25275,7 +24799,7 @@
         <v>1634</v>
       </c>
     </row>
-    <row r="524" s="5" customFormat="1" spans="5:7">
+    <row r="524" spans="5:7" s="5" customFormat="1">
       <c r="E524" s="5" t="s">
         <v>1641</v>
       </c>
@@ -25287,7 +24811,7 @@
         <v>1636</v>
       </c>
     </row>
-    <row r="525" s="5" customFormat="1" spans="5:7">
+    <row r="525" spans="5:7" s="5" customFormat="1">
       <c r="E525" s="5" t="s">
         <v>1642</v>
       </c>
@@ -25299,7 +24823,7 @@
         <v>1638</v>
       </c>
     </row>
-    <row r="526" s="5" customFormat="1" spans="5:7">
+    <row r="526" spans="5:7" s="5" customFormat="1">
       <c r="E526" s="5" t="s">
         <v>1643</v>
       </c>
@@ -25311,7 +24835,7 @@
         <v>1644</v>
       </c>
     </row>
-    <row r="527" s="5" customFormat="1" spans="5:7">
+    <row r="527" spans="5:7" s="5" customFormat="1">
       <c r="E527" s="5" t="s">
         <v>1645</v>
       </c>
@@ -25323,7 +24847,7 @@
         <v>1646</v>
       </c>
     </row>
-    <row r="528" s="5" customFormat="1" spans="5:7">
+    <row r="528" spans="5:7" s="5" customFormat="1">
       <c r="E528" s="5" t="s">
         <v>1647</v>
       </c>
@@ -25335,7 +24859,7 @@
         <v>1648</v>
       </c>
     </row>
-    <row r="529" s="5" customFormat="1" spans="5:7">
+    <row r="529" spans="5:7" s="5" customFormat="1">
       <c r="E529" s="5" t="s">
         <v>1649</v>
       </c>
@@ -25347,7 +24871,7 @@
         <v>1650</v>
       </c>
     </row>
-    <row r="530" s="5" customFormat="1" spans="5:7">
+    <row r="530" spans="5:7" s="5" customFormat="1">
       <c r="E530" s="5" t="s">
         <v>1651</v>
       </c>
@@ -25371,7 +24895,7 @@
         <v>1654</v>
       </c>
     </row>
-    <row r="532" s="9" customFormat="1" spans="5:7">
+    <row r="532" spans="5:7" s="9" customFormat="1">
       <c r="E532" s="9" t="s">
         <v>1655</v>
       </c>
@@ -25383,7 +24907,7 @@
         <v>1656</v>
       </c>
     </row>
-    <row r="533" s="9" customFormat="1" spans="5:7">
+    <row r="533" spans="5:7" s="9" customFormat="1">
       <c r="E533" s="9" t="s">
         <v>1657</v>
       </c>
@@ -25395,7 +24919,7 @@
         <v>1658</v>
       </c>
     </row>
-    <row r="534" s="9" customFormat="1" spans="5:7">
+    <row r="534" spans="5:7" s="9" customFormat="1">
       <c r="E534" s="9" t="s">
         <v>1659</v>
       </c>
@@ -25407,7 +24931,7 @@
         <v>1660</v>
       </c>
     </row>
-    <row r="535" s="9" customFormat="1" spans="5:7">
+    <row r="535" spans="5:7" s="9" customFormat="1">
       <c r="E535" s="9" t="s">
         <v>1661</v>
       </c>
@@ -25419,7 +24943,7 @@
         <v>1660</v>
       </c>
     </row>
-    <row r="536" s="9" customFormat="1" spans="5:7">
+    <row r="536" spans="5:7" s="9" customFormat="1">
       <c r="E536" s="9" t="s">
         <v>1662</v>
       </c>
@@ -25431,7 +24955,7 @@
         <v>1100</v>
       </c>
     </row>
-    <row r="537" s="9" customFormat="1" spans="5:7">
+    <row r="537" spans="5:7" s="9" customFormat="1">
       <c r="E537" s="9" t="s">
         <v>1663</v>
       </c>
@@ -25491,7 +25015,7 @@
         <v>1671</v>
       </c>
     </row>
-    <row r="542" s="10" customFormat="1" spans="5:7">
+    <row r="542" spans="5:7" s="10" customFormat="1">
       <c r="E542" s="10" t="s">
         <v>1672</v>
       </c>
@@ -25659,15 +25183,38 @@
         <v>991</v>
       </c>
     </row>
+    <row r="556" spans="5:7">
+      <c r="E556" s="48" t="s">
+        <v>2307</v>
+      </c>
+      <c r="F556" s="48" t="str">
+        <f>菜单SAAS版!E141</f>
+        <v>iam_menu-141</v>
+      </c>
+      <c r="G556" s="48" t="s">
+        <v>2306</v>
+      </c>
+    </row>
+    <row r="557" spans="5:7">
+      <c r="E557" s="48" t="s">
+        <v>2308</v>
+      </c>
+      <c r="F557" s="48" t="str">
+        <f>菜单SAAS版!E151</f>
+        <v>iam_menu-151</v>
+      </c>
+      <c r="G557" s="48" t="s">
+        <v>2306</v>
+      </c>
+    </row>
   </sheetData>
+  <phoneticPr fontId="32" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:O120"/>
   <sheetViews>
     <sheetView topLeftCell="A67" workbookViewId="0">
@@ -25676,12 +25223,12 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25"/>
   <cols>
-    <col min="5" max="5" width="14.6666666666667" customWidth="1"/>
-    <col min="7" max="7" width="17.3333333333333" customWidth="1"/>
-    <col min="8" max="8" width="12.2222222222222" customWidth="1"/>
+    <col min="5" max="5" width="14.6640625" customWidth="1"/>
+    <col min="7" max="7" width="17.33203125" customWidth="1"/>
+    <col min="8" max="8" width="12.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:15">
       <c r="A1" s="1" t="s">
         <v>44</v>
       </c>
@@ -25695,7 +25242,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="4" spans="5:7">
+    <row r="4" spans="1:15">
       <c r="E4" s="2" t="s">
         <v>47</v>
       </c>
@@ -25753,7 +25300,7 @@
         <v>1705</v>
       </c>
     </row>
-    <row r="8" spans="5:15">
+    <row r="8" spans="1:15">
       <c r="E8" t="s">
         <v>1706</v>
       </c>
@@ -25785,7 +25332,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="9" spans="5:15">
+    <row r="9" spans="1:15">
       <c r="E9" t="s">
         <v>1711</v>
       </c>
@@ -25817,7 +25364,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="10" spans="5:15">
+    <row r="10" spans="1:15">
       <c r="E10" t="s">
         <v>1714</v>
       </c>
@@ -25843,7 +25390,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="11" spans="5:15">
+    <row r="11" spans="1:15">
       <c r="E11" t="s">
         <v>1717</v>
       </c>
@@ -25869,7 +25416,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="12" spans="5:15">
+    <row r="12" spans="1:15">
       <c r="E12" t="s">
         <v>1719</v>
       </c>
@@ -25901,7 +25448,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="13" spans="5:15">
+    <row r="13" spans="1:15">
       <c r="E13" t="s">
         <v>1722</v>
       </c>
@@ -25930,7 +25477,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="14" spans="5:15">
+    <row r="14" spans="1:15">
       <c r="E14" t="s">
         <v>1725</v>
       </c>
@@ -25959,7 +25506,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="15" spans="5:15">
+    <row r="15" spans="1:15">
       <c r="E15" t="s">
         <v>1728</v>
       </c>
@@ -25988,7 +25535,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="16" spans="5:15">
+    <row r="16" spans="1:15">
       <c r="E16" t="s">
         <v>1731</v>
       </c>
@@ -26017,7 +25564,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="17" spans="5:15">
+    <row r="17" spans="1:15">
       <c r="E17" t="s">
         <v>1734</v>
       </c>
@@ -26049,7 +25596,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="18" spans="5:15">
+    <row r="18" spans="1:15">
       <c r="E18" t="s">
         <v>1737</v>
       </c>
@@ -26081,7 +25628,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="19" spans="5:15">
+    <row r="19" spans="1:15">
       <c r="E19" t="s">
         <v>1740</v>
       </c>
@@ -26113,7 +25660,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="20" spans="5:15">
+    <row r="20" spans="1:15">
       <c r="E20" t="s">
         <v>1743</v>
       </c>
@@ -26139,7 +25686,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="21" spans="5:15">
+    <row r="21" spans="1:15">
       <c r="E21" t="s">
         <v>1745</v>
       </c>
@@ -26171,7 +25718,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="22" spans="5:15">
+    <row r="22" spans="1:15">
       <c r="E22" t="s">
         <v>1748</v>
       </c>
@@ -26203,7 +25750,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="23" spans="5:15">
+    <row r="23" spans="1:15">
       <c r="E23" t="s">
         <v>1751</v>
       </c>
@@ -26235,7 +25782,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="24" spans="5:15">
+    <row r="24" spans="1:15">
       <c r="E24" t="s">
         <v>1754</v>
       </c>
@@ -26261,7 +25808,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="25" spans="5:15">
+    <row r="25" spans="1:15">
       <c r="E25" t="s">
         <v>1756</v>
       </c>
@@ -26290,7 +25837,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="26" spans="5:15">
+    <row r="26" spans="1:15">
       <c r="E26" t="s">
         <v>1759</v>
       </c>
@@ -26319,7 +25866,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="28" spans="1:9">
+    <row r="28" spans="1:15">
       <c r="A28" t="s">
         <v>50</v>
       </c>
@@ -26348,7 +25895,7 @@
         <v>1768</v>
       </c>
     </row>
-    <row r="29" spans="5:9">
+    <row r="29" spans="1:15">
       <c r="E29" t="s">
         <v>1769</v>
       </c>
@@ -26367,7 +25914,7 @@
         <v>1770</v>
       </c>
     </row>
-    <row r="30" spans="5:9">
+    <row r="30" spans="1:15">
       <c r="E30" t="s">
         <v>1769</v>
       </c>
@@ -26386,7 +25933,7 @@
         <v>1770</v>
       </c>
     </row>
-    <row r="31" spans="5:9">
+    <row r="31" spans="1:15">
       <c r="E31" t="s">
         <v>1769</v>
       </c>
@@ -26405,7 +25952,7 @@
         <v>1770</v>
       </c>
     </row>
-    <row r="32" spans="5:9">
+    <row r="32" spans="1:15">
       <c r="E32" t="s">
         <v>1769</v>
       </c>
@@ -28097,14 +27644,13 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="32" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:Y446"/>
   <sheetViews>
     <sheetView topLeftCell="A293" workbookViewId="0">
@@ -28113,14 +27659,14 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25"/>
   <cols>
-    <col min="5" max="5" width="33.8888888888889" customWidth="1"/>
-    <col min="6" max="6" width="15.6666666666667" customWidth="1"/>
+    <col min="5" max="5" width="33.88671875" customWidth="1"/>
+    <col min="6" max="6" width="15.6640625" customWidth="1"/>
     <col min="7" max="7" width="17" customWidth="1"/>
-    <col min="21" max="21" width="14.4444444444444" customWidth="1"/>
-    <col min="22" max="22" width="14.8888888888889" customWidth="1"/>
+    <col min="21" max="21" width="14.44140625" customWidth="1"/>
+    <col min="22" max="22" width="14.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:25">
       <c r="A1" s="1" t="s">
         <v>44</v>
       </c>
@@ -28134,7 +27680,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="4" spans="5:7">
+    <row r="4" spans="1:25">
       <c r="E4" s="2" t="s">
         <v>47</v>
       </c>
@@ -28222,7 +27768,7 @@
         <v>1786</v>
       </c>
     </row>
-    <row r="8" spans="5:23">
+    <row r="8" spans="1:25">
       <c r="E8" t="s">
         <v>1787</v>
       </c>
@@ -28281,7 +27827,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="9" spans="5:23">
+    <row r="9" spans="1:25">
       <c r="E9" t="s">
         <v>1793</v>
       </c>
@@ -28340,7 +27886,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="10" spans="5:25">
+    <row r="10" spans="1:25">
       <c r="E10" t="s">
         <v>1798</v>
       </c>
@@ -28403,7 +27949,7 @@
         <v>1805</v>
       </c>
     </row>
-    <row r="11" spans="5:25">
+    <row r="11" spans="1:25">
       <c r="E11" t="s">
         <v>1806</v>
       </c>
@@ -28466,7 +28012,7 @@
         <v>1813</v>
       </c>
     </row>
-    <row r="12" spans="5:25">
+    <row r="12" spans="1:25">
       <c r="E12" t="s">
         <v>1814</v>
       </c>
@@ -28529,7 +28075,7 @@
         <v>1821</v>
       </c>
     </row>
-    <row r="13" spans="5:25">
+    <row r="13" spans="1:25">
       <c r="E13" t="s">
         <v>1822</v>
       </c>
@@ -28592,7 +28138,7 @@
         <v>1829</v>
       </c>
     </row>
-    <row r="14" spans="5:23">
+    <row r="14" spans="1:25">
       <c r="E14" t="s">
         <v>1830</v>
       </c>
@@ -28649,7 +28195,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:10">
+    <row r="16" spans="1:25">
       <c r="A16" t="s">
         <v>50</v>
       </c>
@@ -37283,7 +36829,7 @@
         <v>1844</v>
       </c>
     </row>
-    <row r="408" s="5" customFormat="1" spans="5:10">
+    <row r="408" spans="5:10" s="5" customFormat="1">
       <c r="E408" s="5" t="s">
         <v>2236</v>
       </c>
@@ -37305,7 +36851,7 @@
         <v>1844</v>
       </c>
     </row>
-    <row r="409" s="5" customFormat="1" spans="5:10">
+    <row r="409" spans="5:10" s="5" customFormat="1">
       <c r="E409" s="5" t="s">
         <v>2237</v>
       </c>
@@ -37327,7 +36873,7 @@
         <v>1844</v>
       </c>
     </row>
-    <row r="410" s="5" customFormat="1" spans="5:10">
+    <row r="410" spans="5:10" s="5" customFormat="1">
       <c r="E410" s="5" t="s">
         <v>2238</v>
       </c>
@@ -37349,7 +36895,7 @@
         <v>1844</v>
       </c>
     </row>
-    <row r="411" s="5" customFormat="1" spans="5:10">
+    <row r="411" spans="5:10" s="5" customFormat="1">
       <c r="E411" s="5" t="s">
         <v>2239</v>
       </c>
@@ -37371,7 +36917,7 @@
         <v>1844</v>
       </c>
     </row>
-    <row r="412" s="5" customFormat="1" spans="5:10">
+    <row r="412" spans="5:10" s="5" customFormat="1">
       <c r="E412" s="5" t="s">
         <v>2240</v>
       </c>
@@ -37393,7 +36939,7 @@
         <v>1844</v>
       </c>
     </row>
-    <row r="413" s="5" customFormat="1" spans="5:10">
+    <row r="413" spans="5:10" s="5" customFormat="1">
       <c r="E413" s="5" t="s">
         <v>2241</v>
       </c>
@@ -37415,7 +36961,7 @@
         <v>1844</v>
       </c>
     </row>
-    <row r="414" s="5" customFormat="1" spans="5:10">
+    <row r="414" spans="5:10" s="5" customFormat="1">
       <c r="E414" s="5" t="s">
         <v>2242</v>
       </c>
@@ -37437,7 +36983,7 @@
         <v>1844</v>
       </c>
     </row>
-    <row r="415" s="5" customFormat="1" spans="5:10">
+    <row r="415" spans="5:10" s="5" customFormat="1">
       <c r="E415" s="5" t="s">
         <v>2243</v>
       </c>
@@ -37459,7 +37005,7 @@
         <v>1844</v>
       </c>
     </row>
-    <row r="416" s="5" customFormat="1" spans="5:10">
+    <row r="416" spans="5:10" s="5" customFormat="1">
       <c r="E416" s="5" t="s">
         <v>2244</v>
       </c>
@@ -37481,7 +37027,7 @@
         <v>1844</v>
       </c>
     </row>
-    <row r="417" s="5" customFormat="1" spans="5:10">
+    <row r="417" spans="5:10" s="5" customFormat="1">
       <c r="E417" s="5" t="s">
         <v>2245</v>
       </c>
@@ -37503,7 +37049,7 @@
         <v>1844</v>
       </c>
     </row>
-    <row r="418" s="5" customFormat="1" spans="5:10">
+    <row r="418" spans="5:10" s="5" customFormat="1">
       <c r="E418" s="5" t="s">
         <v>2246</v>
       </c>
@@ -37525,7 +37071,7 @@
         <v>1844</v>
       </c>
     </row>
-    <row r="419" s="5" customFormat="1" spans="5:10">
+    <row r="419" spans="5:10" s="5" customFormat="1">
       <c r="E419" s="5" t="s">
         <v>2247</v>
       </c>
@@ -37547,7 +37093,7 @@
         <v>1844</v>
       </c>
     </row>
-    <row r="420" s="5" customFormat="1" spans="5:10">
+    <row r="420" spans="5:10" s="5" customFormat="1">
       <c r="E420" s="5" t="s">
         <v>2248</v>
       </c>
@@ -37569,7 +37115,7 @@
         <v>1844</v>
       </c>
     </row>
-    <row r="421" s="5" customFormat="1" spans="5:10">
+    <row r="421" spans="5:10" s="5" customFormat="1">
       <c r="E421" s="5" t="s">
         <v>2249</v>
       </c>
@@ -37591,7 +37137,7 @@
         <v>1844</v>
       </c>
     </row>
-    <row r="422" s="5" customFormat="1" spans="5:10">
+    <row r="422" spans="5:10" s="5" customFormat="1">
       <c r="E422" s="5" t="s">
         <v>2250</v>
       </c>
@@ -37613,7 +37159,7 @@
         <v>1844</v>
       </c>
     </row>
-    <row r="423" s="5" customFormat="1" spans="5:10">
+    <row r="423" spans="5:10" s="5" customFormat="1">
       <c r="E423" s="5" t="s">
         <v>2251</v>
       </c>
@@ -37635,7 +37181,7 @@
         <v>1844</v>
       </c>
     </row>
-    <row r="424" s="5" customFormat="1" spans="5:10">
+    <row r="424" spans="5:10" s="5" customFormat="1">
       <c r="E424" s="5" t="s">
         <v>2252</v>
       </c>
@@ -37657,7 +37203,7 @@
         <v>1844</v>
       </c>
     </row>
-    <row r="425" s="5" customFormat="1" spans="5:10">
+    <row r="425" spans="5:10" s="5" customFormat="1">
       <c r="E425" s="5" t="s">
         <v>2253</v>
       </c>
@@ -37679,7 +37225,7 @@
         <v>1844</v>
       </c>
     </row>
-    <row r="426" s="5" customFormat="1" spans="5:10">
+    <row r="426" spans="5:10" s="5" customFormat="1">
       <c r="E426" s="5" t="s">
         <v>2254</v>
       </c>
@@ -37701,7 +37247,7 @@
         <v>1844</v>
       </c>
     </row>
-    <row r="427" s="5" customFormat="1" spans="5:10">
+    <row r="427" spans="5:10" s="5" customFormat="1">
       <c r="E427" s="5" t="s">
         <v>2255</v>
       </c>
@@ -37723,7 +37269,7 @@
         <v>1844</v>
       </c>
     </row>
-    <row r="428" s="5" customFormat="1" spans="5:10">
+    <row r="428" spans="5:10" s="5" customFormat="1">
       <c r="E428" s="5" t="s">
         <v>2256</v>
       </c>
@@ -37833,7 +37379,7 @@
         <v>1844</v>
       </c>
     </row>
-    <row r="433" ht="18" customHeight="1" spans="5:10">
+    <row r="433" spans="5:10" ht="18" customHeight="1">
       <c r="E433" s="5" t="s">
         <v>2261</v>
       </c>
@@ -38142,14 +37688,13 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="32" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:O35"/>
   <sheetViews>
     <sheetView topLeftCell="A55" workbookViewId="0">
@@ -38158,7 +37703,7 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:15">
       <c r="A1" s="1" t="s">
         <v>44</v>
       </c>
@@ -38172,7 +37717,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="4" spans="5:7">
+    <row r="4" spans="1:15">
       <c r="E4" s="2" t="s">
         <v>47</v>
       </c>
@@ -38230,7 +37775,7 @@
         <v>1705</v>
       </c>
     </row>
-    <row r="8" spans="5:15">
+    <row r="8" spans="1:15">
       <c r="E8" t="s">
         <v>1706</v>
       </c>
@@ -38262,7 +37807,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="9" spans="5:15">
+    <row r="9" spans="1:15">
       <c r="E9" t="s">
         <v>1711</v>
       </c>
@@ -38291,7 +37836,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="10" spans="5:15">
+    <row r="10" spans="1:15">
       <c r="E10" t="s">
         <v>1714</v>
       </c>
@@ -38323,7 +37868,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="11" spans="5:15">
+    <row r="11" spans="1:15">
       <c r="E11" t="s">
         <v>1717</v>
       </c>
@@ -38355,7 +37900,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="12" spans="5:15">
+    <row r="12" spans="1:15">
       <c r="E12" t="s">
         <v>1719</v>
       </c>
@@ -38387,7 +37932,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="13" spans="5:15">
+    <row r="13" spans="1:15">
       <c r="E13" t="s">
         <v>1722</v>
       </c>
@@ -38419,7 +37964,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="14" spans="5:15">
+    <row r="14" spans="1:15">
       <c r="E14" t="s">
         <v>1725</v>
       </c>
@@ -38451,7 +37996,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="15" spans="5:15">
+    <row r="15" spans="1:15">
       <c r="E15" t="s">
         <v>1728</v>
       </c>
@@ -38483,7 +38028,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="16" spans="5:15">
+    <row r="16" spans="1:15">
       <c r="E16" t="s">
         <v>1731</v>
       </c>
@@ -38515,7 +38060,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="17" spans="5:15">
+    <row r="17" spans="1:15">
       <c r="E17" t="s">
         <v>1734</v>
       </c>
@@ -38547,7 +38092,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="18" spans="5:15">
+    <row r="18" spans="1:15">
       <c r="E18" t="s">
         <v>1737</v>
       </c>
@@ -38579,7 +38124,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="19" spans="5:15">
+    <row r="19" spans="1:15">
       <c r="E19" t="s">
         <v>1740</v>
       </c>
@@ -38611,7 +38156,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="21" spans="1:9">
+    <row r="21" spans="1:15">
       <c r="A21" t="s">
         <v>50</v>
       </c>
@@ -38640,7 +38185,7 @@
         <v>1768</v>
       </c>
     </row>
-    <row r="22" spans="5:9">
+    <row r="22" spans="1:15">
       <c r="E22" t="s">
         <v>1769</v>
       </c>
@@ -38659,7 +38204,7 @@
         <v>1771</v>
       </c>
     </row>
-    <row r="23" spans="5:9">
+    <row r="23" spans="1:15">
       <c r="E23" t="s">
         <v>1769</v>
       </c>
@@ -38678,7 +38223,7 @@
         <v>1771</v>
       </c>
     </row>
-    <row r="24" spans="5:9">
+    <row r="24" spans="1:15">
       <c r="E24" t="s">
         <v>1769</v>
       </c>
@@ -38697,7 +38242,7 @@
         <v>1771</v>
       </c>
     </row>
-    <row r="25" spans="5:9">
+    <row r="25" spans="1:15">
       <c r="E25" t="s">
         <v>1769</v>
       </c>
@@ -38716,7 +38261,7 @@
         <v>1771</v>
       </c>
     </row>
-    <row r="26" spans="5:9">
+    <row r="26" spans="1:15">
       <c r="E26" t="s">
         <v>1769</v>
       </c>
@@ -38735,7 +38280,7 @@
         <v>1771</v>
       </c>
     </row>
-    <row r="27" spans="5:9">
+    <row r="27" spans="1:15">
       <c r="E27" t="s">
         <v>1769</v>
       </c>
@@ -38754,7 +38299,7 @@
         <v>1771</v>
       </c>
     </row>
-    <row r="28" spans="5:9">
+    <row r="28" spans="1:15">
       <c r="E28" t="s">
         <v>1769</v>
       </c>
@@ -38773,7 +38318,7 @@
         <v>1771</v>
       </c>
     </row>
-    <row r="29" spans="5:9">
+    <row r="29" spans="1:15">
       <c r="E29" t="s">
         <v>1769</v>
       </c>
@@ -38792,7 +38337,7 @@
         <v>1771</v>
       </c>
     </row>
-    <row r="30" spans="5:9">
+    <row r="30" spans="1:15">
       <c r="E30" t="s">
         <v>1769</v>
       </c>
@@ -38811,7 +38356,7 @@
         <v>1771</v>
       </c>
     </row>
-    <row r="31" spans="5:9">
+    <row r="31" spans="1:15">
       <c r="E31" t="s">
         <v>1769</v>
       </c>
@@ -38830,7 +38375,7 @@
         <v>1771</v>
       </c>
     </row>
-    <row r="32" spans="5:9">
+    <row r="32" spans="1:15">
       <c r="E32" t="s">
         <v>1769</v>
       </c>
@@ -38907,8 +38452,8 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="32" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
-  <headerFooter/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
--- a/src/main/resources/script/db/init-data/devops_service/hzero_platform/hzero-menu-user-role-label.xlsx
+++ b/src/main/resources/script/db/init-data/devops_service/hzero_platform/hzero-menu-user-role-label.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\projcect\devops\devops-service\src\main\resources\script\db\init-data\devops_service\hzero_platform\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46D2664A-3FD7-4D26-97E8-9DF76ACDABF6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F405A6C9-1001-4D34-9DCF-DE9E59C33CEB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="597" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="597" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5917" uniqueCount="2313">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5956" uniqueCount="2314">
   <si>
     <r>
       <rPr>
@@ -8826,6 +8826,10 @@
   </si>
   <si>
     <t>标识gitlab_developer</t>
+  </si>
+  <si>
+    <t>choerodon.code.project.deploy</t>
+    <phoneticPr fontId="32" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -9183,7 +9187,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -9253,11 +9257,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -9268,7 +9273,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -9637,11 +9642,11 @@
   <sheetData>
     <row r="1" spans="1:8" ht="64.5" customHeight="1">
       <c r="A1" s="22"/>
-      <c r="C1" s="45" t="s">
+      <c r="C1" s="47" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="45"/>
-      <c r="E1" s="45"/>
+      <c r="D1" s="47"/>
+      <c r="E1" s="47"/>
       <c r="F1" s="36"/>
       <c r="G1" s="36"/>
       <c r="H1" s="36"/>
@@ -9654,17 +9659,17 @@
         <v>1</v>
       </c>
       <c r="D3" s="46"/>
-      <c r="E3" s="47" t="s">
+      <c r="E3" s="48" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="47"/>
-      <c r="G3" s="47"/>
+      <c r="F3" s="48"/>
+      <c r="G3" s="48"/>
     </row>
     <row r="4" spans="1:8">
-      <c r="C4" s="48" t="s">
+      <c r="C4" s="49" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="48"/>
+      <c r="D4" s="49"/>
       <c r="E4" s="37" t="s">
         <v>4</v>
       </c>
@@ -9775,11 +9780,11 @@
       </c>
     </row>
     <row r="19" spans="3:5">
-      <c r="C19" s="49" t="s">
+      <c r="C19" s="50" t="s">
         <v>30</v>
       </c>
-      <c r="D19" s="49"/>
-      <c r="E19" s="49"/>
+      <c r="D19" s="50"/>
+      <c r="E19" s="50"/>
     </row>
     <row r="20" spans="3:5">
       <c r="C20" s="32" t="s">
@@ -9856,8 +9861,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Y181"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G113" workbookViewId="0">
-      <selection activeCell="M11" sqref="M11"/>
+    <sheetView topLeftCell="E94" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E107" sqref="A107:XFD107"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999"/>
@@ -10129,8 +10134,8 @@
       <c r="E11" t="s">
         <v>98</v>
       </c>
-      <c r="F11" t="s">
-        <v>99</v>
+      <c r="F11" s="51" t="s">
+        <v>2313</v>
       </c>
       <c r="G11" t="s">
         <v>100</v>
@@ -10150,7 +10155,7 @@
       <c r="L11" t="s">
         <v>81</v>
       </c>
-      <c r="M11" s="50">
+      <c r="M11" s="45">
         <v>40</v>
       </c>
       <c r="N11" t="s">
@@ -15603,7 +15608,7 @@
       <c r="L123" t="s">
         <v>81</v>
       </c>
-      <c r="M123" s="50">
+      <c r="M123" s="45">
         <v>30</v>
       </c>
       <c r="N123" t="s">
@@ -17606,7 +17611,7 @@
       <c r="L162" t="s">
         <v>81</v>
       </c>
-      <c r="M162" s="50">
+      <c r="M162" s="45">
         <v>100</v>
       </c>
       <c r="N162" t="s">
@@ -25430,10 +25435,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:O29"/>
+  <dimension ref="A1:O42"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L24" sqref="L24"/>
+    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
+      <selection activeCell="E36" sqref="E36:E42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999"/>
@@ -25847,8 +25852,8 @@
         <v>1750</v>
       </c>
       <c r="G24" t="str">
-        <f>菜单SAAS版!E11</f>
-        <v>iam_menu-11</v>
+        <f>菜单SAAS版!E13</f>
+        <v>iam_menu-13</v>
       </c>
       <c r="H24" t="str">
         <f>E12</f>
@@ -25866,12 +25871,12 @@
         <v>1750</v>
       </c>
       <c r="G25" t="str">
-        <f>菜单SAAS版!E11</f>
-        <v>iam_menu-11</v>
+        <f>菜单SAAS版!E25</f>
+        <v>iam_menu-25</v>
       </c>
       <c r="H25" t="str">
-        <f>E13</f>
-        <v>iam-lable-2</v>
+        <f>E12</f>
+        <v>iam-lable-1</v>
       </c>
       <c r="I25" s="8" t="s">
         <v>1765</v>
@@ -25885,12 +25890,12 @@
         <v>1750</v>
       </c>
       <c r="G26" t="str">
-        <f>菜单SAAS版!E12</f>
-        <v>iam_menu-12</v>
+        <f>菜单SAAS版!E34</f>
+        <v>iam_menu-34</v>
       </c>
       <c r="H26" t="str">
-        <f>E13</f>
-        <v>iam-lable-2</v>
+        <f>E12</f>
+        <v>iam-lable-1</v>
       </c>
       <c r="I26" s="8" t="s">
         <v>1765</v>
@@ -25904,12 +25909,12 @@
         <v>1750</v>
       </c>
       <c r="G27" t="str">
-        <f>菜单SAAS版!E107</f>
-        <v>iam_menu-107</v>
+        <f>菜单SAAS版!E87</f>
+        <v>iam_menu-87</v>
       </c>
       <c r="H27" t="str">
-        <f>E13</f>
-        <v>iam-lable-2</v>
+        <f>E12</f>
+        <v>iam-lable-1</v>
       </c>
       <c r="I27" s="8" t="s">
         <v>1765</v>
@@ -25923,12 +25928,12 @@
         <v>1750</v>
       </c>
       <c r="G28" t="str">
-        <f>菜单SAAS版!E86</f>
-        <v>iam_menu-86</v>
+        <f>菜单SAAS版!E93</f>
+        <v>iam_menu-93</v>
       </c>
       <c r="H28" t="str">
-        <f>E13</f>
-        <v>iam-lable-2</v>
+        <f>E12</f>
+        <v>iam-lable-1</v>
       </c>
       <c r="I28" s="8" t="s">
         <v>1765</v>
@@ -25942,14 +25947,261 @@
         <v>1750</v>
       </c>
       <c r="G29" t="str">
+        <f>菜单SAAS版!E102</f>
+        <v>iam_menu-102</v>
+      </c>
+      <c r="H29" t="str">
+        <f>E12</f>
+        <v>iam-lable-1</v>
+      </c>
+      <c r="I29" s="8" t="s">
+        <v>1765</v>
+      </c>
+    </row>
+    <row r="30" spans="5:9">
+      <c r="E30" s="8" t="s">
+        <v>1764</v>
+      </c>
+      <c r="F30" s="8" t="s">
+        <v>1750</v>
+      </c>
+      <c r="G30" t="str">
+        <f>菜单SAAS版!E107</f>
+        <v>iam_menu-107</v>
+      </c>
+      <c r="H30" t="str">
+        <f>E12</f>
+        <v>iam-lable-1</v>
+      </c>
+      <c r="I30" s="8" t="s">
+        <v>1765</v>
+      </c>
+    </row>
+    <row r="31" spans="5:9">
+      <c r="E31" s="8" t="s">
+        <v>1764</v>
+      </c>
+      <c r="F31" s="8" t="s">
+        <v>1750</v>
+      </c>
+      <c r="G31" t="str">
+        <f>菜单SAAS版!E11</f>
+        <v>iam_menu-11</v>
+      </c>
+      <c r="H31" t="str">
+        <f>E12</f>
+        <v>iam-lable-1</v>
+      </c>
+      <c r="I31" s="8" t="s">
+        <v>1765</v>
+      </c>
+    </row>
+    <row r="32" spans="5:9">
+      <c r="E32" s="8" t="s">
+        <v>1764</v>
+      </c>
+      <c r="F32" s="8" t="s">
+        <v>1750</v>
+      </c>
+      <c r="G32" t="str">
+        <f>菜单SAAS版!E11</f>
+        <v>iam_menu-11</v>
+      </c>
+      <c r="H32" t="str">
+        <f>E13</f>
+        <v>iam-lable-2</v>
+      </c>
+      <c r="I32" s="8" t="s">
+        <v>1765</v>
+      </c>
+    </row>
+    <row r="33" spans="5:9">
+      <c r="E33" s="8" t="s">
+        <v>1764</v>
+      </c>
+      <c r="F33" s="8" t="s">
+        <v>1750</v>
+      </c>
+      <c r="G33" t="str">
+        <f>菜单SAAS版!E12</f>
+        <v>iam_menu-12</v>
+      </c>
+      <c r="H33" t="str">
+        <f>E13</f>
+        <v>iam-lable-2</v>
+      </c>
+      <c r="I33" s="8" t="s">
+        <v>1765</v>
+      </c>
+    </row>
+    <row r="34" spans="5:9">
+      <c r="E34" s="8" t="s">
+        <v>1764</v>
+      </c>
+      <c r="F34" s="8" t="s">
+        <v>1750</v>
+      </c>
+      <c r="G34" t="str">
+        <f>菜单SAAS版!E107</f>
+        <v>iam_menu-107</v>
+      </c>
+      <c r="H34" t="str">
+        <f>E13</f>
+        <v>iam-lable-2</v>
+      </c>
+      <c r="I34" s="8" t="s">
+        <v>1765</v>
+      </c>
+    </row>
+    <row r="35" spans="5:9">
+      <c r="E35" s="8" t="s">
+        <v>1764</v>
+      </c>
+      <c r="F35" s="8" t="s">
+        <v>1750</v>
+      </c>
+      <c r="G35" t="str">
+        <f>菜单SAAS版!E86</f>
+        <v>iam_menu-86</v>
+      </c>
+      <c r="H35" t="str">
+        <f>E13</f>
+        <v>iam-lable-2</v>
+      </c>
+      <c r="I35" s="8" t="s">
+        <v>1765</v>
+      </c>
+    </row>
+    <row r="36" spans="5:9">
+      <c r="E36" s="8" t="s">
+        <v>1764</v>
+      </c>
+      <c r="F36" s="8" t="s">
+        <v>1750</v>
+      </c>
+      <c r="G36" t="str">
         <f>菜单SAAS版!E170</f>
         <v>iam_menu-170</v>
       </c>
-      <c r="H29" t="str">
+      <c r="H36" t="str">
         <f>E13</f>
         <v>iam-lable-2</v>
       </c>
-      <c r="I29" s="8" t="s">
+      <c r="I36" s="8" t="s">
+        <v>1765</v>
+      </c>
+    </row>
+    <row r="37" spans="5:9">
+      <c r="E37" s="8" t="s">
+        <v>1764</v>
+      </c>
+      <c r="F37" s="8" t="s">
+        <v>1750</v>
+      </c>
+      <c r="G37" t="str">
+        <f>菜单SAAS版!E13</f>
+        <v>iam_menu-13</v>
+      </c>
+      <c r="H37" t="str">
+        <f>E13</f>
+        <v>iam-lable-2</v>
+      </c>
+      <c r="I37" s="8" t="s">
+        <v>1765</v>
+      </c>
+    </row>
+    <row r="38" spans="5:9">
+      <c r="E38" s="8" t="s">
+        <v>1764</v>
+      </c>
+      <c r="F38" s="8" t="s">
+        <v>1750</v>
+      </c>
+      <c r="G38" t="str">
+        <f>菜单SAAS版!E25</f>
+        <v>iam_menu-25</v>
+      </c>
+      <c r="H38" t="str">
+        <f>E13</f>
+        <v>iam-lable-2</v>
+      </c>
+      <c r="I38" s="8" t="s">
+        <v>1765</v>
+      </c>
+    </row>
+    <row r="39" spans="5:9">
+      <c r="E39" s="8" t="s">
+        <v>1764</v>
+      </c>
+      <c r="F39" s="8" t="s">
+        <v>1750</v>
+      </c>
+      <c r="G39" t="str">
+        <f>菜单SAAS版!E34</f>
+        <v>iam_menu-34</v>
+      </c>
+      <c r="H39" t="str">
+        <f>E13</f>
+        <v>iam-lable-2</v>
+      </c>
+      <c r="I39" s="8" t="s">
+        <v>1765</v>
+      </c>
+    </row>
+    <row r="40" spans="5:9">
+      <c r="E40" s="8" t="s">
+        <v>1764</v>
+      </c>
+      <c r="F40" s="8" t="s">
+        <v>1750</v>
+      </c>
+      <c r="G40" t="str">
+        <f>菜单SAAS版!E87</f>
+        <v>iam_menu-87</v>
+      </c>
+      <c r="H40" t="str">
+        <f>E13</f>
+        <v>iam-lable-2</v>
+      </c>
+      <c r="I40" s="8" t="s">
+        <v>1765</v>
+      </c>
+    </row>
+    <row r="41" spans="5:9">
+      <c r="E41" s="8" t="s">
+        <v>1764</v>
+      </c>
+      <c r="F41" s="8" t="s">
+        <v>1750</v>
+      </c>
+      <c r="G41" t="str">
+        <f>菜单SAAS版!E102</f>
+        <v>iam_menu-102</v>
+      </c>
+      <c r="H41" t="str">
+        <f>E13</f>
+        <v>iam-lable-2</v>
+      </c>
+      <c r="I41" s="8" t="s">
+        <v>1765</v>
+      </c>
+    </row>
+    <row r="42" spans="5:9">
+      <c r="E42" s="8" t="s">
+        <v>1764</v>
+      </c>
+      <c r="F42" s="8" t="s">
+        <v>1750</v>
+      </c>
+      <c r="G42" t="str">
+        <f>菜单SAAS版!E107</f>
+        <v>iam_menu-107</v>
+      </c>
+      <c r="H42" t="str">
+        <f>E13</f>
+        <v>iam-lable-2</v>
+      </c>
+      <c r="I42" s="8" t="s">
         <v>1765</v>
       </c>
     </row>

--- a/src/main/resources/script/db/init-data/devops_service/hzero_platform/hzero-menu-user-role-label.xlsx
+++ b/src/main/resources/script/db/init-data/devops_service/hzero_platform/hzero-menu-user-role-label.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23530"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\projcect\devops\devops-service\src\main\resources\script\db\init-data\devops_service\hzero_platform\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F405A6C9-1001-4D34-9DCF-DE9E59C33CEB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CFCB7C7-B93B-481F-88AD-1F69C4CDD7EA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="597" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="597" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="1" r:id="rId1"/>
@@ -9258,6 +9258,7 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -9273,7 +9274,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -9622,54 +9622,54 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25"/>
   <cols>
-    <col min="1" max="1" width="15.58203125" style="20" customWidth="1"/>
+    <col min="1" max="1" width="15.5546875" style="20" customWidth="1"/>
     <col min="2" max="2" width="10.33203125" style="21" customWidth="1"/>
-    <col min="3" max="3" width="28.08203125" customWidth="1"/>
+    <col min="3" max="3" width="28.109375" customWidth="1"/>
     <col min="4" max="4" width="35.33203125" style="6" customWidth="1"/>
-    <col min="5" max="5" width="38.58203125" customWidth="1"/>
-    <col min="6" max="6" width="23.4140625" customWidth="1"/>
-    <col min="7" max="7" width="21.58203125" customWidth="1"/>
+    <col min="5" max="5" width="38.5546875" customWidth="1"/>
+    <col min="6" max="6" width="23.44140625" customWidth="1"/>
+    <col min="7" max="7" width="21.5546875" customWidth="1"/>
     <col min="8" max="8" width="22" customWidth="1"/>
-    <col min="9" max="9" width="24.58203125" customWidth="1"/>
+    <col min="9" max="9" width="24.5546875" customWidth="1"/>
     <col min="10" max="10" width="27" customWidth="1"/>
-    <col min="11" max="11" width="19.08203125" customWidth="1"/>
-    <col min="12" max="12" width="18.58203125" customWidth="1"/>
-    <col min="13" max="13" width="13.08203125" customWidth="1"/>
+    <col min="11" max="11" width="19.109375" customWidth="1"/>
+    <col min="12" max="12" width="18.5546875" customWidth="1"/>
+    <col min="13" max="13" width="13.109375" customWidth="1"/>
     <col min="14" max="1025" width="10.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="64.5" customHeight="1">
       <c r="A1" s="22"/>
-      <c r="C1" s="47" t="s">
+      <c r="C1" s="48" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="47"/>
-      <c r="E1" s="47"/>
+      <c r="D1" s="48"/>
+      <c r="E1" s="48"/>
       <c r="F1" s="36"/>
       <c r="G1" s="36"/>
       <c r="H1" s="36"/>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" ht="18">
       <c r="E2" s="33"/>
     </row>
     <row r="3" spans="1:8" ht="49.5" customHeight="1">
-      <c r="C3" s="46" t="s">
+      <c r="C3" s="47" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="46"/>
-      <c r="E3" s="48" t="s">
+      <c r="D3" s="47"/>
+      <c r="E3" s="49" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="48"/>
-      <c r="G3" s="48"/>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="C4" s="49" t="s">
+      <c r="F3" s="49"/>
+      <c r="G3" s="49"/>
+    </row>
+    <row r="4" spans="1:8" ht="18">
+      <c r="C4" s="50" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="49"/>
+      <c r="D4" s="50"/>
       <c r="E4" s="37" t="s">
         <v>4</v>
       </c>
@@ -9686,7 +9686,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" ht="18">
       <c r="C7" s="23" t="s">
         <v>8</v>
       </c>
@@ -9706,7 +9706,7 @@
       </c>
       <c r="E8" s="41"/>
     </row>
-    <row r="9" spans="1:8" ht="52.2">
+    <row r="9" spans="1:8" ht="51.75">
       <c r="C9" s="27" t="s">
         <v>13</v>
       </c>
@@ -9720,7 +9720,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="52.2">
+    <row r="10" spans="1:8" ht="51.75">
       <c r="C10" s="29" t="s">
         <v>17</v>
       </c>
@@ -9731,7 +9731,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="69.599999999999994">
+    <row r="11" spans="1:8" ht="69">
       <c r="C11" s="25" t="s">
         <v>20</v>
       </c>
@@ -9763,7 +9763,7 @@
       <c r="D14" s="26"/>
       <c r="E14" s="41"/>
     </row>
-    <row r="15" spans="1:8" ht="34.799999999999997">
+    <row r="15" spans="1:8" ht="34.5">
       <c r="C15" s="30" t="s">
         <v>26</v>
       </c>
@@ -9780,13 +9780,13 @@
       </c>
     </row>
     <row r="19" spans="3:5">
-      <c r="C19" s="50" t="s">
+      <c r="C19" s="51" t="s">
         <v>30</v>
       </c>
-      <c r="D19" s="50"/>
-      <c r="E19" s="50"/>
-    </row>
-    <row r="20" spans="3:5">
+      <c r="D19" s="51"/>
+      <c r="E19" s="51"/>
+    </row>
+    <row r="20" spans="3:5" ht="18">
       <c r="C20" s="32" t="s">
         <v>31</v>
       </c>
@@ -9794,7 +9794,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="21" spans="3:5">
+    <row r="21" spans="3:5" ht="18">
       <c r="C21" s="32" t="s">
         <v>33</v>
       </c>
@@ -9802,7 +9802,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="22" spans="3:5">
+    <row r="22" spans="3:5" ht="18">
       <c r="C22" s="32" t="s">
         <v>35</v>
       </c>
@@ -9810,7 +9810,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="23" spans="3:5">
+    <row r="23" spans="3:5" ht="18">
       <c r="C23" s="32" t="s">
         <v>37</v>
       </c>
@@ -9822,21 +9822,21 @@
       <c r="C25" s="34" t="s">
         <v>39</v>
       </c>
-      <c r="D25" s="46" t="s">
+      <c r="D25" s="47" t="s">
         <v>40</v>
       </c>
-      <c r="E25" s="46"/>
+      <c r="E25" s="47"/>
     </row>
     <row r="26" spans="3:5" ht="14.25" customHeight="1">
       <c r="C26" s="26" t="s">
         <v>41</v>
       </c>
-      <c r="D26" s="46" t="s">
+      <c r="D26" s="47" t="s">
         <v>42</v>
       </c>
-      <c r="E26" s="46"/>
-    </row>
-    <row r="27" spans="3:5" ht="52.2">
+      <c r="E26" s="47"/>
+    </row>
+    <row r="27" spans="3:5" ht="51.75">
       <c r="C27" s="35" t="s">
         <v>43</v>
       </c>
@@ -9861,16 +9861,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Y181"/>
   <sheetViews>
-    <sheetView topLeftCell="E94" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E107" sqref="A107:XFD107"/>
+    <sheetView tabSelected="1" topLeftCell="A91" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="M170" sqref="M170"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25"/>
   <cols>
-    <col min="5" max="5" width="37.4140625" customWidth="1"/>
-    <col min="6" max="6" width="77.58203125" customWidth="1"/>
-    <col min="7" max="7" width="44.25" customWidth="1"/>
-    <col min="11" max="11" width="24.08203125" customWidth="1"/>
+    <col min="5" max="5" width="37.44140625" customWidth="1"/>
+    <col min="6" max="6" width="77.5546875" customWidth="1"/>
+    <col min="7" max="7" width="44.21875" customWidth="1"/>
+    <col min="11" max="11" width="24.109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:25">
@@ -10134,7 +10134,7 @@
       <c r="E11" t="s">
         <v>98</v>
       </c>
-      <c r="F11" s="51" t="s">
+      <c r="F11" s="46" t="s">
         <v>2313</v>
       </c>
       <c r="G11" t="s">
@@ -10156,7 +10156,7 @@
         <v>81</v>
       </c>
       <c r="M11" s="45">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="N11" t="s">
         <v>82</v>
@@ -15609,7 +15609,7 @@
         <v>81</v>
       </c>
       <c r="M123" s="45">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="N123" t="s">
         <v>82</v>
@@ -17612,7 +17612,7 @@
         <v>81</v>
       </c>
       <c r="M162" s="45">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N162" t="s">
         <v>82</v>
@@ -17663,7 +17663,7 @@
         <v>88</v>
       </c>
       <c r="M163">
-        <v>80</v>
+        <v>110</v>
       </c>
       <c r="N163" t="s">
         <v>82</v>
@@ -18592,11 +18592,11 @@
       <selection activeCell="F574" sqref="F574"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25"/>
   <cols>
-    <col min="5" max="5" width="28.08203125" customWidth="1"/>
+    <col min="5" max="5" width="28.109375" customWidth="1"/>
     <col min="6" max="6" width="34.33203125" customWidth="1"/>
-    <col min="7" max="7" width="57.58203125" customWidth="1"/>
+    <col min="7" max="7" width="57.5546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -25437,16 +25437,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:O42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="E36" sqref="E36:E42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25"/>
   <cols>
     <col min="5" max="5" width="14.6640625" customWidth="1"/>
-    <col min="6" max="6" width="18.9140625" customWidth="1"/>
+    <col min="6" max="6" width="18.88671875" customWidth="1"/>
     <col min="7" max="7" width="17.33203125" customWidth="1"/>
-    <col min="8" max="8" width="12.25" customWidth="1"/>
+    <col min="8" max="8" width="12.21875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15">
@@ -26219,13 +26219,13 @@
       <selection activeCell="E330" sqref="E330"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25"/>
   <cols>
-    <col min="5" max="5" width="33.9140625" customWidth="1"/>
+    <col min="5" max="5" width="33.88671875" customWidth="1"/>
     <col min="6" max="6" width="15.6640625" customWidth="1"/>
     <col min="7" max="7" width="17" customWidth="1"/>
-    <col min="21" max="21" width="14.4140625" customWidth="1"/>
-    <col min="22" max="22" width="14.9140625" customWidth="1"/>
+    <col min="21" max="21" width="14.44140625" customWidth="1"/>
+    <col min="22" max="22" width="14.88671875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:25">
@@ -36263,7 +36263,7 @@
       <selection activeCell="E77" sqref="E77"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25"/>
   <sheetData>
     <row r="1" spans="1:15">
       <c r="A1" s="1" t="s">

--- a/src/main/resources/script/db/init-data/devops_service/hzero_platform/hzero-menu-user-role-label.xlsx
+++ b/src/main/resources/script/db/init-data/devops_service/hzero_platform/hzero-menu-user-role-label.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\projcect\devops\devops-service\src\main\resources\script\db\init-data\devops_service\hzero_platform\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CFCB7C7-B93B-481F-88AD-1F69C4CDD7EA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A633D999-9D68-4E8D-A56C-05AC3684A992}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="597" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="597" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5956" uniqueCount="2314">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5959" uniqueCount="2314">
   <si>
     <r>
       <rPr>
@@ -9861,8 +9861,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Y181"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A91" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="M170" sqref="M170"/>
+    <sheetView topLeftCell="A136" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A163" sqref="A163:XFD163"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25"/>
@@ -25435,10 +25435,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:O42"/>
+  <dimension ref="A1:O43"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="E36" sqref="E36:E42"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="E31" sqref="E31:E32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25"/>
@@ -26004,12 +26004,12 @@
         <v>1750</v>
       </c>
       <c r="G32" t="str">
-        <f>菜单SAAS版!E11</f>
-        <v>iam_menu-11</v>
+        <f>菜单SAAS版!E163</f>
+        <v>iam_menu-163</v>
       </c>
       <c r="H32" t="str">
-        <f>E13</f>
-        <v>iam-lable-2</v>
+        <f>E12</f>
+        <v>iam-lable-1</v>
       </c>
       <c r="I32" s="8" t="s">
         <v>1765</v>
@@ -26023,8 +26023,8 @@
         <v>1750</v>
       </c>
       <c r="G33" t="str">
-        <f>菜单SAAS版!E12</f>
-        <v>iam_menu-12</v>
+        <f>菜单SAAS版!E11</f>
+        <v>iam_menu-11</v>
       </c>
       <c r="H33" t="str">
         <f>E13</f>
@@ -26042,8 +26042,8 @@
         <v>1750</v>
       </c>
       <c r="G34" t="str">
-        <f>菜单SAAS版!E107</f>
-        <v>iam_menu-107</v>
+        <f>菜单SAAS版!E12</f>
+        <v>iam_menu-12</v>
       </c>
       <c r="H34" t="str">
         <f>E13</f>
@@ -26061,8 +26061,8 @@
         <v>1750</v>
       </c>
       <c r="G35" t="str">
-        <f>菜单SAAS版!E86</f>
-        <v>iam_menu-86</v>
+        <f>菜单SAAS版!E107</f>
+        <v>iam_menu-107</v>
       </c>
       <c r="H35" t="str">
         <f>E13</f>
@@ -26080,8 +26080,8 @@
         <v>1750</v>
       </c>
       <c r="G36" t="str">
-        <f>菜单SAAS版!E170</f>
-        <v>iam_menu-170</v>
+        <f>菜单SAAS版!E86</f>
+        <v>iam_menu-86</v>
       </c>
       <c r="H36" t="str">
         <f>E13</f>
@@ -26099,8 +26099,8 @@
         <v>1750</v>
       </c>
       <c r="G37" t="str">
-        <f>菜单SAAS版!E13</f>
-        <v>iam_menu-13</v>
+        <f>菜单SAAS版!E170</f>
+        <v>iam_menu-170</v>
       </c>
       <c r="H37" t="str">
         <f>E13</f>
@@ -26118,8 +26118,8 @@
         <v>1750</v>
       </c>
       <c r="G38" t="str">
-        <f>菜单SAAS版!E25</f>
-        <v>iam_menu-25</v>
+        <f>菜单SAAS版!E13</f>
+        <v>iam_menu-13</v>
       </c>
       <c r="H38" t="str">
         <f>E13</f>
@@ -26137,8 +26137,8 @@
         <v>1750</v>
       </c>
       <c r="G39" t="str">
-        <f>菜单SAAS版!E34</f>
-        <v>iam_menu-34</v>
+        <f>菜单SAAS版!E25</f>
+        <v>iam_menu-25</v>
       </c>
       <c r="H39" t="str">
         <f>E13</f>
@@ -26156,8 +26156,8 @@
         <v>1750</v>
       </c>
       <c r="G40" t="str">
-        <f>菜单SAAS版!E87</f>
-        <v>iam_menu-87</v>
+        <f>菜单SAAS版!E34</f>
+        <v>iam_menu-34</v>
       </c>
       <c r="H40" t="str">
         <f>E13</f>
@@ -26175,8 +26175,8 @@
         <v>1750</v>
       </c>
       <c r="G41" t="str">
-        <f>菜单SAAS版!E102</f>
-        <v>iam_menu-102</v>
+        <f>菜单SAAS版!E87</f>
+        <v>iam_menu-87</v>
       </c>
       <c r="H41" t="str">
         <f>E13</f>
@@ -26194,14 +26194,33 @@
         <v>1750</v>
       </c>
       <c r="G42" t="str">
-        <f>菜单SAAS版!E107</f>
-        <v>iam_menu-107</v>
+        <f>菜单SAAS版!E102</f>
+        <v>iam_menu-102</v>
       </c>
       <c r="H42" t="str">
         <f>E13</f>
         <v>iam-lable-2</v>
       </c>
       <c r="I42" s="8" t="s">
+        <v>1765</v>
+      </c>
+    </row>
+    <row r="43" spans="5:9">
+      <c r="E43" s="8" t="s">
+        <v>1764</v>
+      </c>
+      <c r="F43" s="8" t="s">
+        <v>1750</v>
+      </c>
+      <c r="G43" t="str">
+        <f>菜单SAAS版!E107</f>
+        <v>iam_menu-107</v>
+      </c>
+      <c r="H43" t="str">
+        <f>E13</f>
+        <v>iam-lable-2</v>
+      </c>
+      <c r="I43" s="8" t="s">
         <v>1765</v>
       </c>
     </row>

--- a/src/main/resources/script/db/init-data/devops_service/hzero_platform/hzero-menu-user-role-label.xlsx
+++ b/src/main/resources/script/db/init-data/devops_service/hzero_platform/hzero-menu-user-role-label.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\choerodon\devops-service\src\main\resources\script\db\init-data\devops_service\hzero_platform\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView windowWidth="19485" windowHeight="8460" tabRatio="597" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19488" windowHeight="8460" tabRatio="597" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="1" r:id="rId1"/>
@@ -20,18 +25,19 @@
     <definedName name="qwe">REPT(local_year_format,4)&amp;local_date_separator&amp;REPT(local_month_format,2)&amp;local_date_separator&amp;REPT(local_day_format,2)&amp;" "&amp;REPT(local_hour_format,2)&amp;local_time_separator&amp;REPT(local_minute_format,2)&amp;local_time_separator&amp;REPT(local_second_format,2)</definedName>
     <definedName name="wqewqe">REPT(local_year_format,4)&amp;local_date_separator&amp;REPT(local_month_format,2)&amp;local_date_separator&amp;REPT(local_day_format,2)&amp;" "&amp;REPT(local_hour_format,2)&amp;local_time_separator&amp;REPT(local_minute_format,2)&amp;local_time_separator&amp;REPT(local_second_format,2)</definedName>
   </definedNames>
-  <calcPr calcId="144525" concurrentCalc="0"/>
+  <calcPr calcId="162913" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5962" uniqueCount="2313">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5963" uniqueCount="2314">
   <si>
     <r>
       <rPr>
         <sz val="12"/>
         <color rgb="FFFF0000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">注意这个文档不能 </t>
@@ -41,7 +47,6 @@
         <sz val="12"/>
         <color rgb="FFFF0000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>merge</t>
     </r>
@@ -50,6 +55,7 @@
         <sz val="12"/>
         <color rgb="FFFF0000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>！！
@@ -62,6 +68,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">正式的数据从第二个 </t>
@@ -71,7 +78,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">sheet </t>
     </r>
@@ -80,6 +86,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>页开始</t>
@@ -89,7 +96,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>,</t>
     </r>
@@ -98,6 +104,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">每页 从 </t>
@@ -107,7 +114,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">D7 </t>
     </r>
@@ -116,6 +122,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">单元格开始有效
@@ -147,6 +154,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>颜色示例</t>
@@ -156,7 +164,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>(</t>
     </r>
@@ -165,6 +172,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>非必须</t>
@@ -174,7 +182,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>,</t>
     </r>
@@ -183,6 +190,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>非强制</t>
@@ -192,7 +200,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>)</t>
     </r>
@@ -204,6 +211,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>请给特殊单元格</t>
@@ -214,7 +222,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>,</t>
     </r>
@@ -224,6 +231,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>列名添加颜色</t>
@@ -234,7 +242,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>,</t>
     </r>
@@ -244,6 +251,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>提高数据可读性</t>
@@ -255,7 +263,6 @@
         <sz val="12"/>
         <color rgb="FFC55A11"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>*</t>
     </r>
@@ -264,6 +271,7 @@
         <sz val="12"/>
         <color rgb="FFC55A11"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>自动生成</t>
@@ -275,7 +283,6 @@
         <sz val="12"/>
         <color rgb="FF2E75B6"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>#</t>
     </r>
@@ -284,6 +291,7 @@
         <sz val="12"/>
         <color rgb="FF2E75B6"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>唯一性检查</t>
@@ -295,6 +303,7 @@
         <sz val="12"/>
         <color rgb="FF548235"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>公式</t>
@@ -304,7 +313,6 @@
         <sz val="12"/>
         <color rgb="FF548235"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>=</t>
     </r>
@@ -313,6 +321,7 @@
         <sz val="12"/>
         <color rgb="FF548235"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>外键引用</t>
@@ -324,6 +333,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>理论上</t>
@@ -333,7 +343,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>,</t>
     </r>
@@ -342,6 +351,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>表的前后顺序</t>
@@ -351,7 +361,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">,sheet </t>
     </r>
@@ -360,6 +369,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>页的顺序没有严格要求</t>
@@ -369,7 +379,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>,</t>
     </r>
@@ -378,6 +387,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>但请尽量按照先插 后引用的顺序排列</t>
@@ -387,7 +397,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>,</t>
     </r>
@@ -396,6 +405,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>减少迭代次数</t>
@@ -405,7 +415,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>!</t>
     </r>
@@ -434,7 +443,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>*</t>
     </r>
@@ -443,6 +451,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>前置</t>
@@ -452,7 +461,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">, </t>
     </r>
@@ -461,6 +469,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>该列的值自动生成</t>
@@ -470,7 +479,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>,</t>
     </r>
@@ -479,6 +487,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>当数据库存在等价记录时</t>
@@ -488,7 +497,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>,</t>
     </r>
@@ -497,6 +505,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>这个值会被替换为数据库中已存在的值</t>
@@ -508,6 +517,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>自增长</t>
@@ -517,7 +527,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>(</t>
     </r>
@@ -526,6 +535,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>或序列</t>
@@ -535,7 +545,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>)</t>
     </r>
@@ -544,6 +553,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>主键列</t>
@@ -553,7 +563,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">.
 </t>
@@ -563,6 +572,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>当不作为外键引用时</t>
@@ -572,7 +582,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>,</t>
     </r>
@@ -581,6 +590,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>一般写</t>
@@ -590,7 +600,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">*
 </t>
@@ -600,6 +609,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>作为外键时</t>
@@ -609,7 +619,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>,</t>
     </r>
@@ -618,6 +627,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>写可读的值</t>
@@ -629,6 +639,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">目前 </t>
@@ -638,7 +649,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">oracle </t>
     </r>
@@ -647,6 +657,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>是序列</t>
@@ -656,7 +667,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>,</t>
     </r>
@@ -665,6 +675,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>其他自增涨</t>
@@ -679,7 +690,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>#</t>
     </r>
@@ -688,6 +698,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>前置</t>
@@ -697,7 +708,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>,</t>
     </r>
@@ -706,6 +716,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>表中所有带有</t>
@@ -715,7 +726,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>#</t>
     </r>
@@ -724,6 +734,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>的列组成一个唯一性校验</t>
@@ -733,7 +744,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>,</t>
     </r>
@@ -742,6 +752,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>在执行插入之前</t>
@@ -751,7 +762,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>,</t>
     </r>
@@ -760,6 +770,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>会首先按照唯一键来检查数据库是否存在等价记录</t>
@@ -771,6 +782,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>可以有多列</t>
@@ -780,7 +792,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>.</t>
     </r>
@@ -789,6 +800,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>仅支持</t>
@@ -799,6 +811,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>数字</t>
@@ -809,7 +822,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>,</t>
     </r>
@@ -819,6 +831,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">字符串
@@ -829,6 +842,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>当</t>
@@ -838,7 +852,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>#</t>
     </r>
@@ -847,6 +860,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>列涉及到公式时</t>
@@ -856,7 +870,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>,</t>
     </r>
@@ -865,6 +878,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>会先确定公式的值</t>
@@ -879,7 +893,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>(TYPE)</t>
     </r>
@@ -888,6 +901,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>指定这一列的类型</t>
@@ -897,7 +911,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>,</t>
     </r>
@@ -906,6 +919,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>默认会自动检测</t>
@@ -915,7 +929,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>:
 _ID</t>
@@ -925,6 +938,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>结尾为数字</t>
@@ -934,7 +948,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">;
 _DATE </t>
@@ -944,6 +957,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>结尾为日期</t>
@@ -953,7 +967,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">;
 </t>
@@ -963,6 +976,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>其他默认为</t>
@@ -972,7 +986,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>VARCHAR</t>
     </r>
@@ -983,6 +996,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>一般不需要指定</t>
@@ -992,7 +1006,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">.
 </t>
@@ -1002,6 +1015,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>日期格式仅支持</t>
@@ -1011,7 +1025,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>:
 yyyy-MM-dd HH:mm:ss
@@ -1027,7 +1040,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">:LANG </t>
     </r>
@@ -1036,6 +1048,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>指定语言环境</t>
@@ -1047,7 +1060,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">TL </t>
     </r>
@@ -1056,6 +1068,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>表数据不需要专门写</t>
@@ -1067,6 +1080,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>外键引用</t>
@@ -1076,7 +1090,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>(</t>
     </r>
@@ -1085,6 +1098,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>公式</t>
@@ -1094,7 +1108,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>)</t>
     </r>
@@ -1105,6 +1118,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>用于引用外键</t>
@@ -1114,7 +1128,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>,</t>
     </r>
@@ -1123,6 +1136,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>也可用于普通值
@@ -1135,6 +1149,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>自动增长列</t>
@@ -1144,7 +1159,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>,</t>
     </r>
@@ -1153,6 +1167,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>如果被公式引用</t>
@@ -1162,7 +1177,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>,</t>
     </r>
@@ -1171,6 +1185,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>最好写一个人可以读懂的值</t>
@@ -1180,7 +1195,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>,</t>
     </r>
@@ -1189,6 +1203,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>增强公式可读性</t>
@@ -1203,6 +1218,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>一般用于引用自动生成的外键</t>
@@ -1212,7 +1228,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>.</t>
     </r>
@@ -1221,6 +1236,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">所有公式均为 </t>
@@ -1230,7 +1246,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">Excel </t>
     </r>
@@ -1239,6 +1254,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>支持的标准公式</t>
@@ -1248,7 +1264,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>,</t>
     </r>
@@ -1257,6 +1272,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>但不支持特别复杂的计算公式</t>
@@ -1266,7 +1282,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>,</t>
     </r>
@@ -1275,6 +1290,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>比如范围计算</t>
@@ -1290,6 +1306,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>相对</t>
@@ -1299,6 +1316,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">引用当前页 </t>
@@ -1308,7 +1326,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">E9 </t>
     </r>
@@ -1317,6 +1334,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>单元格</t>
@@ -1332,6 +1350,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>绝对</t>
@@ -1341,6 +1360,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">引用当前页 </t>
@@ -1350,7 +1370,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">E9 </t>
     </r>
@@ -1359,6 +1378,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>单元格</t>
@@ -1373,6 +1393,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">引用 </t>
@@ -1382,7 +1403,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">RESOURCE </t>
     </r>
@@ -1391,6 +1411,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">页的 </t>
@@ -1400,7 +1421,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">E23 </t>
     </r>
@@ -1409,6 +1429,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>单元格</t>
@@ -1418,7 +1439,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>(</t>
     </r>
@@ -1428,6 +1448,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>相对</t>
@@ -1437,7 +1458,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>)</t>
     </r>
@@ -1451,6 +1471,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">引用 </t>
@@ -1460,7 +1481,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">RESOURCE </t>
     </r>
@@ -1469,6 +1489,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">页的 </t>
@@ -1478,7 +1499,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">E23 </t>
     </r>
@@ -1487,6 +1507,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>单元格</t>
@@ -1496,7 +1517,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>(</t>
     </r>
@@ -1506,6 +1526,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>绝对</t>
@@ -1515,7 +1536,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>)</t>
     </r>
@@ -1526,6 +1546,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>关于</t>
@@ -1536,6 +1557,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>相对</t>
@@ -1545,6 +1567,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>引用</t>
@@ -1556,6 +1579,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>举例</t>
@@ -1565,7 +1589,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>:</t>
     </r>
@@ -1574,6 +1597,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">当 </t>
@@ -1583,7 +1607,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">F10 </t>
     </r>
@@ -1592,6 +1615,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">单元格引用 </t>
@@ -1601,7 +1625,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">A9 </t>
     </r>
@@ -1610,6 +1633,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">时
@@ -1620,7 +1644,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">F10 </t>
     </r>
@@ -1629,6 +1652,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">的复制到 </t>
@@ -1638,7 +1662,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">F11 </t>
     </r>
@@ -1647,6 +1670,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>单元格时</t>
@@ -1656,7 +1680,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">, F11 </t>
     </r>
@@ -1665,6 +1688,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">引用的是 </t>
@@ -1674,7 +1698,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">A10
 </t>
@@ -1684,6 +1707,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">将 </t>
@@ -1693,7 +1717,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">F10 </t>
     </r>
@@ -1702,6 +1725,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">的复制到 </t>
@@ -1711,7 +1735,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">G11 </t>
     </r>
@@ -1720,6 +1743,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>时</t>
@@ -1729,7 +1753,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">, G11 </t>
     </r>
@@ -1738,6 +1761,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">实际引用的是 </t>
@@ -1747,7 +1771,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">B10
 </t>
@@ -1757,6 +1780,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>以上情况适用于拖拽填充</t>
@@ -1768,6 +1792,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>关于</t>
@@ -1778,6 +1803,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>绝对</t>
@@ -1787,6 +1813,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>引用</t>
@@ -1798,6 +1825,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>复制公式单元格时</t>
@@ -1807,7 +1835,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>,</t>
     </r>
@@ -1816,6 +1843,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>保持公式不变</t>
@@ -1827,6 +1855,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>相对引用</t>
@@ -1836,7 +1865,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>,</t>
     </r>
@@ -1845,6 +1873,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>绝对引用各有用途</t>
@@ -1854,7 +1883,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">.
 </t>
@@ -1864,6 +1892,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>直接拖拽填充就可以避免大量重复工作</t>
@@ -6279,6 +6308,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>iam_menu_permission-4</t>
@@ -6288,6 +6318,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>40</t>
@@ -6956,7 +6987,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DejaVu Sans"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>Devops</t>
     </r>
@@ -6965,7 +6996,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Droid Sans Fallback"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>管理</t>
     </r>
@@ -6976,7 +7007,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DejaVu Sans"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>Devops</t>
     </r>
@@ -6985,6 +7016,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>流程</t>
@@ -7002,7 +7034,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Droid Sans Fallback"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>运维管理</t>
     </r>
@@ -7011,7 +7043,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DejaVu Sans"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -7067,7 +7099,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DejaVu Sans"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>devops</t>
     </r>
@@ -7076,6 +7108,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>项目类型标签</t>
@@ -7087,7 +7120,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DejaVu Sans"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>devops</t>
     </r>
@@ -7096,6 +7129,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve"> </t>
@@ -7105,7 +7139,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DejaVu Sans"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>label</t>
     </r>
@@ -8786,20 +8820,20 @@
   </si>
   <si>
     <t>标识gitlab_developer</t>
+  </si>
+  <si>
+    <t>SEQUENCE</t>
+    <phoneticPr fontId="32" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="5">
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="000000"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="1">
+    <numFmt numFmtId="178" formatCode="000000"/>
   </numFmts>
-  <fonts count="52">
+  <fonts count="33">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -8810,25 +8844,25 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="53"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="48"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="42"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="12"/>
@@ -8847,71 +8881,81 @@
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="DejaVu Sans"/>
-      <charset val="134"/>
+      <family val="1"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Droid Sans Fallback"/>
-      <charset val="134"/>
+      <family val="1"/>
     </font>
     <font>
       <sz val="12"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <color theme="4" tint="-0.249977111117893"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FFFF0000"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FFFFC000"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF00B0F0"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF92D050"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <strike/>
       <sz val="12"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF00B050"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="8"/>
       <color rgb="FF24292E"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
@@ -8919,194 +8963,36 @@
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FFC55A11"/>
       <name val="DengXian"/>
-      <charset val="134"/>
+      <family val="1"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF2E75B6"/>
       <name val="DengXian"/>
-      <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF548235"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="DengXian"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FFFF0000"/>
       <name val="DengXian"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="DengXian"/>
-      <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
@@ -9125,28 +9011,39 @@
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="DengXian"/>
-      <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FFC55A11"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF2E75B6"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF548235"/>
       <name val="DengXian"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFC55A11"/>
+      <name val="DengXian"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="37">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -9177,194 +9074,8 @@
         <bgColor rgb="FFE7E6E6"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="18">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -9465,251 +9176,9 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="50">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="24" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="21" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="24" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="24" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="24" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="24" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="32" borderId="16" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="9" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="9" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="35" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="52">
@@ -9733,7 +9202,7 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -9742,20 +9211,8 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -9789,9 +9246,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -9799,59 +9253,27 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="50">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
-    <cellStyle name="常规 2" xfId="49"/>
+    <cellStyle name="常规 2" xfId="1"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium7"/>
   <colors>
     <indexedColors>
@@ -9924,6 +9346,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -10181,272 +9606,269 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999"/>
   <cols>
-    <col min="1" max="1" width="15.5851851851852" style="22" customWidth="1"/>
-    <col min="2" max="2" width="10.3333333333333" style="23" customWidth="1"/>
-    <col min="3" max="3" width="28.0814814814815" customWidth="1"/>
-    <col min="4" max="4" width="35.3333333333333" style="6" customWidth="1"/>
-    <col min="5" max="5" width="38.5851851851852" customWidth="1"/>
-    <col min="6" max="6" width="23.4148148148148" customWidth="1"/>
-    <col min="7" max="7" width="21.5851851851852" customWidth="1"/>
+    <col min="1" max="1" width="15.58203125" style="22" customWidth="1"/>
+    <col min="2" max="2" width="10.33203125" style="23" customWidth="1"/>
+    <col min="3" max="3" width="28.08203125" customWidth="1"/>
+    <col min="4" max="4" width="35.33203125" style="6" customWidth="1"/>
+    <col min="5" max="5" width="38.58203125" customWidth="1"/>
+    <col min="6" max="6" width="23.4140625" customWidth="1"/>
+    <col min="7" max="7" width="21.58203125" customWidth="1"/>
     <col min="8" max="8" width="22" customWidth="1"/>
-    <col min="9" max="9" width="24.5851851851852" customWidth="1"/>
+    <col min="9" max="9" width="24.58203125" customWidth="1"/>
     <col min="10" max="10" width="27" customWidth="1"/>
-    <col min="11" max="11" width="19.0814814814815" customWidth="1"/>
-    <col min="12" max="12" width="18.5851851851852" customWidth="1"/>
-    <col min="13" max="13" width="13.0814814814815" customWidth="1"/>
-    <col min="14" max="1025" width="10.3333333333333" customWidth="1"/>
+    <col min="11" max="11" width="19.08203125" customWidth="1"/>
+    <col min="12" max="12" width="18.58203125" customWidth="1"/>
+    <col min="13" max="13" width="13.08203125" customWidth="1"/>
+    <col min="14" max="1025" width="10.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="64.5" customHeight="1" spans="1:8">
+    <row r="1" spans="1:8" ht="64.5" customHeight="1">
       <c r="A1" s="24"/>
-      <c r="C1" s="25" t="s">
+      <c r="C1" s="47" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
-      <c r="F1" s="26"/>
-      <c r="G1" s="26"/>
-      <c r="H1" s="26"/>
-    </row>
-    <row r="2" ht="18" spans="5:5">
-      <c r="E2" s="27"/>
-    </row>
-    <row r="3" ht="49.5" customHeight="1" spans="3:7">
-      <c r="C3" s="28" t="s">
+      <c r="D1" s="47"/>
+      <c r="E1" s="47"/>
+      <c r="F1" s="25"/>
+      <c r="G1" s="25"/>
+      <c r="H1" s="25"/>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="E2" s="26"/>
+    </row>
+    <row r="3" spans="1:8" ht="49.5" customHeight="1">
+      <c r="C3" s="48" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="28"/>
-      <c r="E3" s="29" t="s">
+      <c r="D3" s="48"/>
+      <c r="E3" s="49" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="29"/>
-      <c r="G3" s="29"/>
-    </row>
-    <row r="4" ht="18" spans="3:7">
-      <c r="C4" s="30" t="s">
+      <c r="F3" s="49"/>
+      <c r="G3" s="49"/>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="C4" s="50" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="30"/>
-      <c r="E4" s="31" t="s">
+      <c r="D4" s="50"/>
+      <c r="E4" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="32" t="s">
+      <c r="F4" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="G4" s="33" t="s">
+      <c r="G4" s="29" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:8">
       <c r="A5" s="24"/>
       <c r="C5" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="7" ht="18" spans="3:5">
-      <c r="C7" s="34" t="s">
+    <row r="7" spans="1:8">
+      <c r="C7" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="35" t="s">
+      <c r="D7" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="E7" s="36" t="s">
+      <c r="E7" s="32" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="3:5">
-      <c r="C8" s="37" t="s">
+    <row r="8" spans="1:8">
+      <c r="C8" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="38" t="s">
+      <c r="D8" s="34" t="s">
         <v>12</v>
       </c>
-      <c r="E8" s="39"/>
-    </row>
-    <row r="9" ht="51.75" spans="3:6">
-      <c r="C9" s="40" t="s">
+      <c r="E8" s="35"/>
+    </row>
+    <row r="9" spans="1:8" ht="52.2">
+      <c r="C9" s="36" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="41" t="s">
+      <c r="D9" s="37" t="s">
         <v>14</v>
       </c>
-      <c r="E9" s="42" t="s">
+      <c r="E9" s="38" t="s">
         <v>15</v>
       </c>
       <c r="F9" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="10" ht="51.75" spans="3:5">
-      <c r="C10" s="43" t="s">
+    <row r="10" spans="1:8" ht="52.2">
+      <c r="C10" s="39" t="s">
         <v>17</v>
       </c>
-      <c r="D10" s="41" t="s">
+      <c r="D10" s="37" t="s">
         <v>18</v>
       </c>
-      <c r="E10" s="42" t="s">
+      <c r="E10" s="38" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="11" ht="69" spans="3:5">
-      <c r="C11" s="37" t="s">
+    <row r="11" spans="1:8" ht="69.599999999999994">
+      <c r="C11" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="D11" s="41" t="s">
+      <c r="D11" s="37" t="s">
         <v>21</v>
       </c>
-      <c r="E11" s="42" t="s">
+      <c r="E11" s="38" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="12" spans="3:5">
-      <c r="C12" s="37" t="s">
+    <row r="12" spans="1:8">
+      <c r="C12" s="33" t="s">
         <v>23</v>
       </c>
-      <c r="D12" s="41" t="s">
+      <c r="D12" s="37" t="s">
         <v>24</v>
       </c>
-      <c r="E12" s="44" t="s">
+      <c r="E12" s="40" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="13" spans="3:5">
-      <c r="C13" s="37"/>
-      <c r="D13" s="38"/>
-      <c r="E13" s="39"/>
-    </row>
-    <row r="14" spans="3:5">
-      <c r="C14" s="37"/>
-      <c r="D14" s="38"/>
-      <c r="E14" s="39"/>
-    </row>
-    <row r="15" ht="34.5" spans="3:5">
-      <c r="C15" s="45" t="s">
+    <row r="13" spans="1:8">
+      <c r="C13" s="33"/>
+      <c r="D13" s="34"/>
+      <c r="E13" s="35"/>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="C14" s="33"/>
+      <c r="D14" s="34"/>
+      <c r="E14" s="35"/>
+    </row>
+    <row r="15" spans="1:8" ht="34.799999999999997">
+      <c r="C15" s="41" t="s">
         <v>26</v>
       </c>
-      <c r="D15" s="46" t="s">
+      <c r="D15" s="42" t="s">
         <v>27</v>
       </c>
-      <c r="E15" s="47" t="s">
+      <c r="E15" s="43" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="18" spans="3:3">
+    <row r="18" spans="3:5">
       <c r="C18" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="19" spans="3:5">
-      <c r="C19" s="48" t="s">
+      <c r="C19" s="51" t="s">
         <v>30</v>
       </c>
-      <c r="D19" s="48"/>
-      <c r="E19" s="48"/>
-    </row>
-    <row r="20" ht="18" spans="3:4">
-      <c r="C20" s="49" t="s">
+      <c r="D19" s="51"/>
+      <c r="E19" s="51"/>
+    </row>
+    <row r="20" spans="3:5">
+      <c r="C20" s="44" t="s">
         <v>31</v>
       </c>
-      <c r="D20" s="27" t="s">
+      <c r="D20" s="26" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="21" ht="18" spans="3:4">
-      <c r="C21" s="49" t="s">
+    <row r="21" spans="3:5">
+      <c r="C21" s="44" t="s">
         <v>33</v>
       </c>
-      <c r="D21" s="27" t="s">
+      <c r="D21" s="26" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="22" ht="18" spans="3:4">
-      <c r="C22" s="49" t="s">
+    <row r="22" spans="3:5">
+      <c r="C22" s="44" t="s">
         <v>35</v>
       </c>
       <c r="D22" s="6" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="23" ht="18" spans="3:4">
-      <c r="C23" s="49" t="s">
+    <row r="23" spans="3:5">
+      <c r="C23" s="44" t="s">
         <v>37</v>
       </c>
       <c r="D23" s="6" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="25" ht="69" customHeight="1" spans="3:5">
-      <c r="C25" s="50" t="s">
+    <row r="25" spans="3:5" ht="69" customHeight="1">
+      <c r="C25" s="45" t="s">
         <v>39</v>
       </c>
-      <c r="D25" s="28" t="s">
+      <c r="D25" s="48" t="s">
         <v>40</v>
       </c>
-      <c r="E25" s="28"/>
-    </row>
-    <row r="26" ht="14.25" customHeight="1" spans="3:5">
-      <c r="C26" s="38" t="s">
+      <c r="E25" s="48"/>
+    </row>
+    <row r="26" spans="3:5" ht="14.25" customHeight="1">
+      <c r="C26" s="34" t="s">
         <v>41</v>
       </c>
-      <c r="D26" s="28" t="s">
+      <c r="D26" s="48" t="s">
         <v>42</v>
       </c>
-      <c r="E26" s="28"/>
-    </row>
-    <row r="27" ht="51.75" spans="3:3">
-      <c r="C27" s="51" t="s">
+      <c r="E26" s="48"/>
+    </row>
+    <row r="27" spans="3:5" ht="52.2">
+      <c r="C27" s="46" t="s">
         <v>43</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="7">
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="D26:E26"/>
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="E3:G3"/>
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="C19:E19"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="D26:E26"/>
   </mergeCells>
-  <pageMargins left="0.697916666666667" right="0.697916666666667" top="0.75" bottom="0.75" header="0.510416666666667" footer="0.510416666666667"/>
+  <phoneticPr fontId="32" type="noConversion"/>
+  <pageMargins left="0.69791666666666696" right="0.69791666666666696" top="0.75" bottom="0.75" header="0.51041666666666696" footer="0.51041666666666696"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y181"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" topLeftCell="G132" workbookViewId="0">
+    <sheetView topLeftCell="G16" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="N150" sqref="N150"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999"/>
   <cols>
-    <col min="5" max="5" width="37.4148148148148" customWidth="1"/>
-    <col min="6" max="6" width="77.5851851851852" customWidth="1"/>
-    <col min="7" max="7" width="44.2518518518519" customWidth="1"/>
-    <col min="11" max="11" width="24.0814814814815" customWidth="1"/>
-    <col min="15" max="15" width="34.1259259259259" customWidth="1"/>
+    <col min="5" max="5" width="37.4140625" customWidth="1"/>
+    <col min="6" max="6" width="77.58203125" customWidth="1"/>
+    <col min="7" max="7" width="44.25" customWidth="1"/>
+    <col min="11" max="11" width="24.08203125" customWidth="1"/>
+    <col min="15" max="15" width="34.08203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:25">
       <c r="A1" s="1" t="s">
         <v>44</v>
       </c>
@@ -10460,7 +9882,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="4" spans="5:7">
+    <row r="4" spans="1:25">
       <c r="E4" s="2" t="s">
         <v>47</v>
       </c>
@@ -10548,7 +9970,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="8" spans="5:24">
+    <row r="8" spans="1:25">
       <c r="E8" t="s">
         <v>75</v>
       </c>
@@ -10598,7 +10020,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="9" spans="5:24">
+    <row r="9" spans="1:25">
       <c r="E9" t="s">
         <v>84</v>
       </c>
@@ -10655,7 +10077,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="10" spans="5:24">
+    <row r="10" spans="1:25">
       <c r="E10" t="s">
         <v>93</v>
       </c>
@@ -10703,7 +10125,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="11" spans="5:24">
+    <row r="11" spans="1:25">
       <c r="E11" t="s">
         <v>98</v>
       </c>
@@ -10753,7 +10175,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="12" spans="5:24">
+    <row r="12" spans="1:25">
       <c r="E12" t="s">
         <v>102</v>
       </c>
@@ -10807,7 +10229,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="13" spans="5:24">
+    <row r="13" spans="1:25">
       <c r="E13" t="s">
         <v>110</v>
       </c>
@@ -10864,7 +10286,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="14" spans="5:24">
+    <row r="14" spans="1:25">
       <c r="E14" t="s">
         <v>115</v>
       </c>
@@ -10912,7 +10334,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="15" spans="5:24">
+    <row r="15" spans="1:25">
       <c r="E15" t="s">
         <v>120</v>
       </c>
@@ -10960,7 +10382,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="16" spans="5:24">
+    <row r="16" spans="1:25">
       <c r="E16" t="s">
         <v>124</v>
       </c>
@@ -18551,7 +17973,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="170" s="5" customFormat="1" spans="5:24">
+    <row r="170" spans="5:24" s="5" customFormat="1">
       <c r="E170" s="5" t="s">
         <v>770</v>
       </c>
@@ -18608,7 +18030,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="171" s="5" customFormat="1" spans="5:24">
+    <row r="171" spans="5:24" s="5" customFormat="1">
       <c r="E171" s="5" t="s">
         <v>777</v>
       </c>
@@ -18659,7 +18081,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="172" s="5" customFormat="1" spans="5:24">
+    <row r="172" spans="5:24" s="5" customFormat="1">
       <c r="E172" s="5" t="s">
         <v>781</v>
       </c>
@@ -18710,7 +18132,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="173" s="5" customFormat="1" spans="5:24">
+    <row r="173" spans="5:24" s="5" customFormat="1">
       <c r="E173" s="5" t="s">
         <v>785</v>
       </c>
@@ -18761,7 +18183,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="174" s="5" customFormat="1" spans="5:24">
+    <row r="174" spans="5:24" s="5" customFormat="1">
       <c r="E174" s="5" t="s">
         <v>789</v>
       </c>
@@ -18812,7 +18234,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="175" s="5" customFormat="1" spans="5:24">
+    <row r="175" spans="5:24" s="5" customFormat="1">
       <c r="E175" s="5" t="s">
         <v>793</v>
       </c>
@@ -19152,28 +18574,27 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="32" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G572"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" topLeftCell="A571" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999"/>
   <cols>
-    <col min="5" max="5" width="28.0814814814815" customWidth="1"/>
-    <col min="6" max="6" width="34.3333333333333" customWidth="1"/>
-    <col min="7" max="7" width="57.5851851851852" customWidth="1"/>
+    <col min="5" max="5" width="28.08203125" customWidth="1"/>
+    <col min="6" max="6" width="34.33203125" customWidth="1"/>
+    <col min="7" max="7" width="57.58203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>44</v>
       </c>
@@ -19187,7 +18608,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="4" spans="5:7">
+    <row r="4" spans="1:7">
       <c r="E4" s="2" t="s">
         <v>47</v>
       </c>
@@ -19221,7 +18642,7 @@
         <v>825</v>
       </c>
     </row>
-    <row r="8" spans="5:7">
+    <row r="8" spans="1:7">
       <c r="E8" s="14" t="s">
         <v>826</v>
       </c>
@@ -19233,7 +18654,7 @@
         <v>827</v>
       </c>
     </row>
-    <row r="9" spans="5:7">
+    <row r="9" spans="1:7">
       <c r="E9" t="s">
         <v>828</v>
       </c>
@@ -19245,7 +18666,7 @@
         <v>829</v>
       </c>
     </row>
-    <row r="10" spans="5:7">
+    <row r="10" spans="1:7">
       <c r="E10" t="s">
         <v>830</v>
       </c>
@@ -19257,7 +18678,7 @@
         <v>831</v>
       </c>
     </row>
-    <row r="11" spans="5:7">
+    <row r="11" spans="1:7">
       <c r="E11" t="s">
         <v>832</v>
       </c>
@@ -19269,7 +18690,7 @@
         <v>833</v>
       </c>
     </row>
-    <row r="12" spans="5:7">
+    <row r="12" spans="1:7">
       <c r="E12" t="s">
         <v>834</v>
       </c>
@@ -19281,7 +18702,7 @@
         <v>835</v>
       </c>
     </row>
-    <row r="13" spans="5:7">
+    <row r="13" spans="1:7">
       <c r="E13" t="s">
         <v>836</v>
       </c>
@@ -19293,7 +18714,7 @@
         <v>837</v>
       </c>
     </row>
-    <row r="14" spans="5:7">
+    <row r="14" spans="1:7">
       <c r="E14" t="s">
         <v>838</v>
       </c>
@@ -19305,7 +18726,7 @@
         <v>839</v>
       </c>
     </row>
-    <row r="15" spans="5:7">
+    <row r="15" spans="1:7">
       <c r="E15" t="s">
         <v>840</v>
       </c>
@@ -19317,7 +18738,7 @@
         <v>841</v>
       </c>
     </row>
-    <row r="16" spans="5:7">
+    <row r="16" spans="1:7">
       <c r="E16" s="6" t="s">
         <v>842</v>
       </c>
@@ -25041,7 +24462,7 @@
         <v>1597</v>
       </c>
     </row>
-    <row r="493" s="11" customFormat="1" spans="5:7">
+    <row r="493" spans="5:7" s="11" customFormat="1">
       <c r="E493" s="11" t="s">
         <v>1598</v>
       </c>
@@ -25317,7 +24738,7 @@
         <v>1615</v>
       </c>
     </row>
-    <row r="516" s="5" customFormat="1" spans="5:7">
+    <row r="516" spans="5:7" s="5" customFormat="1">
       <c r="E516" s="5" t="s">
         <v>1626</v>
       </c>
@@ -25329,7 +24750,7 @@
         <v>1627</v>
       </c>
     </row>
-    <row r="517" s="5" customFormat="1" spans="5:7">
+    <row r="517" spans="5:7" s="5" customFormat="1">
       <c r="E517" s="5" t="s">
         <v>1628</v>
       </c>
@@ -25341,7 +24762,7 @@
         <v>1629</v>
       </c>
     </row>
-    <row r="518" s="5" customFormat="1" spans="5:7">
+    <row r="518" spans="5:7" s="5" customFormat="1">
       <c r="E518" s="5" t="s">
         <v>1630</v>
       </c>
@@ -25353,7 +24774,7 @@
         <v>1631</v>
       </c>
     </row>
-    <row r="519" s="5" customFormat="1" spans="5:7">
+    <row r="519" spans="5:7" s="5" customFormat="1">
       <c r="E519" s="5" t="s">
         <v>1632</v>
       </c>
@@ -25365,7 +24786,7 @@
         <v>1633</v>
       </c>
     </row>
-    <row r="520" s="5" customFormat="1" spans="5:7">
+    <row r="520" spans="5:7" s="5" customFormat="1">
       <c r="E520" s="5" t="s">
         <v>1634</v>
       </c>
@@ -25377,7 +24798,7 @@
         <v>1635</v>
       </c>
     </row>
-    <row r="521" s="5" customFormat="1" spans="5:7">
+    <row r="521" spans="5:7" s="5" customFormat="1">
       <c r="E521" s="5" t="s">
         <v>1636</v>
       </c>
@@ -25389,7 +24810,7 @@
         <v>1637</v>
       </c>
     </row>
-    <row r="522" s="5" customFormat="1" spans="5:7">
+    <row r="522" spans="5:7" s="5" customFormat="1">
       <c r="E522" s="5" t="s">
         <v>1638</v>
       </c>
@@ -25401,7 +24822,7 @@
         <v>1631</v>
       </c>
     </row>
-    <row r="523" s="5" customFormat="1" spans="5:7">
+    <row r="523" spans="5:7" s="5" customFormat="1">
       <c r="E523" s="5" t="s">
         <v>1639</v>
       </c>
@@ -25413,7 +24834,7 @@
         <v>1633</v>
       </c>
     </row>
-    <row r="524" s="5" customFormat="1" spans="5:7">
+    <row r="524" spans="5:7" s="5" customFormat="1">
       <c r="E524" s="5" t="s">
         <v>1640</v>
       </c>
@@ -25425,7 +24846,7 @@
         <v>1635</v>
       </c>
     </row>
-    <row r="525" s="5" customFormat="1" spans="5:7">
+    <row r="525" spans="5:7" s="5" customFormat="1">
       <c r="E525" s="5" t="s">
         <v>1641</v>
       </c>
@@ -25437,7 +24858,7 @@
         <v>1637</v>
       </c>
     </row>
-    <row r="526" s="5" customFormat="1" spans="5:7">
+    <row r="526" spans="5:7" s="5" customFormat="1">
       <c r="E526" s="5" t="s">
         <v>1642</v>
       </c>
@@ -25449,7 +24870,7 @@
         <v>1643</v>
       </c>
     </row>
-    <row r="527" s="5" customFormat="1" spans="5:7">
+    <row r="527" spans="5:7" s="5" customFormat="1">
       <c r="E527" s="5" t="s">
         <v>1644</v>
       </c>
@@ -25461,7 +24882,7 @@
         <v>1645</v>
       </c>
     </row>
-    <row r="528" s="5" customFormat="1" spans="5:7">
+    <row r="528" spans="5:7" s="5" customFormat="1">
       <c r="E528" s="5" t="s">
         <v>1646</v>
       </c>
@@ -25473,7 +24894,7 @@
         <v>1647</v>
       </c>
     </row>
-    <row r="529" s="5" customFormat="1" spans="5:7">
+    <row r="529" spans="5:7" s="5" customFormat="1">
       <c r="E529" s="5" t="s">
         <v>1648</v>
       </c>
@@ -25485,7 +24906,7 @@
         <v>1649</v>
       </c>
     </row>
-    <row r="530" s="5" customFormat="1" spans="5:7">
+    <row r="530" spans="5:7" s="5" customFormat="1">
       <c r="E530" s="5" t="s">
         <v>1650</v>
       </c>
@@ -25509,7 +24930,7 @@
         <v>1653</v>
       </c>
     </row>
-    <row r="532" s="12" customFormat="1" spans="5:7">
+    <row r="532" spans="5:7" s="12" customFormat="1">
       <c r="E532" s="12" t="s">
         <v>1654</v>
       </c>
@@ -25521,7 +24942,7 @@
         <v>1655</v>
       </c>
     </row>
-    <row r="533" s="12" customFormat="1" spans="5:7">
+    <row r="533" spans="5:7" s="12" customFormat="1">
       <c r="E533" s="12" t="s">
         <v>1656</v>
       </c>
@@ -25533,7 +24954,7 @@
         <v>1657</v>
       </c>
     </row>
-    <row r="534" s="12" customFormat="1" spans="5:7">
+    <row r="534" spans="5:7" s="12" customFormat="1">
       <c r="E534" s="12" t="s">
         <v>1658</v>
       </c>
@@ -25545,7 +24966,7 @@
         <v>1659</v>
       </c>
     </row>
-    <row r="535" s="12" customFormat="1" spans="5:7">
+    <row r="535" spans="5:7" s="12" customFormat="1">
       <c r="E535" s="12" t="s">
         <v>1660</v>
       </c>
@@ -25557,7 +24978,7 @@
         <v>1659</v>
       </c>
     </row>
-    <row r="536" s="12" customFormat="1" spans="5:7">
+    <row r="536" spans="5:7" s="12" customFormat="1">
       <c r="E536" s="12" t="s">
         <v>1661</v>
       </c>
@@ -25569,7 +24990,7 @@
         <v>1099</v>
       </c>
     </row>
-    <row r="537" s="12" customFormat="1" spans="5:7">
+    <row r="537" spans="5:7" s="12" customFormat="1">
       <c r="E537" s="12" t="s">
         <v>1662</v>
       </c>
@@ -25629,7 +25050,7 @@
         <v>1670</v>
       </c>
     </row>
-    <row r="542" s="13" customFormat="1" spans="5:7">
+    <row r="542" spans="5:7" s="13" customFormat="1">
       <c r="E542" s="13" t="s">
         <v>1671</v>
       </c>
@@ -26002,29 +25423,28 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="32" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O44"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12:E13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999"/>
   <cols>
-    <col min="5" max="5" width="14.6666666666667" customWidth="1"/>
-    <col min="6" max="6" width="18.9111111111111" customWidth="1"/>
-    <col min="7" max="7" width="17.3333333333333" customWidth="1"/>
-    <col min="8" max="8" width="12.2518518518519" customWidth="1"/>
+    <col min="5" max="5" width="14.6640625" customWidth="1"/>
+    <col min="6" max="6" width="18.9140625" customWidth="1"/>
+    <col min="7" max="7" width="17.33203125" customWidth="1"/>
+    <col min="8" max="8" width="12.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:15">
       <c r="A1" s="1" t="s">
         <v>44</v>
       </c>
@@ -26038,7 +25458,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="4" spans="5:7">
+    <row r="4" spans="1:15">
       <c r="E4" s="2" t="s">
         <v>47</v>
       </c>
@@ -26049,7 +25469,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:15">
       <c r="A7" t="s">
         <v>1721</v>
       </c>
@@ -26080,8 +25500,11 @@
       <c r="J7" s="8" t="s">
         <v>1728</v>
       </c>
-    </row>
-    <row r="8" spans="1:10">
+      <c r="K7" s="8" t="s">
+        <v>2313</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="9"/>
       <c r="B8" s="8"/>
       <c r="D8" s="8"/>
@@ -26103,8 +25526,11 @@
       <c r="J8">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:10">
+      <c r="K8">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="9"/>
       <c r="B9" s="8"/>
       <c r="D9" s="8"/>
@@ -26126,6 +25552,9 @@
       <c r="J9">
         <v>1</v>
       </c>
+      <c r="K9">
+        <v>50</v>
+      </c>
     </row>
     <row r="11" spans="1:15">
       <c r="A11" t="s">
@@ -26174,7 +25603,7 @@
         <v>1748</v>
       </c>
     </row>
-    <row r="12" spans="5:15">
+    <row r="12" spans="1:15">
       <c r="E12" s="8" t="s">
         <v>1749</v>
       </c>
@@ -26206,7 +25635,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="5:15">
+    <row r="13" spans="1:15">
       <c r="E13" s="8" t="s">
         <v>1754</v>
       </c>
@@ -26238,7 +25667,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:9">
+    <row r="15" spans="1:15">
       <c r="A15" t="s">
         <v>50</v>
       </c>
@@ -26267,7 +25696,7 @@
         <v>1763</v>
       </c>
     </row>
-    <row r="16" spans="5:9">
+    <row r="16" spans="1:15">
       <c r="E16" s="8" t="s">
         <v>1729</v>
       </c>
@@ -26819,30 +26248,29 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="32" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y446"/>
   <sheetViews>
     <sheetView topLeftCell="D194" workbookViewId="0">
       <selection activeCell="E330" sqref="E330"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999"/>
   <cols>
-    <col min="5" max="5" width="33.9111111111111" customWidth="1"/>
-    <col min="6" max="6" width="15.6666666666667" customWidth="1"/>
+    <col min="5" max="5" width="33.9140625" customWidth="1"/>
+    <col min="6" max="6" width="15.6640625" customWidth="1"/>
     <col min="7" max="7" width="17" customWidth="1"/>
-    <col min="21" max="21" width="14.4148148148148" customWidth="1"/>
-    <col min="22" max="22" width="14.9111111111111" customWidth="1"/>
+    <col min="21" max="21" width="14.4140625" customWidth="1"/>
+    <col min="22" max="22" width="14.9140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:25">
       <c r="A1" s="1" t="s">
         <v>44</v>
       </c>
@@ -26856,7 +26284,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="4" spans="5:7">
+    <row r="4" spans="1:25">
       <c r="E4" s="2" t="s">
         <v>47</v>
       </c>
@@ -26944,7 +26372,7 @@
         <v>1780</v>
       </c>
     </row>
-    <row r="8" spans="5:23">
+    <row r="8" spans="1:25">
       <c r="E8" t="s">
         <v>1781</v>
       </c>
@@ -27003,7 +26431,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="9" spans="5:23">
+    <row r="9" spans="1:25">
       <c r="E9" t="s">
         <v>1787</v>
       </c>
@@ -27062,7 +26490,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="10" spans="5:25">
+    <row r="10" spans="1:25">
       <c r="E10" t="s">
         <v>1792</v>
       </c>
@@ -27125,7 +26553,7 @@
         <v>1799</v>
       </c>
     </row>
-    <row r="11" spans="5:25">
+    <row r="11" spans="1:25">
       <c r="E11" t="s">
         <v>1800</v>
       </c>
@@ -27188,7 +26616,7 @@
         <v>1807</v>
       </c>
     </row>
-    <row r="12" spans="5:25">
+    <row r="12" spans="1:25">
       <c r="E12" t="s">
         <v>1808</v>
       </c>
@@ -27251,7 +26679,7 @@
         <v>1815</v>
       </c>
     </row>
-    <row r="13" spans="5:25">
+    <row r="13" spans="1:25">
       <c r="E13" t="s">
         <v>1816</v>
       </c>
@@ -27314,7 +26742,7 @@
         <v>1823</v>
       </c>
     </row>
-    <row r="14" spans="5:23">
+    <row r="14" spans="1:25">
       <c r="E14" t="s">
         <v>1824</v>
       </c>
@@ -27371,7 +26799,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:10">
+    <row r="16" spans="1:25">
       <c r="A16" t="s">
         <v>50</v>
       </c>
@@ -36005,7 +35433,7 @@
         <v>1838</v>
       </c>
     </row>
-    <row r="408" s="5" customFormat="1" spans="5:10">
+    <row r="408" spans="5:10" s="5" customFormat="1">
       <c r="E408" s="5" t="s">
         <v>2230</v>
       </c>
@@ -36027,7 +35455,7 @@
         <v>1838</v>
       </c>
     </row>
-    <row r="409" s="5" customFormat="1" spans="5:10">
+    <row r="409" spans="5:10" s="5" customFormat="1">
       <c r="E409" s="5" t="s">
         <v>2231</v>
       </c>
@@ -36049,7 +35477,7 @@
         <v>1838</v>
       </c>
     </row>
-    <row r="410" s="5" customFormat="1" spans="5:10">
+    <row r="410" spans="5:10" s="5" customFormat="1">
       <c r="E410" s="5" t="s">
         <v>2232</v>
       </c>
@@ -36071,7 +35499,7 @@
         <v>1838</v>
       </c>
     </row>
-    <row r="411" s="5" customFormat="1" spans="5:10">
+    <row r="411" spans="5:10" s="5" customFormat="1">
       <c r="E411" s="5" t="s">
         <v>2233</v>
       </c>
@@ -36093,7 +35521,7 @@
         <v>1838</v>
       </c>
     </row>
-    <row r="412" s="5" customFormat="1" spans="5:10">
+    <row r="412" spans="5:10" s="5" customFormat="1">
       <c r="E412" s="5" t="s">
         <v>2234</v>
       </c>
@@ -36115,7 +35543,7 @@
         <v>1838</v>
       </c>
     </row>
-    <row r="413" s="5" customFormat="1" spans="5:10">
+    <row r="413" spans="5:10" s="5" customFormat="1">
       <c r="E413" s="5" t="s">
         <v>2235</v>
       </c>
@@ -36137,7 +35565,7 @@
         <v>1838</v>
       </c>
     </row>
-    <row r="414" s="5" customFormat="1" spans="5:10">
+    <row r="414" spans="5:10" s="5" customFormat="1">
       <c r="E414" s="5" t="s">
         <v>2236</v>
       </c>
@@ -36159,7 +35587,7 @@
         <v>1838</v>
       </c>
     </row>
-    <row r="415" s="5" customFormat="1" spans="5:10">
+    <row r="415" spans="5:10" s="5" customFormat="1">
       <c r="E415" s="5" t="s">
         <v>2237</v>
       </c>
@@ -36181,7 +35609,7 @@
         <v>1838</v>
       </c>
     </row>
-    <row r="416" s="5" customFormat="1" spans="5:10">
+    <row r="416" spans="5:10" s="5" customFormat="1">
       <c r="E416" s="5" t="s">
         <v>2238</v>
       </c>
@@ -36203,7 +35631,7 @@
         <v>1838</v>
       </c>
     </row>
-    <row r="417" s="5" customFormat="1" spans="5:10">
+    <row r="417" spans="5:10" s="5" customFormat="1">
       <c r="E417" s="5" t="s">
         <v>2239</v>
       </c>
@@ -36225,7 +35653,7 @@
         <v>1838</v>
       </c>
     </row>
-    <row r="418" s="5" customFormat="1" spans="5:10">
+    <row r="418" spans="5:10" s="5" customFormat="1">
       <c r="E418" s="5" t="s">
         <v>2240</v>
       </c>
@@ -36247,7 +35675,7 @@
         <v>1838</v>
       </c>
     </row>
-    <row r="419" s="5" customFormat="1" spans="5:10">
+    <row r="419" spans="5:10" s="5" customFormat="1">
       <c r="E419" s="5" t="s">
         <v>2241</v>
       </c>
@@ -36269,7 +35697,7 @@
         <v>1838</v>
       </c>
     </row>
-    <row r="420" s="5" customFormat="1" spans="5:10">
+    <row r="420" spans="5:10" s="5" customFormat="1">
       <c r="E420" s="5" t="s">
         <v>2242</v>
       </c>
@@ -36291,7 +35719,7 @@
         <v>1838</v>
       </c>
     </row>
-    <row r="421" s="5" customFormat="1" spans="5:10">
+    <row r="421" spans="5:10" s="5" customFormat="1">
       <c r="E421" s="5" t="s">
         <v>2243</v>
       </c>
@@ -36313,7 +35741,7 @@
         <v>1838</v>
       </c>
     </row>
-    <row r="422" s="5" customFormat="1" spans="5:10">
+    <row r="422" spans="5:10" s="5" customFormat="1">
       <c r="E422" s="5" t="s">
         <v>2244</v>
       </c>
@@ -36335,7 +35763,7 @@
         <v>1838</v>
       </c>
     </row>
-    <row r="423" s="5" customFormat="1" spans="5:10">
+    <row r="423" spans="5:10" s="5" customFormat="1">
       <c r="E423" s="5" t="s">
         <v>2245</v>
       </c>
@@ -36357,7 +35785,7 @@
         <v>1838</v>
       </c>
     </row>
-    <row r="424" s="5" customFormat="1" spans="5:10">
+    <row r="424" spans="5:10" s="5" customFormat="1">
       <c r="E424" s="5" t="s">
         <v>2246</v>
       </c>
@@ -36379,7 +35807,7 @@
         <v>1838</v>
       </c>
     </row>
-    <row r="425" s="5" customFormat="1" spans="5:10">
+    <row r="425" spans="5:10" s="5" customFormat="1">
       <c r="E425" s="5" t="s">
         <v>2247</v>
       </c>
@@ -36401,7 +35829,7 @@
         <v>1838</v>
       </c>
     </row>
-    <row r="426" s="5" customFormat="1" spans="5:10">
+    <row r="426" spans="5:10" s="5" customFormat="1">
       <c r="E426" s="5" t="s">
         <v>2248</v>
       </c>
@@ -36423,7 +35851,7 @@
         <v>1838</v>
       </c>
     </row>
-    <row r="427" s="5" customFormat="1" spans="5:10">
+    <row r="427" spans="5:10" s="5" customFormat="1">
       <c r="E427" s="5" t="s">
         <v>2249</v>
       </c>
@@ -36445,7 +35873,7 @@
         <v>1838</v>
       </c>
     </row>
-    <row r="428" s="5" customFormat="1" spans="5:10">
+    <row r="428" spans="5:10" s="5" customFormat="1">
       <c r="E428" s="5" t="s">
         <v>2250</v>
       </c>
@@ -36555,7 +35983,7 @@
         <v>1838</v>
       </c>
     </row>
-    <row r="433" ht="18" customHeight="1" spans="5:10">
+    <row r="433" spans="5:10" ht="18" customHeight="1">
       <c r="E433" s="5" t="s">
         <v>2255</v>
       </c>
@@ -36864,23 +36292,22 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="32" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O35"/>
   <sheetViews>
     <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="E77" sqref="E77"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:15">
       <c r="A1" s="1" t="s">
         <v>44</v>
       </c>
@@ -36894,7 +36321,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="4" spans="5:7">
+    <row r="4" spans="1:15">
       <c r="E4" s="2" t="s">
         <v>47</v>
       </c>
@@ -36952,7 +36379,7 @@
         <v>1748</v>
       </c>
     </row>
-    <row r="8" spans="5:15">
+    <row r="8" spans="1:15">
       <c r="E8" t="s">
         <v>2269</v>
       </c>
@@ -36984,7 +36411,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="9" spans="5:15">
+    <row r="9" spans="1:15">
       <c r="E9" t="s">
         <v>2274</v>
       </c>
@@ -37013,7 +36440,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="10" spans="5:15">
+    <row r="10" spans="1:15">
       <c r="E10" t="s">
         <v>2278</v>
       </c>
@@ -37045,7 +36472,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="11" spans="5:15">
+    <row r="11" spans="1:15">
       <c r="E11" t="s">
         <v>2281</v>
       </c>
@@ -37077,7 +36504,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="12" spans="5:15">
+    <row r="12" spans="1:15">
       <c r="E12" t="s">
         <v>2285</v>
       </c>
@@ -37109,7 +36536,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="13" spans="5:15">
+    <row r="13" spans="1:15">
       <c r="E13" t="s">
         <v>2288</v>
       </c>
@@ -37141,7 +36568,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="14" spans="5:15">
+    <row r="14" spans="1:15">
       <c r="E14" t="s">
         <v>2292</v>
       </c>
@@ -37173,7 +36600,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="15" spans="5:15">
+    <row r="15" spans="1:15">
       <c r="E15" t="s">
         <v>2295</v>
       </c>
@@ -37205,7 +36632,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="16" spans="5:15">
+    <row r="16" spans="1:15">
       <c r="E16" t="s">
         <v>2299</v>
       </c>
@@ -37237,7 +36664,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="17" spans="5:15">
+    <row r="17" spans="1:15">
       <c r="E17" t="s">
         <v>2303</v>
       </c>
@@ -37269,7 +36696,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="18" spans="5:15">
+    <row r="18" spans="1:15">
       <c r="E18" t="s">
         <v>2307</v>
       </c>
@@ -37301,7 +36728,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="19" spans="5:15">
+    <row r="19" spans="1:15">
       <c r="E19" t="s">
         <v>2310</v>
       </c>
@@ -37333,7 +36760,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="21" spans="1:9">
+    <row r="21" spans="1:15">
       <c r="A21" t="s">
         <v>50</v>
       </c>
@@ -37362,7 +36789,7 @@
         <v>1763</v>
       </c>
     </row>
-    <row r="22" spans="5:9">
+    <row r="22" spans="1:15">
       <c r="E22" t="s">
         <v>1729</v>
       </c>
@@ -37381,7 +36808,7 @@
         <v>1764</v>
       </c>
     </row>
-    <row r="23" spans="5:9">
+    <row r="23" spans="1:15">
       <c r="E23" t="s">
         <v>1729</v>
       </c>
@@ -37400,7 +36827,7 @@
         <v>1764</v>
       </c>
     </row>
-    <row r="24" spans="5:9">
+    <row r="24" spans="1:15">
       <c r="E24" t="s">
         <v>1729</v>
       </c>
@@ -37419,7 +36846,7 @@
         <v>1764</v>
       </c>
     </row>
-    <row r="25" spans="5:9">
+    <row r="25" spans="1:15">
       <c r="E25" t="s">
         <v>1729</v>
       </c>
@@ -37438,7 +36865,7 @@
         <v>1764</v>
       </c>
     </row>
-    <row r="26" spans="5:9">
+    <row r="26" spans="1:15">
       <c r="E26" t="s">
         <v>1729</v>
       </c>
@@ -37457,7 +36884,7 @@
         <v>1764</v>
       </c>
     </row>
-    <row r="27" spans="5:9">
+    <row r="27" spans="1:15">
       <c r="E27" t="s">
         <v>1729</v>
       </c>
@@ -37476,7 +36903,7 @@
         <v>1764</v>
       </c>
     </row>
-    <row r="28" spans="5:9">
+    <row r="28" spans="1:15">
       <c r="E28" t="s">
         <v>1729</v>
       </c>
@@ -37495,7 +36922,7 @@
         <v>1764</v>
       </c>
     </row>
-    <row r="29" spans="5:9">
+    <row r="29" spans="1:15">
       <c r="E29" t="s">
         <v>1729</v>
       </c>
@@ -37514,7 +36941,7 @@
         <v>1764</v>
       </c>
     </row>
-    <row r="30" spans="5:9">
+    <row r="30" spans="1:15">
       <c r="E30" t="s">
         <v>1729</v>
       </c>
@@ -37533,7 +36960,7 @@
         <v>1764</v>
       </c>
     </row>
-    <row r="31" spans="5:9">
+    <row r="31" spans="1:15">
       <c r="E31" t="s">
         <v>1729</v>
       </c>
@@ -37552,7 +36979,7 @@
         <v>1764</v>
       </c>
     </row>
-    <row r="32" spans="5:9">
+    <row r="32" spans="1:15">
       <c r="E32" t="s">
         <v>1729</v>
       </c>
@@ -37629,8 +37056,8 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="32" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
-  <headerFooter/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
--- a/src/main/resources/script/db/init-data/devops_service/hzero_platform/hzero-menu-user-role-label.xlsx
+++ b/src/main/resources/script/db/init-data/devops_service/hzero_platform/hzero-menu-user-role-label.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19488" windowHeight="8460" tabRatio="597" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19488" windowHeight="8460" tabRatio="597" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5963" uniqueCount="2314">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5962" uniqueCount="2315">
   <si>
     <r>
       <rPr>
@@ -8825,13 +8825,17 @@
     <t>SEQUENCE</t>
     <phoneticPr fontId="32" type="noConversion"/>
   </si>
+  <si>
+    <t>choerodon.code.organization.setting</t>
+    <phoneticPr fontId="32" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="178" formatCode="000000"/>
+    <numFmt numFmtId="176" formatCode="000000"/>
   </numFmts>
   <fonts count="33">
     <font>
@@ -9202,7 +9206,7 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -9253,11 +9257,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -9636,11 +9640,11 @@
   <sheetData>
     <row r="1" spans="1:8" ht="64.5" customHeight="1">
       <c r="A1" s="24"/>
-      <c r="C1" s="47" t="s">
+      <c r="C1" s="48" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="47"/>
-      <c r="E1" s="47"/>
+      <c r="D1" s="48"/>
+      <c r="E1" s="48"/>
       <c r="F1" s="25"/>
       <c r="G1" s="25"/>
       <c r="H1" s="25"/>
@@ -9649,10 +9653,10 @@
       <c r="E2" s="26"/>
     </row>
     <row r="3" spans="1:8" ht="49.5" customHeight="1">
-      <c r="C3" s="48" t="s">
+      <c r="C3" s="47" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="48"/>
+      <c r="D3" s="47"/>
       <c r="E3" s="49" t="s">
         <v>2</v>
       </c>
@@ -9816,19 +9820,19 @@
       <c r="C25" s="45" t="s">
         <v>39</v>
       </c>
-      <c r="D25" s="48" t="s">
+      <c r="D25" s="47" t="s">
         <v>40</v>
       </c>
-      <c r="E25" s="48"/>
+      <c r="E25" s="47"/>
     </row>
     <row r="26" spans="3:5" ht="14.25" customHeight="1">
       <c r="C26" s="34" t="s">
         <v>41</v>
       </c>
-      <c r="D26" s="48" t="s">
+      <c r="D26" s="47" t="s">
         <v>42</v>
       </c>
-      <c r="E26" s="48"/>
+      <c r="E26" s="47"/>
     </row>
     <row r="27" spans="3:5" ht="52.2">
       <c r="C27" s="46" t="s">
@@ -9855,8 +9859,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y181"/>
   <sheetViews>
-    <sheetView topLeftCell="G16" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="N150" sqref="N150"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="M9" sqref="M9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999"/>
@@ -9974,8 +9978,8 @@
       <c r="E8" t="s">
         <v>75</v>
       </c>
-      <c r="F8" t="s">
-        <v>76</v>
+      <c r="F8" s="14" t="s">
+        <v>2314</v>
       </c>
       <c r="G8" t="s">
         <v>77</v>
@@ -10046,8 +10050,8 @@
       <c r="L9" t="s">
         <v>88</v>
       </c>
-      <c r="M9" t="s">
-        <v>89</v>
+      <c r="M9">
+        <v>55</v>
       </c>
       <c r="N9" t="s">
         <v>82</v>
@@ -25432,7 +25436,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>

--- a/src/main/resources/script/db/init-data/devops_service/hzero_platform/hzero-menu-user-role-label.xlsx
+++ b/src/main/resources/script/db/init-data/devops_service/hzero_platform/hzero-menu-user-role-label.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23426"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\projcect\devops\devops-service\src\main\resources\script\db\init-data\devops_service\hzero_platform\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\choerodon\devops-service\src\main\resources\script\db\init-data\devops_service\hzero_platform\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85637452-AF26-4F16-8FD6-C02586CB868F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="597" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="597" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="1" r:id="rId1"/>
@@ -26,12 +25,12 @@
     <definedName name="qwe">REPT(local_year_format,4)&amp;local_date_separator&amp;REPT(local_month_format,2)&amp;local_date_separator&amp;REPT(local_day_format,2)&amp;" "&amp;REPT(local_hour_format,2)&amp;local_time_separator&amp;REPT(local_minute_format,2)&amp;local_time_separator&amp;REPT(local_second_format,2)</definedName>
     <definedName name="wqewqe">REPT(local_year_format,4)&amp;local_date_separator&amp;REPT(local_month_format,2)&amp;local_date_separator&amp;REPT(local_day_format,2)&amp;" "&amp;REPT(local_hour_format,2)&amp;local_time_separator&amp;REPT(local_minute_format,2)&amp;local_time_separator&amp;REPT(local_second_format,2)</definedName>
   </definedNames>
-  <calcPr calcId="181029" concurrentCalc="0"/>
+  <calcPr calcId="162913" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6268" uniqueCount="2309">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6237" uniqueCount="2301">
   <si>
     <r>
       <rPr>
@@ -8694,24 +8693,9 @@
     <t>iam_role_permission-447</t>
   </si>
   <si>
-    <t>TENANT_MGR</t>
-  </si>
-  <si>
     <t>ROLE</t>
   </si>
   <si>
-    <t>租户管理员标签</t>
-  </si>
-  <si>
-    <t>Tenant Manager Label</t>
-  </si>
-  <si>
-    <t>SITE_MGR</t>
-  </si>
-  <si>
-    <t>平台管理员标签</t>
-  </si>
-  <si>
     <t>TENANT_ROLE_TPL</t>
   </si>
   <si>
@@ -8764,15 +8748,6 @@
   </si>
   <si>
     <t>Project Member</t>
-  </si>
-  <si>
-    <t>TENANT_TPL</t>
-  </si>
-  <si>
-    <t>租户管理员模板标签</t>
-  </si>
-  <si>
-    <t>Tenant Template Label</t>
   </si>
   <si>
     <t>GITLAB_OWNER</t>
@@ -8799,7 +8774,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="000000"/>
   </numFmts>
@@ -9218,11 +9193,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -9233,11 +9209,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000031000000}"/>
+    <cellStyle name="常规 2" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium7"/>
@@ -9577,41 +9552,41 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H27"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999"/>
   <cols>
-    <col min="1" max="1" width="15.5546875" style="18" customWidth="1"/>
+    <col min="1" max="1" width="15.58203125" style="18" customWidth="1"/>
     <col min="2" max="2" width="10.33203125" style="19" customWidth="1"/>
-    <col min="3" max="3" width="28.109375" customWidth="1"/>
+    <col min="3" max="3" width="28.08203125" customWidth="1"/>
     <col min="4" max="4" width="35.33203125" style="11" customWidth="1"/>
-    <col min="5" max="5" width="38.5546875" customWidth="1"/>
-    <col min="6" max="6" width="23.44140625" customWidth="1"/>
-    <col min="7" max="7" width="21.5546875" customWidth="1"/>
+    <col min="5" max="5" width="38.58203125" customWidth="1"/>
+    <col min="6" max="6" width="23.4140625" customWidth="1"/>
+    <col min="7" max="7" width="21.58203125" customWidth="1"/>
     <col min="8" max="8" width="22" customWidth="1"/>
-    <col min="9" max="9" width="24.5546875" customWidth="1"/>
+    <col min="9" max="9" width="24.58203125" customWidth="1"/>
     <col min="10" max="10" width="27" customWidth="1"/>
-    <col min="11" max="11" width="19.109375" customWidth="1"/>
-    <col min="12" max="12" width="18.5546875" customWidth="1"/>
-    <col min="13" max="13" width="13.109375" customWidth="1"/>
+    <col min="11" max="11" width="19.08203125" customWidth="1"/>
+    <col min="12" max="12" width="18.58203125" customWidth="1"/>
+    <col min="13" max="13" width="13.08203125" customWidth="1"/>
     <col min="14" max="1025" width="10.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="64.5" customHeight="1">
       <c r="A1" s="20"/>
-      <c r="C1" s="43" t="s">
+      <c r="C1" s="45" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="43"/>
-      <c r="E1" s="43"/>
+      <c r="D1" s="45"/>
+      <c r="E1" s="45"/>
       <c r="F1" s="21"/>
       <c r="G1" s="21"/>
       <c r="H1" s="21"/>
     </row>
-    <row r="2" spans="1:8" ht="18">
+    <row r="2" spans="1:8">
       <c r="E2" s="22"/>
     </row>
     <row r="3" spans="1:8" ht="49.5" customHeight="1">
@@ -9619,17 +9594,17 @@
         <v>1</v>
       </c>
       <c r="D3" s="44"/>
-      <c r="E3" s="45" t="s">
+      <c r="E3" s="46" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="45"/>
-      <c r="G3" s="45"/>
-    </row>
-    <row r="4" spans="1:8" ht="18">
-      <c r="C4" s="46" t="s">
+      <c r="F3" s="46"/>
+      <c r="G3" s="46"/>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="C4" s="47" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="46"/>
+      <c r="D4" s="47"/>
       <c r="E4" s="23" t="s">
         <v>4</v>
       </c>
@@ -9646,7 +9621,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="18">
+    <row r="7" spans="1:8">
       <c r="C7" s="26" t="s">
         <v>8</v>
       </c>
@@ -9666,7 +9641,7 @@
       </c>
       <c r="E8" s="31"/>
     </row>
-    <row r="9" spans="1:8" ht="51.75">
+    <row r="9" spans="1:8" ht="52.2">
       <c r="C9" s="32" t="s">
         <v>13</v>
       </c>
@@ -9680,7 +9655,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="51.75">
+    <row r="10" spans="1:8" ht="52.2">
       <c r="C10" s="35" t="s">
         <v>17</v>
       </c>
@@ -9691,7 +9666,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="69">
+    <row r="11" spans="1:8" ht="69.599999999999994">
       <c r="C11" s="29" t="s">
         <v>20</v>
       </c>
@@ -9723,7 +9698,7 @@
       <c r="D14" s="30"/>
       <c r="E14" s="31"/>
     </row>
-    <row r="15" spans="1:8" ht="34.5">
+    <row r="15" spans="1:8" ht="34.799999999999997">
       <c r="C15" s="37" t="s">
         <v>26</v>
       </c>
@@ -9740,13 +9715,13 @@
       </c>
     </row>
     <row r="19" spans="3:5">
-      <c r="C19" s="47" t="s">
+      <c r="C19" s="48" t="s">
         <v>30</v>
       </c>
-      <c r="D19" s="47"/>
-      <c r="E19" s="47"/>
-    </row>
-    <row r="20" spans="3:5" ht="18">
+      <c r="D19" s="48"/>
+      <c r="E19" s="48"/>
+    </row>
+    <row r="20" spans="3:5">
       <c r="C20" s="40" t="s">
         <v>31</v>
       </c>
@@ -9754,7 +9729,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="21" spans="3:5" ht="18">
+    <row r="21" spans="3:5">
       <c r="C21" s="40" t="s">
         <v>33</v>
       </c>
@@ -9762,7 +9737,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="22" spans="3:5" ht="18">
+    <row r="22" spans="3:5">
       <c r="C22" s="40" t="s">
         <v>35</v>
       </c>
@@ -9770,7 +9745,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="23" spans="3:5" ht="18">
+    <row r="23" spans="3:5">
       <c r="C23" s="40" t="s">
         <v>37</v>
       </c>
@@ -9796,7 +9771,7 @@
       </c>
       <c r="E26" s="44"/>
     </row>
-    <row r="27" spans="3:5" ht="51.75">
+    <row r="27" spans="3:5" ht="52.2">
       <c r="C27" s="42" t="s">
         <v>43</v>
       </c>
@@ -9818,19 +9793,19 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y181"/>
   <sheetViews>
     <sheetView topLeftCell="C129" workbookViewId="0">
       <selection activeCell="E141" sqref="E141"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999"/>
   <cols>
-    <col min="5" max="5" width="37.44140625" customWidth="1"/>
-    <col min="6" max="6" width="77.5546875" customWidth="1"/>
-    <col min="7" max="7" width="44.21875" customWidth="1"/>
-    <col min="11" max="11" width="24.109375" customWidth="1"/>
+    <col min="5" max="5" width="37.4140625" customWidth="1"/>
+    <col min="6" max="6" width="77.58203125" customWidth="1"/>
+    <col min="7" max="7" width="44.25" customWidth="1"/>
+    <col min="11" max="11" width="24.08203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:25">
@@ -18545,18 +18520,18 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G557"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A524" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="A524" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="E556" sqref="E556:G557"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999"/>
   <cols>
-    <col min="5" max="5" width="28.109375" customWidth="1"/>
+    <col min="5" max="5" width="28.08203125" customWidth="1"/>
     <col min="6" max="6" width="34.33203125" customWidth="1"/>
-    <col min="7" max="7" width="57.5546875" customWidth="1"/>
+    <col min="7" max="7" width="57.58203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -25184,27 +25159,27 @@
       </c>
     </row>
     <row r="556" spans="5:7">
-      <c r="E556" s="48" t="s">
-        <v>2307</v>
-      </c>
-      <c r="F556" s="48" t="str">
+      <c r="E556" s="43" t="s">
+        <v>2299</v>
+      </c>
+      <c r="F556" s="43" t="str">
         <f>菜单SAAS版!E141</f>
         <v>iam_menu-141</v>
       </c>
-      <c r="G556" s="48" t="s">
-        <v>2306</v>
+      <c r="G556" s="43" t="s">
+        <v>2298</v>
       </c>
     </row>
     <row r="557" spans="5:7">
-      <c r="E557" s="48" t="s">
-        <v>2308</v>
-      </c>
-      <c r="F557" s="48" t="str">
+      <c r="E557" s="43" t="s">
+        <v>2300</v>
+      </c>
+      <c r="F557" s="43" t="str">
         <f>菜单SAAS版!E151</f>
         <v>iam_menu-151</v>
       </c>
-      <c r="G557" s="48" t="s">
-        <v>2306</v>
+      <c r="G557" s="43" t="s">
+        <v>2298</v>
       </c>
     </row>
   </sheetData>
@@ -25214,18 +25189,18 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O120"/>
   <sheetViews>
     <sheetView topLeftCell="A67" workbookViewId="0">
       <selection activeCell="E62" sqref="E62:E64"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999"/>
   <cols>
     <col min="5" max="5" width="14.6640625" customWidth="1"/>
     <col min="7" max="7" width="17.33203125" customWidth="1"/>
-    <col min="8" max="8" width="12.21875" customWidth="1"/>
+    <col min="8" max="8" width="12.25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15">
@@ -27650,20 +27625,20 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y446"/>
   <sheetViews>
     <sheetView topLeftCell="A293" workbookViewId="0">
       <selection activeCell="E330" sqref="E330"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999"/>
   <cols>
-    <col min="5" max="5" width="33.88671875" customWidth="1"/>
+    <col min="5" max="5" width="33.9140625" customWidth="1"/>
     <col min="6" max="6" width="15.6640625" customWidth="1"/>
     <col min="7" max="7" width="17" customWidth="1"/>
-    <col min="21" max="21" width="14.44140625" customWidth="1"/>
-    <col min="22" max="22" width="14.88671875" customWidth="1"/>
+    <col min="21" max="21" width="14.4140625" customWidth="1"/>
+    <col min="22" max="22" width="14.9140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:25">
@@ -37694,14 +37669,19 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:O35"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:O32"/>
   <sheetViews>
-    <sheetView topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="E77" sqref="E77"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="M10" sqref="M10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999"/>
+  <cols>
+    <col min="5" max="5" width="12.33203125" customWidth="1"/>
+    <col min="6" max="6" width="16.4140625" customWidth="1"/>
+    <col min="9" max="9" width="13.83203125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:15">
       <c r="A1" s="1" t="s">
@@ -37777,13 +37757,13 @@
     </row>
     <row r="8" spans="1:15">
       <c r="E8" t="s">
-        <v>1706</v>
+        <v>1714</v>
       </c>
       <c r="F8" t="s">
+        <v>2276</v>
+      </c>
+      <c r="G8" t="s">
         <v>2275</v>
-      </c>
-      <c r="G8" t="s">
-        <v>2276</v>
       </c>
       <c r="H8" t="s">
         <v>82</v>
@@ -37795,7 +37775,7 @@
         <v>2277</v>
       </c>
       <c r="K8" t="s">
-        <v>2278</v>
+        <v>2277</v>
       </c>
       <c r="M8" t="s">
         <v>80</v>
@@ -37804,26 +37784,29 @@
         <v>82</v>
       </c>
       <c r="O8" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="9" spans="1:15">
       <c r="E9" t="s">
-        <v>1711</v>
+        <v>1717</v>
       </c>
       <c r="F9" t="s">
+        <v>2278</v>
+      </c>
+      <c r="G9" t="s">
+        <v>2275</v>
+      </c>
+      <c r="H9" t="s">
+        <v>82</v>
+      </c>
+      <c r="I9" t="s">
+        <v>1709</v>
+      </c>
+      <c r="J9" t="s">
         <v>2279</v>
       </c>
-      <c r="G9" t="s">
-        <v>2276</v>
-      </c>
-      <c r="H9" t="s">
-        <v>82</v>
-      </c>
-      <c r="I9" t="s">
-        <v>1716</v>
-      </c>
-      <c r="J9" t="s">
+      <c r="K9" t="s">
         <v>2280</v>
       </c>
       <c r="M9" t="s">
@@ -37832,19 +37815,19 @@
       <c r="N9" t="s">
         <v>82</v>
       </c>
-      <c r="O9" t="s">
-        <v>82</v>
+      <c r="O9">
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:15">
       <c r="E10" t="s">
-        <v>1714</v>
+        <v>1719</v>
       </c>
       <c r="F10" t="s">
         <v>2281</v>
       </c>
       <c r="G10" t="s">
-        <v>2276</v>
+        <v>2275</v>
       </c>
       <c r="H10" t="s">
         <v>82</v>
@@ -37870,13 +37853,13 @@
     </row>
     <row r="11" spans="1:15">
       <c r="E11" t="s">
-        <v>1717</v>
+        <v>1722</v>
       </c>
       <c r="F11" t="s">
         <v>2283</v>
       </c>
       <c r="G11" t="s">
-        <v>2276</v>
+        <v>2275</v>
       </c>
       <c r="H11" t="s">
         <v>82</v>
@@ -37896,19 +37879,19 @@
       <c r="N11" t="s">
         <v>82</v>
       </c>
-      <c r="O11" t="s">
-        <v>80</v>
+      <c r="O11">
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:15">
       <c r="E12" t="s">
-        <v>1719</v>
+        <v>1725</v>
       </c>
       <c r="F12" t="s">
         <v>2286</v>
       </c>
       <c r="G12" t="s">
-        <v>2276</v>
+        <v>2275</v>
       </c>
       <c r="H12" t="s">
         <v>82</v>
@@ -37920,7 +37903,7 @@
         <v>2287</v>
       </c>
       <c r="K12" t="s">
-        <v>2287</v>
+        <v>1821</v>
       </c>
       <c r="M12" t="s">
         <v>80</v>
@@ -37934,13 +37917,13 @@
     </row>
     <row r="13" spans="1:15">
       <c r="E13" t="s">
-        <v>1722</v>
+        <v>1728</v>
       </c>
       <c r="F13" t="s">
         <v>2288</v>
       </c>
       <c r="G13" t="s">
-        <v>2276</v>
+        <v>2275</v>
       </c>
       <c r="H13" t="s">
         <v>82</v>
@@ -37966,13 +37949,13 @@
     </row>
     <row r="14" spans="1:15">
       <c r="E14" t="s">
-        <v>1725</v>
+        <v>1731</v>
       </c>
       <c r="F14" t="s">
         <v>2291</v>
       </c>
       <c r="G14" t="s">
-        <v>2276</v>
+        <v>2275</v>
       </c>
       <c r="H14" t="s">
         <v>82</v>
@@ -37984,7 +37967,7 @@
         <v>2292</v>
       </c>
       <c r="K14" t="s">
-        <v>1821</v>
+        <v>2293</v>
       </c>
       <c r="M14" t="s">
         <v>80</v>
@@ -37998,13 +37981,13 @@
     </row>
     <row r="15" spans="1:15">
       <c r="E15" t="s">
-        <v>1728</v>
+        <v>1737</v>
       </c>
       <c r="F15" t="s">
-        <v>2293</v>
+        <v>2294</v>
       </c>
       <c r="G15" t="s">
-        <v>2276</v>
+        <v>2275</v>
       </c>
       <c r="H15" t="s">
         <v>82</v>
@@ -38013,11 +37996,11 @@
         <v>1709</v>
       </c>
       <c r="J15" t="s">
+        <v>2295</v>
+      </c>
+      <c r="K15" t="s">
         <v>2294</v>
       </c>
-      <c r="K15" t="s">
-        <v>2295</v>
-      </c>
       <c r="M15" t="s">
         <v>80</v>
       </c>
@@ -38025,18 +38008,18 @@
         <v>82</v>
       </c>
       <c r="O15" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="16" spans="1:15">
       <c r="E16" t="s">
-        <v>1731</v>
+        <v>1740</v>
       </c>
       <c r="F16" t="s">
         <v>2296</v>
       </c>
       <c r="G16" t="s">
-        <v>2276</v>
+        <v>2275</v>
       </c>
       <c r="H16" t="s">
         <v>82</v>
@@ -38048,7 +38031,7 @@
         <v>2297</v>
       </c>
       <c r="K16" t="s">
-        <v>2298</v>
+        <v>2296</v>
       </c>
       <c r="M16" t="s">
         <v>80</v>
@@ -38057,397 +38040,301 @@
         <v>82</v>
       </c>
       <c r="O16" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
-      <c r="E17" t="s">
-        <v>1734</v>
-      </c>
-      <c r="F17" t="s">
-        <v>2299</v>
-      </c>
-      <c r="G17" t="s">
-        <v>2276</v>
-      </c>
-      <c r="H17" t="s">
-        <v>82</v>
-      </c>
-      <c r="I17" t="s">
-        <v>1709</v>
-      </c>
-      <c r="J17" t="s">
-        <v>2300</v>
-      </c>
-      <c r="K17" t="s">
-        <v>2301</v>
-      </c>
-      <c r="M17" t="s">
-        <v>80</v>
-      </c>
-      <c r="N17" t="s">
-        <v>82</v>
-      </c>
-      <c r="O17" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
-      <c r="E18" t="s">
-        <v>1737</v>
-      </c>
-      <c r="F18" t="s">
-        <v>2302</v>
-      </c>
-      <c r="G18" t="s">
-        <v>2276</v>
-      </c>
-      <c r="H18" t="s">
-        <v>82</v>
+        <v>82</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
+      <c r="A18" t="s">
+        <v>50</v>
+      </c>
+      <c r="B18" t="s">
+        <v>51</v>
+      </c>
+      <c r="C18" t="s">
+        <v>1762</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>1763</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>1764</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>1765</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>1766</v>
+      </c>
+      <c r="H18" s="3" t="s">
+        <v>1767</v>
       </c>
       <c r="I18" t="s">
-        <v>1709</v>
-      </c>
-      <c r="J18" t="s">
-        <v>2303</v>
-      </c>
-      <c r="K18" t="s">
-        <v>2302</v>
-      </c>
-      <c r="M18" t="s">
-        <v>80</v>
-      </c>
-      <c r="N18" t="s">
-        <v>82</v>
-      </c>
-      <c r="O18" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
+        <v>1768</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
       <c r="E19" t="s">
-        <v>1740</v>
+        <v>1769</v>
       </c>
       <c r="F19" t="s">
-        <v>2304</v>
-      </c>
-      <c r="G19" t="s">
-        <v>2276</v>
-      </c>
-      <c r="H19" t="s">
-        <v>82</v>
+        <v>2275</v>
+      </c>
+      <c r="G19" t="str">
+        <f>角色!$E$10</f>
+        <v>iam_role-10</v>
+      </c>
+      <c r="H19" t="str">
+        <f>角色标签数据!$E$8</f>
+        <v>iam_label-10</v>
       </c>
       <c r="I19" t="s">
-        <v>1709</v>
-      </c>
-      <c r="J19" t="s">
-        <v>2305</v>
-      </c>
-      <c r="K19" t="s">
-        <v>2304</v>
-      </c>
-      <c r="M19" t="s">
-        <v>80</v>
-      </c>
-      <c r="N19" t="s">
-        <v>82</v>
-      </c>
-      <c r="O19" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
-      <c r="A21" t="s">
-        <v>50</v>
-      </c>
-      <c r="B21" t="s">
-        <v>51</v>
-      </c>
-      <c r="C21" t="s">
-        <v>1762</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>1763</v>
-      </c>
-      <c r="E21" s="2" t="s">
-        <v>1764</v>
-      </c>
-      <c r="F21" s="3" t="s">
-        <v>1765</v>
-      </c>
-      <c r="G21" s="3" t="s">
-        <v>1766</v>
-      </c>
-      <c r="H21" s="3" t="s">
-        <v>1767</v>
+        <v>1771</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
+      <c r="E20" t="s">
+        <v>1769</v>
+      </c>
+      <c r="F20" t="s">
+        <v>2275</v>
+      </c>
+      <c r="G20" t="str">
+        <f>角色!$E$10</f>
+        <v>iam_role-10</v>
+      </c>
+      <c r="H20" t="str">
+        <f>角色标签数据!$E$9</f>
+        <v>iam_label-11</v>
+      </c>
+      <c r="I20" t="s">
+        <v>1771</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
+      <c r="E21" t="s">
+        <v>1769</v>
+      </c>
+      <c r="F21" t="s">
+        <v>2275</v>
+      </c>
+      <c r="G21" t="str">
+        <f>角色!$E$10</f>
+        <v>iam_role-10</v>
+      </c>
+      <c r="H21" t="str">
+        <f>角色标签数据!$E$10</f>
+        <v>iam_label-12</v>
       </c>
       <c r="I21" t="s">
-        <v>1768</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
+        <v>1771</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
       <c r="E22" t="s">
         <v>1769</v>
       </c>
       <c r="F22" t="s">
-        <v>2276</v>
+        <v>2275</v>
       </c>
       <c r="G22" t="str">
-        <f>角色!$E$10</f>
-        <v>iam_role-10</v>
+        <f>角色!$E$11</f>
+        <v>iam_role-11</v>
       </c>
       <c r="H22" t="str">
-        <f>角色标签数据!$E$10</f>
+        <f>角色标签数据!$E$8</f>
         <v>iam_label-10</v>
       </c>
       <c r="I22" t="s">
         <v>1771</v>
       </c>
     </row>
-    <row r="23" spans="1:15">
+    <row r="23" spans="1:9">
       <c r="E23" t="s">
         <v>1769</v>
       </c>
       <c r="F23" t="s">
-        <v>2276</v>
+        <v>2275</v>
       </c>
       <c r="G23" t="str">
-        <f>角色!$E$10</f>
-        <v>iam_role-10</v>
+        <f>角色!$E$11</f>
+        <v>iam_role-11</v>
       </c>
       <c r="H23" t="str">
-        <f>角色标签数据!$E$11</f>
+        <f>角色标签数据!$E$9</f>
         <v>iam_label-11</v>
       </c>
       <c r="I23" t="s">
         <v>1771</v>
       </c>
     </row>
-    <row r="24" spans="1:15">
+    <row r="24" spans="1:9">
       <c r="E24" t="s">
         <v>1769</v>
       </c>
       <c r="F24" t="s">
-        <v>2276</v>
+        <v>2275</v>
       </c>
       <c r="G24" t="str">
-        <f>角色!$E$10</f>
-        <v>iam_role-10</v>
+        <f>角色!$E$11</f>
+        <v>iam_role-11</v>
       </c>
       <c r="H24" t="str">
-        <f>角色标签数据!$E$12</f>
-        <v>iam_label-12</v>
+        <f>角色标签数据!$E$13</f>
+        <v>iam_label-15</v>
       </c>
       <c r="I24" t="s">
         <v>1771</v>
       </c>
     </row>
-    <row r="25" spans="1:15">
+    <row r="25" spans="1:9">
       <c r="E25" t="s">
         <v>1769</v>
       </c>
       <c r="F25" t="s">
-        <v>2276</v>
+        <v>2275</v>
       </c>
       <c r="G25" t="str">
-        <f>角色!$E$11</f>
-        <v>iam_role-11</v>
+        <f>角色!$E$12</f>
+        <v>iam_role-12</v>
       </c>
       <c r="H25" t="str">
-        <f>角色标签数据!$E$10</f>
+        <f>角色标签数据!$E$8</f>
         <v>iam_label-10</v>
       </c>
       <c r="I25" t="s">
         <v>1771</v>
       </c>
     </row>
-    <row r="26" spans="1:15">
+    <row r="26" spans="1:9">
       <c r="E26" t="s">
         <v>1769</v>
       </c>
       <c r="F26" t="s">
-        <v>2276</v>
+        <v>2275</v>
       </c>
       <c r="G26" t="str">
-        <f>角色!$E$11</f>
-        <v>iam_role-11</v>
+        <f>角色!$E$12</f>
+        <v>iam_role-12</v>
       </c>
       <c r="H26" t="str">
         <f>角色标签数据!$E$11</f>
-        <v>iam_label-11</v>
+        <v>iam_label-13</v>
       </c>
       <c r="I26" t="s">
         <v>1771</v>
       </c>
     </row>
-    <row r="27" spans="1:15">
+    <row r="27" spans="1:9">
       <c r="E27" t="s">
         <v>1769</v>
       </c>
       <c r="F27" t="s">
-        <v>2276</v>
+        <v>2275</v>
       </c>
       <c r="G27" t="str">
-        <f>角色!$E$11</f>
-        <v>iam_role-11</v>
+        <f>角色!$E$12</f>
+        <v>iam_role-12</v>
       </c>
       <c r="H27" t="str">
-        <f>角色标签数据!$E$15</f>
-        <v>iam_label-15</v>
+        <f>角色标签数据!$E$12</f>
+        <v>iam_label-14</v>
       </c>
       <c r="I27" t="s">
         <v>1771</v>
       </c>
     </row>
-    <row r="28" spans="1:15">
+    <row r="28" spans="1:9">
       <c r="E28" t="s">
         <v>1769</v>
       </c>
       <c r="F28" t="s">
-        <v>2276</v>
+        <v>2275</v>
       </c>
       <c r="G28" t="str">
         <f>角色!$E$12</f>
         <v>iam_role-12</v>
       </c>
       <c r="H28" t="str">
-        <f>角色标签数据!$E$10</f>
-        <v>iam_label-10</v>
+        <f>角色标签数据!$E$15</f>
+        <v>iam_label-18</v>
       </c>
       <c r="I28" t="s">
         <v>1771</v>
       </c>
     </row>
-    <row r="29" spans="1:15">
+    <row r="29" spans="1:9">
       <c r="E29" t="s">
         <v>1769</v>
       </c>
       <c r="F29" t="s">
-        <v>2276</v>
+        <v>2275</v>
       </c>
       <c r="G29" t="str">
-        <f>角色!$E$12</f>
-        <v>iam_role-12</v>
+        <f>角色!$E$13</f>
+        <v>iam_role-13</v>
       </c>
       <c r="H29" t="str">
-        <f>角色标签数据!$E$13</f>
-        <v>iam_label-13</v>
+        <f>角色标签数据!$E$8</f>
+        <v>iam_label-10</v>
       </c>
       <c r="I29" t="s">
         <v>1771</v>
       </c>
     </row>
-    <row r="30" spans="1:15">
+    <row r="30" spans="1:9">
       <c r="E30" t="s">
         <v>1769</v>
       </c>
       <c r="F30" t="s">
-        <v>2276</v>
+        <v>2275</v>
       </c>
       <c r="G30" t="str">
-        <f>角色!$E$12</f>
-        <v>iam_role-12</v>
+        <f>角色!$E$13</f>
+        <v>iam_role-13</v>
       </c>
       <c r="H30" t="str">
-        <f>角色标签数据!$E$14</f>
-        <v>iam_label-14</v>
+        <f>角色标签数据!$E$11</f>
+        <v>iam_label-13</v>
       </c>
       <c r="I30" t="s">
         <v>1771</v>
       </c>
     </row>
-    <row r="31" spans="1:15">
+    <row r="31" spans="1:9">
       <c r="E31" t="s">
         <v>1769</v>
       </c>
       <c r="F31" t="s">
-        <v>2276</v>
+        <v>2275</v>
       </c>
       <c r="G31" t="str">
-        <f>角色!$E$12</f>
-        <v>iam_role-12</v>
+        <f>角色!$E$13</f>
+        <v>iam_role-13</v>
       </c>
       <c r="H31" t="str">
-        <f>角色标签数据!$E$18</f>
-        <v>iam_label-18</v>
+        <f>角色标签数据!$E$14</f>
+        <v>iam_label-16</v>
       </c>
       <c r="I31" t="s">
         <v>1771</v>
       </c>
     </row>
-    <row r="32" spans="1:15">
+    <row r="32" spans="1:9">
       <c r="E32" t="s">
         <v>1769</v>
       </c>
       <c r="F32" t="s">
-        <v>2276</v>
+        <v>2275</v>
       </c>
       <c r="G32" t="str">
         <f>角色!$E$13</f>
         <v>iam_role-13</v>
       </c>
       <c r="H32" t="str">
-        <f>角色标签数据!$E$10</f>
-        <v>iam_label-10</v>
+        <f>角色标签数据!$E$16</f>
+        <v>iam_label-19</v>
       </c>
       <c r="I32" t="s">
-        <v>1771</v>
-      </c>
-    </row>
-    <row r="33" spans="5:9">
-      <c r="E33" t="s">
-        <v>1769</v>
-      </c>
-      <c r="F33" t="s">
-        <v>2276</v>
-      </c>
-      <c r="G33" t="str">
-        <f>角色!$E$13</f>
-        <v>iam_role-13</v>
-      </c>
-      <c r="H33" t="str">
-        <f>角色标签数据!$E$13</f>
-        <v>iam_label-13</v>
-      </c>
-      <c r="I33" t="s">
-        <v>1771</v>
-      </c>
-    </row>
-    <row r="34" spans="5:9">
-      <c r="E34" t="s">
-        <v>1769</v>
-      </c>
-      <c r="F34" t="s">
-        <v>2276</v>
-      </c>
-      <c r="G34" t="str">
-        <f>角色!$E$13</f>
-        <v>iam_role-13</v>
-      </c>
-      <c r="H34" t="str">
-        <f>角色标签数据!$E$16</f>
-        <v>iam_label-16</v>
-      </c>
-      <c r="I34" t="s">
-        <v>1771</v>
-      </c>
-    </row>
-    <row r="35" spans="5:9">
-      <c r="E35" t="s">
-        <v>1769</v>
-      </c>
-      <c r="F35" t="s">
-        <v>2276</v>
-      </c>
-      <c r="G35" t="str">
-        <f>角色!$E$13</f>
-        <v>iam_role-13</v>
-      </c>
-      <c r="H35" t="str">
-        <f>角色标签数据!$E$19</f>
-        <v>iam_label-19</v>
-      </c>
-      <c r="I35" t="s">
         <v>1771</v>
       </c>
     </row>

--- a/src/main/resources/script/db/init-data/devops_service/hzero_platform/hzero-menu-user-role-label.xlsx
+++ b/src/main/resources/script/db/init-data/devops_service/hzero_platform/hzero-menu-user-role-label.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\choerodon\devops-service\src\main\resources\script\db\init-data\devops_service\hzero_platform\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView windowWidth="19815" windowHeight="7860" tabRatio="597" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19812" windowHeight="7860" tabRatio="597" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="1" r:id="rId1"/>
@@ -20,18 +25,19 @@
     <definedName name="qwe">REPT(local_year_format,4)&amp;local_date_separator&amp;REPT(local_month_format,2)&amp;local_date_separator&amp;REPT(local_day_format,2)&amp;" "&amp;REPT(local_hour_format,2)&amp;local_time_separator&amp;REPT(local_minute_format,2)&amp;local_time_separator&amp;REPT(local_second_format,2)</definedName>
     <definedName name="wqewqe">REPT(local_year_format,4)&amp;local_date_separator&amp;REPT(local_month_format,2)&amp;local_date_separator&amp;REPT(local_day_format,2)&amp;" "&amp;REPT(local_hour_format,2)&amp;local_time_separator&amp;REPT(local_minute_format,2)&amp;local_time_separator&amp;REPT(local_second_format,2)</definedName>
   </definedNames>
-  <calcPr calcId="144525" concurrentCalc="0"/>
+  <calcPr calcId="162913" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6035" uniqueCount="2349">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6013" uniqueCount="2341">
   <si>
     <r>
       <rPr>
         <sz val="12"/>
         <color rgb="FFFF0000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">注意这个文档不能 </t>
@@ -41,7 +47,6 @@
         <sz val="12"/>
         <color rgb="FFFF0000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>merge</t>
     </r>
@@ -50,6 +55,7 @@
         <sz val="12"/>
         <color rgb="FFFF0000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>！！
@@ -62,6 +68,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">正式的数据从第二个 </t>
@@ -71,7 +78,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">sheet </t>
     </r>
@@ -80,6 +86,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>页开始</t>
@@ -89,7 +96,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>,</t>
     </r>
@@ -98,6 +104,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">每页 从 </t>
@@ -107,7 +114,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">D7 </t>
     </r>
@@ -116,6 +122,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">单元格开始有效
@@ -147,6 +154,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>颜色示例</t>
@@ -156,7 +164,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>(</t>
     </r>
@@ -165,6 +172,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>非必须</t>
@@ -174,7 +182,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>,</t>
     </r>
@@ -183,6 +190,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>非强制</t>
@@ -192,7 +200,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>)</t>
     </r>
@@ -204,6 +211,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>请给特殊单元格</t>
@@ -214,7 +222,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>,</t>
     </r>
@@ -224,6 +231,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>列名添加颜色</t>
@@ -234,7 +242,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>,</t>
     </r>
@@ -244,6 +251,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>提高数据可读性</t>
@@ -255,7 +263,6 @@
         <sz val="12"/>
         <color rgb="FFC55A11"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>*</t>
     </r>
@@ -264,6 +271,7 @@
         <sz val="12"/>
         <color rgb="FFC55A11"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>自动生成</t>
@@ -275,7 +283,6 @@
         <sz val="12"/>
         <color rgb="FF2E75B6"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>#</t>
     </r>
@@ -284,6 +291,7 @@
         <sz val="12"/>
         <color rgb="FF2E75B6"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>唯一性检查</t>
@@ -295,6 +303,7 @@
         <sz val="12"/>
         <color rgb="FF548235"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>公式</t>
@@ -304,7 +313,6 @@
         <sz val="12"/>
         <color rgb="FF548235"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>=</t>
     </r>
@@ -313,6 +321,7 @@
         <sz val="12"/>
         <color rgb="FF548235"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>外键引用</t>
@@ -324,6 +333,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>理论上</t>
@@ -333,7 +343,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>,</t>
     </r>
@@ -342,6 +351,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>表的前后顺序</t>
@@ -351,7 +361,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">,sheet </t>
     </r>
@@ -360,6 +369,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>页的顺序没有严格要求</t>
@@ -369,7 +379,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>,</t>
     </r>
@@ -378,6 +387,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>但请尽量按照先插 后引用的顺序排列</t>
@@ -387,7 +397,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>,</t>
     </r>
@@ -396,6 +405,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>减少迭代次数</t>
@@ -405,7 +415,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>!</t>
     </r>
@@ -434,7 +443,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>*</t>
     </r>
@@ -443,6 +451,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>前置</t>
@@ -452,7 +461,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">, </t>
     </r>
@@ -461,6 +469,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>该列的值自动生成</t>
@@ -470,7 +479,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>,</t>
     </r>
@@ -479,6 +487,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>当数据库存在等价记录时</t>
@@ -488,7 +497,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>,</t>
     </r>
@@ -497,6 +505,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>这个值会被替换为数据库中已存在的值</t>
@@ -508,6 +517,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>自增长</t>
@@ -517,7 +527,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>(</t>
     </r>
@@ -526,6 +535,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>或序列</t>
@@ -535,7 +545,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>)</t>
     </r>
@@ -544,6 +553,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>主键列</t>
@@ -553,7 +563,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">.
 </t>
@@ -563,6 +572,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>当不作为外键引用时</t>
@@ -572,7 +582,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>,</t>
     </r>
@@ -581,6 +590,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>一般写</t>
@@ -590,7 +600,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">*
 </t>
@@ -600,6 +609,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>作为外键时</t>
@@ -609,7 +619,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>,</t>
     </r>
@@ -618,6 +627,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>写可读的值</t>
@@ -629,6 +639,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">目前 </t>
@@ -638,7 +649,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">oracle </t>
     </r>
@@ -647,6 +657,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>是序列</t>
@@ -656,7 +667,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>,</t>
     </r>
@@ -665,6 +675,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>其他自增涨</t>
@@ -679,7 +690,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>#</t>
     </r>
@@ -688,6 +698,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>前置</t>
@@ -697,7 +708,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>,</t>
     </r>
@@ -706,6 +716,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>表中所有带有</t>
@@ -715,7 +726,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>#</t>
     </r>
@@ -724,6 +734,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>的列组成一个唯一性校验</t>
@@ -733,7 +744,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>,</t>
     </r>
@@ -742,6 +752,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>在执行插入之前</t>
@@ -751,7 +762,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>,</t>
     </r>
@@ -760,6 +770,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>会首先按照唯一键来检查数据库是否存在等价记录</t>
@@ -771,6 +782,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>可以有多列</t>
@@ -780,7 +792,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>.</t>
     </r>
@@ -789,6 +800,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>仅支持</t>
@@ -799,6 +811,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>数字</t>
@@ -809,7 +822,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>,</t>
     </r>
@@ -819,6 +831,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">字符串
@@ -829,6 +842,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>当</t>
@@ -838,7 +852,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>#</t>
     </r>
@@ -847,6 +860,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>列涉及到公式时</t>
@@ -856,7 +870,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>,</t>
     </r>
@@ -865,6 +878,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>会先确定公式的值</t>
@@ -879,7 +893,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>(TYPE)</t>
     </r>
@@ -888,6 +901,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>指定这一列的类型</t>
@@ -897,7 +911,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>,</t>
     </r>
@@ -906,6 +919,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>默认会自动检测</t>
@@ -915,7 +929,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>:
 _ID</t>
@@ -925,6 +938,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>结尾为数字</t>
@@ -934,7 +948,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">;
 _DATE </t>
@@ -944,6 +957,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>结尾为日期</t>
@@ -953,7 +967,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">;
 </t>
@@ -963,6 +976,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>其他默认为</t>
@@ -972,7 +986,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>VARCHAR</t>
     </r>
@@ -983,6 +996,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>一般不需要指定</t>
@@ -992,7 +1006,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">.
 </t>
@@ -1002,6 +1015,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>日期格式仅支持</t>
@@ -1011,7 +1025,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>:
 yyyy-MM-dd HH:mm:ss
@@ -1027,7 +1040,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">:LANG </t>
     </r>
@@ -1036,6 +1048,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>指定语言环境</t>
@@ -1047,7 +1060,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">TL </t>
     </r>
@@ -1056,6 +1068,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>表数据不需要专门写</t>
@@ -1067,6 +1080,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>外键引用</t>
@@ -1076,7 +1090,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>(</t>
     </r>
@@ -1085,6 +1098,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>公式</t>
@@ -1094,7 +1108,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>)</t>
     </r>
@@ -1105,6 +1118,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>用于引用外键</t>
@@ -1114,7 +1128,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>,</t>
     </r>
@@ -1123,6 +1136,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>也可用于普通值
@@ -1135,6 +1149,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>自动增长列</t>
@@ -1144,7 +1159,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>,</t>
     </r>
@@ -1153,6 +1167,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>如果被公式引用</t>
@@ -1162,7 +1177,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>,</t>
     </r>
@@ -1171,6 +1185,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>最好写一个人可以读懂的值</t>
@@ -1180,7 +1195,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>,</t>
     </r>
@@ -1189,6 +1203,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>增强公式可读性</t>
@@ -1203,6 +1218,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>一般用于引用自动生成的外键</t>
@@ -1212,7 +1228,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>.</t>
     </r>
@@ -1221,6 +1236,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">所有公式均为 </t>
@@ -1230,7 +1246,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">Excel </t>
     </r>
@@ -1239,6 +1254,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>支持的标准公式</t>
@@ -1248,7 +1264,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>,</t>
     </r>
@@ -1257,6 +1272,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>但不支持特别复杂的计算公式</t>
@@ -1266,7 +1282,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>,</t>
     </r>
@@ -1275,6 +1290,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>比如范围计算</t>
@@ -1290,6 +1306,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>相对</t>
@@ -1299,6 +1316,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">引用当前页 </t>
@@ -1308,7 +1326,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">E9 </t>
     </r>
@@ -1317,6 +1334,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>单元格</t>
@@ -1332,6 +1350,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>绝对</t>
@@ -1341,6 +1360,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">引用当前页 </t>
@@ -1350,7 +1370,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">E9 </t>
     </r>
@@ -1359,6 +1378,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>单元格</t>
@@ -1373,6 +1393,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">引用 </t>
@@ -1382,7 +1403,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">RESOURCE </t>
     </r>
@@ -1391,6 +1411,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">页的 </t>
@@ -1400,7 +1421,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">E23 </t>
     </r>
@@ -1409,6 +1429,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>单元格</t>
@@ -1418,7 +1439,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>(</t>
     </r>
@@ -1428,6 +1448,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>相对</t>
@@ -1437,7 +1458,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>)</t>
     </r>
@@ -1451,6 +1471,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">引用 </t>
@@ -1460,7 +1481,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">RESOURCE </t>
     </r>
@@ -1469,6 +1489,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">页的 </t>
@@ -1478,7 +1499,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">E23 </t>
     </r>
@@ -1487,6 +1507,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>单元格</t>
@@ -1496,7 +1517,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>(</t>
     </r>
@@ -1506,6 +1526,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>绝对</t>
@@ -1515,7 +1536,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>)</t>
     </r>
@@ -1526,6 +1546,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>关于</t>
@@ -1536,6 +1557,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>相对</t>
@@ -1545,6 +1567,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>引用</t>
@@ -1556,6 +1579,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>举例</t>
@@ -1565,7 +1589,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>:</t>
     </r>
@@ -1574,6 +1597,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">当 </t>
@@ -1583,7 +1607,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">F10 </t>
     </r>
@@ -1592,6 +1615,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">单元格引用 </t>
@@ -1601,7 +1625,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">A9 </t>
     </r>
@@ -1610,6 +1633,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">时
@@ -1620,7 +1644,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">F10 </t>
     </r>
@@ -1629,6 +1652,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">的复制到 </t>
@@ -1638,7 +1662,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">F11 </t>
     </r>
@@ -1647,6 +1670,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>单元格时</t>
@@ -1656,7 +1680,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">, F11 </t>
     </r>
@@ -1665,6 +1688,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">引用的是 </t>
@@ -1674,7 +1698,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">A10
 </t>
@@ -1684,6 +1707,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">将 </t>
@@ -1693,7 +1717,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">F10 </t>
     </r>
@@ -1702,6 +1725,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">的复制到 </t>
@@ -1711,7 +1735,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">G11 </t>
     </r>
@@ -1720,6 +1743,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>时</t>
@@ -1729,7 +1753,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">, G11 </t>
     </r>
@@ -1738,6 +1761,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">实际引用的是 </t>
@@ -1747,7 +1771,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">B10
 </t>
@@ -1757,6 +1780,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>以上情况适用于拖拽填充</t>
@@ -1768,6 +1792,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>关于</t>
@@ -1778,6 +1803,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>绝对</t>
@@ -1787,6 +1813,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>引用</t>
@@ -1798,6 +1825,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>复制公式单元格时</t>
@@ -1807,7 +1835,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>,</t>
     </r>
@@ -1816,6 +1843,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>保持公式不变</t>
@@ -1827,6 +1855,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>相对引用</t>
@@ -1836,7 +1865,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>,</t>
     </r>
@@ -1845,6 +1873,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>绝对引用各有用途</t>
@@ -1854,7 +1883,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">.
 </t>
@@ -1864,6 +1892,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>直接拖拽填充就可以避免大量重复工作</t>
@@ -6291,6 +6320,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>iam_menu_permission-4</t>
@@ -6300,6 +6330,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>40</t>
@@ -7043,7 +7074,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DejaVu Sans"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>Devops</t>
     </r>
@@ -7052,7 +7083,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Droid Sans Fallback"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>管理</t>
     </r>
@@ -7063,7 +7094,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DejaVu Sans"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>Devops</t>
     </r>
@@ -7072,6 +7103,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>流程</t>
@@ -7089,7 +7121,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Droid Sans Fallback"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>运维管理</t>
     </r>
@@ -7098,7 +7130,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DejaVu Sans"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -7154,7 +7186,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DejaVu Sans"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>devops</t>
     </r>
@@ -7163,6 +7195,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>项目类型标签</t>
@@ -7174,7 +7207,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DejaVu Sans"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>devops</t>
     </r>
@@ -7183,6 +7216,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve"> </t>
@@ -7192,7 +7226,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DejaVu Sans"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>label</t>
     </r>
@@ -8764,31 +8798,7 @@
     <t>iam_role_permission-450</t>
   </si>
   <si>
-    <t>iam_label-8</t>
-  </si>
-  <si>
-    <t>TENANT_MGR</t>
-  </si>
-  <si>
     <t>ROLE</t>
-  </si>
-  <si>
-    <t>租户管理员标签</t>
-  </si>
-  <si>
-    <t>Tenant Manager Label</t>
-  </si>
-  <si>
-    <t>iam_label-9</t>
-  </si>
-  <si>
-    <t>SITE_MGR</t>
-  </si>
-  <si>
-    <t>SITE</t>
-  </si>
-  <si>
-    <t>平台管理员标签</t>
   </si>
   <si>
     <t>iam_label-10</t>
@@ -8899,15 +8909,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="5">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="000000"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="1">
+    <numFmt numFmtId="178" formatCode="000000"/>
   </numFmts>
-  <fonts count="51">
+  <fonts count="34">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -8918,25 +8924,25 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="53"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="48"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="42"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="12"/>
@@ -8955,71 +8961,81 @@
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="DejaVu Sans"/>
-      <charset val="134"/>
+      <family val="1"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Droid Sans Fallback"/>
-      <charset val="134"/>
+      <family val="1"/>
     </font>
     <font>
       <sz val="12"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <color theme="4" tint="-0.249977111117893"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FFFF0000"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FFFFC000"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF00B0F0"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF92D050"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <strike/>
       <sz val="12"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF00B050"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="8"/>
       <color rgb="FF24292E"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
@@ -9027,188 +9043,36 @@
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FFC55A11"/>
       <name val="DengXian"/>
-      <charset val="134"/>
+      <family val="1"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF2E75B6"/>
       <name val="DengXian"/>
-      <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF548235"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="DengXian"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FFFF0000"/>
       <name val="DengXian"/>
-      <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
@@ -9227,28 +9091,46 @@
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="DengXian"/>
-      <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FFC55A11"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF2E75B6"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF548235"/>
       <name val="DengXian"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFC55A11"/>
+      <name val="DengXian"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="37">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -9279,194 +9161,8 @@
         <bgColor rgb="FFE7E6E6"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="18">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -9567,252 +9263,10 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="50">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="24" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="14" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="24" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="24" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="24" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="24" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="19" borderId="15" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="27" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="27" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="9" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -9836,7 +9290,7 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -9845,20 +9299,8 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -9892,9 +9334,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -9902,59 +9341,27 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="50">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
-    <cellStyle name="常规 2" xfId="49"/>
+    <cellStyle name="常规 2" xfId="1"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium7"/>
   <colors>
     <indexedColors>
@@ -10027,6 +9434,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -10284,272 +9694,269 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999"/>
   <cols>
-    <col min="1" max="1" width="15.5851851851852" style="23" customWidth="1"/>
-    <col min="2" max="2" width="10.3333333333333" style="24" customWidth="1"/>
-    <col min="3" max="3" width="28.0814814814815" customWidth="1"/>
-    <col min="4" max="4" width="35.3333333333333" style="6" customWidth="1"/>
-    <col min="5" max="5" width="38.5851851851852" customWidth="1"/>
-    <col min="6" max="6" width="23.4148148148148" customWidth="1"/>
-    <col min="7" max="7" width="21.5851851851852" customWidth="1"/>
+    <col min="1" max="1" width="15.58203125" style="23" customWidth="1"/>
+    <col min="2" max="2" width="10.33203125" style="24" customWidth="1"/>
+    <col min="3" max="3" width="28.08203125" customWidth="1"/>
+    <col min="4" max="4" width="35.33203125" style="6" customWidth="1"/>
+    <col min="5" max="5" width="38.58203125" customWidth="1"/>
+    <col min="6" max="6" width="23.4140625" customWidth="1"/>
+    <col min="7" max="7" width="21.58203125" customWidth="1"/>
     <col min="8" max="8" width="22" customWidth="1"/>
-    <col min="9" max="9" width="24.5851851851852" customWidth="1"/>
+    <col min="9" max="9" width="24.58203125" customWidth="1"/>
     <col min="10" max="10" width="27" customWidth="1"/>
-    <col min="11" max="11" width="19.0814814814815" customWidth="1"/>
-    <col min="12" max="12" width="18.5851851851852" customWidth="1"/>
-    <col min="13" max="13" width="13.0814814814815" customWidth="1"/>
-    <col min="14" max="1025" width="10.3333333333333" customWidth="1"/>
+    <col min="11" max="11" width="19.08203125" customWidth="1"/>
+    <col min="12" max="12" width="18.58203125" customWidth="1"/>
+    <col min="13" max="13" width="13.08203125" customWidth="1"/>
+    <col min="14" max="1025" width="10.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="64.5" customHeight="1" spans="1:8">
+    <row r="1" spans="1:8" ht="64.5" customHeight="1">
       <c r="A1" s="25"/>
-      <c r="C1" s="26" t="s">
+      <c r="C1" s="48" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26"/>
-      <c r="F1" s="27"/>
-      <c r="G1" s="27"/>
-      <c r="H1" s="27"/>
-    </row>
-    <row r="2" ht="18" spans="5:5">
-      <c r="E2" s="28"/>
-    </row>
-    <row r="3" ht="49.5" customHeight="1" spans="3:7">
-      <c r="C3" s="29" t="s">
+      <c r="D1" s="48"/>
+      <c r="E1" s="48"/>
+      <c r="F1" s="26"/>
+      <c r="G1" s="26"/>
+      <c r="H1" s="26"/>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="E2" s="27"/>
+    </row>
+    <row r="3" spans="1:8" ht="49.5" customHeight="1">
+      <c r="C3" s="49" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="29"/>
-      <c r="E3" s="30" t="s">
+      <c r="D3" s="49"/>
+      <c r="E3" s="50" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="30"/>
-      <c r="G3" s="30"/>
-    </row>
-    <row r="4" ht="18" spans="3:7">
-      <c r="C4" s="31" t="s">
+      <c r="F3" s="50"/>
+      <c r="G3" s="50"/>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="C4" s="51" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="31"/>
-      <c r="E4" s="32" t="s">
+      <c r="D4" s="51"/>
+      <c r="E4" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="33" t="s">
+      <c r="F4" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="G4" s="34" t="s">
+      <c r="G4" s="30" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:8">
       <c r="A5" s="25"/>
       <c r="C5" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="7" ht="18" spans="3:5">
-      <c r="C7" s="35" t="s">
+    <row r="7" spans="1:8">
+      <c r="C7" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="36" t="s">
+      <c r="D7" s="32" t="s">
         <v>9</v>
       </c>
-      <c r="E7" s="37" t="s">
+      <c r="E7" s="33" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="3:5">
-      <c r="C8" s="38" t="s">
+    <row r="8" spans="1:8">
+      <c r="C8" s="34" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="39" t="s">
+      <c r="D8" s="35" t="s">
         <v>12</v>
       </c>
-      <c r="E8" s="40"/>
-    </row>
-    <row r="9" ht="51.75" spans="3:6">
-      <c r="C9" s="41" t="s">
+      <c r="E8" s="36"/>
+    </row>
+    <row r="9" spans="1:8" ht="52.2">
+      <c r="C9" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="42" t="s">
+      <c r="D9" s="38" t="s">
         <v>14</v>
       </c>
-      <c r="E9" s="43" t="s">
+      <c r="E9" s="39" t="s">
         <v>15</v>
       </c>
       <c r="F9" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="10" ht="51.75" spans="3:5">
-      <c r="C10" s="44" t="s">
+    <row r="10" spans="1:8" ht="52.2">
+      <c r="C10" s="40" t="s">
         <v>17</v>
       </c>
-      <c r="D10" s="42" t="s">
+      <c r="D10" s="38" t="s">
         <v>18</v>
       </c>
-      <c r="E10" s="43" t="s">
+      <c r="E10" s="39" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="11" ht="69" spans="3:5">
-      <c r="C11" s="38" t="s">
+    <row r="11" spans="1:8" ht="69.599999999999994">
+      <c r="C11" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="D11" s="42" t="s">
+      <c r="D11" s="38" t="s">
         <v>21</v>
       </c>
-      <c r="E11" s="43" t="s">
+      <c r="E11" s="39" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="12" spans="3:5">
-      <c r="C12" s="38" t="s">
+    <row r="12" spans="1:8">
+      <c r="C12" s="34" t="s">
         <v>23</v>
       </c>
-      <c r="D12" s="42" t="s">
+      <c r="D12" s="38" t="s">
         <v>24</v>
       </c>
-      <c r="E12" s="45" t="s">
+      <c r="E12" s="41" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="13" spans="3:5">
-      <c r="C13" s="38"/>
-      <c r="D13" s="39"/>
-      <c r="E13" s="40"/>
-    </row>
-    <row r="14" spans="3:5">
-      <c r="C14" s="38"/>
-      <c r="D14" s="39"/>
-      <c r="E14" s="40"/>
-    </row>
-    <row r="15" ht="34.5" spans="3:5">
-      <c r="C15" s="46" t="s">
+    <row r="13" spans="1:8">
+      <c r="C13" s="34"/>
+      <c r="D13" s="35"/>
+      <c r="E13" s="36"/>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="C14" s="34"/>
+      <c r="D14" s="35"/>
+      <c r="E14" s="36"/>
+    </row>
+    <row r="15" spans="1:8" ht="34.799999999999997">
+      <c r="C15" s="42" t="s">
         <v>26</v>
       </c>
-      <c r="D15" s="47" t="s">
+      <c r="D15" s="43" t="s">
         <v>27</v>
       </c>
-      <c r="E15" s="48" t="s">
+      <c r="E15" s="44" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="18" spans="3:3">
+    <row r="18" spans="3:5">
       <c r="C18" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="19" spans="3:5">
-      <c r="C19" s="49" t="s">
+      <c r="C19" s="52" t="s">
         <v>30</v>
       </c>
-      <c r="D19" s="49"/>
-      <c r="E19" s="49"/>
-    </row>
-    <row r="20" ht="18" spans="3:4">
-      <c r="C20" s="50" t="s">
+      <c r="D19" s="52"/>
+      <c r="E19" s="52"/>
+    </row>
+    <row r="20" spans="3:5">
+      <c r="C20" s="45" t="s">
         <v>31</v>
       </c>
-      <c r="D20" s="28" t="s">
+      <c r="D20" s="27" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="21" ht="18" spans="3:4">
-      <c r="C21" s="50" t="s">
+    <row r="21" spans="3:5">
+      <c r="C21" s="45" t="s">
         <v>33</v>
       </c>
-      <c r="D21" s="28" t="s">
+      <c r="D21" s="27" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="22" ht="18" spans="3:4">
-      <c r="C22" s="50" t="s">
+    <row r="22" spans="3:5">
+      <c r="C22" s="45" t="s">
         <v>35</v>
       </c>
       <c r="D22" s="6" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="23" ht="18" spans="3:4">
-      <c r="C23" s="50" t="s">
+    <row r="23" spans="3:5">
+      <c r="C23" s="45" t="s">
         <v>37</v>
       </c>
       <c r="D23" s="6" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="25" ht="69" customHeight="1" spans="3:5">
-      <c r="C25" s="51" t="s">
+    <row r="25" spans="3:5" ht="69" customHeight="1">
+      <c r="C25" s="46" t="s">
         <v>39</v>
       </c>
-      <c r="D25" s="29" t="s">
+      <c r="D25" s="49" t="s">
         <v>40</v>
       </c>
-      <c r="E25" s="29"/>
-    </row>
-    <row r="26" ht="14.25" customHeight="1" spans="3:5">
-      <c r="C26" s="39" t="s">
+      <c r="E25" s="49"/>
+    </row>
+    <row r="26" spans="3:5" ht="14.25" customHeight="1">
+      <c r="C26" s="35" t="s">
         <v>41</v>
       </c>
-      <c r="D26" s="29" t="s">
+      <c r="D26" s="49" t="s">
         <v>42</v>
       </c>
-      <c r="E26" s="29"/>
-    </row>
-    <row r="27" ht="51.75" spans="3:3">
-      <c r="C27" s="52" t="s">
+      <c r="E26" s="49"/>
+    </row>
+    <row r="27" spans="3:5" ht="52.2">
+      <c r="C27" s="47" t="s">
         <v>43</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="7">
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="D26:E26"/>
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="E3:G3"/>
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="C19:E19"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="D26:E26"/>
   </mergeCells>
-  <pageMargins left="0.697916666666667" right="0.697916666666667" top="0.75" bottom="0.75" header="0.510416666666667" footer="0.510416666666667"/>
+  <phoneticPr fontId="33" type="noConversion"/>
+  <pageMargins left="0.69791666666666696" right="0.69791666666666696" top="0.75" bottom="0.75" header="0.51041666666666696" footer="0.51041666666666696"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y182"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" topLeftCell="B172" workbookViewId="0">
+    <sheetView topLeftCell="B172" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="E85" sqref="E85"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999"/>
   <cols>
-    <col min="5" max="5" width="37.4148148148148" customWidth="1"/>
-    <col min="6" max="6" width="77.5851851851852" customWidth="1"/>
-    <col min="7" max="7" width="44.2518518518519" customWidth="1"/>
-    <col min="11" max="11" width="24.0814814814815" customWidth="1"/>
-    <col min="15" max="15" width="34.0814814814815" customWidth="1"/>
+    <col min="5" max="5" width="37.4140625" customWidth="1"/>
+    <col min="6" max="6" width="77.58203125" customWidth="1"/>
+    <col min="7" max="7" width="44.25" customWidth="1"/>
+    <col min="11" max="11" width="24.08203125" customWidth="1"/>
+    <col min="15" max="15" width="34.08203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:25">
       <c r="A1" s="1" t="s">
         <v>44</v>
       </c>
@@ -10563,7 +9970,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="4" spans="5:7">
+    <row r="4" spans="1:25">
       <c r="E4" s="2" t="s">
         <v>47</v>
       </c>
@@ -10651,7 +10058,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="8" spans="5:24">
+    <row r="8" spans="1:25">
       <c r="E8" t="s">
         <v>75</v>
       </c>
@@ -10701,7 +10108,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="9" spans="5:24">
+    <row r="9" spans="1:25">
       <c r="E9" t="s">
         <v>84</v>
       </c>
@@ -10758,7 +10165,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="10" spans="5:24">
+    <row r="10" spans="1:25">
       <c r="E10" t="s">
         <v>92</v>
       </c>
@@ -10806,7 +10213,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="11" spans="5:24">
+    <row r="11" spans="1:25">
       <c r="E11" t="s">
         <v>97</v>
       </c>
@@ -10856,7 +10263,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="12" spans="5:24">
+    <row r="12" spans="1:25">
       <c r="E12" t="s">
         <v>101</v>
       </c>
@@ -10910,7 +10317,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="13" spans="5:24">
+    <row r="13" spans="1:25">
       <c r="E13" t="s">
         <v>109</v>
       </c>
@@ -10967,7 +10374,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="14" spans="5:24">
+    <row r="14" spans="1:25">
       <c r="E14" t="s">
         <v>114</v>
       </c>
@@ -11015,7 +10422,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="15" spans="5:24">
+    <row r="15" spans="1:25">
       <c r="E15" t="s">
         <v>119</v>
       </c>
@@ -11063,7 +10470,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="16" spans="5:24">
+    <row r="16" spans="1:25">
       <c r="E16" t="s">
         <v>123</v>
       </c>
@@ -18654,7 +18061,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="170" s="5" customFormat="1" spans="5:24">
+    <row r="170" spans="5:24" s="5" customFormat="1">
       <c r="E170" s="5" t="s">
         <v>770</v>
       </c>
@@ -18711,7 +18118,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="171" s="5" customFormat="1" spans="5:24">
+    <row r="171" spans="5:24" s="5" customFormat="1">
       <c r="E171" s="5" t="s">
         <v>777</v>
       </c>
@@ -18762,7 +18169,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="172" s="5" customFormat="1" spans="5:24">
+    <row r="172" spans="5:24" s="5" customFormat="1">
       <c r="E172" s="5" t="s">
         <v>781</v>
       </c>
@@ -18813,7 +18220,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="173" s="5" customFormat="1" spans="5:24">
+    <row r="173" spans="5:24" s="5" customFormat="1">
       <c r="E173" s="5" t="s">
         <v>785</v>
       </c>
@@ -18864,7 +18271,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="174" s="5" customFormat="1" spans="5:24">
+    <row r="174" spans="5:24" s="5" customFormat="1">
       <c r="E174" s="5" t="s">
         <v>789</v>
       </c>
@@ -18915,7 +18322,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="175" s="5" customFormat="1" spans="5:24">
+    <row r="175" spans="5:24" s="5" customFormat="1">
       <c r="E175" s="5" t="s">
         <v>793</v>
       </c>
@@ -19303,28 +18710,27 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="33" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G589"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A570" workbookViewId="0">
+    <sheetView topLeftCell="A38" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="G592" sqref="G592"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999"/>
   <cols>
-    <col min="5" max="5" width="28.0814814814815" customWidth="1"/>
-    <col min="6" max="6" width="34.3333333333333" customWidth="1"/>
-    <col min="7" max="7" width="57.5851851851852" customWidth="1"/>
+    <col min="5" max="5" width="28.08203125" customWidth="1"/>
+    <col min="6" max="6" width="34.33203125" customWidth="1"/>
+    <col min="7" max="7" width="57.58203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>44</v>
       </c>
@@ -19338,7 +18744,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="4" spans="5:7">
+    <row r="4" spans="1:7">
       <c r="E4" s="2" t="s">
         <v>47</v>
       </c>
@@ -19372,7 +18778,7 @@
         <v>829</v>
       </c>
     </row>
-    <row r="8" spans="5:7">
+    <row r="8" spans="1:7">
       <c r="E8" s="6" t="s">
         <v>830</v>
       </c>
@@ -19384,7 +18790,7 @@
         <v>831</v>
       </c>
     </row>
-    <row r="9" spans="5:7">
+    <row r="9" spans="1:7">
       <c r="E9" t="s">
         <v>832</v>
       </c>
@@ -19396,7 +18802,7 @@
         <v>833</v>
       </c>
     </row>
-    <row r="10" spans="5:7">
+    <row r="10" spans="1:7">
       <c r="E10" t="s">
         <v>834</v>
       </c>
@@ -19408,7 +18814,7 @@
         <v>835</v>
       </c>
     </row>
-    <row r="11" spans="5:7">
+    <row r="11" spans="1:7">
       <c r="E11" t="s">
         <v>836</v>
       </c>
@@ -19420,7 +18826,7 @@
         <v>837</v>
       </c>
     </row>
-    <row r="12" spans="5:7">
+    <row r="12" spans="1:7">
       <c r="E12" t="s">
         <v>838</v>
       </c>
@@ -19432,7 +18838,7 @@
         <v>839</v>
       </c>
     </row>
-    <row r="13" spans="5:7">
+    <row r="13" spans="1:7">
       <c r="E13" t="s">
         <v>840</v>
       </c>
@@ -19444,7 +18850,7 @@
         <v>841</v>
       </c>
     </row>
-    <row r="14" spans="5:7">
+    <row r="14" spans="1:7">
       <c r="E14" t="s">
         <v>842</v>
       </c>
@@ -19456,7 +18862,7 @@
         <v>843</v>
       </c>
     </row>
-    <row r="15" spans="5:7">
+    <row r="15" spans="1:7">
       <c r="E15" t="s">
         <v>844</v>
       </c>
@@ -19468,7 +18874,7 @@
         <v>845</v>
       </c>
     </row>
-    <row r="16" spans="5:7">
+    <row r="16" spans="1:7">
       <c r="E16" s="6" t="s">
         <v>846</v>
       </c>
@@ -25192,7 +24598,7 @@
         <v>1601</v>
       </c>
     </row>
-    <row r="493" s="11" customFormat="1" spans="5:7">
+    <row r="493" spans="5:7" s="11" customFormat="1">
       <c r="E493" s="11" t="s">
         <v>1602</v>
       </c>
@@ -25468,7 +24874,7 @@
         <v>1619</v>
       </c>
     </row>
-    <row r="516" s="5" customFormat="1" spans="5:7">
+    <row r="516" spans="5:7" s="5" customFormat="1">
       <c r="E516" s="5" t="s">
         <v>1630</v>
       </c>
@@ -25480,7 +24886,7 @@
         <v>1631</v>
       </c>
     </row>
-    <row r="517" s="5" customFormat="1" spans="5:7">
+    <row r="517" spans="5:7" s="5" customFormat="1">
       <c r="E517" s="5" t="s">
         <v>1632</v>
       </c>
@@ -25492,7 +24898,7 @@
         <v>1633</v>
       </c>
     </row>
-    <row r="518" s="5" customFormat="1" spans="5:7">
+    <row r="518" spans="5:7" s="5" customFormat="1">
       <c r="E518" s="5" t="s">
         <v>1634</v>
       </c>
@@ -25504,7 +24910,7 @@
         <v>1635</v>
       </c>
     </row>
-    <row r="519" s="5" customFormat="1" spans="5:7">
+    <row r="519" spans="5:7" s="5" customFormat="1">
       <c r="E519" s="5" t="s">
         <v>1636</v>
       </c>
@@ -25516,7 +24922,7 @@
         <v>1637</v>
       </c>
     </row>
-    <row r="520" s="5" customFormat="1" spans="5:7">
+    <row r="520" spans="5:7" s="5" customFormat="1">
       <c r="E520" s="5" t="s">
         <v>1638</v>
       </c>
@@ -25528,7 +24934,7 @@
         <v>1639</v>
       </c>
     </row>
-    <row r="521" s="5" customFormat="1" spans="5:7">
+    <row r="521" spans="5:7" s="5" customFormat="1">
       <c r="E521" s="5" t="s">
         <v>1640</v>
       </c>
@@ -25540,7 +24946,7 @@
         <v>1641</v>
       </c>
     </row>
-    <row r="522" s="5" customFormat="1" spans="5:7">
+    <row r="522" spans="5:7" s="5" customFormat="1">
       <c r="E522" s="5" t="s">
         <v>1642</v>
       </c>
@@ -25552,7 +24958,7 @@
         <v>1635</v>
       </c>
     </row>
-    <row r="523" s="5" customFormat="1" spans="5:7">
+    <row r="523" spans="5:7" s="5" customFormat="1">
       <c r="E523" s="5" t="s">
         <v>1643</v>
       </c>
@@ -25564,7 +24970,7 @@
         <v>1637</v>
       </c>
     </row>
-    <row r="524" s="5" customFormat="1" spans="5:7">
+    <row r="524" spans="5:7" s="5" customFormat="1">
       <c r="E524" s="5" t="s">
         <v>1644</v>
       </c>
@@ -25576,7 +24982,7 @@
         <v>1639</v>
       </c>
     </row>
-    <row r="525" s="5" customFormat="1" spans="5:7">
+    <row r="525" spans="5:7" s="5" customFormat="1">
       <c r="E525" s="5" t="s">
         <v>1645</v>
       </c>
@@ -25588,7 +24994,7 @@
         <v>1641</v>
       </c>
     </row>
-    <row r="526" s="5" customFormat="1" spans="5:7">
+    <row r="526" spans="5:7" s="5" customFormat="1">
       <c r="E526" s="5" t="s">
         <v>1646</v>
       </c>
@@ -25600,7 +25006,7 @@
         <v>1647</v>
       </c>
     </row>
-    <row r="527" s="5" customFormat="1" spans="5:7">
+    <row r="527" spans="5:7" s="5" customFormat="1">
       <c r="E527" s="5" t="s">
         <v>1648</v>
       </c>
@@ -25612,7 +25018,7 @@
         <v>1649</v>
       </c>
     </row>
-    <row r="528" s="5" customFormat="1" spans="5:7">
+    <row r="528" spans="5:7" s="5" customFormat="1">
       <c r="E528" s="5" t="s">
         <v>1650</v>
       </c>
@@ -25624,7 +25030,7 @@
         <v>1651</v>
       </c>
     </row>
-    <row r="529" s="5" customFormat="1" spans="5:7">
+    <row r="529" spans="5:7" s="5" customFormat="1">
       <c r="E529" s="5" t="s">
         <v>1652</v>
       </c>
@@ -25636,7 +25042,7 @@
         <v>1653</v>
       </c>
     </row>
-    <row r="530" s="5" customFormat="1" spans="5:7">
+    <row r="530" spans="5:7" s="5" customFormat="1">
       <c r="E530" s="5" t="s">
         <v>1654</v>
       </c>
@@ -25660,7 +25066,7 @@
         <v>1657</v>
       </c>
     </row>
-    <row r="532" s="12" customFormat="1" spans="5:7">
+    <row r="532" spans="5:7" s="12" customFormat="1">
       <c r="E532" s="12" t="s">
         <v>1658</v>
       </c>
@@ -25672,7 +25078,7 @@
         <v>1659</v>
       </c>
     </row>
-    <row r="533" s="12" customFormat="1" spans="5:7">
+    <row r="533" spans="5:7" s="12" customFormat="1">
       <c r="E533" s="12" t="s">
         <v>1660</v>
       </c>
@@ -25684,7 +25090,7 @@
         <v>1661</v>
       </c>
     </row>
-    <row r="534" s="12" customFormat="1" spans="5:7">
+    <row r="534" spans="5:7" s="12" customFormat="1">
       <c r="E534" s="12" t="s">
         <v>1662</v>
       </c>
@@ -25696,7 +25102,7 @@
         <v>1663</v>
       </c>
     </row>
-    <row r="535" s="12" customFormat="1" spans="5:7">
+    <row r="535" spans="5:7" s="12" customFormat="1">
       <c r="E535" s="12" t="s">
         <v>1664</v>
       </c>
@@ -25708,7 +25114,7 @@
         <v>1663</v>
       </c>
     </row>
-    <row r="536" s="12" customFormat="1" spans="5:7">
+    <row r="536" spans="5:7" s="12" customFormat="1">
       <c r="E536" s="12" t="s">
         <v>1665</v>
       </c>
@@ -25720,7 +25126,7 @@
         <v>1103</v>
       </c>
     </row>
-    <row r="537" s="12" customFormat="1" spans="5:7">
+    <row r="537" spans="5:7" s="12" customFormat="1">
       <c r="E537" s="12" t="s">
         <v>1666</v>
       </c>
@@ -25780,7 +25186,7 @@
         <v>1674</v>
       </c>
     </row>
-    <row r="542" s="13" customFormat="1" spans="5:7">
+    <row r="542" spans="5:7" s="13" customFormat="1">
       <c r="E542" s="13" t="s">
         <v>1675</v>
       </c>
@@ -26152,7 +25558,7 @@
         <v>1724</v>
       </c>
     </row>
-    <row r="573" s="14" customFormat="1" spans="5:7">
+    <row r="573" spans="5:7" s="14" customFormat="1">
       <c r="E573" s="20" t="s">
         <v>1725</v>
       </c>
@@ -26200,7 +25606,7 @@
         <v>1732</v>
       </c>
     </row>
-    <row r="577" s="14" customFormat="1" spans="5:7">
+    <row r="577" spans="5:7" s="14" customFormat="1">
       <c r="E577" s="20" t="s">
         <v>1733</v>
       </c>
@@ -26248,7 +25654,7 @@
         <v>1732</v>
       </c>
     </row>
-    <row r="581" s="14" customFormat="1" spans="5:7">
+    <row r="581" spans="5:7" s="14" customFormat="1">
       <c r="E581" s="20" t="s">
         <v>1737</v>
       </c>
@@ -26357,29 +25763,28 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="33" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O46"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="I46" sqref="I46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999"/>
   <cols>
-    <col min="5" max="5" width="14.6666666666667" customWidth="1"/>
-    <col min="6" max="6" width="18.9111111111111" customWidth="1"/>
-    <col min="7" max="7" width="17.3333333333333" customWidth="1"/>
-    <col min="8" max="8" width="12.2518518518519" customWidth="1"/>
+    <col min="5" max="5" width="14.6640625" customWidth="1"/>
+    <col min="6" max="6" width="18.9140625" customWidth="1"/>
+    <col min="7" max="7" width="17.33203125" customWidth="1"/>
+    <col min="8" max="8" width="12.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:15">
       <c r="A1" s="1" t="s">
         <v>44</v>
       </c>
@@ -26393,7 +25798,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="4" spans="5:7">
+    <row r="4" spans="1:15">
       <c r="E4" s="2" t="s">
         <v>47</v>
       </c>
@@ -26404,7 +25809,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="7" spans="1:11">
+    <row r="7" spans="1:15">
       <c r="A7" t="s">
         <v>1749</v>
       </c>
@@ -26439,7 +25844,7 @@
         <v>1757</v>
       </c>
     </row>
-    <row r="8" spans="1:11">
+    <row r="8" spans="1:15">
       <c r="A8" s="9"/>
       <c r="B8" s="8"/>
       <c r="D8" s="8"/>
@@ -26465,7 +25870,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="9" spans="1:11">
+    <row r="9" spans="1:15">
       <c r="A9" s="9"/>
       <c r="B9" s="8"/>
       <c r="D9" s="8"/>
@@ -26538,7 +25943,7 @@
         <v>1777</v>
       </c>
     </row>
-    <row r="12" spans="5:15">
+    <row r="12" spans="1:15">
       <c r="E12" s="8" t="s">
         <v>1778</v>
       </c>
@@ -26570,7 +25975,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="5:15">
+    <row r="13" spans="1:15">
       <c r="E13" s="8" t="s">
         <v>1783</v>
       </c>
@@ -26602,7 +26007,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="5:15">
+    <row r="14" spans="1:15">
       <c r="E14" s="6" t="s">
         <v>1786</v>
       </c>
@@ -26634,7 +26039,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="16" spans="1:9">
+    <row r="16" spans="1:15">
       <c r="A16" t="s">
         <v>50</v>
       </c>
@@ -27234,30 +26639,29 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="33" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y449"/>
   <sheetViews>
     <sheetView topLeftCell="D434" workbookViewId="0">
       <selection activeCell="I451" sqref="I451"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999"/>
   <cols>
-    <col min="5" max="5" width="33.9111111111111" customWidth="1"/>
-    <col min="6" max="6" width="15.6666666666667" customWidth="1"/>
+    <col min="5" max="5" width="33.9140625" customWidth="1"/>
+    <col min="6" max="6" width="15.6640625" customWidth="1"/>
     <col min="7" max="7" width="17" customWidth="1"/>
-    <col min="21" max="21" width="14.4148148148148" customWidth="1"/>
-    <col min="22" max="22" width="14.9111111111111" customWidth="1"/>
+    <col min="21" max="21" width="14.4140625" customWidth="1"/>
+    <col min="22" max="22" width="14.9140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:25">
       <c r="A1" s="1" t="s">
         <v>44</v>
       </c>
@@ -27271,7 +26675,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="4" spans="5:7">
+    <row r="4" spans="1:25">
       <c r="E4" s="2" t="s">
         <v>47</v>
       </c>
@@ -27359,7 +26763,7 @@
         <v>1813</v>
       </c>
     </row>
-    <row r="8" spans="5:23">
+    <row r="8" spans="1:25">
       <c r="E8" t="s">
         <v>1814</v>
       </c>
@@ -27418,7 +26822,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="9" spans="5:23">
+    <row r="9" spans="1:25">
       <c r="E9" t="s">
         <v>1820</v>
       </c>
@@ -27477,7 +26881,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="10" spans="5:25">
+    <row r="10" spans="1:25">
       <c r="E10" t="s">
         <v>1825</v>
       </c>
@@ -27540,7 +26944,7 @@
         <v>1832</v>
       </c>
     </row>
-    <row r="11" spans="5:25">
+    <row r="11" spans="1:25">
       <c r="E11" t="s">
         <v>1833</v>
       </c>
@@ -27603,7 +27007,7 @@
         <v>1840</v>
       </c>
     </row>
-    <row r="12" spans="5:25">
+    <row r="12" spans="1:25">
       <c r="E12" t="s">
         <v>1841</v>
       </c>
@@ -27666,7 +27070,7 @@
         <v>1848</v>
       </c>
     </row>
-    <row r="13" spans="5:25">
+    <row r="13" spans="1:25">
       <c r="E13" t="s">
         <v>1849</v>
       </c>
@@ -27729,7 +27133,7 @@
         <v>1856</v>
       </c>
     </row>
-    <row r="14" spans="5:23">
+    <row r="14" spans="1:25">
       <c r="E14" t="s">
         <v>1857</v>
       </c>
@@ -27786,7 +27190,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:10">
+    <row r="16" spans="1:25">
       <c r="A16" t="s">
         <v>50</v>
       </c>
@@ -36420,7 +35824,7 @@
         <v>1871</v>
       </c>
     </row>
-    <row r="408" s="5" customFormat="1" spans="5:10">
+    <row r="408" spans="5:10" s="5" customFormat="1">
       <c r="E408" s="5" t="s">
         <v>2263</v>
       </c>
@@ -36442,7 +35846,7 @@
         <v>1871</v>
       </c>
     </row>
-    <row r="409" s="5" customFormat="1" spans="5:10">
+    <row r="409" spans="5:10" s="5" customFormat="1">
       <c r="E409" s="5" t="s">
         <v>2264</v>
       </c>
@@ -36464,7 +35868,7 @@
         <v>1871</v>
       </c>
     </row>
-    <row r="410" s="5" customFormat="1" spans="5:10">
+    <row r="410" spans="5:10" s="5" customFormat="1">
       <c r="E410" s="5" t="s">
         <v>2265</v>
       </c>
@@ -36486,7 +35890,7 @@
         <v>1871</v>
       </c>
     </row>
-    <row r="411" s="5" customFormat="1" spans="5:10">
+    <row r="411" spans="5:10" s="5" customFormat="1">
       <c r="E411" s="5" t="s">
         <v>2266</v>
       </c>
@@ -36508,7 +35912,7 @@
         <v>1871</v>
       </c>
     </row>
-    <row r="412" s="5" customFormat="1" spans="5:10">
+    <row r="412" spans="5:10" s="5" customFormat="1">
       <c r="E412" s="5" t="s">
         <v>2267</v>
       </c>
@@ -36530,7 +35934,7 @@
         <v>1871</v>
       </c>
     </row>
-    <row r="413" s="5" customFormat="1" spans="5:10">
+    <row r="413" spans="5:10" s="5" customFormat="1">
       <c r="E413" s="5" t="s">
         <v>2268</v>
       </c>
@@ -36552,7 +35956,7 @@
         <v>1871</v>
       </c>
     </row>
-    <row r="414" s="5" customFormat="1" spans="5:10">
+    <row r="414" spans="5:10" s="5" customFormat="1">
       <c r="E414" s="5" t="s">
         <v>2269</v>
       </c>
@@ -36574,7 +35978,7 @@
         <v>1871</v>
       </c>
     </row>
-    <row r="415" s="5" customFormat="1" spans="5:10">
+    <row r="415" spans="5:10" s="5" customFormat="1">
       <c r="E415" s="5" t="s">
         <v>2270</v>
       </c>
@@ -36596,7 +36000,7 @@
         <v>1871</v>
       </c>
     </row>
-    <row r="416" s="5" customFormat="1" spans="5:10">
+    <row r="416" spans="5:10" s="5" customFormat="1">
       <c r="E416" s="5" t="s">
         <v>2271</v>
       </c>
@@ -36618,7 +36022,7 @@
         <v>1871</v>
       </c>
     </row>
-    <row r="417" s="5" customFormat="1" spans="5:10">
+    <row r="417" spans="5:10" s="5" customFormat="1">
       <c r="E417" s="5" t="s">
         <v>2272</v>
       </c>
@@ -36640,7 +36044,7 @@
         <v>1871</v>
       </c>
     </row>
-    <row r="418" s="5" customFormat="1" spans="5:10">
+    <row r="418" spans="5:10" s="5" customFormat="1">
       <c r="E418" s="5" t="s">
         <v>2273</v>
       </c>
@@ -36662,7 +36066,7 @@
         <v>1871</v>
       </c>
     </row>
-    <row r="419" s="5" customFormat="1" spans="5:10">
+    <row r="419" spans="5:10" s="5" customFormat="1">
       <c r="E419" s="5" t="s">
         <v>2274</v>
       </c>
@@ -36684,7 +36088,7 @@
         <v>1871</v>
       </c>
     </row>
-    <row r="420" s="5" customFormat="1" spans="5:10">
+    <row r="420" spans="5:10" s="5" customFormat="1">
       <c r="E420" s="5" t="s">
         <v>2275</v>
       </c>
@@ -36706,7 +36110,7 @@
         <v>1871</v>
       </c>
     </row>
-    <row r="421" s="5" customFormat="1" spans="5:10">
+    <row r="421" spans="5:10" s="5" customFormat="1">
       <c r="E421" s="5" t="s">
         <v>2276</v>
       </c>
@@ -36728,7 +36132,7 @@
         <v>1871</v>
       </c>
     </row>
-    <row r="422" s="5" customFormat="1" spans="5:10">
+    <row r="422" spans="5:10" s="5" customFormat="1">
       <c r="E422" s="5" t="s">
         <v>2277</v>
       </c>
@@ -36750,7 +36154,7 @@
         <v>1871</v>
       </c>
     </row>
-    <row r="423" s="5" customFormat="1" spans="5:10">
+    <row r="423" spans="5:10" s="5" customFormat="1">
       <c r="E423" s="5" t="s">
         <v>2278</v>
       </c>
@@ -36772,7 +36176,7 @@
         <v>1871</v>
       </c>
     </row>
-    <row r="424" s="5" customFormat="1" spans="5:10">
+    <row r="424" spans="5:10" s="5" customFormat="1">
       <c r="E424" s="5" t="s">
         <v>2279</v>
       </c>
@@ -36794,7 +36198,7 @@
         <v>1871</v>
       </c>
     </row>
-    <row r="425" s="5" customFormat="1" spans="5:10">
+    <row r="425" spans="5:10" s="5" customFormat="1">
       <c r="E425" s="5" t="s">
         <v>2280</v>
       </c>
@@ -36816,7 +36220,7 @@
         <v>1871</v>
       </c>
     </row>
-    <row r="426" s="5" customFormat="1" spans="5:10">
+    <row r="426" spans="5:10" s="5" customFormat="1">
       <c r="E426" s="5" t="s">
         <v>2281</v>
       </c>
@@ -36838,7 +36242,7 @@
         <v>1871</v>
       </c>
     </row>
-    <row r="427" s="5" customFormat="1" spans="5:10">
+    <row r="427" spans="5:10" s="5" customFormat="1">
       <c r="E427" s="5" t="s">
         <v>2282</v>
       </c>
@@ -36860,7 +36264,7 @@
         <v>1871</v>
       </c>
     </row>
-    <row r="428" s="5" customFormat="1" spans="5:10">
+    <row r="428" spans="5:10" s="5" customFormat="1">
       <c r="E428" s="5" t="s">
         <v>2283</v>
       </c>
@@ -36970,7 +36374,7 @@
         <v>1871</v>
       </c>
     </row>
-    <row r="433" ht="18" customHeight="1" spans="5:10">
+    <row r="433" spans="5:10" ht="18" customHeight="1">
       <c r="E433" s="5" t="s">
         <v>2288</v>
       </c>
@@ -37239,7 +36643,7 @@
         <v>2300</v>
       </c>
       <c r="F445" t="str">
-        <f t="shared" ref="F445:F447" si="1">E12</f>
+        <f t="shared" ref="F445:F446" si="1">E12</f>
         <v>iam_role-12</v>
       </c>
       <c r="G445" t="str">
@@ -37278,12 +36682,12 @@
         <v>1871</v>
       </c>
     </row>
-    <row r="447" customFormat="1" spans="5:10">
+    <row r="447" spans="5:10">
       <c r="E447" s="6" t="s">
         <v>2302</v>
       </c>
       <c r="F447" t="str">
-        <f t="shared" ref="F447:F449" si="2">E10</f>
+        <f t="shared" ref="F447" si="2">E10</f>
         <v>iam_role-10</v>
       </c>
       <c r="G447" t="str">
@@ -37300,7 +36704,7 @@
         <v>1871</v>
       </c>
     </row>
-    <row r="448" customFormat="1" spans="5:10">
+    <row r="448" spans="5:10">
       <c r="E448" s="6" t="s">
         <v>2303</v>
       </c>
@@ -37322,7 +36726,7 @@
         <v>1871</v>
       </c>
     </row>
-    <row r="449" customFormat="1" spans="5:10">
+    <row r="449" spans="5:10">
       <c r="E449" s="6" t="s">
         <v>2304</v>
       </c>
@@ -37345,23 +36749,25 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="33" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:O35"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:O33"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="E77" sqref="E77"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O11" sqref="O11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999"/>
+  <cols>
+    <col min="6" max="6" width="17.58203125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:15">
       <c r="A1" s="1" t="s">
         <v>44</v>
       </c>
@@ -37375,7 +36781,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="4" spans="5:7">
+    <row r="4" spans="1:15">
       <c r="E4" s="2" t="s">
         <v>47</v>
       </c>
@@ -37433,15 +36839,15 @@
         <v>1777</v>
       </c>
     </row>
-    <row r="8" spans="5:15">
+    <row r="8" spans="1:15">
       <c r="E8" t="s">
+        <v>2306</v>
+      </c>
+      <c r="F8" t="s">
+        <v>2307</v>
+      </c>
+      <c r="G8" t="s">
         <v>2305</v>
-      </c>
-      <c r="F8" t="s">
-        <v>2306</v>
-      </c>
-      <c r="G8" t="s">
-        <v>2307</v>
       </c>
       <c r="H8" t="s">
         <v>82</v>
@@ -37453,56 +36859,59 @@
         <v>2308</v>
       </c>
       <c r="K8" t="s">
+        <v>2308</v>
+      </c>
+      <c r="M8" t="s">
+        <v>80</v>
+      </c>
+      <c r="N8" t="s">
+        <v>82</v>
+      </c>
+      <c r="O8" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
+      <c r="E9" t="s">
         <v>2309</v>
       </c>
-      <c r="M8" t="s">
-        <v>80</v>
-      </c>
-      <c r="N8" t="s">
-        <v>82</v>
-      </c>
-      <c r="O8" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="9" spans="5:15">
-      <c r="E9" t="s">
+      <c r="F9" t="s">
         <v>2310</v>
       </c>
-      <c r="F9" t="s">
+      <c r="G9" t="s">
+        <v>2305</v>
+      </c>
+      <c r="H9" t="s">
+        <v>82</v>
+      </c>
+      <c r="I9" t="s">
+        <v>1780</v>
+      </c>
+      <c r="J9" t="s">
         <v>2311</v>
       </c>
-      <c r="G9" t="s">
-        <v>2307</v>
-      </c>
-      <c r="H9" t="s">
-        <v>82</v>
-      </c>
-      <c r="I9" t="s">
+      <c r="K9" t="s">
         <v>2312</v>
       </c>
-      <c r="J9" t="s">
+      <c r="M9" t="s">
+        <v>80</v>
+      </c>
+      <c r="N9" t="s">
+        <v>82</v>
+      </c>
+      <c r="O9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
+      <c r="E10" t="s">
         <v>2313</v>
       </c>
-      <c r="M9" t="s">
-        <v>80</v>
-      </c>
-      <c r="N9" t="s">
-        <v>82</v>
-      </c>
-      <c r="O9" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="10" spans="5:15">
-      <c r="E10" t="s">
+      <c r="F10" t="s">
         <v>2314</v>
       </c>
-      <c r="F10" t="s">
-        <v>2315</v>
-      </c>
       <c r="G10" t="s">
-        <v>2307</v>
+        <v>2305</v>
       </c>
       <c r="H10" t="s">
         <v>82</v>
@@ -37511,30 +36920,30 @@
         <v>1780</v>
       </c>
       <c r="J10" t="s">
+        <v>2315</v>
+      </c>
+      <c r="K10" t="s">
+        <v>2315</v>
+      </c>
+      <c r="M10" t="s">
+        <v>80</v>
+      </c>
+      <c r="N10" t="s">
+        <v>82</v>
+      </c>
+      <c r="O10" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
+      <c r="E11" t="s">
         <v>2316</v>
       </c>
-      <c r="K10" t="s">
-        <v>2316</v>
-      </c>
-      <c r="M10" t="s">
-        <v>80</v>
-      </c>
-      <c r="N10" t="s">
-        <v>82</v>
-      </c>
-      <c r="O10" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="11" spans="5:15">
-      <c r="E11" t="s">
+      <c r="F11" t="s">
         <v>2317</v>
       </c>
-      <c r="F11" t="s">
-        <v>2318</v>
-      </c>
       <c r="G11" t="s">
-        <v>2307</v>
+        <v>2305</v>
       </c>
       <c r="H11" t="s">
         <v>82</v>
@@ -37543,30 +36952,30 @@
         <v>1780</v>
       </c>
       <c r="J11" t="s">
+        <v>2318</v>
+      </c>
+      <c r="K11" t="s">
         <v>2319</v>
       </c>
-      <c r="K11" t="s">
+      <c r="M11" t="s">
+        <v>80</v>
+      </c>
+      <c r="N11" t="s">
+        <v>82</v>
+      </c>
+      <c r="O11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
+      <c r="E12" t="s">
         <v>2320</v>
       </c>
-      <c r="M11" t="s">
-        <v>80</v>
-      </c>
-      <c r="N11" t="s">
-        <v>82</v>
-      </c>
-      <c r="O11" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="12" spans="5:15">
-      <c r="E12" t="s">
+      <c r="F12" t="s">
         <v>2321</v>
       </c>
-      <c r="F12" t="s">
-        <v>2322</v>
-      </c>
       <c r="G12" t="s">
-        <v>2307</v>
+        <v>2305</v>
       </c>
       <c r="H12" t="s">
         <v>82</v>
@@ -37575,30 +36984,30 @@
         <v>1780</v>
       </c>
       <c r="J12" t="s">
+        <v>2322</v>
+      </c>
+      <c r="K12" t="s">
+        <v>1848</v>
+      </c>
+      <c r="M12" t="s">
+        <v>80</v>
+      </c>
+      <c r="N12" t="s">
+        <v>82</v>
+      </c>
+      <c r="O12" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
+      <c r="E13" t="s">
         <v>2323</v>
       </c>
-      <c r="K12" t="s">
-        <v>2323</v>
-      </c>
-      <c r="M12" t="s">
-        <v>80</v>
-      </c>
-      <c r="N12" t="s">
-        <v>82</v>
-      </c>
-      <c r="O12" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="13" spans="5:15">
-      <c r="E13" t="s">
+      <c r="F13" t="s">
         <v>2324</v>
       </c>
-      <c r="F13" t="s">
-        <v>2325</v>
-      </c>
       <c r="G13" t="s">
-        <v>2307</v>
+        <v>2305</v>
       </c>
       <c r="H13" t="s">
         <v>82</v>
@@ -37607,30 +37016,30 @@
         <v>1780</v>
       </c>
       <c r="J13" t="s">
+        <v>2325</v>
+      </c>
+      <c r="K13" t="s">
         <v>2326</v>
       </c>
-      <c r="K13" t="s">
+      <c r="M13" t="s">
+        <v>80</v>
+      </c>
+      <c r="N13" t="s">
+        <v>82</v>
+      </c>
+      <c r="O13" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
+      <c r="E14" t="s">
         <v>2327</v>
       </c>
-      <c r="M13" t="s">
-        <v>80</v>
-      </c>
-      <c r="N13" t="s">
-        <v>82</v>
-      </c>
-      <c r="O13" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="14" spans="5:15">
-      <c r="E14" t="s">
+      <c r="F14" t="s">
         <v>2328</v>
       </c>
-      <c r="F14" t="s">
-        <v>2329</v>
-      </c>
       <c r="G14" t="s">
-        <v>2307</v>
+        <v>2305</v>
       </c>
       <c r="H14" t="s">
         <v>82</v>
@@ -37639,11 +37048,11 @@
         <v>1780</v>
       </c>
       <c r="J14" t="s">
+        <v>2329</v>
+      </c>
+      <c r="K14" t="s">
         <v>2330</v>
       </c>
-      <c r="K14" t="s">
-        <v>1848</v>
-      </c>
       <c r="M14" t="s">
         <v>80</v>
       </c>
@@ -37654,7 +37063,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="15" spans="5:15">
+    <row r="15" spans="1:15">
       <c r="E15" t="s">
         <v>2331</v>
       </c>
@@ -37662,7 +37071,7 @@
         <v>2332</v>
       </c>
       <c r="G15" t="s">
-        <v>2307</v>
+        <v>2305</v>
       </c>
       <c r="H15" t="s">
         <v>82</v>
@@ -37682,11 +37091,11 @@
       <c r="N15" t="s">
         <v>82</v>
       </c>
-      <c r="O15" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="16" spans="5:15">
+      <c r="O15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="E16" t="s">
         <v>2335</v>
       </c>
@@ -37694,7 +37103,7 @@
         <v>2336</v>
       </c>
       <c r="G16" t="s">
-        <v>2307</v>
+        <v>2305</v>
       </c>
       <c r="H16" t="s">
         <v>82</v>
@@ -37706,27 +37115,27 @@
         <v>2337</v>
       </c>
       <c r="K16" t="s">
+        <v>2336</v>
+      </c>
+      <c r="M16" t="s">
+        <v>80</v>
+      </c>
+      <c r="N16" t="s">
+        <v>82</v>
+      </c>
+      <c r="O16" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
+      <c r="E17" t="s">
         <v>2338</v>
       </c>
-      <c r="M16" t="s">
-        <v>80</v>
-      </c>
-      <c r="N16" t="s">
-        <v>82</v>
-      </c>
-      <c r="O16" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="17" spans="5:15">
-      <c r="E17" t="s">
+      <c r="F17" t="s">
         <v>2339</v>
       </c>
-      <c r="F17" t="s">
-        <v>2340</v>
-      </c>
       <c r="G17" t="s">
-        <v>2307</v>
+        <v>2305</v>
       </c>
       <c r="H17" t="s">
         <v>82</v>
@@ -37735,10 +37144,10 @@
         <v>1780</v>
       </c>
       <c r="J17" t="s">
-        <v>2341</v>
+        <v>2340</v>
       </c>
       <c r="K17" t="s">
-        <v>2342</v>
+        <v>2339</v>
       </c>
       <c r="M17" t="s">
         <v>80</v>
@@ -37750,105 +37159,79 @@
         <v>82</v>
       </c>
     </row>
-    <row r="18" spans="5:15">
-      <c r="E18" t="s">
-        <v>2343</v>
-      </c>
-      <c r="F18" t="s">
-        <v>2344</v>
-      </c>
-      <c r="G18" t="s">
-        <v>2307</v>
-      </c>
-      <c r="H18" t="s">
-        <v>82</v>
-      </c>
-      <c r="I18" t="s">
-        <v>1780</v>
-      </c>
-      <c r="J18" t="s">
-        <v>2345</v>
-      </c>
-      <c r="K18" t="s">
-        <v>2344</v>
-      </c>
-      <c r="M18" t="s">
-        <v>80</v>
-      </c>
-      <c r="N18" t="s">
-        <v>82</v>
-      </c>
-      <c r="O18" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="19" spans="5:15">
-      <c r="E19" t="s">
-        <v>2346</v>
-      </c>
-      <c r="F19" t="s">
-        <v>2347</v>
-      </c>
-      <c r="G19" t="s">
-        <v>2307</v>
-      </c>
-      <c r="H19" t="s">
-        <v>82</v>
+    <row r="19" spans="1:15">
+      <c r="A19" t="s">
+        <v>50</v>
+      </c>
+      <c r="B19" t="s">
+        <v>51</v>
+      </c>
+      <c r="C19" t="s">
+        <v>1789</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>1790</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>1791</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>1792</v>
+      </c>
+      <c r="G19" s="3" t="s">
+        <v>1793</v>
+      </c>
+      <c r="H19" s="3" t="s">
+        <v>1794</v>
       </c>
       <c r="I19" t="s">
-        <v>1780</v>
-      </c>
-      <c r="J19" t="s">
-        <v>2348</v>
-      </c>
-      <c r="K19" t="s">
-        <v>2347</v>
-      </c>
-      <c r="M19" t="s">
-        <v>80</v>
-      </c>
-      <c r="N19" t="s">
-        <v>82</v>
-      </c>
-      <c r="O19" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9">
-      <c r="A21" t="s">
-        <v>50</v>
-      </c>
-      <c r="B21" t="s">
-        <v>51</v>
-      </c>
-      <c r="C21" t="s">
-        <v>1789</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>1790</v>
-      </c>
-      <c r="E21" s="2" t="s">
-        <v>1791</v>
-      </c>
-      <c r="F21" s="3" t="s">
-        <v>1792</v>
-      </c>
-      <c r="G21" s="3" t="s">
-        <v>1793</v>
-      </c>
-      <c r="H21" s="3" t="s">
-        <v>1794</v>
+        <v>1795</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
+      <c r="E20" t="s">
+        <v>1758</v>
+      </c>
+      <c r="F20" t="s">
+        <v>2305</v>
+      </c>
+      <c r="G20" t="str">
+        <f>角色!$E$10</f>
+        <v>iam_role-10</v>
+      </c>
+      <c r="H20" t="str">
+        <f>角色标签数据!$E$8</f>
+        <v>iam_label-10</v>
+      </c>
+      <c r="I20" t="s">
+        <v>1796</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
+      <c r="E21" t="s">
+        <v>1758</v>
+      </c>
+      <c r="F21" t="s">
+        <v>2305</v>
+      </c>
+      <c r="G21" t="str">
+        <f>角色!$E$10</f>
+        <v>iam_role-10</v>
+      </c>
+      <c r="H21" t="str">
+        <f>角色标签数据!$E$9</f>
+        <v>iam_label-11</v>
       </c>
       <c r="I21" t="s">
-        <v>1795</v>
-      </c>
-    </row>
-    <row r="22" spans="5:9">
+        <v>1796</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="E22" t="s">
         <v>1758</v>
       </c>
       <c r="F22" t="s">
-        <v>2307</v>
+        <v>2305</v>
       </c>
       <c r="G22" t="str">
         <f>角色!$E$10</f>
@@ -37856,197 +37239,197 @@
       </c>
       <c r="H22" t="str">
         <f>角色标签数据!$E$10</f>
-        <v>iam_label-10</v>
+        <v>iam_label-12</v>
       </c>
       <c r="I22" t="s">
         <v>1796</v>
       </c>
     </row>
-    <row r="23" spans="5:9">
+    <row r="23" spans="1:15">
       <c r="E23" t="s">
         <v>1758</v>
       </c>
       <c r="F23" t="s">
-        <v>2307</v>
+        <v>2305</v>
       </c>
       <c r="G23" t="str">
-        <f>角色!$E$10</f>
-        <v>iam_role-10</v>
+        <f>角色!$E$11</f>
+        <v>iam_role-11</v>
       </c>
       <c r="H23" t="str">
-        <f>角色标签数据!$E$11</f>
-        <v>iam_label-11</v>
+        <f>角色标签数据!$E$8</f>
+        <v>iam_label-10</v>
       </c>
       <c r="I23" t="s">
         <v>1796</v>
       </c>
     </row>
-    <row r="24" spans="5:9">
+    <row r="24" spans="1:15">
       <c r="E24" t="s">
         <v>1758</v>
       </c>
       <c r="F24" t="s">
-        <v>2307</v>
+        <v>2305</v>
       </c>
       <c r="G24" t="str">
-        <f>角色!$E$10</f>
-        <v>iam_role-10</v>
+        <f>角色!$E$11</f>
+        <v>iam_role-11</v>
       </c>
       <c r="H24" t="str">
-        <f>角色标签数据!$E$12</f>
-        <v>iam_label-12</v>
+        <f>角色标签数据!$E$9</f>
+        <v>iam_label-11</v>
       </c>
       <c r="I24" t="s">
         <v>1796</v>
       </c>
     </row>
-    <row r="25" spans="5:9">
+    <row r="25" spans="1:15">
       <c r="E25" t="s">
         <v>1758</v>
       </c>
       <c r="F25" t="s">
-        <v>2307</v>
+        <v>2305</v>
       </c>
       <c r="G25" t="str">
         <f>角色!$E$11</f>
         <v>iam_role-11</v>
       </c>
       <c r="H25" t="str">
-        <f>角色标签数据!$E$10</f>
-        <v>iam_label-10</v>
+        <f>角色标签数据!$E$13</f>
+        <v>iam_label-15</v>
       </c>
       <c r="I25" t="s">
         <v>1796</v>
       </c>
     </row>
-    <row r="26" spans="5:9">
+    <row r="26" spans="1:15">
       <c r="E26" t="s">
         <v>1758</v>
       </c>
       <c r="F26" t="s">
-        <v>2307</v>
+        <v>2305</v>
       </c>
       <c r="G26" t="str">
-        <f>角色!$E$11</f>
-        <v>iam_role-11</v>
+        <f>角色!$E$12</f>
+        <v>iam_role-12</v>
       </c>
       <c r="H26" t="str">
-        <f>角色标签数据!$E$11</f>
-        <v>iam_label-11</v>
+        <f>角色标签数据!$E$8</f>
+        <v>iam_label-10</v>
       </c>
       <c r="I26" t="s">
         <v>1796</v>
       </c>
     </row>
-    <row r="27" spans="5:9">
+    <row r="27" spans="1:15">
       <c r="E27" t="s">
         <v>1758</v>
       </c>
       <c r="F27" t="s">
-        <v>2307</v>
+        <v>2305</v>
       </c>
       <c r="G27" t="str">
-        <f>角色!$E$11</f>
-        <v>iam_role-11</v>
+        <f>角色!$E$12</f>
+        <v>iam_role-12</v>
       </c>
       <c r="H27" t="str">
-        <f>角色标签数据!$E$15</f>
-        <v>iam_label-15</v>
+        <f>角色标签数据!$E$11</f>
+        <v>iam_label-13</v>
       </c>
       <c r="I27" t="s">
         <v>1796</v>
       </c>
     </row>
-    <row r="28" spans="5:9">
+    <row r="28" spans="1:15">
       <c r="E28" t="s">
         <v>1758</v>
       </c>
       <c r="F28" t="s">
-        <v>2307</v>
+        <v>2305</v>
       </c>
       <c r="G28" t="str">
         <f>角色!$E$12</f>
         <v>iam_role-12</v>
       </c>
       <c r="H28" t="str">
-        <f>角色标签数据!$E$10</f>
-        <v>iam_label-10</v>
+        <f>角色标签数据!$E$12</f>
+        <v>iam_label-14</v>
       </c>
       <c r="I28" t="s">
         <v>1796</v>
       </c>
     </row>
-    <row r="29" spans="5:9">
+    <row r="29" spans="1:15">
       <c r="E29" t="s">
         <v>1758</v>
       </c>
       <c r="F29" t="s">
-        <v>2307</v>
+        <v>2305</v>
       </c>
       <c r="G29" t="str">
         <f>角色!$E$12</f>
         <v>iam_role-12</v>
       </c>
       <c r="H29" t="str">
-        <f>角色标签数据!$E$13</f>
-        <v>iam_label-13</v>
+        <f>角色标签数据!$E$16</f>
+        <v>iam_label-18</v>
       </c>
       <c r="I29" t="s">
         <v>1796</v>
       </c>
     </row>
-    <row r="30" spans="5:9">
+    <row r="30" spans="1:15">
       <c r="E30" t="s">
         <v>1758</v>
       </c>
       <c r="F30" t="s">
-        <v>2307</v>
+        <v>2305</v>
       </c>
       <c r="G30" t="str">
-        <f>角色!$E$12</f>
-        <v>iam_role-12</v>
+        <f>角色!$E$13</f>
+        <v>iam_role-13</v>
       </c>
       <c r="H30" t="str">
-        <f>角色标签数据!$E$14</f>
-        <v>iam_label-14</v>
+        <f>角色标签数据!$E$8</f>
+        <v>iam_label-10</v>
       </c>
       <c r="I30" t="s">
         <v>1796</v>
       </c>
     </row>
-    <row r="31" spans="5:9">
+    <row r="31" spans="1:15">
       <c r="E31" t="s">
         <v>1758</v>
       </c>
       <c r="F31" t="s">
-        <v>2307</v>
+        <v>2305</v>
       </c>
       <c r="G31" t="str">
-        <f>角色!$E$12</f>
-        <v>iam_role-12</v>
+        <f>角色!$E$13</f>
+        <v>iam_role-13</v>
       </c>
       <c r="H31" t="str">
-        <f>角色标签数据!$E$18</f>
-        <v>iam_label-18</v>
+        <f>角色标签数据!$E$11</f>
+        <v>iam_label-13</v>
       </c>
       <c r="I31" t="s">
         <v>1796</v>
       </c>
     </row>
-    <row r="32" spans="5:9">
+    <row r="32" spans="1:15">
       <c r="E32" t="s">
         <v>1758</v>
       </c>
       <c r="F32" t="s">
-        <v>2307</v>
+        <v>2305</v>
       </c>
       <c r="G32" t="str">
         <f>角色!$E$13</f>
         <v>iam_role-13</v>
       </c>
       <c r="H32" t="str">
-        <f>角色标签数据!$E$10</f>
-        <v>iam_label-10</v>
+        <f>角色标签数据!$E$14</f>
+        <v>iam_label-16</v>
       </c>
       <c r="I32" t="s">
         <v>1796</v>
@@ -38057,61 +37440,23 @@
         <v>1758</v>
       </c>
       <c r="F33" t="s">
-        <v>2307</v>
+        <v>2305</v>
       </c>
       <c r="G33" t="str">
         <f>角色!$E$13</f>
         <v>iam_role-13</v>
       </c>
       <c r="H33" t="str">
-        <f>角色标签数据!$E$13</f>
-        <v>iam_label-13</v>
+        <f>角色标签数据!$E$17</f>
+        <v>iam_label-19</v>
       </c>
       <c r="I33" t="s">
         <v>1796</v>
       </c>
     </row>
-    <row r="34" spans="5:9">
-      <c r="E34" t="s">
-        <v>1758</v>
-      </c>
-      <c r="F34" t="s">
-        <v>2307</v>
-      </c>
-      <c r="G34" t="str">
-        <f>角色!$E$13</f>
-        <v>iam_role-13</v>
-      </c>
-      <c r="H34" t="str">
-        <f>角色标签数据!$E$16</f>
-        <v>iam_label-16</v>
-      </c>
-      <c r="I34" t="s">
-        <v>1796</v>
-      </c>
-    </row>
-    <row r="35" spans="5:9">
-      <c r="E35" t="s">
-        <v>1758</v>
-      </c>
-      <c r="F35" t="s">
-        <v>2307</v>
-      </c>
-      <c r="G35" t="str">
-        <f>角色!$E$13</f>
-        <v>iam_role-13</v>
-      </c>
-      <c r="H35" t="str">
-        <f>角色标签数据!$E$19</f>
-        <v>iam_label-19</v>
-      </c>
-      <c r="I35" t="s">
-        <v>1796</v>
-      </c>
-    </row>
   </sheetData>
+  <phoneticPr fontId="33" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
-  <headerFooter/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
--- a/src/main/resources/script/db/init-data/devops_service/hzero_platform/hzero-menu-user-role-label.xlsx
+++ b/src/main/resources/script/db/init-data/devops_service/hzero_platform/hzero-menu-user-role-label.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19812" windowHeight="7860" tabRatio="597" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19812" windowHeight="7860" tabRatio="597" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="1" r:id="rId1"/>
@@ -21,6 +21,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0">README!$D$1:$D$4</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">菜单SAAS版!$L$1:$L$182</definedName>
     <definedName name="LOCAL_MYSQL_DATE_FORMAT">REPT(local_year_format,4)&amp;local_date_separator&amp;REPT(local_month_format,2)&amp;local_date_separator&amp;REPT(local_day_format,2)&amp;" "&amp;REPT(local_hour_format,2)&amp;local_time_separator&amp;REPT(local_minute_format,2)&amp;local_time_separator&amp;REPT(local_second_format,2)</definedName>
     <definedName name="qwe">REPT(local_year_format,4)&amp;local_date_separator&amp;REPT(local_month_format,2)&amp;local_date_separator&amp;REPT(local_day_format,2)&amp;" "&amp;REPT(local_hour_format,2)&amp;local_time_separator&amp;REPT(local_minute_format,2)&amp;local_time_separator&amp;REPT(local_second_format,2)</definedName>
     <definedName name="wqewqe">REPT(local_year_format,4)&amp;local_date_separator&amp;REPT(local_month_format,2)&amp;local_date_separator&amp;REPT(local_day_format,2)&amp;" "&amp;REPT(local_hour_format,2)&amp;local_time_separator&amp;REPT(local_minute_format,2)&amp;local_time_separator&amp;REPT(local_second_format,2)</definedName>
@@ -8911,7 +8912,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="178" formatCode="000000"/>
+    <numFmt numFmtId="176" formatCode="000000"/>
   </numFmts>
   <fonts count="34">
     <font>
@@ -9290,7 +9291,7 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -9341,11 +9342,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -9724,11 +9725,11 @@
   <sheetData>
     <row r="1" spans="1:8" ht="64.5" customHeight="1">
       <c r="A1" s="25"/>
-      <c r="C1" s="48" t="s">
+      <c r="C1" s="49" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="48"/>
-      <c r="E1" s="48"/>
+      <c r="D1" s="49"/>
+      <c r="E1" s="49"/>
       <c r="F1" s="26"/>
       <c r="G1" s="26"/>
       <c r="H1" s="26"/>
@@ -9737,10 +9738,10 @@
       <c r="E2" s="27"/>
     </row>
     <row r="3" spans="1:8" ht="49.5" customHeight="1">
-      <c r="C3" s="49" t="s">
+      <c r="C3" s="48" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="49"/>
+      <c r="D3" s="48"/>
       <c r="E3" s="50" t="s">
         <v>2</v>
       </c>
@@ -9904,19 +9905,19 @@
       <c r="C25" s="46" t="s">
         <v>39</v>
       </c>
-      <c r="D25" s="49" t="s">
+      <c r="D25" s="48" t="s">
         <v>40</v>
       </c>
-      <c r="E25" s="49"/>
+      <c r="E25" s="48"/>
     </row>
     <row r="26" spans="3:5" ht="14.25" customHeight="1">
       <c r="C26" s="35" t="s">
         <v>41</v>
       </c>
-      <c r="D26" s="49" t="s">
+      <c r="D26" s="48" t="s">
         <v>42</v>
       </c>
-      <c r="E26" s="49"/>
+      <c r="E26" s="48"/>
     </row>
     <row r="27" spans="3:5" ht="52.2">
       <c r="C27" s="47" t="s">
@@ -9943,8 +9944,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y182"/>
   <sheetViews>
-    <sheetView topLeftCell="B172" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E85" sqref="E85"/>
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="G11" sqref="A11:XFD11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999"/>
@@ -10239,7 +10240,7 @@
         <v>81</v>
       </c>
       <c r="M11" s="22">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="N11" t="s">
         <v>82</v>
@@ -18710,6 +18711,7 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="L1:L182"/>
   <phoneticPr fontId="33" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -36758,7 +36760,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="O11" sqref="O11"/>
     </sheetView>
   </sheetViews>

--- a/src/main/resources/script/db/init-data/devops_service/hzero_platform/hzero-menu-user-role-label.xlsx
+++ b/src/main/resources/script/db/init-data/devops_service/hzero_platform/hzero-menu-user-role-label.xlsx
@@ -9945,7 +9945,7 @@
   <dimension ref="A1:Y182"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="G1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G11" sqref="A11:XFD11"/>
+      <selection activeCell="O14" sqref="O14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999"/>
@@ -10240,7 +10240,7 @@
         <v>81</v>
       </c>
       <c r="M11" s="22">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="N11" t="s">
         <v>82</v>

--- a/src/main/resources/script/db/init-data/devops_service/hzero_platform/hzero-menu-user-role-label.xlsx
+++ b/src/main/resources/script/db/init-data/devops_service/hzero_platform/hzero-menu-user-role-label.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19815" windowHeight="7860" tabRatio="597" activeTab="1"/>
+    <workbookView windowWidth="19815" windowHeight="7410" tabRatio="597" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="1" r:id="rId1"/>
@@ -14,11 +14,8 @@
     <sheet name="角色" sheetId="5" r:id="rId5"/>
     <sheet name="角色标签数据" sheetId="6" r:id="rId6"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId7"/>
-  </externalReferences>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">菜单SAAS版!$L$1:$L$182</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">菜单SAAS版!$L$1:$L$200</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0">README!$D$1:$D$4</definedName>
     <definedName name="LOCAL_MYSQL_DATE_FORMAT">REPT(local_year_format,4)&amp;local_date_separator&amp;REPT(local_month_format,2)&amp;local_date_separator&amp;REPT(local_day_format,2)&amp;" "&amp;REPT(local_hour_format,2)&amp;local_time_separator&amp;REPT(local_minute_format,2)&amp;local_time_separator&amp;REPT(local_second_format,2)</definedName>
     <definedName name="qwe">REPT(local_year_format,4)&amp;local_date_separator&amp;REPT(local_month_format,2)&amp;local_date_separator&amp;REPT(local_day_format,2)&amp;" "&amp;REPT(local_hour_format,2)&amp;local_time_separator&amp;REPT(local_minute_format,2)&amp;local_time_separator&amp;REPT(local_second_format,2)</definedName>
@@ -9280,10 +9277,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="000000"/>
   </numFmts>
   <fonts count="58">
@@ -9476,6 +9473,36 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
@@ -9490,14 +9517,29 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
@@ -9513,7 +9555,7 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
@@ -9529,43 +9571,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -9574,22 +9587,6 @@
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -9605,7 +9602,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -9613,14 +9617,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -9702,13 +9699,139 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -9726,7 +9849,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -9738,151 +9873,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -9989,17 +9986,22 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -10019,52 +10021,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -10086,156 +10053,186 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="32" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="7" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="45" fillId="21" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="32" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="32" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="37" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="32" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="32" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="47" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="6" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="36" fillId="14" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="35" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="48" fillId="13" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="46" fillId="21" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="39" fillId="13" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="49" fillId="21" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="50" fillId="36" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="19" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="49" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="38" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="62">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -10246,8 +10243,6 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -10265,7 +10260,6 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -10460,35 +10454,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="README"/>
-      <sheetName val="菜单SAAS版"/>
-      <sheetName val="菜单权限"/>
-      <sheetName val="菜单标签数据"/>
-      <sheetName val="角色"/>
-      <sheetName val="角色标签数据"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1">
-        <row r="226">
-          <cell r="E226" t="str">
-            <v>iam_menu-243</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
-      <sheetData sheetId="5"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -10757,8 +10722,8 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="15.5851851851852" style="32" customWidth="1"/>
-    <col min="2" max="2" width="10.3333333333333" style="33" customWidth="1"/>
+    <col min="1" max="1" width="15.5851851851852" style="29" customWidth="1"/>
+    <col min="2" max="2" width="10.3333333333333" style="30" customWidth="1"/>
     <col min="3" max="3" width="28.0814814814815" customWidth="1"/>
     <col min="4" max="4" width="35.3333333333333" style="8" customWidth="1"/>
     <col min="5" max="5" width="38.5851851851852" customWidth="1"/>
@@ -10774,79 +10739,79 @@
   </cols>
   <sheetData>
     <row r="1" ht="64.5" customHeight="1" spans="1:8">
-      <c r="A1" s="34"/>
-      <c r="C1" s="35" t="s">
+      <c r="A1" s="31"/>
+      <c r="C1" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="35"/>
-      <c r="E1" s="35"/>
-      <c r="F1" s="36"/>
-      <c r="G1" s="36"/>
-      <c r="H1" s="36"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="32"/>
+      <c r="F1" s="33"/>
+      <c r="G1" s="33"/>
+      <c r="H1" s="33"/>
     </row>
     <row r="2" ht="18" spans="5:5">
-      <c r="E2" s="37"/>
+      <c r="E2" s="34"/>
     </row>
     <row r="3" ht="49.5" customHeight="1" spans="3:7">
-      <c r="C3" s="38" t="s">
+      <c r="C3" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="38"/>
-      <c r="E3" s="39" t="s">
+      <c r="D3" s="35"/>
+      <c r="E3" s="36" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="39"/>
-      <c r="G3" s="39"/>
+      <c r="F3" s="36"/>
+      <c r="G3" s="36"/>
     </row>
     <row r="4" ht="18" spans="3:7">
-      <c r="C4" s="40" t="s">
+      <c r="C4" s="37" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="40"/>
-      <c r="E4" s="41" t="s">
+      <c r="D4" s="37"/>
+      <c r="E4" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="42" t="s">
+      <c r="F4" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="G4" s="43" t="s">
+      <c r="G4" s="40" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="34"/>
+      <c r="A5" s="31"/>
       <c r="C5" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="7" ht="18" spans="3:5">
-      <c r="C7" s="44" t="s">
+      <c r="C7" s="41" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="45" t="s">
+      <c r="D7" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="E7" s="46" t="s">
+      <c r="E7" s="43" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="8" spans="3:5">
-      <c r="C8" s="47" t="s">
+      <c r="C8" s="44" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="48" t="s">
+      <c r="D8" s="45" t="s">
         <v>12</v>
       </c>
-      <c r="E8" s="49"/>
+      <c r="E8" s="46"/>
     </row>
     <row r="9" ht="51.75" spans="3:6">
-      <c r="C9" s="50" t="s">
+      <c r="C9" s="47" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="51" t="s">
+      <c r="D9" s="48" t="s">
         <v>14</v>
       </c>
-      <c r="E9" s="52" t="s">
+      <c r="E9" s="49" t="s">
         <v>15</v>
       </c>
       <c r="F9" t="s">
@@ -10854,56 +10819,56 @@
       </c>
     </row>
     <row r="10" ht="51.75" spans="3:5">
-      <c r="C10" s="53" t="s">
+      <c r="C10" s="50" t="s">
         <v>17</v>
       </c>
-      <c r="D10" s="51" t="s">
+      <c r="D10" s="48" t="s">
         <v>18</v>
       </c>
-      <c r="E10" s="52" t="s">
+      <c r="E10" s="49" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="11" ht="69" spans="3:5">
-      <c r="C11" s="47" t="s">
+      <c r="C11" s="44" t="s">
         <v>20</v>
       </c>
-      <c r="D11" s="51" t="s">
+      <c r="D11" s="48" t="s">
         <v>21</v>
       </c>
-      <c r="E11" s="52" t="s">
+      <c r="E11" s="49" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="12" spans="3:5">
-      <c r="C12" s="47" t="s">
+      <c r="C12" s="44" t="s">
         <v>23</v>
       </c>
-      <c r="D12" s="51" t="s">
+      <c r="D12" s="48" t="s">
         <v>24</v>
       </c>
-      <c r="E12" s="54" t="s">
+      <c r="E12" s="51" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="13" spans="3:5">
-      <c r="C13" s="47"/>
-      <c r="D13" s="48"/>
-      <c r="E13" s="49"/>
+      <c r="C13" s="44"/>
+      <c r="D13" s="45"/>
+      <c r="E13" s="46"/>
     </row>
     <row r="14" spans="3:5">
-      <c r="C14" s="47"/>
-      <c r="D14" s="48"/>
-      <c r="E14" s="49"/>
+      <c r="C14" s="44"/>
+      <c r="D14" s="45"/>
+      <c r="E14" s="46"/>
     </row>
     <row r="15" ht="34.5" spans="3:5">
-      <c r="C15" s="55" t="s">
+      <c r="C15" s="52" t="s">
         <v>26</v>
       </c>
-      <c r="D15" s="56" t="s">
+      <c r="D15" s="53" t="s">
         <v>27</v>
       </c>
-      <c r="E15" s="57" t="s">
+      <c r="E15" s="54" t="s">
         <v>28</v>
       </c>
     </row>
@@ -10913,30 +10878,30 @@
       </c>
     </row>
     <row r="19" spans="3:5">
-      <c r="C19" s="58" t="s">
+      <c r="C19" s="55" t="s">
         <v>30</v>
       </c>
-      <c r="D19" s="58"/>
-      <c r="E19" s="58"/>
+      <c r="D19" s="55"/>
+      <c r="E19" s="55"/>
     </row>
     <row r="20" ht="18" spans="3:4">
-      <c r="C20" s="59" t="s">
+      <c r="C20" s="56" t="s">
         <v>31</v>
       </c>
-      <c r="D20" s="37" t="s">
+      <c r="D20" s="34" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="21" ht="18" spans="3:4">
-      <c r="C21" s="59" t="s">
+      <c r="C21" s="56" t="s">
         <v>33</v>
       </c>
-      <c r="D21" s="37" t="s">
+      <c r="D21" s="34" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="22" ht="18" spans="3:4">
-      <c r="C22" s="59" t="s">
+      <c r="C22" s="56" t="s">
         <v>35</v>
       </c>
       <c r="D22" s="8" t="s">
@@ -10944,7 +10909,7 @@
       </c>
     </row>
     <row r="23" ht="18" spans="3:4">
-      <c r="C23" s="59" t="s">
+      <c r="C23" s="56" t="s">
         <v>37</v>
       </c>
       <c r="D23" s="8" t="s">
@@ -10952,25 +10917,25 @@
       </c>
     </row>
     <row r="25" ht="69" customHeight="1" spans="3:5">
-      <c r="C25" s="60" t="s">
+      <c r="C25" s="57" t="s">
         <v>39</v>
       </c>
-      <c r="D25" s="38" t="s">
+      <c r="D25" s="35" t="s">
         <v>40</v>
       </c>
-      <c r="E25" s="38"/>
+      <c r="E25" s="35"/>
     </row>
     <row r="26" ht="14.25" customHeight="1" spans="3:5">
-      <c r="C26" s="48" t="s">
+      <c r="C26" s="45" t="s">
         <v>41</v>
       </c>
-      <c r="D26" s="38" t="s">
+      <c r="D26" s="35" t="s">
         <v>42</v>
       </c>
-      <c r="E26" s="38"/>
+      <c r="E26" s="35"/>
     </row>
     <row r="27" ht="51.75" spans="3:3">
-      <c r="C27" s="61" t="s">
+      <c r="C27" s="58" t="s">
         <v>43</v>
       </c>
     </row>
@@ -10995,8 +10960,8 @@
   <sheetPr/>
   <dimension ref="A1:Y200"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" topLeftCell="A178" workbookViewId="0">
-      <selection activeCell="F204" sqref="F204"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" topLeftCell="G178" workbookViewId="0">
+      <selection activeCell="N203" sqref="N203"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25"/>
@@ -11290,7 +11255,7 @@
       <c r="L11" t="s">
         <v>81</v>
       </c>
-      <c r="M11" s="28">
+      <c r="M11" s="26">
         <v>31</v>
       </c>
       <c r="N11" t="s">
@@ -11955,7 +11920,7 @@
       </c>
     </row>
     <row r="25" spans="5:24">
-      <c r="E25" s="27" t="s">
+      <c r="E25" s="25" t="s">
         <v>159</v>
       </c>
       <c r="F25" t="s">
@@ -16743,7 +16708,7 @@
       <c r="L123" t="s">
         <v>81</v>
       </c>
-      <c r="M123" s="28">
+      <c r="M123" s="26">
         <v>20</v>
       </c>
       <c r="N123" t="s">
@@ -18746,7 +18711,7 @@
       <c r="L162" t="s">
         <v>81</v>
       </c>
-      <c r="M162" s="28">
+      <c r="M162" s="26">
         <v>50</v>
       </c>
       <c r="N162" t="s">
@@ -19761,888 +19726,888 @@
         <v>82</v>
       </c>
     </row>
-    <row r="183" s="26" customFormat="1" spans="5:24">
-      <c r="E183" s="29" t="s">
+    <row r="183" s="24" customFormat="1" spans="5:24">
+      <c r="E183" s="24" t="s">
         <v>826</v>
       </c>
-      <c r="F183" s="29" t="s">
+      <c r="F183" s="24" t="s">
         <v>827</v>
       </c>
-      <c r="G183" s="29" t="s">
+      <c r="G183" s="24" t="s">
         <v>828</v>
       </c>
-      <c r="H183" s="29" t="s">
+      <c r="H183" s="24" t="s">
         <v>828</v>
       </c>
-      <c r="I183" s="29" t="s">
+      <c r="I183" s="24" t="s">
         <v>829</v>
       </c>
-      <c r="J183" s="29" t="s">
+      <c r="J183" s="24" t="s">
         <v>79</v>
       </c>
-      <c r="K183" s="29">
+      <c r="K183" s="24">
         <v>0</v>
       </c>
-      <c r="L183" s="29" t="s">
+      <c r="L183" s="24" t="s">
         <v>81</v>
       </c>
-      <c r="M183" s="29" t="s">
-        <v>80</v>
-      </c>
-      <c r="N183" s="29" t="s">
-        <v>82</v>
-      </c>
-      <c r="Q183" s="29" t="s">
-        <v>80</v>
-      </c>
-      <c r="R183" s="29" t="s">
-        <v>80</v>
-      </c>
-      <c r="S183" s="29" t="s">
+      <c r="M183" s="24" t="s">
+        <v>80</v>
+      </c>
+      <c r="N183" s="24" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q183" s="24" t="s">
+        <v>80</v>
+      </c>
+      <c r="R183" s="24" t="s">
+        <v>80</v>
+      </c>
+      <c r="S183" s="24" t="s">
         <v>827</v>
       </c>
-      <c r="T183" s="29" t="s">
-        <v>80</v>
-      </c>
-      <c r="V183" s="29" t="s">
+      <c r="T183" s="24" t="s">
+        <v>80</v>
+      </c>
+      <c r="V183" s="24" t="s">
         <v>83</v>
       </c>
-      <c r="X183" s="29" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="184" s="26" customFormat="1" spans="5:24">
-      <c r="E184" s="29" t="s">
+      <c r="X183" s="24" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="184" s="24" customFormat="1" spans="5:24">
+      <c r="E184" s="24" t="s">
         <v>830</v>
       </c>
-      <c r="F184" s="29" t="s">
+      <c r="F184" s="24" t="s">
         <v>831</v>
       </c>
-      <c r="G184" s="29" t="s">
+      <c r="G184" s="24" t="s">
         <v>828</v>
       </c>
-      <c r="H184" s="29" t="s">
+      <c r="H184" s="24" t="s">
         <v>828</v>
       </c>
-      <c r="I184" s="29" t="s">
+      <c r="I184" s="24" t="s">
         <v>829</v>
       </c>
-      <c r="J184" s="29" t="s">
+      <c r="J184" s="24" t="s">
         <v>832</v>
       </c>
-      <c r="K184" s="29" t="s">
-        <v>80</v>
-      </c>
-      <c r="L184" s="29" t="s">
+      <c r="K184" s="24" t="s">
+        <v>80</v>
+      </c>
+      <c r="L184" s="24" t="s">
         <v>81</v>
       </c>
-      <c r="M184" s="26">
+      <c r="M184" s="24">
         <v>10</v>
       </c>
-      <c r="N184" s="29" t="s">
-        <v>82</v>
-      </c>
-      <c r="Q184" s="29" t="s">
-        <v>80</v>
-      </c>
-      <c r="R184" s="29" t="s">
-        <v>80</v>
-      </c>
-      <c r="S184" s="29" t="s">
+      <c r="N184" s="24" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q184" s="24" t="s">
+        <v>80</v>
+      </c>
+      <c r="R184" s="24" t="s">
+        <v>80</v>
+      </c>
+      <c r="S184" s="24" t="s">
         <v>831</v>
       </c>
-      <c r="T184" s="29" t="s">
-        <v>80</v>
-      </c>
-      <c r="V184" s="29" t="s">
+      <c r="T184" s="24" t="s">
+        <v>80</v>
+      </c>
+      <c r="V184" s="24" t="s">
         <v>83</v>
       </c>
-      <c r="X184" s="29" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="185" s="10" customFormat="1" spans="5:24">
-      <c r="E185" s="10" t="s">
+      <c r="X184" s="24" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="185" s="6" customFormat="1" spans="5:24">
+      <c r="E185" s="6" t="s">
         <v>833</v>
       </c>
-      <c r="F185" s="10" t="s">
+      <c r="F185" s="6" t="s">
         <v>834</v>
       </c>
-      <c r="G185" s="10" t="s">
+      <c r="G185" s="6" t="s">
         <v>835</v>
       </c>
-      <c r="H185" s="10" t="s">
+      <c r="H185" s="6" t="s">
         <v>835</v>
       </c>
-      <c r="J185" s="10" t="s">
+      <c r="J185" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="K185" s="10" t="str">
+      <c r="K185" s="6" t="str">
         <f>菜单SAAS版!$E$183</f>
         <v>iam_menu-183</v>
       </c>
-      <c r="L185" s="10" t="s">
+      <c r="L185" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="M185" s="10">
+      <c r="M185" s="6">
         <v>11</v>
       </c>
-      <c r="N185" s="10">
+      <c r="N185" s="6">
         <v>1</v>
       </c>
-      <c r="O185" s="30" t="s">
+      <c r="O185" s="27" t="s">
         <v>836</v>
       </c>
-      <c r="P185" s="10" t="s">
+      <c r="P185" s="6" t="s">
         <v>837</v>
       </c>
-      <c r="Q185" s="10">
+      <c r="Q185" s="6">
         <v>0</v>
       </c>
-      <c r="R185" s="10">
+      <c r="R185" s="6">
         <v>0</v>
       </c>
-      <c r="S185" s="10" t="s">
+      <c r="S185" s="6" t="s">
         <v>838</v>
       </c>
-      <c r="T185" s="10">
+      <c r="T185" s="6">
         <v>0</v>
       </c>
-      <c r="V185" s="10" t="s">
+      <c r="V185" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="X185" s="10">
+      <c r="X185" s="6">
         <v>1</v>
       </c>
     </row>
-    <row r="186" s="10" customFormat="1" spans="5:24">
-      <c r="E186" s="10" t="s">
+    <row r="186" s="6" customFormat="1" spans="5:24">
+      <c r="E186" s="6" t="s">
         <v>839</v>
       </c>
-      <c r="F186" s="10" t="s">
+      <c r="F186" s="6" t="s">
         <v>840</v>
       </c>
-      <c r="G186" s="10" t="s">
+      <c r="G186" s="6" t="s">
         <v>841</v>
       </c>
-      <c r="H186" s="10" t="s">
+      <c r="H186" s="6" t="s">
         <v>841</v>
       </c>
-      <c r="J186" s="10" t="s">
+      <c r="J186" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="K186" s="10" t="str">
+      <c r="K186" s="6" t="str">
         <f>菜单SAAS版!$E$185</f>
         <v>iam_menu-185</v>
       </c>
-      <c r="L186" s="10" t="s">
+      <c r="L186" s="6" t="s">
         <v>95</v>
       </c>
-      <c r="M186" s="10">
+      <c r="M186" s="6">
         <v>10</v>
       </c>
-      <c r="N186" s="10">
+      <c r="N186" s="6">
         <v>1</v>
       </c>
-      <c r="Q186" s="10">
+      <c r="Q186" s="6">
         <v>0</v>
       </c>
-      <c r="R186" s="10">
+      <c r="R186" s="6">
         <v>0</v>
       </c>
-      <c r="S186" s="10" t="s">
+      <c r="S186" s="6" t="s">
         <v>842</v>
       </c>
-      <c r="T186" s="10">
+      <c r="T186" s="6">
         <v>0</v>
       </c>
-      <c r="V186" s="10" t="s">
+      <c r="V186" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="X186" s="10">
+      <c r="X186" s="6">
         <v>1</v>
       </c>
     </row>
-    <row r="187" s="10" customFormat="1" spans="5:24">
-      <c r="E187" s="10" t="s">
+    <row r="187" s="6" customFormat="1" spans="5:24">
+      <c r="E187" s="6" t="s">
         <v>843</v>
       </c>
-      <c r="F187" s="10" t="s">
+      <c r="F187" s="6" t="s">
         <v>844</v>
       </c>
-      <c r="G187" s="10" t="s">
+      <c r="G187" s="6" t="s">
         <v>845</v>
       </c>
-      <c r="H187" s="10" t="s">
+      <c r="H187" s="6" t="s">
         <v>845</v>
       </c>
-      <c r="J187" s="10" t="s">
+      <c r="J187" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="K187" s="10" t="str">
-        <f>[1]菜单SAAS版!$E$226</f>
-        <v>iam_menu-243</v>
-      </c>
-      <c r="L187" s="10" t="s">
+      <c r="K187" s="6" t="str">
+        <f>菜单SAAS版!$E$185</f>
+        <v>iam_menu-185</v>
+      </c>
+      <c r="L187" s="6" t="s">
         <v>95</v>
       </c>
-      <c r="M187" s="10">
+      <c r="M187" s="6">
         <v>20</v>
       </c>
-      <c r="N187" s="10">
+      <c r="N187" s="6">
         <v>1</v>
       </c>
-      <c r="Q187" s="10">
+      <c r="Q187" s="6">
         <v>0</v>
       </c>
-      <c r="R187" s="10">
+      <c r="R187" s="6">
         <v>0</v>
       </c>
-      <c r="S187" s="10" t="s">
+      <c r="S187" s="6" t="s">
         <v>846</v>
       </c>
-      <c r="T187" s="10">
+      <c r="T187" s="6">
         <v>0</v>
       </c>
-      <c r="V187" s="10" t="s">
+      <c r="V187" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="X187" s="10">
+      <c r="X187" s="6">
         <v>1</v>
       </c>
     </row>
-    <row r="188" s="10" customFormat="1" spans="5:24">
-      <c r="E188" s="10" t="s">
+    <row r="188" s="6" customFormat="1" spans="5:24">
+      <c r="E188" s="6" t="s">
         <v>847</v>
       </c>
-      <c r="F188" s="10" t="s">
+      <c r="F188" s="6" t="s">
         <v>848</v>
       </c>
-      <c r="G188" s="10" t="s">
+      <c r="G188" s="6" t="s">
         <v>849</v>
       </c>
-      <c r="H188" s="10" t="s">
+      <c r="H188" s="6" t="s">
         <v>849</v>
       </c>
-      <c r="J188" s="10" t="s">
+      <c r="J188" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="K188" s="10" t="str">
-        <f>[1]菜单SAAS版!$E$226</f>
-        <v>iam_menu-243</v>
-      </c>
-      <c r="L188" s="10" t="s">
+      <c r="K188" s="6" t="str">
+        <f>菜单SAAS版!$E$185</f>
+        <v>iam_menu-185</v>
+      </c>
+      <c r="L188" s="6" t="s">
         <v>95</v>
       </c>
-      <c r="M188" s="10">
+      <c r="M188" s="6">
         <v>30</v>
       </c>
-      <c r="N188" s="10">
+      <c r="N188" s="6">
         <v>1</v>
       </c>
-      <c r="Q188" s="10">
+      <c r="Q188" s="6">
         <v>0</v>
       </c>
-      <c r="R188" s="10">
+      <c r="R188" s="6">
         <v>0</v>
       </c>
-      <c r="S188" s="10" t="s">
+      <c r="S188" s="6" t="s">
         <v>850</v>
       </c>
-      <c r="T188" s="10">
+      <c r="T188" s="6">
         <v>0</v>
       </c>
-      <c r="V188" s="10" t="s">
+      <c r="V188" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="X188" s="10">
+      <c r="X188" s="6">
         <v>1</v>
       </c>
     </row>
-    <row r="189" s="10" customFormat="1" spans="5:24">
-      <c r="E189" s="10" t="s">
+    <row r="189" s="6" customFormat="1" spans="5:24">
+      <c r="E189" s="6" t="s">
         <v>851</v>
       </c>
-      <c r="F189" s="10" t="s">
+      <c r="F189" s="6" t="s">
         <v>852</v>
       </c>
-      <c r="G189" s="10" t="s">
+      <c r="G189" s="6" t="s">
         <v>853</v>
       </c>
-      <c r="H189" s="10" t="s">
+      <c r="H189" s="6" t="s">
         <v>853</v>
       </c>
-      <c r="J189" s="10" t="s">
+      <c r="J189" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="K189" s="10" t="str">
-        <f>[1]菜单SAAS版!$E$226</f>
-        <v>iam_menu-243</v>
-      </c>
-      <c r="L189" s="10" t="s">
+      <c r="K189" s="6" t="str">
+        <f>菜单SAAS版!$E$185</f>
+        <v>iam_menu-185</v>
+      </c>
+      <c r="L189" s="6" t="s">
         <v>95</v>
       </c>
-      <c r="M189" s="10">
+      <c r="M189" s="6">
         <v>40</v>
       </c>
-      <c r="N189" s="10">
+      <c r="N189" s="6">
         <v>1</v>
       </c>
-      <c r="Q189" s="10">
+      <c r="Q189" s="6">
         <v>0</v>
       </c>
-      <c r="R189" s="10">
+      <c r="R189" s="6">
         <v>0</v>
       </c>
-      <c r="S189" s="10" t="s">
+      <c r="S189" s="6" t="s">
         <v>854</v>
       </c>
-      <c r="T189" s="10">
+      <c r="T189" s="6">
         <v>0</v>
       </c>
-      <c r="V189" s="10" t="s">
+      <c r="V189" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="X189" s="10">
+      <c r="X189" s="6">
         <v>1</v>
       </c>
     </row>
-    <row r="190" s="10" customFormat="1" spans="5:24">
-      <c r="E190" s="10" t="s">
+    <row r="190" s="6" customFormat="1" spans="5:24">
+      <c r="E190" s="6" t="s">
         <v>855</v>
       </c>
-      <c r="F190" s="10" t="s">
+      <c r="F190" s="6" t="s">
         <v>856</v>
       </c>
-      <c r="G190" s="10" t="s">
+      <c r="G190" s="6" t="s">
         <v>857</v>
       </c>
-      <c r="H190" s="10" t="s">
+      <c r="H190" s="6" t="s">
         <v>857</v>
       </c>
-      <c r="J190" s="10" t="s">
+      <c r="J190" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="K190" s="10" t="str">
-        <f>[1]菜单SAAS版!$E$226</f>
-        <v>iam_menu-243</v>
-      </c>
-      <c r="L190" s="10" t="s">
+      <c r="K190" s="6" t="str">
+        <f>菜单SAAS版!$E$185</f>
+        <v>iam_menu-185</v>
+      </c>
+      <c r="L190" s="6" t="s">
         <v>95</v>
       </c>
-      <c r="M190" s="10">
+      <c r="M190" s="6">
         <v>50</v>
       </c>
-      <c r="N190" s="10">
+      <c r="N190" s="6">
         <v>1</v>
       </c>
-      <c r="Q190" s="10">
+      <c r="Q190" s="6">
         <v>0</v>
       </c>
-      <c r="R190" s="10">
+      <c r="R190" s="6">
         <v>0</v>
       </c>
-      <c r="S190" s="10" t="s">
+      <c r="S190" s="6" t="s">
         <v>858</v>
       </c>
-      <c r="T190" s="10">
+      <c r="T190" s="6">
         <v>0</v>
       </c>
-      <c r="V190" s="10" t="s">
+      <c r="V190" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="X190" s="10">
+      <c r="X190" s="6">
         <v>1</v>
       </c>
     </row>
-    <row r="191" s="10" customFormat="1" spans="5:24">
-      <c r="E191" s="10" t="s">
+    <row r="191" s="6" customFormat="1" spans="5:24">
+      <c r="E191" s="6" t="s">
         <v>859</v>
       </c>
-      <c r="F191" s="10" t="s">
+      <c r="F191" s="6" t="s">
         <v>860</v>
       </c>
-      <c r="G191" s="10" t="s">
+      <c r="G191" s="6" t="s">
         <v>861</v>
       </c>
-      <c r="H191" s="10" t="s">
+      <c r="H191" s="6" t="s">
         <v>861</v>
       </c>
-      <c r="J191" s="10" t="s">
+      <c r="J191" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="K191" s="10" t="str">
-        <f>[1]菜单SAAS版!$E$226</f>
-        <v>iam_menu-243</v>
-      </c>
-      <c r="L191" s="10" t="s">
+      <c r="K191" s="6" t="str">
+        <f>菜单SAAS版!$E$185</f>
+        <v>iam_menu-185</v>
+      </c>
+      <c r="L191" s="6" t="s">
         <v>95</v>
       </c>
-      <c r="M191" s="10">
+      <c r="M191" s="6">
         <v>60</v>
       </c>
-      <c r="N191" s="10">
+      <c r="N191" s="6">
         <v>1</v>
       </c>
-      <c r="Q191" s="10">
+      <c r="Q191" s="6">
         <v>0</v>
       </c>
-      <c r="R191" s="10">
+      <c r="R191" s="6">
         <v>0</v>
       </c>
-      <c r="S191" s="10" t="s">
+      <c r="S191" s="6" t="s">
         <v>862</v>
       </c>
-      <c r="T191" s="10">
+      <c r="T191" s="6">
         <v>0</v>
       </c>
-      <c r="V191" s="10" t="s">
+      <c r="V191" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="X191" s="10">
+      <c r="X191" s="6">
         <v>1</v>
       </c>
     </row>
-    <row r="192" s="10" customFormat="1" spans="5:24">
-      <c r="E192" s="10" t="s">
+    <row r="192" s="6" customFormat="1" spans="5:24">
+      <c r="E192" s="6" t="s">
         <v>863</v>
       </c>
-      <c r="F192" s="10" t="s">
+      <c r="F192" s="6" t="s">
         <v>864</v>
       </c>
-      <c r="G192" s="10" t="s">
+      <c r="G192" s="6" t="s">
         <v>865</v>
       </c>
-      <c r="H192" s="10" t="s">
+      <c r="H192" s="6" t="s">
         <v>865</v>
       </c>
-      <c r="J192" s="10" t="s">
+      <c r="J192" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="K192" s="10" t="str">
-        <f>[1]菜单SAAS版!$E$226</f>
-        <v>iam_menu-243</v>
-      </c>
-      <c r="L192" s="10" t="s">
+      <c r="K192" s="6" t="str">
+        <f>菜单SAAS版!$E$185</f>
+        <v>iam_menu-185</v>
+      </c>
+      <c r="L192" s="6" t="s">
         <v>95</v>
       </c>
-      <c r="M192" s="10">
+      <c r="M192" s="6">
         <v>70</v>
       </c>
-      <c r="N192" s="10">
+      <c r="N192" s="6">
         <v>1</v>
       </c>
-      <c r="Q192" s="10">
+      <c r="Q192" s="6">
         <v>0</v>
       </c>
-      <c r="R192" s="10">
+      <c r="R192" s="6">
         <v>0</v>
       </c>
-      <c r="S192" s="10" t="s">
+      <c r="S192" s="6" t="s">
         <v>866</v>
       </c>
-      <c r="T192" s="10">
+      <c r="T192" s="6">
         <v>0</v>
       </c>
-      <c r="V192" s="10" t="s">
+      <c r="V192" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="X192" s="10">
+      <c r="X192" s="6">
         <v>1</v>
       </c>
     </row>
-    <row r="193" s="11" customFormat="1" spans="5:24">
-      <c r="E193" s="11" t="s">
+    <row r="193" s="7" customFormat="1" spans="5:24">
+      <c r="E193" s="7" t="s">
         <v>867</v>
       </c>
-      <c r="F193" s="11" t="s">
+      <c r="F193" s="7" t="s">
         <v>868</v>
       </c>
-      <c r="G193" s="11" t="s">
+      <c r="G193" s="7" t="s">
         <v>835</v>
       </c>
-      <c r="H193" s="11" t="s">
+      <c r="H193" s="7" t="s">
         <v>835</v>
       </c>
-      <c r="J193" s="11" t="s">
+      <c r="J193" s="7" t="s">
         <v>832</v>
       </c>
-      <c r="K193" s="11" t="str">
+      <c r="K193" s="7" t="str">
         <f>菜单SAAS版!$E$184</f>
         <v>iam_menu-184</v>
       </c>
-      <c r="L193" s="11" t="s">
+      <c r="L193" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="M193" s="11">
+      <c r="M193" s="7">
         <v>11</v>
       </c>
-      <c r="N193" s="11">
+      <c r="N193" s="7">
         <v>1</v>
       </c>
-      <c r="O193" s="31" t="s">
+      <c r="O193" s="28" t="s">
         <v>836</v>
       </c>
-      <c r="P193" s="11" t="s">
+      <c r="P193" s="7" t="s">
         <v>869</v>
       </c>
-      <c r="Q193" s="11">
+      <c r="Q193" s="7">
         <v>0</v>
       </c>
-      <c r="R193" s="11">
+      <c r="R193" s="7">
         <v>0</v>
       </c>
-      <c r="S193" s="11" t="s">
+      <c r="S193" s="7" t="s">
         <v>870</v>
       </c>
-      <c r="T193" s="11">
+      <c r="T193" s="7">
         <v>0</v>
       </c>
-      <c r="V193" s="11" t="s">
+      <c r="V193" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="X193" s="11">
+      <c r="X193" s="7">
         <v>1</v>
       </c>
     </row>
-    <row r="194" s="11" customFormat="1" spans="5:24">
-      <c r="E194" s="11" t="s">
+    <row r="194" s="7" customFormat="1" spans="5:24">
+      <c r="E194" s="7" t="s">
         <v>871</v>
       </c>
-      <c r="F194" s="11" t="s">
+      <c r="F194" s="7" t="s">
         <v>872</v>
       </c>
-      <c r="G194" s="11" t="s">
+      <c r="G194" s="7" t="s">
         <v>841</v>
       </c>
-      <c r="H194" s="11" t="s">
+      <c r="H194" s="7" t="s">
         <v>841</v>
       </c>
-      <c r="J194" s="11" t="s">
+      <c r="J194" s="7" t="s">
         <v>832</v>
       </c>
-      <c r="K194" s="11" t="str">
+      <c r="K194" s="7" t="str">
         <f>菜单SAAS版!$E$193</f>
         <v>iam_menu-193</v>
       </c>
-      <c r="L194" s="11" t="s">
+      <c r="L194" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="M194" s="11">
+      <c r="M194" s="7">
         <v>10</v>
       </c>
-      <c r="N194" s="11">
+      <c r="N194" s="7">
         <v>1</v>
       </c>
-      <c r="Q194" s="11">
+      <c r="Q194" s="7">
         <v>0</v>
       </c>
-      <c r="R194" s="11">
+      <c r="R194" s="7">
         <v>0</v>
       </c>
-      <c r="S194" s="11" t="s">
+      <c r="S194" s="7" t="s">
         <v>873</v>
       </c>
-      <c r="T194" s="11">
+      <c r="T194" s="7">
         <v>0</v>
       </c>
-      <c r="V194" s="11" t="s">
+      <c r="V194" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="X194" s="11">
+      <c r="X194" s="7">
         <v>1</v>
       </c>
     </row>
-    <row r="195" s="11" customFormat="1" spans="5:24">
-      <c r="E195" s="11" t="s">
+    <row r="195" s="7" customFormat="1" spans="5:24">
+      <c r="E195" s="7" t="s">
         <v>874</v>
       </c>
-      <c r="F195" s="11" t="s">
+      <c r="F195" s="7" t="s">
         <v>875</v>
       </c>
-      <c r="G195" s="11" t="s">
+      <c r="G195" s="7" t="s">
         <v>845</v>
       </c>
-      <c r="H195" s="11" t="s">
+      <c r="H195" s="7" t="s">
         <v>845</v>
       </c>
-      <c r="J195" s="11" t="s">
+      <c r="J195" s="7" t="s">
         <v>832</v>
       </c>
-      <c r="K195" s="11" t="str">
+      <c r="K195" s="7" t="str">
         <f>菜单SAAS版!$E$193</f>
         <v>iam_menu-193</v>
       </c>
-      <c r="L195" s="11" t="s">
+      <c r="L195" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="M195" s="11">
+      <c r="M195" s="7">
         <v>20</v>
       </c>
-      <c r="N195" s="11">
+      <c r="N195" s="7">
         <v>1</v>
       </c>
-      <c r="Q195" s="11">
+      <c r="Q195" s="7">
         <v>0</v>
       </c>
-      <c r="R195" s="11">
+      <c r="R195" s="7">
         <v>0</v>
       </c>
-      <c r="S195" s="11" t="s">
+      <c r="S195" s="7" t="s">
         <v>876</v>
       </c>
-      <c r="T195" s="11">
+      <c r="T195" s="7">
         <v>0</v>
       </c>
-      <c r="V195" s="11" t="s">
+      <c r="V195" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="X195" s="11">
+      <c r="X195" s="7">
         <v>1</v>
       </c>
     </row>
-    <row r="196" s="11" customFormat="1" spans="5:24">
-      <c r="E196" s="11" t="s">
+    <row r="196" s="7" customFormat="1" spans="5:24">
+      <c r="E196" s="7" t="s">
         <v>877</v>
       </c>
-      <c r="F196" s="11" t="s">
+      <c r="F196" s="7" t="s">
         <v>878</v>
       </c>
-      <c r="G196" s="11" t="s">
+      <c r="G196" s="7" t="s">
         <v>849</v>
       </c>
-      <c r="H196" s="11" t="s">
+      <c r="H196" s="7" t="s">
         <v>849</v>
       </c>
-      <c r="J196" s="11" t="s">
+      <c r="J196" s="7" t="s">
         <v>832</v>
       </c>
-      <c r="K196" s="11" t="str">
+      <c r="K196" s="7" t="str">
         <f>菜单SAAS版!$E$193</f>
         <v>iam_menu-193</v>
       </c>
-      <c r="L196" s="11" t="s">
+      <c r="L196" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="M196" s="11">
+      <c r="M196" s="7">
         <v>30</v>
       </c>
-      <c r="N196" s="11">
+      <c r="N196" s="7">
         <v>1</v>
       </c>
-      <c r="Q196" s="11">
+      <c r="Q196" s="7">
         <v>0</v>
       </c>
-      <c r="R196" s="11">
+      <c r="R196" s="7">
         <v>0</v>
       </c>
-      <c r="S196" s="11" t="s">
+      <c r="S196" s="7" t="s">
         <v>879</v>
       </c>
-      <c r="T196" s="11">
+      <c r="T196" s="7">
         <v>0</v>
       </c>
-      <c r="V196" s="11" t="s">
+      <c r="V196" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="X196" s="11">
+      <c r="X196" s="7">
         <v>1</v>
       </c>
     </row>
-    <row r="197" s="11" customFormat="1" spans="5:24">
-      <c r="E197" s="11" t="s">
+    <row r="197" s="7" customFormat="1" spans="5:24">
+      <c r="E197" s="7" t="s">
         <v>880</v>
       </c>
-      <c r="F197" s="11" t="s">
+      <c r="F197" s="7" t="s">
         <v>881</v>
       </c>
-      <c r="G197" s="11" t="s">
+      <c r="G197" s="7" t="s">
         <v>853</v>
       </c>
-      <c r="H197" s="11" t="s">
+      <c r="H197" s="7" t="s">
         <v>853</v>
       </c>
-      <c r="J197" s="11" t="s">
+      <c r="J197" s="7" t="s">
         <v>832</v>
       </c>
-      <c r="K197" s="11" t="str">
+      <c r="K197" s="7" t="str">
         <f>菜单SAAS版!$E$193</f>
         <v>iam_menu-193</v>
       </c>
-      <c r="L197" s="11" t="s">
+      <c r="L197" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="M197" s="11">
+      <c r="M197" s="7">
         <v>40</v>
       </c>
-      <c r="N197" s="11">
+      <c r="N197" s="7">
         <v>1</v>
       </c>
-      <c r="Q197" s="11">
+      <c r="Q197" s="7">
         <v>0</v>
       </c>
-      <c r="R197" s="11">
+      <c r="R197" s="7">
         <v>0</v>
       </c>
-      <c r="S197" s="11" t="s">
+      <c r="S197" s="7" t="s">
         <v>882</v>
       </c>
-      <c r="T197" s="11">
+      <c r="T197" s="7">
         <v>0</v>
       </c>
-      <c r="V197" s="11" t="s">
+      <c r="V197" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="X197" s="11">
+      <c r="X197" s="7">
         <v>1</v>
       </c>
     </row>
-    <row r="198" s="11" customFormat="1" spans="5:24">
-      <c r="E198" s="11" t="s">
+    <row r="198" s="7" customFormat="1" spans="5:24">
+      <c r="E198" s="7" t="s">
         <v>883</v>
       </c>
-      <c r="F198" s="11" t="s">
+      <c r="F198" s="7" t="s">
         <v>884</v>
       </c>
-      <c r="G198" s="11" t="s">
+      <c r="G198" s="7" t="s">
         <v>857</v>
       </c>
-      <c r="H198" s="11" t="s">
+      <c r="H198" s="7" t="s">
         <v>857</v>
       </c>
-      <c r="J198" s="11" t="s">
+      <c r="J198" s="7" t="s">
         <v>832</v>
       </c>
-      <c r="K198" s="11" t="str">
+      <c r="K198" s="7" t="str">
         <f>菜单SAAS版!$E$193</f>
         <v>iam_menu-193</v>
       </c>
-      <c r="L198" s="11" t="s">
+      <c r="L198" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="M198" s="11">
+      <c r="M198" s="7">
         <v>50</v>
       </c>
-      <c r="N198" s="11">
+      <c r="N198" s="7">
         <v>1</v>
       </c>
-      <c r="Q198" s="11">
+      <c r="Q198" s="7">
         <v>0</v>
       </c>
-      <c r="R198" s="11">
+      <c r="R198" s="7">
         <v>0</v>
       </c>
-      <c r="S198" s="11" t="s">
+      <c r="S198" s="7" t="s">
         <v>885</v>
       </c>
-      <c r="T198" s="11">
+      <c r="T198" s="7">
         <v>0</v>
       </c>
-      <c r="V198" s="11" t="s">
+      <c r="V198" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="X198" s="11">
+      <c r="X198" s="7">
         <v>1</v>
       </c>
     </row>
-    <row r="199" s="11" customFormat="1" spans="5:24">
-      <c r="E199" s="11" t="s">
+    <row r="199" s="7" customFormat="1" spans="5:24">
+      <c r="E199" s="7" t="s">
         <v>886</v>
       </c>
-      <c r="F199" s="11" t="s">
+      <c r="F199" s="7" t="s">
         <v>887</v>
       </c>
-      <c r="G199" s="11" t="s">
+      <c r="G199" s="7" t="s">
         <v>861</v>
       </c>
-      <c r="H199" s="11" t="s">
+      <c r="H199" s="7" t="s">
         <v>861</v>
       </c>
-      <c r="J199" s="11" t="s">
+      <c r="J199" s="7" t="s">
         <v>832</v>
       </c>
-      <c r="K199" s="11" t="str">
+      <c r="K199" s="7" t="str">
         <f>菜单SAAS版!$E$193</f>
         <v>iam_menu-193</v>
       </c>
-      <c r="L199" s="11" t="s">
+      <c r="L199" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="M199" s="11">
+      <c r="M199" s="7">
         <v>60</v>
       </c>
-      <c r="N199" s="11">
+      <c r="N199" s="7">
         <v>1</v>
       </c>
-      <c r="Q199" s="11">
+      <c r="Q199" s="7">
         <v>0</v>
       </c>
-      <c r="R199" s="11">
+      <c r="R199" s="7">
         <v>0</v>
       </c>
-      <c r="S199" s="11" t="s">
+      <c r="S199" s="7" t="s">
         <v>888</v>
       </c>
-      <c r="T199" s="11">
+      <c r="T199" s="7">
         <v>0</v>
       </c>
-      <c r="V199" s="11" t="s">
+      <c r="V199" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="X199" s="11">
+      <c r="X199" s="7">
         <v>1</v>
       </c>
     </row>
-    <row r="200" s="11" customFormat="1" spans="5:24">
-      <c r="E200" s="11" t="s">
+    <row r="200" s="7" customFormat="1" spans="5:24">
+      <c r="E200" s="7" t="s">
         <v>889</v>
       </c>
-      <c r="F200" s="11" t="s">
+      <c r="F200" s="7" t="s">
         <v>890</v>
       </c>
-      <c r="G200" s="11" t="s">
+      <c r="G200" s="7" t="s">
         <v>865</v>
       </c>
-      <c r="H200" s="11" t="s">
+      <c r="H200" s="7" t="s">
         <v>865</v>
       </c>
-      <c r="J200" s="11" t="s">
+      <c r="J200" s="7" t="s">
         <v>832</v>
       </c>
-      <c r="K200" s="11" t="str">
+      <c r="K200" s="7" t="str">
         <f>菜单SAAS版!$E$193</f>
         <v>iam_menu-193</v>
       </c>
-      <c r="L200" s="11" t="s">
+      <c r="L200" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="M200" s="11">
+      <c r="M200" s="7">
         <v>70</v>
       </c>
-      <c r="N200" s="11">
+      <c r="N200" s="7">
         <v>1</v>
       </c>
-      <c r="Q200" s="11">
+      <c r="Q200" s="7">
         <v>0</v>
       </c>
-      <c r="R200" s="11">
+      <c r="R200" s="7">
         <v>0</v>
       </c>
-      <c r="S200" s="11" t="s">
+      <c r="S200" s="7" t="s">
         <v>891</v>
       </c>
-      <c r="T200" s="11">
+      <c r="T200" s="7">
         <v>0</v>
       </c>
-      <c r="V200" s="11" t="s">
+      <c r="V200" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="X200" s="11">
+      <c r="X200" s="7">
         <v>1</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="L1:L182">
+  <autoFilter ref="L1:L200">
     <extLst/>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -25923,14 +25888,14 @@
       </c>
     </row>
     <row r="442" spans="5:7">
-      <c r="E442" s="17" t="s">
+      <c r="E442" s="15" t="s">
         <v>1585</v>
       </c>
-      <c r="F442" s="17" t="str">
+      <c r="F442" s="15" t="str">
         <f>菜单SAAS版!E95</f>
         <v>iam_menu-95</v>
       </c>
-      <c r="G442" s="17" t="s">
+      <c r="G442" s="15" t="s">
         <v>1586</v>
       </c>
     </row>
@@ -25938,28 +25903,28 @@
       <c r="E443" s="9" t="s">
         <v>1587</v>
       </c>
-      <c r="F443" s="19" t="str">
+      <c r="F443" s="17" t="str">
         <f>菜单SAAS版!E142</f>
         <v>iam_menu-142</v>
       </c>
-      <c r="G443" s="19" t="s">
+      <c r="G443" s="17" t="s">
         <v>1588</v>
       </c>
     </row>
     <row r="444" spans="5:7">
-      <c r="E444" s="20" t="s">
+      <c r="E444" s="18" t="s">
         <v>1589</v>
       </c>
-      <c r="F444" s="20" t="str">
+      <c r="F444" s="18" t="str">
         <f>菜单SAAS版!E138</f>
         <v>iam_menu-138</v>
       </c>
-      <c r="G444" s="20" t="s">
+      <c r="G444" s="18" t="s">
         <v>1590</v>
       </c>
     </row>
     <row r="445" spans="5:7">
-      <c r="E445" s="15" t="s">
+      <c r="E445" s="13" t="s">
         <v>1591</v>
       </c>
       <c r="F445" t="str">
@@ -25971,7 +25936,7 @@
       </c>
     </row>
     <row r="446" spans="5:7">
-      <c r="E446" s="15" t="s">
+      <c r="E446" s="13" t="s">
         <v>1593</v>
       </c>
       <c r="F446" t="str">
@@ -25983,7 +25948,7 @@
       </c>
     </row>
     <row r="447" spans="5:7">
-      <c r="E447" s="15" t="s">
+      <c r="E447" s="13" t="s">
         <v>1595</v>
       </c>
       <c r="F447" t="str">
@@ -25995,7 +25960,7 @@
       </c>
     </row>
     <row r="448" spans="5:7">
-      <c r="E448" s="15" t="s">
+      <c r="E448" s="13" t="s">
         <v>1597</v>
       </c>
       <c r="F448" t="str">
@@ -26007,7 +25972,7 @@
       </c>
     </row>
     <row r="449" spans="5:7">
-      <c r="E449" s="15" t="s">
+      <c r="E449" s="13" t="s">
         <v>1599</v>
       </c>
       <c r="F449" t="str">
@@ -26019,7 +25984,7 @@
       </c>
     </row>
     <row r="450" spans="5:7">
-      <c r="E450" s="15" t="s">
+      <c r="E450" s="13" t="s">
         <v>1600</v>
       </c>
       <c r="F450" t="str">
@@ -26031,7 +25996,7 @@
       </c>
     </row>
     <row r="451" spans="5:7">
-      <c r="E451" s="15" t="s">
+      <c r="E451" s="13" t="s">
         <v>1602</v>
       </c>
       <c r="F451" t="str">
@@ -26043,7 +26008,7 @@
       </c>
     </row>
     <row r="452" spans="5:7">
-      <c r="E452" s="15" t="s">
+      <c r="E452" s="13" t="s">
         <v>1603</v>
       </c>
       <c r="F452" t="str">
@@ -26055,7 +26020,7 @@
       </c>
     </row>
     <row r="453" spans="5:7">
-      <c r="E453" s="15" t="s">
+      <c r="E453" s="13" t="s">
         <v>1605</v>
       </c>
       <c r="F453" t="str">
@@ -26067,7 +26032,7 @@
       </c>
     </row>
     <row r="454" spans="5:7">
-      <c r="E454" s="15" t="s">
+      <c r="E454" s="13" t="s">
         <v>1607</v>
       </c>
       <c r="F454" t="str">
@@ -26079,7 +26044,7 @@
       </c>
     </row>
     <row r="455" spans="5:7">
-      <c r="E455" s="15" t="s">
+      <c r="E455" s="13" t="s">
         <v>1608</v>
       </c>
       <c r="F455" t="str">
@@ -26091,7 +26056,7 @@
       </c>
     </row>
     <row r="456" spans="5:7">
-      <c r="E456" s="15" t="s">
+      <c r="E456" s="13" t="s">
         <v>1609</v>
       </c>
       <c r="F456" t="str">
@@ -26103,7 +26068,7 @@
       </c>
     </row>
     <row r="457" spans="5:7">
-      <c r="E457" s="15" t="s">
+      <c r="E457" s="13" t="s">
         <v>1611</v>
       </c>
       <c r="F457" t="str">
@@ -26115,7 +26080,7 @@
       </c>
     </row>
     <row r="458" spans="5:7">
-      <c r="E458" s="15" t="s">
+      <c r="E458" s="13" t="s">
         <v>1613</v>
       </c>
       <c r="F458" t="str">
@@ -26127,7 +26092,7 @@
       </c>
     </row>
     <row r="459" spans="5:7">
-      <c r="E459" s="15" t="s">
+      <c r="E459" s="13" t="s">
         <v>1615</v>
       </c>
       <c r="F459" t="str">
@@ -26139,7 +26104,7 @@
       </c>
     </row>
     <row r="460" spans="5:7">
-      <c r="E460" s="15" t="s">
+      <c r="E460" s="13" t="s">
         <v>1617</v>
       </c>
       <c r="F460" t="str">
@@ -26151,7 +26116,7 @@
       </c>
     </row>
     <row r="461" spans="5:7">
-      <c r="E461" s="15" t="s">
+      <c r="E461" s="13" t="s">
         <v>1619</v>
       </c>
       <c r="F461" t="str">
@@ -26163,7 +26128,7 @@
       </c>
     </row>
     <row r="462" spans="5:7">
-      <c r="E462" s="15" t="s">
+      <c r="E462" s="13" t="s">
         <v>1621</v>
       </c>
       <c r="F462" t="str">
@@ -26175,7 +26140,7 @@
       </c>
     </row>
     <row r="463" spans="5:7">
-      <c r="E463" s="15" t="s">
+      <c r="E463" s="13" t="s">
         <v>1622</v>
       </c>
       <c r="F463" t="str">
@@ -26187,7 +26152,7 @@
       </c>
     </row>
     <row r="464" spans="5:7">
-      <c r="E464" s="15" t="s">
+      <c r="E464" s="13" t="s">
         <v>1623</v>
       </c>
       <c r="F464" t="str">
@@ -26199,7 +26164,7 @@
       </c>
     </row>
     <row r="465" spans="5:7">
-      <c r="E465" s="15" t="s">
+      <c r="E465" s="13" t="s">
         <v>1624</v>
       </c>
       <c r="F465" t="str">
@@ -26211,7 +26176,7 @@
       </c>
     </row>
     <row r="466" spans="5:7">
-      <c r="E466" s="15" t="s">
+      <c r="E466" s="13" t="s">
         <v>1625</v>
       </c>
       <c r="F466" t="str">
@@ -26223,7 +26188,7 @@
       </c>
     </row>
     <row r="467" spans="5:7">
-      <c r="E467" s="15" t="s">
+      <c r="E467" s="13" t="s">
         <v>1626</v>
       </c>
       <c r="F467" t="str">
@@ -26235,7 +26200,7 @@
       </c>
     </row>
     <row r="468" spans="5:7">
-      <c r="E468" s="15" t="s">
+      <c r="E468" s="13" t="s">
         <v>1627</v>
       </c>
       <c r="F468" t="str">
@@ -26247,7 +26212,7 @@
       </c>
     </row>
     <row r="469" spans="5:7">
-      <c r="E469" s="15" t="s">
+      <c r="E469" s="13" t="s">
         <v>1628</v>
       </c>
       <c r="F469" t="str">
@@ -26259,7 +26224,7 @@
       </c>
     </row>
     <row r="470" spans="5:7">
-      <c r="E470" s="15" t="s">
+      <c r="E470" s="13" t="s">
         <v>1629</v>
       </c>
       <c r="F470" t="str">
@@ -26271,7 +26236,7 @@
       </c>
     </row>
     <row r="471" spans="5:7">
-      <c r="E471" s="15" t="s">
+      <c r="E471" s="13" t="s">
         <v>1630</v>
       </c>
       <c r="F471" t="str">
@@ -26283,7 +26248,7 @@
       </c>
     </row>
     <row r="472" spans="5:7">
-      <c r="E472" s="15" t="s">
+      <c r="E472" s="13" t="s">
         <v>1631</v>
       </c>
       <c r="F472" t="str">
@@ -26295,7 +26260,7 @@
       </c>
     </row>
     <row r="473" spans="5:7">
-      <c r="E473" s="15" t="s">
+      <c r="E473" s="13" t="s">
         <v>1632</v>
       </c>
       <c r="F473" t="str">
@@ -26307,7 +26272,7 @@
       </c>
     </row>
     <row r="474" spans="5:7">
-      <c r="E474" s="15" t="s">
+      <c r="E474" s="13" t="s">
         <v>1633</v>
       </c>
       <c r="F474" t="str">
@@ -26319,7 +26284,7 @@
       </c>
     </row>
     <row r="475" spans="5:7">
-      <c r="E475" s="15" t="s">
+      <c r="E475" s="13" t="s">
         <v>1635</v>
       </c>
       <c r="F475" t="str">
@@ -26331,7 +26296,7 @@
       </c>
     </row>
     <row r="476" spans="5:7">
-      <c r="E476" s="15" t="s">
+      <c r="E476" s="13" t="s">
         <v>1637</v>
       </c>
       <c r="F476" t="str">
@@ -26343,7 +26308,7 @@
       </c>
     </row>
     <row r="477" spans="5:7">
-      <c r="E477" s="15" t="s">
+      <c r="E477" s="13" t="s">
         <v>1639</v>
       </c>
       <c r="F477" t="str">
@@ -26355,7 +26320,7 @@
       </c>
     </row>
     <row r="478" spans="5:7">
-      <c r="E478" s="15" t="s">
+      <c r="E478" s="13" t="s">
         <v>1641</v>
       </c>
       <c r="F478" t="str">
@@ -26367,7 +26332,7 @@
       </c>
     </row>
     <row r="479" spans="5:7">
-      <c r="E479" s="15" t="s">
+      <c r="E479" s="13" t="s">
         <v>1643</v>
       </c>
       <c r="F479" t="str">
@@ -26379,7 +26344,7 @@
       </c>
     </row>
     <row r="480" spans="5:7">
-      <c r="E480" s="15" t="s">
+      <c r="E480" s="13" t="s">
         <v>1645</v>
       </c>
       <c r="F480" t="str">
@@ -26391,7 +26356,7 @@
       </c>
     </row>
     <row r="481" spans="5:7">
-      <c r="E481" s="15" t="s">
+      <c r="E481" s="13" t="s">
         <v>1647</v>
       </c>
       <c r="F481" t="str">
@@ -26403,7 +26368,7 @@
       </c>
     </row>
     <row r="482" spans="5:7">
-      <c r="E482" s="15" t="s">
+      <c r="E482" s="13" t="s">
         <v>1649</v>
       </c>
       <c r="F482" t="str">
@@ -26415,7 +26380,7 @@
       </c>
     </row>
     <row r="483" spans="5:7">
-      <c r="E483" s="15" t="s">
+      <c r="E483" s="13" t="s">
         <v>1651</v>
       </c>
       <c r="F483" t="str">
@@ -26427,67 +26392,67 @@
       </c>
     </row>
     <row r="484" spans="5:7">
-      <c r="E484" s="15" t="s">
+      <c r="E484" s="13" t="s">
         <v>1653</v>
       </c>
       <c r="F484" t="str">
         <f>菜单SAAS版!E95</f>
         <v>iam_menu-95</v>
       </c>
-      <c r="G484" s="17" t="s">
+      <c r="G484" s="15" t="s">
         <v>1586</v>
       </c>
     </row>
     <row r="485" spans="5:7">
-      <c r="E485" s="15" t="s">
+      <c r="E485" s="13" t="s">
         <v>1654</v>
       </c>
       <c r="F485" t="str">
         <f>菜单SAAS版!E142</f>
         <v>iam_menu-142</v>
       </c>
-      <c r="G485" s="19" t="s">
+      <c r="G485" s="17" t="s">
         <v>1588</v>
       </c>
     </row>
     <row r="486" spans="5:7">
-      <c r="E486" s="15" t="s">
+      <c r="E486" s="13" t="s">
         <v>1655</v>
       </c>
       <c r="F486" t="str">
         <f>菜单SAAS版!E138</f>
         <v>iam_menu-138</v>
       </c>
-      <c r="G486" s="20" t="s">
+      <c r="G486" s="18" t="s">
         <v>1590</v>
       </c>
     </row>
     <row r="487" spans="5:7">
-      <c r="E487" s="15" t="s">
+      <c r="E487" s="13" t="s">
         <v>1656</v>
       </c>
       <c r="F487" t="str">
         <f>菜单SAAS版!E97</f>
         <v>iam_menu-97</v>
       </c>
-      <c r="G487" s="21" t="s">
+      <c r="G487" s="19" t="s">
         <v>1657</v>
       </c>
     </row>
     <row r="488" spans="5:7">
-      <c r="E488" s="15" t="s">
+      <c r="E488" s="13" t="s">
         <v>1658</v>
       </c>
       <c r="F488" t="str">
         <f>菜单SAAS版!E92</f>
         <v>iam_menu-92</v>
       </c>
-      <c r="G488" s="17" t="s">
+      <c r="G488" s="15" t="s">
         <v>1659</v>
       </c>
     </row>
     <row r="489" spans="5:7">
-      <c r="E489" s="22" t="s">
+      <c r="E489" s="20" t="s">
         <v>1660</v>
       </c>
       <c r="F489" t="str">
@@ -26499,314 +26464,314 @@
       </c>
     </row>
     <row r="490" spans="5:7">
-      <c r="E490" s="21" t="s">
+      <c r="E490" s="19" t="s">
         <v>1662</v>
       </c>
-      <c r="F490" s="21" t="str">
+      <c r="F490" s="19" t="str">
         <f>菜单SAAS版!E147</f>
         <v>iam_menu-147</v>
       </c>
-      <c r="G490" s="21" t="s">
+      <c r="G490" s="19" t="s">
         <v>1663</v>
       </c>
     </row>
     <row r="491" spans="5:7">
-      <c r="E491" s="20" t="s">
+      <c r="E491" s="18" t="s">
         <v>1664</v>
       </c>
-      <c r="F491" s="20" t="str">
+      <c r="F491" s="18" t="str">
         <f>菜单SAAS版!E157</f>
         <v>iam_menu-157</v>
       </c>
-      <c r="G491" s="20" t="s">
+      <c r="G491" s="18" t="s">
         <v>1665</v>
       </c>
     </row>
     <row r="492" spans="5:7">
-      <c r="E492" s="20" t="s">
+      <c r="E492" s="18" t="s">
         <v>1666</v>
       </c>
-      <c r="F492" s="20" t="str">
+      <c r="F492" s="18" t="str">
         <f>菜单SAAS版!E103</f>
         <v>iam_menu-103</v>
       </c>
-      <c r="G492" s="20" t="s">
+      <c r="G492" s="18" t="s">
         <v>1667</v>
       </c>
     </row>
-    <row r="493" s="15" customFormat="1" spans="5:7">
-      <c r="E493" s="15" t="s">
+    <row r="493" s="13" customFormat="1" spans="5:7">
+      <c r="E493" s="13" t="s">
         <v>1668</v>
       </c>
-      <c r="F493" s="15" t="str">
+      <c r="F493" s="13" t="str">
         <f>菜单SAAS版!E169</f>
         <v>iam_menu-169</v>
       </c>
-      <c r="G493" s="15" t="s">
+      <c r="G493" s="13" t="s">
         <v>1669</v>
       </c>
     </row>
     <row r="494" spans="5:7">
-      <c r="E494" s="15" t="s">
+      <c r="E494" s="13" t="s">
         <v>1670</v>
       </c>
-      <c r="F494" s="15" t="str">
+      <c r="F494" s="13" t="str">
         <f>菜单SAAS版!E141</f>
         <v>iam_menu-141</v>
       </c>
-      <c r="G494" s="15" t="s">
+      <c r="G494" s="13" t="s">
         <v>1056</v>
       </c>
     </row>
     <row r="495" spans="5:7">
-      <c r="E495" s="15" t="s">
+      <c r="E495" s="13" t="s">
         <v>1671</v>
       </c>
-      <c r="F495" s="15" t="str">
+      <c r="F495" s="13" t="str">
         <f>菜单SAAS版!E141</f>
         <v>iam_menu-141</v>
       </c>
-      <c r="G495" s="15" t="s">
+      <c r="G495" s="13" t="s">
         <v>1054</v>
       </c>
     </row>
     <row r="496" spans="5:7">
-      <c r="E496" s="15" t="s">
+      <c r="E496" s="13" t="s">
         <v>1672</v>
       </c>
-      <c r="F496" s="15" t="str">
+      <c r="F496" s="13" t="str">
         <f>菜单SAAS版!E141</f>
         <v>iam_menu-141</v>
       </c>
-      <c r="G496" s="15" t="s">
+      <c r="G496" s="13" t="s">
         <v>1058</v>
       </c>
     </row>
     <row r="497" spans="5:7">
-      <c r="E497" s="15" t="s">
+      <c r="E497" s="13" t="s">
         <v>1673</v>
       </c>
-      <c r="F497" s="15" t="str">
+      <c r="F497" s="13" t="str">
         <f>菜单SAAS版!E141</f>
         <v>iam_menu-141</v>
       </c>
-      <c r="G497" s="15" t="s">
+      <c r="G497" s="13" t="s">
         <v>1060</v>
       </c>
     </row>
     <row r="498" spans="5:7">
-      <c r="E498" s="15" t="s">
+      <c r="E498" s="13" t="s">
         <v>1674</v>
       </c>
-      <c r="F498" s="15" t="str">
+      <c r="F498" s="13" t="str">
         <f>菜单SAAS版!E151</f>
         <v>iam_menu-151</v>
       </c>
-      <c r="G498" s="15" t="s">
+      <c r="G498" s="13" t="s">
         <v>1056</v>
       </c>
     </row>
     <row r="499" spans="5:7">
-      <c r="E499" s="15" t="s">
+      <c r="E499" s="13" t="s">
         <v>1675</v>
       </c>
-      <c r="F499" s="15" t="str">
+      <c r="F499" s="13" t="str">
         <f>菜单SAAS版!E151</f>
         <v>iam_menu-151</v>
       </c>
-      <c r="G499" s="15" t="s">
+      <c r="G499" s="13" t="s">
         <v>1054</v>
       </c>
     </row>
     <row r="500" spans="5:7">
-      <c r="E500" s="15" t="s">
+      <c r="E500" s="13" t="s">
         <v>1676</v>
       </c>
-      <c r="F500" s="15" t="str">
+      <c r="F500" s="13" t="str">
         <f>菜单SAAS版!E151</f>
         <v>iam_menu-151</v>
       </c>
-      <c r="G500" s="15" t="s">
+      <c r="G500" s="13" t="s">
         <v>1058</v>
       </c>
     </row>
     <row r="501" spans="5:7">
-      <c r="E501" s="15" t="s">
+      <c r="E501" s="13" t="s">
         <v>1677</v>
       </c>
-      <c r="F501" s="15" t="str">
+      <c r="F501" s="13" t="str">
         <f>菜单SAAS版!E151</f>
         <v>iam_menu-151</v>
       </c>
-      <c r="G501" s="15" t="s">
+      <c r="G501" s="13" t="s">
         <v>1060</v>
       </c>
     </row>
     <row r="502" spans="5:7">
-      <c r="E502" s="17" t="s">
+      <c r="E502" s="15" t="s">
         <v>1678</v>
       </c>
-      <c r="F502" s="17" t="str">
+      <c r="F502" s="15" t="str">
         <f>菜单SAAS版!E95</f>
         <v>iam_menu-95</v>
       </c>
-      <c r="G502" s="17" t="s">
+      <c r="G502" s="15" t="s">
         <v>1679</v>
       </c>
     </row>
     <row r="503" spans="5:7">
-      <c r="E503" s="23" t="s">
+      <c r="E503" s="21" t="s">
         <v>1680</v>
       </c>
-      <c r="F503" s="23" t="str">
+      <c r="F503" s="21" t="str">
         <f>菜单SAAS版!E131</f>
         <v>iam_menu-131</v>
       </c>
-      <c r="G503" s="23" t="s">
+      <c r="G503" s="21" t="s">
         <v>1681</v>
       </c>
     </row>
     <row r="504" spans="5:7">
-      <c r="E504" s="23" t="s">
+      <c r="E504" s="21" t="s">
         <v>1682</v>
       </c>
-      <c r="F504" s="15" t="str">
+      <c r="F504" s="13" t="str">
         <f>菜单SAAS版!E47</f>
         <v>iam_menu-47</v>
       </c>
-      <c r="G504" s="15" t="s">
+      <c r="G504" s="13" t="s">
         <v>1683</v>
       </c>
     </row>
     <row r="505" spans="5:7">
-      <c r="E505" s="23" t="s">
+      <c r="E505" s="21" t="s">
         <v>1684</v>
       </c>
-      <c r="F505" s="15" t="str">
+      <c r="F505" s="13" t="str">
         <f>菜单SAAS版!E47</f>
         <v>iam_menu-47</v>
       </c>
-      <c r="G505" s="15" t="s">
+      <c r="G505" s="13" t="s">
         <v>1685</v>
       </c>
     </row>
     <row r="506" spans="5:7">
-      <c r="E506" s="23" t="s">
+      <c r="E506" s="21" t="s">
         <v>1686</v>
       </c>
-      <c r="F506" s="15" t="str">
+      <c r="F506" s="13" t="str">
         <f>菜单SAAS版!E48</f>
         <v>iam_menu-48</v>
       </c>
-      <c r="G506" s="15" t="s">
+      <c r="G506" s="13" t="s">
         <v>1683</v>
       </c>
     </row>
     <row r="507" spans="5:7">
-      <c r="E507" s="23" t="s">
+      <c r="E507" s="21" t="s">
         <v>1687</v>
       </c>
-      <c r="F507" s="15" t="str">
+      <c r="F507" s="13" t="str">
         <f>菜单SAAS版!E48</f>
         <v>iam_menu-48</v>
       </c>
-      <c r="G507" s="15" t="s">
+      <c r="G507" s="13" t="s">
         <v>1685</v>
       </c>
     </row>
     <row r="508" spans="5:7">
-      <c r="E508" s="23" t="s">
+      <c r="E508" s="21" t="s">
         <v>1688</v>
       </c>
-      <c r="F508" s="15" t="str">
+      <c r="F508" s="13" t="str">
         <f>菜单SAAS版!E49</f>
         <v>iam_menu-49</v>
       </c>
-      <c r="G508" s="15" t="s">
+      <c r="G508" s="13" t="s">
         <v>1683</v>
       </c>
     </row>
     <row r="509" spans="5:7">
-      <c r="E509" s="23" t="s">
+      <c r="E509" s="21" t="s">
         <v>1689</v>
       </c>
-      <c r="F509" s="15" t="str">
+      <c r="F509" s="13" t="str">
         <f>菜单SAAS版!E49</f>
         <v>iam_menu-49</v>
       </c>
-      <c r="G509" s="15" t="s">
+      <c r="G509" s="13" t="s">
         <v>1685</v>
       </c>
     </row>
     <row r="510" spans="5:7">
-      <c r="E510" s="23" t="s">
+      <c r="E510" s="21" t="s">
         <v>1690</v>
       </c>
-      <c r="F510" s="15" t="str">
+      <c r="F510" s="13" t="str">
         <f>菜单SAAS版!E52</f>
         <v>iam_menu-52</v>
       </c>
-      <c r="G510" s="15" t="s">
+      <c r="G510" s="13" t="s">
         <v>1683</v>
       </c>
     </row>
     <row r="511" spans="5:7">
-      <c r="E511" s="23" t="s">
+      <c r="E511" s="21" t="s">
         <v>1691</v>
       </c>
-      <c r="F511" s="15" t="str">
+      <c r="F511" s="13" t="str">
         <f>菜单SAAS版!E52</f>
         <v>iam_menu-52</v>
       </c>
-      <c r="G511" s="15" t="s">
+      <c r="G511" s="13" t="s">
         <v>1685</v>
       </c>
     </row>
     <row r="512" spans="5:7">
-      <c r="E512" s="23" t="s">
+      <c r="E512" s="21" t="s">
         <v>1692</v>
       </c>
-      <c r="F512" s="15" t="str">
+      <c r="F512" s="13" t="str">
         <f>菜单SAAS版!E53</f>
         <v>iam_menu-53</v>
       </c>
-      <c r="G512" s="15" t="s">
+      <c r="G512" s="13" t="s">
         <v>1683</v>
       </c>
     </row>
     <row r="513" spans="5:7">
-      <c r="E513" s="23" t="s">
+      <c r="E513" s="21" t="s">
         <v>1693</v>
       </c>
-      <c r="F513" s="15" t="str">
+      <c r="F513" s="13" t="str">
         <f>菜单SAAS版!E53</f>
         <v>iam_menu-53</v>
       </c>
-      <c r="G513" s="15" t="s">
+      <c r="G513" s="13" t="s">
         <v>1685</v>
       </c>
     </row>
     <row r="514" spans="5:7">
-      <c r="E514" s="23" t="s">
+      <c r="E514" s="21" t="s">
         <v>1694</v>
       </c>
-      <c r="F514" s="15" t="str">
+      <c r="F514" s="13" t="str">
         <f>菜单SAAS版!E54</f>
         <v>iam_menu-54</v>
       </c>
-      <c r="G514" s="15" t="s">
+      <c r="G514" s="13" t="s">
         <v>1683</v>
       </c>
     </row>
     <row r="515" spans="5:7">
-      <c r="E515" s="23" t="s">
+      <c r="E515" s="21" t="s">
         <v>1695</v>
       </c>
-      <c r="F515" s="15" t="str">
+      <c r="F515" s="13" t="str">
         <f>菜单SAAS版!E54</f>
         <v>iam_menu-54</v>
       </c>
-      <c r="G515" s="15" t="s">
+      <c r="G515" s="13" t="s">
         <v>1685</v>
       </c>
     </row>
@@ -26991,91 +26956,91 @@
       </c>
     </row>
     <row r="531" spans="5:7">
-      <c r="E531" s="17" t="s">
+      <c r="E531" s="15" t="s">
         <v>1722</v>
       </c>
-      <c r="F531" s="17" t="str">
+      <c r="F531" s="15" t="str">
         <f>菜单SAAS版!E20</f>
         <v>iam_menu-20</v>
       </c>
-      <c r="G531" s="17" t="s">
+      <c r="G531" s="15" t="s">
         <v>1723</v>
       </c>
     </row>
-    <row r="532" s="16" customFormat="1" spans="5:7">
-      <c r="E532" s="16" t="s">
+    <row r="532" s="14" customFormat="1" spans="5:7">
+      <c r="E532" s="14" t="s">
         <v>1724</v>
       </c>
-      <c r="F532" s="16" t="str">
+      <c r="F532" s="14" t="str">
         <f>菜单SAAS版!$E$177</f>
         <v>iam_menu-177</v>
       </c>
-      <c r="G532" s="16" t="s">
+      <c r="G532" s="14" t="s">
         <v>1725</v>
       </c>
     </row>
-    <row r="533" s="16" customFormat="1" spans="5:7">
-      <c r="E533" s="16" t="s">
+    <row r="533" s="14" customFormat="1" spans="5:7">
+      <c r="E533" s="14" t="s">
         <v>1726</v>
       </c>
-      <c r="F533" s="16" t="str">
+      <c r="F533" s="14" t="str">
         <f>菜单SAAS版!$E$178</f>
         <v>iam_menu-178</v>
       </c>
-      <c r="G533" s="16" t="s">
+      <c r="G533" s="14" t="s">
         <v>1727</v>
       </c>
     </row>
-    <row r="534" s="16" customFormat="1" spans="5:7">
-      <c r="E534" s="16" t="s">
+    <row r="534" s="14" customFormat="1" spans="5:7">
+      <c r="E534" s="14" t="s">
         <v>1728</v>
       </c>
-      <c r="F534" s="16" t="str">
+      <c r="F534" s="14" t="str">
         <f>菜单SAAS版!$E$179</f>
         <v>iam_menu-179</v>
       </c>
-      <c r="G534" s="16" t="s">
+      <c r="G534" s="14" t="s">
         <v>1729</v>
       </c>
     </row>
-    <row r="535" s="16" customFormat="1" spans="5:7">
-      <c r="E535" s="16" t="s">
+    <row r="535" s="14" customFormat="1" spans="5:7">
+      <c r="E535" s="14" t="s">
         <v>1730</v>
       </c>
-      <c r="F535" s="16" t="str">
+      <c r="F535" s="14" t="str">
         <f>菜单SAAS版!$E$180</f>
         <v>iam_menu-180</v>
       </c>
-      <c r="G535" s="16" t="s">
+      <c r="G535" s="14" t="s">
         <v>1729</v>
       </c>
     </row>
-    <row r="536" s="16" customFormat="1" spans="5:7">
-      <c r="E536" s="16" t="s">
+    <row r="536" s="14" customFormat="1" spans="5:7">
+      <c r="E536" s="14" t="s">
         <v>1731</v>
       </c>
-      <c r="F536" s="16" t="str">
+      <c r="F536" s="14" t="str">
         <f>菜单SAAS版!$E$176</f>
         <v>iam_menu-176</v>
       </c>
-      <c r="G536" s="16" t="s">
+      <c r="G536" s="14" t="s">
         <v>1169</v>
       </c>
     </row>
-    <row r="537" s="16" customFormat="1" spans="5:7">
-      <c r="E537" s="16" t="s">
+    <row r="537" s="14" customFormat="1" spans="5:7">
+      <c r="E537" s="14" t="s">
         <v>1732</v>
       </c>
-      <c r="F537" s="16" t="str">
+      <c r="F537" s="14" t="str">
         <f>菜单SAAS版!$E$176</f>
         <v>iam_menu-176</v>
       </c>
-      <c r="G537" s="16" t="s">
+      <c r="G537" s="14" t="s">
         <v>1171</v>
       </c>
     </row>
     <row r="538" spans="5:7">
-      <c r="E538" s="16" t="s">
+      <c r="E538" s="14" t="s">
         <v>1733</v>
       </c>
       <c r="F538" t="str">
@@ -27087,7 +27052,7 @@
       </c>
     </row>
     <row r="539" spans="5:7">
-      <c r="E539" s="16" t="s">
+      <c r="E539" s="14" t="s">
         <v>1735</v>
       </c>
       <c r="F539" t="str">
@@ -27099,7 +27064,7 @@
       </c>
     </row>
     <row r="540" spans="5:7">
-      <c r="E540" s="16" t="s">
+      <c r="E540" s="14" t="s">
         <v>1737</v>
       </c>
       <c r="F540" t="str">
@@ -27111,7 +27076,7 @@
       </c>
     </row>
     <row r="541" spans="5:7">
-      <c r="E541" s="16" t="s">
+      <c r="E541" s="14" t="s">
         <v>1739</v>
       </c>
       <c r="F541" t="str">
@@ -27122,56 +27087,56 @@
         <v>1740</v>
       </c>
     </row>
-    <row r="542" s="17" customFormat="1" spans="5:7">
-      <c r="E542" s="17" t="s">
+    <row r="542" s="15" customFormat="1" spans="5:7">
+      <c r="E542" s="15" t="s">
         <v>1741</v>
       </c>
-      <c r="F542" s="17" t="str">
+      <c r="F542" s="15" t="str">
         <f>菜单SAAS版!$E$43</f>
         <v>iam_menu-43</v>
       </c>
-      <c r="G542" s="17" t="s">
+      <c r="G542" s="15" t="s">
         <v>1742</v>
       </c>
     </row>
     <row r="543" spans="5:7">
-      <c r="E543" s="23" t="s">
+      <c r="E543" s="21" t="s">
         <v>1743</v>
       </c>
-      <c r="F543" s="23" t="str">
+      <c r="F543" s="21" t="str">
         <f>菜单SAAS版!E95</f>
         <v>iam_menu-95</v>
       </c>
-      <c r="G543" s="23" t="s">
+      <c r="G543" s="21" t="s">
         <v>1744</v>
       </c>
     </row>
     <row r="544" spans="5:7">
-      <c r="E544" s="23" t="s">
+      <c r="E544" s="21" t="s">
         <v>1745</v>
       </c>
-      <c r="F544" s="23" t="str">
+      <c r="F544" s="21" t="str">
         <f>菜单SAAS版!E17</f>
         <v>iam_menu-17</v>
       </c>
-      <c r="G544" s="23" t="s">
+      <c r="G544" s="21" t="s">
         <v>1746</v>
       </c>
     </row>
     <row r="545" spans="5:7">
-      <c r="E545" s="20" t="s">
+      <c r="E545" s="18" t="s">
         <v>1747</v>
       </c>
-      <c r="F545" s="20" t="str">
+      <c r="F545" s="18" t="str">
         <f>菜单SAAS版!E147</f>
         <v>iam_menu-147</v>
       </c>
-      <c r="G545" s="20" t="s">
+      <c r="G545" s="18" t="s">
         <v>1748</v>
       </c>
     </row>
     <row r="546" spans="5:7">
-      <c r="E546" s="20" t="s">
+      <c r="E546" s="18" t="s">
         <v>1749</v>
       </c>
       <c r="F546" t="str">
@@ -27183,7 +27148,7 @@
       </c>
     </row>
     <row r="547" spans="5:7">
-      <c r="E547" s="20" t="s">
+      <c r="E547" s="18" t="s">
         <v>1751</v>
       </c>
       <c r="F547" t="str">
@@ -27195,7 +27160,7 @@
       </c>
     </row>
     <row r="548" spans="5:7">
-      <c r="E548" s="20" t="s">
+      <c r="E548" s="18" t="s">
         <v>1752</v>
       </c>
       <c r="F548" t="str">
@@ -27207,7 +27172,7 @@
       </c>
     </row>
     <row r="549" spans="5:7">
-      <c r="E549" s="20" t="s">
+      <c r="E549" s="18" t="s">
         <v>1754</v>
       </c>
       <c r="F549" t="str">
@@ -27219,7 +27184,7 @@
       </c>
     </row>
     <row r="550" spans="5:7">
-      <c r="E550" s="20" t="s">
+      <c r="E550" s="18" t="s">
         <v>1755</v>
       </c>
       <c r="F550" t="str">
@@ -27231,7 +27196,7 @@
       </c>
     </row>
     <row r="551" spans="5:7">
-      <c r="E551" s="20" t="s">
+      <c r="E551" s="18" t="s">
         <v>1757</v>
       </c>
       <c r="F551" t="str">
@@ -27243,7 +27208,7 @@
       </c>
     </row>
     <row r="552" spans="5:7">
-      <c r="E552" s="20" t="s">
+      <c r="E552" s="18" t="s">
         <v>1758</v>
       </c>
       <c r="F552" t="str">
@@ -27255,7 +27220,7 @@
       </c>
     </row>
     <row r="553" spans="5:7">
-      <c r="E553" s="20" t="s">
+      <c r="E553" s="18" t="s">
         <v>1759</v>
       </c>
       <c r="F553" t="str">
@@ -27267,7 +27232,7 @@
       </c>
     </row>
     <row r="554" spans="5:7">
-      <c r="E554" s="20" t="s">
+      <c r="E554" s="18" t="s">
         <v>1761</v>
       </c>
       <c r="F554" t="str">
@@ -27279,7 +27244,7 @@
       </c>
     </row>
     <row r="555" spans="5:7">
-      <c r="E555" s="20" t="s">
+      <c r="E555" s="18" t="s">
         <v>1762</v>
       </c>
       <c r="F555" t="str">
@@ -27291,26 +27256,26 @@
       </c>
     </row>
     <row r="556" spans="5:7">
-      <c r="E556" s="17" t="s">
+      <c r="E556" s="15" t="s">
         <v>1763</v>
       </c>
-      <c r="F556" s="17" t="str">
+      <c r="F556" s="15" t="str">
         <f>菜单SAAS版!E141</f>
         <v>iam_menu-141</v>
       </c>
-      <c r="G556" s="17" t="s">
+      <c r="G556" s="15" t="s">
         <v>1764</v>
       </c>
     </row>
     <row r="557" spans="5:7">
-      <c r="E557" s="17" t="s">
+      <c r="E557" s="15" t="s">
         <v>1765</v>
       </c>
-      <c r="F557" s="17" t="str">
+      <c r="F557" s="15" t="str">
         <f>菜单SAAS版!E151</f>
         <v>iam_menu-151</v>
       </c>
-      <c r="G557" s="17" t="s">
+      <c r="G557" s="15" t="s">
         <v>1764</v>
       </c>
     </row>
@@ -27494,495 +27459,495 @@
         <v>1790</v>
       </c>
     </row>
-    <row r="573" s="18" customFormat="1" spans="5:7">
-      <c r="E573" s="18" t="s">
+    <row r="573" s="16" customFormat="1" spans="5:7">
+      <c r="E573" s="16" t="s">
         <v>1791</v>
       </c>
-      <c r="F573" s="18" t="str">
+      <c r="F573" s="16" t="str">
         <f>菜单SAAS版!E20</f>
         <v>iam_menu-20</v>
       </c>
-      <c r="G573" s="18" t="s">
+      <c r="G573" s="16" t="s">
         <v>1792</v>
       </c>
     </row>
     <row r="574" spans="5:7">
-      <c r="E574" s="18" t="s">
+      <c r="E574" s="16" t="s">
         <v>1793</v>
       </c>
-      <c r="F574" s="18" t="str">
+      <c r="F574" s="16" t="str">
         <f>菜单SAAS版!E20</f>
         <v>iam_menu-20</v>
       </c>
-      <c r="G574" s="18" t="s">
+      <c r="G574" s="16" t="s">
         <v>1794</v>
       </c>
     </row>
     <row r="575" spans="5:7">
-      <c r="E575" s="18" t="s">
+      <c r="E575" s="16" t="s">
         <v>1795</v>
       </c>
-      <c r="F575" s="18" t="str">
+      <c r="F575" s="16" t="str">
         <f>菜单SAAS版!E20</f>
         <v>iam_menu-20</v>
       </c>
-      <c r="G575" s="18" t="s">
+      <c r="G575" s="16" t="s">
         <v>1796</v>
       </c>
     </row>
     <row r="576" spans="5:7">
-      <c r="E576" s="18" t="s">
+      <c r="E576" s="16" t="s">
         <v>1797</v>
       </c>
-      <c r="F576" s="18" t="str">
+      <c r="F576" s="16" t="str">
         <f>菜单SAAS版!E20</f>
         <v>iam_menu-20</v>
       </c>
-      <c r="G576" s="18" t="s">
+      <c r="G576" s="16" t="s">
         <v>1798</v>
       </c>
     </row>
-    <row r="577" s="18" customFormat="1" spans="5:7">
-      <c r="E577" s="18" t="s">
+    <row r="577" s="16" customFormat="1" spans="5:7">
+      <c r="E577" s="16" t="s">
         <v>1799</v>
       </c>
-      <c r="F577" s="18" t="str">
+      <c r="F577" s="16" t="str">
         <f>菜单SAAS版!E67</f>
         <v>iam_menu-67</v>
       </c>
-      <c r="G577" s="18" t="s">
+      <c r="G577" s="16" t="s">
         <v>1792</v>
       </c>
     </row>
     <row r="578" spans="5:7">
-      <c r="E578" s="18" t="s">
+      <c r="E578" s="16" t="s">
         <v>1800</v>
       </c>
-      <c r="F578" s="18" t="str">
+      <c r="F578" s="16" t="str">
         <f>菜单SAAS版!E67</f>
         <v>iam_menu-67</v>
       </c>
-      <c r="G578" s="18" t="s">
+      <c r="G578" s="16" t="s">
         <v>1794</v>
       </c>
     </row>
     <row r="579" spans="5:7">
-      <c r="E579" s="18" t="s">
+      <c r="E579" s="16" t="s">
         <v>1801</v>
       </c>
-      <c r="F579" s="18" t="str">
+      <c r="F579" s="16" t="str">
         <f>菜单SAAS版!E67</f>
         <v>iam_menu-67</v>
       </c>
-      <c r="G579" s="18" t="s">
+      <c r="G579" s="16" t="s">
         <v>1796</v>
       </c>
     </row>
     <row r="580" spans="5:7">
-      <c r="E580" s="18" t="s">
+      <c r="E580" s="16" t="s">
         <v>1802</v>
       </c>
-      <c r="F580" s="18" t="str">
+      <c r="F580" s="16" t="str">
         <f>菜单SAAS版!E67</f>
         <v>iam_menu-67</v>
       </c>
-      <c r="G580" s="18" t="s">
+      <c r="G580" s="16" t="s">
         <v>1798</v>
       </c>
     </row>
-    <row r="581" s="18" customFormat="1" spans="5:7">
-      <c r="E581" s="18" t="s">
+    <row r="581" s="16" customFormat="1" spans="5:7">
+      <c r="E581" s="16" t="s">
         <v>1803</v>
       </c>
-      <c r="F581" s="18" t="str">
+      <c r="F581" s="16" t="str">
         <f>菜单SAAS版!E78</f>
         <v>iam_menu-78</v>
       </c>
-      <c r="G581" s="18" t="s">
+      <c r="G581" s="16" t="s">
         <v>1792</v>
       </c>
     </row>
     <row r="582" spans="5:7">
-      <c r="E582" s="18" t="s">
+      <c r="E582" s="16" t="s">
         <v>1804</v>
       </c>
-      <c r="F582" s="18" t="str">
+      <c r="F582" s="16" t="str">
         <f>菜单SAAS版!E78</f>
         <v>iam_menu-78</v>
       </c>
-      <c r="G582" s="18" t="s">
+      <c r="G582" s="16" t="s">
         <v>1794</v>
       </c>
     </row>
     <row r="583" spans="5:7">
-      <c r="E583" s="18" t="s">
+      <c r="E583" s="16" t="s">
         <v>1805</v>
       </c>
-      <c r="F583" s="18" t="str">
+      <c r="F583" s="16" t="str">
         <f>菜单SAAS版!E78</f>
         <v>iam_menu-78</v>
       </c>
-      <c r="G583" s="18" t="s">
+      <c r="G583" s="16" t="s">
         <v>1796</v>
       </c>
     </row>
     <row r="584" spans="5:7">
-      <c r="E584" s="18" t="s">
+      <c r="E584" s="16" t="s">
         <v>1806</v>
       </c>
-      <c r="F584" s="18" t="str">
+      <c r="F584" s="16" t="str">
         <f>菜单SAAS版!E78</f>
         <v>iam_menu-78</v>
       </c>
-      <c r="G584" s="18" t="s">
+      <c r="G584" s="16" t="s">
         <v>1798</v>
       </c>
     </row>
     <row r="585" spans="5:7">
-      <c r="E585" s="18" t="s">
+      <c r="E585" s="16" t="s">
         <v>1807</v>
       </c>
-      <c r="F585" s="18" t="str">
+      <c r="F585" s="16" t="str">
         <f>菜单SAAS版!E85</f>
         <v>iam_menu-85</v>
       </c>
-      <c r="G585" s="18" t="s">
+      <c r="G585" s="16" t="s">
         <v>1808</v>
       </c>
     </row>
     <row r="586" spans="5:7">
-      <c r="E586" s="18" t="s">
+      <c r="E586" s="16" t="s">
         <v>1809</v>
       </c>
-      <c r="F586" s="18" t="str">
+      <c r="F586" s="16" t="str">
         <f>菜单SAAS版!E85</f>
         <v>iam_menu-85</v>
       </c>
-      <c r="G586" s="18" t="s">
+      <c r="G586" s="16" t="s">
         <v>1810</v>
       </c>
     </row>
     <row r="587" spans="5:7">
-      <c r="E587" s="18" t="s">
+      <c r="E587" s="16" t="s">
         <v>1811</v>
       </c>
-      <c r="F587" s="18" t="str">
+      <c r="F587" s="16" t="str">
         <f>菜单SAAS版!E182</f>
         <v>iam_menu-182</v>
       </c>
-      <c r="G587" s="18" t="s">
+      <c r="G587" s="16" t="s">
         <v>1812</v>
       </c>
     </row>
     <row r="588" spans="5:7">
-      <c r="E588" s="18" t="s">
+      <c r="E588" s="16" t="s">
         <v>1813</v>
       </c>
-      <c r="F588" s="18" t="str">
+      <c r="F588" s="16" t="str">
         <f>菜单SAAS版!E182</f>
         <v>iam_menu-182</v>
       </c>
-      <c r="G588" s="18" t="s">
+      <c r="G588" s="16" t="s">
         <v>1808</v>
       </c>
     </row>
     <row r="589" spans="5:7">
-      <c r="E589" s="18" t="s">
+      <c r="E589" s="16" t="s">
         <v>1814</v>
       </c>
-      <c r="F589" s="18" t="str">
+      <c r="F589" s="16" t="str">
         <f>菜单SAAS版!E182</f>
         <v>iam_menu-182</v>
       </c>
-      <c r="G589" s="18" t="s">
+      <c r="G589" s="16" t="s">
         <v>1810</v>
       </c>
     </row>
-    <row r="590" s="17" customFormat="1" spans="5:7">
-      <c r="E590" s="17" t="s">
+    <row r="590" s="15" customFormat="1" spans="5:7">
+      <c r="E590" s="15" t="s">
         <v>1815</v>
       </c>
-      <c r="F590" s="17" t="str">
+      <c r="F590" s="15" t="str">
         <f>菜单SAAS版!E46</f>
         <v>iam_menu-46</v>
       </c>
-      <c r="G590" s="17" t="s">
+      <c r="G590" s="15" t="s">
         <v>1816</v>
       </c>
     </row>
-    <row r="591" s="10" customFormat="1" spans="5:7">
-      <c r="E591" s="10" t="s">
+    <row r="591" s="6" customFormat="1" spans="5:7">
+      <c r="E591" s="6" t="s">
         <v>1817</v>
       </c>
-      <c r="F591" s="10" t="str">
+      <c r="F591" s="6" t="str">
         <f>菜单SAAS版!E186</f>
         <v>iam_menu-186</v>
       </c>
-      <c r="G591" s="24" t="s">
+      <c r="G591" s="22" t="s">
         <v>1818</v>
       </c>
     </row>
-    <row r="592" s="10" customFormat="1" spans="5:7">
-      <c r="E592" s="10" t="s">
+    <row r="592" s="6" customFormat="1" spans="5:7">
+      <c r="E592" s="6" t="s">
         <v>1819</v>
       </c>
-      <c r="F592" s="10" t="str">
+      <c r="F592" s="6" t="str">
         <f>菜单SAAS版!E187</f>
         <v>iam_menu-187</v>
       </c>
-      <c r="G592" s="24" t="s">
+      <c r="G592" s="22" t="s">
         <v>1820</v>
       </c>
     </row>
-    <row r="593" s="10" customFormat="1" spans="5:7">
-      <c r="E593" s="10" t="s">
+    <row r="593" s="6" customFormat="1" spans="5:7">
+      <c r="E593" s="6" t="s">
         <v>1821</v>
       </c>
-      <c r="F593" s="10" t="str">
+      <c r="F593" s="6" t="str">
         <f>菜单SAAS版!E187</f>
         <v>iam_menu-187</v>
       </c>
-      <c r="G593" s="24" t="s">
+      <c r="G593" s="22" t="s">
         <v>1822</v>
       </c>
     </row>
-    <row r="594" s="10" customFormat="1" spans="5:7">
-      <c r="E594" s="10" t="s">
+    <row r="594" s="6" customFormat="1" spans="5:7">
+      <c r="E594" s="6" t="s">
         <v>1823</v>
       </c>
-      <c r="F594" s="10" t="str">
+      <c r="F594" s="6" t="str">
         <f>菜单SAAS版!E187</f>
         <v>iam_menu-187</v>
       </c>
-      <c r="G594" s="24" t="s">
+      <c r="G594" s="22" t="s">
         <v>1824</v>
       </c>
     </row>
-    <row r="595" s="10" customFormat="1" spans="5:7">
-      <c r="E595" s="10" t="s">
+    <row r="595" s="6" customFormat="1" spans="5:7">
+      <c r="E595" s="6" t="s">
         <v>1825</v>
       </c>
-      <c r="F595" s="10" t="str">
+      <c r="F595" s="6" t="str">
         <f>菜单SAAS版!E187</f>
         <v>iam_menu-187</v>
       </c>
-      <c r="G595" s="24" t="s">
+      <c r="G595" s="22" t="s">
         <v>1826</v>
       </c>
     </row>
-    <row r="596" s="10" customFormat="1" spans="5:7">
-      <c r="E596" s="10" t="s">
+    <row r="596" s="6" customFormat="1" spans="5:7">
+      <c r="E596" s="6" t="s">
         <v>1827</v>
       </c>
-      <c r="F596" s="10" t="str">
+      <c r="F596" s="6" t="str">
         <f>菜单SAAS版!E188</f>
         <v>iam_menu-188</v>
       </c>
-      <c r="G596" s="24" t="s">
+      <c r="G596" s="22" t="s">
         <v>1828</v>
       </c>
     </row>
-    <row r="597" s="10" customFormat="1" spans="5:7">
-      <c r="E597" s="10" t="s">
+    <row r="597" s="6" customFormat="1" spans="5:7">
+      <c r="E597" s="6" t="s">
         <v>1829</v>
       </c>
-      <c r="F597" s="10" t="str">
+      <c r="F597" s="6" t="str">
         <f>菜单SAAS版!E188</f>
         <v>iam_menu-188</v>
       </c>
-      <c r="G597" s="24" t="s">
+      <c r="G597" s="22" t="s">
         <v>1820</v>
       </c>
     </row>
-    <row r="598" s="10" customFormat="1" spans="5:7">
-      <c r="E598" s="10" t="s">
+    <row r="598" s="6" customFormat="1" spans="5:7">
+      <c r="E598" s="6" t="s">
         <v>1830</v>
       </c>
-      <c r="F598" s="10" t="str">
+      <c r="F598" s="6" t="str">
         <f>菜单SAAS版!E188</f>
         <v>iam_menu-188</v>
       </c>
-      <c r="G598" s="24" t="s">
+      <c r="G598" s="22" t="s">
         <v>1822</v>
       </c>
     </row>
-    <row r="599" s="10" customFormat="1" spans="5:7">
-      <c r="E599" s="10" t="s">
+    <row r="599" s="6" customFormat="1" spans="5:7">
+      <c r="E599" s="6" t="s">
         <v>1831</v>
       </c>
-      <c r="F599" s="10" t="str">
+      <c r="F599" s="6" t="str">
         <f>菜单SAAS版!E189</f>
         <v>iam_menu-189</v>
       </c>
-      <c r="G599" s="24" t="s">
+      <c r="G599" s="22" t="s">
         <v>1832</v>
       </c>
     </row>
-    <row r="600" s="10" customFormat="1" spans="5:7">
-      <c r="E600" s="10" t="s">
+    <row r="600" s="6" customFormat="1" spans="5:7">
+      <c r="E600" s="6" t="s">
         <v>1833</v>
       </c>
-      <c r="F600" s="10" t="str">
+      <c r="F600" s="6" t="str">
         <f>菜单SAAS版!E190</f>
         <v>iam_menu-190</v>
       </c>
-      <c r="G600" s="24" t="s">
+      <c r="G600" s="22" t="s">
         <v>1834</v>
       </c>
     </row>
-    <row r="601" s="10" customFormat="1" spans="5:7">
-      <c r="E601" s="10" t="s">
+    <row r="601" s="6" customFormat="1" spans="5:7">
+      <c r="E601" s="6" t="s">
         <v>1835</v>
       </c>
-      <c r="F601" s="10" t="str">
+      <c r="F601" s="6" t="str">
         <f>菜单SAAS版!E191</f>
         <v>iam_menu-191</v>
       </c>
-      <c r="G601" s="24" t="s">
+      <c r="G601" s="22" t="s">
         <v>1836</v>
       </c>
     </row>
-    <row r="602" s="10" customFormat="1" spans="5:7">
-      <c r="E602" s="10" t="s">
+    <row r="602" s="6" customFormat="1" spans="5:7">
+      <c r="E602" s="6" t="s">
         <v>1837</v>
       </c>
-      <c r="F602" s="10" t="str">
+      <c r="F602" s="6" t="str">
         <f>菜单SAAS版!E192</f>
         <v>iam_menu-192</v>
       </c>
-      <c r="G602" s="24" t="s">
+      <c r="G602" s="22" t="s">
         <v>1838</v>
       </c>
     </row>
-    <row r="603" s="11" customFormat="1" spans="5:7">
-      <c r="E603" s="11" t="s">
+    <row r="603" s="7" customFormat="1" spans="5:7">
+      <c r="E603" s="7" t="s">
         <v>1839</v>
       </c>
-      <c r="F603" s="11" t="str">
+      <c r="F603" s="7" t="str">
         <f>菜单SAAS版!E194</f>
         <v>iam_menu-194</v>
       </c>
-      <c r="G603" s="25" t="s">
+      <c r="G603" s="23" t="s">
         <v>1840</v>
       </c>
     </row>
-    <row r="604" s="11" customFormat="1" spans="5:7">
-      <c r="E604" s="11" t="s">
+    <row r="604" s="7" customFormat="1" spans="5:7">
+      <c r="E604" s="7" t="s">
         <v>1841</v>
       </c>
-      <c r="F604" s="11" t="str">
+      <c r="F604" s="7" t="str">
         <f>菜单SAAS版!E195</f>
         <v>iam_menu-195</v>
       </c>
-      <c r="G604" s="25" t="s">
+      <c r="G604" s="23" t="s">
         <v>1842</v>
       </c>
     </row>
-    <row r="605" s="11" customFormat="1" spans="5:7">
-      <c r="E605" s="11" t="s">
+    <row r="605" s="7" customFormat="1" spans="5:7">
+      <c r="E605" s="7" t="s">
         <v>1843</v>
       </c>
-      <c r="F605" s="11" t="str">
+      <c r="F605" s="7" t="str">
         <f>菜单SAAS版!E195</f>
         <v>iam_menu-195</v>
       </c>
-      <c r="G605" s="25" t="s">
+      <c r="G605" s="23" t="s">
         <v>1844</v>
       </c>
     </row>
-    <row r="606" s="11" customFormat="1" spans="5:7">
-      <c r="E606" s="11" t="s">
+    <row r="606" s="7" customFormat="1" spans="5:7">
+      <c r="E606" s="7" t="s">
         <v>1845</v>
       </c>
-      <c r="F606" s="11" t="str">
+      <c r="F606" s="7" t="str">
         <f>菜单SAAS版!E195</f>
         <v>iam_menu-195</v>
       </c>
-      <c r="G606" s="25" t="s">
+      <c r="G606" s="23" t="s">
         <v>1826</v>
       </c>
     </row>
-    <row r="607" s="11" customFormat="1" spans="5:7">
-      <c r="E607" s="11" t="s">
+    <row r="607" s="7" customFormat="1" spans="5:7">
+      <c r="E607" s="7" t="s">
         <v>1846</v>
       </c>
-      <c r="F607" s="11" t="str">
+      <c r="F607" s="7" t="str">
         <f>菜单SAAS版!E196</f>
         <v>iam_menu-196</v>
       </c>
-      <c r="G607" s="25" t="s">
+      <c r="G607" s="23" t="s">
         <v>1847</v>
       </c>
     </row>
-    <row r="608" s="11" customFormat="1" spans="5:7">
-      <c r="E608" s="11" t="s">
+    <row r="608" s="7" customFormat="1" spans="5:7">
+      <c r="E608" s="7" t="s">
         <v>1848</v>
       </c>
-      <c r="F608" s="11" t="str">
+      <c r="F608" s="7" t="str">
         <f>菜单SAAS版!E196</f>
         <v>iam_menu-196</v>
       </c>
-      <c r="G608" s="25" t="s">
+      <c r="G608" s="23" t="s">
         <v>1842</v>
       </c>
     </row>
-    <row r="609" s="11" customFormat="1" spans="5:7">
-      <c r="E609" s="11" t="s">
+    <row r="609" s="7" customFormat="1" spans="5:7">
+      <c r="E609" s="7" t="s">
         <v>1849</v>
       </c>
-      <c r="F609" s="11" t="str">
+      <c r="F609" s="7" t="str">
         <f>菜单SAAS版!E196</f>
         <v>iam_menu-196</v>
       </c>
-      <c r="G609" s="25" t="s">
+      <c r="G609" s="23" t="s">
         <v>1844</v>
       </c>
     </row>
-    <row r="610" s="11" customFormat="1" spans="5:7">
-      <c r="E610" s="11" t="s">
+    <row r="610" s="7" customFormat="1" spans="5:7">
+      <c r="E610" s="7" t="s">
         <v>1850</v>
       </c>
-      <c r="F610" s="11" t="str">
+      <c r="F610" s="7" t="str">
         <f>菜单SAAS版!E197</f>
         <v>iam_menu-197</v>
       </c>
-      <c r="G610" s="25" t="s">
+      <c r="G610" s="23" t="s">
         <v>1851</v>
       </c>
     </row>
-    <row r="611" s="11" customFormat="1" spans="5:7">
-      <c r="E611" s="11" t="s">
+    <row r="611" s="7" customFormat="1" spans="5:7">
+      <c r="E611" s="7" t="s">
         <v>1852</v>
       </c>
-      <c r="F611" s="11" t="str">
+      <c r="F611" s="7" t="str">
         <f>菜单SAAS版!E198</f>
         <v>iam_menu-198</v>
       </c>
-      <c r="G611" s="25" t="s">
+      <c r="G611" s="23" t="s">
         <v>1853</v>
       </c>
     </row>
-    <row r="612" s="11" customFormat="1" spans="5:7">
-      <c r="E612" s="11" t="s">
+    <row r="612" s="7" customFormat="1" spans="5:7">
+      <c r="E612" s="7" t="s">
         <v>1854</v>
       </c>
-      <c r="F612" s="11" t="str">
+      <c r="F612" s="7" t="str">
         <f>菜单SAAS版!E199</f>
         <v>iam_menu-199</v>
       </c>
-      <c r="G612" s="25" t="s">
+      <c r="G612" s="23" t="s">
         <v>1855</v>
       </c>
     </row>
-    <row r="613" s="11" customFormat="1" spans="5:7">
-      <c r="E613" s="11" t="s">
+    <row r="613" s="7" customFormat="1" spans="5:7">
+      <c r="E613" s="7" t="s">
         <v>1856</v>
       </c>
-      <c r="F613" s="11" t="str">
+      <c r="F613" s="7" t="str">
         <f>菜单SAAS版!E200</f>
         <v>iam_menu-200</v>
       </c>
-      <c r="G613" s="25" t="s">
+      <c r="G613" s="23" t="s">
         <v>1857</v>
       </c>
     </row>
@@ -28038,13 +28003,13 @@
       <c r="A7" t="s">
         <v>1858</v>
       </c>
-      <c r="B7" s="12" t="s">
+      <c r="B7" s="10" t="s">
         <v>1859</v>
       </c>
       <c r="C7" t="s">
         <v>1860</v>
       </c>
-      <c r="D7" s="12" t="s">
+      <c r="D7" s="10" t="s">
         <v>1861</v>
       </c>
       <c r="E7" t="s">
@@ -28053,39 +28018,39 @@
       <c r="F7" t="s">
         <v>55</v>
       </c>
-      <c r="G7" s="12" t="s">
+      <c r="G7" s="10" t="s">
         <v>1862</v>
       </c>
-      <c r="H7" s="12" t="s">
+      <c r="H7" s="10" t="s">
         <v>1863</v>
       </c>
-      <c r="I7" s="12" t="s">
+      <c r="I7" s="10" t="s">
         <v>1864</v>
       </c>
-      <c r="J7" s="12" t="s">
+      <c r="J7" s="10" t="s">
         <v>1865</v>
       </c>
-      <c r="K7" s="12" t="s">
+      <c r="K7" s="10" t="s">
         <v>1866</v>
       </c>
     </row>
     <row r="8" spans="1:11">
-      <c r="A8" s="13"/>
-      <c r="B8" s="12"/>
-      <c r="D8" s="12"/>
-      <c r="E8" s="12" t="s">
+      <c r="A8" s="11"/>
+      <c r="B8" s="10"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="10" t="s">
         <v>1867</v>
       </c>
-      <c r="F8" s="12" t="s">
+      <c r="F8" s="10" t="s">
         <v>1868</v>
       </c>
-      <c r="G8" s="12" t="s">
+      <c r="G8" s="10" t="s">
         <v>1869</v>
       </c>
-      <c r="H8" s="12" t="s">
+      <c r="H8" s="10" t="s">
         <v>1870</v>
       </c>
-      <c r="I8" s="12" t="s">
+      <c r="I8" s="10" t="s">
         <v>1871</v>
       </c>
       <c r="J8">
@@ -28096,22 +28061,22 @@
       </c>
     </row>
     <row r="9" spans="1:11">
-      <c r="A9" s="13"/>
-      <c r="B9" s="12"/>
-      <c r="D9" s="12"/>
-      <c r="E9" s="12" t="s">
+      <c r="A9" s="11"/>
+      <c r="B9" s="10"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="10" t="s">
         <v>1867</v>
       </c>
-      <c r="F9" s="12" t="s">
+      <c r="F9" s="10" t="s">
         <v>1872</v>
       </c>
-      <c r="G9" s="12" t="s">
+      <c r="G9" s="10" t="s">
         <v>1873</v>
       </c>
-      <c r="H9" s="12" t="s">
+      <c r="H9" s="10" t="s">
         <v>1870</v>
       </c>
-      <c r="I9" s="14" t="s">
+      <c r="I9" s="12" t="s">
         <v>1874</v>
       </c>
       <c r="J9">
@@ -28169,13 +28134,13 @@
       </c>
     </row>
     <row r="12" spans="5:15">
-      <c r="E12" s="12" t="s">
+      <c r="E12" s="10" t="s">
         <v>1887</v>
       </c>
-      <c r="F12" s="12" t="s">
+      <c r="F12" s="10" t="s">
         <v>1869</v>
       </c>
-      <c r="G12" s="12" t="s">
+      <c r="G12" s="10" t="s">
         <v>1888</v>
       </c>
       <c r="H12">
@@ -28184,10 +28149,10 @@
       <c r="I12" t="s">
         <v>1889</v>
       </c>
-      <c r="J12" s="12" t="s">
+      <c r="J12" s="10" t="s">
         <v>1890</v>
       </c>
-      <c r="K12" s="12" t="s">
+      <c r="K12" s="10" t="s">
         <v>1891</v>
       </c>
       <c r="M12">
@@ -28201,13 +28166,13 @@
       </c>
     </row>
     <row r="13" spans="5:15">
-      <c r="E13" s="12" t="s">
+      <c r="E13" s="10" t="s">
         <v>1892</v>
       </c>
-      <c r="F13" s="12" t="s">
+      <c r="F13" s="10" t="s">
         <v>1873</v>
       </c>
-      <c r="G13" s="12" t="s">
+      <c r="G13" s="10" t="s">
         <v>1888</v>
       </c>
       <c r="H13">
@@ -28216,10 +28181,10 @@
       <c r="I13" t="s">
         <v>1889</v>
       </c>
-      <c r="J13" s="14" t="s">
+      <c r="J13" s="12" t="s">
         <v>1893</v>
       </c>
-      <c r="K13" s="12" t="s">
+      <c r="K13" s="10" t="s">
         <v>1894</v>
       </c>
       <c r="M13">
@@ -28326,13 +28291,13 @@
       </c>
     </row>
     <row r="17" spans="5:9">
-      <c r="E17" s="12" t="s">
+      <c r="E17" s="10" t="s">
         <v>1867</v>
       </c>
-      <c r="F17" s="12" t="s">
+      <c r="F17" s="10" t="s">
         <v>1888</v>
       </c>
-      <c r="G17" s="12" t="str">
+      <c r="G17" s="10" t="str">
         <f>菜单SAAS版!E124</f>
         <v>iam_menu-124</v>
       </c>
@@ -28340,15 +28305,15 @@
         <f>E12</f>
         <v>iam_label-1</v>
       </c>
-      <c r="I17" s="12" t="s">
+      <c r="I17" s="10" t="s">
         <v>1909</v>
       </c>
     </row>
     <row r="18" spans="5:9">
-      <c r="E18" s="12" t="s">
+      <c r="E18" s="10" t="s">
         <v>1867</v>
       </c>
-      <c r="F18" s="12" t="s">
+      <c r="F18" s="10" t="s">
         <v>1888</v>
       </c>
       <c r="G18" t="str">
@@ -28359,18 +28324,18 @@
         <f>E12</f>
         <v>iam_label-1</v>
       </c>
-      <c r="I18" s="12" t="s">
+      <c r="I18" s="10" t="s">
         <v>1909</v>
       </c>
     </row>
     <row r="19" spans="5:9">
-      <c r="E19" s="12" t="s">
+      <c r="E19" s="10" t="s">
         <v>1867</v>
       </c>
-      <c r="F19" s="12" t="s">
+      <c r="F19" s="10" t="s">
         <v>1888</v>
       </c>
-      <c r="G19" s="12" t="str">
+      <c r="G19" s="10" t="str">
         <f>菜单SAAS版!E152</f>
         <v>iam_menu-152</v>
       </c>
@@ -28378,15 +28343,15 @@
         <f>E12</f>
         <v>iam_label-1</v>
       </c>
-      <c r="I19" s="12" t="s">
+      <c r="I19" s="10" t="s">
         <v>1909</v>
       </c>
     </row>
     <row r="20" spans="5:9">
-      <c r="E20" s="12" t="s">
+      <c r="E20" s="10" t="s">
         <v>1867</v>
       </c>
-      <c r="F20" s="12" t="s">
+      <c r="F20" s="10" t="s">
         <v>1888</v>
       </c>
       <c r="G20" t="str">
@@ -28397,15 +28362,15 @@
         <f>E12</f>
         <v>iam_label-1</v>
       </c>
-      <c r="I20" s="12" t="s">
+      <c r="I20" s="10" t="s">
         <v>1909</v>
       </c>
     </row>
     <row r="21" spans="5:9">
-      <c r="E21" s="12" t="s">
+      <c r="E21" s="10" t="s">
         <v>1867</v>
       </c>
-      <c r="F21" s="12" t="s">
+      <c r="F21" s="10" t="s">
         <v>1888</v>
       </c>
       <c r="G21" t="str">
@@ -28416,15 +28381,15 @@
         <f>E12</f>
         <v>iam_label-1</v>
       </c>
-      <c r="I21" s="12" t="s">
+      <c r="I21" s="10" t="s">
         <v>1909</v>
       </c>
     </row>
     <row r="22" spans="5:9">
-      <c r="E22" s="12" t="s">
+      <c r="E22" s="10" t="s">
         <v>1867</v>
       </c>
-      <c r="F22" s="12" t="s">
+      <c r="F22" s="10" t="s">
         <v>1888</v>
       </c>
       <c r="G22" t="str">
@@ -28435,15 +28400,15 @@
         <f>E12</f>
         <v>iam_label-1</v>
       </c>
-      <c r="I22" s="12" t="s">
+      <c r="I22" s="10" t="s">
         <v>1909</v>
       </c>
     </row>
     <row r="23" spans="5:9">
-      <c r="E23" s="12" t="s">
+      <c r="E23" s="10" t="s">
         <v>1867</v>
       </c>
-      <c r="F23" s="12" t="s">
+      <c r="F23" s="10" t="s">
         <v>1888</v>
       </c>
       <c r="G23" t="str">
@@ -28454,15 +28419,15 @@
         <f>E12</f>
         <v>iam_label-1</v>
       </c>
-      <c r="I23" s="12" t="s">
+      <c r="I23" s="10" t="s">
         <v>1909</v>
       </c>
     </row>
     <row r="24" spans="5:9">
-      <c r="E24" s="12" t="s">
+      <c r="E24" s="10" t="s">
         <v>1867</v>
       </c>
-      <c r="F24" s="12" t="s">
+      <c r="F24" s="10" t="s">
         <v>1888</v>
       </c>
       <c r="G24" t="str">
@@ -28473,15 +28438,15 @@
         <f>E12</f>
         <v>iam_label-1</v>
       </c>
-      <c r="I24" s="12" t="s">
+      <c r="I24" s="10" t="s">
         <v>1909</v>
       </c>
     </row>
     <row r="25" spans="5:9">
-      <c r="E25" s="12" t="s">
+      <c r="E25" s="10" t="s">
         <v>1867</v>
       </c>
-      <c r="F25" s="12" t="s">
+      <c r="F25" s="10" t="s">
         <v>1888</v>
       </c>
       <c r="G25" t="str">
@@ -28492,15 +28457,15 @@
         <f>E12</f>
         <v>iam_label-1</v>
       </c>
-      <c r="I25" s="12" t="s">
+      <c r="I25" s="10" t="s">
         <v>1909</v>
       </c>
     </row>
     <row r="26" spans="5:9">
-      <c r="E26" s="12" t="s">
+      <c r="E26" s="10" t="s">
         <v>1867</v>
       </c>
-      <c r="F26" s="12" t="s">
+      <c r="F26" s="10" t="s">
         <v>1888</v>
       </c>
       <c r="G26" t="str">
@@ -28511,15 +28476,15 @@
         <f>E12</f>
         <v>iam_label-1</v>
       </c>
-      <c r="I26" s="12" t="s">
+      <c r="I26" s="10" t="s">
         <v>1909</v>
       </c>
     </row>
     <row r="27" spans="5:9">
-      <c r="E27" s="12" t="s">
+      <c r="E27" s="10" t="s">
         <v>1867</v>
       </c>
-      <c r="F27" s="12" t="s">
+      <c r="F27" s="10" t="s">
         <v>1888</v>
       </c>
       <c r="G27" t="str">
@@ -28530,15 +28495,15 @@
         <f>E12</f>
         <v>iam_label-1</v>
       </c>
-      <c r="I27" s="12" t="s">
+      <c r="I27" s="10" t="s">
         <v>1909</v>
       </c>
     </row>
     <row r="28" spans="5:9">
-      <c r="E28" s="12" t="s">
+      <c r="E28" s="10" t="s">
         <v>1867</v>
       </c>
-      <c r="F28" s="12" t="s">
+      <c r="F28" s="10" t="s">
         <v>1888</v>
       </c>
       <c r="G28" t="str">
@@ -28549,15 +28514,15 @@
         <f>E12</f>
         <v>iam_label-1</v>
       </c>
-      <c r="I28" s="12" t="s">
+      <c r="I28" s="10" t="s">
         <v>1909</v>
       </c>
     </row>
     <row r="29" spans="5:9">
-      <c r="E29" s="12" t="s">
+      <c r="E29" s="10" t="s">
         <v>1867</v>
       </c>
-      <c r="F29" s="12" t="s">
+      <c r="F29" s="10" t="s">
         <v>1888</v>
       </c>
       <c r="G29" t="str">
@@ -28568,15 +28533,15 @@
         <f>E12</f>
         <v>iam_label-1</v>
       </c>
-      <c r="I29" s="12" t="s">
+      <c r="I29" s="10" t="s">
         <v>1909</v>
       </c>
     </row>
     <row r="30" spans="5:9">
-      <c r="E30" s="12" t="s">
+      <c r="E30" s="10" t="s">
         <v>1867</v>
       </c>
-      <c r="F30" s="12" t="s">
+      <c r="F30" s="10" t="s">
         <v>1888</v>
       </c>
       <c r="G30" t="str">
@@ -28587,15 +28552,15 @@
         <f>E12</f>
         <v>iam_label-1</v>
       </c>
-      <c r="I30" s="12" t="s">
+      <c r="I30" s="10" t="s">
         <v>1909</v>
       </c>
     </row>
     <row r="31" spans="5:9">
-      <c r="E31" s="12" t="s">
+      <c r="E31" s="10" t="s">
         <v>1867</v>
       </c>
-      <c r="F31" s="12" t="s">
+      <c r="F31" s="10" t="s">
         <v>1888</v>
       </c>
       <c r="G31" t="str">
@@ -28606,15 +28571,15 @@
         <f>E12</f>
         <v>iam_label-1</v>
       </c>
-      <c r="I31" s="12" t="s">
+      <c r="I31" s="10" t="s">
         <v>1909</v>
       </c>
     </row>
     <row r="32" spans="5:9">
-      <c r="E32" s="12" t="s">
+      <c r="E32" s="10" t="s">
         <v>1867</v>
       </c>
-      <c r="F32" s="12" t="s">
+      <c r="F32" s="10" t="s">
         <v>1888</v>
       </c>
       <c r="G32" t="str">
@@ -28625,15 +28590,15 @@
         <f>E12</f>
         <v>iam_label-1</v>
       </c>
-      <c r="I32" s="12" t="s">
+      <c r="I32" s="10" t="s">
         <v>1909</v>
       </c>
     </row>
     <row r="33" spans="5:9">
-      <c r="E33" s="12" t="s">
+      <c r="E33" s="10" t="s">
         <v>1867</v>
       </c>
-      <c r="F33" s="12" t="s">
+      <c r="F33" s="10" t="s">
         <v>1888</v>
       </c>
       <c r="G33" t="str">
@@ -28644,15 +28609,15 @@
         <f>E12</f>
         <v>iam_label-1</v>
       </c>
-      <c r="I33" s="12" t="s">
+      <c r="I33" s="10" t="s">
         <v>1909</v>
       </c>
     </row>
     <row r="34" spans="5:9">
-      <c r="E34" s="12" t="s">
+      <c r="E34" s="10" t="s">
         <v>1867</v>
       </c>
-      <c r="F34" s="12" t="s">
+      <c r="F34" s="10" t="s">
         <v>1888</v>
       </c>
       <c r="G34" t="str">
@@ -28663,15 +28628,15 @@
         <f>E13</f>
         <v>iam_label-2</v>
       </c>
-      <c r="I34" s="12" t="s">
+      <c r="I34" s="10" t="s">
         <v>1909</v>
       </c>
     </row>
     <row r="35" spans="5:9">
-      <c r="E35" s="12" t="s">
+      <c r="E35" s="10" t="s">
         <v>1867</v>
       </c>
-      <c r="F35" s="12" t="s">
+      <c r="F35" s="10" t="s">
         <v>1888</v>
       </c>
       <c r="G35" t="str">
@@ -28682,15 +28647,15 @@
         <f>E13</f>
         <v>iam_label-2</v>
       </c>
-      <c r="I35" s="12" t="s">
+      <c r="I35" s="10" t="s">
         <v>1909</v>
       </c>
     </row>
     <row r="36" spans="5:9">
-      <c r="E36" s="12" t="s">
+      <c r="E36" s="10" t="s">
         <v>1867</v>
       </c>
-      <c r="F36" s="12" t="s">
+      <c r="F36" s="10" t="s">
         <v>1888</v>
       </c>
       <c r="G36" t="str">
@@ -28701,15 +28666,15 @@
         <f>E13</f>
         <v>iam_label-2</v>
       </c>
-      <c r="I36" s="12" t="s">
+      <c r="I36" s="10" t="s">
         <v>1909</v>
       </c>
     </row>
     <row r="37" spans="5:9">
-      <c r="E37" s="12" t="s">
+      <c r="E37" s="10" t="s">
         <v>1867</v>
       </c>
-      <c r="F37" s="12" t="s">
+      <c r="F37" s="10" t="s">
         <v>1888</v>
       </c>
       <c r="G37" t="str">
@@ -28720,15 +28685,15 @@
         <f>E13</f>
         <v>iam_label-2</v>
       </c>
-      <c r="I37" s="12" t="s">
+      <c r="I37" s="10" t="s">
         <v>1909</v>
       </c>
     </row>
     <row r="38" spans="5:9">
-      <c r="E38" s="12" t="s">
+      <c r="E38" s="10" t="s">
         <v>1867</v>
       </c>
-      <c r="F38" s="12" t="s">
+      <c r="F38" s="10" t="s">
         <v>1888</v>
       </c>
       <c r="G38" t="str">
@@ -28739,15 +28704,15 @@
         <f>E13</f>
         <v>iam_label-2</v>
       </c>
-      <c r="I38" s="12" t="s">
+      <c r="I38" s="10" t="s">
         <v>1909</v>
       </c>
     </row>
     <row r="39" spans="5:9">
-      <c r="E39" s="12" t="s">
+      <c r="E39" s="10" t="s">
         <v>1867</v>
       </c>
-      <c r="F39" s="12" t="s">
+      <c r="F39" s="10" t="s">
         <v>1888</v>
       </c>
       <c r="G39" t="str">
@@ -28758,15 +28723,15 @@
         <f>E13</f>
         <v>iam_label-2</v>
       </c>
-      <c r="I39" s="12" t="s">
+      <c r="I39" s="10" t="s">
         <v>1909</v>
       </c>
     </row>
     <row r="40" spans="5:9">
-      <c r="E40" s="12" t="s">
+      <c r="E40" s="10" t="s">
         <v>1867</v>
       </c>
-      <c r="F40" s="12" t="s">
+      <c r="F40" s="10" t="s">
         <v>1888</v>
       </c>
       <c r="G40" t="str">
@@ -28777,15 +28742,15 @@
         <f>E13</f>
         <v>iam_label-2</v>
       </c>
-      <c r="I40" s="12" t="s">
+      <c r="I40" s="10" t="s">
         <v>1909</v>
       </c>
     </row>
     <row r="41" spans="5:9">
-      <c r="E41" s="12" t="s">
+      <c r="E41" s="10" t="s">
         <v>1867</v>
       </c>
-      <c r="F41" s="12" t="s">
+      <c r="F41" s="10" t="s">
         <v>1888</v>
       </c>
       <c r="G41" t="str">
@@ -28796,15 +28761,15 @@
         <f>E13</f>
         <v>iam_label-2</v>
       </c>
-      <c r="I41" s="12" t="s">
+      <c r="I41" s="10" t="s">
         <v>1909</v>
       </c>
     </row>
     <row r="42" spans="5:9">
-      <c r="E42" s="12" t="s">
+      <c r="E42" s="10" t="s">
         <v>1867</v>
       </c>
-      <c r="F42" s="12" t="s">
+      <c r="F42" s="10" t="s">
         <v>1888</v>
       </c>
       <c r="G42" t="str">
@@ -28815,15 +28780,15 @@
         <f>E13</f>
         <v>iam_label-2</v>
       </c>
-      <c r="I42" s="12" t="s">
+      <c r="I42" s="10" t="s">
         <v>1909</v>
       </c>
     </row>
     <row r="43" spans="5:9">
-      <c r="E43" s="12" t="s">
+      <c r="E43" s="10" t="s">
         <v>1867</v>
       </c>
-      <c r="F43" s="12" t="s">
+      <c r="F43" s="10" t="s">
         <v>1888</v>
       </c>
       <c r="G43" t="str">
@@ -28834,15 +28799,15 @@
         <f>E13</f>
         <v>iam_label-2</v>
       </c>
-      <c r="I43" s="12" t="s">
+      <c r="I43" s="10" t="s">
         <v>1909</v>
       </c>
     </row>
     <row r="44" spans="5:9">
-      <c r="E44" s="12" t="s">
+      <c r="E44" s="10" t="s">
         <v>1867</v>
       </c>
-      <c r="F44" s="12" t="s">
+      <c r="F44" s="10" t="s">
         <v>1888</v>
       </c>
       <c r="G44" t="str">
@@ -28853,18 +28818,18 @@
         <f>E13</f>
         <v>iam_label-2</v>
       </c>
-      <c r="I44" s="12" t="s">
+      <c r="I44" s="10" t="s">
         <v>1909</v>
       </c>
     </row>
     <row r="45" spans="5:9">
-      <c r="E45" s="12" t="s">
+      <c r="E45" s="10" t="s">
         <v>1867</v>
       </c>
-      <c r="F45" s="12" t="s">
+      <c r="F45" s="10" t="s">
         <v>1888</v>
       </c>
-      <c r="G45" s="12" t="str">
+      <c r="G45" s="10" t="str">
         <f>菜单SAAS版!E93</f>
         <v>iam_menu-93</v>
       </c>
@@ -28872,18 +28837,18 @@
         <f t="shared" ref="H45:H47" si="0">E13</f>
         <v>iam_label-2</v>
       </c>
-      <c r="I45" s="12" t="s">
+      <c r="I45" s="10" t="s">
         <v>1909</v>
       </c>
     </row>
     <row r="46" spans="5:9">
-      <c r="E46" s="12" t="s">
+      <c r="E46" s="10" t="s">
         <v>1867</v>
       </c>
-      <c r="F46" s="12" t="s">
+      <c r="F46" s="10" t="s">
         <v>1888</v>
       </c>
-      <c r="G46" s="12" t="str">
+      <c r="G46" s="10" t="str">
         <f>菜单SAAS版!E9</f>
         <v>iam_menu-9</v>
       </c>
@@ -28891,18 +28856,18 @@
         <f t="shared" si="0"/>
         <v>iam_label-3</v>
       </c>
-      <c r="I46" s="12" t="s">
+      <c r="I46" s="10" t="s">
         <v>1910</v>
       </c>
     </row>
     <row r="47" spans="5:9">
-      <c r="E47" s="12" t="s">
+      <c r="E47" s="10" t="s">
         <v>1867</v>
       </c>
-      <c r="F47" s="12" t="s">
+      <c r="F47" s="10" t="s">
         <v>1888</v>
       </c>
-      <c r="G47" s="12" t="str">
+      <c r="G47" s="10" t="str">
         <f>菜单SAAS版!E185</f>
         <v>iam_menu-185</v>
       </c>
@@ -28910,18 +28875,18 @@
         <f>E14</f>
         <v>iam_label-3</v>
       </c>
-      <c r="I47" s="12" t="s">
+      <c r="I47" s="10" t="s">
         <v>1909</v>
       </c>
     </row>
     <row r="48" spans="5:9">
-      <c r="E48" s="12" t="s">
+      <c r="E48" s="10" t="s">
         <v>1867</v>
       </c>
-      <c r="F48" s="12" t="s">
+      <c r="F48" s="10" t="s">
         <v>1888</v>
       </c>
-      <c r="G48" s="12" t="str">
+      <c r="G48" s="10" t="str">
         <f>菜单SAAS版!E193</f>
         <v>iam_menu-193</v>
       </c>
@@ -28929,7 +28894,7 @@
         <f>E15</f>
         <v>iam_label-4</v>
       </c>
-      <c r="I48" s="12" t="s">
+      <c r="I48" s="10" t="s">
         <v>1909</v>
       </c>
     </row>
@@ -39045,464 +39010,464 @@
       </c>
     </row>
     <row r="450" s="6" customFormat="1" spans="5:10">
-      <c r="E450" s="10" t="s">
+      <c r="E450" s="6" t="s">
         <v>2417</v>
       </c>
-      <c r="F450" s="10" t="str">
+      <c r="F450" s="6" t="str">
         <f>E10</f>
         <v>iam_role-10</v>
       </c>
-      <c r="G450" s="10" t="str">
+      <c r="G450" s="6" t="str">
         <f>菜单SAAS版!E186</f>
         <v>iam_menu-186</v>
       </c>
-      <c r="H450" s="10" t="s">
-        <v>1981</v>
-      </c>
-      <c r="I450" s="10" t="s">
-        <v>1982</v>
-      </c>
-      <c r="J450" s="10" t="s">
+      <c r="H450" s="6" t="s">
+        <v>1981</v>
+      </c>
+      <c r="I450" s="6" t="s">
+        <v>1982</v>
+      </c>
+      <c r="J450" s="6" t="s">
         <v>1983</v>
       </c>
     </row>
     <row r="451" spans="5:10">
-      <c r="E451" s="10" t="s">
+      <c r="E451" s="6" t="s">
         <v>2418</v>
       </c>
-      <c r="F451" s="10" t="str">
+      <c r="F451" s="6" t="str">
         <f>E10</f>
         <v>iam_role-10</v>
       </c>
-      <c r="G451" s="10" t="str">
+      <c r="G451" s="6" t="str">
         <f>菜单SAAS版!E187</f>
         <v>iam_menu-187</v>
       </c>
-      <c r="H451" s="10" t="s">
-        <v>1981</v>
-      </c>
-      <c r="I451" s="10" t="s">
-        <v>1982</v>
-      </c>
-      <c r="J451" s="10" t="s">
+      <c r="H451" s="6" t="s">
+        <v>1981</v>
+      </c>
+      <c r="I451" s="6" t="s">
+        <v>1982</v>
+      </c>
+      <c r="J451" s="6" t="s">
         <v>1983</v>
       </c>
     </row>
     <row r="452" spans="5:10">
-      <c r="E452" s="10" t="s">
+      <c r="E452" s="6" t="s">
         <v>2419</v>
       </c>
-      <c r="F452" s="10" t="str">
+      <c r="F452" s="6" t="str">
         <f>E10</f>
         <v>iam_role-10</v>
       </c>
-      <c r="G452" s="10" t="str">
+      <c r="G452" s="6" t="str">
         <f>菜单SAAS版!E188</f>
         <v>iam_menu-188</v>
       </c>
-      <c r="H452" s="10" t="s">
-        <v>1981</v>
-      </c>
-      <c r="I452" s="10" t="s">
-        <v>1982</v>
-      </c>
-      <c r="J452" s="10" t="s">
+      <c r="H452" s="6" t="s">
+        <v>1981</v>
+      </c>
+      <c r="I452" s="6" t="s">
+        <v>1982</v>
+      </c>
+      <c r="J452" s="6" t="s">
         <v>1983</v>
       </c>
     </row>
     <row r="453" spans="5:10">
-      <c r="E453" s="10" t="s">
+      <c r="E453" s="6" t="s">
         <v>2420</v>
       </c>
-      <c r="F453" s="10" t="str">
+      <c r="F453" s="6" t="str">
         <f>E10</f>
         <v>iam_role-10</v>
       </c>
-      <c r="G453" s="10" t="str">
+      <c r="G453" s="6" t="str">
         <f>菜单SAAS版!E189</f>
         <v>iam_menu-189</v>
       </c>
-      <c r="H453" s="10" t="s">
-        <v>1981</v>
-      </c>
-      <c r="I453" s="10" t="s">
-        <v>1982</v>
-      </c>
-      <c r="J453" s="10" t="s">
+      <c r="H453" s="6" t="s">
+        <v>1981</v>
+      </c>
+      <c r="I453" s="6" t="s">
+        <v>1982</v>
+      </c>
+      <c r="J453" s="6" t="s">
         <v>1983</v>
       </c>
     </row>
     <row r="454" spans="5:10">
-      <c r="E454" s="10" t="s">
+      <c r="E454" s="6" t="s">
         <v>2421</v>
       </c>
-      <c r="F454" s="10" t="str">
+      <c r="F454" s="6" t="str">
         <f>E10</f>
         <v>iam_role-10</v>
       </c>
-      <c r="G454" s="10" t="str">
+      <c r="G454" s="6" t="str">
         <f>菜单SAAS版!E190</f>
         <v>iam_menu-190</v>
       </c>
-      <c r="H454" s="10" t="s">
-        <v>1981</v>
-      </c>
-      <c r="I454" s="10" t="s">
-        <v>1982</v>
-      </c>
-      <c r="J454" s="10" t="s">
+      <c r="H454" s="6" t="s">
+        <v>1981</v>
+      </c>
+      <c r="I454" s="6" t="s">
+        <v>1982</v>
+      </c>
+      <c r="J454" s="6" t="s">
         <v>1983</v>
       </c>
     </row>
     <row r="455" spans="5:10">
-      <c r="E455" s="10" t="s">
+      <c r="E455" s="6" t="s">
         <v>2422</v>
       </c>
-      <c r="F455" s="10" t="str">
+      <c r="F455" s="6" t="str">
         <f>E10</f>
         <v>iam_role-10</v>
       </c>
-      <c r="G455" s="10" t="str">
+      <c r="G455" s="6" t="str">
         <f>菜单SAAS版!E191</f>
         <v>iam_menu-191</v>
       </c>
-      <c r="H455" s="10" t="s">
-        <v>1981</v>
-      </c>
-      <c r="I455" s="10" t="s">
-        <v>1982</v>
-      </c>
-      <c r="J455" s="10" t="s">
+      <c r="H455" s="6" t="s">
+        <v>1981</v>
+      </c>
+      <c r="I455" s="6" t="s">
+        <v>1982</v>
+      </c>
+      <c r="J455" s="6" t="s">
         <v>1983</v>
       </c>
     </row>
     <row r="456" spans="5:10">
-      <c r="E456" s="10" t="s">
+      <c r="E456" s="6" t="s">
         <v>2423</v>
       </c>
-      <c r="F456" s="10" t="str">
+      <c r="F456" s="6" t="str">
         <f>E10</f>
         <v>iam_role-10</v>
       </c>
-      <c r="G456" s="10" t="str">
+      <c r="G456" s="6" t="str">
         <f>菜单SAAS版!E192</f>
         <v>iam_menu-192</v>
       </c>
-      <c r="H456" s="10" t="s">
-        <v>1981</v>
-      </c>
-      <c r="I456" s="10" t="s">
-        <v>1982</v>
-      </c>
-      <c r="J456" s="10" t="s">
+      <c r="H456" s="6" t="s">
+        <v>1981</v>
+      </c>
+      <c r="I456" s="6" t="s">
+        <v>1982</v>
+      </c>
+      <c r="J456" s="6" t="s">
         <v>1983</v>
       </c>
     </row>
     <row r="457" s="7" customFormat="1" spans="5:10">
-      <c r="E457" s="11" t="s">
+      <c r="E457" s="7" t="s">
         <v>2424</v>
       </c>
-      <c r="F457" s="11" t="str">
+      <c r="F457" s="7" t="str">
         <f>E8</f>
         <v>iam_role-8</v>
       </c>
-      <c r="G457" s="11" t="str">
+      <c r="G457" s="7" t="str">
         <f>菜单SAAS版!E194</f>
         <v>iam_menu-194</v>
       </c>
-      <c r="H457" s="11" t="s">
-        <v>1981</v>
-      </c>
-      <c r="I457" s="11" t="s">
-        <v>1982</v>
-      </c>
-      <c r="J457" s="11" t="s">
+      <c r="H457" s="7" t="s">
+        <v>1981</v>
+      </c>
+      <c r="I457" s="7" t="s">
+        <v>1982</v>
+      </c>
+      <c r="J457" s="7" t="s">
         <v>1983</v>
       </c>
     </row>
     <row r="458" spans="5:10">
-      <c r="E458" s="11" t="s">
+      <c r="E458" s="7" t="s">
         <v>2425</v>
       </c>
-      <c r="F458" s="11" t="str">
+      <c r="F458" s="7" t="str">
         <f>E8</f>
         <v>iam_role-8</v>
       </c>
-      <c r="G458" s="11" t="str">
+      <c r="G458" s="7" t="str">
         <f>菜单SAAS版!E195</f>
         <v>iam_menu-195</v>
       </c>
-      <c r="H458" s="11" t="s">
-        <v>1981</v>
-      </c>
-      <c r="I458" s="11" t="s">
-        <v>1982</v>
-      </c>
-      <c r="J458" s="11" t="s">
+      <c r="H458" s="7" t="s">
+        <v>1981</v>
+      </c>
+      <c r="I458" s="7" t="s">
+        <v>1982</v>
+      </c>
+      <c r="J458" s="7" t="s">
         <v>1983</v>
       </c>
     </row>
     <row r="459" spans="5:10">
-      <c r="E459" s="11" t="s">
+      <c r="E459" s="7" t="s">
         <v>2426</v>
       </c>
-      <c r="F459" s="11" t="str">
+      <c r="F459" s="7" t="str">
         <f>E8</f>
         <v>iam_role-8</v>
       </c>
-      <c r="G459" s="11" t="str">
+      <c r="G459" s="7" t="str">
         <f>菜单SAAS版!E196</f>
         <v>iam_menu-196</v>
       </c>
-      <c r="H459" s="11" t="s">
-        <v>1981</v>
-      </c>
-      <c r="I459" s="11" t="s">
-        <v>1982</v>
-      </c>
-      <c r="J459" s="11" t="s">
+      <c r="H459" s="7" t="s">
+        <v>1981</v>
+      </c>
+      <c r="I459" s="7" t="s">
+        <v>1982</v>
+      </c>
+      <c r="J459" s="7" t="s">
         <v>1983</v>
       </c>
     </row>
     <row r="460" spans="5:10">
-      <c r="E460" s="11" t="s">
+      <c r="E460" s="7" t="s">
         <v>2427</v>
       </c>
-      <c r="F460" s="11" t="str">
+      <c r="F460" s="7" t="str">
         <f>E8</f>
         <v>iam_role-8</v>
       </c>
-      <c r="G460" s="11" t="str">
+      <c r="G460" s="7" t="str">
         <f>菜单SAAS版!E197</f>
         <v>iam_menu-197</v>
       </c>
-      <c r="H460" s="11" t="s">
-        <v>1981</v>
-      </c>
-      <c r="I460" s="11" t="s">
-        <v>1982</v>
-      </c>
-      <c r="J460" s="11" t="s">
+      <c r="H460" s="7" t="s">
+        <v>1981</v>
+      </c>
+      <c r="I460" s="7" t="s">
+        <v>1982</v>
+      </c>
+      <c r="J460" s="7" t="s">
         <v>1983</v>
       </c>
     </row>
     <row r="461" spans="5:10">
-      <c r="E461" s="11" t="s">
+      <c r="E461" s="7" t="s">
         <v>2428</v>
       </c>
-      <c r="F461" s="11" t="str">
+      <c r="F461" s="7" t="str">
         <f>E8</f>
         <v>iam_role-8</v>
       </c>
-      <c r="G461" s="11" t="str">
+      <c r="G461" s="7" t="str">
         <f>菜单SAAS版!E198</f>
         <v>iam_menu-198</v>
       </c>
-      <c r="H461" s="11" t="s">
-        <v>1981</v>
-      </c>
-      <c r="I461" s="11" t="s">
-        <v>1982</v>
-      </c>
-      <c r="J461" s="11" t="s">
+      <c r="H461" s="7" t="s">
+        <v>1981</v>
+      </c>
+      <c r="I461" s="7" t="s">
+        <v>1982</v>
+      </c>
+      <c r="J461" s="7" t="s">
         <v>1983</v>
       </c>
     </row>
     <row r="462" spans="5:10">
-      <c r="E462" s="11" t="s">
+      <c r="E462" s="7" t="s">
         <v>2429</v>
       </c>
-      <c r="F462" s="11" t="str">
+      <c r="F462" s="7" t="str">
         <f>E8</f>
         <v>iam_role-8</v>
       </c>
-      <c r="G462" s="11" t="str">
+      <c r="G462" s="7" t="str">
         <f>菜单SAAS版!E199</f>
         <v>iam_menu-199</v>
       </c>
-      <c r="H462" s="11" t="s">
-        <v>1981</v>
-      </c>
-      <c r="I462" s="11" t="s">
-        <v>1982</v>
-      </c>
-      <c r="J462" s="11" t="s">
+      <c r="H462" s="7" t="s">
+        <v>1981</v>
+      </c>
+      <c r="I462" s="7" t="s">
+        <v>1982</v>
+      </c>
+      <c r="J462" s="7" t="s">
         <v>1983</v>
       </c>
     </row>
     <row r="463" spans="5:10">
-      <c r="E463" s="11" t="s">
+      <c r="E463" s="7" t="s">
         <v>2430</v>
       </c>
-      <c r="F463" s="11" t="str">
+      <c r="F463" s="7" t="str">
         <f>E8</f>
         <v>iam_role-8</v>
       </c>
-      <c r="G463" s="11" t="str">
+      <c r="G463" s="7" t="str">
         <f>菜单SAAS版!E200</f>
         <v>iam_menu-200</v>
       </c>
-      <c r="H463" s="11" t="s">
-        <v>1981</v>
-      </c>
-      <c r="I463" s="11" t="s">
-        <v>1982</v>
-      </c>
-      <c r="J463" s="11" t="s">
+      <c r="H463" s="7" t="s">
+        <v>1981</v>
+      </c>
+      <c r="I463" s="7" t="s">
+        <v>1982</v>
+      </c>
+      <c r="J463" s="7" t="s">
         <v>1983</v>
       </c>
     </row>
     <row r="464" spans="5:10">
-      <c r="E464" s="11" t="s">
+      <c r="E464" s="7" t="s">
         <v>2431</v>
       </c>
-      <c r="F464" s="11" t="str">
+      <c r="F464" s="7" t="str">
         <f>E10</f>
         <v>iam_role-10</v>
       </c>
-      <c r="G464" s="11" t="str">
+      <c r="G464" s="7" t="str">
         <f>菜单SAAS版!E194</f>
         <v>iam_menu-194</v>
       </c>
-      <c r="H464" s="11" t="s">
-        <v>1981</v>
-      </c>
-      <c r="I464" s="11" t="s">
-        <v>1982</v>
-      </c>
-      <c r="J464" s="11" t="s">
+      <c r="H464" s="7" t="s">
+        <v>1981</v>
+      </c>
+      <c r="I464" s="7" t="s">
+        <v>1982</v>
+      </c>
+      <c r="J464" s="7" t="s">
         <v>1983</v>
       </c>
     </row>
     <row r="465" spans="5:10">
-      <c r="E465" s="11" t="s">
+      <c r="E465" s="7" t="s">
         <v>2432</v>
       </c>
-      <c r="F465" s="11" t="str">
+      <c r="F465" s="7" t="str">
         <f>E10</f>
         <v>iam_role-10</v>
       </c>
-      <c r="G465" s="11" t="str">
+      <c r="G465" s="7" t="str">
         <f>菜单SAAS版!E195</f>
         <v>iam_menu-195</v>
       </c>
-      <c r="H465" s="11" t="s">
-        <v>1981</v>
-      </c>
-      <c r="I465" s="11" t="s">
-        <v>1982</v>
-      </c>
-      <c r="J465" s="11" t="s">
+      <c r="H465" s="7" t="s">
+        <v>1981</v>
+      </c>
+      <c r="I465" s="7" t="s">
+        <v>1982</v>
+      </c>
+      <c r="J465" s="7" t="s">
         <v>1983</v>
       </c>
     </row>
     <row r="466" spans="5:10">
-      <c r="E466" s="11" t="s">
+      <c r="E466" s="7" t="s">
         <v>2433</v>
       </c>
-      <c r="F466" s="11" t="str">
+      <c r="F466" s="7" t="str">
         <f>E10</f>
         <v>iam_role-10</v>
       </c>
-      <c r="G466" s="11" t="str">
+      <c r="G466" s="7" t="str">
         <f>菜单SAAS版!E196</f>
         <v>iam_menu-196</v>
       </c>
-      <c r="H466" s="11" t="s">
-        <v>1981</v>
-      </c>
-      <c r="I466" s="11" t="s">
-        <v>1982</v>
-      </c>
-      <c r="J466" s="11" t="s">
+      <c r="H466" s="7" t="s">
+        <v>1981</v>
+      </c>
+      <c r="I466" s="7" t="s">
+        <v>1982</v>
+      </c>
+      <c r="J466" s="7" t="s">
         <v>1983</v>
       </c>
     </row>
     <row r="467" spans="5:10">
-      <c r="E467" s="11" t="s">
+      <c r="E467" s="7" t="s">
         <v>2434</v>
       </c>
-      <c r="F467" s="11" t="str">
+      <c r="F467" s="7" t="str">
         <f>E10</f>
         <v>iam_role-10</v>
       </c>
-      <c r="G467" s="11" t="str">
+      <c r="G467" s="7" t="str">
         <f>菜单SAAS版!E197</f>
         <v>iam_menu-197</v>
       </c>
-      <c r="H467" s="11" t="s">
-        <v>1981</v>
-      </c>
-      <c r="I467" s="11" t="s">
-        <v>1982</v>
-      </c>
-      <c r="J467" s="11" t="s">
+      <c r="H467" s="7" t="s">
+        <v>1981</v>
+      </c>
+      <c r="I467" s="7" t="s">
+        <v>1982</v>
+      </c>
+      <c r="J467" s="7" t="s">
         <v>1983</v>
       </c>
     </row>
     <row r="468" spans="5:10">
-      <c r="E468" s="11" t="s">
+      <c r="E468" s="7" t="s">
         <v>2435</v>
       </c>
-      <c r="F468" s="11" t="str">
+      <c r="F468" s="7" t="str">
         <f>E10</f>
         <v>iam_role-10</v>
       </c>
-      <c r="G468" s="11" t="str">
+      <c r="G468" s="7" t="str">
         <f>菜单SAAS版!E198</f>
         <v>iam_menu-198</v>
       </c>
-      <c r="H468" s="11" t="s">
-        <v>1981</v>
-      </c>
-      <c r="I468" s="11" t="s">
-        <v>1982</v>
-      </c>
-      <c r="J468" s="11" t="s">
+      <c r="H468" s="7" t="s">
+        <v>1981</v>
+      </c>
+      <c r="I468" s="7" t="s">
+        <v>1982</v>
+      </c>
+      <c r="J468" s="7" t="s">
         <v>1983</v>
       </c>
     </row>
     <row r="469" spans="5:10">
-      <c r="E469" s="11" t="s">
+      <c r="E469" s="7" t="s">
         <v>2436</v>
       </c>
-      <c r="F469" s="11" t="str">
+      <c r="F469" s="7" t="str">
         <f>E10</f>
         <v>iam_role-10</v>
       </c>
-      <c r="G469" s="11" t="str">
+      <c r="G469" s="7" t="str">
         <f>菜单SAAS版!E199</f>
         <v>iam_menu-199</v>
       </c>
-      <c r="H469" s="11" t="s">
-        <v>1981</v>
-      </c>
-      <c r="I469" s="11" t="s">
-        <v>1982</v>
-      </c>
-      <c r="J469" s="11" t="s">
+      <c r="H469" s="7" t="s">
+        <v>1981</v>
+      </c>
+      <c r="I469" s="7" t="s">
+        <v>1982</v>
+      </c>
+      <c r="J469" s="7" t="s">
         <v>1983</v>
       </c>
     </row>
     <row r="470" spans="5:10">
-      <c r="E470" s="11" t="s">
+      <c r="E470" s="7" t="s">
         <v>2437</v>
       </c>
-      <c r="F470" s="11" t="str">
+      <c r="F470" s="7" t="str">
         <f>E10</f>
         <v>iam_role-10</v>
       </c>
-      <c r="G470" s="11" t="str">
+      <c r="G470" s="7" t="str">
         <f>菜单SAAS版!E200</f>
         <v>iam_menu-200</v>
       </c>
-      <c r="H470" s="11" t="s">
-        <v>1981</v>
-      </c>
-      <c r="I470" s="11" t="s">
-        <v>1982</v>
-      </c>
-      <c r="J470" s="11" t="s">
+      <c r="H470" s="7" t="s">
+        <v>1981</v>
+      </c>
+      <c r="I470" s="7" t="s">
+        <v>1982</v>
+      </c>
+      <c r="J470" s="7" t="s">
         <v>1983</v>
       </c>
     </row>

--- a/src/main/resources/script/db/init-data/devops_service/hzero_platform/hzero-menu-user-role-label.xlsx
+++ b/src/main/resources/script/db/init-data/devops_service/hzero_platform/hzero-menu-user-role-label.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19815" windowHeight="7410" tabRatio="597" activeTab="1"/>
+    <workbookView windowWidth="19815" windowHeight="7860" tabRatio="597" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="1" r:id="rId1"/>
@@ -4250,7 +4250,7 @@
     <t>dashboard-o</t>
   </si>
   <si>
-    <t>/iam/org-template</t>
+    <t>/devops/org-template</t>
   </si>
   <si>
     <t>choerodon.code.organization.manager|choerodon.code.organization.manager.application-template</t>
@@ -4346,7 +4346,7 @@
     <t>choerodon.code.site.manager.application-template</t>
   </si>
   <si>
-    <t>/iam/application-template</t>
+    <t>/devops/application-template</t>
   </si>
   <si>
     <t>choerodon.code.site.manager|choerodon.code.site.manager.application-template</t>
@@ -4364,7 +4364,7 @@
     <t>iam_menu-195</t>
   </si>
   <si>
-    <t>choerodon.code.site.manager.application-template.ps..create</t>
+    <t>choerodon.code.site.manager.application-template.ps.create</t>
   </si>
   <si>
     <t>choerodon.code.site.manager|choerodon.code.site.manager.application-template|choerodon.code.site.manager.application-template.ps.create</t>
@@ -9277,11 +9277,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="000000"/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="58">
     <font>
@@ -9473,16 +9473,17 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -9491,58 +9492,6 @@
       <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -9571,6 +9520,28 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
@@ -9578,7 +9549,44 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -9602,22 +9610,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -9699,13 +9699,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -9717,67 +9753,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -9795,25 +9771,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -9831,13 +9807,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -9849,19 +9855,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -9873,13 +9879,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -9988,35 +9988,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -10032,6 +10006,17 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -10054,6 +10039,36 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -10068,166 +10083,151 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="31" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="43" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="45" fillId="21" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="45" fillId="17" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="31" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="31" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="43" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="42" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="31" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="41" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="31" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="6" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="47" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="14" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="41" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="41" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="46" fillId="20" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="49" fillId="20" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="44" fillId="12" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="43" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="41" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="48" fillId="13" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="13" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="37" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="50" fillId="36" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="50" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="43" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="41" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="43" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="43" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="49" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="43" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="43" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="41" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="41" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="43" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="43" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="41" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="43" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="41" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="41" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="43" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="41" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -10960,8 +10960,8 @@
   <sheetPr/>
   <dimension ref="A1:Y200"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" topLeftCell="G178" workbookViewId="0">
-      <selection activeCell="N203" sqref="N203"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" topLeftCell="H178" workbookViewId="0">
+      <selection activeCell="P185" sqref="P185"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25"/>

--- a/src/main/resources/script/db/init-data/devops_service/hzero_platform/hzero-menu-user-role-label.xlsx
+++ b/src/main/resources/script/db/init-data/devops_service/hzero_platform/hzero-menu-user-role-label.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19485" windowHeight="8460" tabRatio="597" activeTab="4"/>
+    <workbookView windowWidth="19815" windowHeight="7860" tabRatio="597" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
     <sheet name="角色标签数据" sheetId="6" r:id="rId6"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">菜单SAAS版!$L$1:$L$201</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">菜单SAAS版!$L$1:$L$202</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0">README!$D$1:$D$4</definedName>
     <definedName name="LOCAL_MYSQL_DATE_FORMAT">REPT(local_year_format,4)&amp;local_date_separator&amp;REPT(local_month_format,2)&amp;local_date_separator&amp;REPT(local_day_format,2)&amp;" "&amp;REPT(local_hour_format,2)&amp;local_time_separator&amp;REPT(local_minute_format,2)&amp;local_time_separator&amp;REPT(local_second_format,2)</definedName>
     <definedName name="qwe">REPT(local_year_format,4)&amp;local_date_separator&amp;REPT(local_month_format,2)&amp;local_date_separator&amp;REPT(local_day_format,2)&amp;" "&amp;REPT(local_hour_format,2)&amp;local_time_separator&amp;REPT(local_minute_format,2)&amp;local_time_separator&amp;REPT(local_second_format,2)</definedName>
@@ -9397,13 +9397,13 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="176" formatCode="000000"/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="000000"/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="66">
+  <fonts count="62">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -9450,12 +9450,6 @@
       <strike/>
       <sz val="12"/>
       <color rgb="FF000000"/>
-      <name val="微软雅黑"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="7" tint="-0.499984740745262"/>
       <name val="微软雅黑"/>
       <charset val="134"/>
     </font>
@@ -9580,12 +9574,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="微软雅黑"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <sz val="13"/>
       <color theme="9" tint="-0.249977111117893"/>
       <name val="PingFang SC"/>
@@ -9630,29 +9618,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
@@ -9660,15 +9633,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C0006"/>
       <name val="等线"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -9681,39 +9653,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -9721,9 +9662,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -9743,7 +9684,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -9751,6 +9692,61 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -9765,31 +9761,11 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="DejaVu Sans"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Droid Sans Fallback"/>
-      <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
@@ -9868,49 +9844,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -9922,37 +9856,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -9970,7 +9874,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -9982,19 +9916,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -10006,19 +9928,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -10030,25 +9946,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -10155,21 +10131,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -10179,46 +10140,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -10239,169 +10171,213 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="41" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="35" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="39" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="51" fillId="24" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="43" fillId="17" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="41" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="35" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="41" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="35" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="39" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="45" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="37" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="41" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="35" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="38" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="56" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="41" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="36" borderId="17" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="35" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="49" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="53" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="35" fillId="6" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="38" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="48" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="54" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="38" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="49" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="51" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="38" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="55" fillId="31" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="41" fillId="15" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="54" fillId="31" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="53" fillId="15" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="9" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="52" fillId="25" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="39" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="38" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="38" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="52" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="39" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="38" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="38" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="39" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="38" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="65">
+  <cellXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -10412,8 +10388,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -10431,12 +10407,10 @@
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -10444,44 +10418,44 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="32" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="32" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="30" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="30" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="30" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="36" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="34" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="34" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -10494,7 +10468,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -10897,8 +10871,8 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="15.5703703703704" style="35" customWidth="1"/>
-    <col min="2" max="2" width="10.2814814814815" style="36" customWidth="1"/>
+    <col min="1" max="1" width="15.5703703703704" style="33" customWidth="1"/>
+    <col min="2" max="2" width="10.2814814814815" style="34" customWidth="1"/>
     <col min="3" max="3" width="28.1407407407407" customWidth="1"/>
     <col min="4" max="4" width="35.2814814814815" style="7" customWidth="1"/>
     <col min="5" max="5" width="38.5703703703704" customWidth="1"/>
@@ -10914,79 +10888,79 @@
   </cols>
   <sheetData>
     <row r="1" ht="64.5" customHeight="1" spans="1:8">
-      <c r="A1" s="37"/>
-      <c r="C1" s="38" t="s">
+      <c r="A1" s="35"/>
+      <c r="C1" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="38"/>
-      <c r="E1" s="38"/>
-      <c r="F1" s="39"/>
-      <c r="G1" s="39"/>
-      <c r="H1" s="39"/>
+      <c r="D1" s="36"/>
+      <c r="E1" s="36"/>
+      <c r="F1" s="37"/>
+      <c r="G1" s="37"/>
+      <c r="H1" s="37"/>
     </row>
     <row r="2" ht="18" spans="5:5">
-      <c r="E2" s="40"/>
+      <c r="E2" s="38"/>
     </row>
     <row r="3" ht="49.5" customHeight="1" spans="3:7">
-      <c r="C3" s="41" t="s">
+      <c r="C3" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="41"/>
-      <c r="E3" s="42" t="s">
+      <c r="D3" s="39"/>
+      <c r="E3" s="40" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="42"/>
-      <c r="G3" s="42"/>
+      <c r="F3" s="40"/>
+      <c r="G3" s="40"/>
     </row>
     <row r="4" ht="18" spans="3:7">
-      <c r="C4" s="43" t="s">
+      <c r="C4" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="43"/>
-      <c r="E4" s="44" t="s">
+      <c r="D4" s="41"/>
+      <c r="E4" s="42" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="45" t="s">
+      <c r="F4" s="43" t="s">
         <v>5</v>
       </c>
-      <c r="G4" s="46" t="s">
+      <c r="G4" s="44" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="37"/>
+      <c r="A5" s="35"/>
       <c r="C5" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="7" ht="18" spans="3:5">
-      <c r="C7" s="47" t="s">
+      <c r="C7" s="45" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="48" t="s">
+      <c r="D7" s="46" t="s">
         <v>9</v>
       </c>
-      <c r="E7" s="49" t="s">
+      <c r="E7" s="47" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="8" spans="3:5">
-      <c r="C8" s="50" t="s">
+      <c r="C8" s="48" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="51" t="s">
+      <c r="D8" s="49" t="s">
         <v>12</v>
       </c>
-      <c r="E8" s="52"/>
+      <c r="E8" s="50"/>
     </row>
     <row r="9" ht="51.75" spans="3:6">
-      <c r="C9" s="53" t="s">
+      <c r="C9" s="51" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="54" t="s">
+      <c r="D9" s="52" t="s">
         <v>14</v>
       </c>
-      <c r="E9" s="55" t="s">
+      <c r="E9" s="53" t="s">
         <v>15</v>
       </c>
       <c r="F9" t="s">
@@ -10994,56 +10968,56 @@
       </c>
     </row>
     <row r="10" ht="51.75" spans="3:5">
-      <c r="C10" s="56" t="s">
+      <c r="C10" s="54" t="s">
         <v>17</v>
       </c>
-      <c r="D10" s="54" t="s">
+      <c r="D10" s="52" t="s">
         <v>18</v>
       </c>
-      <c r="E10" s="55" t="s">
+      <c r="E10" s="53" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="11" ht="69" spans="3:5">
-      <c r="C11" s="50" t="s">
+      <c r="C11" s="48" t="s">
         <v>20</v>
       </c>
-      <c r="D11" s="54" t="s">
+      <c r="D11" s="52" t="s">
         <v>21</v>
       </c>
-      <c r="E11" s="55" t="s">
+      <c r="E11" s="53" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="12" spans="3:5">
-      <c r="C12" s="50" t="s">
+      <c r="C12" s="48" t="s">
         <v>23</v>
       </c>
-      <c r="D12" s="54" t="s">
+      <c r="D12" s="52" t="s">
         <v>24</v>
       </c>
-      <c r="E12" s="57" t="s">
+      <c r="E12" s="55" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="13" spans="3:5">
-      <c r="C13" s="50"/>
-      <c r="D13" s="51"/>
-      <c r="E13" s="52"/>
+      <c r="C13" s="48"/>
+      <c r="D13" s="49"/>
+      <c r="E13" s="50"/>
     </row>
     <row r="14" spans="3:5">
-      <c r="C14" s="50"/>
-      <c r="D14" s="51"/>
-      <c r="E14" s="52"/>
+      <c r="C14" s="48"/>
+      <c r="D14" s="49"/>
+      <c r="E14" s="50"/>
     </row>
     <row r="15" ht="34.5" spans="3:5">
-      <c r="C15" s="58" t="s">
+      <c r="C15" s="56" t="s">
         <v>26</v>
       </c>
-      <c r="D15" s="59" t="s">
+      <c r="D15" s="57" t="s">
         <v>27</v>
       </c>
-      <c r="E15" s="60" t="s">
+      <c r="E15" s="58" t="s">
         <v>28</v>
       </c>
     </row>
@@ -11053,30 +11027,30 @@
       </c>
     </row>
     <row r="19" spans="3:5">
-      <c r="C19" s="61" t="s">
+      <c r="C19" s="59" t="s">
         <v>30</v>
       </c>
-      <c r="D19" s="61"/>
-      <c r="E19" s="61"/>
+      <c r="D19" s="59"/>
+      <c r="E19" s="59"/>
     </row>
     <row r="20" ht="18" spans="3:4">
-      <c r="C20" s="62" t="s">
+      <c r="C20" s="60" t="s">
         <v>31</v>
       </c>
-      <c r="D20" s="40" t="s">
+      <c r="D20" s="38" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="21" ht="18" spans="3:4">
-      <c r="C21" s="62" t="s">
+      <c r="C21" s="60" t="s">
         <v>33</v>
       </c>
-      <c r="D21" s="40" t="s">
+      <c r="D21" s="38" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="22" ht="18" spans="3:4">
-      <c r="C22" s="62" t="s">
+      <c r="C22" s="60" t="s">
         <v>35</v>
       </c>
       <c r="D22" s="7" t="s">
@@ -11084,7 +11058,7 @@
       </c>
     </row>
     <row r="23" ht="18" spans="3:4">
-      <c r="C23" s="62" t="s">
+      <c r="C23" s="60" t="s">
         <v>37</v>
       </c>
       <c r="D23" s="7" t="s">
@@ -11092,25 +11066,25 @@
       </c>
     </row>
     <row r="25" ht="69" customHeight="1" spans="3:5">
-      <c r="C25" s="63" t="s">
+      <c r="C25" s="61" t="s">
         <v>39</v>
       </c>
-      <c r="D25" s="41" t="s">
+      <c r="D25" s="39" t="s">
         <v>40</v>
       </c>
-      <c r="E25" s="41"/>
+      <c r="E25" s="39"/>
     </row>
     <row r="26" ht="14.25" customHeight="1" spans="3:5">
-      <c r="C26" s="51" t="s">
+      <c r="C26" s="49" t="s">
         <v>41</v>
       </c>
-      <c r="D26" s="41" t="s">
+      <c r="D26" s="39" t="s">
         <v>42</v>
       </c>
-      <c r="E26" s="41"/>
+      <c r="E26" s="39"/>
     </row>
     <row r="27" ht="51.75" spans="3:3">
-      <c r="C27" s="64" t="s">
+      <c r="C27" s="62" t="s">
         <v>43</v>
       </c>
     </row>
@@ -11135,8 +11109,8 @@
   <sheetPr/>
   <dimension ref="A1:Y203"/>
   <sheetViews>
-    <sheetView zoomScale="62" zoomScaleNormal="62" topLeftCell="A130" workbookViewId="0">
-      <selection activeCell="E148" sqref="E148"/>
+    <sheetView zoomScale="62" zoomScaleNormal="62" topLeftCell="A145" workbookViewId="0">
+      <selection activeCell="E166" sqref="E166"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25"/>
@@ -11432,7 +11406,7 @@
       <c r="L11" t="s">
         <v>81</v>
       </c>
-      <c r="M11" s="31">
+      <c r="M11" s="30">
         <v>31</v>
       </c>
       <c r="N11" t="s">
@@ -11555,7 +11529,7 @@
       <c r="R13" t="s">
         <v>80</v>
       </c>
-      <c r="S13" s="32" t="s">
+      <c r="S13" s="7" t="s">
         <v>113</v>
       </c>
       <c r="T13" t="s">
@@ -12097,7 +12071,7 @@
       </c>
     </row>
     <row r="25" spans="5:24">
-      <c r="E25" s="30" t="s">
+      <c r="E25" s="29" t="s">
         <v>159</v>
       </c>
       <c r="F25" t="s">
@@ -16885,7 +16859,7 @@
       <c r="L123" t="s">
         <v>81</v>
       </c>
-      <c r="M123" s="31">
+      <c r="M123" s="30">
         <v>20</v>
       </c>
       <c r="N123" t="s">
@@ -18888,7 +18862,7 @@
       <c r="L162" t="s">
         <v>81</v>
       </c>
-      <c r="M162" s="31">
+      <c r="M162" s="30">
         <v>50</v>
       </c>
       <c r="N162" t="s">
@@ -19903,103 +19877,103 @@
         <v>82</v>
       </c>
     </row>
-    <row r="183" s="29" customFormat="1" spans="5:24">
-      <c r="E183" s="29" t="s">
+    <row r="183" s="28" customFormat="1" spans="5:24">
+      <c r="E183" s="28" t="s">
         <v>826</v>
       </c>
-      <c r="F183" s="29" t="s">
+      <c r="F183" s="28" t="s">
         <v>827</v>
       </c>
-      <c r="G183" s="29" t="s">
+      <c r="G183" s="28" t="s">
         <v>828</v>
       </c>
-      <c r="H183" s="29" t="s">
+      <c r="H183" s="28" t="s">
         <v>828</v>
       </c>
-      <c r="I183" s="29" t="s">
+      <c r="I183" s="28" t="s">
         <v>829</v>
       </c>
-      <c r="J183" s="29" t="s">
+      <c r="J183" s="28" t="s">
         <v>79</v>
       </c>
-      <c r="K183" s="29">
+      <c r="K183" s="28">
         <v>0</v>
       </c>
-      <c r="L183" s="29" t="s">
+      <c r="L183" s="28" t="s">
         <v>81</v>
       </c>
-      <c r="M183" s="29" t="s">
-        <v>80</v>
-      </c>
-      <c r="N183" s="29" t="s">
+      <c r="M183" s="28" t="s">
+        <v>80</v>
+      </c>
+      <c r="N183" s="28" t="s">
         <v>82</v>
       </c>
-      <c r="Q183" s="29" t="s">
-        <v>80</v>
-      </c>
-      <c r="R183" s="29" t="s">
-        <v>80</v>
-      </c>
-      <c r="S183" s="29" t="s">
+      <c r="Q183" s="28" t="s">
+        <v>80</v>
+      </c>
+      <c r="R183" s="28" t="s">
+        <v>80</v>
+      </c>
+      <c r="S183" s="28" t="s">
         <v>827</v>
       </c>
-      <c r="T183" s="29" t="s">
-        <v>80</v>
-      </c>
-      <c r="V183" s="29" t="s">
+      <c r="T183" s="28" t="s">
+        <v>80</v>
+      </c>
+      <c r="V183" s="28" t="s">
         <v>83</v>
       </c>
-      <c r="X183" s="29" t="s">
+      <c r="X183" s="28" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="184" s="29" customFormat="1" spans="5:24">
-      <c r="E184" s="29" t="s">
+    <row r="184" s="28" customFormat="1" spans="5:24">
+      <c r="E184" s="28" t="s">
         <v>830</v>
       </c>
-      <c r="F184" s="29" t="s">
+      <c r="F184" s="28" t="s">
         <v>831</v>
       </c>
-      <c r="G184" s="29" t="s">
+      <c r="G184" s="28" t="s">
         <v>828</v>
       </c>
-      <c r="H184" s="29" t="s">
+      <c r="H184" s="28" t="s">
         <v>828</v>
       </c>
-      <c r="I184" s="29" t="s">
+      <c r="I184" s="28" t="s">
         <v>829</v>
       </c>
-      <c r="J184" s="29" t="s">
+      <c r="J184" s="28" t="s">
         <v>832</v>
       </c>
-      <c r="K184" s="29" t="s">
-        <v>80</v>
-      </c>
-      <c r="L184" s="29" t="s">
+      <c r="K184" s="28" t="s">
+        <v>80</v>
+      </c>
+      <c r="L184" s="28" t="s">
         <v>81</v>
       </c>
-      <c r="M184" s="29">
+      <c r="M184" s="28">
         <v>10</v>
       </c>
-      <c r="N184" s="29" t="s">
+      <c r="N184" s="28" t="s">
         <v>82</v>
       </c>
-      <c r="Q184" s="29" t="s">
-        <v>80</v>
-      </c>
-      <c r="R184" s="29" t="s">
-        <v>80</v>
-      </c>
-      <c r="S184" s="29" t="s">
+      <c r="Q184" s="28" t="s">
+        <v>80</v>
+      </c>
+      <c r="R184" s="28" t="s">
+        <v>80</v>
+      </c>
+      <c r="S184" s="28" t="s">
         <v>831</v>
       </c>
-      <c r="T184" s="29" t="s">
-        <v>80</v>
-      </c>
-      <c r="V184" s="29" t="s">
+      <c r="T184" s="28" t="s">
+        <v>80</v>
+      </c>
+      <c r="V184" s="28" t="s">
         <v>83</v>
       </c>
-      <c r="X184" s="29" t="s">
+      <c r="X184" s="28" t="s">
         <v>82</v>
       </c>
     </row>
@@ -20032,7 +20006,7 @@
       <c r="N185" s="5">
         <v>1</v>
       </c>
-      <c r="O185" s="33" t="s">
+      <c r="O185" s="31" t="s">
         <v>836</v>
       </c>
       <c r="P185" s="5" t="s">
@@ -20422,7 +20396,7 @@
       <c r="N193" s="6">
         <v>1</v>
       </c>
-      <c r="O193" s="34" t="s">
+      <c r="O193" s="32" t="s">
         <v>836</v>
       </c>
       <c r="P193" s="6" t="s">
@@ -20784,16 +20758,16 @@
       </c>
     </row>
     <row r="201" spans="5:24">
-      <c r="E201" s="9" t="s">
+      <c r="E201" s="6" t="s">
         <v>892</v>
       </c>
-      <c r="F201" s="32" t="s">
+      <c r="F201" s="7" t="s">
         <v>893</v>
       </c>
-      <c r="G201" s="9" t="s">
+      <c r="G201" s="6" t="s">
         <v>894</v>
       </c>
-      <c r="H201" s="9" t="s">
+      <c r="H201" s="6" t="s">
         <v>894</v>
       </c>
       <c r="J201" s="5" t="s">
@@ -20803,36 +20777,36 @@
         <f>菜单SAAS版!$E$13</f>
         <v>iam_menu-13</v>
       </c>
-      <c r="L201" s="9" t="s">
+      <c r="L201" s="6" t="s">
         <v>95</v>
       </c>
-      <c r="N201" s="9">
+      <c r="N201" s="6">
         <v>1</v>
       </c>
-      <c r="O201" s="32" t="s">
+      <c r="O201" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="Q201" s="9">
+      <c r="Q201" s="6">
         <v>0</v>
       </c>
-      <c r="R201" s="9">
+      <c r="R201" s="6">
         <v>0</v>
       </c>
-      <c r="S201" s="9" t="s">
+      <c r="S201" s="6" t="s">
         <v>895</v>
       </c>
-      <c r="T201" s="9">
+      <c r="T201" s="6">
         <v>0</v>
       </c>
-      <c r="V201" s="9" t="s">
+      <c r="V201" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="X201" s="9">
+      <c r="X201" s="6">
         <v>1</v>
       </c>
     </row>
     <row r="202" spans="5:24">
-      <c r="E202" s="9" t="s">
+      <c r="E202" s="6" t="s">
         <v>896</v>
       </c>
       <c r="F202" t="s">
@@ -20883,10 +20857,10 @@
       </c>
     </row>
     <row r="203" spans="5:5">
-      <c r="E203" s="9"/>
+      <c r="E203" s="6"/>
     </row>
   </sheetData>
-  <autoFilter ref="L1:L201">
+  <autoFilter ref="L1:L202">
     <extLst/>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -20899,8 +20873,8 @@
   <sheetPr/>
   <dimension ref="A1:G629"/>
   <sheetViews>
-    <sheetView topLeftCell="C613" workbookViewId="0">
-      <selection activeCell="E629" sqref="E629"/>
+    <sheetView topLeftCell="C436" workbookViewId="0">
+      <selection activeCell="F437" sqref="F437"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25" outlineLevelCol="6"/>
@@ -26167,14 +26141,14 @@
       </c>
     </row>
     <row r="442" spans="5:7">
-      <c r="E442" s="15" t="s">
+      <c r="E442" s="14" t="s">
         <v>1593</v>
       </c>
-      <c r="F442" s="15" t="str">
+      <c r="F442" s="14" t="str">
         <f>菜单SAAS版!E95</f>
         <v>iam_menu-95</v>
       </c>
-      <c r="G442" s="15" t="s">
+      <c r="G442" s="14" t="s">
         <v>1594</v>
       </c>
     </row>
@@ -26182,28 +26156,28 @@
       <c r="E443" s="8" t="s">
         <v>1595</v>
       </c>
-      <c r="F443" s="17" t="str">
+      <c r="F443" s="16" t="str">
         <f>菜单SAAS版!E142</f>
         <v>iam_menu-142</v>
       </c>
-      <c r="G443" s="17" t="s">
+      <c r="G443" s="16" t="s">
         <v>1596</v>
       </c>
     </row>
     <row r="444" spans="5:7">
-      <c r="E444" s="18" t="s">
+      <c r="E444" s="17" t="s">
         <v>1597</v>
       </c>
-      <c r="F444" s="18" t="str">
+      <c r="F444" s="17" t="str">
         <f>菜单SAAS版!E138</f>
         <v>iam_menu-138</v>
       </c>
-      <c r="G444" s="18" t="s">
+      <c r="G444" s="17" t="s">
         <v>1598</v>
       </c>
     </row>
     <row r="445" spans="5:7">
-      <c r="E445" s="13" t="s">
+      <c r="E445" s="12" t="s">
         <v>1599</v>
       </c>
       <c r="F445" t="str">
@@ -26215,7 +26189,7 @@
       </c>
     </row>
     <row r="446" spans="5:7">
-      <c r="E446" s="13" t="s">
+      <c r="E446" s="12" t="s">
         <v>1601</v>
       </c>
       <c r="F446" t="str">
@@ -26227,7 +26201,7 @@
       </c>
     </row>
     <row r="447" spans="5:7">
-      <c r="E447" s="13" t="s">
+      <c r="E447" s="12" t="s">
         <v>1603</v>
       </c>
       <c r="F447" t="str">
@@ -26239,7 +26213,7 @@
       </c>
     </row>
     <row r="448" spans="5:7">
-      <c r="E448" s="13" t="s">
+      <c r="E448" s="12" t="s">
         <v>1605</v>
       </c>
       <c r="F448" t="str">
@@ -26251,7 +26225,7 @@
       </c>
     </row>
     <row r="449" spans="5:7">
-      <c r="E449" s="13" t="s">
+      <c r="E449" s="12" t="s">
         <v>1607</v>
       </c>
       <c r="F449" t="str">
@@ -26263,7 +26237,7 @@
       </c>
     </row>
     <row r="450" spans="5:7">
-      <c r="E450" s="13" t="s">
+      <c r="E450" s="12" t="s">
         <v>1608</v>
       </c>
       <c r="F450" t="str">
@@ -26275,7 +26249,7 @@
       </c>
     </row>
     <row r="451" spans="5:7">
-      <c r="E451" s="13" t="s">
+      <c r="E451" s="12" t="s">
         <v>1610</v>
       </c>
       <c r="F451" t="str">
@@ -26287,7 +26261,7 @@
       </c>
     </row>
     <row r="452" spans="5:7">
-      <c r="E452" s="13" t="s">
+      <c r="E452" s="12" t="s">
         <v>1611</v>
       </c>
       <c r="F452" t="str">
@@ -26299,7 +26273,7 @@
       </c>
     </row>
     <row r="453" spans="5:7">
-      <c r="E453" s="13" t="s">
+      <c r="E453" s="12" t="s">
         <v>1613</v>
       </c>
       <c r="F453" t="str">
@@ -26311,7 +26285,7 @@
       </c>
     </row>
     <row r="454" spans="5:7">
-      <c r="E454" s="13" t="s">
+      <c r="E454" s="12" t="s">
         <v>1615</v>
       </c>
       <c r="F454" t="str">
@@ -26323,7 +26297,7 @@
       </c>
     </row>
     <row r="455" spans="5:7">
-      <c r="E455" s="13" t="s">
+      <c r="E455" s="12" t="s">
         <v>1616</v>
       </c>
       <c r="F455" t="str">
@@ -26335,7 +26309,7 @@
       </c>
     </row>
     <row r="456" spans="5:7">
-      <c r="E456" s="13" t="s">
+      <c r="E456" s="12" t="s">
         <v>1617</v>
       </c>
       <c r="F456" t="str">
@@ -26347,7 +26321,7 @@
       </c>
     </row>
     <row r="457" spans="5:7">
-      <c r="E457" s="13" t="s">
+      <c r="E457" s="12" t="s">
         <v>1619</v>
       </c>
       <c r="F457" t="str">
@@ -26359,7 +26333,7 @@
       </c>
     </row>
     <row r="458" spans="5:7">
-      <c r="E458" s="13" t="s">
+      <c r="E458" s="12" t="s">
         <v>1621</v>
       </c>
       <c r="F458" t="str">
@@ -26371,7 +26345,7 @@
       </c>
     </row>
     <row r="459" spans="5:7">
-      <c r="E459" s="13" t="s">
+      <c r="E459" s="12" t="s">
         <v>1623</v>
       </c>
       <c r="F459" t="str">
@@ -26383,7 +26357,7 @@
       </c>
     </row>
     <row r="460" spans="5:7">
-      <c r="E460" s="13" t="s">
+      <c r="E460" s="12" t="s">
         <v>1625</v>
       </c>
       <c r="F460" t="str">
@@ -26395,7 +26369,7 @@
       </c>
     </row>
     <row r="461" spans="5:7">
-      <c r="E461" s="13" t="s">
+      <c r="E461" s="12" t="s">
         <v>1627</v>
       </c>
       <c r="F461" t="str">
@@ -26407,7 +26381,7 @@
       </c>
     </row>
     <row r="462" spans="5:7">
-      <c r="E462" s="13" t="s">
+      <c r="E462" s="12" t="s">
         <v>1629</v>
       </c>
       <c r="F462" t="str">
@@ -26419,7 +26393,7 @@
       </c>
     </row>
     <row r="463" spans="5:7">
-      <c r="E463" s="13" t="s">
+      <c r="E463" s="12" t="s">
         <v>1630</v>
       </c>
       <c r="F463" t="str">
@@ -26431,7 +26405,7 @@
       </c>
     </row>
     <row r="464" spans="5:7">
-      <c r="E464" s="13" t="s">
+      <c r="E464" s="12" t="s">
         <v>1631</v>
       </c>
       <c r="F464" t="str">
@@ -26443,7 +26417,7 @@
       </c>
     </row>
     <row r="465" spans="5:7">
-      <c r="E465" s="13" t="s">
+      <c r="E465" s="12" t="s">
         <v>1632</v>
       </c>
       <c r="F465" t="str">
@@ -26455,7 +26429,7 @@
       </c>
     </row>
     <row r="466" spans="5:7">
-      <c r="E466" s="13" t="s">
+      <c r="E466" s="12" t="s">
         <v>1633</v>
       </c>
       <c r="F466" t="str">
@@ -26467,7 +26441,7 @@
       </c>
     </row>
     <row r="467" spans="5:7">
-      <c r="E467" s="13" t="s">
+      <c r="E467" s="12" t="s">
         <v>1634</v>
       </c>
       <c r="F467" t="str">
@@ -26479,7 +26453,7 @@
       </c>
     </row>
     <row r="468" spans="5:7">
-      <c r="E468" s="13" t="s">
+      <c r="E468" s="12" t="s">
         <v>1635</v>
       </c>
       <c r="F468" t="str">
@@ -26491,7 +26465,7 @@
       </c>
     </row>
     <row r="469" spans="5:7">
-      <c r="E469" s="13" t="s">
+      <c r="E469" s="12" t="s">
         <v>1636</v>
       </c>
       <c r="F469" t="str">
@@ -26503,7 +26477,7 @@
       </c>
     </row>
     <row r="470" spans="5:7">
-      <c r="E470" s="13" t="s">
+      <c r="E470" s="12" t="s">
         <v>1637</v>
       </c>
       <c r="F470" t="str">
@@ -26515,7 +26489,7 @@
       </c>
     </row>
     <row r="471" spans="5:7">
-      <c r="E471" s="13" t="s">
+      <c r="E471" s="12" t="s">
         <v>1638</v>
       </c>
       <c r="F471" t="str">
@@ -26527,7 +26501,7 @@
       </c>
     </row>
     <row r="472" spans="5:7">
-      <c r="E472" s="13" t="s">
+      <c r="E472" s="12" t="s">
         <v>1639</v>
       </c>
       <c r="F472" t="str">
@@ -26539,7 +26513,7 @@
       </c>
     </row>
     <row r="473" spans="5:7">
-      <c r="E473" s="13" t="s">
+      <c r="E473" s="12" t="s">
         <v>1640</v>
       </c>
       <c r="F473" t="str">
@@ -26551,7 +26525,7 @@
       </c>
     </row>
     <row r="474" spans="5:7">
-      <c r="E474" s="13" t="s">
+      <c r="E474" s="12" t="s">
         <v>1641</v>
       </c>
       <c r="F474" t="str">
@@ -26563,7 +26537,7 @@
       </c>
     </row>
     <row r="475" spans="5:7">
-      <c r="E475" s="13" t="s">
+      <c r="E475" s="12" t="s">
         <v>1643</v>
       </c>
       <c r="F475" t="str">
@@ -26575,7 +26549,7 @@
       </c>
     </row>
     <row r="476" spans="5:7">
-      <c r="E476" s="13" t="s">
+      <c r="E476" s="12" t="s">
         <v>1645</v>
       </c>
       <c r="F476" t="str">
@@ -26587,7 +26561,7 @@
       </c>
     </row>
     <row r="477" spans="5:7">
-      <c r="E477" s="13" t="s">
+      <c r="E477" s="12" t="s">
         <v>1647</v>
       </c>
       <c r="F477" t="str">
@@ -26599,7 +26573,7 @@
       </c>
     </row>
     <row r="478" spans="5:7">
-      <c r="E478" s="13" t="s">
+      <c r="E478" s="12" t="s">
         <v>1649</v>
       </c>
       <c r="F478" t="str">
@@ -26611,7 +26585,7 @@
       </c>
     </row>
     <row r="479" spans="5:7">
-      <c r="E479" s="13" t="s">
+      <c r="E479" s="12" t="s">
         <v>1651</v>
       </c>
       <c r="F479" t="str">
@@ -26623,7 +26597,7 @@
       </c>
     </row>
     <row r="480" spans="5:7">
-      <c r="E480" s="13" t="s">
+      <c r="E480" s="12" t="s">
         <v>1653</v>
       </c>
       <c r="F480" t="str">
@@ -26635,7 +26609,7 @@
       </c>
     </row>
     <row r="481" spans="5:7">
-      <c r="E481" s="13" t="s">
+      <c r="E481" s="12" t="s">
         <v>1655</v>
       </c>
       <c r="F481" t="str">
@@ -26647,7 +26621,7 @@
       </c>
     </row>
     <row r="482" spans="5:7">
-      <c r="E482" s="13" t="s">
+      <c r="E482" s="12" t="s">
         <v>1657</v>
       </c>
       <c r="F482" t="str">
@@ -26659,7 +26633,7 @@
       </c>
     </row>
     <row r="483" spans="5:7">
-      <c r="E483" s="13" t="s">
+      <c r="E483" s="12" t="s">
         <v>1659</v>
       </c>
       <c r="F483" t="str">
@@ -26671,67 +26645,67 @@
       </c>
     </row>
     <row r="484" spans="5:7">
-      <c r="E484" s="13" t="s">
+      <c r="E484" s="12" t="s">
         <v>1661</v>
       </c>
       <c r="F484" t="str">
         <f>菜单SAAS版!E95</f>
         <v>iam_menu-95</v>
       </c>
-      <c r="G484" s="15" t="s">
+      <c r="G484" s="14" t="s">
         <v>1594</v>
       </c>
     </row>
     <row r="485" spans="5:7">
-      <c r="E485" s="13" t="s">
+      <c r="E485" s="12" t="s">
         <v>1662</v>
       </c>
       <c r="F485" t="str">
         <f>菜单SAAS版!E142</f>
         <v>iam_menu-142</v>
       </c>
-      <c r="G485" s="17" t="s">
+      <c r="G485" s="16" t="s">
         <v>1596</v>
       </c>
     </row>
     <row r="486" spans="5:7">
-      <c r="E486" s="13" t="s">
+      <c r="E486" s="12" t="s">
         <v>1663</v>
       </c>
       <c r="F486" t="str">
         <f>菜单SAAS版!E138</f>
         <v>iam_menu-138</v>
       </c>
-      <c r="G486" s="18" t="s">
+      <c r="G486" s="17" t="s">
         <v>1598</v>
       </c>
     </row>
     <row r="487" spans="5:7">
-      <c r="E487" s="13" t="s">
+      <c r="E487" s="12" t="s">
         <v>1664</v>
       </c>
       <c r="F487" t="str">
         <f>菜单SAAS版!E97</f>
         <v>iam_menu-97</v>
       </c>
-      <c r="G487" s="19" t="s">
+      <c r="G487" s="18" t="s">
         <v>1665</v>
       </c>
     </row>
     <row r="488" spans="5:7">
-      <c r="E488" s="13" t="s">
+      <c r="E488" s="12" t="s">
         <v>1666</v>
       </c>
       <c r="F488" t="str">
         <f>菜单SAAS版!E92</f>
         <v>iam_menu-92</v>
       </c>
-      <c r="G488" s="15" t="s">
+      <c r="G488" s="14" t="s">
         <v>1667</v>
       </c>
     </row>
     <row r="489" spans="5:7">
-      <c r="E489" s="20" t="s">
+      <c r="E489" s="19" t="s">
         <v>1668</v>
       </c>
       <c r="F489" t="str">
@@ -26743,314 +26717,314 @@
       </c>
     </row>
     <row r="490" spans="5:7">
-      <c r="E490" s="19" t="s">
+      <c r="E490" s="18" t="s">
         <v>1670</v>
       </c>
-      <c r="F490" s="19" t="str">
+      <c r="F490" s="18" t="str">
         <f>菜单SAAS版!E147</f>
         <v>iam_menu-147</v>
       </c>
-      <c r="G490" s="19" t="s">
+      <c r="G490" s="18" t="s">
         <v>1671</v>
       </c>
     </row>
     <row r="491" spans="5:7">
-      <c r="E491" s="18" t="s">
+      <c r="E491" s="17" t="s">
         <v>1672</v>
       </c>
-      <c r="F491" s="18" t="str">
+      <c r="F491" s="17" t="str">
         <f>菜单SAAS版!E157</f>
         <v>iam_menu-157</v>
       </c>
-      <c r="G491" s="18" t="s">
+      <c r="G491" s="17" t="s">
         <v>1673</v>
       </c>
     </row>
     <row r="492" spans="5:7">
-      <c r="E492" s="18" t="s">
+      <c r="E492" s="17" t="s">
         <v>1674</v>
       </c>
-      <c r="F492" s="18" t="str">
+      <c r="F492" s="17" t="str">
         <f>菜单SAAS版!E103</f>
         <v>iam_menu-103</v>
       </c>
-      <c r="G492" s="18" t="s">
+      <c r="G492" s="17" t="s">
         <v>1675</v>
       </c>
     </row>
-    <row r="493" s="13" customFormat="1" spans="5:7">
-      <c r="E493" s="13" t="s">
+    <row r="493" s="12" customFormat="1" spans="5:7">
+      <c r="E493" s="12" t="s">
         <v>1676</v>
       </c>
-      <c r="F493" s="13" t="str">
+      <c r="F493" s="12" t="str">
         <f>菜单SAAS版!E169</f>
         <v>iam_menu-169</v>
       </c>
-      <c r="G493" s="13" t="s">
+      <c r="G493" s="12" t="s">
         <v>1677</v>
       </c>
     </row>
     <row r="494" spans="5:7">
-      <c r="E494" s="13" t="s">
+      <c r="E494" s="12" t="s">
         <v>1678</v>
       </c>
-      <c r="F494" s="13" t="str">
+      <c r="F494" s="12" t="str">
         <f>菜单SAAS版!E141</f>
         <v>iam_menu-141</v>
       </c>
-      <c r="G494" s="13" t="s">
+      <c r="G494" s="12" t="s">
         <v>1064</v>
       </c>
     </row>
     <row r="495" spans="5:7">
-      <c r="E495" s="13" t="s">
+      <c r="E495" s="12" t="s">
         <v>1679</v>
       </c>
-      <c r="F495" s="13" t="str">
+      <c r="F495" s="12" t="str">
         <f>菜单SAAS版!E141</f>
         <v>iam_menu-141</v>
       </c>
-      <c r="G495" s="13" t="s">
+      <c r="G495" s="12" t="s">
         <v>1062</v>
       </c>
     </row>
     <row r="496" spans="5:7">
-      <c r="E496" s="13" t="s">
+      <c r="E496" s="12" t="s">
         <v>1680</v>
       </c>
-      <c r="F496" s="13" t="str">
+      <c r="F496" s="12" t="str">
         <f>菜单SAAS版!E141</f>
         <v>iam_menu-141</v>
       </c>
-      <c r="G496" s="13" t="s">
+      <c r="G496" s="12" t="s">
         <v>1066</v>
       </c>
     </row>
     <row r="497" spans="5:7">
-      <c r="E497" s="13" t="s">
+      <c r="E497" s="12" t="s">
         <v>1681</v>
       </c>
-      <c r="F497" s="13" t="str">
+      <c r="F497" s="12" t="str">
         <f>菜单SAAS版!E141</f>
         <v>iam_menu-141</v>
       </c>
-      <c r="G497" s="13" t="s">
+      <c r="G497" s="12" t="s">
         <v>1068</v>
       </c>
     </row>
     <row r="498" spans="5:7">
-      <c r="E498" s="13" t="s">
+      <c r="E498" s="12" t="s">
         <v>1682</v>
       </c>
-      <c r="F498" s="13" t="str">
+      <c r="F498" s="12" t="str">
         <f>菜单SAAS版!E151</f>
         <v>iam_menu-151</v>
       </c>
-      <c r="G498" s="13" t="s">
+      <c r="G498" s="12" t="s">
         <v>1064</v>
       </c>
     </row>
     <row r="499" spans="5:7">
-      <c r="E499" s="13" t="s">
+      <c r="E499" s="12" t="s">
         <v>1683</v>
       </c>
-      <c r="F499" s="13" t="str">
+      <c r="F499" s="12" t="str">
         <f>菜单SAAS版!E151</f>
         <v>iam_menu-151</v>
       </c>
-      <c r="G499" s="13" t="s">
+      <c r="G499" s="12" t="s">
         <v>1062</v>
       </c>
     </row>
     <row r="500" spans="5:7">
-      <c r="E500" s="13" t="s">
+      <c r="E500" s="12" t="s">
         <v>1684</v>
       </c>
-      <c r="F500" s="13" t="str">
+      <c r="F500" s="12" t="str">
         <f>菜单SAAS版!E151</f>
         <v>iam_menu-151</v>
       </c>
-      <c r="G500" s="13" t="s">
+      <c r="G500" s="12" t="s">
         <v>1066</v>
       </c>
     </row>
     <row r="501" spans="5:7">
-      <c r="E501" s="13" t="s">
+      <c r="E501" s="12" t="s">
         <v>1685</v>
       </c>
-      <c r="F501" s="13" t="str">
+      <c r="F501" s="12" t="str">
         <f>菜单SAAS版!E151</f>
         <v>iam_menu-151</v>
       </c>
-      <c r="G501" s="13" t="s">
+      <c r="G501" s="12" t="s">
         <v>1068</v>
       </c>
     </row>
     <row r="502" spans="5:7">
-      <c r="E502" s="15" t="s">
+      <c r="E502" s="14" t="s">
         <v>1686</v>
       </c>
-      <c r="F502" s="15" t="str">
+      <c r="F502" s="14" t="str">
         <f>菜单SAAS版!E95</f>
         <v>iam_menu-95</v>
       </c>
-      <c r="G502" s="15" t="s">
+      <c r="G502" s="14" t="s">
         <v>1687</v>
       </c>
     </row>
     <row r="503" spans="5:7">
-      <c r="E503" s="21" t="s">
+      <c r="E503" s="20" t="s">
         <v>1688</v>
       </c>
-      <c r="F503" s="21" t="str">
+      <c r="F503" s="20" t="str">
         <f>菜单SAAS版!E131</f>
         <v>iam_menu-131</v>
       </c>
-      <c r="G503" s="21" t="s">
+      <c r="G503" s="20" t="s">
         <v>1689</v>
       </c>
     </row>
     <row r="504" spans="5:7">
-      <c r="E504" s="21" t="s">
+      <c r="E504" s="20" t="s">
         <v>1690</v>
       </c>
-      <c r="F504" s="13" t="str">
+      <c r="F504" s="12" t="str">
         <f>菜单SAAS版!E47</f>
         <v>iam_menu-47</v>
       </c>
-      <c r="G504" s="13" t="s">
+      <c r="G504" s="12" t="s">
         <v>1691</v>
       </c>
     </row>
     <row r="505" spans="5:7">
-      <c r="E505" s="21" t="s">
+      <c r="E505" s="20" t="s">
         <v>1692</v>
       </c>
-      <c r="F505" s="13" t="str">
+      <c r="F505" s="12" t="str">
         <f>菜单SAAS版!E47</f>
         <v>iam_menu-47</v>
       </c>
-      <c r="G505" s="13" t="s">
+      <c r="G505" s="12" t="s">
         <v>1693</v>
       </c>
     </row>
     <row r="506" spans="5:7">
-      <c r="E506" s="21" t="s">
+      <c r="E506" s="20" t="s">
         <v>1694</v>
       </c>
-      <c r="F506" s="13" t="str">
+      <c r="F506" s="12" t="str">
         <f>菜单SAAS版!E48</f>
         <v>iam_menu-48</v>
       </c>
-      <c r="G506" s="13" t="s">
+      <c r="G506" s="12" t="s">
         <v>1691</v>
       </c>
     </row>
     <row r="507" spans="5:7">
-      <c r="E507" s="21" t="s">
+      <c r="E507" s="20" t="s">
         <v>1695</v>
       </c>
-      <c r="F507" s="13" t="str">
+      <c r="F507" s="12" t="str">
         <f>菜单SAAS版!E48</f>
         <v>iam_menu-48</v>
       </c>
-      <c r="G507" s="13" t="s">
+      <c r="G507" s="12" t="s">
         <v>1693</v>
       </c>
     </row>
     <row r="508" spans="5:7">
-      <c r="E508" s="21" t="s">
+      <c r="E508" s="20" t="s">
         <v>1696</v>
       </c>
-      <c r="F508" s="13" t="str">
+      <c r="F508" s="12" t="str">
         <f>菜单SAAS版!E49</f>
         <v>iam_menu-49</v>
       </c>
-      <c r="G508" s="13" t="s">
+      <c r="G508" s="12" t="s">
         <v>1691</v>
       </c>
     </row>
     <row r="509" spans="5:7">
-      <c r="E509" s="21" t="s">
+      <c r="E509" s="20" t="s">
         <v>1697</v>
       </c>
-      <c r="F509" s="13" t="str">
+      <c r="F509" s="12" t="str">
         <f>菜单SAAS版!E49</f>
         <v>iam_menu-49</v>
       </c>
-      <c r="G509" s="13" t="s">
+      <c r="G509" s="12" t="s">
         <v>1693</v>
       </c>
     </row>
     <row r="510" spans="5:7">
-      <c r="E510" s="21" t="s">
+      <c r="E510" s="20" t="s">
         <v>1698</v>
       </c>
-      <c r="F510" s="13" t="str">
+      <c r="F510" s="12" t="str">
         <f>菜单SAAS版!E52</f>
         <v>iam_menu-52</v>
       </c>
-      <c r="G510" s="13" t="s">
+      <c r="G510" s="12" t="s">
         <v>1691</v>
       </c>
     </row>
     <row r="511" spans="5:7">
-      <c r="E511" s="21" t="s">
+      <c r="E511" s="20" t="s">
         <v>1699</v>
       </c>
-      <c r="F511" s="13" t="str">
+      <c r="F511" s="12" t="str">
         <f>菜单SAAS版!E52</f>
         <v>iam_menu-52</v>
       </c>
-      <c r="G511" s="13" t="s">
+      <c r="G511" s="12" t="s">
         <v>1693</v>
       </c>
     </row>
     <row r="512" spans="5:7">
-      <c r="E512" s="21" t="s">
+      <c r="E512" s="20" t="s">
         <v>1700</v>
       </c>
-      <c r="F512" s="13" t="str">
+      <c r="F512" s="12" t="str">
         <f>菜单SAAS版!E53</f>
         <v>iam_menu-53</v>
       </c>
-      <c r="G512" s="13" t="s">
+      <c r="G512" s="12" t="s">
         <v>1691</v>
       </c>
     </row>
     <row r="513" spans="5:7">
-      <c r="E513" s="21" t="s">
+      <c r="E513" s="20" t="s">
         <v>1701</v>
       </c>
-      <c r="F513" s="13" t="str">
+      <c r="F513" s="12" t="str">
         <f>菜单SAAS版!E53</f>
         <v>iam_menu-53</v>
       </c>
-      <c r="G513" s="13" t="s">
+      <c r="G513" s="12" t="s">
         <v>1693</v>
       </c>
     </row>
     <row r="514" spans="5:7">
-      <c r="E514" s="21" t="s">
+      <c r="E514" s="20" t="s">
         <v>1702</v>
       </c>
-      <c r="F514" s="13" t="str">
+      <c r="F514" s="12" t="str">
         <f>菜单SAAS版!E54</f>
         <v>iam_menu-54</v>
       </c>
-      <c r="G514" s="13" t="s">
+      <c r="G514" s="12" t="s">
         <v>1691</v>
       </c>
     </row>
     <row r="515" spans="5:7">
-      <c r="E515" s="21" t="s">
+      <c r="E515" s="20" t="s">
         <v>1703</v>
       </c>
-      <c r="F515" s="13" t="str">
+      <c r="F515" s="12" t="str">
         <f>菜单SAAS版!E54</f>
         <v>iam_menu-54</v>
       </c>
-      <c r="G515" s="13" t="s">
+      <c r="G515" s="12" t="s">
         <v>1693</v>
       </c>
     </row>
@@ -27235,91 +27209,91 @@
       </c>
     </row>
     <row r="531" spans="5:7">
-      <c r="E531" s="15" t="s">
+      <c r="E531" s="14" t="s">
         <v>1730</v>
       </c>
-      <c r="F531" s="15" t="str">
+      <c r="F531" s="14" t="str">
         <f>菜单SAAS版!E20</f>
         <v>iam_menu-20</v>
       </c>
-      <c r="G531" s="15" t="s">
+      <c r="G531" s="14" t="s">
         <v>1731</v>
       </c>
     </row>
-    <row r="532" s="14" customFormat="1" spans="5:7">
-      <c r="E532" s="14" t="s">
+    <row r="532" s="13" customFormat="1" spans="5:7">
+      <c r="E532" s="13" t="s">
         <v>1732</v>
       </c>
-      <c r="F532" s="14" t="str">
+      <c r="F532" s="13" t="str">
         <f>菜单SAAS版!$E$177</f>
         <v>iam_menu-177</v>
       </c>
-      <c r="G532" s="14" t="s">
+      <c r="G532" s="13" t="s">
         <v>1733</v>
       </c>
     </row>
-    <row r="533" s="14" customFormat="1" spans="5:7">
-      <c r="E533" s="14" t="s">
+    <row r="533" s="13" customFormat="1" spans="5:7">
+      <c r="E533" s="13" t="s">
         <v>1734</v>
       </c>
-      <c r="F533" s="14" t="str">
+      <c r="F533" s="13" t="str">
         <f>菜单SAAS版!$E$178</f>
         <v>iam_menu-178</v>
       </c>
-      <c r="G533" s="14" t="s">
+      <c r="G533" s="13" t="s">
         <v>1735</v>
       </c>
     </row>
-    <row r="534" s="14" customFormat="1" spans="5:7">
-      <c r="E534" s="14" t="s">
+    <row r="534" s="13" customFormat="1" spans="5:7">
+      <c r="E534" s="13" t="s">
         <v>1736</v>
       </c>
-      <c r="F534" s="14" t="str">
+      <c r="F534" s="13" t="str">
         <f>菜单SAAS版!$E$179</f>
         <v>iam_menu-179</v>
       </c>
-      <c r="G534" s="14" t="s">
+      <c r="G534" s="13" t="s">
         <v>1737</v>
       </c>
     </row>
-    <row r="535" s="14" customFormat="1" spans="5:7">
-      <c r="E535" s="14" t="s">
+    <row r="535" s="13" customFormat="1" spans="5:7">
+      <c r="E535" s="13" t="s">
         <v>1738</v>
       </c>
-      <c r="F535" s="14" t="str">
+      <c r="F535" s="13" t="str">
         <f>菜单SAAS版!$E$180</f>
         <v>iam_menu-180</v>
       </c>
-      <c r="G535" s="14" t="s">
+      <c r="G535" s="13" t="s">
         <v>1737</v>
       </c>
     </row>
-    <row r="536" s="14" customFormat="1" spans="5:7">
-      <c r="E536" s="14" t="s">
+    <row r="536" s="13" customFormat="1" spans="5:7">
+      <c r="E536" s="13" t="s">
         <v>1739</v>
       </c>
-      <c r="F536" s="14" t="str">
+      <c r="F536" s="13" t="str">
         <f>菜单SAAS版!$E$176</f>
         <v>iam_menu-176</v>
       </c>
-      <c r="G536" s="14" t="s">
+      <c r="G536" s="13" t="s">
         <v>1177</v>
       </c>
     </row>
-    <row r="537" s="14" customFormat="1" spans="5:7">
-      <c r="E537" s="14" t="s">
+    <row r="537" s="13" customFormat="1" spans="5:7">
+      <c r="E537" s="13" t="s">
         <v>1740</v>
       </c>
-      <c r="F537" s="14" t="str">
+      <c r="F537" s="13" t="str">
         <f>菜单SAAS版!$E$176</f>
         <v>iam_menu-176</v>
       </c>
-      <c r="G537" s="14" t="s">
+      <c r="G537" s="13" t="s">
         <v>1179</v>
       </c>
     </row>
     <row r="538" spans="5:7">
-      <c r="E538" s="14" t="s">
+      <c r="E538" s="13" t="s">
         <v>1741</v>
       </c>
       <c r="F538" t="str">
@@ -27331,7 +27305,7 @@
       </c>
     </row>
     <row r="539" spans="5:7">
-      <c r="E539" s="14" t="s">
+      <c r="E539" s="13" t="s">
         <v>1743</v>
       </c>
       <c r="F539" t="str">
@@ -27343,7 +27317,7 @@
       </c>
     </row>
     <row r="540" spans="5:7">
-      <c r="E540" s="14" t="s">
+      <c r="E540" s="13" t="s">
         <v>1745</v>
       </c>
       <c r="F540" t="str">
@@ -27355,7 +27329,7 @@
       </c>
     </row>
     <row r="541" spans="5:7">
-      <c r="E541" s="14" t="s">
+      <c r="E541" s="13" t="s">
         <v>1747</v>
       </c>
       <c r="F541" t="str">
@@ -27366,56 +27340,56 @@
         <v>1748</v>
       </c>
     </row>
-    <row r="542" s="15" customFormat="1" spans="5:7">
-      <c r="E542" s="15" t="s">
+    <row r="542" s="14" customFormat="1" spans="5:7">
+      <c r="E542" s="14" t="s">
         <v>1749</v>
       </c>
-      <c r="F542" s="15" t="str">
+      <c r="F542" s="14" t="str">
         <f>菜单SAAS版!$E$43</f>
         <v>iam_menu-43</v>
       </c>
-      <c r="G542" s="15" t="s">
+      <c r="G542" s="14" t="s">
         <v>1750</v>
       </c>
     </row>
     <row r="543" spans="5:7">
-      <c r="E543" s="21" t="s">
+      <c r="E543" s="20" t="s">
         <v>1751</v>
       </c>
-      <c r="F543" s="21" t="str">
+      <c r="F543" s="20" t="str">
         <f>菜单SAAS版!E95</f>
         <v>iam_menu-95</v>
       </c>
-      <c r="G543" s="21" t="s">
+      <c r="G543" s="20" t="s">
         <v>1752</v>
       </c>
     </row>
     <row r="544" spans="5:7">
-      <c r="E544" s="21" t="s">
+      <c r="E544" s="20" t="s">
         <v>1753</v>
       </c>
-      <c r="F544" s="21" t="str">
+      <c r="F544" s="20" t="str">
         <f>菜单SAAS版!E17</f>
         <v>iam_menu-17</v>
       </c>
-      <c r="G544" s="21" t="s">
+      <c r="G544" s="20" t="s">
         <v>1754</v>
       </c>
     </row>
     <row r="545" spans="5:7">
-      <c r="E545" s="18" t="s">
+      <c r="E545" s="17" t="s">
         <v>1755</v>
       </c>
-      <c r="F545" s="18" t="str">
+      <c r="F545" s="17" t="str">
         <f>菜单SAAS版!E147</f>
         <v>iam_menu-147</v>
       </c>
-      <c r="G545" s="18" t="s">
+      <c r="G545" s="17" t="s">
         <v>1756</v>
       </c>
     </row>
     <row r="546" spans="5:7">
-      <c r="E546" s="18" t="s">
+      <c r="E546" s="17" t="s">
         <v>1757</v>
       </c>
       <c r="F546" t="str">
@@ -27427,7 +27401,7 @@
       </c>
     </row>
     <row r="547" spans="5:7">
-      <c r="E547" s="18" t="s">
+      <c r="E547" s="17" t="s">
         <v>1759</v>
       </c>
       <c r="F547" t="str">
@@ -27439,7 +27413,7 @@
       </c>
     </row>
     <row r="548" spans="5:7">
-      <c r="E548" s="18" t="s">
+      <c r="E548" s="17" t="s">
         <v>1760</v>
       </c>
       <c r="F548" t="str">
@@ -27451,7 +27425,7 @@
       </c>
     </row>
     <row r="549" spans="5:7">
-      <c r="E549" s="18" t="s">
+      <c r="E549" s="17" t="s">
         <v>1762</v>
       </c>
       <c r="F549" t="str">
@@ -27463,7 +27437,7 @@
       </c>
     </row>
     <row r="550" spans="5:7">
-      <c r="E550" s="18" t="s">
+      <c r="E550" s="17" t="s">
         <v>1763</v>
       </c>
       <c r="F550" t="str">
@@ -27475,7 +27449,7 @@
       </c>
     </row>
     <row r="551" spans="5:7">
-      <c r="E551" s="18" t="s">
+      <c r="E551" s="17" t="s">
         <v>1765</v>
       </c>
       <c r="F551" t="str">
@@ -27487,7 +27461,7 @@
       </c>
     </row>
     <row r="552" spans="5:7">
-      <c r="E552" s="18" t="s">
+      <c r="E552" s="17" t="s">
         <v>1766</v>
       </c>
       <c r="F552" t="str">
@@ -27499,7 +27473,7 @@
       </c>
     </row>
     <row r="553" spans="5:7">
-      <c r="E553" s="18" t="s">
+      <c r="E553" s="17" t="s">
         <v>1767</v>
       </c>
       <c r="F553" t="str">
@@ -27511,7 +27485,7 @@
       </c>
     </row>
     <row r="554" spans="5:7">
-      <c r="E554" s="18" t="s">
+      <c r="E554" s="17" t="s">
         <v>1769</v>
       </c>
       <c r="F554" t="str">
@@ -27523,7 +27497,7 @@
       </c>
     </row>
     <row r="555" spans="5:7">
-      <c r="E555" s="18" t="s">
+      <c r="E555" s="17" t="s">
         <v>1770</v>
       </c>
       <c r="F555" t="str">
@@ -27535,26 +27509,26 @@
       </c>
     </row>
     <row r="556" spans="5:7">
-      <c r="E556" s="15" t="s">
+      <c r="E556" s="14" t="s">
         <v>1771</v>
       </c>
-      <c r="F556" s="15" t="str">
+      <c r="F556" s="14" t="str">
         <f>菜单SAAS版!E141</f>
         <v>iam_menu-141</v>
       </c>
-      <c r="G556" s="15" t="s">
+      <c r="G556" s="14" t="s">
         <v>1772</v>
       </c>
     </row>
     <row r="557" spans="5:7">
-      <c r="E557" s="15" t="s">
+      <c r="E557" s="14" t="s">
         <v>1773</v>
       </c>
-      <c r="F557" s="15" t="str">
+      <c r="F557" s="14" t="str">
         <f>菜单SAAS版!E151</f>
         <v>iam_menu-151</v>
       </c>
-      <c r="G557" s="15" t="s">
+      <c r="G557" s="14" t="s">
         <v>1772</v>
       </c>
     </row>
@@ -27738,219 +27712,219 @@
         <v>1798</v>
       </c>
     </row>
-    <row r="573" s="16" customFormat="1" spans="5:7">
-      <c r="E573" s="16" t="s">
+    <row r="573" s="15" customFormat="1" spans="5:7">
+      <c r="E573" s="15" t="s">
         <v>1799</v>
       </c>
-      <c r="F573" s="16" t="str">
+      <c r="F573" s="15" t="str">
         <f>菜单SAAS版!E20</f>
         <v>iam_menu-20</v>
       </c>
-      <c r="G573" s="16" t="s">
+      <c r="G573" s="15" t="s">
         <v>1800</v>
       </c>
     </row>
     <row r="574" spans="5:7">
-      <c r="E574" s="16" t="s">
+      <c r="E574" s="15" t="s">
         <v>1801</v>
       </c>
-      <c r="F574" s="16" t="str">
+      <c r="F574" s="15" t="str">
         <f>菜单SAAS版!E20</f>
         <v>iam_menu-20</v>
       </c>
-      <c r="G574" s="16" t="s">
+      <c r="G574" s="15" t="s">
         <v>1802</v>
       </c>
     </row>
     <row r="575" spans="5:7">
-      <c r="E575" s="16" t="s">
+      <c r="E575" s="15" t="s">
         <v>1803</v>
       </c>
-      <c r="F575" s="16" t="str">
+      <c r="F575" s="15" t="str">
         <f>菜单SAAS版!E20</f>
         <v>iam_menu-20</v>
       </c>
-      <c r="G575" s="16" t="s">
+      <c r="G575" s="15" t="s">
         <v>1804</v>
       </c>
     </row>
     <row r="576" spans="5:7">
-      <c r="E576" s="16" t="s">
+      <c r="E576" s="15" t="s">
         <v>1805</v>
       </c>
-      <c r="F576" s="16" t="str">
+      <c r="F576" s="15" t="str">
         <f>菜单SAAS版!E20</f>
         <v>iam_menu-20</v>
       </c>
-      <c r="G576" s="16" t="s">
+      <c r="G576" s="15" t="s">
         <v>1806</v>
       </c>
     </row>
-    <row r="577" s="16" customFormat="1" spans="5:7">
-      <c r="E577" s="16" t="s">
+    <row r="577" s="15" customFormat="1" spans="5:7">
+      <c r="E577" s="15" t="s">
         <v>1807</v>
       </c>
-      <c r="F577" s="16" t="str">
+      <c r="F577" s="15" t="str">
         <f>菜单SAAS版!E67</f>
         <v>iam_menu-67</v>
       </c>
-      <c r="G577" s="16" t="s">
+      <c r="G577" s="15" t="s">
         <v>1800</v>
       </c>
     </row>
     <row r="578" spans="5:7">
-      <c r="E578" s="16" t="s">
+      <c r="E578" s="15" t="s">
         <v>1808</v>
       </c>
-      <c r="F578" s="16" t="str">
+      <c r="F578" s="15" t="str">
         <f>菜单SAAS版!E67</f>
         <v>iam_menu-67</v>
       </c>
-      <c r="G578" s="16" t="s">
+      <c r="G578" s="15" t="s">
         <v>1802</v>
       </c>
     </row>
     <row r="579" spans="5:7">
-      <c r="E579" s="16" t="s">
+      <c r="E579" s="15" t="s">
         <v>1809</v>
       </c>
-      <c r="F579" s="16" t="str">
+      <c r="F579" s="15" t="str">
         <f>菜单SAAS版!E67</f>
         <v>iam_menu-67</v>
       </c>
-      <c r="G579" s="16" t="s">
+      <c r="G579" s="15" t="s">
         <v>1804</v>
       </c>
     </row>
     <row r="580" spans="5:7">
-      <c r="E580" s="16" t="s">
+      <c r="E580" s="15" t="s">
         <v>1810</v>
       </c>
-      <c r="F580" s="16" t="str">
+      <c r="F580" s="15" t="str">
         <f>菜单SAAS版!E67</f>
         <v>iam_menu-67</v>
       </c>
-      <c r="G580" s="16" t="s">
+      <c r="G580" s="15" t="s">
         <v>1806</v>
       </c>
     </row>
-    <row r="581" s="16" customFormat="1" spans="5:7">
-      <c r="E581" s="16" t="s">
+    <row r="581" s="15" customFormat="1" spans="5:7">
+      <c r="E581" s="15" t="s">
         <v>1811</v>
       </c>
-      <c r="F581" s="16" t="str">
+      <c r="F581" s="15" t="str">
         <f>菜单SAAS版!E78</f>
         <v>iam_menu-78</v>
       </c>
-      <c r="G581" s="16" t="s">
+      <c r="G581" s="15" t="s">
         <v>1800</v>
       </c>
     </row>
     <row r="582" spans="5:7">
-      <c r="E582" s="16" t="s">
+      <c r="E582" s="15" t="s">
         <v>1812</v>
       </c>
-      <c r="F582" s="16" t="str">
+      <c r="F582" s="15" t="str">
         <f>菜单SAAS版!E78</f>
         <v>iam_menu-78</v>
       </c>
-      <c r="G582" s="16" t="s">
+      <c r="G582" s="15" t="s">
         <v>1802</v>
       </c>
     </row>
     <row r="583" spans="5:7">
-      <c r="E583" s="16" t="s">
+      <c r="E583" s="15" t="s">
         <v>1813</v>
       </c>
-      <c r="F583" s="16" t="str">
+      <c r="F583" s="15" t="str">
         <f>菜单SAAS版!E78</f>
         <v>iam_menu-78</v>
       </c>
-      <c r="G583" s="16" t="s">
+      <c r="G583" s="15" t="s">
         <v>1804</v>
       </c>
     </row>
     <row r="584" spans="5:7">
-      <c r="E584" s="16" t="s">
+      <c r="E584" s="15" t="s">
         <v>1814</v>
       </c>
-      <c r="F584" s="16" t="str">
+      <c r="F584" s="15" t="str">
         <f>菜单SAAS版!E78</f>
         <v>iam_menu-78</v>
       </c>
-      <c r="G584" s="16" t="s">
+      <c r="G584" s="15" t="s">
         <v>1806</v>
       </c>
     </row>
     <row r="585" spans="5:7">
-      <c r="E585" s="16" t="s">
+      <c r="E585" s="15" t="s">
         <v>1815</v>
       </c>
-      <c r="F585" s="16" t="str">
+      <c r="F585" s="15" t="str">
         <f>菜单SAAS版!E85</f>
         <v>iam_menu-85</v>
       </c>
-      <c r="G585" s="16" t="s">
+      <c r="G585" s="15" t="s">
         <v>1816</v>
       </c>
     </row>
     <row r="586" spans="5:7">
-      <c r="E586" s="16" t="s">
+      <c r="E586" s="15" t="s">
         <v>1817</v>
       </c>
-      <c r="F586" s="16" t="str">
+      <c r="F586" s="15" t="str">
         <f>菜单SAAS版!E85</f>
         <v>iam_menu-85</v>
       </c>
-      <c r="G586" s="16" t="s">
+      <c r="G586" s="15" t="s">
         <v>1818</v>
       </c>
     </row>
     <row r="587" spans="5:7">
-      <c r="E587" s="16" t="s">
+      <c r="E587" s="15" t="s">
         <v>1819</v>
       </c>
-      <c r="F587" s="16" t="str">
+      <c r="F587" s="15" t="str">
         <f>菜单SAAS版!E182</f>
         <v>iam_menu-182</v>
       </c>
-      <c r="G587" s="16" t="s">
+      <c r="G587" s="15" t="s">
         <v>1820</v>
       </c>
     </row>
     <row r="588" spans="5:7">
-      <c r="E588" s="16" t="s">
+      <c r="E588" s="15" t="s">
         <v>1821</v>
       </c>
-      <c r="F588" s="16" t="str">
+      <c r="F588" s="15" t="str">
         <f>菜单SAAS版!E182</f>
         <v>iam_menu-182</v>
       </c>
-      <c r="G588" s="16" t="s">
+      <c r="G588" s="15" t="s">
         <v>1816</v>
       </c>
     </row>
     <row r="589" spans="5:7">
-      <c r="E589" s="16" t="s">
+      <c r="E589" s="15" t="s">
         <v>1822</v>
       </c>
-      <c r="F589" s="16" t="str">
+      <c r="F589" s="15" t="str">
         <f>菜单SAAS版!E182</f>
         <v>iam_menu-182</v>
       </c>
-      <c r="G589" s="16" t="s">
+      <c r="G589" s="15" t="s">
         <v>1818</v>
       </c>
     </row>
-    <row r="590" s="15" customFormat="1" spans="5:7">
-      <c r="E590" s="15" t="s">
+    <row r="590" s="14" customFormat="1" spans="5:7">
+      <c r="E590" s="14" t="s">
         <v>1823</v>
       </c>
-      <c r="F590" s="15" t="str">
+      <c r="F590" s="14" t="str">
         <f>菜单SAAS版!E46</f>
         <v>iam_menu-46</v>
       </c>
-      <c r="G590" s="15" t="s">
+      <c r="G590" s="14" t="s">
         <v>1824</v>
       </c>
     </row>
@@ -27962,7 +27936,7 @@
         <f>菜单SAAS版!E186</f>
         <v>iam_menu-186</v>
       </c>
-      <c r="G591" s="22" t="s">
+      <c r="G591" s="21" t="s">
         <v>1826</v>
       </c>
     </row>
@@ -27974,7 +27948,7 @@
         <f>菜单SAAS版!E187</f>
         <v>iam_menu-187</v>
       </c>
-      <c r="G592" s="22" t="s">
+      <c r="G592" s="21" t="s">
         <v>1828</v>
       </c>
     </row>
@@ -27986,7 +27960,7 @@
         <f>菜单SAAS版!E187</f>
         <v>iam_menu-187</v>
       </c>
-      <c r="G593" s="22" t="s">
+      <c r="G593" s="21" t="s">
         <v>1830</v>
       </c>
     </row>
@@ -27998,19 +27972,19 @@
         <f>菜单SAAS版!E187</f>
         <v>iam_menu-187</v>
       </c>
-      <c r="G594" s="22" t="s">
+      <c r="G594" s="21" t="s">
         <v>1832</v>
       </c>
     </row>
     <row r="595" s="5" customFormat="1" spans="5:7">
-      <c r="E595" s="23" t="s">
+      <c r="E595" s="22" t="s">
         <v>1833</v>
       </c>
       <c r="F595" s="5" t="str">
         <f>菜单SAAS版!E187</f>
         <v>iam_menu-187</v>
       </c>
-      <c r="G595" s="22" t="s">
+      <c r="G595" s="21" t="s">
         <v>1834</v>
       </c>
     </row>
@@ -28022,7 +27996,7 @@
         <f>菜单SAAS版!E188</f>
         <v>iam_menu-188</v>
       </c>
-      <c r="G596" s="22" t="s">
+      <c r="G596" s="21" t="s">
         <v>1836</v>
       </c>
     </row>
@@ -28034,19 +28008,19 @@
         <f>菜单SAAS版!E188</f>
         <v>iam_menu-188</v>
       </c>
-      <c r="G597" s="22" t="s">
+      <c r="G597" s="21" t="s">
         <v>1828</v>
       </c>
     </row>
     <row r="598" s="5" customFormat="1" spans="5:7">
-      <c r="E598" s="23" t="s">
+      <c r="E598" s="22" t="s">
         <v>1838</v>
       </c>
       <c r="F598" s="5" t="str">
         <f>菜单SAAS版!E188</f>
         <v>iam_menu-188</v>
       </c>
-      <c r="G598" s="22" t="s">
+      <c r="G598" s="21" t="s">
         <v>1830</v>
       </c>
     </row>
@@ -28058,7 +28032,7 @@
         <f>菜单SAAS版!E189</f>
         <v>iam_menu-189</v>
       </c>
-      <c r="G599" s="22" t="s">
+      <c r="G599" s="21" t="s">
         <v>1840</v>
       </c>
     </row>
@@ -28070,7 +28044,7 @@
         <f>菜单SAAS版!E190</f>
         <v>iam_menu-190</v>
       </c>
-      <c r="G600" s="22" t="s">
+      <c r="G600" s="21" t="s">
         <v>1842</v>
       </c>
     </row>
@@ -28082,7 +28056,7 @@
         <f>菜单SAAS版!E191</f>
         <v>iam_menu-191</v>
       </c>
-      <c r="G601" s="22" t="s">
+      <c r="G601" s="21" t="s">
         <v>1844</v>
       </c>
     </row>
@@ -28094,7 +28068,7 @@
         <f>菜单SAAS版!E192</f>
         <v>iam_menu-192</v>
       </c>
-      <c r="G602" s="22" t="s">
+      <c r="G602" s="21" t="s">
         <v>1846</v>
       </c>
     </row>
@@ -28106,7 +28080,7 @@
         <f>菜单SAAS版!E194</f>
         <v>iam_menu-194</v>
       </c>
-      <c r="G603" s="24" t="s">
+      <c r="G603" s="23" t="s">
         <v>1848</v>
       </c>
     </row>
@@ -28118,7 +28092,7 @@
         <f>菜单SAAS版!E195</f>
         <v>iam_menu-195</v>
       </c>
-      <c r="G604" s="24" t="s">
+      <c r="G604" s="23" t="s">
         <v>1850</v>
       </c>
     </row>
@@ -28130,7 +28104,7 @@
         <f>菜单SAAS版!E195</f>
         <v>iam_menu-195</v>
       </c>
-      <c r="G605" s="24" t="s">
+      <c r="G605" s="23" t="s">
         <v>1852</v>
       </c>
     </row>
@@ -28142,7 +28116,7 @@
         <f>菜单SAAS版!E195</f>
         <v>iam_menu-195</v>
       </c>
-      <c r="G606" s="24" t="s">
+      <c r="G606" s="23" t="s">
         <v>1834</v>
       </c>
     </row>
@@ -28154,7 +28128,7 @@
         <f>菜单SAAS版!E196</f>
         <v>iam_menu-196</v>
       </c>
-      <c r="G607" s="24" t="s">
+      <c r="G607" s="23" t="s">
         <v>1855</v>
       </c>
     </row>
@@ -28166,19 +28140,19 @@
         <f>菜单SAAS版!E196</f>
         <v>iam_menu-196</v>
       </c>
-      <c r="G608" s="24" t="s">
+      <c r="G608" s="23" t="s">
         <v>1850</v>
       </c>
     </row>
     <row r="609" s="6" customFormat="1" spans="5:7">
-      <c r="E609" s="25" t="s">
+      <c r="E609" s="24" t="s">
         <v>1857</v>
       </c>
       <c r="F609" s="6" t="str">
         <f>菜单SAAS版!E196</f>
         <v>iam_menu-196</v>
       </c>
-      <c r="G609" s="24" t="s">
+      <c r="G609" s="23" t="s">
         <v>1852</v>
       </c>
     </row>
@@ -28190,7 +28164,7 @@
         <f>菜单SAAS版!E197</f>
         <v>iam_menu-197</v>
       </c>
-      <c r="G610" s="24" t="s">
+      <c r="G610" s="23" t="s">
         <v>1859</v>
       </c>
     </row>
@@ -28202,7 +28176,7 @@
         <f>菜单SAAS版!E198</f>
         <v>iam_menu-198</v>
       </c>
-      <c r="G611" s="24" t="s">
+      <c r="G611" s="23" t="s">
         <v>1861</v>
       </c>
     </row>
@@ -28214,7 +28188,7 @@
         <f>菜单SAAS版!E199</f>
         <v>iam_menu-199</v>
       </c>
-      <c r="G612" s="24" t="s">
+      <c r="G612" s="23" t="s">
         <v>1863</v>
       </c>
     </row>
@@ -28226,7 +28200,7 @@
         <f>菜单SAAS版!E200</f>
         <v>iam_menu-200</v>
       </c>
-      <c r="G613" s="24" t="s">
+      <c r="G613" s="23" t="s">
         <v>1865</v>
       </c>
     </row>
@@ -28238,7 +28212,7 @@
         <f>菜单SAAS版!E188</f>
         <v>iam_menu-188</v>
       </c>
-      <c r="G614" s="22" t="s">
+      <c r="G614" s="21" t="s">
         <v>1867</v>
       </c>
     </row>
@@ -28250,84 +28224,84 @@
         <f>菜单SAAS版!E196</f>
         <v>iam_menu-196</v>
       </c>
-      <c r="G615" s="24" t="s">
+      <c r="G615" s="23" t="s">
         <v>1869</v>
       </c>
     </row>
-    <row r="616" s="16" customFormat="1" spans="5:7">
-      <c r="E616" s="16" t="s">
+    <row r="616" s="15" customFormat="1" spans="5:7">
+      <c r="E616" s="15" t="s">
         <v>1870</v>
       </c>
-      <c r="F616" s="16" t="str">
+      <c r="F616" s="15" t="str">
         <f>菜单SAAS版!E125</f>
         <v>iam_menu-125</v>
       </c>
-      <c r="G616" s="26" t="s">
+      <c r="G616" s="25" t="s">
         <v>1871</v>
       </c>
     </row>
-    <row r="617" s="16" customFormat="1" spans="5:7">
-      <c r="E617" s="16" t="s">
+    <row r="617" s="15" customFormat="1" spans="5:7">
+      <c r="E617" s="15" t="s">
         <v>1872</v>
       </c>
-      <c r="F617" s="16" t="str">
+      <c r="F617" s="15" t="str">
         <f>菜单SAAS版!E125</f>
         <v>iam_menu-125</v>
       </c>
-      <c r="G617" s="27" t="s">
+      <c r="G617" s="26" t="s">
         <v>1311</v>
       </c>
     </row>
-    <row r="618" s="13" customFormat="1" spans="5:7">
-      <c r="E618" s="13" t="s">
+    <row r="618" s="12" customFormat="1" spans="5:7">
+      <c r="E618" s="12" t="s">
         <v>1873</v>
       </c>
-      <c r="F618" s="13" t="str">
+      <c r="F618" s="12" t="str">
         <f>菜单SAAS版!E47</f>
         <v>iam_menu-47</v>
       </c>
-      <c r="G618" s="28" t="s">
+      <c r="G618" s="27" t="s">
         <v>1874</v>
       </c>
     </row>
-    <row r="619" s="13" customFormat="1" spans="5:7">
-      <c r="E619" s="13" t="s">
+    <row r="619" s="12" customFormat="1" spans="5:7">
+      <c r="E619" s="12" t="s">
         <v>1875</v>
       </c>
-      <c r="F619" s="13" t="str">
+      <c r="F619" s="12" t="str">
         <f>菜单SAAS版!E81</f>
         <v>iam_menu-81</v>
       </c>
-      <c r="G619" s="28" t="s">
+      <c r="G619" s="27" t="s">
         <v>1874</v>
       </c>
     </row>
     <row r="620" spans="5:7">
-      <c r="E620" s="13" t="s">
+      <c r="E620" s="12" t="s">
         <v>1876</v>
       </c>
-      <c r="F620" s="13" t="str">
+      <c r="F620" s="12" t="str">
         <f>菜单SAAS版!E182</f>
         <v>iam_menu-182</v>
       </c>
-      <c r="G620" s="27" t="s">
+      <c r="G620" s="26" t="s">
         <v>1877</v>
       </c>
     </row>
     <row r="621" spans="5:7">
-      <c r="E621" s="13" t="s">
+      <c r="E621" s="12" t="s">
         <v>1878</v>
       </c>
-      <c r="F621" s="13" t="str">
+      <c r="F621" s="12" t="str">
         <f>F620</f>
         <v>iam_menu-182</v>
       </c>
-      <c r="G621" s="27" t="s">
+      <c r="G621" s="26" t="s">
         <v>1877</v>
       </c>
     </row>
     <row r="622" spans="5:7">
-      <c r="E622" s="13" t="s">
+      <c r="E622" s="12" t="s">
         <v>1879</v>
       </c>
       <c r="F622" t="str">
@@ -28339,7 +28313,7 @@
       </c>
     </row>
     <row r="623" spans="5:7">
-      <c r="E623" s="13" t="s">
+      <c r="E623" s="12" t="s">
         <v>1881</v>
       </c>
       <c r="F623" t="str">
@@ -28351,7 +28325,7 @@
       </c>
     </row>
     <row r="624" spans="5:7">
-      <c r="E624" s="13" t="s">
+      <c r="E624" s="12" t="s">
         <v>1883</v>
       </c>
       <c r="F624" t="str">
@@ -28363,7 +28337,7 @@
       </c>
     </row>
     <row r="625" spans="5:7">
-      <c r="E625" s="13" t="s">
+      <c r="E625" s="12" t="s">
         <v>1885</v>
       </c>
       <c r="F625" t="str">
@@ -28375,7 +28349,7 @@
       </c>
     </row>
     <row r="626" spans="5:7">
-      <c r="E626" s="13" t="s">
+      <c r="E626" s="12" t="s">
         <v>1887</v>
       </c>
       <c r="F626" t="str">
@@ -28387,7 +28361,7 @@
       </c>
     </row>
     <row r="627" spans="5:7">
-      <c r="E627" s="13" t="s">
+      <c r="E627" s="12" t="s">
         <v>1889</v>
       </c>
       <c r="F627" t="str">
@@ -28399,7 +28373,7 @@
       </c>
     </row>
     <row r="628" spans="5:7">
-      <c r="E628" s="13" t="s">
+      <c r="E628" s="12" t="s">
         <v>1890</v>
       </c>
       <c r="F628" t="str">
@@ -28411,7 +28385,7 @@
       </c>
     </row>
     <row r="629" spans="5:7">
-      <c r="E629" s="13" t="s">
+      <c r="E629" s="12" t="s">
         <v>1892</v>
       </c>
       <c r="F629" t="str">
@@ -28474,13 +28448,13 @@
       <c r="A7" t="s">
         <v>1894</v>
       </c>
-      <c r="B7" s="10" t="s">
+      <c r="B7" s="9" t="s">
         <v>1895</v>
       </c>
       <c r="C7" t="s">
         <v>1896</v>
       </c>
-      <c r="D7" s="10" t="s">
+      <c r="D7" s="9" t="s">
         <v>1897</v>
       </c>
       <c r="E7" t="s">
@@ -28489,39 +28463,39 @@
       <c r="F7" t="s">
         <v>55</v>
       </c>
-      <c r="G7" s="10" t="s">
+      <c r="G7" s="9" t="s">
         <v>1898</v>
       </c>
-      <c r="H7" s="10" t="s">
+      <c r="H7" s="9" t="s">
         <v>1899</v>
       </c>
-      <c r="I7" s="10" t="s">
+      <c r="I7" s="9" t="s">
         <v>1900</v>
       </c>
-      <c r="J7" s="10" t="s">
+      <c r="J7" s="9" t="s">
         <v>1901</v>
       </c>
-      <c r="K7" s="10" t="s">
+      <c r="K7" s="9" t="s">
         <v>1902</v>
       </c>
     </row>
     <row r="8" spans="1:11">
-      <c r="A8" s="11"/>
-      <c r="B8" s="10"/>
-      <c r="D8" s="10"/>
-      <c r="E8" s="10" t="s">
+      <c r="A8" s="10"/>
+      <c r="B8" s="9"/>
+      <c r="D8" s="9"/>
+      <c r="E8" s="9" t="s">
         <v>1903</v>
       </c>
-      <c r="F8" s="10" t="s">
+      <c r="F8" s="9" t="s">
         <v>1904</v>
       </c>
-      <c r="G8" s="10" t="s">
+      <c r="G8" s="9" t="s">
         <v>1905</v>
       </c>
-      <c r="H8" s="10" t="s">
+      <c r="H8" s="9" t="s">
         <v>1906</v>
       </c>
-      <c r="I8" s="10" t="s">
+      <c r="I8" s="9" t="s">
         <v>1907</v>
       </c>
       <c r="J8">
@@ -28532,22 +28506,22 @@
       </c>
     </row>
     <row r="9" spans="1:11">
-      <c r="A9" s="11"/>
-      <c r="B9" s="10"/>
-      <c r="D9" s="10"/>
-      <c r="E9" s="10" t="s">
+      <c r="A9" s="10"/>
+      <c r="B9" s="9"/>
+      <c r="D9" s="9"/>
+      <c r="E9" s="9" t="s">
         <v>1903</v>
       </c>
-      <c r="F9" s="10" t="s">
+      <c r="F9" s="9" t="s">
         <v>1908</v>
       </c>
-      <c r="G9" s="10" t="s">
+      <c r="G9" s="9" t="s">
         <v>1909</v>
       </c>
-      <c r="H9" s="10" t="s">
+      <c r="H9" s="9" t="s">
         <v>1906</v>
       </c>
-      <c r="I9" s="12" t="s">
+      <c r="I9" s="11" t="s">
         <v>1910</v>
       </c>
       <c r="J9">
@@ -28605,13 +28579,13 @@
       </c>
     </row>
     <row r="12" spans="5:15">
-      <c r="E12" s="10" t="s">
+      <c r="E12" s="9" t="s">
         <v>1923</v>
       </c>
-      <c r="F12" s="10" t="s">
+      <c r="F12" s="9" t="s">
         <v>1905</v>
       </c>
-      <c r="G12" s="10" t="s">
+      <c r="G12" s="9" t="s">
         <v>1924</v>
       </c>
       <c r="H12">
@@ -28620,10 +28594,10 @@
       <c r="I12" t="s">
         <v>1925</v>
       </c>
-      <c r="J12" s="10" t="s">
+      <c r="J12" s="9" t="s">
         <v>1926</v>
       </c>
-      <c r="K12" s="10" t="s">
+      <c r="K12" s="9" t="s">
         <v>1927</v>
       </c>
       <c r="M12">
@@ -28637,13 +28611,13 @@
       </c>
     </row>
     <row r="13" spans="5:15">
-      <c r="E13" s="10" t="s">
+      <c r="E13" s="9" t="s">
         <v>1928</v>
       </c>
-      <c r="F13" s="10" t="s">
+      <c r="F13" s="9" t="s">
         <v>1909</v>
       </c>
-      <c r="G13" s="10" t="s">
+      <c r="G13" s="9" t="s">
         <v>1924</v>
       </c>
       <c r="H13">
@@ -28652,10 +28626,10 @@
       <c r="I13" t="s">
         <v>1925</v>
       </c>
-      <c r="J13" s="12" t="s">
+      <c r="J13" s="11" t="s">
         <v>1929</v>
       </c>
-      <c r="K13" s="10" t="s">
+      <c r="K13" s="9" t="s">
         <v>1930</v>
       </c>
       <c r="M13">
@@ -28762,13 +28736,13 @@
       </c>
     </row>
     <row r="17" spans="5:9">
-      <c r="E17" s="10" t="s">
+      <c r="E17" s="9" t="s">
         <v>1903</v>
       </c>
-      <c r="F17" s="10" t="s">
+      <c r="F17" s="9" t="s">
         <v>1924</v>
       </c>
-      <c r="G17" s="10" t="str">
+      <c r="G17" s="9" t="str">
         <f>菜单SAAS版!E124</f>
         <v>iam_menu-124</v>
       </c>
@@ -28776,15 +28750,15 @@
         <f>E12</f>
         <v>iam_label-1</v>
       </c>
-      <c r="I17" s="10" t="s">
+      <c r="I17" s="9" t="s">
         <v>1945</v>
       </c>
     </row>
     <row r="18" spans="5:9">
-      <c r="E18" s="10" t="s">
+      <c r="E18" s="9" t="s">
         <v>1903</v>
       </c>
-      <c r="F18" s="10" t="s">
+      <c r="F18" s="9" t="s">
         <v>1924</v>
       </c>
       <c r="G18" t="str">
@@ -28795,18 +28769,18 @@
         <f>E12</f>
         <v>iam_label-1</v>
       </c>
-      <c r="I18" s="10" t="s">
+      <c r="I18" s="9" t="s">
         <v>1945</v>
       </c>
     </row>
     <row r="19" spans="5:9">
-      <c r="E19" s="10" t="s">
+      <c r="E19" s="9" t="s">
         <v>1903</v>
       </c>
-      <c r="F19" s="10" t="s">
+      <c r="F19" s="9" t="s">
         <v>1924</v>
       </c>
-      <c r="G19" s="10" t="str">
+      <c r="G19" s="9" t="str">
         <f>菜单SAAS版!E152</f>
         <v>iam_menu-152</v>
       </c>
@@ -28814,15 +28788,15 @@
         <f>E12</f>
         <v>iam_label-1</v>
       </c>
-      <c r="I19" s="10" t="s">
+      <c r="I19" s="9" t="s">
         <v>1945</v>
       </c>
     </row>
     <row r="20" spans="5:9">
-      <c r="E20" s="10" t="s">
+      <c r="E20" s="9" t="s">
         <v>1903</v>
       </c>
-      <c r="F20" s="10" t="s">
+      <c r="F20" s="9" t="s">
         <v>1924</v>
       </c>
       <c r="G20" t="str">
@@ -28833,15 +28807,15 @@
         <f>E12</f>
         <v>iam_label-1</v>
       </c>
-      <c r="I20" s="10" t="s">
+      <c r="I20" s="9" t="s">
         <v>1945</v>
       </c>
     </row>
     <row r="21" spans="5:9">
-      <c r="E21" s="10" t="s">
+      <c r="E21" s="9" t="s">
         <v>1903</v>
       </c>
-      <c r="F21" s="10" t="s">
+      <c r="F21" s="9" t="s">
         <v>1924</v>
       </c>
       <c r="G21" t="str">
@@ -28852,15 +28826,15 @@
         <f>E12</f>
         <v>iam_label-1</v>
       </c>
-      <c r="I21" s="10" t="s">
+      <c r="I21" s="9" t="s">
         <v>1945</v>
       </c>
     </row>
     <row r="22" spans="5:9">
-      <c r="E22" s="10" t="s">
+      <c r="E22" s="9" t="s">
         <v>1903</v>
       </c>
-      <c r="F22" s="10" t="s">
+      <c r="F22" s="9" t="s">
         <v>1924</v>
       </c>
       <c r="G22" t="str">
@@ -28871,15 +28845,15 @@
         <f>E12</f>
         <v>iam_label-1</v>
       </c>
-      <c r="I22" s="10" t="s">
+      <c r="I22" s="9" t="s">
         <v>1945</v>
       </c>
     </row>
     <row r="23" spans="5:9">
-      <c r="E23" s="10" t="s">
+      <c r="E23" s="9" t="s">
         <v>1903</v>
       </c>
-      <c r="F23" s="10" t="s">
+      <c r="F23" s="9" t="s">
         <v>1924</v>
       </c>
       <c r="G23" t="str">
@@ -28890,15 +28864,15 @@
         <f>E12</f>
         <v>iam_label-1</v>
       </c>
-      <c r="I23" s="10" t="s">
+      <c r="I23" s="9" t="s">
         <v>1945</v>
       </c>
     </row>
     <row r="24" spans="5:9">
-      <c r="E24" s="10" t="s">
+      <c r="E24" s="9" t="s">
         <v>1903</v>
       </c>
-      <c r="F24" s="10" t="s">
+      <c r="F24" s="9" t="s">
         <v>1924</v>
       </c>
       <c r="G24" t="str">
@@ -28909,15 +28883,15 @@
         <f>E12</f>
         <v>iam_label-1</v>
       </c>
-      <c r="I24" s="10" t="s">
+      <c r="I24" s="9" t="s">
         <v>1945</v>
       </c>
     </row>
     <row r="25" spans="5:9">
-      <c r="E25" s="10" t="s">
+      <c r="E25" s="9" t="s">
         <v>1903</v>
       </c>
-      <c r="F25" s="10" t="s">
+      <c r="F25" s="9" t="s">
         <v>1924</v>
       </c>
       <c r="G25" t="str">
@@ -28928,15 +28902,15 @@
         <f>E12</f>
         <v>iam_label-1</v>
       </c>
-      <c r="I25" s="10" t="s">
+      <c r="I25" s="9" t="s">
         <v>1945</v>
       </c>
     </row>
     <row r="26" spans="5:9">
-      <c r="E26" s="10" t="s">
+      <c r="E26" s="9" t="s">
         <v>1903</v>
       </c>
-      <c r="F26" s="10" t="s">
+      <c r="F26" s="9" t="s">
         <v>1924</v>
       </c>
       <c r="G26" t="str">
@@ -28947,15 +28921,15 @@
         <f>E12</f>
         <v>iam_label-1</v>
       </c>
-      <c r="I26" s="10" t="s">
+      <c r="I26" s="9" t="s">
         <v>1945</v>
       </c>
     </row>
     <row r="27" spans="5:9">
-      <c r="E27" s="10" t="s">
+      <c r="E27" s="9" t="s">
         <v>1903</v>
       </c>
-      <c r="F27" s="10" t="s">
+      <c r="F27" s="9" t="s">
         <v>1924</v>
       </c>
       <c r="G27" t="str">
@@ -28966,15 +28940,15 @@
         <f>E12</f>
         <v>iam_label-1</v>
       </c>
-      <c r="I27" s="10" t="s">
+      <c r="I27" s="9" t="s">
         <v>1945</v>
       </c>
     </row>
     <row r="28" spans="5:9">
-      <c r="E28" s="10" t="s">
+      <c r="E28" s="9" t="s">
         <v>1903</v>
       </c>
-      <c r="F28" s="10" t="s">
+      <c r="F28" s="9" t="s">
         <v>1924</v>
       </c>
       <c r="G28" t="str">
@@ -28985,15 +28959,15 @@
         <f>E12</f>
         <v>iam_label-1</v>
       </c>
-      <c r="I28" s="10" t="s">
+      <c r="I28" s="9" t="s">
         <v>1945</v>
       </c>
     </row>
     <row r="29" spans="5:9">
-      <c r="E29" s="10" t="s">
+      <c r="E29" s="9" t="s">
         <v>1903</v>
       </c>
-      <c r="F29" s="10" t="s">
+      <c r="F29" s="9" t="s">
         <v>1924</v>
       </c>
       <c r="G29" t="str">
@@ -29004,15 +28978,15 @@
         <f>E12</f>
         <v>iam_label-1</v>
       </c>
-      <c r="I29" s="10" t="s">
+      <c r="I29" s="9" t="s">
         <v>1945</v>
       </c>
     </row>
     <row r="30" spans="5:9">
-      <c r="E30" s="10" t="s">
+      <c r="E30" s="9" t="s">
         <v>1903</v>
       </c>
-      <c r="F30" s="10" t="s">
+      <c r="F30" s="9" t="s">
         <v>1924</v>
       </c>
       <c r="G30" t="str">
@@ -29023,15 +28997,15 @@
         <f>E12</f>
         <v>iam_label-1</v>
       </c>
-      <c r="I30" s="10" t="s">
+      <c r="I30" s="9" t="s">
         <v>1945</v>
       </c>
     </row>
     <row r="31" spans="5:9">
-      <c r="E31" s="10" t="s">
+      <c r="E31" s="9" t="s">
         <v>1903</v>
       </c>
-      <c r="F31" s="10" t="s">
+      <c r="F31" s="9" t="s">
         <v>1924</v>
       </c>
       <c r="G31" t="str">
@@ -29042,15 +29016,15 @@
         <f>E12</f>
         <v>iam_label-1</v>
       </c>
-      <c r="I31" s="10" t="s">
+      <c r="I31" s="9" t="s">
         <v>1945</v>
       </c>
     </row>
     <row r="32" spans="5:9">
-      <c r="E32" s="10" t="s">
+      <c r="E32" s="9" t="s">
         <v>1903</v>
       </c>
-      <c r="F32" s="10" t="s">
+      <c r="F32" s="9" t="s">
         <v>1924</v>
       </c>
       <c r="G32" t="str">
@@ -29061,15 +29035,15 @@
         <f>E12</f>
         <v>iam_label-1</v>
       </c>
-      <c r="I32" s="10" t="s">
+      <c r="I32" s="9" t="s">
         <v>1945</v>
       </c>
     </row>
     <row r="33" spans="5:9">
-      <c r="E33" s="10" t="s">
+      <c r="E33" s="9" t="s">
         <v>1903</v>
       </c>
-      <c r="F33" s="10" t="s">
+      <c r="F33" s="9" t="s">
         <v>1924</v>
       </c>
       <c r="G33" t="str">
@@ -29080,15 +29054,15 @@
         <f>E12</f>
         <v>iam_label-1</v>
       </c>
-      <c r="I33" s="10" t="s">
+      <c r="I33" s="9" t="s">
         <v>1945</v>
       </c>
     </row>
     <row r="34" spans="5:9">
-      <c r="E34" s="10" t="s">
+      <c r="E34" s="9" t="s">
         <v>1903</v>
       </c>
-      <c r="F34" s="10" t="s">
+      <c r="F34" s="9" t="s">
         <v>1924</v>
       </c>
       <c r="G34" t="str">
@@ -29099,15 +29073,15 @@
         <f>E13</f>
         <v>iam_label-2</v>
       </c>
-      <c r="I34" s="10" t="s">
+      <c r="I34" s="9" t="s">
         <v>1945</v>
       </c>
     </row>
     <row r="35" spans="5:9">
-      <c r="E35" s="10" t="s">
+      <c r="E35" s="9" t="s">
         <v>1903</v>
       </c>
-      <c r="F35" s="10" t="s">
+      <c r="F35" s="9" t="s">
         <v>1924</v>
       </c>
       <c r="G35" t="str">
@@ -29118,15 +29092,15 @@
         <f>E13</f>
         <v>iam_label-2</v>
       </c>
-      <c r="I35" s="10" t="s">
+      <c r="I35" s="9" t="s">
         <v>1945</v>
       </c>
     </row>
     <row r="36" spans="5:9">
-      <c r="E36" s="10" t="s">
+      <c r="E36" s="9" t="s">
         <v>1903</v>
       </c>
-      <c r="F36" s="10" t="s">
+      <c r="F36" s="9" t="s">
         <v>1924</v>
       </c>
       <c r="G36" t="str">
@@ -29137,15 +29111,15 @@
         <f>E13</f>
         <v>iam_label-2</v>
       </c>
-      <c r="I36" s="10" t="s">
+      <c r="I36" s="9" t="s">
         <v>1945</v>
       </c>
     </row>
     <row r="37" spans="5:9">
-      <c r="E37" s="10" t="s">
+      <c r="E37" s="9" t="s">
         <v>1903</v>
       </c>
-      <c r="F37" s="10" t="s">
+      <c r="F37" s="9" t="s">
         <v>1924</v>
       </c>
       <c r="G37" t="str">
@@ -29156,15 +29130,15 @@
         <f>E13</f>
         <v>iam_label-2</v>
       </c>
-      <c r="I37" s="10" t="s">
+      <c r="I37" s="9" t="s">
         <v>1945</v>
       </c>
     </row>
     <row r="38" spans="5:9">
-      <c r="E38" s="10" t="s">
+      <c r="E38" s="9" t="s">
         <v>1903</v>
       </c>
-      <c r="F38" s="10" t="s">
+      <c r="F38" s="9" t="s">
         <v>1924</v>
       </c>
       <c r="G38" t="str">
@@ -29175,15 +29149,15 @@
         <f>E13</f>
         <v>iam_label-2</v>
       </c>
-      <c r="I38" s="10" t="s">
+      <c r="I38" s="9" t="s">
         <v>1945</v>
       </c>
     </row>
     <row r="39" spans="5:9">
-      <c r="E39" s="10" t="s">
+      <c r="E39" s="9" t="s">
         <v>1903</v>
       </c>
-      <c r="F39" s="10" t="s">
+      <c r="F39" s="9" t="s">
         <v>1924</v>
       </c>
       <c r="G39" t="str">
@@ -29194,15 +29168,15 @@
         <f>E13</f>
         <v>iam_label-2</v>
       </c>
-      <c r="I39" s="10" t="s">
+      <c r="I39" s="9" t="s">
         <v>1945</v>
       </c>
     </row>
     <row r="40" spans="5:9">
-      <c r="E40" s="10" t="s">
+      <c r="E40" s="9" t="s">
         <v>1903</v>
       </c>
-      <c r="F40" s="10" t="s">
+      <c r="F40" s="9" t="s">
         <v>1924</v>
       </c>
       <c r="G40" t="str">
@@ -29213,15 +29187,15 @@
         <f>E13</f>
         <v>iam_label-2</v>
       </c>
-      <c r="I40" s="10" t="s">
+      <c r="I40" s="9" t="s">
         <v>1945</v>
       </c>
     </row>
     <row r="41" spans="5:9">
-      <c r="E41" s="10" t="s">
+      <c r="E41" s="9" t="s">
         <v>1903</v>
       </c>
-      <c r="F41" s="10" t="s">
+      <c r="F41" s="9" t="s">
         <v>1924</v>
       </c>
       <c r="G41" t="str">
@@ -29232,15 +29206,15 @@
         <f>E13</f>
         <v>iam_label-2</v>
       </c>
-      <c r="I41" s="10" t="s">
+      <c r="I41" s="9" t="s">
         <v>1945</v>
       </c>
     </row>
     <row r="42" spans="5:9">
-      <c r="E42" s="10" t="s">
+      <c r="E42" s="9" t="s">
         <v>1903</v>
       </c>
-      <c r="F42" s="10" t="s">
+      <c r="F42" s="9" t="s">
         <v>1924</v>
       </c>
       <c r="G42" t="str">
@@ -29251,15 +29225,15 @@
         <f>E13</f>
         <v>iam_label-2</v>
       </c>
-      <c r="I42" s="10" t="s">
+      <c r="I42" s="9" t="s">
         <v>1945</v>
       </c>
     </row>
     <row r="43" spans="5:9">
-      <c r="E43" s="10" t="s">
+      <c r="E43" s="9" t="s">
         <v>1903</v>
       </c>
-      <c r="F43" s="10" t="s">
+      <c r="F43" s="9" t="s">
         <v>1924</v>
       </c>
       <c r="G43" t="str">
@@ -29270,15 +29244,15 @@
         <f>E13</f>
         <v>iam_label-2</v>
       </c>
-      <c r="I43" s="10" t="s">
+      <c r="I43" s="9" t="s">
         <v>1945</v>
       </c>
     </row>
     <row r="44" spans="5:9">
-      <c r="E44" s="10" t="s">
+      <c r="E44" s="9" t="s">
         <v>1903</v>
       </c>
-      <c r="F44" s="10" t="s">
+      <c r="F44" s="9" t="s">
         <v>1924</v>
       </c>
       <c r="G44" t="str">
@@ -29289,18 +29263,18 @@
         <f>E13</f>
         <v>iam_label-2</v>
       </c>
-      <c r="I44" s="10" t="s">
+      <c r="I44" s="9" t="s">
         <v>1945</v>
       </c>
     </row>
     <row r="45" spans="5:9">
-      <c r="E45" s="10" t="s">
+      <c r="E45" s="9" t="s">
         <v>1903</v>
       </c>
-      <c r="F45" s="10" t="s">
+      <c r="F45" s="9" t="s">
         <v>1924</v>
       </c>
-      <c r="G45" s="10" t="str">
+      <c r="G45" s="9" t="str">
         <f>菜单SAAS版!E93</f>
         <v>iam_menu-93</v>
       </c>
@@ -29308,18 +29282,18 @@
         <f t="shared" ref="H45:H46" si="0">E13</f>
         <v>iam_label-2</v>
       </c>
-      <c r="I45" s="10" t="s">
+      <c r="I45" s="9" t="s">
         <v>1945</v>
       </c>
     </row>
     <row r="46" spans="5:9">
-      <c r="E46" s="10" t="s">
+      <c r="E46" s="9" t="s">
         <v>1903</v>
       </c>
-      <c r="F46" s="10" t="s">
+      <c r="F46" s="9" t="s">
         <v>1924</v>
       </c>
-      <c r="G46" s="10" t="str">
+      <c r="G46" s="9" t="str">
         <f>菜单SAAS版!E9</f>
         <v>iam_menu-9</v>
       </c>
@@ -29327,18 +29301,18 @@
         <f t="shared" si="0"/>
         <v>iam_label-3</v>
       </c>
-      <c r="I46" s="10" t="s">
+      <c r="I46" s="9" t="s">
         <v>1946</v>
       </c>
     </row>
     <row r="47" spans="5:9">
-      <c r="E47" s="10" t="s">
+      <c r="E47" s="9" t="s">
         <v>1903</v>
       </c>
-      <c r="F47" s="10" t="s">
+      <c r="F47" s="9" t="s">
         <v>1924</v>
       </c>
-      <c r="G47" s="10" t="str">
+      <c r="G47" s="9" t="str">
         <f>菜单SAAS版!E185</f>
         <v>iam_menu-185</v>
       </c>
@@ -29346,18 +29320,18 @@
         <f>E14</f>
         <v>iam_label-3</v>
       </c>
-      <c r="I47" s="10" t="s">
+      <c r="I47" s="9" t="s">
         <v>1945</v>
       </c>
     </row>
     <row r="48" spans="5:9">
-      <c r="E48" s="10" t="s">
+      <c r="E48" s="9" t="s">
         <v>1903</v>
       </c>
-      <c r="F48" s="10" t="s">
+      <c r="F48" s="9" t="s">
         <v>1924</v>
       </c>
-      <c r="G48" s="10" t="str">
+      <c r="G48" s="9" t="str">
         <f>菜单SAAS版!E193</f>
         <v>iam_menu-193</v>
       </c>
@@ -29365,7 +29339,7 @@
         <f>E15</f>
         <v>iam_label-4</v>
       </c>
-      <c r="I48" s="10" t="s">
+      <c r="I48" s="9" t="s">
         <v>1945</v>
       </c>
     </row>
@@ -29380,8 +29354,8 @@
   <sheetPr/>
   <dimension ref="A1:Y474"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C464" workbookViewId="0">
-      <selection activeCell="J474" sqref="J474"/>
+    <sheetView tabSelected="1" topLeftCell="C391" workbookViewId="0">
+      <selection activeCell="F405" sqref="F405"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25"/>
@@ -38495,8 +38469,8 @@
         <v>2408</v>
       </c>
       <c r="F405" t="str">
-        <f>E12</f>
-        <v>iam_role-12</v>
+        <f>E10</f>
+        <v>iam_role-10</v>
       </c>
       <c r="G405" t="str">
         <f>菜单SAAS版!E166</f>
@@ -39943,7 +39917,7 @@
       </c>
     </row>
     <row r="471" spans="5:10">
-      <c r="E471" s="9" t="s">
+      <c r="E471" s="6" t="s">
         <v>2474</v>
       </c>
       <c r="F471" t="str">
@@ -39954,18 +39928,18 @@
         <f>菜单SAAS版!E201</f>
         <v>iam_menu-201</v>
       </c>
-      <c r="H471" s="9" t="s">
-        <v>2017</v>
-      </c>
-      <c r="I471" s="9" t="s">
-        <v>2018</v>
-      </c>
-      <c r="J471" s="9" t="s">
+      <c r="H471" s="6" t="s">
+        <v>2017</v>
+      </c>
+      <c r="I471" s="6" t="s">
+        <v>2018</v>
+      </c>
+      <c r="J471" s="6" t="s">
         <v>2019</v>
       </c>
     </row>
     <row r="472" spans="5:10">
-      <c r="E472" s="9" t="s">
+      <c r="E472" s="6" t="s">
         <v>2475</v>
       </c>
       <c r="F472" t="str">
@@ -39987,7 +39961,7 @@
       </c>
     </row>
     <row r="473" spans="5:10">
-      <c r="E473" s="9" t="s">
+      <c r="E473" s="6" t="s">
         <v>2476</v>
       </c>
       <c r="F473" t="str">
@@ -40009,7 +39983,7 @@
       </c>
     </row>
     <row r="474" spans="5:10">
-      <c r="E474" s="9" t="s">
+      <c r="E474" s="6" t="s">
         <v>2477</v>
       </c>
       <c r="F474" t="str">

--- a/src/main/resources/script/db/init-data/devops_service/hzero_platform/hzero-menu-user-role-label.xlsx
+++ b/src/main/resources/script/db/init-data/devops_service/hzero_platform/hzero-menu-user-role-label.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zhenghaotian/Documents/RandD/devops-service/src/main/resources/script/db/init-data/devops_service/hzero_platform/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C21C18F4-042B-634E-A4B3-7B1CECFD6A9B}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE6B095A-2420-6941-96DB-A2627EE8F371}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="20500" tabRatio="597" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="20500" tabRatio="597" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6405" uniqueCount="2524">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6413" uniqueCount="2529">
   <si>
     <r>
       <rPr>
@@ -9617,13 +9617,33 @@
     <t>devops-service.devops-middleware.queryRedisConfig</t>
     <phoneticPr fontId="47" type="noConversion"/>
   </si>
+  <si>
+    <t>iam_role_permission-476</t>
+    <phoneticPr fontId="47" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y</t>
+    <phoneticPr fontId="47" type="noConversion"/>
+  </si>
+  <si>
+    <t>N</t>
+    <phoneticPr fontId="47" type="noConversion"/>
+  </si>
+  <si>
+    <t>PS</t>
+    <phoneticPr fontId="47" type="noConversion"/>
+  </si>
+  <si>
+    <t>iam_role_permission-477</t>
+    <phoneticPr fontId="47" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="179" formatCode="000000"/>
+    <numFmt numFmtId="176" formatCode="000000"/>
   </numFmts>
   <fonts count="48">
     <font>
@@ -10114,7 +10134,7 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -10167,11 +10187,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -10182,7 +10203,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -10551,11 +10571,11 @@
   <sheetData>
     <row r="1" spans="1:8" ht="64.5" customHeight="1">
       <c r="A1" s="38"/>
-      <c r="C1" s="61" t="s">
+      <c r="C1" s="63" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="61"/>
-      <c r="E1" s="61"/>
+      <c r="D1" s="63"/>
+      <c r="E1" s="63"/>
       <c r="F1" s="39"/>
       <c r="G1" s="39"/>
       <c r="H1" s="39"/>
@@ -10568,17 +10588,17 @@
         <v>1</v>
       </c>
       <c r="D3" s="62"/>
-      <c r="E3" s="63" t="s">
+      <c r="E3" s="64" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="63"/>
-      <c r="G3" s="63"/>
+      <c r="F3" s="64"/>
+      <c r="G3" s="64"/>
     </row>
     <row r="4" spans="1:8">
-      <c r="C4" s="64" t="s">
+      <c r="C4" s="65" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="64"/>
+      <c r="D4" s="65"/>
       <c r="E4" s="41" t="s">
         <v>4</v>
       </c>
@@ -10689,11 +10709,11 @@
       </c>
     </row>
     <row r="19" spans="3:5">
-      <c r="C19" s="65" t="s">
+      <c r="C19" s="66" t="s">
         <v>30</v>
       </c>
-      <c r="D19" s="65"/>
-      <c r="E19" s="65"/>
+      <c r="D19" s="66"/>
+      <c r="E19" s="66"/>
     </row>
     <row r="20" spans="3:5">
       <c r="C20" s="58" t="s">
@@ -28091,7 +28111,7 @@
       </c>
     </row>
     <row r="633" spans="5:7">
-      <c r="E633" s="66" t="s">
+      <c r="E633" s="61" t="s">
         <v>2521</v>
       </c>
       <c r="F633" t="str">
@@ -28103,7 +28123,7 @@
       </c>
     </row>
     <row r="634" spans="5:7">
-      <c r="E634" s="66" t="s">
+      <c r="E634" s="61" t="s">
         <v>2522</v>
       </c>
       <c r="F634" t="str">
@@ -29068,10 +29088,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:Y474"/>
+  <dimension ref="A1:Y476"/>
   <sheetViews>
-    <sheetView topLeftCell="B98" workbookViewId="0">
-      <selection activeCell="G465" sqref="G465"/>
+    <sheetView tabSelected="1" topLeftCell="A451" workbookViewId="0">
+      <selection activeCell="F484" sqref="F484"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="18"/>
@@ -39720,6 +39740,50 @@
         <v>2024</v>
       </c>
     </row>
+    <row r="475" spans="5:10">
+      <c r="E475" s="6" t="s">
+        <v>2524</v>
+      </c>
+      <c r="F475" t="str">
+        <f>E12</f>
+        <v>iam_role-12</v>
+      </c>
+      <c r="G475" t="str">
+        <f>菜单SAAS版!E201</f>
+        <v>iam_menu-201</v>
+      </c>
+      <c r="H475" s="61" t="s">
+        <v>2525</v>
+      </c>
+      <c r="I475" s="61" t="s">
+        <v>2526</v>
+      </c>
+      <c r="J475" s="61" t="s">
+        <v>2527</v>
+      </c>
+    </row>
+    <row r="476" spans="5:10">
+      <c r="E476" s="6" t="s">
+        <v>2528</v>
+      </c>
+      <c r="F476" t="str">
+        <f>E13</f>
+        <v>iam_role-13</v>
+      </c>
+      <c r="G476" t="str">
+        <f>菜单SAAS版!E201</f>
+        <v>iam_menu-201</v>
+      </c>
+      <c r="H476" s="61" t="s">
+        <v>2525</v>
+      </c>
+      <c r="I476" s="61" t="s">
+        <v>2526</v>
+      </c>
+      <c r="J476" s="61" t="s">
+        <v>2527</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="47" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -39730,7 +39794,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:O33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J47" sqref="J47"/>
     </sheetView>
   </sheetViews>

--- a/src/main/resources/script/db/init-data/devops_service/hzero_platform/hzero-menu-user-role-label.xlsx
+++ b/src/main/resources/script/db/init-data/devops_service/hzero_platform/hzero-menu-user-role-label.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zhenghaotian/Documents/RandD/devops-service/src/main/resources/script/db/init-data/devops_service/hzero_platform/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE6B095A-2420-6941-96DB-A2627EE8F371}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D94CEF49-A8CF-8746-A060-3E986707BA33}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="20500" tabRatio="597" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="20500" tabRatio="597" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6413" uniqueCount="2529">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6415" uniqueCount="2531">
   <si>
     <r>
       <rPr>
@@ -9635,6 +9635,14 @@
   </si>
   <si>
     <t>iam_role_permission-477</t>
+    <phoneticPr fontId="47" type="noConversion"/>
+  </si>
+  <si>
+    <t>iam_menu_permission-635</t>
+    <phoneticPr fontId="47" type="noConversion"/>
+  </si>
+  <si>
+    <t>devops-service.devops-host.multiTestConnection</t>
     <phoneticPr fontId="47" type="noConversion"/>
   </si>
 </sst>
@@ -20549,10 +20557,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:G634"/>
+  <dimension ref="A1:G636"/>
   <sheetViews>
-    <sheetView topLeftCell="B616" zoomScale="131" workbookViewId="0">
-      <selection activeCell="G636" sqref="G636"/>
+    <sheetView tabSelected="1" topLeftCell="B616" zoomScale="131" workbookViewId="0">
+      <selection activeCell="F639" sqref="F639"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="18"/>
@@ -28133,6 +28141,21 @@
       <c r="G634" s="30" t="s">
         <v>2523</v>
       </c>
+    </row>
+    <row r="635" spans="5:7">
+      <c r="E635" s="61" t="s">
+        <v>2529</v>
+      </c>
+      <c r="F635" t="str">
+        <f>菜单SAAS版!E201</f>
+        <v>iam_menu-201</v>
+      </c>
+      <c r="G635" s="61" t="s">
+        <v>2530</v>
+      </c>
+    </row>
+    <row r="636" spans="5:7">
+      <c r="E636" s="61"/>
     </row>
   </sheetData>
   <phoneticPr fontId="47" type="noConversion"/>
@@ -29090,8 +29113,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:Y476"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A451" workbookViewId="0">
-      <selection activeCell="F484" sqref="F484"/>
+    <sheetView topLeftCell="A451" workbookViewId="0">
+      <selection activeCell="E481" sqref="E481"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="18"/>

--- a/src/main/resources/script/db/init-data/devops_service/hzero_platform/hzero-menu-user-role-label.xlsx
+++ b/src/main/resources/script/db/init-data/devops_service/hzero_platform/hzero-menu-user-role-label.xlsx
@@ -8711,11 +8711,11 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="70">
+  <fonts count="67">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -8959,36 +8959,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="等线"/>
@@ -9004,17 +8974,17 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="1"/>
       <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="3"/>
       <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -9025,9 +8995,32 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -9057,15 +9050,7 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
@@ -9081,10 +9066,10 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -9097,35 +9082,32 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="微软雅黑"/>
-      <charset val="134"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="DejaVu Sans"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Droid Sans Fallback"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
@@ -9204,7 +9186,121 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -9216,25 +9312,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -9246,145 +9366,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -9491,11 +9473,41 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -9511,45 +9523,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -9580,6 +9553,15 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -9591,151 +9573,151 @@
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="41" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="42" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="45" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="41" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="46" fillId="9" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="45" fillId="13" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="41" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="42" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="41" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="42" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="45" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="41" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="48" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="44" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="41" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="42" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="44" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="40" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="42" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="49" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="41" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="42" fillId="17" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="40" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="6" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="44" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="51" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="53" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="52" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="54" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="55" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="40" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="54" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="40" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="44" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="48" fillId="16" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="53" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="55" fillId="16" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="44" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="50" fillId="22" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="47" fillId="10" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="41" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="57" fillId="10" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="40" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="51" fillId="18" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="57" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="45" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="58" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="44" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="59" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="56" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="56" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="41" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="58" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="40" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="59" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="41" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="45" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="41" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="44" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="41" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="45" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="41" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="45" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="40" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="45" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="40" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="45" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="41" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="44" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="41" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="44" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="40" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="45" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="41" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="45" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="40" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="44" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="40" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="45" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="41" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="44" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="40" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="44" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="60" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="67">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -10473,8 +10455,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:X198"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="93" zoomScaleNormal="93" workbookViewId="0">
-      <selection activeCell="M201" sqref="M201"/>
+    <sheetView tabSelected="1" zoomScale="93" zoomScaleNormal="93" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="M176" sqref="M176"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25"/>
@@ -17396,7 +17378,7 @@
         <v>87</v>
       </c>
       <c r="M154">
-        <v>110</v>
+        <v>10</v>
       </c>
       <c r="N154" t="s">
         <v>81</v>
@@ -18417,7 +18399,7 @@
         <v>87</v>
       </c>
       <c r="M176" s="5">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="N176" s="5">
         <v>1</v>

--- a/src/main/resources/script/db/init-data/devops_service/hzero_platform/hzero-menu-user-role-label.xlsx
+++ b/src/main/resources/script/db/init-data/devops_service/hzero_platform/hzero-menu-user-role-label.xlsx
@@ -8740,9 +8740,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="67">
@@ -8989,6 +8989,22 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="等线"/>
@@ -9003,10 +9019,11 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -9018,25 +9035,25 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF0000FF"/>
       <name val="等线"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -9055,18 +9072,26 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -9094,14 +9119,6 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="13"/>
       <color theme="3"/>
       <name val="等线"/>
@@ -9110,31 +9127,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -9216,7 +9216,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -9228,13 +9258,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -9246,85 +9306,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -9342,7 +9336,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -9354,49 +9384,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -9518,6 +9518,26 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -9533,6 +9553,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -9544,33 +9573,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -9592,159 +9594,157 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="42" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="46" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="45" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="47" fillId="20" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="49" fillId="11" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="42" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="46" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="42" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="46" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="45" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="42" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="42" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="46" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="49" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="42" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="43" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="48" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="24" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="46" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="46" fillId="22" borderId="15" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="51" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="52" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="43" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="53" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="54" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="54" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="55" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="55" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="56" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="57" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="57" fillId="33" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="43" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="59" fillId="33" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="45" fillId="12" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="43" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="52" fillId="10" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="47" fillId="10" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="56" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="40" fillId="6" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="58" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="45" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="50" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="43" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="44" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="51" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="58" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="59" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="43" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="45" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="45" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="45" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="45" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="43" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="43" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="45" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="45" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="43" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="45" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="43" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="43" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="45" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="43" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -10485,8 +10485,8 @@
   <sheetPr/>
   <dimension ref="A1:X200"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="93" zoomScaleNormal="93" topLeftCell="A167" workbookViewId="0">
-      <selection activeCell="F201" sqref="F201"/>
+    <sheetView tabSelected="1" zoomScale="93" zoomScaleNormal="93" topLeftCell="F167" workbookViewId="0">
+      <selection activeCell="L202" sqref="L202"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25"/>
@@ -19486,6 +19486,9 @@
       </c>
       <c r="L199" t="s">
         <v>87</v>
+      </c>
+      <c r="M199">
+        <v>80</v>
       </c>
       <c r="N199">
         <v>1</v>

--- a/src/main/resources/script/db/init-data/devops_service/hzero_platform/hzero-menu-user-role-label.xlsx
+++ b/src/main/resources/script/db/init-data/devops_service/hzero_platform/hzero-menu-user-role-label.xlsx
@@ -8779,8 +8779,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
@@ -9035,7 +9035,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -9049,15 +9049,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -9085,9 +9077,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -9098,13 +9090,6 @@
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -9149,21 +9134,6 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
@@ -9172,7 +9142,37 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -9261,115 +9261,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -9387,7 +9285,91 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -9399,7 +9381,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -9411,31 +9423,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -9581,15 +9581,6 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="medium">
         <color theme="4"/>
       </bottom>
@@ -9601,6 +9592,21 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -9620,17 +9626,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -9651,10 +9651,10 @@
     <xf numFmtId="42" fontId="42" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="43" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="7" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="41" fillId="6" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="42" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -9663,133 +9663,133 @@
     <xf numFmtId="41" fontId="42" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="43" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="46" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="45" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="42" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="45" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="44" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="42" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="47" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="42" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="42" fillId="24" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="44" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="17" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="49" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="51" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="52" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="53" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="54" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="44" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="55" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="45" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="44" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="49" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="55" fillId="29" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="45" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="56" fillId="29" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="56" fillId="21" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="54" fillId="28" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="48" fillId="21" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="43" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="58" fillId="31" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="44" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="57" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="45" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="58" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="59" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="59" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="60" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="57" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="43" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="60" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="44" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="43" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="45" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="43" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="43" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="43" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="44" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="44" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="45" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="43" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="45" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="43" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="44" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="43" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="45" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="44" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="44" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="45" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="43" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="45" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="44" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -10531,8 +10531,8 @@
   <sheetPr/>
   <dimension ref="A1:X202"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="93" zoomScaleNormal="93" topLeftCell="A170" workbookViewId="0">
-      <selection activeCell="O199" sqref="O199"/>
+    <sheetView tabSelected="1" zoomScale="93" zoomScaleNormal="93" topLeftCell="E171" workbookViewId="0">
+      <selection activeCell="K198" sqref="K198"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25"/>
@@ -19479,8 +19479,8 @@
         <v>78</v>
       </c>
       <c r="K198" t="str">
-        <f>E15</f>
-        <v>iam_menu-15</v>
+        <f>E8</f>
+        <v>iam_menu-8</v>
       </c>
       <c r="L198" t="s">
         <v>102</v>

--- a/src/main/resources/script/db/init-data/devops_service/hzero_platform/hzero-menu-user-role-label.xlsx
+++ b/src/main/resources/script/db/init-data/devops_service/hzero_platform/hzero-menu-user-role-label.xlsx
@@ -8779,9 +8779,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="68">
@@ -9035,9 +9035,17 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -9049,6 +9057,14 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
@@ -9056,7 +9072,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -9117,14 +9133,6 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="13"/>
       <color theme="3"/>
       <name val="等线"/>
@@ -9134,15 +9142,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -9156,23 +9163,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -9261,7 +9261,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -9273,7 +9279,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -9285,7 +9327,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -9297,31 +9375,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -9333,115 +9435,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -9548,6 +9548,26 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -9582,16 +9602,22 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -9611,21 +9637,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -9634,66 +9645,49 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="42" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="43" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="41" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="6" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="46" fillId="14" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="42" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="43" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="42" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="43" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="41" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="45" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="47" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="42" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="43" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="44" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="42" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="24" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="44" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="48" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="9" fontId="43" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="49" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="20" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="50" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -9702,94 +9696,100 @@
     <xf numFmtId="0" fontId="51" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="52" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignmen